--- a/data/ENI.MI.xlsx
+++ b/data/ENI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="1934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="1935">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,280 +38,280 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95015954971313</t>
+    <t xml:space="preserve">7.95016002655029</t>
   </si>
   <si>
     <t xml:space="preserve">ENI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02119541168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79624605178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73705196380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51802062988281</t>
+    <t xml:space="preserve">8.02119636535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79624700546265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73705053329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51802158355713</t>
   </si>
   <si>
     <t xml:space="preserve">7.48842144012451</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5061821937561</t>
+    <t xml:space="preserve">7.50618171691895</t>
   </si>
   <si>
     <t xml:space="preserve">7.59497833251953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70153284072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42922735214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34634876251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44698476791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19835805892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67785263061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58313798904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74297046661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77848768234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86136293411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40554714202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37594747543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5417013168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41738605499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15100049972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86685562133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88461256027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47023344039917</t>
+    <t xml:space="preserve">7.7015323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42922687530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34634971618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4469838142395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19835758209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67785358428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58313846588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74296998977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.778489112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86136388778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40554666519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37594795227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54169893264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41738557815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15100002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86685419082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88461351394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47023439407349</t>
   </si>
   <si>
     <t xml:space="preserve">6.90237188339233</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06812238693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01484727859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23979473114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08588218688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05628490447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31083297729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97340774536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1569185256958</t>
+    <t xml:space="preserve">7.06812286376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01484680175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23979377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08588314056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05628347396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31083106994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97340869903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15692043304443</t>
   </si>
   <si>
     <t xml:space="preserve">7.52394104003906</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66601371765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90280246734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96199750900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06855487823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01527786254883</t>
+    <t xml:space="preserve">7.66601324081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90280055999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96199798583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06855297088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01527690887451</t>
   </si>
   <si>
     <t xml:space="preserve">8.0448751449585</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84360408782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93240070343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66009330749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88504266738892</t>
+    <t xml:space="preserve">7.84360456466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9323992729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66009378433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88504362106323</t>
   </si>
   <si>
     <t xml:space="preserve">7.92648220062256</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81400585174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91464328765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05671501159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12775039672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16918849945068</t>
+    <t xml:space="preserve">7.81400632858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91463899612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05671405792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1277494430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16918754577637</t>
   </si>
   <si>
     <t xml:space="preserve">7.9738392829895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78440713882446</t>
+    <t xml:space="preserve">7.78440761566162</t>
   </si>
   <si>
     <t xml:space="preserve">8.00343704223633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87320184707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57129812240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55354070663452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36410760879517</t>
+    <t xml:space="preserve">7.87320375442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57129764556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55353879928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36410903930664</t>
   </si>
   <si>
     <t xml:space="preserve">7.44106483459473</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29307317733765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6068172454834</t>
+    <t xml:space="preserve">7.29307222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60681676864624</t>
   </si>
   <si>
     <t xml:space="preserve">7.63049650192261</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67193222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97975826263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12183094024658</t>
+    <t xml:space="preserve">7.67193365097046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97975730895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1218318939209</t>
   </si>
   <si>
     <t xml:space="preserve">7.99159717559814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0922327041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22246646881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32902050018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37637805938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33493995666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37045860290527</t>
+    <t xml:space="preserve">8.09223365783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2224645614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32902336120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37637710571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33494091033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37045955657959</t>
   </si>
   <si>
     <t xml:space="preserve">8.44741344451904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52437019348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40597534179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25798416137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08631324768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92055988311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.033034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10407257080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80808591842651</t>
+    <t xml:space="preserve">8.52436923980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40597629547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25798511505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08631229400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92056274414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03303527832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10407161712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80808544158936</t>
   </si>
   <si>
     <t xml:space="preserve">7.90189027786255</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14596462249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42665100097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46936321258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43885231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5059757232666</t>
+    <t xml:space="preserve">8.14596271514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42665004730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46936225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4388542175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50597476959229</t>
   </si>
   <si>
     <t xml:space="preserve">8.37783432006836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26190185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25579929351807</t>
+    <t xml:space="preserve">8.26189994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25579833984375</t>
   </si>
   <si>
     <t xml:space="preserve">8.18867874145508</t>
@@ -320,10 +320,10 @@
     <t xml:space="preserve">8.40224170684814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59750175476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62191009521484</t>
+    <t xml:space="preserve">8.59750080108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62190914154053</t>
   </si>
   <si>
     <t xml:space="preserve">8.57919597625732</t>
@@ -332,55 +332,55 @@
     <t xml:space="preserve">8.20698261260986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0544376373291</t>
+    <t xml:space="preserve">8.05443859100342</t>
   </si>
   <si>
     <t xml:space="preserve">8.15816783905029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07274055480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39003753662109</t>
+    <t xml:space="preserve">8.0727424621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39003944396973</t>
   </si>
   <si>
     <t xml:space="preserve">8.64021301269531</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75004768371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61580562591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89649295806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07884693145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33512306213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72563934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8598804473877</t>
+    <t xml:space="preserve">8.7500467300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61580657958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89649200439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07884502410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33512210845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72564125061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85987949371338</t>
   </si>
   <si>
     <t xml:space="preserve">9.04293441772461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79276275634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62801074981689</t>
+    <t xml:space="preserve">8.79275989532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62801170349121</t>
   </si>
   <si>
     <t xml:space="preserve">8.67682456970215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84767723083496</t>
+    <t xml:space="preserve">8.84767913818359</t>
   </si>
   <si>
     <t xml:space="preserve">8.95140933990479</t>
@@ -389,19 +389,19 @@
     <t xml:space="preserve">9.03683471679688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92700099945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09175205230713</t>
+    <t xml:space="preserve">8.92700004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09175109863281</t>
   </si>
   <si>
     <t xml:space="preserve">8.98191738128662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88428974151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85377979278564</t>
+    <t xml:space="preserve">8.88428783416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85377883911133</t>
   </si>
   <si>
     <t xml:space="preserve">8.76835346221924</t>
@@ -410,10 +410,10 @@
     <t xml:space="preserve">8.71953773498535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68292713165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56089019775391</t>
+    <t xml:space="preserve">8.68292808532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56089115142822</t>
   </si>
   <si>
     <t xml:space="preserve">8.56699275970459</t>
@@ -425,28 +425,28 @@
     <t xml:space="preserve">8.34732627868652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18257522583008</t>
+    <t xml:space="preserve">8.18257713317871</t>
   </si>
   <si>
     <t xml:space="preserve">8.0117244720459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06663990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08494472503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28020477294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26800155639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24359512329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35953044891357</t>
+    <t xml:space="preserve">8.06664180755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08494663238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28020668029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2680025100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2435941696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35952949523926</t>
   </si>
   <si>
     <t xml:space="preserve">8.38393592834473</t>
@@ -455,67 +455,67 @@
     <t xml:space="preserve">8.21918773651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2008810043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31071376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30461311340332</t>
+    <t xml:space="preserve">8.20088291168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.310715675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30461120605469</t>
   </si>
   <si>
     <t xml:space="preserve">8.37173366546631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27410507202148</t>
+    <t xml:space="preserve">8.2741060256958</t>
   </si>
   <si>
     <t xml:space="preserve">7.99952077865601</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02392673492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06053924560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87748336791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99712657928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85229587554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96564054489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93415784835815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7893271446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154399871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7767333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13565921783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07268905639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1167688369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16714382171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35605239868164</t>
+    <t xml:space="preserve">8.02392864227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06053829193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87748575210571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99712562561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85229444503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96564102172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93415641784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78932619094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154495239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77673244476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13565826416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0726900100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11676597595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16714286804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35605144500732</t>
   </si>
   <si>
     <t xml:space="preserve">8.36864566802979</t>
@@ -533,37 +533,37 @@
     <t xml:space="preserve">8.28678417205811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45050811767578</t>
+    <t xml:space="preserve">8.45050621032715</t>
   </si>
   <si>
     <t xml:space="preserve">8.38123989105225</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53236770629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5575532913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64570999145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67090034484863</t>
+    <t xml:space="preserve">8.53236484527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55755424499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64571285247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6708984375</t>
   </si>
   <si>
     <t xml:space="preserve">8.61422729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52607154846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65830516815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50718021392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31826972961426</t>
+    <t xml:space="preserve">8.5260705947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65830421447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50717830657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31827163696289</t>
   </si>
   <si>
     <t xml:space="preserve">8.18603420257568</t>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">8.0034236907959</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92786121368408</t>
+    <t xml:space="preserve">7.92785882949829</t>
   </si>
   <si>
     <t xml:space="preserve">8.04120540618896</t>
@@ -584,88 +584,88 @@
     <t xml:space="preserve">8.09158039093018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06009387969971</t>
+    <t xml:space="preserve">8.06009674072266</t>
   </si>
   <si>
     <t xml:space="preserve">8.0286111831665</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90267086029053</t>
+    <t xml:space="preserve">7.902672290802</t>
   </si>
   <si>
     <t xml:space="preserve">7.72005939483643</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87118530273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82081174850464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7956223487854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91526508331299</t>
+    <t xml:space="preserve">7.87118673324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8208122253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79562377929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91526460647583</t>
   </si>
   <si>
     <t xml:space="preserve">7.92156171798706</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97193765640259</t>
+    <t xml:space="preserve">7.97193717956543</t>
   </si>
   <si>
     <t xml:space="preserve">8.27419185638428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57014751434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62052440643311</t>
+    <t xml:space="preserve">8.57014846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62052249908447</t>
   </si>
   <si>
     <t xml:space="preserve">8.79054069519043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87870025634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96055793762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97315406799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30689144134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40134620666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3698616027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42653369903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47690963745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42023658752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53987884521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55247211456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65952110290527</t>
+    <t xml:space="preserve">8.87869930267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96055889129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97315311431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30688953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40134716033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36985874176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42653465270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47690773010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42023849487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53987789154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55247116088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65952205657959</t>
   </si>
   <si>
     <t xml:space="preserve">9.64062976837158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72248935699463</t>
+    <t xml:space="preserve">9.722487449646</t>
   </si>
   <si>
     <t xml:space="preserve">9.74138164520264</t>
@@ -674,16 +674,16 @@
     <t xml:space="preserve">9.84842872619629</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84213352203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87991428375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89880561828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69100666046143</t>
+    <t xml:space="preserve">9.84213161468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87991142272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8988037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69100570678711</t>
   </si>
   <si>
     <t xml:space="preserve">9.79175567626953</t>
@@ -692,34 +692,34 @@
     <t xml:space="preserve">9.78545951843262</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73508453369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86732006072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69730091094971</t>
+    <t xml:space="preserve">9.73508358001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8673210144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69730186462402</t>
   </si>
   <si>
     <t xml:space="preserve">9.80434989929199</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76657009124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66581726074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41393852233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30059337615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06130981445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94796562194824</t>
+    <t xml:space="preserve">9.76656913757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6658182144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4139404296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30059432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06131076812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94796466827393</t>
   </si>
   <si>
     <t xml:space="preserve">8.89758968353271</t>
@@ -728,13 +728,13 @@
     <t xml:space="preserve">8.91648006439209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14946556091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9416675567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90388679504395</t>
+    <t xml:space="preserve">9.14946746826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94166660308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90388584136963</t>
   </si>
   <si>
     <t xml:space="preserve">9.04241943359375</t>
@@ -746,40 +746,40 @@
     <t xml:space="preserve">9.15576553344727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05501365661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89129161834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18095207214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07390308380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00463676452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14316940307617</t>
+    <t xml:space="preserve">9.05501461029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89129257202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18095302581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0739049911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00463771820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14317035675049</t>
   </si>
   <si>
     <t xml:space="preserve">9.44542407989502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45172119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61544132232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50209712982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31948661804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25651454925537</t>
+    <t xml:space="preserve">9.45172309875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61544227600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50209522247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31948471069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25651741027832</t>
   </si>
   <si>
     <t xml:space="preserve">9.21243667602539</t>
@@ -791,91 +791,91 @@
     <t xml:space="preserve">9.11168575286865</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23762226104736</t>
+    <t xml:space="preserve">9.23762512207031</t>
   </si>
   <si>
     <t xml:space="preserve">9.39504814147949</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35097026824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37615966796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46431541442871</t>
+    <t xml:space="preserve">9.35097217559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37615776062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46431636810303</t>
   </si>
   <si>
     <t xml:space="preserve">9.43912696838379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52098751068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64692687988281</t>
+    <t xml:space="preserve">9.5209903717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6469259262085</t>
   </si>
   <si>
     <t xml:space="preserve">9.59025478363037</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58395671844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59654998779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24392127990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25021743774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41513633728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37628078460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27267646789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24030208587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25972747802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22087383270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21439933776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44751167297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54464149475098</t>
+    <t xml:space="preserve">9.58395576477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59655284881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24392223358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25021839141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41513442993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37628173828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27267742156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24030113220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25972652435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22087478637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21439838409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44751071929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54464054107666</t>
   </si>
   <si>
     <t xml:space="preserve">9.59644412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64824390411377</t>
+    <t xml:space="preserve">9.6482458114624</t>
   </si>
   <si>
     <t xml:space="preserve">9.64177131652832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7130012512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74537467956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62234592437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73890113830566</t>
+    <t xml:space="preserve">9.71300029754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74537658691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62234687805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73890209197998</t>
   </si>
   <si>
     <t xml:space="preserve">9.72595119476318</t>
@@ -884,130 +884,130 @@
     <t xml:space="preserve">9.70652484893799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66767311096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48636150360107</t>
+    <t xml:space="preserve">9.66767406463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48636341094971</t>
   </si>
   <si>
     <t xml:space="preserve">9.26620197296143</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24677753448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12374401092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23382568359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09784412384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03956604003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11079502105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92948436737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99423789978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00071144104004</t>
+    <t xml:space="preserve">9.24677562713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12374496459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23382472991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09784317016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03956508636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11079406738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92948341369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99423885345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00071239471436</t>
   </si>
   <si>
     <t xml:space="preserve">9.06546592712402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96833610534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91653537750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00718879699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82587718963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87120723724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84530448913574</t>
+    <t xml:space="preserve">8.968337059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91653251647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00718688964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82587909698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87120532989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84530544281006</t>
   </si>
   <si>
     <t xml:space="preserve">8.79350185394287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8064546585083</t>
+    <t xml:space="preserve">8.80645370483398</t>
   </si>
   <si>
     <t xml:space="preserve">8.7546501159668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78055095672607</t>
+    <t xml:space="preserve">8.78055381774902</t>
   </si>
   <si>
     <t xml:space="preserve">8.61219310760498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5215368270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62514305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65104389190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52801418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47620964050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3920316696167</t>
+    <t xml:space="preserve">8.52153778076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62514400482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65104484558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52801322937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47621059417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39203262329102</t>
   </si>
   <si>
     <t xml:space="preserve">8.41793346405029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39850521087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54096412658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55391597747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57334136962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50858688354492</t>
+    <t xml:space="preserve">8.3985071182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54096508026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55391502380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57333850860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50858783721924</t>
   </si>
   <si>
     <t xml:space="preserve">8.50211238861084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.515061378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44383525848389</t>
+    <t xml:space="preserve">8.51506328582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44383335113525</t>
   </si>
   <si>
     <t xml:space="preserve">8.45678520202637</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5862922668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56039142608643</t>
+    <t xml:space="preserve">8.58629131317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56039237976074</t>
   </si>
   <si>
     <t xml:space="preserve">8.65752029418945</t>
@@ -1022,19 +1022,19 @@
     <t xml:space="preserve">8.74170112609863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77407550811768</t>
+    <t xml:space="preserve">8.77407455444336</t>
   </si>
   <si>
     <t xml:space="preserve">8.78702735900879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76760101318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73522472381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64456748962402</t>
+    <t xml:space="preserve">8.76760196685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73522186279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64456844329834</t>
   </si>
   <si>
     <t xml:space="preserve">8.68342208862305</t>
@@ -1046,79 +1046,79 @@
     <t xml:space="preserve">8.48916244506836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61866664886475</t>
+    <t xml:space="preserve">8.61866760253906</t>
   </si>
   <si>
     <t xml:space="preserve">8.63161754608154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67047309875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72874736785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71579837799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74817657470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83235454559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9424352645874</t>
+    <t xml:space="preserve">8.67047214508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72874927520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71579933166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74817562103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83235359191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94243717193604</t>
   </si>
   <si>
     <t xml:space="preserve">8.9757776260376</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02245712280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09581089019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16249561309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18916893005371</t>
+    <t xml:space="preserve">9.02245616912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09580993652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16249370574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18916797637939</t>
   </si>
   <si>
     <t xml:space="preserve">9.29586505889893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32920551300049</t>
+    <t xml:space="preserve">9.32920742034912</t>
   </si>
   <si>
     <t xml:space="preserve">9.28919696807861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30253314971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33587551116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31587219238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38255596160889</t>
+    <t xml:space="preserve">9.30253410339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33587455749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31586933135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38255500793457</t>
   </si>
   <si>
     <t xml:space="preserve">9.26919078826904</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35588073730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23584842681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28252601623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24251651763916</t>
+    <t xml:space="preserve">9.355881690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23584747314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28252696990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24251556396484</t>
   </si>
   <si>
     <t xml:space="preserve">9.26252174377441</t>
@@ -1127,58 +1127,58 @@
     <t xml:space="preserve">9.2558536529541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18250274658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22251129150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20250511169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2291784286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36254787445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48258209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53592967987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58927631378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6693000793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81600666046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74932098388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6759672164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60928249359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54259872436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42923545837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1558256149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17582988739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24918746948242</t>
+    <t xml:space="preserve">9.18249988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22251224517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20250701904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22917938232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36254978179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48258304595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53592872619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58927917480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66929817199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81600475311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74932289123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67596817016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60928344726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54259967803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42923450469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15582752227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17583179473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24918651580811</t>
   </si>
   <si>
     <t xml:space="preserve">9.27585792541504</t>
@@ -1187,46 +1187,46 @@
     <t xml:space="preserve">9.21584320068359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12915229797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20917510986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34921360015869</t>
+    <t xml:space="preserve">9.12915134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2091760635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34921264648438</t>
   </si>
   <si>
     <t xml:space="preserve">9.37588596343994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32253837585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30920219421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50258731842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62262153625488</t>
+    <t xml:space="preserve">9.32253932952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30920124053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50258827209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62262058258057</t>
   </si>
   <si>
     <t xml:space="preserve">9.68263721466064</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8026704788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94937515258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94270706176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90936470031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96937942504883</t>
+    <t xml:space="preserve">9.80266952514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94937610626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94270801544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90936660766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96938133239746</t>
   </si>
   <si>
     <t xml:space="preserve">9.88935947418213</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">9.96271324157715</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97605037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95604515075684</t>
+    <t xml:space="preserve">9.97605133056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95604419708252</t>
   </si>
   <si>
     <t xml:space="preserve">9.86268424987793</t>
@@ -1247,16 +1247,16 @@
     <t xml:space="preserve">9.69864082336426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6599645614624</t>
+    <t xml:space="preserve">9.65996360778809</t>
   </si>
   <si>
     <t xml:space="preserve">9.72931480407715</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56793880462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43857097625732</t>
+    <t xml:space="preserve">9.56793594360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43857002258301</t>
   </si>
   <si>
     <t xml:space="preserve">9.17183017730713</t>
@@ -1265,166 +1265,166 @@
     <t xml:space="preserve">9.11714935302734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93443202972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99044704437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90375995635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96110820770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00512027740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09047412872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14115715026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14382362365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12248420715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19583797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2438497543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14515686035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05046367645264</t>
+    <t xml:space="preserve">8.93443489074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99044799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90375804901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96110725402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00511837005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09047508239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14115428924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14382266998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.122483253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19583606719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24385070800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14515590667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05046463012695</t>
   </si>
   <si>
     <t xml:space="preserve">8.92109680175781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.889084815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01178741455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05713272094727</t>
+    <t xml:space="preserve">8.88908576965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0117883682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05713367462158</t>
   </si>
   <si>
     <t xml:space="preserve">9.06380081176758</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14782524108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21851062774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40256023406982</t>
+    <t xml:space="preserve">9.14782428741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21850967407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40256214141846</t>
   </si>
   <si>
     <t xml:space="preserve">9.29453086853027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42256546020508</t>
+    <t xml:space="preserve">9.42256641387939</t>
   </si>
   <si>
     <t xml:space="preserve">9.4959192276001</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44924163818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40789413452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37455177307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46924591064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44390487670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52792739868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62395477294922</t>
+    <t xml:space="preserve">9.44923973083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4078950881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37455272674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46924304962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4439058303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52792835235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6239538192749</t>
   </si>
   <si>
     <t xml:space="preserve">9.70664310455322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91069984436035</t>
+    <t xml:space="preserve">9.91069889068604</t>
   </si>
   <si>
     <t xml:space="preserve">9.9280366897583</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99471950531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0920810699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1547660827637</t>
+    <t xml:space="preserve">9.99472141265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0920820236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.154764175415</t>
   </si>
   <si>
     <t xml:space="preserve">10.2227840423584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2908010482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3014726638794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4561824798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5335359573364</t>
+    <t xml:space="preserve">10.2908020019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3014717102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4561805725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5335350036621</t>
   </si>
   <si>
     <t xml:space="preserve">10.6695728302002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6375637054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7282543182373</t>
+    <t xml:space="preserve">10.6375617980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.728253364563</t>
   </si>
   <si>
     <t xml:space="preserve">10.6882438659668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.569543838501</t>
+    <t xml:space="preserve">10.5695457458496</t>
   </si>
   <si>
     <t xml:space="preserve">10.7829360961914</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7749357223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8029432296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8842964172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7549304962158</t>
+    <t xml:space="preserve">10.7749338150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.802942276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.884298324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7549276351929</t>
   </si>
   <si>
     <t xml:space="preserve">10.9029693603516</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1123609542847</t>
+    <t xml:space="preserve">11.1123580932617</t>
   </si>
   <si>
     <t xml:space="preserve">10.8269491195679</t>
@@ -1433,103 +1433,103 @@
     <t xml:space="preserve">11.1270313262939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9416475296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.962986946106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1203622817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1790456771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0283365249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0710124969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0376710891724</t>
+    <t xml:space="preserve">10.9416484832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9629850387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1203603744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1790428161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0283355712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0710134506226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0376720428467</t>
   </si>
   <si>
     <t xml:space="preserve">10.9502029418945</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0035037994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8818635940552</t>
+    <t xml:space="preserve">11.0035047531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8818645477295</t>
   </si>
   <si>
     <t xml:space="preserve">10.78209400177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5142164230347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.301007270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3146743774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5852851867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7506608963013</t>
+    <t xml:space="preserve">10.514217376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3010082244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.31467628479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5852842330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.750659942627</t>
   </si>
   <si>
     <t xml:space="preserve">10.6508893966675</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5593194961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5579538345337</t>
+    <t xml:space="preserve">10.5593175888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5579519271851</t>
   </si>
   <si>
     <t xml:space="preserve">10.6809558868408</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4035120010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7069253921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6003217697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8066968917847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6139879226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6194553375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5470161437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3611440658569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6850576400757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4431457519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5456504821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8367643356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8722982406616</t>
+    <t xml:space="preserve">10.4035110473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7069244384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6003198623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.806697845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6139869689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6194534301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5470190048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.361141204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6850557327271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4431467056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5456514358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8367652893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8723001480103</t>
   </si>
   <si>
     <t xml:space="preserve">10.8695650100708</t>
@@ -1538,37 +1538,37 @@
     <t xml:space="preserve">10.7793617248535</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0404052734375</t>
+    <t xml:space="preserve">11.0404062271118</t>
   </si>
   <si>
     <t xml:space="preserve">11.0335712432861</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0814085006714</t>
+    <t xml:space="preserve">11.0814065933228</t>
   </si>
   <si>
     <t xml:space="preserve">11.0568084716797</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1497440338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2959842681885</t>
+    <t xml:space="preserve">11.1497430801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2959833145142</t>
   </si>
   <si>
     <t xml:space="preserve">11.1060104370117</t>
   </si>
   <si>
-    <t xml:space="preserve">11.111475944519</t>
+    <t xml:space="preserve">11.1114768981934</t>
   </si>
   <si>
     <t xml:space="preserve">11.1251430511475</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9707059860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0281038284302</t>
+    <t xml:space="preserve">10.9707040786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0281047821045</t>
   </si>
   <si>
     <t xml:space="preserve">11.0267391204834</t>
@@ -1577,490 +1577,490 @@
     <t xml:space="preserve">10.9884700775146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9925699234009</t>
+    <t xml:space="preserve">10.9925689697266</t>
   </si>
   <si>
     <t xml:space="preserve">11.0226373672485</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0964431762695</t>
+    <t xml:space="preserve">11.0964422225952</t>
   </si>
   <si>
     <t xml:space="preserve">11.0896072387695</t>
   </si>
   <si>
+    <t xml:space="preserve">11.1456422805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0704736709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1292419433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2508821487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1675109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0732078552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1333436965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3506507873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2754821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1975793838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9037342071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9050998687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0117044448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.873664855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8135299682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9420003890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0527067184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1524772644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0937061309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2071466445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2290134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2098798751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9201326370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9912033081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0185384750366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9064674377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8148965835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7465600967407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8312978744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8517980575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9461030960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9256010055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9242343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240049362183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1647777557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3322229385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6071815490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6408491134644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5959587097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4206018447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4472551345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4626874923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4865369796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4177951812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4107809066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1147813796997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4065742492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308191299438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0193862915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9562587738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0558614730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.104962348938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9310064315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7261915206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7949314117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6434230804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4863033294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3263788223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5031385421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6153650283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7752923965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7921266555786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0165815353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8201818466187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7738876342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8384189605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7584571838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9660787582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9239921569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8412256240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8636713027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.625186920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4694700241089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5045404434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4512319564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3249778747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1369943618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2604475021362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0415983200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86203670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0275726318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95602703094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92797183990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97145843505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9925012588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1790809631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1103391647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.023365020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70351409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89991188049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77786254882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86624431610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98548698425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0037250518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92376136779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79189205169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68948554992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78487968444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69790172576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66142845153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4832649230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64319133758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66563606262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70772171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0584335327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97005462646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90832901000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99951267242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98969554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9391918182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90412044525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99530601501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0163497924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97286224365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2464160919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2029275894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1538286209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.111743927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2211647033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1229667663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1860942840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2716674804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3852987289429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3614511489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3712711334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4792890548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4231767654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1945114135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1818857192993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2758779525757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.350227355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.420371055603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3670616149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6055469512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6448268890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6602573394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6981344223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7107610702515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7233858108521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6700773239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6686754226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6770906448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6378116607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5480308532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5985317230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6504383087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7177743911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4989309310913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6069498062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6364088058472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9029502868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8987407684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9338130950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0432357788086</t>
+  </si>
+  <si>
     <t xml:space="preserve">11.1456432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0704746246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.129243850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2508811950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1675100326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0732088088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1333446502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3506536483765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2754831314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1975784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.903733253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9050998687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0117053985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.87366771698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8135299682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9420013427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0527057647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.15247631073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0937080383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.207145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2290124893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2098779678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9201335906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9912033081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0185394287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9064674377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8148956298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.746561050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8312969207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8517971038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.946102142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9256000518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9242343902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240058898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1647777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3322229385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6071805953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.640851020813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5959577560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4206008911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4472560882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4626865386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4865350723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4177951812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4107837677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1147813796997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4065742492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308191299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0193872451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9562587738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0558614730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1049613952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9310092926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7261905670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7949304580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.64342212677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4863033294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3263788223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.503137588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6153650283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7752914428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7921266555786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0165815353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.820182800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7738885879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8384199142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7584571838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9660778045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9239931106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8412246704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8636703491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.625186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4694690704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5045413970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4512329101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3249759674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1369962692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2604446411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0416011810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86203670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0275726318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95602607727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92796897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97145843505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99250316619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1790800094604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1103401184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0233640670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70351314544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89991283416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77786254882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86624431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98548698425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0037221908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92376136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79189491271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68948554992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78487777709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69790172576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66142845153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48326587677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64319133758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66563701629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70772266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0584354400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97005558013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9083309173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99951553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98969459533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93919372558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90412044525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99530601501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0163507461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97286128997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2464170455933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2029285430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1538276672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.111743927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2211647033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1229658126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1860933303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2716674804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3852996826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3614530563354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3712701797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4792900085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4231739044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1945104598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1818857192993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2758769989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.350227355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4203701019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3670606613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.605544090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6448249816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6602592468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6981334686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7107601165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7233858108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6700782775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6686744689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6770915985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6378126144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5480298995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5985317230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6504373550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7177724838257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4989309310913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6069498062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6364078521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9029502868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8987417221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9338150024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0432348251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1456441879272</t>
-  </si>
-  <si>
     <t xml:space="preserve">11.0656814575195</t>
   </si>
   <si>
     <t xml:space="preserve">11.1035575866699</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0123720169067</t>
+    <t xml:space="preserve">11.0123729705811</t>
   </si>
   <si>
     <t xml:space="preserve">10.9590644836426</t>
@@ -2072,37 +2072,37 @@
     <t xml:space="preserve">10.9352159500122</t>
   </si>
   <si>
-    <t xml:space="preserve">10.858057975769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0502510070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0755004882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.155463218689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0516510009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1161832809448</t>
+    <t xml:space="preserve">10.8580589294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0502500534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0754995346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1554641723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0516529083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1161823272705</t>
   </si>
   <si>
     <t xml:space="preserve">11.0923357009888</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1442413330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1807136535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1694898605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0937376022339</t>
+    <t xml:space="preserve">11.1442403793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1807165145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1694917678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0937395095825</t>
   </si>
   <si>
     <t xml:space="preserve">10.9913301467896</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">10.824390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">11.081111907959</t>
+    <t xml:space="preserve">11.0811128616333</t>
   </si>
   <si>
     <t xml:space="preserve">10.9071598052979</t>
@@ -2123,184 +2123,184 @@
     <t xml:space="preserve">10.876296043396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7612619400024</t>
+    <t xml:space="preserve">10.7612628936768</t>
   </si>
   <si>
     <t xml:space="preserve">10.5901136398315</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6742877960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5452251434326</t>
+    <t xml:space="preserve">10.6742868423462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5452241897583</t>
   </si>
   <si>
     <t xml:space="preserve">10.583101272583</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4315919876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1636476516724</t>
+    <t xml:space="preserve">10.4315929412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1636486053467</t>
   </si>
   <si>
     <t xml:space="preserve">10.1566343307495</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0472116470337</t>
+    <t xml:space="preserve">10.0472145080566</t>
   </si>
   <si>
     <t xml:space="preserve">10.0065288543701</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1159524917603</t>
+    <t xml:space="preserve">10.1159515380859</t>
   </si>
   <si>
     <t xml:space="preserve">10.2436113357544</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1832885742188</t>
+    <t xml:space="preserve">10.1832857131958</t>
   </si>
   <si>
     <t xml:space="preserve">10.3460187911987</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4091472625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3990488052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4884967803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4004917144775</t>
+    <t xml:space="preserve">10.4091463088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3990497589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4884958267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4004907608032</t>
   </si>
   <si>
     <t xml:space="preserve">10.0412549972534</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1379165649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1494598388672</t>
+    <t xml:space="preserve">10.1379175186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1494588851929</t>
   </si>
   <si>
     <t xml:space="preserve">10.1177206039429</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90708446502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87678623199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79599571228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9691219329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1119470596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0037441253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0268268585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0701122283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0989656448364</t>
+    <t xml:space="preserve">9.90708541870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87678718566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79599475860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96912002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1119480133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0037450790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0268297195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0701084136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0989646911621</t>
   </si>
   <si>
     <t xml:space="preserve">10.1321458816528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0297145843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0585689544678</t>
+    <t xml:space="preserve">10.0297155380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0585699081421</t>
   </si>
   <si>
     <t xml:space="preserve">10.0051879882812</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2114953994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.259105682373</t>
+    <t xml:space="preserve">10.2114944458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2591047286987</t>
   </si>
   <si>
     <t xml:space="preserve">10.3572082519531</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5361051559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4755125045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4163589477539</t>
+    <t xml:space="preserve">10.5361061096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4755115509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4163618087769</t>
   </si>
   <si>
     <t xml:space="preserve">10.4654121398926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4351148605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5606327056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4581995010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.508692741394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5649585723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4957094192505</t>
+    <t xml:space="preserve">10.4351139068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5606307983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4582004547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5086936950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.564959526062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4957103729248</t>
   </si>
   <si>
     <t xml:space="preserve">10.5707302093506</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6082410812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6760473251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6948022842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.61256980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793876647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3976058959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3153715133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2576608657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3269128799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3802919387817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3514385223389</t>
+    <t xml:space="preserve">10.6082429885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6760482788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.694803237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6125688552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793867111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3976049423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3153705596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2576637268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3269109725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3802938461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3514394760132</t>
   </si>
   <si>
     <t xml:space="preserve">10.3427820205688</t>
@@ -2309,28 +2309,28 @@
     <t xml:space="preserve">10.2778606414795</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1667718887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2461214065552</t>
+    <t xml:space="preserve">10.1667709350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2461223602295</t>
   </si>
   <si>
     <t xml:space="preserve">10.1682147979736</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86813259124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72385883331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6546106338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51755332946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69067668914795</t>
+    <t xml:space="preserve">9.86813163757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7238597869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65460872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51755428314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6906795501709</t>
   </si>
   <si>
     <t xml:space="preserve">9.51611042022705</t>
@@ -2339,10 +2339,10 @@
     <t xml:space="preserve">9.50024032592773</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68057918548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45118713378906</t>
+    <t xml:space="preserve">9.68057823181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45118808746338</t>
   </si>
   <si>
     <t xml:space="preserve">9.40646457672119</t>
@@ -2351,10 +2351,10 @@
     <t xml:space="preserve">9.57526111602783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48148536682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63008594512939</t>
+    <t xml:space="preserve">9.48148632049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63008308410645</t>
   </si>
   <si>
     <t xml:space="preserve">9.6026725769043</t>
@@ -2363,37 +2363,37 @@
     <t xml:space="preserve">9.48004150390625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53486633300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59545803070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66615104675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82340717315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89121437072754</t>
+    <t xml:space="preserve">9.53486442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59545993804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66615009307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82340812683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89121341705322</t>
   </si>
   <si>
     <t xml:space="preserve">9.81186580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86091613769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93305397033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0426979064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1725435256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1523427963257</t>
+    <t xml:space="preserve">9.86091804504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9330530166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0427007675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1725444793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1523456573486</t>
   </si>
   <si>
     <t xml:space="preserve">10.1307039260864</t>
@@ -2405,34 +2405,34 @@
     <t xml:space="preserve">10.208610534668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3326835632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4971523284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5105323791504</t>
+    <t xml:space="preserve">10.3326854705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4971513748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5105314254761</t>
   </si>
   <si>
     <t xml:space="preserve">10.4034929275513</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3038883209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3574094772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4466066360474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4317388534546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3915977478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0764331817627</t>
+    <t xml:space="preserve">10.3038892745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3574085235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.446605682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4317398071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3916006088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.076434135437</t>
   </si>
   <si>
     <t xml:space="preserve">9.96642112731934</t>
@@ -2444,22 +2444,22 @@
     <t xml:space="preserve">10.1477937698364</t>
   </si>
   <si>
-    <t xml:space="preserve">10.060079574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1091403961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1700916290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2845640182495</t>
+    <t xml:space="preserve">10.0600805282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1091384887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1700897216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2845630645752</t>
   </si>
   <si>
     <t xml:space="preserve">10.2161779403687</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2860498428345</t>
+    <t xml:space="preserve">10.2860507965088</t>
   </si>
   <si>
     <t xml:space="preserve">10.2696962356567</t>
@@ -2468,136 +2468,136 @@
     <t xml:space="preserve">10.2429370880127</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3722734451294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4599857330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5090456008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4361991882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3603820800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2786159515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1819849014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0868396759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1864452362061</t>
+    <t xml:space="preserve">10.372275352478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4599876403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5090446472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4362001419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3603801727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2786178588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1819839477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0868406295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1864442825317</t>
   </si>
   <si>
     <t xml:space="preserve">10.3871421813965</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5536460876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5283718109131</t>
+    <t xml:space="preserve">10.5536432266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5283699035645</t>
   </si>
   <si>
     <t xml:space="preserve">10.5372905731201</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5476961135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5075578689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.595269203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5417528152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.569995880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4882316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3841686248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4153871536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.437686920166</t>
+    <t xml:space="preserve">10.5476970672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5075569152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5952701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5417518615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5699987411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4882307052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3841676712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4153881072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4376859664917</t>
   </si>
   <si>
     <t xml:space="preserve">10.4421453475952</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3559226989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3247032165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2578039169312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1938772201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0883274078369</t>
+    <t xml:space="preserve">10.3559198379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3247013092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2578029632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1938781738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0883255004883</t>
   </si>
   <si>
     <t xml:space="preserve">10.0199403762817</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1418447494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2355051040649</t>
+    <t xml:space="preserve">10.141845703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2355031967163</t>
   </si>
   <si>
     <t xml:space="preserve">10.1284656524658</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1582002639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1031923294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1463060379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1121110916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1269788742065</t>
+    <t xml:space="preserve">10.1581993103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1031932830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1463041305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1121139526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1269798278809</t>
   </si>
   <si>
     <t xml:space="preserve">10.1849565505981</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2711839675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2919950485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.418360710144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4064674377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4124135971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.485258102417</t>
+    <t xml:space="preserve">10.2711820602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2919940948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4183597564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4064664840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4124145507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4852590560913</t>
   </si>
   <si>
     <t xml:space="preserve">10.6413555145264</t>
@@ -2606,94 +2606,94 @@
     <t xml:space="preserve">10.6443290710449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.559591293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4807977676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3128089904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2563171386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3232154846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3440294265747</t>
+    <t xml:space="preserve">10.5595903396606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4807996749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3128080368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2563152313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3232164382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3440284729004</t>
   </si>
   <si>
     <t xml:space="preserve">10.3187551498413</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0779209136963</t>
+    <t xml:space="preserve">10.0779190063477</t>
   </si>
   <si>
     <t xml:space="preserve">10.0035886764526</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0125093460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80883979797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95898818969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87722396850586</t>
+    <t xml:space="preserve">10.0125064849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80883884429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95898914337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87722301483154</t>
   </si>
   <si>
     <t xml:space="preserve">9.60814189910889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40893363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37325286865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50556373596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6839599609375</t>
+    <t xml:space="preserve">9.40893268585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37325382232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50556468963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68396091461182</t>
   </si>
   <si>
     <t xml:space="preserve">9.64084911346436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59327697753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49961757659912</t>
+    <t xml:space="preserve">9.59327507019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49961853027344</t>
   </si>
   <si>
     <t xml:space="preserve">9.73748111724854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65422821044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5828685760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59624767303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61706161499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58881759643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4877233505249</t>
+    <t xml:space="preserve">9.6542272567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58286952972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59625148773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61706256866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58881568908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48772430419922</t>
   </si>
   <si>
     <t xml:space="preserve">9.04470634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9019889831543</t>
+    <t xml:space="preserve">8.90198993682861</t>
   </si>
   <si>
     <t xml:space="preserve">8.96740055084229</t>
@@ -2702,37 +2702,37 @@
     <t xml:space="preserve">8.73994636535645</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29395484924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26422214508057</t>
+    <t xml:space="preserve">8.29395580291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26422119140625</t>
   </si>
   <si>
     <t xml:space="preserve">8.26570796966553</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28949546813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15272521972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60712718963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02088451385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06919956207275</t>
+    <t xml:space="preserve">8.28949451446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15272331237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60712814331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02088403701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06920003890991</t>
   </si>
   <si>
     <t xml:space="preserve">5.98371887207031</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89996004104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13707828521729</t>
+    <t xml:space="preserve">4.89995956420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13707780838013</t>
   </si>
   <si>
     <t xml:space="preserve">4.82562780380249</t>
@@ -2747,64 +2747,64 @@
     <t xml:space="preserve">5.17721748352051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4210262298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41656684875488</t>
+    <t xml:space="preserve">5.42102670669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41656589508057</t>
   </si>
   <si>
     <t xml:space="preserve">6.22529745101929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48397159576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47505378723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10785293579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38734149932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85340213775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83853530883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31277370452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93145084381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92401647567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00801372528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90915107727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91881561279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81400632858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37916374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28401947021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38288068771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26915264129639</t>
+    <t xml:space="preserve">6.483971118927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47505235671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10785245895386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38734102249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85340261459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83853483200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31277322769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93145036697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92401742935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00801181793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90915060043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91881322860718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81400489807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37916469573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28402042388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38288164138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2691535949707</t>
   </si>
   <si>
     <t xml:space="preserve">5.91682004928589</t>
@@ -2822,28 +2822,28 @@
     <t xml:space="preserve">6.24685382843018</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45498371124268</t>
+    <t xml:space="preserve">6.45498275756836</t>
   </si>
   <si>
     <t xml:space="preserve">6.65790843963623</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47728252410889</t>
+    <t xml:space="preserve">6.47728157043457</t>
   </si>
   <si>
     <t xml:space="preserve">6.1033935546875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45721340179443</t>
+    <t xml:space="preserve">6.45721292495728</t>
   </si>
   <si>
     <t xml:space="preserve">6.26097583770752</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35983848571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4155855178833</t>
+    <t xml:space="preserve">6.35983753204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41558647155762</t>
   </si>
   <si>
     <t xml:space="preserve">6.33679485321045</t>
@@ -2852,172 +2852,172 @@
     <t xml:space="preserve">6.32861804962158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33307886123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77694129943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56323003768921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59845542907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43641090393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3988356590271</t>
+    <t xml:space="preserve">6.33307933807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77694177627563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56322956085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59845685958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43641185760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39883518218994</t>
   </si>
   <si>
     <t xml:space="preserve">6.46615982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47711849212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61489677429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64777421951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35891199111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52878570556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86618375778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04466867446899</t>
+    <t xml:space="preserve">6.47711896896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61489534378052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64777517318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35891151428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52878522872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86618518829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04466772079468</t>
   </si>
   <si>
     <t xml:space="preserve">7.01726961135864</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44156312942505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56524848937988</t>
+    <t xml:space="preserve">7.44156265258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56524896621704</t>
   </si>
   <si>
     <t xml:space="preserve">7.33979558944702</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22550249099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71744775772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72214365005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71666383743286</t>
+    <t xml:space="preserve">7.225501537323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71744728088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72214412689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71666479110718</t>
   </si>
   <si>
     <t xml:space="preserve">6.99456930160522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96403741836548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91628456115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9468150138855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89123582839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63211822509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63916301727295</t>
+    <t xml:space="preserve">6.96403837203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91628551483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94681596755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89123392105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6321177482605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63916397094727</t>
   </si>
   <si>
     <t xml:space="preserve">6.57340669631958</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75189065933228</t>
+    <t xml:space="preserve">6.75189113616943</t>
   </si>
   <si>
     <t xml:space="preserve">6.64620971679688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63446664810181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82626008987427</t>
+    <t xml:space="preserve">6.63446712493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82625961303711</t>
   </si>
   <si>
     <t xml:space="preserve">6.79024934768677</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85600662231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90454244613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80903816223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60237073898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77928972244263</t>
+    <t xml:space="preserve">6.85600805282593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90454292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80903768539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60237169265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77929067611694</t>
   </si>
   <si>
     <t xml:space="preserve">6.87557792663574</t>
   </si>
   <si>
-    <t xml:space="preserve">6.917067527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96325635910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8990626335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87401151657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98987102508545</t>
+    <t xml:space="preserve">6.91706848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96325540542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89906311035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87401247024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98987150192261</t>
   </si>
   <si>
     <t xml:space="preserve">6.81608295440674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73310327529907</t>
+    <t xml:space="preserve">6.73310375213623</t>
   </si>
   <si>
     <t xml:space="preserve">6.6696949005127</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62507390975952</t>
+    <t xml:space="preserve">6.62507295608521</t>
   </si>
   <si>
     <t xml:space="preserve">6.6360330581665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58358430862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12014865875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90330600738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89782524108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15224504470825</t>
+    <t xml:space="preserve">6.58358335494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12014961242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9033055305481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8978271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15224552154541</t>
   </si>
   <si>
     <t xml:space="preserve">6.33777523040771</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">6.21721982955933</t>
   </si>
   <si>
-    <t xml:space="preserve">6.110755443573</t>
+    <t xml:space="preserve">6.11075448989868</t>
   </si>
   <si>
     <t xml:space="preserve">6.25166416168213</t>
@@ -3041,43 +3041,43 @@
     <t xml:space="preserve">6.45441675186157</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40275049209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34090662002563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30489683151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36282587051392</t>
+    <t xml:space="preserve">6.40275001525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34090614318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30489587783813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3628249168396</t>
   </si>
   <si>
     <t xml:space="preserve">6.21174001693726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16320514678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41214323043823</t>
+    <t xml:space="preserve">6.16320466995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41214418411255</t>
   </si>
   <si>
     <t xml:space="preserve">6.32368421554565</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23287582397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10605764389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08727025985718</t>
+    <t xml:space="preserve">6.23287677764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10605812072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08727073669434</t>
   </si>
   <si>
     <t xml:space="preserve">6.00898790359497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02464389801025</t>
+    <t xml:space="preserve">6.0246434211731</t>
   </si>
   <si>
     <t xml:space="preserve">5.98471975326538</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">6.08492136001587</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88608360290527</t>
+    <t xml:space="preserve">5.88608407974243</t>
   </si>
   <si>
     <t xml:space="preserve">5.97141170501709</t>
@@ -3095,109 +3095,109 @@
     <t xml:space="preserve">5.96984624862671</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94870948791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85242176055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95888614654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98941707611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94479513168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78353309631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53048419952393</t>
+    <t xml:space="preserve">5.9487099647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85242223739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95888662338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.989417552948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94479608535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78353357315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53048372268677</t>
   </si>
   <si>
     <t xml:space="preserve">5.61483383178711</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5129771232605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42066955566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32279253005981</t>
+    <t xml:space="preserve">5.51297807693481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42067003250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32279205322266</t>
   </si>
   <si>
     <t xml:space="preserve">5.45886611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3036937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32199716567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14215707778931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17000770568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32358837127686</t>
+    <t xml:space="preserve">5.30369424819946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32199621200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14215612411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17000722885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3235878944397</t>
   </si>
   <si>
     <t xml:space="preserve">5.5050196647644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35541772842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47876071929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46045732498169</t>
+    <t xml:space="preserve">5.35541820526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47875928878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46045684814453</t>
   </si>
   <si>
     <t xml:space="preserve">5.42623949050903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32040500640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32995367050171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10714292526245</t>
+    <t xml:space="preserve">5.32040452957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32995414733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10714340209961</t>
   </si>
   <si>
     <t xml:space="preserve">5.22252750396729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24083089828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22173070907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04507398605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04587030410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12783241271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96947765350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85409307479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68300676345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70926666259766</t>
+    <t xml:space="preserve">5.24082946777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22173118591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04507493972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04586982727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12783193588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96947813034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85409355163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68300724029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70926713943481</t>
   </si>
   <si>
     <t xml:space="preserve">4.7832727432251</t>
@@ -3206,22 +3206,22 @@
     <t xml:space="preserve">5.06258153915405</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18353462219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24958276748657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24878740310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20581674575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87106657028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10979127883911</t>
+    <t xml:space="preserve">5.18353509902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24958324432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24878692626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2058162689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87106609344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10979270935059</t>
   </si>
   <si>
     <t xml:space="preserve">6.04135751724243</t>
@@ -3230,64 +3230,64 @@
     <t xml:space="preserve">6.06204652786255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09546852111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34055995941162</t>
+    <t xml:space="preserve">6.09546756744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3405613899231</t>
   </si>
   <si>
     <t xml:space="preserve">6.43445920944214</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52040100097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42729663848877</t>
+    <t xml:space="preserve">6.5204005241394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42729711532593</t>
   </si>
   <si>
     <t xml:space="preserve">6.46549367904663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62862205505371</t>
+    <t xml:space="preserve">6.62862300872803</t>
   </si>
   <si>
     <t xml:space="preserve">6.85939168930054</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90077114105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81005382537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82915210723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60713863372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6962628364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76310539245605</t>
+    <t xml:space="preserve">6.90077066421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81005477905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82915353775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60713768005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69626140594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7631049156189</t>
   </si>
   <si>
     <t xml:space="preserve">6.72570419311523</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95806503295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97636651992798</t>
+    <t xml:space="preserve">6.95806407928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97636747360229</t>
   </si>
   <si>
     <t xml:space="preserve">6.99466943740845</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03684520721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11084842681885</t>
+    <t xml:space="preserve">7.0368447303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11084938049316</t>
   </si>
   <si>
     <t xml:space="preserve">7.00899314880371</t>
@@ -3299,49 +3299,49 @@
     <t xml:space="preserve">6.96443033218384</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96761417388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9318060874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86018705368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56018829345703</t>
+    <t xml:space="preserve">6.96761274337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93180465698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86018657684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56018781661987</t>
   </si>
   <si>
     <t xml:space="preserve">6.65249538421631</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83074378967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84029293060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81323909759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80209684371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72252130508423</t>
+    <t xml:space="preserve">6.83074331283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84029340744019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8132381439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80209732055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72252178192139</t>
   </si>
   <si>
     <t xml:space="preserve">6.97159194946289</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19997501373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21588850021362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1856484413147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14427042007446</t>
+    <t xml:space="preserve">7.19997453689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21588897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18565034866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14427137374878</t>
   </si>
   <si>
     <t xml:space="preserve">7.20474720001221</t>
@@ -3350,109 +3350,109 @@
     <t xml:space="preserve">7.20952367782593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16575574874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02729558944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0471887588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0241117477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08299779891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89758777618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79732370376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64692354202271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78618192672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80130052566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6461296081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52517557144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61350393295288</t>
+    <t xml:space="preserve">7.1657567024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02729606628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04718971252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02411127090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08299684524536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89758682250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79732275009155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64692544937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78618240356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80130195617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64612913131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52517461776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61350345611572</t>
   </si>
   <si>
     <t xml:space="preserve">6.75514793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81960296630859</t>
+    <t xml:space="preserve">6.81960391998291</t>
   </si>
   <si>
     <t xml:space="preserve">6.85222911834717</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90793180465698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98273277282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03764009475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98432540893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06549167633057</t>
+    <t xml:space="preserve">6.90793228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98273229598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03763961791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98432397842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06549072265625</t>
   </si>
   <si>
     <t xml:space="preserve">7.25965547561646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2246413230896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29148530960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23896646499634</t>
+    <t xml:space="preserve">7.22464370727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29148578643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23896455764771</t>
   </si>
   <si>
     <t xml:space="preserve">7.31933641433716</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44506597518921</t>
+    <t xml:space="preserve">7.44506549835205</t>
   </si>
   <si>
     <t xml:space="preserve">7.49917554855347</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62092781066895</t>
+    <t xml:space="preserve">7.62092638015747</t>
   </si>
   <si>
     <t xml:space="preserve">7.70288991928101</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54533052444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60819339752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55328750610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68697357177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85885953903198</t>
+    <t xml:space="preserve">7.54532909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60819578170776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55328798294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68697452545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85885858535767</t>
   </si>
   <si>
     <t xml:space="preserve">8.00686740875244</t>
@@ -3461,121 +3461,121 @@
     <t xml:space="preserve">8.1007661819458</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06893634796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13259696960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19625759124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2901554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22331142425537</t>
+    <t xml:space="preserve">8.06893730163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13259601593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19625663757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29015445709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22331237792969</t>
   </si>
   <si>
     <t xml:space="preserve">8.14851093292236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22649574279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09599208831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07370948791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94161510467529</t>
+    <t xml:space="preserve">8.22649478912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09599304199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07371139526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94161605834961</t>
   </si>
   <si>
     <t xml:space="preserve">8.15328502655029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04665470123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14214706420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23445129394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28538131713867</t>
+    <t xml:space="preserve">8.04665660858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14214515686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23445320129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28538227081299</t>
   </si>
   <si>
     <t xml:space="preserve">8.35063171386719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41111087799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33471870422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32039356231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16442584991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1166820526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08644199371338</t>
+    <t xml:space="preserve">8.41110992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33471775054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32039451599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16442680358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11668109893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0864429473877</t>
   </si>
   <si>
     <t xml:space="preserve">8.13737106323242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34585762023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24718379974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23604393005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21535396575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01641654968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0768928527832</t>
+    <t xml:space="preserve">8.34585857391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24718475341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23604297637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21535587310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0164155960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07689189910889</t>
   </si>
   <si>
     <t xml:space="preserve">8.09121608734131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03869819641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07530307769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04506397247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11986351013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11827182769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90182876586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03710651397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20262241363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21694564819336</t>
+    <t xml:space="preserve">8.0386962890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07530212402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04506301879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11986637115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11827278137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90182733535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03710556030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20262336730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21694374084473</t>
   </si>
   <si>
     <t xml:space="preserve">8.21217155456543</t>
@@ -3584,13 +3584,13 @@
     <t xml:space="preserve">8.28219795227051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32198619842529</t>
+    <t xml:space="preserve">8.32198524475098</t>
   </si>
   <si>
     <t xml:space="preserve">8.19943904876709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29970455169678</t>
+    <t xml:space="preserve">8.29970550537109</t>
   </si>
   <si>
     <t xml:space="preserve">8.32675933837891</t>
@@ -3602,34 +3602,34 @@
     <t xml:space="preserve">8.11349773406982</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18352508544922</t>
+    <t xml:space="preserve">8.1835241317749</t>
   </si>
   <si>
     <t xml:space="preserve">8.2372989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13545513153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17211627960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22915172576904</t>
+    <t xml:space="preserve">8.13545322418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17211818695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22915267944336</t>
   </si>
   <si>
     <t xml:space="preserve">8.22426319122314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19330024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38721561431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44913768768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50617218017578</t>
+    <t xml:space="preserve">8.1933012008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38721656799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44913864135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5061731338501</t>
   </si>
   <si>
     <t xml:space="preserve">8.4572868347168</t>
@@ -3641,34 +3641,34 @@
     <t xml:space="preserve">8.55179882049561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50943183898926</t>
+    <t xml:space="preserve">8.50943088531494</t>
   </si>
   <si>
     <t xml:space="preserve">8.5664644241333</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62186908721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74082660675049</t>
+    <t xml:space="preserve">8.62187004089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74082565307617</t>
   </si>
   <si>
     <t xml:space="preserve">8.74571514129639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75223255157471</t>
+    <t xml:space="preserve">8.75223159790039</t>
   </si>
   <si>
     <t xml:space="preserve">8.66097927093506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40351104736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48824787139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48498916625977</t>
+    <t xml:space="preserve">8.4035120010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48824691772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48498821258545</t>
   </si>
   <si>
     <t xml:space="preserve">8.49150657653809</t>
@@ -3677,7 +3677,7 @@
     <t xml:space="preserve">8.58764934539795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60068416595459</t>
+    <t xml:space="preserve">8.60068702697754</t>
   </si>
   <si>
     <t xml:space="preserve">8.42632579803467</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">8.52246856689453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47195339202881</t>
+    <t xml:space="preserve">8.47195148468018</t>
   </si>
   <si>
     <t xml:space="preserve">8.51920986175537</t>
@@ -3701,25 +3701,25 @@
     <t xml:space="preserve">8.28618621826172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11752796173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21285629272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15093231201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16722869873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0743465423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01079368591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70281267166138</t>
+    <t xml:space="preserve">8.11752891540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21285533905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15093326568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16722965240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07434558868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01079273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70281171798706</t>
   </si>
   <si>
     <t xml:space="preserve">7.74273681640625</t>
@@ -3728,22 +3728,22 @@
     <t xml:space="preserve">7.94398307800293</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85761833190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87798643112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03849697113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99123954772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08004856109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15908050537109</t>
+    <t xml:space="preserve">7.85761737823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87798690795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03849601745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99123859405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08004760742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15908145904541</t>
   </si>
   <si>
     <t xml:space="preserve">8.12486171722412</t>
@@ -3752,7 +3752,7 @@
     <t xml:space="preserve">8.25848293304443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24544620513916</t>
+    <t xml:space="preserve">8.24544525146484</t>
   </si>
   <si>
     <t xml:space="preserve">8.31062889099121</t>
@@ -3761,10 +3761,10 @@
     <t xml:space="preserve">8.3937349319458</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37906837463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4328441619873</t>
+    <t xml:space="preserve">8.37907028198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43284320831299</t>
   </si>
   <si>
     <t xml:space="preserve">8.48661708831787</t>
@@ -3773,25 +3773,25 @@
     <t xml:space="preserve">8.53713226318359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56972408294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45076751708984</t>
+    <t xml:space="preserve">8.56972503662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45076656341553</t>
   </si>
   <si>
     <t xml:space="preserve">8.45402717590332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44588088989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20959568023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19819068908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33833026885986</t>
+    <t xml:space="preserve">8.44587802886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20959663391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1981897354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33833122253418</t>
   </si>
   <si>
     <t xml:space="preserve">8.40677070617676</t>
@@ -3800,22 +3800,22 @@
     <t xml:space="preserve">8.41654777526855</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39699363708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49639701843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49965476989746</t>
+    <t xml:space="preserve">8.39699459075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4963960647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49965572357178</t>
   </si>
   <si>
     <t xml:space="preserve">8.66260814666748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57950115203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62512969970703</t>
+    <t xml:space="preserve">8.57950210571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62512874603271</t>
   </si>
   <si>
     <t xml:space="preserve">8.62838745117188</t>
@@ -3824,7 +3824,7 @@
     <t xml:space="preserve">8.59090805053711</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80437660217285</t>
+    <t xml:space="preserve">8.80437755584717</t>
   </si>
   <si>
     <t xml:space="preserve">8.88422393798828</t>
@@ -3836,7 +3836,7 @@
     <t xml:space="preserve">8.98199558258057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91518688201904</t>
+    <t xml:space="preserve">8.91518592834473</t>
   </si>
   <si>
     <t xml:space="preserve">8.83207225799561</t>
@@ -3845,46 +3845,46 @@
     <t xml:space="preserve">8.99490737915039</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2323751449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24594306945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27138805389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48680114746094</t>
+    <t xml:space="preserve">9.23237228393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24594211578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27138614654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48680210113525</t>
   </si>
   <si>
     <t xml:space="preserve">9.55295276641846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65811729431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79211616516113</t>
+    <t xml:space="preserve">9.65811824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79211807250977</t>
   </si>
   <si>
     <t xml:space="preserve">9.73784065246582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87353324890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0482425689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89388942718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82773780822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0567226409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.182240486145</t>
+    <t xml:space="preserve">9.87353610992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0482416152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89389038085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82773590087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0567216873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1822414398193</t>
   </si>
   <si>
     <t xml:space="preserve">10.155101776123</t>
@@ -3893,37 +3893,37 @@
     <t xml:space="preserve">10.0261907577515</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1601905822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3535575866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3773040771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3230266571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4468450546265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2907972335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2433032989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4129219055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4807710647583</t>
+    <t xml:space="preserve">10.1601896286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3535566329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3773031234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3230247497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4468460083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2907981872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2433042526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4129238128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.480770111084</t>
   </si>
   <si>
     <t xml:space="preserve">10.4044418334961</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3162393569946</t>
+    <t xml:space="preserve">10.3162403106689</t>
   </si>
   <si>
     <t xml:space="preserve">10.5197839736938</t>
@@ -3935,10 +3935,10 @@
     <t xml:space="preserve">10.6351251602173</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4994297027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6520872116089</t>
+    <t xml:space="preserve">10.4994287490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6520862579346</t>
   </si>
   <si>
     <t xml:space="preserve">10.7470741271973</t>
@@ -3950,25 +3950,25 @@
     <t xml:space="preserve">10.7029724121094</t>
   </si>
   <si>
-    <t xml:space="preserve">10.740288734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7250232696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6113767623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6402149200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6843128204346</t>
+    <t xml:space="preserve">10.7402877807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.725022315979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6113786697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6402139663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6843137741089</t>
   </si>
   <si>
     <t xml:space="preserve">10.6792268753052</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5418338775635</t>
+    <t xml:space="preserve">10.5418348312378</t>
   </si>
   <si>
     <t xml:space="preserve">10.3196325302124</t>
@@ -3986,34 +3986,34 @@
     <t xml:space="preserve">9.77854633331299</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0075330734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0957365036011</t>
+    <t xml:space="preserve">10.007532119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0957355499268</t>
   </si>
   <si>
     <t xml:space="preserve">10.1262655258179</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1856346130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4247961044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6588716506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5079097747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4027462005615</t>
+    <t xml:space="preserve">10.1856336593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4247970581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6588706970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5079107284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4027452468872</t>
   </si>
   <si>
     <t xml:space="preserve">10.3518600463867</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1941156387329</t>
+    <t xml:space="preserve">10.1941146850586</t>
   </si>
   <si>
     <t xml:space="preserve">10.3026704788208</t>
@@ -4022,40 +4022,40 @@
     <t xml:space="preserve">10.177152633667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3450765609741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2212533950806</t>
+    <t xml:space="preserve">10.3450756072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2212543487549</t>
   </si>
   <si>
     <t xml:space="preserve">10.0363674163818</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3298110961914</t>
+    <t xml:space="preserve">10.3298101425171</t>
   </si>
   <si>
     <t xml:space="preserve">10.3247213363647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3806962966919</t>
+    <t xml:space="preserve">10.3806953430176</t>
   </si>
   <si>
     <t xml:space="preserve">10.42649269104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4146213531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3637342453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.523175239563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6944904327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8183135986328</t>
+    <t xml:space="preserve">10.4146203994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3637323379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5231742858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6944913864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8183126449585</t>
   </si>
   <si>
     <t xml:space="preserve">10.7284154891968</t>
@@ -4067,10 +4067,10 @@
     <t xml:space="preserve">10.7572507858276</t>
   </si>
   <si>
-    <t xml:space="preserve">10.864109992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0693511962891</t>
+    <t xml:space="preserve">10.8641119003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0693483352661</t>
   </si>
   <si>
     <t xml:space="preserve">11.0456027984619</t>
@@ -4082,19 +4082,19 @@
     <t xml:space="preserve">11.2050447463989</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2542362213135</t>
+    <t xml:space="preserve">11.2542343139648</t>
   </si>
   <si>
     <t xml:space="preserve">11.3814487457275</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2711973190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1151466369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7589464187622</t>
+    <t xml:space="preserve">11.2711963653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1151475906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7589473724365</t>
   </si>
   <si>
     <t xml:space="preserve">11.1049699783325</t>
@@ -4103,28 +4103,28 @@
     <t xml:space="preserve">11.4357280731201</t>
   </si>
   <si>
-    <t xml:space="preserve">11.713903427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5120573043823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2864627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4119806289673</t>
+    <t xml:space="preserve">11.7139015197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.512056350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2864618301392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4119815826416</t>
   </si>
   <si>
     <t xml:space="preserve">11.3271703720093</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2695016860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323348999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.182993888855</t>
+    <t xml:space="preserve">11.2694997787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.432333946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1829948425293</t>
   </si>
   <si>
     <t xml:space="preserve">11.0557804107666</t>
@@ -4133,25 +4133,25 @@
     <t xml:space="preserve">11.2389688491821</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2779808044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4730443954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3000326156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.17112159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3085136413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4238548278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2915525436401</t>
+    <t xml:space="preserve">11.277982711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4730424880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3000335693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1711206436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3085126876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4238538742065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2915496826172</t>
   </si>
   <si>
     <t xml:space="preserve">11.4425115585327</t>
@@ -4163,16 +4163,16 @@
     <t xml:space="preserve">11.3322591781616</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6867628097534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7308654785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0870637893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3228359222412</t>
+    <t xml:space="preserve">11.6867637634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7308645248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0870628356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3228349685669</t>
   </si>
   <si>
     <t xml:space="preserve">11.7597017288208</t>
@@ -4181,25 +4181,25 @@
     <t xml:space="preserve">10.9014272689819</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3695764541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5934724807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5358018875122</t>
+    <t xml:space="preserve">11.3695755004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5934734344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5358028411865</t>
   </si>
   <si>
     <t xml:space="preserve">11.113450050354</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0065898895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9607934951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8301887512207</t>
+    <t xml:space="preserve">11.0065908432007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9607944488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8301877975464</t>
   </si>
   <si>
     <t xml:space="preserve">11.118537902832</t>
@@ -4208,37 +4208,37 @@
     <t xml:space="preserve">10.79456615448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.213526725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4187660217285</t>
+    <t xml:space="preserve">11.2135248184204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4187650680542</t>
   </si>
   <si>
     <t xml:space="preserve">11.2559309005737</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1066637039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3492221832275</t>
+    <t xml:space="preserve">11.1066646575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3492212295532</t>
   </si>
   <si>
     <t xml:space="preserve">11.2745885848999</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3763599395752</t>
+    <t xml:space="preserve">11.3763608932495</t>
   </si>
   <si>
     <t xml:space="preserve">11.400107383728</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4560813903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3543090820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2474508285522</t>
+    <t xml:space="preserve">11.4560832977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3543100357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2474479675293</t>
   </si>
   <si>
     <t xml:space="preserve">11.7189912796021</t>
@@ -4247,37 +4247,37 @@
     <t xml:space="preserve">11.7003335952759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0209121704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0429630279541</t>
+    <t xml:space="preserve">12.0209140777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0429639816284</t>
   </si>
   <si>
     <t xml:space="preserve">12.0005588531494</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0667104721069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8733444213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5171451568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9658823013306</t>
+    <t xml:space="preserve">12.0667114257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.873345375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.517144203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9658832550049</t>
   </si>
   <si>
     <t xml:space="preserve">10.9896297454834</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1592493057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3560056686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1948680877686</t>
+    <t xml:space="preserve">11.1592483520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3560066223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1948671340942</t>
   </si>
   <si>
     <t xml:space="preserve">11.534107208252</t>
@@ -4286,7 +4286,7 @@
     <t xml:space="preserve">11.4577779769897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5374975204468</t>
+    <t xml:space="preserve">11.5375003814697</t>
   </si>
   <si>
     <t xml:space="preserve">11.0914001464844</t>
@@ -4295,25 +4295,25 @@
     <t xml:space="preserve">11.2440576553345</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5510683059692</t>
+    <t xml:space="preserve">11.5510673522949</t>
   </si>
   <si>
     <t xml:space="preserve">11.5680303573608</t>
   </si>
   <si>
-    <t xml:space="preserve">11.725775718689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8156757354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6918525695801</t>
+    <t xml:space="preserve">11.7257766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.815673828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6918535232544</t>
   </si>
   <si>
     <t xml:space="preserve">11.7800531387329</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0023517608643</t>
+    <t xml:space="preserve">12.0023527145386</t>
   </si>
   <si>
     <t xml:space="preserve">11.9113321304321</t>
@@ -4322,130 +4322,130 @@
     <t xml:space="preserve">12.3576793670654</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4679527282715</t>
+    <t xml:space="preserve">12.4679546356201</t>
   </si>
   <si>
     <t xml:space="preserve">12.420693397522</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4276933670044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4259452819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3384246826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3156700134277</t>
+    <t xml:space="preserve">12.4276943206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4259433746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3384256362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3156709671021</t>
   </si>
   <si>
     <t xml:space="preserve">12.4784555435181</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6307401657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6272373199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5957298278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.275411605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5875129699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.358211517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5262489318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5997638702393</t>
+    <t xml:space="preserve">12.6307392120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6272382736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5957326889038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2754125595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5875110626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3582134246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5262479782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5997648239136</t>
   </si>
   <si>
     <t xml:space="preserve">11.032642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5110301971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5407838821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5722913742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2047128677368</t>
+    <t xml:space="preserve">10.5110292434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5407857894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5722932815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2047119140625</t>
   </si>
   <si>
     <t xml:space="preserve">10.0034198760986</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2099647521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0646829605103</t>
+    <t xml:space="preserve">10.2099657058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0646820068359</t>
   </si>
   <si>
     <t xml:space="preserve">10.1539516448975</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91414928436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82663059234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0629320144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48005485534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41354084014893</t>
+    <t xml:space="preserve">9.91415023803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82663154602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0629329681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.480055809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41353988647461</t>
   </si>
   <si>
     <t xml:space="preserve">9.66734600067139</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8248815536499</t>
+    <t xml:space="preserve">9.82488059997559</t>
   </si>
   <si>
     <t xml:space="preserve">9.80212593078613</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74786281585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72860908508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31551933288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48530578613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63933944702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89314365386963</t>
+    <t xml:space="preserve">9.74786376953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72860813140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31552028656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48530673980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6393404006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89314556121826</t>
   </si>
   <si>
     <t xml:space="preserve">9.77937030792236</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62708759307861</t>
+    <t xml:space="preserve">9.6270866394043</t>
   </si>
   <si>
     <t xml:space="preserve">9.60083198547363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6813497543335</t>
+    <t xml:space="preserve">9.68134880065918</t>
   </si>
   <si>
     <t xml:space="preserve">9.64459133148193</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">10.2537231445312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2414703369141</t>
+    <t xml:space="preserve">10.2414693832397</t>
   </si>
   <si>
     <t xml:space="preserve">10.0156717300415</t>
@@ -4466,58 +4466,58 @@
     <t xml:space="preserve">9.97716331481934</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96841335296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0261754989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0174207687378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0576791763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99816799163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1434488296509</t>
+    <t xml:space="preserve">9.96841144561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0261745452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0174236297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0576810836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9981689453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1434507369995</t>
   </si>
   <si>
     <t xml:space="preserve">10.1784572601318</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1329469680786</t>
+    <t xml:space="preserve">10.1329479217529</t>
   </si>
   <si>
     <t xml:space="preserve">10.2327194213867</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4445142745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3009843826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4672689437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.859354019165</t>
+    <t xml:space="preserve">10.4445152282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3009834289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4672708511353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8593530654907</t>
   </si>
   <si>
     <t xml:space="preserve">10.7245759963989</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9451217651367</t>
+    <t xml:space="preserve">10.945122718811</t>
   </si>
   <si>
     <t xml:space="preserve">10.7788362503052</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9398727416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7088222503662</t>
+    <t xml:space="preserve">10.9398717880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7088212966919</t>
   </si>
   <si>
     <t xml:space="preserve">10.3342399597168</t>
@@ -4529,37 +4529,37 @@
     <t xml:space="preserve">10.5775442123413</t>
   </si>
   <si>
-    <t xml:space="preserve">10.75608253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4602661132812</t>
+    <t xml:space="preserve">10.7560806274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4602680206299</t>
   </si>
   <si>
     <t xml:space="preserve">10.1679544448853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1364469528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2239665985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4532680511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3587455749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3359899520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0996894836426</t>
+    <t xml:space="preserve">10.1364479064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2239675521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4532661437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3587465286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.335991859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0996904373169</t>
   </si>
   <si>
     <t xml:space="preserve">9.94071578979492</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1191835403442</t>
+    <t xml:space="preserve">10.1191825866699</t>
   </si>
   <si>
     <t xml:space="preserve">9.6391019821167</t>
@@ -4568,43 +4568,43 @@
     <t xml:space="preserve">9.57842350006104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59448432922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62482452392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73547458648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0317344665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2976531982422</t>
+    <t xml:space="preserve">9.59448528289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6248254776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73547649383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0317325592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2976522445679</t>
   </si>
   <si>
     <t xml:space="preserve">10.4618434906006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4671974182129</t>
+    <t xml:space="preserve">10.4671983718872</t>
   </si>
   <si>
     <t xml:space="preserve">10.5653553009033</t>
   </si>
   <si>
-    <t xml:space="preserve">10.513599395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3244209289551</t>
+    <t xml:space="preserve">10.5136003494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3244218826294</t>
   </si>
   <si>
     <t xml:space="preserve">10.1691551208496</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4297189712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5867719650269</t>
+    <t xml:space="preserve">10.4297180175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5867729187012</t>
   </si>
   <si>
     <t xml:space="preserve">10.5885572433472</t>
@@ -4613,25 +4613,25 @@
     <t xml:space="preserve">10.7920112609863</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7598848342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240211486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9954643249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1400270462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5273036956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7218322753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8271293640137</t>
+    <t xml:space="preserve">10.7598857879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240201950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9954652786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1400260925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5273027420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7218332290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.827130317688</t>
   </si>
   <si>
     <t xml:space="preserve">12.0145225524902</t>
@@ -4640,19 +4640,19 @@
     <t xml:space="preserve">12.0734176635742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2429637908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5017442703247</t>
+    <t xml:space="preserve">12.2429628372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5017433166504</t>
   </si>
   <si>
     <t xml:space="preserve">12.7319669723511</t>
   </si>
   <si>
-    <t xml:space="preserve">12.683780670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5124521255493</t>
+    <t xml:space="preserve">12.6837816238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5124502182007</t>
   </si>
   <si>
     <t xml:space="preserve">12.5552835464478</t>
@@ -4667,22 +4667,22 @@
     <t xml:space="preserve">12.9175748825073</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8122777938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5695610046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6605796813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1856279373169</t>
+    <t xml:space="preserve">12.8122787475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5695600509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6605806350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1856288909912</t>
   </si>
   <si>
     <t xml:space="preserve">12.7367172241211</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7983531951904</t>
+    <t xml:space="preserve">12.7983522415161</t>
   </si>
   <si>
     <t xml:space="preserve">12.8563623428345</t>
@@ -4691,10 +4691,10 @@
     <t xml:space="preserve">12.9596920013428</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7059001922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8672389984131</t>
+    <t xml:space="preserve">12.7058992385864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8672399520874</t>
   </si>
   <si>
     <t xml:space="preserve">12.9832582473755</t>
@@ -4703,10 +4703,10 @@
     <t xml:space="preserve">12.7711610794067</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5916948318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5391235351562</t>
+    <t xml:space="preserve">12.5916938781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5391225814819</t>
   </si>
   <si>
     <t xml:space="preserve">12.3650941848755</t>
@@ -4715,7 +4715,7 @@
     <t xml:space="preserve">12.1783752441406</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2581386566162</t>
+    <t xml:space="preserve">12.2581396102905</t>
   </si>
   <si>
     <t xml:space="preserve">12.2599506378174</t>
@@ -4727,10 +4727,10 @@
     <t xml:space="preserve">12.5209951400757</t>
   </si>
   <si>
-    <t xml:space="preserve">12.336088180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8285055160522</t>
+    <t xml:space="preserve">12.3360891342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8285064697266</t>
   </si>
   <si>
     <t xml:space="preserve">11.6925458908081</t>
@@ -4742,10 +4742,10 @@
     <t xml:space="preserve">11.7831859588623</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2019424438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1239929199219</t>
+    <t xml:space="preserve">12.2019414901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1239919662476</t>
   </si>
   <si>
     <t xml:space="preserve">12.2146329879761</t>
@@ -4760,25 +4760,25 @@
     <t xml:space="preserve">12.3197736740112</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0424165725708</t>
+    <t xml:space="preserve">12.0424156188965</t>
   </si>
   <si>
     <t xml:space="preserve">12.4249172210693</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4956159591675</t>
+    <t xml:space="preserve">12.4956169128418</t>
   </si>
   <si>
     <t xml:space="preserve">12.305272102356</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427494049072</t>
+    <t xml:space="preserve">12.5427484512329</t>
   </si>
   <si>
     <t xml:space="preserve">12.6388282775879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6660175323486</t>
+    <t xml:space="preserve">12.6660184860229</t>
   </si>
   <si>
     <t xml:space="preserve">12.9071197509766</t>
@@ -4787,22 +4787,22 @@
     <t xml:space="preserve">13.0666475296021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0720844268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9868850708008</t>
+    <t xml:space="preserve">13.0720853805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9868831634521</t>
   </si>
   <si>
     <t xml:space="preserve">13.0267648696899</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1065292358398</t>
+    <t xml:space="preserve">13.1065282821655</t>
   </si>
   <si>
     <t xml:space="preserve">12.919810295105</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1029024124146</t>
+    <t xml:space="preserve">13.1029033660889</t>
   </si>
   <si>
     <t xml:space="preserve">13.0521459579468</t>
@@ -4814,7 +4814,7 @@
     <t xml:space="preserve">12.7584714889526</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8690528869629</t>
+    <t xml:space="preserve">12.8690519332886</t>
   </si>
   <si>
     <t xml:space="preserve">12.954252243042</t>
@@ -4823,7 +4823,7 @@
     <t xml:space="preserve">12.8436727523804</t>
   </si>
   <si>
-    <t xml:space="preserve">12.81285572052</t>
+    <t xml:space="preserve">12.8128547668457</t>
   </si>
   <si>
     <t xml:space="preserve">12.5499992370605</t>
@@ -4838,13 +4838,13 @@
     <t xml:space="preserve">12.4140386581421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6043853759766</t>
+    <t xml:space="preserve">12.6043844223022</t>
   </si>
   <si>
     <t xml:space="preserve">12.8346090316772</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0013866424561</t>
+    <t xml:space="preserve">13.0013875961304</t>
   </si>
   <si>
     <t xml:space="preserve">13.369384765625</t>
@@ -4859,7 +4859,7 @@
     <t xml:space="preserve">13.3150005340576</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3367528915405</t>
+    <t xml:space="preserve">13.3367538452148</t>
   </si>
   <si>
     <t xml:space="preserve">12.9615049362183</t>
@@ -4868,49 +4868,49 @@
     <t xml:space="preserve">13.0068244934082</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9324998855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.792914390564</t>
+    <t xml:space="preserve">12.9324989318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7929153442383</t>
   </si>
   <si>
     <t xml:space="preserve">12.1076765060425</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9572162628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1457462310791</t>
+    <t xml:space="preserve">11.9572153091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1457452774048</t>
   </si>
   <si>
     <t xml:space="preserve">12.1149291992188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9372730255127</t>
+    <t xml:space="preserve">11.937273979187</t>
   </si>
   <si>
     <t xml:space="preserve">12.0949869155884</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1765632629395</t>
+    <t xml:space="preserve">12.1765623092651</t>
   </si>
   <si>
     <t xml:space="preserve">12.2690172195435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1656856536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1620626449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1384944915771</t>
+    <t xml:space="preserve">12.1656866073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1620616912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1384963989258</t>
   </si>
   <si>
     <t xml:space="preserve">12.1729373931885</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7142992019653</t>
+    <t xml:space="preserve">11.7143001556396</t>
   </si>
   <si>
     <t xml:space="preserve">11.8194417953491</t>
@@ -4919,13 +4919,13 @@
     <t xml:space="preserve">11.1577711105347</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0236234664917</t>
+    <t xml:space="preserve">11.0236225128174</t>
   </si>
   <si>
     <t xml:space="preserve">11.2673206329346</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5054798126221</t>
+    <t xml:space="preserve">11.5054807662964</t>
   </si>
   <si>
     <t xml:space="preserve">11.5184030532837</t>
@@ -4937,7 +4937,7 @@
     <t xml:space="preserve">11.235936164856</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3614768981934</t>
+    <t xml:space="preserve">11.3614778518677</t>
   </si>
   <si>
     <t xml:space="preserve">11.5811738967896</t>
@@ -4946,10 +4946,10 @@
     <t xml:space="preserve">11.699330329895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8950262069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9134883880615</t>
+    <t xml:space="preserve">11.8950271606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9134893417358</t>
   </si>
   <si>
     <t xml:space="preserve">12.3990383148193</t>
@@ -4961,7 +4961,7 @@
     <t xml:space="preserve">12.4008836746216</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4987325668335</t>
+    <t xml:space="preserve">12.4987316131592</t>
   </si>
   <si>
     <t xml:space="preserve">12.7239685058594</t>
@@ -4976,10 +4976,10 @@
     <t xml:space="preserve">12.7405843734741</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8125858306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.821816444397</t>
+    <t xml:space="preserve">12.8125867843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8218154907227</t>
   </si>
   <si>
     <t xml:space="preserve">12.6962757110596</t>
@@ -4991,22 +4991,22 @@
     <t xml:space="preserve">12.7073526382446</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7553539276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5670413970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6888914108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4451932907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1571865081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0353374481201</t>
+    <t xml:space="preserve">12.755352973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.567042350769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6888904571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4451942443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.157187461853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0353384017944</t>
   </si>
   <si>
     <t xml:space="preserve">11.9762601852417</t>
@@ -5015,37 +5015,37 @@
     <t xml:space="preserve">12.5264263153076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5947332382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4802703857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1793422698975</t>
+    <t xml:space="preserve">12.5947341918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4802694320679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1793413162231</t>
   </si>
   <si>
     <t xml:space="preserve">12.356575012207</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3196516036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2125720977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3658065795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3141136169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4156532287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4531927108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5414056777954</t>
+    <t xml:space="preserve">12.319652557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.212574005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3658075332642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.314112663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4156541824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4531917572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5414066314697</t>
   </si>
   <si>
     <t xml:space="preserve">12.5451583862305</t>
@@ -5054,7 +5054,7 @@
     <t xml:space="preserve">12.2429790496826</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3799934387207</t>
+    <t xml:space="preserve">12.379994392395</t>
   </si>
   <si>
     <t xml:space="preserve">12.4025144577026</t>
@@ -5078,16 +5078,16 @@
     <t xml:space="preserve">12.184796333313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2748870849609</t>
+    <t xml:space="preserve">12.2748861312866</t>
   </si>
   <si>
     <t xml:space="preserve">12.3086709976196</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0402755737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1622734069824</t>
+    <t xml:space="preserve">12.0402746200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1622743606567</t>
   </si>
   <si>
     <t xml:space="preserve">12.1866731643677</t>
@@ -5102,16 +5102,16 @@
     <t xml:space="preserve">12.1904268264771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0271377563477</t>
+    <t xml:space="preserve">12.0271368026733</t>
   </si>
   <si>
     <t xml:space="preserve">12.2617483139038</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0928268432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0083675384521</t>
+    <t xml:space="preserve">12.092827796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0083665847778</t>
   </si>
   <si>
     <t xml:space="preserve">12.1416273117065</t>
@@ -5135,7 +5135,7 @@
     <t xml:space="preserve">12.6352500915527</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5470371246338</t>
+    <t xml:space="preserve">12.5470361709595</t>
   </si>
   <si>
     <t xml:space="preserve">12.2317190170288</t>
@@ -5150,7 +5150,7 @@
     <t xml:space="preserve">12.4194078445435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7009439468384</t>
+    <t xml:space="preserve">12.7009429931641</t>
   </si>
   <si>
     <t xml:space="preserve">12.7816486358643</t>
@@ -5165,16 +5165,16 @@
     <t xml:space="preserve">12.603343963623</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7065725326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8004188537598</t>
+    <t xml:space="preserve">12.7065715789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8004179000854</t>
   </si>
   <si>
     <t xml:space="preserve">12.9580755233765</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8661079406738</t>
+    <t xml:space="preserve">12.8661088943481</t>
   </si>
   <si>
     <t xml:space="preserve">12.7534952163696</t>
@@ -5186,7 +5186,7 @@
     <t xml:space="preserve">12.8173084259033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0293989181519</t>
+    <t xml:space="preserve">13.0293979644775</t>
   </si>
   <si>
     <t xml:space="preserve">12.9280452728271</t>
@@ -5195,7 +5195,7 @@
     <t xml:space="preserve">12.8248176574707</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8792457580566</t>
+    <t xml:space="preserve">12.879246711731</t>
   </si>
   <si>
     <t xml:space="preserve">12.8360786437988</t>
@@ -5207,7 +5207,7 @@
     <t xml:space="preserve">13.2020721435547</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2565021514893</t>
+    <t xml:space="preserve">13.2565031051636</t>
   </si>
   <si>
     <t xml:space="preserve">13.1833038330078</t>
@@ -5216,7 +5216,7 @@
     <t xml:space="preserve">13.1513957977295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.072566986084</t>
+    <t xml:space="preserve">13.0725679397583</t>
   </si>
   <si>
     <t xml:space="preserve">13.1138591766357</t>
@@ -5231,7 +5231,7 @@
     <t xml:space="preserve">13.2452402114868</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2077035903931</t>
+    <t xml:space="preserve">13.2077026367188</t>
   </si>
   <si>
     <t xml:space="preserve">13.2583799362183</t>
@@ -5264,7 +5264,7 @@
     <t xml:space="preserve">13.8815078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8327083587646</t>
+    <t xml:space="preserve">13.832709312439</t>
   </si>
   <si>
     <t xml:space="preserve">13.8871393203735</t>
@@ -5291,16 +5291,16 @@
     <t xml:space="preserve">14.5865097045898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5254936218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3157529830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.527400970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5083341598511</t>
+    <t xml:space="preserve">14.5254945755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3157539367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5274019241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5083351135254</t>
   </si>
   <si>
     <t xml:space="preserve">14.4702005386353</t>
@@ -5312,10 +5312,10 @@
     <t xml:space="preserve">14.7009134292603</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5445604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2051630020142</t>
+    <t xml:space="preserve">14.5445613861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2051620483398</t>
   </si>
   <si>
     <t xml:space="preserve">14.0411834716797</t>
@@ -5324,10 +5324,10 @@
     <t xml:space="preserve">13.8219108581543</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7666149139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9572887420654</t>
+    <t xml:space="preserve">13.7666139602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9572877883911</t>
   </si>
   <si>
     <t xml:space="preserve">14.2738056182861</t>
@@ -5339,25 +5339,25 @@
     <t xml:space="preserve">14.3824911117554</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5826950073242</t>
+    <t xml:space="preserve">14.5826959609985</t>
   </si>
   <si>
     <t xml:space="preserve">14.775276184082</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7581148147583</t>
+    <t xml:space="preserve">14.7581157684326</t>
   </si>
   <si>
     <t xml:space="preserve">14.8076906204224</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9106540679932</t>
+    <t xml:space="preserve">14.9106550216675</t>
   </si>
   <si>
     <t xml:space="preserve">14.7314214706421</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6799402236938</t>
+    <t xml:space="preserve">14.6799392700195</t>
   </si>
   <si>
     <t xml:space="preserve">14.7161684036255</t>
@@ -5372,7 +5372,7 @@
     <t xml:space="preserve">14.786717414856</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6475267410278</t>
+    <t xml:space="preserve">14.6475257873535</t>
   </si>
   <si>
     <t xml:space="preserve">14.7085409164429</t>
@@ -5393,10 +5393,10 @@
     <t xml:space="preserve">14.1346139907837</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2394847869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2985925674438</t>
+    <t xml:space="preserve">14.239483833313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2985935211182</t>
   </si>
   <si>
     <t xml:space="preserve">14.5216817855835</t>
@@ -5408,7 +5408,7 @@
     <t xml:space="preserve">14.4816389083862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.167028427124</t>
+    <t xml:space="preserve">14.1670274734497</t>
   </si>
   <si>
     <t xml:space="preserve">14.5307540893555</t>
@@ -5814,6 +5814,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.0699996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9919996261597</t>
   </si>
 </sst>
 </file>
@@ -61925,7 +61928,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.651712963</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>8409579</v>
@@ -61946,6 +61949,32 @@
         <v>1933</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6508912037</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>7782165</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>14.1339998245239</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>13.9619998931885</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>14.1059999465942</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>13.9919996261597</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1934</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENI.MI.xlsx
+++ b/data/ENI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="1935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="1936">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,130 +38,130 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95016002655029</t>
+    <t xml:space="preserve">7.95016050338745</t>
   </si>
   <si>
     <t xml:space="preserve">ENI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02119636535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79624700546265</t>
+    <t xml:space="preserve">8.02119827270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79624843597412</t>
   </si>
   <si>
     <t xml:space="preserve">7.73705053329468</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51802158355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48842144012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50618171691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59497833251953</t>
+    <t xml:space="preserve">7.51801919937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48842239379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50618124008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59497785568237</t>
   </si>
   <si>
     <t xml:space="preserve">7.7015323638916</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42922687530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34634971618652</t>
+    <t xml:space="preserve">7.42922735214233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34634828567505</t>
   </si>
   <si>
     <t xml:space="preserve">7.4469838142395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19835758209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67785358428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58313846588135</t>
+    <t xml:space="preserve">7.19835710525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67785501480103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58313894271851</t>
   </si>
   <si>
     <t xml:space="preserve">7.74296998977661</t>
   </si>
   <si>
-    <t xml:space="preserve">7.778489112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86136388778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40554666519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37594795227051</t>
+    <t xml:space="preserve">7.77849006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86136436462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40554761886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37594842910767</t>
   </si>
   <si>
     <t xml:space="preserve">7.54169893264771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41738557815552</t>
+    <t xml:space="preserve">7.41738748550415</t>
   </si>
   <si>
     <t xml:space="preserve">7.15100002288818</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86685419082642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88461351394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47023439407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90237188339233</t>
+    <t xml:space="preserve">6.86685562133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88461303710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47023296356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90237236022949</t>
   </si>
   <si>
     <t xml:space="preserve">7.06812286376953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01484680175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23979377746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08588314056396</t>
+    <t xml:space="preserve">7.01484632492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23979425430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08588361740112</t>
   </si>
   <si>
     <t xml:space="preserve">7.05628347396851</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31083106994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97340869903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15692043304443</t>
+    <t xml:space="preserve">7.31082963943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97340726852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1569185256958</t>
   </si>
   <si>
     <t xml:space="preserve">7.52394104003906</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66601324081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90280055999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96199798583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06855297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01527690887451</t>
+    <t xml:space="preserve">7.66601467132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90280246734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96199989318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06855392456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01527500152588</t>
   </si>
   <si>
     <t xml:space="preserve">8.0448751449585</t>
@@ -170,106 +170,106 @@
     <t xml:space="preserve">7.84360456466675</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9323992729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66009378433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88504362106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92648220062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81400632858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91463899612427</t>
+    <t xml:space="preserve">7.93240118026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66009473800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88504266738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9264817237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81400585174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9146409034729</t>
   </si>
   <si>
     <t xml:space="preserve">8.05671405792236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1277494430542</t>
+    <t xml:space="preserve">8.12775039672852</t>
   </si>
   <si>
     <t xml:space="preserve">8.16918754577637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9738392829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78440761566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00343704223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87320375442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57129764556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55353879928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36410903930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44106483459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29307222366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60681676864624</t>
+    <t xml:space="preserve">7.97383832931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7844066619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00343799591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87320423126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57129955291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55354022979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3641095161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44106435775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29307460784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60681867599487</t>
   </si>
   <si>
     <t xml:space="preserve">7.63049650192261</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67193365097046</t>
+    <t xml:space="preserve">7.6719331741333</t>
   </si>
   <si>
     <t xml:space="preserve">7.97975730895996</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1218318939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99159717559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09223365783691</t>
+    <t xml:space="preserve">8.12183094024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99159860610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0922327041626</t>
   </si>
   <si>
     <t xml:space="preserve">8.2224645614624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32902336120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37637710571289</t>
+    <t xml:space="preserve">8.32902050018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37637805938721</t>
   </si>
   <si>
     <t xml:space="preserve">8.33494091033936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37045955657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44741344451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52436923980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40597629547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25798511505127</t>
+    <t xml:space="preserve">8.37045478820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44741535186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52437019348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40597724914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25798225402832</t>
   </si>
   <si>
     <t xml:space="preserve">8.08631229400635</t>
@@ -284,19 +284,19 @@
     <t xml:space="preserve">8.10407161712646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80808544158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90189027786255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14596271514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42665004730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46936225891113</t>
+    <t xml:space="preserve">7.80808591842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90189170837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14596557617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42664813995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46936130523682</t>
   </si>
   <si>
     <t xml:space="preserve">8.4388542175293</t>
@@ -305,217 +305,217 @@
     <t xml:space="preserve">8.50597476959229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37783432006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26189994812012</t>
+    <t xml:space="preserve">8.37783527374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26189804077148</t>
   </si>
   <si>
     <t xml:space="preserve">8.25579833984375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18867874145508</t>
+    <t xml:space="preserve">8.18867778778076</t>
   </si>
   <si>
     <t xml:space="preserve">8.40224170684814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59750080108643</t>
+    <t xml:space="preserve">8.59750175476074</t>
   </si>
   <si>
     <t xml:space="preserve">8.62190914154053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57919597625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20698261260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05443859100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15816783905029</t>
+    <t xml:space="preserve">8.57919788360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20698356628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05443668365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15816974639893</t>
   </si>
   <si>
     <t xml:space="preserve">8.0727424621582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39003944396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64021301269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7500467300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61580657958984</t>
+    <t xml:space="preserve">8.39004039764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64021396636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75004863739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61580562591553</t>
   </si>
   <si>
     <t xml:space="preserve">8.89649200439453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07884502410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33512210845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72564125061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85987949371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04293441772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79275989532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62801170349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67682456970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84767913818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95140933990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03683471679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92700004577637</t>
+    <t xml:space="preserve">8.07884407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33512306213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72563934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8598804473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04293727874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79276084899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62800884246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67682552337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84767532348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95140743255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03683662414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92700099945068</t>
   </si>
   <si>
     <t xml:space="preserve">9.09175109863281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98191738128662</t>
+    <t xml:space="preserve">8.98191833496094</t>
   </si>
   <si>
     <t xml:space="preserve">8.88428783416748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85377883911133</t>
+    <t xml:space="preserve">8.85378074645996</t>
   </si>
   <si>
     <t xml:space="preserve">8.76835346221924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71953773498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68292808532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56089115142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56699275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34122467041016</t>
+    <t xml:space="preserve">8.71953678131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68292617797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56088924407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56699371337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34122276306152</t>
   </si>
   <si>
     <t xml:space="preserve">8.34732627868652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18257713317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0117244720459</t>
+    <t xml:space="preserve">8.18257617950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01172351837158</t>
   </si>
   <si>
     <t xml:space="preserve">8.06664180755615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08494663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28020668029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2680025100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2435941696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35952949523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38393592834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21918773651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20088291168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.310715675354</t>
+    <t xml:space="preserve">8.08494567871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28020572662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26800346374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24359512329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35952758789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38393688201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2191858291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20088005065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31071662902832</t>
   </si>
   <si>
     <t xml:space="preserve">8.30461120605469</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37173366546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2741060256958</t>
+    <t xml:space="preserve">8.37173461914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27410411834717</t>
   </si>
   <si>
     <t xml:space="preserve">7.99952077865601</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02392864227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06053829193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87748575210571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99712562561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85229444503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96564102172852</t>
+    <t xml:space="preserve">8.02392768859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06053924560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87748289108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99712657928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85229730606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96563863754272</t>
   </si>
   <si>
     <t xml:space="preserve">7.93415641784668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78932619094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154495239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77673244476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13565826416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0726900100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11676597595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16714286804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35605144500732</t>
+    <t xml:space="preserve">7.78932666778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154638290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77673292160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13565921783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07268905639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11676788330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16714477539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35605049133301</t>
   </si>
   <si>
     <t xml:space="preserve">8.36864566802979</t>
@@ -527,76 +527,76 @@
     <t xml:space="preserve">8.40013122558594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34345626831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28678417205811</t>
+    <t xml:space="preserve">8.34345817565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28678512573242</t>
   </si>
   <si>
     <t xml:space="preserve">8.45050621032715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38123989105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53236484527588</t>
+    <t xml:space="preserve">8.38123798370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53236770629883</t>
   </si>
   <si>
     <t xml:space="preserve">8.55755424499512</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64571285247803</t>
+    <t xml:space="preserve">8.64571094512939</t>
   </si>
   <si>
     <t xml:space="preserve">8.6708984375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61422729492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5260705947876</t>
+    <t xml:space="preserve">8.61422538757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52606964111328</t>
   </si>
   <si>
     <t xml:space="preserve">8.65830421447754</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50717830657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31827163696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18603420257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06639289855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0034236907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92785882949829</t>
+    <t xml:space="preserve">8.50717926025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31826972961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18603610992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06639194488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00342082977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92785978317261</t>
   </si>
   <si>
     <t xml:space="preserve">8.04120540618896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09158039093018</t>
+    <t xml:space="preserve">8.09158134460449</t>
   </si>
   <si>
     <t xml:space="preserve">8.06009674072266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0286111831665</t>
+    <t xml:space="preserve">8.02860927581787</t>
   </si>
   <si>
     <t xml:space="preserve">7.902672290802</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72005939483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87118673324585</t>
+    <t xml:space="preserve">7.72006034851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87118721008301</t>
   </si>
   <si>
     <t xml:space="preserve">7.8208122253418</t>
@@ -605,85 +605,85 @@
     <t xml:space="preserve">7.79562377929688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91526460647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92156171798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97193717956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27419185638428</t>
+    <t xml:space="preserve">7.91526365280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92156219482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97193813323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27419090270996</t>
   </si>
   <si>
     <t xml:space="preserve">8.57014846801758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62052249908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79054069519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87869930267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96055889129639</t>
+    <t xml:space="preserve">8.62052345275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79054164886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87869834899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9605598449707</t>
   </si>
   <si>
     <t xml:space="preserve">8.97315311431885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30688953399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40134716033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36985874176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42653465270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47690773010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42023849487305</t>
+    <t xml:space="preserve">9.3068904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40134620666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36986064910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42653274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47690868377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42023754119873</t>
   </si>
   <si>
     <t xml:space="preserve">9.53987789154053</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55247116088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65952205657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64062976837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.722487449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74138164520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84842872619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84213161468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87991142272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8988037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69100570678711</t>
+    <t xml:space="preserve">9.5524730682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65952014923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64062881469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72248840332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74138069152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84842967987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84213066101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87991237640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89880466461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69100666046143</t>
   </si>
   <si>
     <t xml:space="preserve">9.79175567626953</t>
@@ -692,10 +692,10 @@
     <t xml:space="preserve">9.78545951843262</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73508358001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8673210144043</t>
+    <t xml:space="preserve">9.73508262634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86732006072998</t>
   </si>
   <si>
     <t xml:space="preserve">9.69730186462402</t>
@@ -707,19 +707,19 @@
     <t xml:space="preserve">9.76656913757324</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6658182144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4139404296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30059432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06131076812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94796466827393</t>
+    <t xml:space="preserve">9.66581916809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41393947601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30059719085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06130790710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94796562194824</t>
   </si>
   <si>
     <t xml:space="preserve">8.89758968353271</t>
@@ -728,133 +728,133 @@
     <t xml:space="preserve">8.91648006439209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14946746826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94166660308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90388584136963</t>
+    <t xml:space="preserve">9.1494665145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94166851043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90388488769531</t>
   </si>
   <si>
     <t xml:space="preserve">9.04241943359375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06760692596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15576553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05501461029053</t>
+    <t xml:space="preserve">9.06760787963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15576457977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05501365661621</t>
   </si>
   <si>
     <t xml:space="preserve">8.89129257202148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18095302581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0739049911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00463771820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14317035675049</t>
+    <t xml:space="preserve">9.18095207214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07390308380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00463581085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1431713104248</t>
   </si>
   <si>
     <t xml:space="preserve">9.44542407989502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45172309875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61544227600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50209522247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31948471069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25651741027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21243667602539</t>
+    <t xml:space="preserve">9.45172119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61544132232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50209808349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31948566436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25651550292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21243858337402</t>
   </si>
   <si>
     <t xml:space="preserve">9.22503089904785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11168575286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23762512207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39504814147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35097217559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37615776062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46431636810303</t>
+    <t xml:space="preserve">9.11168670654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23762321472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39504909515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35097026824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37615585327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46431541442871</t>
   </si>
   <si>
     <t xml:space="preserve">9.43912696838379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5209903717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6469259262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59025478363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58395576477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59655284881592</t>
+    <t xml:space="preserve">9.52098846435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64692687988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59025573730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58395385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59655094146729</t>
   </si>
   <si>
     <t xml:space="preserve">9.24392223358154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25021839141846</t>
+    <t xml:space="preserve">9.25021743774414</t>
   </si>
   <si>
     <t xml:space="preserve">9.41513442993164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37628173828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27267742156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24030113220215</t>
+    <t xml:space="preserve">9.37628269195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27267551422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24029922485352</t>
   </si>
   <si>
     <t xml:space="preserve">9.25972652435303</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22087478637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21439838409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44751071929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54464054107666</t>
+    <t xml:space="preserve">9.22087383270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21439743041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44751167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54463958740234</t>
   </si>
   <si>
     <t xml:space="preserve">9.59644412994385</t>
@@ -863,109 +863,109 @@
     <t xml:space="preserve">9.6482458114624</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64177131652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71300029754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74537658691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62234687805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73890209197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72595119476318</t>
+    <t xml:space="preserve">9.64176940917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71299934387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74537754058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62234592437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73890018463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7259521484375</t>
   </si>
   <si>
     <t xml:space="preserve">9.70652484893799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66767406463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48636341094971</t>
+    <t xml:space="preserve">9.6676721572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48636150360107</t>
   </si>
   <si>
     <t xml:space="preserve">9.26620197296143</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24677562713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12374496459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23382472991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09784317016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03956508636475</t>
+    <t xml:space="preserve">9.24677467346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12374305725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23382568359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09784412384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03956413269043</t>
   </si>
   <si>
     <t xml:space="preserve">9.11079406738281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92948341369629</t>
+    <t xml:space="preserve">8.92948436737061</t>
   </si>
   <si>
     <t xml:space="preserve">8.99423885345459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00071239471436</t>
+    <t xml:space="preserve">9.00071430206299</t>
   </si>
   <si>
     <t xml:space="preserve">9.06546592712402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.968337059021</t>
+    <t xml:space="preserve">8.96833610534668</t>
   </si>
   <si>
     <t xml:space="preserve">8.91653251647949</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00718688964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82587909698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87120532989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84530544281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79350185394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80645370483398</t>
+    <t xml:space="preserve">9.00718879699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82588005065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87120723724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84530448913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7935037612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80645275115967</t>
   </si>
   <si>
     <t xml:space="preserve">8.7546501159668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78055381774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61219310760498</t>
+    <t xml:space="preserve">8.78055095672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61219215393066</t>
   </si>
   <si>
     <t xml:space="preserve">8.52153778076172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62514400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65104484558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52801322937012</t>
+    <t xml:space="preserve">8.62514591217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65104579925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52801418304443</t>
   </si>
   <si>
     <t xml:space="preserve">8.47621059417725</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">8.41793346405029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3985071182251</t>
+    <t xml:space="preserve">8.39850807189941</t>
   </si>
   <si>
     <t xml:space="preserve">8.54096508026123</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">8.55391502380371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57333850860596</t>
+    <t xml:space="preserve">8.57334136962891</t>
   </si>
   <si>
     <t xml:space="preserve">8.50858783721924</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">8.50211238861084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51506328582764</t>
+    <t xml:space="preserve">8.515061378479</t>
   </si>
   <si>
     <t xml:space="preserve">8.44383335113525</t>
@@ -1007,37 +1007,37 @@
     <t xml:space="preserve">8.58629131317139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56039237976074</t>
+    <t xml:space="preserve">8.56038951873779</t>
   </si>
   <si>
     <t xml:space="preserve">8.65752029418945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72227382659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7611255645752</t>
+    <t xml:space="preserve">8.7222728729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76112461090088</t>
   </si>
   <si>
     <t xml:space="preserve">8.74170112609863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77407455444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78702735900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76760196685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73522186279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64456844329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68342208862305</t>
+    <t xml:space="preserve">8.77407741546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78702640533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76760101318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73522472381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64457035064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68342113494873</t>
   </si>
   <si>
     <t xml:space="preserve">8.57981586456299</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">8.48916244506836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61866760253906</t>
+    <t xml:space="preserve">8.6186695098877</t>
   </si>
   <si>
     <t xml:space="preserve">8.63161754608154</t>
@@ -1058,127 +1058,127 @@
     <t xml:space="preserve">8.72874927520752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71579933166504</t>
+    <t xml:space="preserve">8.71579742431641</t>
   </si>
   <si>
     <t xml:space="preserve">8.74817562103271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83235359191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94243717193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9757776260376</t>
+    <t xml:space="preserve">8.83235454559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9424352645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97577667236328</t>
   </si>
   <si>
     <t xml:space="preserve">9.02245616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09580993652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16249370574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18916797637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29586505889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32920742034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28919696807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30253410339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33587455749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31586933135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38255500793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26919078826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.355881690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23584747314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28252696990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24251556396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26252174377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2558536529541</t>
+    <t xml:space="preserve">9.09581089019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16249465942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18916893005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29586601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3292064666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28919792175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30253124237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33587551116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31587028503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3825569152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26919174194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35588073730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23584842681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28252792358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24251842498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26252269744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25585460662842</t>
   </si>
   <si>
     <t xml:space="preserve">9.18249988555908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22251224517822</t>
+    <t xml:space="preserve">9.22251033782959</t>
   </si>
   <si>
     <t xml:space="preserve">9.20250701904297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22917938232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36254978179932</t>
+    <t xml:space="preserve">9.22917747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.362548828125</t>
   </si>
   <si>
     <t xml:space="preserve">9.48258304595947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53592872619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58927917480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66929817199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81600475311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74932289123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67596817016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60928344726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54259967803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42923450469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15582752227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17583179473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24918651580811</t>
+    <t xml:space="preserve">9.53592967987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58927822113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66929912567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81600570678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74932193756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67597007751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60928249359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54259777069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42923259735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15582656860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17583274841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24918556213379</t>
   </si>
   <si>
     <t xml:space="preserve">9.27585792541504</t>
@@ -1187,16 +1187,16 @@
     <t xml:space="preserve">9.21584320068359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12915134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2091760635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34921264648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37588596343994</t>
+    <t xml:space="preserve">9.12915325164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20917510986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34921073913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37588500976562</t>
   </si>
   <si>
     <t xml:space="preserve">9.32253932952881</t>
@@ -1205,37 +1205,37 @@
     <t xml:space="preserve">9.30920124053955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50258827209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62262058258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68263721466064</t>
+    <t xml:space="preserve">9.50258541107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62261867523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68263816833496</t>
   </si>
   <si>
     <t xml:space="preserve">9.80266952514648</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94937610626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94270801544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90936660766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96938133239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88935947418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96271324157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97605133056641</t>
+    <t xml:space="preserve">9.94937419891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94270610809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9093656539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96938228607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88935852050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96271133422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97604942321777</t>
   </si>
   <si>
     <t xml:space="preserve">9.95604419708252</t>
@@ -1247,34 +1247,34 @@
     <t xml:space="preserve">9.69864082336426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65996360778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72931480407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56793594360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43857002258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17183017730713</t>
+    <t xml:space="preserve">9.6599645614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7293176651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56793975830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43857097625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17182922363281</t>
   </si>
   <si>
     <t xml:space="preserve">9.11714935302734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93443489074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99044799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90375804901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96110725402832</t>
+    <t xml:space="preserve">8.9344310760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99044704437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90375900268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.961106300354</t>
   </si>
   <si>
     <t xml:space="preserve">9.00511837005615</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">9.09047508239746</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14115428924561</t>
+    <t xml:space="preserve">9.14115619659424</t>
   </si>
   <si>
     <t xml:space="preserve">9.14382266998291</t>
@@ -1292,70 +1292,70 @@
     <t xml:space="preserve">9.122483253479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19583606719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24385070800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14515590667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05046463012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92109680175781</t>
+    <t xml:space="preserve">9.19583702087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2438497543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1451587677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05046367645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92109489440918</t>
   </si>
   <si>
     <t xml:space="preserve">8.88908576965332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0117883682251</t>
+    <t xml:space="preserve">9.01178646087646</t>
   </si>
   <si>
     <t xml:space="preserve">9.05713367462158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06380081176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14782428741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21850967407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40256214141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29453086853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42256641387939</t>
+    <t xml:space="preserve">9.06380176544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1478271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21851062774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40256023406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29452991485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42256450653076</t>
   </si>
   <si>
     <t xml:space="preserve">9.4959192276001</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44923973083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4078950881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37455272674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46924304962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4439058303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52792835235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6239538192749</t>
+    <t xml:space="preserve">9.44924163818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40789413452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37455368041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46924686431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44390296936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52792739868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62395286560059</t>
   </si>
   <si>
     <t xml:space="preserve">9.70664310455322</t>
@@ -1367,40 +1367,40 @@
     <t xml:space="preserve">9.9280366897583</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99472141265869</t>
+    <t xml:space="preserve">9.99472236633301</t>
   </si>
   <si>
     <t xml:space="preserve">10.0920820236206</t>
   </si>
   <si>
-    <t xml:space="preserve">10.154764175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2227840423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2908020019531</t>
+    <t xml:space="preserve">10.1547651290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2227830886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2908010482788</t>
   </si>
   <si>
     <t xml:space="preserve">10.3014717102051</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4561805725098</t>
+    <t xml:space="preserve">10.4561815261841</t>
   </si>
   <si>
     <t xml:space="preserve">10.5335350036621</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6695728302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6375617980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.728253364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6882438659668</t>
+    <t xml:space="preserve">10.6695718765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6375637054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7282552719116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6882429122925</t>
   </si>
   <si>
     <t xml:space="preserve">10.5695457458496</t>
@@ -1409,52 +1409,52 @@
     <t xml:space="preserve">10.7829360961914</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7749338150024</t>
+    <t xml:space="preserve">10.7749328613281</t>
   </si>
   <si>
     <t xml:space="preserve">10.802942276001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.884298324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7549276351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9029693603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1123580932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8269491195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1270313262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9416484832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9629850387573</t>
+    <t xml:space="preserve">10.8842964172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7549295425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9029712677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1123600006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8269472122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1270294189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9416446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9629859924316</t>
   </si>
   <si>
     <t xml:space="preserve">11.1203603744507</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1790428161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0283355712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0710134506226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0376720428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9502029418945</t>
+    <t xml:space="preserve">11.1790437698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0283336639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0710124969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.037672996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9502019882202</t>
   </si>
   <si>
     <t xml:space="preserve">11.0035047531128</t>
@@ -1463,25 +1463,25 @@
     <t xml:space="preserve">10.8818645477295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.78209400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.514217376709</t>
+    <t xml:space="preserve">10.782096862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5142164230347</t>
   </si>
   <si>
     <t xml:space="preserve">10.3010082244873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.31467628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5852842330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.750659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6508893966675</t>
+    <t xml:space="preserve">10.3146753311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5852851867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7506608963013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6508903503418</t>
   </si>
   <si>
     <t xml:space="preserve">10.5593175888062</t>
@@ -1490,52 +1490,52 @@
     <t xml:space="preserve">10.5579519271851</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6809558868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4035110473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7069244384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6003198623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.806697845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6139869689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6194534301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5470190048218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.361141204834</t>
+    <t xml:space="preserve">10.6809577941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4035120010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7069253921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6003217697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8066968917847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6139879226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6194543838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5470180511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3611431121826</t>
   </si>
   <si>
     <t xml:space="preserve">10.6850557327271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4431467056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5456514358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8367652893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8723001480103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8695650100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7793617248535</t>
+    <t xml:space="preserve">10.4431447982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5456504821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8367643356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8722991943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8695659637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7793607711792</t>
   </si>
   <si>
     <t xml:space="preserve">11.0404062271118</t>
@@ -1544,19 +1544,19 @@
     <t xml:space="preserve">11.0335712432861</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0814065933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0568084716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1497430801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2959833145142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1060104370117</t>
+    <t xml:space="preserve">11.0814075469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0568065643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1497449874878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2959842681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1060085296631</t>
   </si>
   <si>
     <t xml:space="preserve">11.1114768981934</t>
@@ -1565,46 +1565,46 @@
     <t xml:space="preserve">11.1251430511475</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9707040786743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0281047821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0267391204834</t>
+    <t xml:space="preserve">10.9707050323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0281057357788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0267381668091</t>
   </si>
   <si>
     <t xml:space="preserve">10.9884700775146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9925689697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0226373672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0964422225952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0896072387695</t>
+    <t xml:space="preserve">10.9925708770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0226383209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0964412689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0896091461182</t>
   </si>
   <si>
     <t xml:space="preserve">11.1456422805786</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0704736709595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1292419433594</t>
+    <t xml:space="preserve">11.0704746246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1292428970337</t>
   </si>
   <si>
     <t xml:space="preserve">11.2508821487427</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1675109863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0732078552246</t>
+    <t xml:space="preserve">11.1675100326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0732069015503</t>
   </si>
   <si>
     <t xml:space="preserve">11.1333436965942</t>
@@ -1616,19 +1616,19 @@
     <t xml:space="preserve">11.2754821777344</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1975793838501</t>
+    <t xml:space="preserve">11.1975774765015</t>
   </si>
   <si>
     <t xml:space="preserve">10.9037342071533</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9050998687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0117044448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.873664855957</t>
+    <t xml:space="preserve">10.9051027297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0117025375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8736629486084</t>
   </si>
   <si>
     <t xml:space="preserve">10.8135299682617</t>
@@ -1637,31 +1637,31 @@
     <t xml:space="preserve">10.9420003890991</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0527067184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1524772644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0937061309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2071466445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2290134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2098798751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9201326370239</t>
+    <t xml:space="preserve">11.0527076721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.15247631073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0937070846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2071447372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2290143966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2098789215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9201345443726</t>
   </si>
   <si>
     <t xml:space="preserve">10.9912033081055</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0185384750366</t>
+    <t xml:space="preserve">11.0185394287109</t>
   </si>
   <si>
     <t xml:space="preserve">10.9064674377441</t>
@@ -1670,16 +1670,16 @@
     <t xml:space="preserve">10.8148965835571</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7465600967407</t>
+    <t xml:space="preserve">10.7465591430664</t>
   </si>
   <si>
     <t xml:space="preserve">10.8312978744507</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8517980575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9461030960083</t>
+    <t xml:space="preserve">10.8517961502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.946102142334</t>
   </si>
   <si>
     <t xml:space="preserve">10.9256010055542</t>
@@ -1694,16 +1694,16 @@
     <t xml:space="preserve">11.1647777557373</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3322229385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6071815490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6408491134644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5959587097168</t>
+    <t xml:space="preserve">11.3322219848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6071825027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6408500671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5959596633911</t>
   </si>
   <si>
     <t xml:space="preserve">11.4206018447876</t>
@@ -1712,34 +1712,34 @@
     <t xml:space="preserve">11.4472551345825</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4626874923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4865369796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4177951812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4107809066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1147813796997</t>
+    <t xml:space="preserve">11.4626865386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.486536026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.417797088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4107818603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1147794723511</t>
   </si>
   <si>
     <t xml:space="preserve">11.4065742492676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3308191299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0193862915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9562587738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0558614730835</t>
+    <t xml:space="preserve">11.3308200836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0193891525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9562578201294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0558605194092</t>
   </si>
   <si>
     <t xml:space="preserve">11.104962348938</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">10.9310064315796</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7261915206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7949314117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6434230804443</t>
+    <t xml:space="preserve">10.7261905670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7949304580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6434240341187</t>
   </si>
   <si>
     <t xml:space="preserve">10.4863033294678</t>
@@ -1763,28 +1763,28 @@
     <t xml:space="preserve">10.3263788223267</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5031385421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6153650283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7752923965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7921266555786</t>
+    <t xml:space="preserve">10.5031394958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6153659820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7752914428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.79212474823</t>
   </si>
   <si>
     <t xml:space="preserve">11.0165815353394</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8201818466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7738876342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8384189605713</t>
+    <t xml:space="preserve">10.8201808929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.773886680603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8384199142456</t>
   </si>
   <si>
     <t xml:space="preserve">10.7584571838379</t>
@@ -1793,49 +1793,49 @@
     <t xml:space="preserve">10.9660787582397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9239921569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8412256240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8636713027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.625186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4694700241089</t>
+    <t xml:space="preserve">10.9239940643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8412265777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8636703491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6251850128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4694690704346</t>
   </si>
   <si>
     <t xml:space="preserve">10.5045404434204</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4512319564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3249778747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1369943618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2604475021362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0415983200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86203670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0275726318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95602703094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92797183990479</t>
+    <t xml:space="preserve">10.4512329101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3249759674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1369934082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2604446411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0416011810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86203575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0275716781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95602607727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92796993255615</t>
   </si>
   <si>
     <t xml:space="preserve">9.97145843505859</t>
@@ -1847,7 +1847,7 @@
     <t xml:space="preserve">10.1790809631348</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1103391647339</t>
+    <t xml:space="preserve">10.1103420257568</t>
   </si>
   <si>
     <t xml:space="preserve">10.023365020752</t>
@@ -1856,10 +1856,10 @@
     <t xml:space="preserve">9.70351409912109</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89991188049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77786254882812</t>
+    <t xml:space="preserve">9.8999137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77786540985107</t>
   </si>
   <si>
     <t xml:space="preserve">9.86624431610107</t>
@@ -1868,19 +1868,19 @@
     <t xml:space="preserve">9.98548698425293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0037250518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92376136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79189205169678</t>
+    <t xml:space="preserve">10.0037240982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92376232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79189395904541</t>
   </si>
   <si>
     <t xml:space="preserve">9.68948554992676</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78487968444824</t>
+    <t xml:space="preserve">9.78487873077393</t>
   </si>
   <si>
     <t xml:space="preserve">9.69790172576904</t>
@@ -1892,25 +1892,25 @@
     <t xml:space="preserve">9.4832649230957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64319133758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66563606262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70772171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0584335327148</t>
+    <t xml:space="preserve">9.64319229125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6656379699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70771980285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0584344863892</t>
   </si>
   <si>
     <t xml:space="preserve">9.97005462646484</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90832901000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99951267242432</t>
+    <t xml:space="preserve">9.90832996368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99951553344727</t>
   </si>
   <si>
     <t xml:space="preserve">9.98969554901123</t>
@@ -1925,16 +1925,16 @@
     <t xml:space="preserve">9.99530601501465</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0163497924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97286224365234</t>
+    <t xml:space="preserve">10.0163478851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97286128997803</t>
   </si>
   <si>
     <t xml:space="preserve">10.2464160919189</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2029275894165</t>
+    <t xml:space="preserve">10.2029294967651</t>
   </si>
   <si>
     <t xml:space="preserve">10.1538286209106</t>
@@ -1943,127 +1943,127 @@
     <t xml:space="preserve">10.111743927002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2211647033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1229667663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1860942840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2716674804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3852987289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3614511489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3712711334229</t>
+    <t xml:space="preserve">10.2211637496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1229658126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1860961914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2716684341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3852977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3614501953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3712720870972</t>
   </si>
   <si>
     <t xml:space="preserve">10.4792890548706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4231767654419</t>
+    <t xml:space="preserve">10.4231758117676</t>
   </si>
   <si>
     <t xml:space="preserve">10.1945114135742</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1818857192993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2758779525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.350227355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.420371055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3670616149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6055469512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6448268890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6602573394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6981344223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7107610702515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7233858108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6700773239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6686754226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6770906448364</t>
+    <t xml:space="preserve">10.1818866729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2758760452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3502264022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4203701019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3670606613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.605544090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6448249816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6602592468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6981353759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7107601165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7233848571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6700782775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6686744689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6770896911621</t>
   </si>
   <si>
     <t xml:space="preserve">10.6378116607666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5480308532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5985317230225</t>
+    <t xml:space="preserve">10.5480289459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5985298156738</t>
   </si>
   <si>
     <t xml:space="preserve">10.6504383087158</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7177743911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4989309310913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6069498062134</t>
+    <t xml:space="preserve">10.7177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4989290237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6069478988647</t>
   </si>
   <si>
     <t xml:space="preserve">10.6364088058472</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9029502868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8987407684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9338130950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0432357788086</t>
+    <t xml:space="preserve">10.9029512405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8987417221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9338140487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0432348251343</t>
   </si>
   <si>
     <t xml:space="preserve">11.1456432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0656814575195</t>
+    <t xml:space="preserve">11.0656805038452</t>
   </si>
   <si>
     <t xml:space="preserve">11.1035575866699</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0123729705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9590644836426</t>
+    <t xml:space="preserve">11.0123720169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9590654373169</t>
   </si>
   <si>
     <t xml:space="preserve">10.9534530639648</t>
@@ -2078,10 +2078,10 @@
     <t xml:space="preserve">11.0502500534058</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0754995346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1554641723633</t>
+    <t xml:space="preserve">11.0755014419556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.155463218689</t>
   </si>
   <si>
     <t xml:space="preserve">11.0516529083252</t>
@@ -2090,13 +2090,13 @@
     <t xml:space="preserve">11.1161823272705</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0923357009888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1442403793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1807165145874</t>
+    <t xml:space="preserve">11.0923347473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1442413330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1807155609131</t>
   </si>
   <si>
     <t xml:space="preserve">11.1694917678833</t>
@@ -2105,37 +2105,37 @@
     <t xml:space="preserve">11.0937395095825</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9913301467896</t>
+    <t xml:space="preserve">10.9913320541382</t>
   </si>
   <si>
     <t xml:space="preserve">10.8229885101318</t>
   </si>
   <si>
-    <t xml:space="preserve">10.824390411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0811128616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9071598052979</t>
+    <t xml:space="preserve">10.8243894577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0811138153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9071588516235</t>
   </si>
   <si>
     <t xml:space="preserve">10.876296043396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7612628936768</t>
+    <t xml:space="preserve">10.7612638473511</t>
   </si>
   <si>
     <t xml:space="preserve">10.5901136398315</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6742868423462</t>
+    <t xml:space="preserve">10.6742849349976</t>
   </si>
   <si>
     <t xml:space="preserve">10.5452241897583</t>
   </si>
   <si>
-    <t xml:space="preserve">10.583101272583</t>
+    <t xml:space="preserve">10.5831003189087</t>
   </si>
   <si>
     <t xml:space="preserve">10.4315929412842</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">10.1566343307495</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0472145080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0065288543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1159515380859</t>
+    <t xml:space="preserve">10.0472106933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0065298080444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1159505844116</t>
   </si>
   <si>
     <t xml:space="preserve">10.2436113357544</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1832857131958</t>
+    <t xml:space="preserve">10.1832876205444</t>
   </si>
   <si>
     <t xml:space="preserve">10.3460187911987</t>
@@ -2171,16 +2171,16 @@
     <t xml:space="preserve">10.3990497589111</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4884958267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4004907608032</t>
+    <t xml:space="preserve">10.4884948730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4004926681519</t>
   </si>
   <si>
     <t xml:space="preserve">10.0412549972534</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1379175186157</t>
+    <t xml:space="preserve">10.13791847229</t>
   </si>
   <si>
     <t xml:space="preserve">10.1494588851929</t>
@@ -2189,46 +2189,46 @@
     <t xml:space="preserve">10.1177206039429</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90708541870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87678718566895</t>
+    <t xml:space="preserve">9.90708446502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87678813934326</t>
   </si>
   <si>
     <t xml:space="preserve">9.79599475860596</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96912002563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1119480133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0037450790405</t>
+    <t xml:space="preserve">9.96912097930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1119499206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0037460327148</t>
   </si>
   <si>
     <t xml:space="preserve">10.0268297195435</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0701084136963</t>
+    <t xml:space="preserve">10.0701112747192</t>
   </si>
   <si>
     <t xml:space="preserve">10.0989646911621</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1321458816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0297155380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0585699081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0051879882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2114944458008</t>
+    <t xml:space="preserve">10.1321449279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0297164916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0585680007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0051889419556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2114953994751</t>
   </si>
   <si>
     <t xml:space="preserve">10.2591047286987</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">10.3572082519531</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5361061096191</t>
+    <t xml:space="preserve">10.5361042022705</t>
   </si>
   <si>
     <t xml:space="preserve">10.4755115509033</t>
@@ -2246,19 +2246,19 @@
     <t xml:space="preserve">10.4163618087769</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4654121398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4351139068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5606307983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4582004547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5086936950684</t>
+    <t xml:space="preserve">10.4654130935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4351148605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5606317520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4581995010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5086946487427</t>
   </si>
   <si>
     <t xml:space="preserve">10.564959526062</t>
@@ -2267,10 +2267,10 @@
     <t xml:space="preserve">10.4957103729248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5707302093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6082429885864</t>
+    <t xml:space="preserve">10.5707311630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6082401275635</t>
   </si>
   <si>
     <t xml:space="preserve">10.6760482788086</t>
@@ -2279,55 +2279,55 @@
     <t xml:space="preserve">10.694803237915</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6125688552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793867111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3976049423218</t>
+    <t xml:space="preserve">10.612566947937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793876647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3976068496704</t>
   </si>
   <si>
     <t xml:space="preserve">10.3153705596924</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2576637268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3269109725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3802938461304</t>
+    <t xml:space="preserve">10.2576627731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3269128799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3802947998047</t>
   </si>
   <si>
     <t xml:space="preserve">10.3514394760132</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3427820205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2778606414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1667709350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2461223602295</t>
+    <t xml:space="preserve">10.3427829742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2778596878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1667718887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2461204528809</t>
   </si>
   <si>
     <t xml:space="preserve">10.1682147979736</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86813163757324</t>
+    <t xml:space="preserve">9.86813068389893</t>
   </si>
   <si>
     <t xml:space="preserve">9.7238597869873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65460872650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51755428314209</t>
+    <t xml:space="preserve">9.65460968017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51755237579346</t>
   </si>
   <si>
     <t xml:space="preserve">9.6906795501709</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">9.51611042022705</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50024032592773</t>
+    <t xml:space="preserve">9.50024127960205</t>
   </si>
   <si>
     <t xml:space="preserve">9.68057823181152</t>
@@ -2345,49 +2345,49 @@
     <t xml:space="preserve">9.45118808746338</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40646457672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57526111602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48148632049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63008308410645</t>
+    <t xml:space="preserve">9.40646266937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57526206970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48148441314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63008499145508</t>
   </si>
   <si>
     <t xml:space="preserve">9.6026725769043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48004150390625</t>
+    <t xml:space="preserve">9.4800443649292</t>
   </si>
   <si>
     <t xml:space="preserve">9.53486442565918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59545993804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66615009307861</t>
+    <t xml:space="preserve">9.595458984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66615200042725</t>
   </si>
   <si>
     <t xml:space="preserve">9.82340812683105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89121341705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81186580657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86091804504395</t>
+    <t xml:space="preserve">9.89121437072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81186676025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86091709136963</t>
   </si>
   <si>
     <t xml:space="preserve">9.9330530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0427007675171</t>
+    <t xml:space="preserve">10.0426998138428</t>
   </si>
   <si>
     <t xml:space="preserve">10.1725444793701</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">10.1523456573486</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1307039260864</t>
+    <t xml:space="preserve">10.1307029724121</t>
   </si>
   <si>
     <t xml:space="preserve">10.3254699707031</t>
@@ -2405,10 +2405,10 @@
     <t xml:space="preserve">10.208610534668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3326854705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4971513748169</t>
+    <t xml:space="preserve">10.3326835632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4971532821655</t>
   </si>
   <si>
     <t xml:space="preserve">10.5105314254761</t>
@@ -2417,28 +2417,28 @@
     <t xml:space="preserve">10.4034929275513</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3038892745972</t>
+    <t xml:space="preserve">10.3038902282715</t>
   </si>
   <si>
     <t xml:space="preserve">10.3574085235596</t>
   </si>
   <si>
-    <t xml:space="preserve">10.446605682373</t>
+    <t xml:space="preserve">10.4466066360474</t>
   </si>
   <si>
     <t xml:space="preserve">10.4317398071289</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3916006088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.076434135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96642112731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0675144195557</t>
+    <t xml:space="preserve">10.3915996551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0764322280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96642208099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0675134658813</t>
   </si>
   <si>
     <t xml:space="preserve">10.1477937698364</t>
@@ -2447,34 +2447,34 @@
     <t xml:space="preserve">10.0600805282593</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1091384887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1700897216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2845630645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2161779403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2860507965088</t>
+    <t xml:space="preserve">10.1091394424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.170090675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2845621109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.21617603302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2860498428345</t>
   </si>
   <si>
     <t xml:space="preserve">10.2696962356567</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2429370880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.372275352478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4599876403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5090446472168</t>
+    <t xml:space="preserve">10.242938041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3722743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4599847793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5090456008911</t>
   </si>
   <si>
     <t xml:space="preserve">10.4362001419067</t>
@@ -2483,25 +2483,25 @@
     <t xml:space="preserve">10.3603801727295</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2786178588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1819839477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0868406295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1864442825317</t>
+    <t xml:space="preserve">10.2786169052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1819849014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0868377685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1864452362061</t>
   </si>
   <si>
     <t xml:space="preserve">10.3871421813965</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5536432266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5283699035645</t>
+    <t xml:space="preserve">10.5536441802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5283718109131</t>
   </si>
   <si>
     <t xml:space="preserve">10.5372905731201</t>
@@ -2510,34 +2510,34 @@
     <t xml:space="preserve">10.5476970672607</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5075569152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5952701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5417518615723</t>
+    <t xml:space="preserve">10.5075578689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.595269203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5417509078979</t>
   </si>
   <si>
     <t xml:space="preserve">10.5699987411499</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4882307052612</t>
+    <t xml:space="preserve">10.4882297515869</t>
   </si>
   <si>
     <t xml:space="preserve">10.3841676712036</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4153881072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4376859664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4421453475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3559198379517</t>
+    <t xml:space="preserve">10.4153871536255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4376878738403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4421472549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.355920791626</t>
   </si>
   <si>
     <t xml:space="preserve">10.3247013092041</t>
@@ -2546,31 +2546,31 @@
     <t xml:space="preserve">10.2578029632568</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1938781738281</t>
+    <t xml:space="preserve">10.1938772201538</t>
   </si>
   <si>
     <t xml:space="preserve">10.0883255004883</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0199403762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.141845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2355031967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1284656524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1581993103027</t>
+    <t xml:space="preserve">10.0199394226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1418437957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2355041503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1284675598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1581983566284</t>
   </si>
   <si>
     <t xml:space="preserve">10.1031932830811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1463041305542</t>
+    <t xml:space="preserve">10.1463060379028</t>
   </si>
   <si>
     <t xml:space="preserve">10.1121139526367</t>
@@ -2579,16 +2579,16 @@
     <t xml:space="preserve">10.1269798278809</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1849565505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2711820602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2919940948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4183597564697</t>
+    <t xml:space="preserve">10.1849584579468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2711811065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2919960021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4183588027954</t>
   </si>
   <si>
     <t xml:space="preserve">10.4064664840698</t>
@@ -2600,58 +2600,58 @@
     <t xml:space="preserve">10.4852590560913</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6413555145264</t>
+    <t xml:space="preserve">10.6413564682007</t>
   </si>
   <si>
     <t xml:space="preserve">10.6443290710449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5595903396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4807996749878</t>
+    <t xml:space="preserve">10.5595922470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4807987213135</t>
   </si>
   <si>
     <t xml:space="preserve">10.3128080368042</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2563152313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3232164382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3440284729004</t>
+    <t xml:space="preserve">10.2563171386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3232154846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3440294265747</t>
   </si>
   <si>
     <t xml:space="preserve">10.3187551498413</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0779190063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0035886764526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0125064849854</t>
+    <t xml:space="preserve">10.0779180526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.003589630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.012508392334</t>
   </si>
   <si>
     <t xml:space="preserve">9.80883884429932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95898914337158</t>
+    <t xml:space="preserve">9.95898818969727</t>
   </si>
   <si>
     <t xml:space="preserve">9.87722301483154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60814189910889</t>
+    <t xml:space="preserve">9.60814094543457</t>
   </si>
   <si>
     <t xml:space="preserve">9.40893268585205</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37325382232666</t>
+    <t xml:space="preserve">9.37325286865234</t>
   </si>
   <si>
     <t xml:space="preserve">9.50556468963623</t>
@@ -2663,28 +2663,28 @@
     <t xml:space="preserve">9.64084911346436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59327507019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49961853027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73748111724854</t>
+    <t xml:space="preserve">9.59327697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49961757659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73748207092285</t>
   </si>
   <si>
     <t xml:space="preserve">9.6542272567749</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58286952972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59625148773193</t>
+    <t xml:space="preserve">9.5828685760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5962495803833</t>
   </si>
   <si>
     <t xml:space="preserve">9.61706256866455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58881568908691</t>
+    <t xml:space="preserve">9.58881664276123</t>
   </si>
   <si>
     <t xml:space="preserve">9.48772430419922</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">9.04470634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90198993682861</t>
+    <t xml:space="preserve">8.9019889831543</t>
   </si>
   <si>
     <t xml:space="preserve">8.96740055084229</t>
@@ -2702,25 +2702,25 @@
     <t xml:space="preserve">8.73994636535645</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29395580291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26422119140625</t>
+    <t xml:space="preserve">8.29395484924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26422214508057</t>
   </si>
   <si>
     <t xml:space="preserve">8.26570796966553</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28949451446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15272331237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60712814331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02088403701782</t>
+    <t xml:space="preserve">8.28949546813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15272235870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60712718963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02088499069214</t>
   </si>
   <si>
     <t xml:space="preserve">6.06920003890991</t>
@@ -2729,25 +2729,25 @@
     <t xml:space="preserve">5.98371887207031</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89995956420898</t>
+    <t xml:space="preserve">4.89995908737183</t>
   </si>
   <si>
     <t xml:space="preserve">5.13707780838013</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82562780380249</t>
+    <t xml:space="preserve">4.82562732696533</t>
   </si>
   <si>
     <t xml:space="preserve">5.10362911224365</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97577810287476</t>
+    <t xml:space="preserve">4.9757776260376</t>
   </si>
   <si>
     <t xml:space="preserve">5.17721748352051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42102670669556</t>
+    <t xml:space="preserve">5.42102575302124</t>
   </si>
   <si>
     <t xml:space="preserve">5.41656589508057</t>
@@ -2756,16 +2756,16 @@
     <t xml:space="preserve">6.22529745101929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.483971118927</t>
+    <t xml:space="preserve">6.48397159576416</t>
   </si>
   <si>
     <t xml:space="preserve">6.47505235671997</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10785245895386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38734102249146</t>
+    <t xml:space="preserve">6.10785293579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38734149932861</t>
   </si>
   <si>
     <t xml:space="preserve">6.85340261459351</t>
@@ -2774,37 +2774,37 @@
     <t xml:space="preserve">6.83853483200073</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31277322769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93145036697388</t>
+    <t xml:space="preserve">7.31277275085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93144941329956</t>
   </si>
   <si>
     <t xml:space="preserve">6.92401742935181</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00801181793213</t>
+    <t xml:space="preserve">7.00801277160645</t>
   </si>
   <si>
     <t xml:space="preserve">6.90915060043335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91881322860718</t>
+    <t xml:space="preserve">6.91881418228149</t>
   </si>
   <si>
     <t xml:space="preserve">6.81400489807129</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37916469573975</t>
+    <t xml:space="preserve">6.37916374206543</t>
   </si>
   <si>
     <t xml:space="preserve">6.28402042388916</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38288164138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2691535949707</t>
+    <t xml:space="preserve">6.38288068771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26915311813354</t>
   </si>
   <si>
     <t xml:space="preserve">5.91682004928589</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">6.20522737503052</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29739904403687</t>
+    <t xml:space="preserve">6.29740047454834</t>
   </si>
   <si>
     <t xml:space="preserve">6.1323823928833</t>
@@ -2822,28 +2822,28 @@
     <t xml:space="preserve">6.24685382843018</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45498275756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65790843963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47728157043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1033935546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45721292495728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26097583770752</t>
+    <t xml:space="preserve">6.4549822807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65790796279907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47728204727173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10339307785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45721244812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26097631454468</t>
   </si>
   <si>
     <t xml:space="preserve">6.35983753204346</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41558647155762</t>
+    <t xml:space="preserve">6.41558694839478</t>
   </si>
   <si>
     <t xml:space="preserve">6.33679485321045</t>
@@ -2852,106 +2852,106 @@
     <t xml:space="preserve">6.32861804962158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33307933807373</t>
+    <t xml:space="preserve">6.33307886123657</t>
   </si>
   <si>
     <t xml:space="preserve">6.77694177627563</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56322956085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59845685958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43641185760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39883518218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46615982055664</t>
+    <t xml:space="preserve">6.56322908401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59845733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43641138076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3988356590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46615886688232</t>
   </si>
   <si>
     <t xml:space="preserve">6.47711896896362</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61489534378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64777517318726</t>
+    <t xml:space="preserve">6.61489582061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64777374267578</t>
   </si>
   <si>
     <t xml:space="preserve">6.35891151428223</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52878522872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86618518829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04466772079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01726961135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44156265258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56524896621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33979558944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.225501537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71744728088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72214412689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71666479110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99456930160522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96403837203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91628551483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94681596755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89123392105103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6321177482605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63916397094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57340669631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75189113616943</t>
+    <t xml:space="preserve">6.52878570556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86618423461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04466867446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01727104187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44156217575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56524848937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33979415893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22550249099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71744680404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72214365005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71666383743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99456787109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96403741836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91628503799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9468150138855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89123487472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63211917877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63916444778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57340621948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75189256668091</t>
   </si>
   <si>
     <t xml:space="preserve">6.64620971679688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63446712493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82625961303711</t>
+    <t xml:space="preserve">6.63446760177612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82626056671143</t>
   </si>
   <si>
     <t xml:space="preserve">6.79024934768677</t>
@@ -2960,136 +2960,136 @@
     <t xml:space="preserve">6.85600805282593</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90454292297363</t>
+    <t xml:space="preserve">6.90454244613647</t>
   </si>
   <si>
     <t xml:space="preserve">6.80903768539429</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60237169265747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77929067611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87557792663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91706848144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96325540542603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89906311035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87401247024536</t>
+    <t xml:space="preserve">6.60237121582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77928972244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8755784034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91706895828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96325588226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89906215667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8740119934082</t>
   </si>
   <si>
     <t xml:space="preserve">6.98987150192261</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81608295440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73310375213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6696949005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62507295608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6360330581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58358335494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12014961242676</t>
+    <t xml:space="preserve">6.81608247756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73310327529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66969394683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62507343292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63603210449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58358287811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1201491355896</t>
   </si>
   <si>
     <t xml:space="preserve">5.9033055305481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8978271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15224552154541</t>
+    <t xml:space="preserve">5.89782571792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15224456787109</t>
   </si>
   <si>
     <t xml:space="preserve">6.33777523040771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21721982955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11075448989868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25166416168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4536337852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55461835861206</t>
+    <t xml:space="preserve">6.21721887588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.110755443573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25166320800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45363473892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5546178817749</t>
   </si>
   <si>
     <t xml:space="preserve">6.45441675186157</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40275001525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34090614318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30489587783813</t>
+    <t xml:space="preserve">6.40274953842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34090662002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30489635467529</t>
   </si>
   <si>
     <t xml:space="preserve">6.3628249168396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21174001693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16320466995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41214418411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32368421554565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23287677764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10605812072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08727073669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00898790359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0246434211731</t>
+    <t xml:space="preserve">6.21174049377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16320514678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41214466094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32368469238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23287630081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10605764389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08727121353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00898742675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02464437484741</t>
   </si>
   <si>
     <t xml:space="preserve">5.98471975326538</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08492136001587</t>
+    <t xml:space="preserve">6.08492183685303</t>
   </si>
   <si>
     <t xml:space="preserve">5.88608407974243</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97141170501709</t>
+    <t xml:space="preserve">5.97141122817993</t>
   </si>
   <si>
     <t xml:space="preserve">5.96984624862671</t>
@@ -3098,43 +3098,43 @@
     <t xml:space="preserve">5.9487099647522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85242223739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95888662338257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.989417552948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94479608535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78353357315063</t>
+    <t xml:space="preserve">5.85242176055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95888614654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98941659927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94479513168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78353261947632</t>
   </si>
   <si>
     <t xml:space="preserve">5.53048372268677</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61483383178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51297807693481</t>
+    <t xml:space="preserve">5.61483335494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5129771232605</t>
   </si>
   <si>
     <t xml:space="preserve">5.42067003250122</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32279205322266</t>
+    <t xml:space="preserve">5.32279253005981</t>
   </si>
   <si>
     <t xml:space="preserve">5.45886611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30369424819946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32199621200562</t>
+    <t xml:space="preserve">5.30369472503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32199668884277</t>
   </si>
   <si>
     <t xml:space="preserve">5.14215612411499</t>
@@ -3143,34 +3143,34 @@
     <t xml:space="preserve">5.17000722885132</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3235878944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5050196647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35541820526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47875928878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46045684814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42623949050903</t>
+    <t xml:space="preserve">5.32358837127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50502014160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35541868209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.478759765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46045827865601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42623996734619</t>
   </si>
   <si>
     <t xml:space="preserve">5.32040452957153</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32995414733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10714340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22252750396729</t>
+    <t xml:space="preserve">5.32995367050171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10714244842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22252798080444</t>
   </si>
   <si>
     <t xml:space="preserve">5.24082946777344</t>
@@ -3179,10 +3179,10 @@
     <t xml:space="preserve">5.22173118591309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04507493972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04586982727051</t>
+    <t xml:space="preserve">5.04507446289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04587030410767</t>
   </si>
   <si>
     <t xml:space="preserve">5.12783193588257</t>
@@ -3200,13 +3200,13 @@
     <t xml:space="preserve">4.70926713943481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7832727432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06258153915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18353509902954</t>
+    <t xml:space="preserve">4.78327226638794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06258106231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1835355758667</t>
   </si>
   <si>
     <t xml:space="preserve">5.24958324432373</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">5.24878692626953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2058162689209</t>
+    <t xml:space="preserve">5.20581674575806</t>
   </si>
   <si>
     <t xml:space="preserve">5.87106609344482</t>
@@ -3224,25 +3224,25 @@
     <t xml:space="preserve">6.10979270935059</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04135751724243</t>
+    <t xml:space="preserve">6.04135704040527</t>
   </si>
   <si>
     <t xml:space="preserve">6.06204652786255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09546756744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3405613899231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43445920944214</t>
+    <t xml:space="preserve">6.09546804428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34056043624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4344596862793</t>
   </si>
   <si>
     <t xml:space="preserve">6.5204005241394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42729711532593</t>
+    <t xml:space="preserve">6.42729759216309</t>
   </si>
   <si>
     <t xml:space="preserve">6.46549367904663</t>
@@ -3251,55 +3251,55 @@
     <t xml:space="preserve">6.62862300872803</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85939168930054</t>
+    <t xml:space="preserve">6.85939121246338</t>
   </si>
   <si>
     <t xml:space="preserve">6.90077066421509</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81005477905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82915353775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60713768005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69626140594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7631049156189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72570419311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95806407928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97636747360229</t>
+    <t xml:space="preserve">6.81005430221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82915210723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60713720321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69626235961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76310539245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72570466995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95806550979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97636795043945</t>
   </si>
   <si>
     <t xml:space="preserve">6.99466943740845</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0368447303772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11084938049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00899314880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90554618835449</t>
+    <t xml:space="preserve">7.03684425354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11084890365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00899219512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90554571151733</t>
   </si>
   <si>
     <t xml:space="preserve">6.96443033218384</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96761274337769</t>
+    <t xml:space="preserve">6.96761322021484</t>
   </si>
   <si>
     <t xml:space="preserve">6.93180465698242</t>
@@ -3314,10 +3314,10 @@
     <t xml:space="preserve">6.65249538421631</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83074331283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84029340744019</t>
+    <t xml:space="preserve">6.83074378967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84029293060303</t>
   </si>
   <si>
     <t xml:space="preserve">6.8132381439209</t>
@@ -3329,64 +3329,64 @@
     <t xml:space="preserve">6.72252178192139</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97159194946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19997453689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21588897705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18565034866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14427137374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20474720001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20952367782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1657567024231</t>
+    <t xml:space="preserve">6.97159147262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19997501373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21588850021362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18564987182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14427042007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20474863052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20952415466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16575622558594</t>
   </si>
   <si>
     <t xml:space="preserve">7.02729606628418</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04718971252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02411127090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08299684524536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89758682250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79732275009155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64692544937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78618240356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80130195617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64612913131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52517461776733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61350345611572</t>
+    <t xml:space="preserve">7.04719018936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02411270141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08299779891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89758729934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79732322692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64692497253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78618144989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80130052566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6461296081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52517557144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61350393295288</t>
   </si>
   <si>
     <t xml:space="preserve">6.75514793395996</t>
@@ -3398,16 +3398,16 @@
     <t xml:space="preserve">6.85222911834717</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90793228149414</t>
+    <t xml:space="preserve">6.90793180465698</t>
   </si>
   <si>
     <t xml:space="preserve">6.98273229598999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03763961791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98432397842407</t>
+    <t xml:space="preserve">7.03764009475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98432493209839</t>
   </si>
   <si>
     <t xml:space="preserve">7.06549072265625</t>
@@ -3416,67 +3416,67 @@
     <t xml:space="preserve">7.25965547561646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22464370727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29148578643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23896455764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31933641433716</t>
+    <t xml:space="preserve">7.22464179992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29148435592651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23896503448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31933736801147</t>
   </si>
   <si>
     <t xml:space="preserve">7.44506549835205</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49917554855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62092638015747</t>
+    <t xml:space="preserve">7.49917602539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62092542648315</t>
   </si>
   <si>
     <t xml:space="preserve">7.70288991928101</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54532909393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60819578170776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55328798294067</t>
+    <t xml:space="preserve">7.54533052444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60819387435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55328702926636</t>
   </si>
   <si>
     <t xml:space="preserve">7.68697452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85885858535767</t>
+    <t xml:space="preserve">7.85885763168335</t>
   </si>
   <si>
     <t xml:space="preserve">8.00686740875244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1007661819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06893730163574</t>
+    <t xml:space="preserve">8.10076522827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06893634796143</t>
   </si>
   <si>
     <t xml:space="preserve">8.13259601593018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19625663757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29015445709229</t>
+    <t xml:space="preserve">8.19625759124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29015636444092</t>
   </si>
   <si>
     <t xml:space="preserve">8.22331237792969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14851093292236</t>
+    <t xml:space="preserve">8.14851188659668</t>
   </si>
   <si>
     <t xml:space="preserve">8.22649478912354</t>
@@ -3485,25 +3485,25 @@
     <t xml:space="preserve">8.09599304199219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07371139526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94161605834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15328502655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04665660858154</t>
+    <t xml:space="preserve">8.07371044158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94161510467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15328693389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04665565490723</t>
   </si>
   <si>
     <t xml:space="preserve">8.14214515686035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23445320129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28538227081299</t>
+    <t xml:space="preserve">8.23445224761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28537940979004</t>
   </si>
   <si>
     <t xml:space="preserve">8.35063171386719</t>
@@ -3515,10 +3515,10 @@
     <t xml:space="preserve">8.33471775054932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32039451599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16442680358887</t>
+    <t xml:space="preserve">8.32039356231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16442775726318</t>
   </si>
   <si>
     <t xml:space="preserve">8.11668109893799</t>
@@ -3530,13 +3530,13 @@
     <t xml:space="preserve">8.13737106323242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34585857391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24718475341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23604297637939</t>
+    <t xml:space="preserve">8.34585762023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24718570709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23604393005371</t>
   </si>
   <si>
     <t xml:space="preserve">8.21535587310791</t>
@@ -3545,73 +3545,73 @@
     <t xml:space="preserve">8.0164155960083</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07689189910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09121608734131</t>
+    <t xml:space="preserve">8.0768928527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09121704101562</t>
   </si>
   <si>
     <t xml:space="preserve">8.0386962890625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07530212402344</t>
+    <t xml:space="preserve">8.07530117034912</t>
   </si>
   <si>
     <t xml:space="preserve">8.04506301879883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11986637115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11827278137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90182733535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03710556030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20262336730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21694374084473</t>
+    <t xml:space="preserve">8.11986446380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11827087402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90182828903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03710651397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20262241363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21694564819336</t>
   </si>
   <si>
     <t xml:space="preserve">8.21217155456543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28219795227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32198524475098</t>
+    <t xml:space="preserve">8.28219699859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32198619842529</t>
   </si>
   <si>
     <t xml:space="preserve">8.19943904876709</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29970550537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32675933837891</t>
+    <t xml:space="preserve">8.29970359802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32676029205322</t>
   </si>
   <si>
     <t xml:space="preserve">8.30288696289062</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11349773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1835241317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2372989654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13545322418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17211818695068</t>
+    <t xml:space="preserve">8.11349868774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18352317810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23729801177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13545417785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17211723327637</t>
   </si>
   <si>
     <t xml:space="preserve">8.22915267944336</t>
@@ -3623,13 +3623,13 @@
     <t xml:space="preserve">8.1933012008667</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38721656799316</t>
+    <t xml:space="preserve">8.38721752166748</t>
   </si>
   <si>
     <t xml:space="preserve">8.44913864135742</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5061731338501</t>
+    <t xml:space="preserve">8.50617122650146</t>
   </si>
   <si>
     <t xml:space="preserve">8.4572868347168</t>
@@ -3641,13 +3641,13 @@
     <t xml:space="preserve">8.55179882049561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50943088531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5664644241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62187004089355</t>
+    <t xml:space="preserve">8.50943279266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56646537780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62186908721924</t>
   </si>
   <si>
     <t xml:space="preserve">8.74082565307617</t>
@@ -3659,28 +3659,28 @@
     <t xml:space="preserve">8.75223159790039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66097927093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4035120010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48824691772461</t>
+    <t xml:space="preserve">8.66097736358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40351295471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48824787139893</t>
   </si>
   <si>
     <t xml:space="preserve">8.48498821258545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49150657653809</t>
+    <t xml:space="preserve">8.49150562286377</t>
   </si>
   <si>
     <t xml:space="preserve">8.58764934539795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60068702697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42632579803467</t>
+    <t xml:space="preserve">8.60068607330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42632389068604</t>
   </si>
   <si>
     <t xml:space="preserve">8.42306613922119</t>
@@ -3689,82 +3689,82 @@
     <t xml:space="preserve">8.36766147613525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52246856689453</t>
+    <t xml:space="preserve">8.52246761322021</t>
   </si>
   <si>
     <t xml:space="preserve">8.47195148468018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51920986175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28618621826172</t>
+    <t xml:space="preserve">8.51920890808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28618431091309</t>
   </si>
   <si>
     <t xml:space="preserve">8.11752891540527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21285533905029</t>
+    <t xml:space="preserve">8.21285629272461</t>
   </si>
   <si>
     <t xml:space="preserve">8.15093326568604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16722965240479</t>
+    <t xml:space="preserve">8.1672306060791</t>
   </si>
   <si>
     <t xml:space="preserve">8.07434558868408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01079273223877</t>
+    <t xml:space="preserve">8.01079368591309</t>
   </si>
   <si>
     <t xml:space="preserve">7.70281171798706</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74273681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94398307800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85761737823486</t>
+    <t xml:space="preserve">7.74273586273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94398403167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85761642456055</t>
   </si>
   <si>
     <t xml:space="preserve">7.87798690795898</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03849601745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99123859405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08004760742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15908145904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12486171722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25848293304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24544525146484</t>
+    <t xml:space="preserve">8.03849506378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99123954772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08004951477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15908050537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1248607635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25848197937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24544715881348</t>
   </si>
   <si>
     <t xml:space="preserve">8.31062889099121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3937349319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37907028198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43284320831299</t>
+    <t xml:space="preserve">8.39373588562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37906837463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43284225463867</t>
   </si>
   <si>
     <t xml:space="preserve">8.48661708831787</t>
@@ -3773,28 +3773,28 @@
     <t xml:space="preserve">8.53713226318359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56972503662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45076656341553</t>
+    <t xml:space="preserve">8.56972408294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45076751708984</t>
   </si>
   <si>
     <t xml:space="preserve">8.45402717590332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44587802886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20959663391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1981897354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33833122253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40677070617676</t>
+    <t xml:space="preserve">8.44587993621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20959758758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19819068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3383321762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40676975250244</t>
   </si>
   <si>
     <t xml:space="preserve">8.41654777526855</t>
@@ -3803,7 +3803,7 @@
     <t xml:space="preserve">8.39699459075928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4963960647583</t>
+    <t xml:space="preserve">8.49639511108398</t>
   </si>
   <si>
     <t xml:space="preserve">8.49965572357178</t>
@@ -3818,28 +3818,28 @@
     <t xml:space="preserve">8.62512874603271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62838745117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59090805053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80437755584717</t>
+    <t xml:space="preserve">8.62838840484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59090709686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80437660217285</t>
   </si>
   <si>
     <t xml:space="preserve">8.88422393798828</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95429515838623</t>
+    <t xml:space="preserve">8.95429611206055</t>
   </si>
   <si>
     <t xml:space="preserve">8.98199558258057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91518592834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83207225799561</t>
+    <t xml:space="preserve">8.91518688201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83207130432129</t>
   </si>
   <si>
     <t xml:space="preserve">8.99490737915039</t>
@@ -3848,40 +3848,40 @@
     <t xml:space="preserve">9.23237228393555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24594211578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27138614654541</t>
+    <t xml:space="preserve">9.24594306945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27138805389404</t>
   </si>
   <si>
     <t xml:space="preserve">9.48680210113525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55295276641846</t>
+    <t xml:space="preserve">9.55295467376709</t>
   </si>
   <si>
     <t xml:space="preserve">9.65811824798584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79211807250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73784065246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87353610992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0482416152954</t>
+    <t xml:space="preserve">9.79211711883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7378396987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0482425689697</t>
   </si>
   <si>
     <t xml:space="preserve">9.89389038085938</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82773590087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0567216873169</t>
+    <t xml:space="preserve">9.82773780822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0567235946655</t>
   </si>
   <si>
     <t xml:space="preserve">10.1822414398193</t>
@@ -3890,37 +3890,37 @@
     <t xml:space="preserve">10.155101776123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0261907577515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1601896286011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3535566329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3773031234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3230247497559</t>
+    <t xml:space="preserve">10.0261926651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1601905822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3535585403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3773040771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3230257034302</t>
   </si>
   <si>
     <t xml:space="preserve">10.4468460083008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2907981872559</t>
+    <t xml:space="preserve">10.2907972335815</t>
   </si>
   <si>
     <t xml:space="preserve">10.2433042526245</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4129238128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.480770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4044418334961</t>
+    <t xml:space="preserve">10.4129228591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4807720184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4044437408447</t>
   </si>
   <si>
     <t xml:space="preserve">10.3162403106689</t>
@@ -3935,16 +3935,16 @@
     <t xml:space="preserve">10.6351251602173</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4994287490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6520862579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7470741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7555541992188</t>
+    <t xml:space="preserve">10.4994297027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6520872116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7470731735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7555532455444</t>
   </si>
   <si>
     <t xml:space="preserve">10.7029724121094</t>
@@ -3956,25 +3956,25 @@
     <t xml:space="preserve">10.725022315979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6113786697388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6402139663696</t>
+    <t xml:space="preserve">10.6113777160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6402130126953</t>
   </si>
   <si>
     <t xml:space="preserve">10.6843137741089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6792268753052</t>
+    <t xml:space="preserve">10.6792259216309</t>
   </si>
   <si>
     <t xml:space="preserve">10.5418348312378</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3196325302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4553279876709</t>
+    <t xml:space="preserve">10.3196334838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4553289413452</t>
   </si>
   <si>
     <t xml:space="preserve">10.490948677063</t>
@@ -3989,124 +3989,124 @@
     <t xml:space="preserve">10.007532119751</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0957355499268</t>
+    <t xml:space="preserve">10.0957365036011</t>
   </si>
   <si>
     <t xml:space="preserve">10.1262655258179</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1856336593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4247970581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6588706970215</t>
+    <t xml:space="preserve">10.1856346130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4247961044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6588726043701</t>
   </si>
   <si>
     <t xml:space="preserve">10.5079107284546</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4027452468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3518600463867</t>
+    <t xml:space="preserve">10.4027462005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3518590927124</t>
   </si>
   <si>
     <t xml:space="preserve">10.1941146850586</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3026704788208</t>
+    <t xml:space="preserve">10.3026695251465</t>
   </si>
   <si>
     <t xml:space="preserve">10.177152633667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3450756072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2212543487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0363674163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3298101425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3247213363647</t>
+    <t xml:space="preserve">10.3450765609741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2212533950806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0363693237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3298120498657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3247222900391</t>
   </si>
   <si>
     <t xml:space="preserve">10.3806953430176</t>
   </si>
   <si>
-    <t xml:space="preserve">10.42649269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4146203994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3637323379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5231742858887</t>
+    <t xml:space="preserve">10.4264917373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4146213531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3637342453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.523175239563</t>
   </si>
   <si>
     <t xml:space="preserve">10.6944913864136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8183126449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7284154891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8471488952637</t>
+    <t xml:space="preserve">10.8183135986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7284145355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.847149848938</t>
   </si>
   <si>
     <t xml:space="preserve">10.7572507858276</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8641119003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0693483352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0456027984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1609439849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2050447463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2542343139648</t>
+    <t xml:space="preserve">10.864109992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0693502426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0456018447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.160943031311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2050457000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2542352676392</t>
   </si>
   <si>
     <t xml:space="preserve">11.3814487457275</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2711963653564</t>
+    <t xml:space="preserve">11.2711973190308</t>
   </si>
   <si>
     <t xml:space="preserve">11.1151475906372</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7589473724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1049699783325</t>
+    <t xml:space="preserve">10.7589464187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1049690246582</t>
   </si>
   <si>
     <t xml:space="preserve">11.4357280731201</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7139015197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.512056350708</t>
+    <t xml:space="preserve">11.713903427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5120573043823</t>
   </si>
   <si>
     <t xml:space="preserve">11.2864618301392</t>
@@ -4115,31 +4115,31 @@
     <t xml:space="preserve">11.4119815826416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3271703720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2694997787476</t>
+    <t xml:space="preserve">11.3271713256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2695007324219</t>
   </si>
   <si>
     <t xml:space="preserve">11.432333946228</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1829948425293</t>
+    <t xml:space="preserve">11.182993888855</t>
   </si>
   <si>
     <t xml:space="preserve">11.0557804107666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2389688491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.277982711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4730424880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3000335693359</t>
+    <t xml:space="preserve">11.2389678955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2779817581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4730434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3000326156616</t>
   </si>
   <si>
     <t xml:space="preserve">11.1711206436157</t>
@@ -4148,10 +4148,10 @@
     <t xml:space="preserve">11.3085126876831</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4238538742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2915496826172</t>
+    <t xml:space="preserve">11.4238548278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2915506362915</t>
   </si>
   <si>
     <t xml:space="preserve">11.4425115585327</t>
@@ -4163,22 +4163,22 @@
     <t xml:space="preserve">11.3322591781616</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6867637634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7308645248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0870628356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3228349685669</t>
+    <t xml:space="preserve">11.6867647171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.730863571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0870637893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3228359222412</t>
   </si>
   <si>
     <t xml:space="preserve">11.7597017288208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9014272689819</t>
+    <t xml:space="preserve">10.9014282226562</t>
   </si>
   <si>
     <t xml:space="preserve">11.3695755004883</t>
@@ -4187,70 +4187,70 @@
     <t xml:space="preserve">11.5934734344482</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5358028411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.113450050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0065908432007</t>
+    <t xml:space="preserve">11.5358018875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1134490966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0065898895264</t>
   </si>
   <si>
     <t xml:space="preserve">10.9607944488525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8301877975464</t>
+    <t xml:space="preserve">10.8301887512207</t>
   </si>
   <si>
     <t xml:space="preserve">11.118537902832</t>
   </si>
   <si>
-    <t xml:space="preserve">10.79456615448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2135248184204</t>
+    <t xml:space="preserve">10.7945671081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.213526725769</t>
   </si>
   <si>
     <t xml:space="preserve">11.4187650680542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2559309005737</t>
+    <t xml:space="preserve">11.255931854248</t>
   </si>
   <si>
     <t xml:space="preserve">11.1066646575928</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3492212295532</t>
+    <t xml:space="preserve">11.3492202758789</t>
   </si>
   <si>
     <t xml:space="preserve">11.2745885848999</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3763608932495</t>
+    <t xml:space="preserve">11.3763599395752</t>
   </si>
   <si>
     <t xml:space="preserve">11.400107383728</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4560832977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3543100357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2474479675293</t>
+    <t xml:space="preserve">11.4560823440552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3543081283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2474498748779</t>
   </si>
   <si>
     <t xml:space="preserve">11.7189912796021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7003335952759</t>
+    <t xml:space="preserve">11.7003326416016</t>
   </si>
   <si>
     <t xml:space="preserve">12.0209140777588</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0429639816284</t>
+    <t xml:space="preserve">12.0429630279541</t>
   </si>
   <si>
     <t xml:space="preserve">12.0005588531494</t>
@@ -4262,34 +4262,34 @@
     <t xml:space="preserve">11.873345375061</t>
   </si>
   <si>
-    <t xml:space="preserve">11.517144203186</t>
+    <t xml:space="preserve">11.5171451568604</t>
   </si>
   <si>
     <t xml:space="preserve">10.9658832550049</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9896297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1592483520508</t>
+    <t xml:space="preserve">10.9896287918091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1592493057251</t>
   </si>
   <si>
     <t xml:space="preserve">11.3560066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1948671340942</t>
+    <t xml:space="preserve">11.1948680877686</t>
   </si>
   <si>
     <t xml:space="preserve">11.534107208252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4577779769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5375003814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0914001464844</t>
+    <t xml:space="preserve">11.4577789306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5374984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.091402053833</t>
   </si>
   <si>
     <t xml:space="preserve">11.2440576553345</t>
@@ -4298,19 +4298,19 @@
     <t xml:space="preserve">11.5510673522949</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5680303573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7257766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.815673828125</t>
+    <t xml:space="preserve">11.5680322647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.725775718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8156747817993</t>
   </si>
   <si>
     <t xml:space="preserve">11.6918535232544</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7800531387329</t>
+    <t xml:space="preserve">11.7800540924072</t>
   </si>
   <si>
     <t xml:space="preserve">12.0023527145386</t>
@@ -4319,28 +4319,28 @@
     <t xml:space="preserve">11.9113321304321</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3576793670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4679546356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.420693397522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4276943206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4259433746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3384256362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3156709671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4784555435181</t>
+    <t xml:space="preserve">12.3576784133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4679536819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4206924438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4276933670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4259443283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3384246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3156700134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4784545898438</t>
   </si>
   <si>
     <t xml:space="preserve">12.6307392120361</t>
@@ -4349,40 +4349,40 @@
     <t xml:space="preserve">12.6272382736206</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5957326889038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2754125595093</t>
+    <t xml:space="preserve">12.5957317352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.275411605835</t>
   </si>
   <si>
     <t xml:space="preserve">11.5875110626221</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3582134246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5262479782104</t>
+    <t xml:space="preserve">11.3582124710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5262489318848</t>
   </si>
   <si>
     <t xml:space="preserve">11.5997648239136</t>
   </si>
   <si>
-    <t xml:space="preserve">11.032642364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5110292434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5407857894897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5722932815552</t>
+    <t xml:space="preserve">11.0326414108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5110301971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5407838821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5722923278809</t>
   </si>
   <si>
     <t xml:space="preserve">10.2047119140625</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0034198760986</t>
+    <t xml:space="preserve">10.0034189224243</t>
   </si>
   <si>
     <t xml:space="preserve">10.2099657058716</t>
@@ -4391,76 +4391,76 @@
     <t xml:space="preserve">10.0646820068359</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1539516448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91415023803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82663154602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0629329681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.480055809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41353988647461</t>
+    <t xml:space="preserve">10.1539506912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91414928436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82663059234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0629320144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48005485534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41354084014893</t>
   </si>
   <si>
     <t xml:space="preserve">9.66734600067139</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82488059997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80212593078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74786376953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72860813140869</t>
+    <t xml:space="preserve">9.82487964630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80212497711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74786281585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72861003875732</t>
   </si>
   <si>
     <t xml:space="preserve">9.31552028656006</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48530673980713</t>
+    <t xml:space="preserve">9.48530578613281</t>
   </si>
   <si>
     <t xml:space="preserve">9.6393404006958</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89314556121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77937030792236</t>
+    <t xml:space="preserve">9.89314460754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77936935424805</t>
   </si>
   <si>
     <t xml:space="preserve">9.6270866394043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60083198547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68134880065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64459133148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70760440826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2537231445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2414693832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0156717300415</t>
+    <t xml:space="preserve">9.60083293914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6813497543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64459228515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70760631561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2537221908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2414712905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0156726837158</t>
   </si>
   <si>
     <t xml:space="preserve">9.97716331481934</t>
@@ -4472,43 +4472,43 @@
     <t xml:space="preserve">10.0261745452881</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0174236297607</t>
+    <t xml:space="preserve">10.0174217224121</t>
   </si>
   <si>
     <t xml:space="preserve">10.0576810836792</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9981689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1434507369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1784572601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1329479217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2327194213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4445152282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3009834289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4672708511353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8593530654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7245759963989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.945122718811</t>
+    <t xml:space="preserve">9.99816703796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1434488296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1784582138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1329460144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.232720375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4445133209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3009843826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4672689437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.859354019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7245750427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9451217651367</t>
   </si>
   <si>
     <t xml:space="preserve">10.7788362503052</t>
@@ -4517,10 +4517,10 @@
     <t xml:space="preserve">10.9398717880249</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7088212966919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3342399597168</t>
+    <t xml:space="preserve">10.7088222503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3342418670654</t>
   </si>
   <si>
     <t xml:space="preserve">10.2624750137329</t>
@@ -4532,19 +4532,19 @@
     <t xml:space="preserve">10.7560806274414</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4602680206299</t>
+    <t xml:space="preserve">10.4602670669556</t>
   </si>
   <si>
     <t xml:space="preserve">10.1679544448853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1364479064941</t>
+    <t xml:space="preserve">10.1364469528198</t>
   </si>
   <si>
     <t xml:space="preserve">10.2239675521851</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4532661437988</t>
+    <t xml:space="preserve">10.4532670974731</t>
   </si>
   <si>
     <t xml:space="preserve">10.3587465286255</t>
@@ -4553,16 +4553,16 @@
     <t xml:space="preserve">10.335991859436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0996904373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94071578979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1191825866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6391019821167</t>
+    <t xml:space="preserve">10.0996913909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94071483612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1191835403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63910293579102</t>
   </si>
   <si>
     <t xml:space="preserve">9.57842350006104</t>
@@ -4571,28 +4571,28 @@
     <t xml:space="preserve">9.59448528289795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6248254776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73547649383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0317325592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2976522445679</t>
+    <t xml:space="preserve">9.62482452392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73547554016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0317335128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2976531982422</t>
   </si>
   <si>
     <t xml:space="preserve">10.4618434906006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4671983718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5653553009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5136003494263</t>
+    <t xml:space="preserve">10.4671964645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5653562545776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5135984420776</t>
   </si>
   <si>
     <t xml:space="preserve">10.3244218826294</t>
@@ -4601,10 +4601,10 @@
     <t xml:space="preserve">10.1691551208496</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4297180175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5867729187012</t>
+    <t xml:space="preserve">10.4297199249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5867719650269</t>
   </si>
   <si>
     <t xml:space="preserve">10.5885572433472</t>
@@ -4616,7 +4616,7 @@
     <t xml:space="preserve">10.7598857879639</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0240201950073</t>
+    <t xml:space="preserve">11.0240211486816</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954652786255</t>
@@ -4637,28 +4637,28 @@
     <t xml:space="preserve">12.0145225524902</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0734176635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2429628372192</t>
+    <t xml:space="preserve">12.0734167098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2429637908936</t>
   </si>
   <si>
     <t xml:space="preserve">12.5017433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7319669723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6837816238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5124502182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5552835464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7408905029297</t>
+    <t xml:space="preserve">12.7319679260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.683780670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.512451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5552825927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7408895492554</t>
   </si>
   <si>
     <t xml:space="preserve">12.9157905578613</t>
@@ -4667,13 +4667,13 @@
     <t xml:space="preserve">12.9175748825073</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8122787475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5695600509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6605806350708</t>
+    <t xml:space="preserve">12.8122777938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.569561958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6605787277222</t>
   </si>
   <si>
     <t xml:space="preserve">12.1856288909912</t>
@@ -4694,7 +4694,7 @@
     <t xml:space="preserve">12.7058992385864</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8672399520874</t>
+    <t xml:space="preserve">12.8672389984131</t>
   </si>
   <si>
     <t xml:space="preserve">12.9832582473755</t>
@@ -4712,13 +4712,13 @@
     <t xml:space="preserve">12.3650941848755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1783752441406</t>
+    <t xml:space="preserve">12.1783771514893</t>
   </si>
   <si>
     <t xml:space="preserve">12.2581396102905</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2599506378174</t>
+    <t xml:space="preserve">12.2599515914917</t>
   </si>
   <si>
     <t xml:space="preserve">12.3342761993408</t>
@@ -4727,10 +4727,10 @@
     <t xml:space="preserve">12.5209951400757</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3360891342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8285064697266</t>
+    <t xml:space="preserve">12.336088180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8285055160522</t>
   </si>
   <si>
     <t xml:space="preserve">11.6925458908081</t>
@@ -4739,13 +4739,13 @@
     <t xml:space="preserve">11.7741222381592</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7831859588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2019414901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1239919662476</t>
+    <t xml:space="preserve">11.7831869125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2019424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1239929199219</t>
   </si>
   <si>
     <t xml:space="preserve">12.2146329879761</t>
@@ -4754,13 +4754,13 @@
     <t xml:space="preserve">12.2780790328979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2436370849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3197736740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0424156188965</t>
+    <t xml:space="preserve">12.2436380386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3197746276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0424165725708</t>
   </si>
   <si>
     <t xml:space="preserve">12.4249172210693</t>
@@ -4772,31 +4772,31 @@
     <t xml:space="preserve">12.305272102356</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427484512329</t>
+    <t xml:space="preserve">12.5427494049072</t>
   </si>
   <si>
     <t xml:space="preserve">12.6388282775879</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6660184860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9071197509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0666475296021</t>
+    <t xml:space="preserve">12.6660175323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9071207046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0666465759277</t>
   </si>
   <si>
     <t xml:space="preserve">13.0720853805542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9868831634521</t>
+    <t xml:space="preserve">12.9868841171265</t>
   </si>
   <si>
     <t xml:space="preserve">13.0267648696899</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1065282821655</t>
+    <t xml:space="preserve">13.1065292358398</t>
   </si>
   <si>
     <t xml:space="preserve">12.919810295105</t>
@@ -4805,10 +4805,10 @@
     <t xml:space="preserve">13.1029033660889</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0521459579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8527364730835</t>
+    <t xml:space="preserve">13.0521450042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8527374267578</t>
   </si>
   <si>
     <t xml:space="preserve">12.7584714889526</t>
@@ -4817,7 +4817,7 @@
     <t xml:space="preserve">12.8690519332886</t>
   </si>
   <si>
-    <t xml:space="preserve">12.954252243042</t>
+    <t xml:space="preserve">12.9542531967163</t>
   </si>
   <si>
     <t xml:space="preserve">12.8436727523804</t>
@@ -4829,22 +4829,22 @@
     <t xml:space="preserve">12.5499992370605</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4629859924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5481863021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4140386581421</t>
+    <t xml:space="preserve">12.4629850387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5481872558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4140396118164</t>
   </si>
   <si>
     <t xml:space="preserve">12.6043844223022</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8346090316772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0013875961304</t>
+    <t xml:space="preserve">12.8346080780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0013856887817</t>
   </si>
   <si>
     <t xml:space="preserve">13.369384765625</t>
@@ -4853,28 +4853,28 @@
     <t xml:space="preserve">13.3856992721558</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4382705688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3150005340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3367538452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9615049362183</t>
+    <t xml:space="preserve">13.438271522522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3150014877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3367528915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9615058898926</t>
   </si>
   <si>
     <t xml:space="preserve">13.0068244934082</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9324989318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7929153442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1076765060425</t>
+    <t xml:space="preserve">12.9324998855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.792914390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1076774597168</t>
   </si>
   <si>
     <t xml:space="preserve">11.9572153091431</t>
@@ -4886,28 +4886,28 @@
     <t xml:space="preserve">12.1149291992188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.937273979187</t>
+    <t xml:space="preserve">11.9372730255127</t>
   </si>
   <si>
     <t xml:space="preserve">12.0949869155884</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1765623092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2690172195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1656866073608</t>
+    <t xml:space="preserve">12.1765632629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2690162658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1656856536865</t>
   </si>
   <si>
     <t xml:space="preserve">12.1620616912842</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1384963989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1729373931885</t>
+    <t xml:space="preserve">12.1384954452515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1729393005371</t>
   </si>
   <si>
     <t xml:space="preserve">11.7143001556396</t>
@@ -4922,22 +4922,22 @@
     <t xml:space="preserve">11.0236225128174</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2673206329346</t>
+    <t xml:space="preserve">11.2673215866089</t>
   </si>
   <si>
     <t xml:space="preserve">11.5054807662964</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5184030532837</t>
+    <t xml:space="preserve">11.518404006958</t>
   </si>
   <si>
     <t xml:space="preserve">11.4962501525879</t>
   </si>
   <si>
-    <t xml:space="preserve">11.235936164856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3614778518677</t>
+    <t xml:space="preserve">11.2359352111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3614768981934</t>
   </si>
   <si>
     <t xml:space="preserve">11.5811738967896</t>
@@ -4946,10 +4946,10 @@
     <t xml:space="preserve">11.699330329895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8950271606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9134893417358</t>
+    <t xml:space="preserve">11.8950262069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9134883880615</t>
   </si>
   <si>
     <t xml:space="preserve">12.3990383148193</t>
@@ -4958,10 +4958,10 @@
     <t xml:space="preserve">12.2864208221436</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4008836746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4987316131592</t>
+    <t xml:space="preserve">12.4008846282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4987325668335</t>
   </si>
   <si>
     <t xml:space="preserve">12.7239685058594</t>
@@ -4970,28 +4970,28 @@
     <t xml:space="preserve">12.6150436401367</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7978162765503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7405843734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8125867843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8218154907227</t>
+    <t xml:space="preserve">12.7978172302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7405834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8125858306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.821816444397</t>
   </si>
   <si>
     <t xml:space="preserve">12.6962757110596</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5393486022949</t>
+    <t xml:space="preserve">12.5393476486206</t>
   </si>
   <si>
     <t xml:space="preserve">12.7073526382446</t>
   </si>
   <si>
-    <t xml:space="preserve">12.755352973938</t>
+    <t xml:space="preserve">12.7553539276123</t>
   </si>
   <si>
     <t xml:space="preserve">12.567042350769</t>
@@ -5003,7 +5003,7 @@
     <t xml:space="preserve">12.4451942443848</t>
   </si>
   <si>
-    <t xml:space="preserve">12.157187461853</t>
+    <t xml:space="preserve">12.1571855545044</t>
   </si>
   <si>
     <t xml:space="preserve">12.0353384017944</t>
@@ -5018,19 +5018,19 @@
     <t xml:space="preserve">12.5947341918945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4802694320679</t>
+    <t xml:space="preserve">12.4802713394165</t>
   </si>
   <si>
     <t xml:space="preserve">12.1793413162231</t>
   </si>
   <si>
-    <t xml:space="preserve">12.356575012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.319652557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.212574005127</t>
+    <t xml:space="preserve">12.3565759658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3196516036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2125730514526</t>
   </si>
   <si>
     <t xml:space="preserve">12.3658075332642</t>
@@ -5039,40 +5039,40 @@
     <t xml:space="preserve">12.314112663269</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4156541824341</t>
+    <t xml:space="preserve">12.4156551361084</t>
   </si>
   <si>
     <t xml:space="preserve">12.4531917572021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5414066314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5451583862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2429790496826</t>
+    <t xml:space="preserve">12.5414056777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5451593399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2429800033569</t>
   </si>
   <si>
     <t xml:space="preserve">12.379994392395</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4025144577026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1115970611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6836643218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0008611679077</t>
+    <t xml:space="preserve">12.402515411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1115961074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6836652755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0008602142334</t>
   </si>
   <si>
     <t xml:space="preserve">12.3330707550049</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2955322265625</t>
+    <t xml:space="preserve">12.2955331802368</t>
   </si>
   <si>
     <t xml:space="preserve">12.184796333313</t>
@@ -5087,10 +5087,10 @@
     <t xml:space="preserve">12.0402746200562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1622743606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1866731643677</t>
+    <t xml:space="preserve">12.1622734069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.186674118042</t>
   </si>
   <si>
     <t xml:space="preserve">12.246732711792</t>
@@ -5105,10 +5105,10 @@
     <t xml:space="preserve">12.0271368026733</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2617483139038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.092827796936</t>
+    <t xml:space="preserve">12.2617492675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0928268432617</t>
   </si>
   <si>
     <t xml:space="preserve">12.0083665847778</t>
@@ -5129,7 +5129,7 @@
     <t xml:space="preserve">12.3706083297729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5864505767822</t>
+    <t xml:space="preserve">12.5864515304565</t>
   </si>
   <si>
     <t xml:space="preserve">12.6352500915527</t>
@@ -5138,7 +5138,7 @@
     <t xml:space="preserve">12.5470361709595</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2317190170288</t>
+    <t xml:space="preserve">12.2317180633545</t>
   </si>
   <si>
     <t xml:space="preserve">12.248610496521</t>
@@ -5150,22 +5150,22 @@
     <t xml:space="preserve">12.4194078445435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7009429931641</t>
+    <t xml:space="preserve">12.7009420394897</t>
   </si>
   <si>
     <t xml:space="preserve">12.7816486358643</t>
   </si>
   <si>
-    <t xml:space="preserve">12.599588394165</t>
+    <t xml:space="preserve">12.5995893478394</t>
   </si>
   <si>
     <t xml:space="preserve">12.4757137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">12.603343963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7065715789795</t>
+    <t xml:space="preserve">12.6033449172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7065725326538</t>
   </si>
   <si>
     <t xml:space="preserve">12.8004179000854</t>
@@ -5180,13 +5180,13 @@
     <t xml:space="preserve">12.7534952163696</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8848762512207</t>
+    <t xml:space="preserve">12.884877204895</t>
   </si>
   <si>
     <t xml:space="preserve">12.8173084259033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0293979644775</t>
+    <t xml:space="preserve">13.0293989181519</t>
   </si>
   <si>
     <t xml:space="preserve">12.9280452728271</t>
@@ -5204,13 +5204,13 @@
     <t xml:space="preserve">12.7872791290283</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2020721435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2565031051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1833038330078</t>
+    <t xml:space="preserve">13.2020711898804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2565021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1833028793335</t>
   </si>
   <si>
     <t xml:space="preserve">13.1513957977295</t>
@@ -5228,16 +5228,16 @@
     <t xml:space="preserve">13.2227191925049</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2452402114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2077026367188</t>
+    <t xml:space="preserve">13.2452411651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2077035903931</t>
   </si>
   <si>
     <t xml:space="preserve">13.2583799362183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2827787399292</t>
+    <t xml:space="preserve">13.2827796936035</t>
   </si>
   <si>
     <t xml:space="preserve">13.4179153442383</t>
@@ -5246,7 +5246,7 @@
     <t xml:space="preserve">13.4723453521729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.483606338501</t>
+    <t xml:space="preserve">13.4836072921753</t>
   </si>
   <si>
     <t xml:space="preserve">13.4047775268555</t>
@@ -5255,7 +5255,7 @@
     <t xml:space="preserve">13.6431427001953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7032032012939</t>
+    <t xml:space="preserve">13.7032022476196</t>
   </si>
   <si>
     <t xml:space="preserve">13.9209222793579</t>
@@ -5264,13 +5264,13 @@
     <t xml:space="preserve">13.8815078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">13.832709312439</t>
+    <t xml:space="preserve">13.8327083587646</t>
   </si>
   <si>
     <t xml:space="preserve">13.8871393203735</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1255035400391</t>
+    <t xml:space="preserve">14.1255044937134</t>
   </si>
   <si>
     <t xml:space="preserve">14.1724271774292</t>
@@ -5279,7 +5279,7 @@
     <t xml:space="preserve">14.1911954879761</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4239311218262</t>
+    <t xml:space="preserve">14.4239301681519</t>
   </si>
   <si>
     <t xml:space="preserve">14.3920240402222</t>
@@ -5817,6 +5817,9 @@
   </si>
   <si>
     <t xml:space="preserve">13.9919996261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1079998016357</t>
   </si>
 </sst>
 </file>
@@ -61954,7 +61957,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6508912037</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>7782165</v>
@@ -61975,6 +61978,32 @@
         <v>1934</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6493287037</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>7517995</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>14.1099996566772</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>13.8760004043579</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>13.9219999313354</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>14.1079998016357</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENI.MI.xlsx
+++ b/data/ENI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1944">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,214 +38,214 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95015811920166</t>
+    <t xml:space="preserve">7.95016002655029</t>
   </si>
   <si>
     <t xml:space="preserve">ENI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02119445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79624938964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7370491027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51802110671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48842287063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5061821937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59497737884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70153141021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4292254447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34634923934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44698476791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19835662841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67785453796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58313798904419</t>
+    <t xml:space="preserve">8.02119636535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79624700546265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73705101013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51802015304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48842191696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50618171691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59497690200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70153284072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42922449111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34634971618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4469838142395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19835805892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67785263061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58313751220703</t>
   </si>
   <si>
     <t xml:space="preserve">7.74296998977661</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77848863601685</t>
+    <t xml:space="preserve">7.77849006652832</t>
   </si>
   <si>
     <t xml:space="preserve">7.86136388778687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40554618835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37594842910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54170036315918</t>
+    <t xml:space="preserve">7.40554761886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37594938278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54169988632202</t>
   </si>
   <si>
     <t xml:space="preserve">7.41738653182983</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15100049972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86685419082642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88461351394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47023487091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90237092971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06812477111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01484823226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23979520797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08588314056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05628538131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31083297729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97340869903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15691900253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5239405632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66601419448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90280055999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.961998462677</t>
+    <t xml:space="preserve">7.15099954605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86685276031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8846116065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4702353477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90237379074097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06812334060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01484680175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23979616165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08588409423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05628347396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31083250045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97340774536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1569185256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52394151687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66601324081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90280389785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96199941635132</t>
   </si>
   <si>
     <t xml:space="preserve">8.06855201721191</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01527786254883</t>
+    <t xml:space="preserve">8.01527690887451</t>
   </si>
   <si>
     <t xml:space="preserve">8.0448751449585</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84360504150391</t>
+    <t xml:space="preserve">7.84360313415527</t>
   </si>
   <si>
     <t xml:space="preserve">7.93240118026733</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66009426116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8850417137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9264817237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81400632858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91464042663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05671405792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12775039672852</t>
+    <t xml:space="preserve">7.66009378433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88504266738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92648220062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81400585174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9146409034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05671310424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1277494430542</t>
   </si>
   <si>
     <t xml:space="preserve">8.16918754577637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97384023666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78440809249878</t>
+    <t xml:space="preserve">7.9738392829895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78440570831299</t>
   </si>
   <si>
     <t xml:space="preserve">8.00343799591064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87320137023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57129907608032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55353975296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36410665512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44106674194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29307413101196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60681772232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63049459457397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67193222045898</t>
+    <t xml:space="preserve">7.87320375442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57129955291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.553542137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36410903930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44106483459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29307317733765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60681629180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63049840927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67193412780762</t>
   </si>
   <si>
     <t xml:space="preserve">7.97975826263428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12183284759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99159622192383</t>
+    <t xml:space="preserve">8.12182998657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99159812927246</t>
   </si>
   <si>
     <t xml:space="preserve">8.09223365783691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22246646881104</t>
+    <t xml:space="preserve">8.22246265411377</t>
   </si>
   <si>
     <t xml:space="preserve">8.32902050018311</t>
@@ -257,25 +257,25 @@
     <t xml:space="preserve">8.33493995666504</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37046051025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44741535186768</t>
+    <t xml:space="preserve">8.37045860290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44741344451904</t>
   </si>
   <si>
     <t xml:space="preserve">8.52436923980713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40597724914551</t>
+    <t xml:space="preserve">8.40597820281982</t>
   </si>
   <si>
     <t xml:space="preserve">8.25798416137695</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08631229400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92056035995483</t>
+    <t xml:space="preserve">8.08631324768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92056083679199</t>
   </si>
   <si>
     <t xml:space="preserve">8.033034324646</t>
@@ -284,49 +284,49 @@
     <t xml:space="preserve">8.10407161712646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80808639526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90189075469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14596557617188</t>
+    <t xml:space="preserve">7.8080849647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90188932418823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14596462249756</t>
   </si>
   <si>
     <t xml:space="preserve">8.42665004730225</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46936130523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4388542175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50597381591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37783622741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26189994812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25579929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18867874145508</t>
+    <t xml:space="preserve">8.46936321258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43885231018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50597286224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37783432006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26190185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25579738616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18867778778076</t>
   </si>
   <si>
     <t xml:space="preserve">8.40224170684814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59750461578369</t>
+    <t xml:space="preserve">8.59749984741211</t>
   </si>
   <si>
     <t xml:space="preserve">8.62190723419189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57919788360596</t>
+    <t xml:space="preserve">8.57919502258301</t>
   </si>
   <si>
     <t xml:space="preserve">8.20698261260986</t>
@@ -335,112 +335,112 @@
     <t xml:space="preserve">8.05443668365479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15816688537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07274341583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39003944396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64021301269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75004863739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61580753326416</t>
+    <t xml:space="preserve">8.15816974639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0727424621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39003849029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64021396636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75004768371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61580848693848</t>
   </si>
   <si>
     <t xml:space="preserve">8.89649200439453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07884311676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33512210845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72563934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8598804473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04293441772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79276180267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62801361083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67682552337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84767723083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95140743255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03683471679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.927001953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0917501449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9819164276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88428783416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85377979278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76835441589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71953773498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68292808532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56089019775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56699085235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34122371673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34732437133789</t>
+    <t xml:space="preserve">8.07884407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33512115478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72564125061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85988140106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04293537139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79275989532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62801074981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67682647705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84767532348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95140552520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03683376312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92700004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09175205230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98191833496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8842887878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8537769317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76835250854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71953868865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68292713165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56089115142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56699180603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34122467041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34732627868652</t>
   </si>
   <si>
     <t xml:space="preserve">8.18257617950439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01172256469727</t>
+    <t xml:space="preserve">8.0117244720459</t>
   </si>
   <si>
     <t xml:space="preserve">8.06664085388184</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08494567871094</t>
+    <t xml:space="preserve">8.08494663238525</t>
   </si>
   <si>
     <t xml:space="preserve">8.28020477294922</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26800346374512</t>
+    <t xml:space="preserve">8.26800155639648</t>
   </si>
   <si>
     <t xml:space="preserve">8.24359321594238</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">8.35953044891357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38393592834473</t>
+    <t xml:space="preserve">8.38393783569336</t>
   </si>
   <si>
     <t xml:space="preserve">8.21918773651123</t>
@@ -458,49 +458,49 @@
     <t xml:space="preserve">8.2008810043335</t>
   </si>
   <si>
-    <t xml:space="preserve">8.310715675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.304612159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37173271179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2741060256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99952030181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02392768859863</t>
+    <t xml:space="preserve">8.31071376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30461311340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37173366546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27410316467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99951887130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02392673492432</t>
   </si>
   <si>
     <t xml:space="preserve">8.06054019927979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87748432159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99712753295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85229396820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96564102172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93415689468384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78932619094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77673101425171</t>
+    <t xml:space="preserve">7.8774847984314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99712419509888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85229635238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96564054489136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.934157371521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7893271446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154399871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77673435211182</t>
   </si>
   <si>
     <t xml:space="preserve">8.13565731048584</t>
@@ -509,70 +509,70 @@
     <t xml:space="preserve">8.07268905639648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11676788330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16714477539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35605239868164</t>
+    <t xml:space="preserve">8.11677074432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16714382171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35605430603027</t>
   </si>
   <si>
     <t xml:space="preserve">8.36864566802979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56385040283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40013217926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34346008300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28678417205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45050525665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38123893737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5323657989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55755615234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64570999145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6708984375</t>
+    <t xml:space="preserve">8.56385135650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40013122558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34345817565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28678703308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45050716400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38124084472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53236675262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55755424499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64571189880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67089939117432</t>
   </si>
   <si>
     <t xml:space="preserve">8.61422729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52606773376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65830421447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50717926025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31826972961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18603324890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06639385223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0034236907959</t>
+    <t xml:space="preserve">8.5260705947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65830516815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50717830657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31827163696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18603515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06639289855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00342178344727</t>
   </si>
   <si>
     <t xml:space="preserve">7.92785978317261</t>
@@ -581,49 +581,49 @@
     <t xml:space="preserve">8.04120540618896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09158039093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06009483337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02861213684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.902672290802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72006130218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87118721008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8208122253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79562330245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91526651382446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92156267166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97193717956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27419281005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57014942169189</t>
+    <t xml:space="preserve">8.09158134460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06009578704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02860927581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90267133712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72005891799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87118625640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82081079483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79562282562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91526508331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92156076431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9719386100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27419185638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57014751434326</t>
   </si>
   <si>
     <t xml:space="preserve">8.62052249908447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79054164886475</t>
+    <t xml:space="preserve">8.79054260253906</t>
   </si>
   <si>
     <t xml:space="preserve">8.87869834899902</t>
@@ -632,52 +632,52 @@
     <t xml:space="preserve">8.96055889129639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97315311431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30689334869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40134620666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3698616027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42653274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47690868377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42023468017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53987789154053</t>
+    <t xml:space="preserve">8.97315120697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30689144134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40134334564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36985969543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42653465270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47691059112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4202356338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53987598419189</t>
   </si>
   <si>
     <t xml:space="preserve">9.55247116088867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65951919555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64062881469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.722487449646</t>
+    <t xml:space="preserve">9.65952014923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64062976837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72248935699463</t>
   </si>
   <si>
     <t xml:space="preserve">9.741379737854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84842967987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84213256835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87991237640381</t>
+    <t xml:space="preserve">9.84842777252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84213352203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87991333007812</t>
   </si>
   <si>
     <t xml:space="preserve">9.8988037109375</t>
@@ -686,94 +686,94 @@
     <t xml:space="preserve">9.69100570678711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79175662994385</t>
+    <t xml:space="preserve">9.79175567626953</t>
   </si>
   <si>
     <t xml:space="preserve">9.7854585647583</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73508453369141</t>
+    <t xml:space="preserve">9.73508548736572</t>
   </si>
   <si>
     <t xml:space="preserve">9.86732006072998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69730281829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80434894561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76656627655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66581726074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41393947601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3005952835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06131172180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94796466827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89759063720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91648101806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14946746826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94166660308838</t>
+    <t xml:space="preserve">9.69729995727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80434703826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76657009124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66581916809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41394233703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30059432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06130981445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94796562194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89758968353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91648006439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1494665145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9416675567627</t>
   </si>
   <si>
     <t xml:space="preserve">8.90388679504395</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04242038726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06760787963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15576648712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05501365661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89129447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18095111846924</t>
+    <t xml:space="preserve">9.04241943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06760501861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15576362609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05501270294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89129257202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18095207214355</t>
   </si>
   <si>
     <t xml:space="preserve">9.07390403747559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00463771820068</t>
+    <t xml:space="preserve">9.004638671875</t>
   </si>
   <si>
     <t xml:space="preserve">9.14317035675049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44542407989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45172214508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61544132232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50209617614746</t>
+    <t xml:space="preserve">9.4454231262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45172023773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61544227600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50209808349609</t>
   </si>
   <si>
     <t xml:space="preserve">9.31948661804199</t>
@@ -782,19 +782,19 @@
     <t xml:space="preserve">9.25651454925537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21243667602539</t>
+    <t xml:space="preserve">9.21243762969971</t>
   </si>
   <si>
     <t xml:space="preserve">9.22502994537354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11168670654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23762607574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39504909515381</t>
+    <t xml:space="preserve">9.11168766021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23762321472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39504814147949</t>
   </si>
   <si>
     <t xml:space="preserve">9.35097026824951</t>
@@ -803,13 +803,13 @@
     <t xml:space="preserve">9.37615776062012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46431350708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43912792205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52098655700684</t>
+    <t xml:space="preserve">9.46431541442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43912696838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52098751068115</t>
   </si>
   <si>
     <t xml:space="preserve">9.64692497253418</t>
@@ -818,34 +818,34 @@
     <t xml:space="preserve">9.59025382995605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58395767211914</t>
+    <t xml:space="preserve">9.58395862579346</t>
   </si>
   <si>
     <t xml:space="preserve">9.59654998779297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24392032623291</t>
+    <t xml:space="preserve">9.24392127990723</t>
   </si>
   <si>
     <t xml:space="preserve">9.25021743774414</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41513633728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37628173828125</t>
+    <t xml:space="preserve">9.41513252258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37628269195557</t>
   </si>
   <si>
     <t xml:space="preserve">9.27267646789551</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24030113220215</t>
+    <t xml:space="preserve">9.24030208587646</t>
   </si>
   <si>
     <t xml:space="preserve">9.25972652435303</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22087478637695</t>
+    <t xml:space="preserve">9.22087574005127</t>
   </si>
   <si>
     <t xml:space="preserve">9.21439933776855</t>
@@ -854,52 +854,52 @@
     <t xml:space="preserve">9.44751071929932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54464244842529</t>
+    <t xml:space="preserve">9.54464149475098</t>
   </si>
   <si>
     <t xml:space="preserve">9.59644222259521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64824485778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64177131652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71299934387207</t>
+    <t xml:space="preserve">9.64824676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64177227020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71299839019775</t>
   </si>
   <si>
     <t xml:space="preserve">9.74537658691406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62234783172607</t>
+    <t xml:space="preserve">9.62234592437744</t>
   </si>
   <si>
     <t xml:space="preserve">9.73890113830566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72595024108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70652484893799</t>
+    <t xml:space="preserve">9.72594928741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70652294158936</t>
   </si>
   <si>
     <t xml:space="preserve">9.66767311096191</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48636245727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26620292663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2467737197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12374496459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23382377624512</t>
+    <t xml:space="preserve">9.48636150360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26620006561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24677562713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12374401092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23382472991943</t>
   </si>
   <si>
     <t xml:space="preserve">9.0978422164917</t>
@@ -908,22 +908,22 @@
     <t xml:space="preserve">9.03956508636475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11079216003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92948436737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99423885345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00071144104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06546688079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.968337059021</t>
+    <t xml:space="preserve">9.11079502105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92948532104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99423599243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00071239471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06546497344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96833610534668</t>
   </si>
   <si>
     <t xml:space="preserve">8.91653251647949</t>
@@ -935,34 +935,34 @@
     <t xml:space="preserve">8.82588005065918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87120628356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84530258178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79350280761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80645179748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75464820861816</t>
+    <t xml:space="preserve">8.87120723724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84530544281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79350471496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80645275115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75465106964111</t>
   </si>
   <si>
     <t xml:space="preserve">8.78055191040039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61219310760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5215368270874</t>
+    <t xml:space="preserve">8.6121940612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52153968811035</t>
   </si>
   <si>
     <t xml:space="preserve">8.62514305114746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65104579925537</t>
+    <t xml:space="preserve">8.65104484558105</t>
   </si>
   <si>
     <t xml:space="preserve">8.52801418304443</t>
@@ -974,244 +974,244 @@
     <t xml:space="preserve">8.39203262329102</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41793251037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39850807189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54096412658691</t>
+    <t xml:space="preserve">8.41793537139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3985071182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54096508026123</t>
   </si>
   <si>
     <t xml:space="preserve">8.55391502380371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57334041595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50858879089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50211143493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51506328582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44383335113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45678520202637</t>
+    <t xml:space="preserve">8.57334136962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50858783721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50211238861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.515061378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44383430480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45678615570068</t>
   </si>
   <si>
     <t xml:space="preserve">8.5862922668457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56038951873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65752124786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72227478027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76112365722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74170017242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77407550811768</t>
+    <t xml:space="preserve">8.56039237976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65751934051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7222728729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7611255645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74170112609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77407741546631</t>
   </si>
   <si>
     <t xml:space="preserve">8.78702640533447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76759910583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7352237701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64456939697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68342208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57981872558594</t>
+    <t xml:space="preserve">8.76760292053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73522281646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64456844329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68342399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57981777191162</t>
   </si>
   <si>
     <t xml:space="preserve">8.48916149139404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61866760253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63162040710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67047119140625</t>
+    <t xml:space="preserve">8.61866855621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63162136077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67047214508057</t>
   </si>
   <si>
     <t xml:space="preserve">8.7287483215332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71579647064209</t>
+    <t xml:space="preserve">8.71579742431641</t>
   </si>
   <si>
     <t xml:space="preserve">8.74817562103271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83235454559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94243431091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9757776260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02245616912842</t>
+    <t xml:space="preserve">8.83235740661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9424352645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97577857971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02245426177979</t>
   </si>
   <si>
     <t xml:space="preserve">9.09581089019775</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16249561309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18916797637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29586505889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32920742034912</t>
+    <t xml:space="preserve">9.16249370574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18916893005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29586410522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32920551300049</t>
   </si>
   <si>
     <t xml:space="preserve">9.2891960144043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30253219604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33587455749512</t>
+    <t xml:space="preserve">9.30253314971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33587551116943</t>
   </si>
   <si>
     <t xml:space="preserve">9.31587028503418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38255596160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26918983459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.355881690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23584842681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28252792358398</t>
+    <t xml:space="preserve">9.38255405426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26919078826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35588073730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23584938049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28252696990967</t>
   </si>
   <si>
     <t xml:space="preserve">9.24251651763916</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2625207901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2558536529541</t>
+    <t xml:space="preserve">9.26252174377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25585269927979</t>
   </si>
   <si>
     <t xml:space="preserve">9.18250179290771</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22251129150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20250415802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22917938232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.362548828125</t>
+    <t xml:space="preserve">9.22251033782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20250701904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22918033599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36254978179932</t>
   </si>
   <si>
     <t xml:space="preserve">9.48258209228516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53593063354492</t>
+    <t xml:space="preserve">9.53592967987061</t>
   </si>
   <si>
     <t xml:space="preserve">9.58927726745605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66929817199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81600379943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74932289123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67597103118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60928535461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54260063171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42923641204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15582656860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17583274841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24918460845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27585792541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21584415435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12915325164795</t>
+    <t xml:space="preserve">9.66930103302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81600666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7493200302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6759672164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60928153991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54259872436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42923450469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1558256149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17583179473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24918556213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27585887908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21584224700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12915229797363</t>
   </si>
   <si>
     <t xml:space="preserve">9.20917415618896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34921073913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37588500976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32253742218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30920219421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50258827209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62261962890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68263626098633</t>
+    <t xml:space="preserve">9.34921455383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37588691711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32253932952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30920028686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50258636474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62262058258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68263721466064</t>
   </si>
   <si>
     <t xml:space="preserve">9.80266857147217</t>
@@ -1220,43 +1220,43 @@
     <t xml:space="preserve">9.94937515258789</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94270610809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90936470031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96938133239746</t>
+    <t xml:space="preserve">9.94270801544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90936756134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96938228607178</t>
   </si>
   <si>
     <t xml:space="preserve">9.88935852050781</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96271324157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97605037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9560432434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86268615722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69864177703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65996360778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72931480407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56793880462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43857097625732</t>
+    <t xml:space="preserve">9.96271419525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97605133056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95604228973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86268711090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69863891601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6599645614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72931575775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56793689727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43857192993164</t>
   </si>
   <si>
     <t xml:space="preserve">9.17183113098145</t>
@@ -1268,166 +1268,166 @@
     <t xml:space="preserve">8.93443202972412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99044799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90375804901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96110534667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00511932373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09047698974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14115524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14382171630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.122483253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19583892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24385070800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14515590667725</t>
+    <t xml:space="preserve">8.99044895172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90375900268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96110725402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00511741638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09047412872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14115619659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14382266998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12248420715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19583797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2438497543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14515686035156</t>
   </si>
   <si>
     <t xml:space="preserve">9.05046367645264</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9210958480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88908672332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01178646087646</t>
+    <t xml:space="preserve">8.92109775543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88908863067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0117883682251</t>
   </si>
   <si>
     <t xml:space="preserve">9.0571346282959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06380081176758</t>
+    <t xml:space="preserve">9.06380176544189</t>
   </si>
   <si>
     <t xml:space="preserve">9.14782524108887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21850872039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40255928039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29452991485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42256546020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49591827392578</t>
+    <t xml:space="preserve">9.21851062774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40256118774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29453086853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42256736755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4959192276001</t>
   </si>
   <si>
     <t xml:space="preserve">9.44923877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4078950881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37455368041992</t>
+    <t xml:space="preserve">9.40789794921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37455177307129</t>
   </si>
   <si>
     <t xml:space="preserve">9.46924495697021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44390296936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52792835235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62395477294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70664215087891</t>
+    <t xml:space="preserve">9.44390487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52792739868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6239538192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70664310455322</t>
   </si>
   <si>
     <t xml:space="preserve">9.91069984436035</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92803764343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99472045898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0920820236206</t>
+    <t xml:space="preserve">9.92803573608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99472236633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.092080116272</t>
   </si>
   <si>
     <t xml:space="preserve">10.1547660827637</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2227840423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2908039093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3014717102051</t>
+    <t xml:space="preserve">10.2227830886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2908029556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3014726638794</t>
   </si>
   <si>
     <t xml:space="preserve">10.4561805725098</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5335350036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695718765259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.63756275177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7282543182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6882438659668</t>
+    <t xml:space="preserve">10.5335340499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695728302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6375646591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7282552719116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6882419586182</t>
   </si>
   <si>
     <t xml:space="preserve">10.5695457458496</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7829370498657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7749338150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8029403686523</t>
+    <t xml:space="preserve">10.7829351425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7749357223511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8029432296753</t>
   </si>
   <si>
     <t xml:space="preserve">10.884298324585</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7549266815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9029684066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1123571395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8269491195679</t>
+    <t xml:space="preserve">10.7549285888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9029703140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.112359046936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8269481658936</t>
   </si>
   <si>
     <t xml:space="preserve">11.1270294189453</t>
@@ -1439,52 +1439,52 @@
     <t xml:space="preserve">10.9629859924316</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1203622817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1790447235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0283374786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0710144042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.037672996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9502029418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0035018920898</t>
+    <t xml:space="preserve">11.1203632354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1790437698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0283365249634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0710134506226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0376720428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9502010345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0035057067871</t>
   </si>
   <si>
     <t xml:space="preserve">10.8818664550781</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7820959091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5142183303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3010063171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3146743774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5852870941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7506618499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6508893966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5593185424805</t>
+    <t xml:space="preserve">10.7820949554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.514217376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3010091781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3146753311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5852861404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.750659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6508913040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5593175888062</t>
   </si>
   <si>
     <t xml:space="preserve">10.5579509735107</t>
@@ -1496,43 +1496,43 @@
     <t xml:space="preserve">10.4035120010376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7069263458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6003217697144</t>
+    <t xml:space="preserve">10.7069244384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6003198623657</t>
   </si>
   <si>
     <t xml:space="preserve">10.8066968917847</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6139860153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6194534301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5470170974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3611440658569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6850566864014</t>
+    <t xml:space="preserve">10.6139879226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6194553375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5470180511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3611450195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.68505859375</t>
   </si>
   <si>
     <t xml:space="preserve">10.4431467056274</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5456504821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8367624282837</t>
+    <t xml:space="preserve">10.5456514358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.836763381958</t>
   </si>
   <si>
     <t xml:space="preserve">10.8722982406616</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8695650100708</t>
+    <t xml:space="preserve">10.8695669174194</t>
   </si>
   <si>
     <t xml:space="preserve">10.7793626785278</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">11.0404062271118</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0335712432861</t>
+    <t xml:space="preserve">11.0335721969604</t>
   </si>
   <si>
     <t xml:space="preserve">11.0814065933228</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">11.0568065643311</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1497421264648</t>
+    <t xml:space="preserve">11.1497449874878</t>
   </si>
   <si>
     <t xml:space="preserve">11.2959842681885</t>
@@ -1559,67 +1559,67 @@
     <t xml:space="preserve">11.1060085296631</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1114768981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1251430511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9707021713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0281057357788</t>
+    <t xml:space="preserve">11.1114749908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1251440048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0281038284302</t>
   </si>
   <si>
     <t xml:space="preserve">11.0267391204834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9884691238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9925718307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0226383209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0964441299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0896091461182</t>
+    <t xml:space="preserve">10.9884700775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9925708770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0226392745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0964412689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0896081924438</t>
   </si>
   <si>
     <t xml:space="preserve">11.1456432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0704736709595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1292428970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2508821487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1675100326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0732088088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1333408355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3506507873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2754821777344</t>
+    <t xml:space="preserve">11.0704746246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.129243850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.250883102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1675109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0732078552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1333427429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3506526947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2754831314087</t>
   </si>
   <si>
     <t xml:space="preserve">11.1975793838501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.903733253479</t>
+    <t xml:space="preserve">10.9037342071533</t>
   </si>
   <si>
     <t xml:space="preserve">10.9050998687744</t>
@@ -1628,100 +1628,100 @@
     <t xml:space="preserve">11.0117044448853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8736639022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8135299682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9420003890991</t>
+    <t xml:space="preserve">10.873664855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8135280609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9420013427734</t>
   </si>
   <si>
     <t xml:space="preserve">11.0527057647705</t>
   </si>
   <si>
-    <t xml:space="preserve">11.15247631073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0937089920044</t>
+    <t xml:space="preserve">11.1524772644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0937080383301</t>
   </si>
   <si>
     <t xml:space="preserve">11.2071447372437</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2290143966675</t>
+    <t xml:space="preserve">11.2290124893188</t>
   </si>
   <si>
     <t xml:space="preserve">11.2098798751831</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9201335906982</t>
+    <t xml:space="preserve">10.9201326370239</t>
   </si>
   <si>
     <t xml:space="preserve">10.9912042617798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0185394287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9064664840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8148975372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.746561050415</t>
+    <t xml:space="preserve">11.0185375213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9064674377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8148956298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7465600967407</t>
   </si>
   <si>
     <t xml:space="preserve">10.8312959671021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8517980575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9461011886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9256010055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9242343902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240068435669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1647787094116</t>
+    <t xml:space="preserve">10.8517971038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9461002349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9255990982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9242334365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240058898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1647777557373</t>
   </si>
   <si>
     <t xml:space="preserve">11.3322238922119</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6071805953979</t>
+    <t xml:space="preserve">11.6071825027466</t>
   </si>
   <si>
     <t xml:space="preserve">11.640851020813</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5959577560425</t>
+    <t xml:space="preserve">11.5959596633911</t>
   </si>
   <si>
     <t xml:space="preserve">11.4206008911133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4472570419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.462685585022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4865350723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.417797088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4107818603516</t>
+    <t xml:space="preserve">11.4472551345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4626865386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.486536026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4177961349487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4107828140259</t>
   </si>
   <si>
     <t xml:space="preserve">11.1147804260254</t>
@@ -1730,19 +1730,19 @@
     <t xml:space="preserve">11.4065732955933</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3308210372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0193862915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9562578201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0558614730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1049613952637</t>
+    <t xml:space="preserve">11.3308191299438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0193881988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.956259727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0558605194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1049604415894</t>
   </si>
   <si>
     <t xml:space="preserve">10.9310083389282</t>
@@ -1751,52 +1751,52 @@
     <t xml:space="preserve">10.7261905670166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7949323654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6434240341187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4863033294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3263778686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.503137588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6153659820557</t>
+    <t xml:space="preserve">10.7949295043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6434230804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4863052368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.326379776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5031394958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6153650283813</t>
   </si>
   <si>
     <t xml:space="preserve">10.7752904891968</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7921257019043</t>
+    <t xml:space="preserve">10.79212474823</t>
   </si>
   <si>
     <t xml:space="preserve">11.0165824890137</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8201808929443</t>
+    <t xml:space="preserve">10.820182800293</t>
   </si>
   <si>
     <t xml:space="preserve">10.7738876342773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8384189605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7584562301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9660797119141</t>
+    <t xml:space="preserve">10.838418006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7584581375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9660778045654</t>
   </si>
   <si>
     <t xml:space="preserve">10.9239940643311</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8412256240845</t>
+    <t xml:space="preserve">10.8412246704102</t>
   </si>
   <si>
     <t xml:space="preserve">10.8636713027954</t>
@@ -1808,40 +1808,40 @@
     <t xml:space="preserve">10.4694700241089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5045394897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4512329101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3249769210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1369934082031</t>
+    <t xml:space="preserve">10.504542350769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4512319564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3249759674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1369943618774</t>
   </si>
   <si>
     <t xml:space="preserve">10.2604446411133</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0416021347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86203670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0275726318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95602607727051</t>
+    <t xml:space="preserve">10.041600227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86203479766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0275716781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95602798461914</t>
   </si>
   <si>
     <t xml:space="preserve">9.92796993255615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97145652770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99250030517578</t>
+    <t xml:space="preserve">9.97145748138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99249935150146</t>
   </si>
   <si>
     <t xml:space="preserve">10.1790800094604</t>
@@ -1853,25 +1853,25 @@
     <t xml:space="preserve">10.0233640670776</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70351314544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89991283416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77786445617676</t>
+    <t xml:space="preserve">9.70351123809814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89991188049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77786254882812</t>
   </si>
   <si>
     <t xml:space="preserve">9.86624526977539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98548698425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0037240982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92376232147217</t>
+    <t xml:space="preserve">9.98548793792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0037231445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92376041412354</t>
   </si>
   <si>
     <t xml:space="preserve">9.79189395904541</t>
@@ -1880,19 +1880,19 @@
     <t xml:space="preserve">9.68948554992676</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78487777709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69790267944336</t>
+    <t xml:space="preserve">9.78487968444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69790363311768</t>
   </si>
   <si>
     <t xml:space="preserve">9.66142749786377</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4832649230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64318943023682</t>
+    <t xml:space="preserve">9.48326778411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64319229125977</t>
   </si>
   <si>
     <t xml:space="preserve">9.66563606262207</t>
@@ -1901,85 +1901,85 @@
     <t xml:space="preserve">9.70772171020508</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0584344863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97005367279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90832901000977</t>
+    <t xml:space="preserve">10.0584354400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97005462646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90832996368408</t>
   </si>
   <si>
     <t xml:space="preserve">9.99951553344727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98969459533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93919372558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90412044525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99530696868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0163488388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97286128997803</t>
+    <t xml:space="preserve">9.98969268798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9391918182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9041223526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99530792236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0163497924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97286224365234</t>
   </si>
   <si>
     <t xml:space="preserve">10.2464170455933</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2029275894165</t>
+    <t xml:space="preserve">10.2029294967651</t>
   </si>
   <si>
     <t xml:space="preserve">10.1538286209106</t>
   </si>
   <si>
-    <t xml:space="preserve">10.111743927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2211647033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1229658126831</t>
+    <t xml:space="preserve">10.1117429733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2211656570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1229648590088</t>
   </si>
   <si>
     <t xml:space="preserve">10.1860942840576</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2716674804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3852977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3614501953125</t>
+    <t xml:space="preserve">10.2716684341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3852987289429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3614511489868</t>
   </si>
   <si>
     <t xml:space="preserve">10.3712711334229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4792909622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4231748580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1945104598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.181884765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2758769989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3502283096313</t>
+    <t xml:space="preserve">10.4792890548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4231758117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1945114135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1818876266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2758750915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.350227355957</t>
   </si>
   <si>
     <t xml:space="preserve">10.4203701019287</t>
@@ -1991,13 +1991,13 @@
     <t xml:space="preserve">10.6055469512939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6448249816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6602582931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6981353759766</t>
+    <t xml:space="preserve">10.6448259353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6602573394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6981344223022</t>
   </si>
   <si>
     <t xml:space="preserve">10.7107591629028</t>
@@ -2006,10 +2006,10 @@
     <t xml:space="preserve">10.7233858108521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6700763702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6686744689941</t>
+    <t xml:space="preserve">10.6700773239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6686754226685</t>
   </si>
   <si>
     <t xml:space="preserve">10.6770915985107</t>
@@ -2018,25 +2018,25 @@
     <t xml:space="preserve">10.6378116607666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5480289459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5985326766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6504364013672</t>
+    <t xml:space="preserve">10.5480318069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5985317230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6504383087158</t>
   </si>
   <si>
     <t xml:space="preserve">10.7177753448486</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4989309310913</t>
+    <t xml:space="preserve">10.4989290237427</t>
   </si>
   <si>
     <t xml:space="preserve">10.6069488525391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6364078521729</t>
+    <t xml:space="preserve">10.6364088058472</t>
   </si>
   <si>
     <t xml:space="preserve">10.9029512405396</t>
@@ -2048,13 +2048,13 @@
     <t xml:space="preserve">10.9338130950928</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0432376861572</t>
+    <t xml:space="preserve">11.0432367324829</t>
   </si>
   <si>
     <t xml:space="preserve">11.1456441879272</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0656805038452</t>
+    <t xml:space="preserve">11.0656814575195</t>
   </si>
   <si>
     <t xml:space="preserve">11.1035575866699</t>
@@ -2066,76 +2066,76 @@
     <t xml:space="preserve">10.9590635299683</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9534540176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9352149963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8580598831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0502500534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0754995346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1554641723633</t>
+    <t xml:space="preserve">10.9534530639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9352159500122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.858060836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0502481460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0755004882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.155463218689</t>
   </si>
   <si>
     <t xml:space="preserve">11.0516519546509</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1161842346191</t>
+    <t xml:space="preserve">11.1161832809448</t>
   </si>
   <si>
     <t xml:space="preserve">11.0923357009888</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1442403793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1807146072388</t>
+    <t xml:space="preserve">11.1442394256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1807155609131</t>
   </si>
   <si>
     <t xml:space="preserve">11.1694917678833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0937385559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9913291931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8229894638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8243923187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0811109542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9071598052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8762950897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7612609863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5901145935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6742877960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.545223236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.583101272583</t>
+    <t xml:space="preserve">11.0937376022339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9913301467896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8229875564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.824390411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0811128616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9071588516235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.876296043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7612628936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5901165008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6742858886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5452241897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5830993652344</t>
   </si>
   <si>
     <t xml:space="preserve">10.4315938949585</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">10.1636486053467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1566343307495</t>
+    <t xml:space="preserve">10.1566333770752</t>
   </si>
   <si>
     <t xml:space="preserve">10.047212600708</t>
@@ -2153,28 +2153,28 @@
     <t xml:space="preserve">10.0065288543701</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1159534454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2436113357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1832895278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3460187911987</t>
+    <t xml:space="preserve">10.1159524917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.243613243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1832876205444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.346019744873</t>
   </si>
   <si>
     <t xml:space="preserve">10.4091472625732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3990488052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4884958267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4004898071289</t>
+    <t xml:space="preserve">10.3990468978882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4884948730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4004907608032</t>
   </si>
   <si>
     <t xml:space="preserve">10.0412569046021</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">10.13791847229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1494588851929</t>
+    <t xml:space="preserve">10.1494607925415</t>
   </si>
   <si>
     <t xml:space="preserve">10.1177196502686</t>
@@ -2195,22 +2195,22 @@
     <t xml:space="preserve">9.87678623199463</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79599475860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96912097930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1119480133057</t>
+    <t xml:space="preserve">9.79599761962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9691219329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11194896698</t>
   </si>
   <si>
     <t xml:space="preserve">10.0037450790405</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0268278121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0701112747192</t>
+    <t xml:space="preserve">10.0268297195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0701093673706</t>
   </si>
   <si>
     <t xml:space="preserve">10.0989646911621</t>
@@ -2219,31 +2219,31 @@
     <t xml:space="preserve">10.1321468353271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0297155380249</t>
+    <t xml:space="preserve">10.0297145843506</t>
   </si>
   <si>
     <t xml:space="preserve">10.0585699081421</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0051879882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2114953994751</t>
+    <t xml:space="preserve">10.0051889419556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2114973068237</t>
   </si>
   <si>
     <t xml:space="preserve">10.259105682373</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3572092056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5361061096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4755115509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4163599014282</t>
+    <t xml:space="preserve">10.3572082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5361051559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4755125045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4163608551025</t>
   </si>
   <si>
     <t xml:space="preserve">10.4654130935669</t>
@@ -2255,10 +2255,10 @@
     <t xml:space="preserve">10.5606307983398</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4581985473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.508692741394</t>
+    <t xml:space="preserve">10.4582004547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5086936950684</t>
   </si>
   <si>
     <t xml:space="preserve">10.564959526062</t>
@@ -2267,52 +2267,52 @@
     <t xml:space="preserve">10.4957094192505</t>
   </si>
   <si>
-    <t xml:space="preserve">10.570728302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6082429885864</t>
+    <t xml:space="preserve">10.5707302093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6082420349121</t>
   </si>
   <si>
     <t xml:space="preserve">10.6760482788086</t>
   </si>
   <si>
-    <t xml:space="preserve">10.694803237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6125688552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793886184692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3976058959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3153715133667</t>
+    <t xml:space="preserve">10.6948041915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.61256980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793867111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3976049423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3153705596924</t>
   </si>
   <si>
     <t xml:space="preserve">10.257661819458</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269138336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3802919387817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3514394760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3427810668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2778596878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1667709350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2461194992065</t>
+    <t xml:space="preserve">10.3269128799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3802928924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3514366149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3427820205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2778615951538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1667718887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2461204528809</t>
   </si>
   <si>
     <t xml:space="preserve">10.1682147979736</t>
@@ -2321,22 +2321,22 @@
     <t xml:space="preserve">9.86813068389893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7238597869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6546106338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51755428314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69067859649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51610946655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50023937225342</t>
+    <t xml:space="preserve">9.72385883331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65460968017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51755142211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69067764282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51611042022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50024032592773</t>
   </si>
   <si>
     <t xml:space="preserve">9.68057918548584</t>
@@ -2345,43 +2345,43 @@
     <t xml:space="preserve">9.4511890411377</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40646266937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57526206970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48148345947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63008594512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60267066955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48004150390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5348653793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59545993804932</t>
+    <t xml:space="preserve">9.40646362304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5752592086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48148536682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63008308410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60267448425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48004245758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53486442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59545803070068</t>
   </si>
   <si>
     <t xml:space="preserve">9.66615200042725</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82340812683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89121627807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81186485290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86091804504395</t>
+    <t xml:space="preserve">9.82340621948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89121437072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81186580657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86091613769531</t>
   </si>
   <si>
     <t xml:space="preserve">9.9330530166626</t>
@@ -2390,46 +2390,46 @@
     <t xml:space="preserve">10.0426998138428</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1725416183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1523447036743</t>
+    <t xml:space="preserve">10.1725435256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1523456573486</t>
   </si>
   <si>
     <t xml:space="preserve">10.1307039260864</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3254728317261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2086114883423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3326835632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4971523284912</t>
+    <t xml:space="preserve">10.3254690170288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.208610534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3326845169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4971513748169</t>
   </si>
   <si>
     <t xml:space="preserve">10.5105314254761</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4034948348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3038883209229</t>
+    <t xml:space="preserve">10.4034938812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3038902282715</t>
   </si>
   <si>
     <t xml:space="preserve">10.3574085235596</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4466066360474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4317407608032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3916006088257</t>
+    <t xml:space="preserve">10.4466075897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4317398071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3916015625</t>
   </si>
   <si>
     <t xml:space="preserve">10.0764331817627</t>
@@ -2438,16 +2438,16 @@
     <t xml:space="preserve">9.96642208099365</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0675134658813</t>
+    <t xml:space="preserve">10.067512512207</t>
   </si>
   <si>
     <t xml:space="preserve">10.1477928161621</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0600805282593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1091403961182</t>
+    <t xml:space="preserve">10.060079574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1091394424438</t>
   </si>
   <si>
     <t xml:space="preserve">10.1700916290283</t>
@@ -2465,37 +2465,37 @@
     <t xml:space="preserve">10.2696962356567</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2429351806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3722734451294</t>
+    <t xml:space="preserve">10.2429370880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.372275352478</t>
   </si>
   <si>
     <t xml:space="preserve">10.4599857330322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5090456008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4362010955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3603820800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2786169052124</t>
+    <t xml:space="preserve">10.5090446472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4362001419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3603811264038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2786159515381</t>
   </si>
   <si>
     <t xml:space="preserve">10.1819839477539</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0868396759033</t>
+    <t xml:space="preserve">10.0868377685547</t>
   </si>
   <si>
     <t xml:space="preserve">10.1864442825317</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3871412277222</t>
+    <t xml:space="preserve">10.3871402740479</t>
   </si>
   <si>
     <t xml:space="preserve">10.5536441802979</t>
@@ -2504,31 +2504,31 @@
     <t xml:space="preserve">10.5283708572388</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5372915267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5476961135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5075578689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5952711105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5417509078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5699968338013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4882307052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3841676712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4153861999512</t>
+    <t xml:space="preserve">10.5372905731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5476970672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5075569152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.595269203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5417499542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5699977874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4882326126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.384165763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4153871536255</t>
   </si>
   <si>
     <t xml:space="preserve">10.4376859664917</t>
@@ -2537,13 +2537,13 @@
     <t xml:space="preserve">10.4421472549438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3559217453003</t>
+    <t xml:space="preserve">10.3559198379517</t>
   </si>
   <si>
     <t xml:space="preserve">10.3247022628784</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2578020095825</t>
+    <t xml:space="preserve">10.2578010559082</t>
   </si>
   <si>
     <t xml:space="preserve">10.1938772201538</t>
@@ -2552,34 +2552,34 @@
     <t xml:space="preserve">10.0883264541626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0199413299561</t>
+    <t xml:space="preserve">10.0199403762817</t>
   </si>
   <si>
     <t xml:space="preserve">10.141845703125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2355031967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1284646987915</t>
+    <t xml:space="preserve">10.2355051040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1284666061401</t>
   </si>
   <si>
     <t xml:space="preserve">10.1581993103027</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1031923294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1463041305542</t>
+    <t xml:space="preserve">10.1031932830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1463069915771</t>
   </si>
   <si>
     <t xml:space="preserve">10.1121120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1269769668579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1849565505981</t>
+    <t xml:space="preserve">10.1269788742065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1849575042725</t>
   </si>
   <si>
     <t xml:space="preserve">10.2711839675903</t>
@@ -2591,253 +2591,253 @@
     <t xml:space="preserve">10.418360710144</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4064664840698</t>
+    <t xml:space="preserve">10.4064674377441</t>
   </si>
   <si>
     <t xml:space="preserve">10.4124135971069</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4852590560913</t>
+    <t xml:space="preserve">10.485258102417</t>
   </si>
   <si>
     <t xml:space="preserve">10.6413555145264</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6443290710449</t>
+    <t xml:space="preserve">10.6443319320679</t>
   </si>
   <si>
     <t xml:space="preserve">10.5595903396606</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4807977676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3128099441528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2563161849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3232164382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3440275192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3187551498413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.077919960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0035905838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0125074386597</t>
+    <t xml:space="preserve">10.4807987213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3128089904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2563171386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3232145309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3440284729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3187561035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0779190063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0035886764526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.012508392334</t>
   </si>
   <si>
     <t xml:space="preserve">9.808837890625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95898914337158</t>
+    <t xml:space="preserve">9.95898818969727</t>
   </si>
   <si>
     <t xml:space="preserve">9.87722396850586</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60814094543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40893459320068</t>
+    <t xml:space="preserve">9.60814189910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40893268585205</t>
   </si>
   <si>
     <t xml:space="preserve">9.37325286865234</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50556564331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68396091461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64084911346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59327602386475</t>
+    <t xml:space="preserve">9.50556373596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6839599609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64085006713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59327697753906</t>
   </si>
   <si>
     <t xml:space="preserve">9.4996166229248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7374792098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65422916412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5828685760498</t>
+    <t xml:space="preserve">9.73748016357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65422821044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58287048339844</t>
   </si>
   <si>
     <t xml:space="preserve">9.5962495803833</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61706161499023</t>
+    <t xml:space="preserve">9.61706256866455</t>
   </si>
   <si>
     <t xml:space="preserve">9.58881568908691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48772430419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04470634460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90198802947998</t>
+    <t xml:space="preserve">9.48772621154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04470729827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9019889831543</t>
   </si>
   <si>
     <t xml:space="preserve">8.9674015045166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73994636535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29395484924316</t>
+    <t xml:space="preserve">8.73994445800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29395389556885</t>
   </si>
   <si>
     <t xml:space="preserve">8.26422119140625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26570701599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28949451446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15272521972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60712671279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02088499069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06919956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98371934890747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89996004104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13707828521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82562685012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10362958908081</t>
+    <t xml:space="preserve">8.26570892333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28949546813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15272331237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60712766647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02088451385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06920099258423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98371887207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89995956420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13707780838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82562780380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10362863540649</t>
   </si>
   <si>
     <t xml:space="preserve">4.9757776260376</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17721700668335</t>
+    <t xml:space="preserve">5.17721748352051</t>
   </si>
   <si>
     <t xml:space="preserve">5.4210262298584</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41656637191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22529697418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.483971118927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47505283355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10785293579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38734149932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85340023040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83853483200073</t>
+    <t xml:space="preserve">5.41656589508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22529745101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48397159576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47505235671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10785245895386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3873405456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85340261459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83853530883789</t>
   </si>
   <si>
     <t xml:space="preserve">7.31277370452881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93145179748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92401838302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0080132484436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90915012359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91881418228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81400680541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37916469573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28401899337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38288164138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26915264129639</t>
+    <t xml:space="preserve">6.93145036697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92401742935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00801277160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90915107727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91881322860718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81400489807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37916421890259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28401947021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38288116455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2691535949707</t>
   </si>
   <si>
     <t xml:space="preserve">5.91681909561157</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20522737503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29739999771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13238191604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24685430526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45498275756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65790987014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47728252410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10339307785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45721387863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26097631454468</t>
+    <t xml:space="preserve">6.20522689819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29739856719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13238286972046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24685478210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4549822807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65790891647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47728300094604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10339403152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45721340179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26097774505615</t>
   </si>
   <si>
     <t xml:space="preserve">6.3598370552063</t>
@@ -2852,172 +2852,172 @@
     <t xml:space="preserve">6.32861852645874</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33307886123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77694225311279</t>
+    <t xml:space="preserve">6.33307933807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77694177627563</t>
   </si>
   <si>
     <t xml:space="preserve">6.56323003768921</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59845781326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43641138076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39883613586426</t>
+    <t xml:space="preserve">6.59845733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43641185760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39883518218994</t>
   </si>
   <si>
     <t xml:space="preserve">6.46615982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47711849212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61489677429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6477746963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35891199111938</t>
+    <t xml:space="preserve">6.47711896896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61489582061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64777421951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35891151428223</t>
   </si>
   <si>
     <t xml:space="preserve">6.52878570556641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86618328094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04466915130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0172700881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44156408309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56524848937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33979606628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.225501537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71744680404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72214460372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71666383743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99456930160522</t>
+    <t xml:space="preserve">6.86618375778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04466867446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01726961135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44156265258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56525039672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33979511260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22550201416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71744823455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72214412689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71666431427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99456882476807</t>
   </si>
   <si>
     <t xml:space="preserve">6.96403741836548</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91628503799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94681549072266</t>
+    <t xml:space="preserve">6.91628456115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9468150138855</t>
   </si>
   <si>
     <t xml:space="preserve">6.89123487472534</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63211917877197</t>
+    <t xml:space="preserve">6.63211822509766</t>
   </si>
   <si>
     <t xml:space="preserve">6.63916349411011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57340621948242</t>
+    <t xml:space="preserve">6.57340669631958</t>
   </si>
   <si>
     <t xml:space="preserve">6.75189161300659</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64620876312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63446760177612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82626008987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79025077819824</t>
+    <t xml:space="preserve">6.64620923995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63446807861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82626104354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79024934768677</t>
   </si>
   <si>
     <t xml:space="preserve">6.85600709915161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90454339981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80903673171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60237073898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77928972244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87557888031006</t>
+    <t xml:space="preserve">6.90454244613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80903816223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60237169265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77929019927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8755784034729</t>
   </si>
   <si>
     <t xml:space="preserve">6.91706800460815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96325540542603</t>
+    <t xml:space="preserve">6.96325588226318</t>
   </si>
   <si>
     <t xml:space="preserve">6.89906215667725</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87401151657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98987007141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81608295440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73310375213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66969442367554</t>
+    <t xml:space="preserve">6.87401294708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98987102508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81608247756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73310327529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6696949005127</t>
   </si>
   <si>
     <t xml:space="preserve">6.62507343292236</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63603258132935</t>
+    <t xml:space="preserve">6.63603353500366</t>
   </si>
   <si>
     <t xml:space="preserve">6.58358335494995</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12014961242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90330648422241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89782571792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15224504470825</t>
+    <t xml:space="preserve">6.12014865875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90330600738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89782619476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15224599838257</t>
   </si>
   <si>
     <t xml:space="preserve">6.33777523040771</t>
@@ -3029,22 +3029,22 @@
     <t xml:space="preserve">6.11075592041016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25166511535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4536337852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55461835861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45441579818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40274906158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34090709686279</t>
+    <t xml:space="preserve">6.25166416168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45363473892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55461883544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45441675186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40274953842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34090757369995</t>
   </si>
   <si>
     <t xml:space="preserve">6.30489635467529</t>
@@ -3053,13 +3053,13 @@
     <t xml:space="preserve">6.36282634735107</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21174001693726</t>
+    <t xml:space="preserve">6.21174049377441</t>
   </si>
   <si>
     <t xml:space="preserve">6.16320466995239</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41214466094971</t>
+    <t xml:space="preserve">6.41214418411255</t>
   </si>
   <si>
     <t xml:space="preserve">6.32368469238281</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">6.23287582397461</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10605764389038</t>
+    <t xml:space="preserve">6.10605812072754</t>
   </si>
   <si>
     <t xml:space="preserve">6.08727073669434</t>
@@ -3077,91 +3077,91 @@
     <t xml:space="preserve">6.00898790359497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02464437484741</t>
+    <t xml:space="preserve">6.02464389801025</t>
   </si>
   <si>
     <t xml:space="preserve">5.98471975326538</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08492183685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88608312606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97141218185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96984624862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9487099647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85242223739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95888566970825</t>
+    <t xml:space="preserve">6.08492136001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88608407974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97141122817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96984529495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94870948791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85242176055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95888614654541</t>
   </si>
   <si>
     <t xml:space="preserve">5.98941707611084</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94479608535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78353309631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53048276901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61483383178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51297664642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42066860198975</t>
+    <t xml:space="preserve">5.94479513168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78353261947632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53048324584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61483430862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5129771232605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42066955566406</t>
   </si>
   <si>
     <t xml:space="preserve">5.32279205322266</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45886611938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30369472503662</t>
+    <t xml:space="preserve">5.45886564254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30369424819946</t>
   </si>
   <si>
     <t xml:space="preserve">5.32199668884277</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14215564727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17000818252563</t>
+    <t xml:space="preserve">5.14215612411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17000865936279</t>
   </si>
   <si>
     <t xml:space="preserve">5.32358741760254</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50501871109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35541820526123</t>
+    <t xml:space="preserve">5.5050196647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35541772842407</t>
   </si>
   <si>
     <t xml:space="preserve">5.478759765625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46045780181885</t>
+    <t xml:space="preserve">5.46045732498169</t>
   </si>
   <si>
     <t xml:space="preserve">5.42623949050903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32040405273438</t>
+    <t xml:space="preserve">5.32040500640869</t>
   </si>
   <si>
     <t xml:space="preserve">5.32995414733887</t>
@@ -3173,73 +3173,73 @@
     <t xml:space="preserve">5.22252798080444</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24082946777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22173118591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04507446289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04587030410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12783193588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96947765350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85409307479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68300676345825</t>
+    <t xml:space="preserve">5.24083042144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22173166275024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04507398605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04586982727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12783241271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96947813034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8540940284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68300628662109</t>
   </si>
   <si>
     <t xml:space="preserve">4.70926713943481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7832727432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06258106231689</t>
+    <t xml:space="preserve">4.78327178955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06258058547974</t>
   </si>
   <si>
     <t xml:space="preserve">5.1835355758667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24958372116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24878692626953</t>
+    <t xml:space="preserve">5.24958276748657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24878787994385</t>
   </si>
   <si>
     <t xml:space="preserve">5.2058162689209</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87106657028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10979175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04135704040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06204605102539</t>
+    <t xml:space="preserve">5.87106609344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10979223251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04135751724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06204652786255</t>
   </si>
   <si>
     <t xml:space="preserve">6.09546852111816</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34055995941162</t>
+    <t xml:space="preserve">6.34056043624878</t>
   </si>
   <si>
     <t xml:space="preserve">6.43445920944214</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52040004730225</t>
+    <t xml:space="preserve">6.52040100097656</t>
   </si>
   <si>
     <t xml:space="preserve">6.42729711532593</t>
@@ -3248,28 +3248,28 @@
     <t xml:space="preserve">6.46549367904663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62862205505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8593897819519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90076971054077</t>
+    <t xml:space="preserve">6.62862253189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85939121246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90077114105225</t>
   </si>
   <si>
     <t xml:space="preserve">6.81005430221558</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82915306091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60713815689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69626188278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7631049156189</t>
+    <t xml:space="preserve">6.82915163040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60713768005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69626235961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76310443878174</t>
   </si>
   <si>
     <t xml:space="preserve">6.72570419311523</t>
@@ -3278,40 +3278,40 @@
     <t xml:space="preserve">6.95806503295898</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97636699676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99467039108276</t>
+    <t xml:space="preserve">6.97636747360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99466896057129</t>
   </si>
   <si>
     <t xml:space="preserve">7.0368447303772</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11084890365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00899267196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90554475784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96442985534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96761274337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93180561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86018753051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56018829345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65249538421631</t>
+    <t xml:space="preserve">7.11084938049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00899362564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90554523468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96443128585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.967613697052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93180513381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86018705368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56018781661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65249490737915</t>
   </si>
   <si>
     <t xml:space="preserve">6.83074378967285</t>
@@ -3320,55 +3320,55 @@
     <t xml:space="preserve">6.84029340744019</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8132381439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80209827423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72252082824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97159337997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19997406005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21588850021362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18564987182617</t>
+    <t xml:space="preserve">6.81323766708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80209732055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72252178192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97159290313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19997453689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21588802337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18565034866333</t>
   </si>
   <si>
     <t xml:space="preserve">7.1442699432373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20474815368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20952320098877</t>
+    <t xml:space="preserve">7.20474863052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20952272415161</t>
   </si>
   <si>
     <t xml:space="preserve">7.16575527191162</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02729511260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04718971252441</t>
+    <t xml:space="preserve">7.02729558944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0471887588501</t>
   </si>
   <si>
     <t xml:space="preserve">7.02411222457886</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08299779891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89758777618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79732275009155</t>
+    <t xml:space="preserve">7.08299732208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89758825302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79732179641724</t>
   </si>
   <si>
     <t xml:space="preserve">6.64692449569702</t>
@@ -3377,94 +3377,94 @@
     <t xml:space="preserve">6.78618144989014</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80130100250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6461296081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52517461776733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61350345611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7551474571228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81960296630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85222959518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90793228149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98273277282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03763961791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98432540893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06549215316772</t>
+    <t xml:space="preserve">6.8013014793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64612913131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52517604827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61350393295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75514841079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81960487365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85223007202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90793085098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98273229598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03764009475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98432636260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06549119949341</t>
   </si>
   <si>
     <t xml:space="preserve">7.25965404510498</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22464323043823</t>
+    <t xml:space="preserve">7.22464227676392</t>
   </si>
   <si>
     <t xml:space="preserve">7.29148578643799</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23896503448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31933689117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44506549835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49917602539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62092733383179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70288991928101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54533052444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60819435119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5532865524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68697452545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85885667800903</t>
+    <t xml:space="preserve">7.23896551132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3193359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44506502151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49917697906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62092685699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70288896560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54533004760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60819339752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55328750610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68697500228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85885715484619</t>
   </si>
   <si>
     <t xml:space="preserve">8.00686740875244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1007661819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06893825531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13259601593018</t>
+    <t xml:space="preserve">8.10076713562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06893539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13259696960449</t>
   </si>
   <si>
     <t xml:space="preserve">8.19625663757324</t>
@@ -3476,22 +3476,22 @@
     <t xml:space="preserve">8.22331142425537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.148512840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22649574279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09599113464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07371044158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94161510467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15328693389893</t>
+    <t xml:space="preserve">8.14851188659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22649478912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09599208831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07370948791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94161558151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15328598022461</t>
   </si>
   <si>
     <t xml:space="preserve">8.04665565490723</t>
@@ -3509,109 +3509,109 @@
     <t xml:space="preserve">8.35063171386719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41110992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33471775054932</t>
+    <t xml:space="preserve">8.41110897064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33471870422363</t>
   </si>
   <si>
     <t xml:space="preserve">8.32039260864258</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16442680358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11668300628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08644199371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13737201690674</t>
+    <t xml:space="preserve">8.16442584991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11668109893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08644104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13737106323242</t>
   </si>
   <si>
     <t xml:space="preserve">8.34585857391357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24718379974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23604488372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21535396575928</t>
+    <t xml:space="preserve">8.24718570709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23604393005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21535491943359</t>
   </si>
   <si>
     <t xml:space="preserve">8.01641654968262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07689189910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09121894836426</t>
+    <t xml:space="preserve">8.07689094543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09121799468994</t>
   </si>
   <si>
     <t xml:space="preserve">8.03869724273682</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07530212402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04506492614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11986446380615</t>
+    <t xml:space="preserve">8.07530117034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04506206512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11986351013184</t>
   </si>
   <si>
     <t xml:space="preserve">8.11827278137207</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90182828903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03710556030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20262241363525</t>
+    <t xml:space="preserve">7.90182733535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03710651397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20262336730957</t>
   </si>
   <si>
     <t xml:space="preserve">8.21694564819336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21217155456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28219699859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32198524475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19944000244141</t>
+    <t xml:space="preserve">8.21217060089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28219795227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32198429107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19943904876709</t>
   </si>
   <si>
     <t xml:space="preserve">8.29970455169678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32676124572754</t>
+    <t xml:space="preserve">8.32675933837891</t>
   </si>
   <si>
     <t xml:space="preserve">8.30288600921631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11349678039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1835241317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23729991912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13545417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.172119140625</t>
+    <t xml:space="preserve">8.11349868774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18352508544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23729705810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13545322418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17211818695068</t>
   </si>
   <si>
     <t xml:space="preserve">8.22915172576904</t>
@@ -3620,7 +3620,7 @@
     <t xml:space="preserve">8.22426223754883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19330215454102</t>
+    <t xml:space="preserve">8.1933012008667</t>
   </si>
   <si>
     <t xml:space="preserve">8.38721561431885</t>
@@ -3629,25 +3629,25 @@
     <t xml:space="preserve">8.44913768768311</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50617218017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45728588104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.517578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55179977416992</t>
+    <t xml:space="preserve">8.50617027282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45728778839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51757907867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55179882049561</t>
   </si>
   <si>
     <t xml:space="preserve">8.50943279266357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56646537780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62186908721924</t>
+    <t xml:space="preserve">8.56646633148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62187004089355</t>
   </si>
   <si>
     <t xml:space="preserve">8.74082565307617</t>
@@ -3656,28 +3656,28 @@
     <t xml:space="preserve">8.74571418762207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75223159790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66097736358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40351295471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48824882507324</t>
+    <t xml:space="preserve">8.75223255157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66097831726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40351104736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48824691772461</t>
   </si>
   <si>
     <t xml:space="preserve">8.48498916625977</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49150657653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58764743804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60068607330322</t>
+    <t xml:space="preserve">8.49150562286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58764934539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60068416595459</t>
   </si>
   <si>
     <t xml:space="preserve">8.42632484436035</t>
@@ -3686,37 +3686,37 @@
     <t xml:space="preserve">8.42306613922119</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36766338348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52246761322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47195053100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51920795440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28618431091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11752891540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21285629272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15093421936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16722965240479</t>
+    <t xml:space="preserve">8.36766242980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5224666595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47195148468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51921081542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2861852645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11752796173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21285533905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15093326568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16722869873047</t>
   </si>
   <si>
     <t xml:space="preserve">8.07434558868408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01079368591309</t>
+    <t xml:space="preserve">8.01079559326172</t>
   </si>
   <si>
     <t xml:space="preserve">7.70281219482422</t>
@@ -3725,76 +3725,76 @@
     <t xml:space="preserve">7.74273538589478</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94398355484009</t>
+    <t xml:space="preserve">7.94398164749146</t>
   </si>
   <si>
     <t xml:space="preserve">7.85761737823486</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87798690795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03849601745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99123907089233</t>
+    <t xml:space="preserve">7.87798643112183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03849697113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9912371635437</t>
   </si>
   <si>
     <t xml:space="preserve">8.08004856109619</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15908145904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1248607635498</t>
+    <t xml:space="preserve">8.15908050537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12486362457275</t>
   </si>
   <si>
     <t xml:space="preserve">8.25848388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24544715881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31062984466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39373302459717</t>
+    <t xml:space="preserve">8.24544620513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31062793731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39373397827148</t>
   </si>
   <si>
     <t xml:space="preserve">8.37906837463379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4328441619873</t>
+    <t xml:space="preserve">8.43284320831299</t>
   </si>
   <si>
     <t xml:space="preserve">8.48661804199219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53713512420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56972408294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45076847076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.454026222229</t>
+    <t xml:space="preserve">8.53713417053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56972503662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45076751708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45402717590332</t>
   </si>
   <si>
     <t xml:space="preserve">8.44587993621826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20959758758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19819068908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33833026885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40677165985107</t>
+    <t xml:space="preserve">8.20959854125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19819164276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33832931518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40677070617676</t>
   </si>
   <si>
     <t xml:space="preserve">8.41654872894287</t>
@@ -3803,7 +3803,7 @@
     <t xml:space="preserve">8.39699363708496</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49639511108398</t>
+    <t xml:space="preserve">8.4963960647583</t>
   </si>
   <si>
     <t xml:space="preserve">8.49965476989746</t>
@@ -3812,115 +3812,115 @@
     <t xml:space="preserve">8.66260814666748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57950210571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6251277923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62838745117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59090900421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80437850952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88422393798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95429420471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98199653625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91518688201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83207321166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99490642547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23237419128418</t>
+    <t xml:space="preserve">8.57950115203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62512874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62838554382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59090709686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80437660217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8842248916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9542932510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98199558258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91518592834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83207225799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99490737915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23237228393555</t>
   </si>
   <si>
     <t xml:space="preserve">9.24594306945801</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27138710021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48680210113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55295372009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65811920166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79211711883545</t>
+    <t xml:space="preserve">9.27138614654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48680305480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55295467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65811824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79211616516113</t>
   </si>
   <si>
     <t xml:space="preserve">9.73783874511719</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87353324890137</t>
+    <t xml:space="preserve">9.87353610992432</t>
   </si>
   <si>
     <t xml:space="preserve">10.0482416152954</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89389038085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82773780822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0567216873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.182240486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1551008224487</t>
+    <t xml:space="preserve">9.89388847351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82773685455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0567235946655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1822414398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1551027297974</t>
   </si>
   <si>
     <t xml:space="preserve">10.0261917114258</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1601896286011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3535566329956</t>
+    <t xml:space="preserve">10.1601886749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3535585403442</t>
   </si>
   <si>
     <t xml:space="preserve">10.3773031234741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3230257034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4468460083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2907972335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2433042526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4129228591919</t>
+    <t xml:space="preserve">10.3230247497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4468488693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2907962799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2433052062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4129238128662</t>
   </si>
   <si>
     <t xml:space="preserve">10.4807710647583</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4044418334961</t>
+    <t xml:space="preserve">10.4044427871704</t>
   </si>
   <si>
     <t xml:space="preserve">10.3162403106689</t>
@@ -3932,7 +3932,7 @@
     <t xml:space="preserve">10.809832572937</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6351251602173</t>
+    <t xml:space="preserve">10.635124206543</t>
   </si>
   <si>
     <t xml:space="preserve">10.4994287490845</t>
@@ -3941,16 +3941,16 @@
     <t xml:space="preserve">10.6520862579346</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7470741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7555551528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7029714584351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7402877807617</t>
+    <t xml:space="preserve">10.7470731735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7555541992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7029733657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7402868270874</t>
   </si>
   <si>
     <t xml:space="preserve">10.7250232696533</t>
@@ -3959,31 +3959,31 @@
     <t xml:space="preserve">10.6113777160645</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6402130126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6843147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6792249679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5418357849121</t>
+    <t xml:space="preserve">10.640212059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6843118667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6792240142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5418338775635</t>
   </si>
   <si>
     <t xml:space="preserve">10.3196325302124</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4553289413452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4909477233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4281892776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7785472869873</t>
+    <t xml:space="preserve">10.4553279876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4909496307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.428186416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77854633331299</t>
   </si>
   <si>
     <t xml:space="preserve">10.0075330734253</t>
@@ -3992,37 +3992,37 @@
     <t xml:space="preserve">10.0957355499268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1262674331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1856346130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4247961044312</t>
+    <t xml:space="preserve">10.1262664794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1856336593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4247970581055</t>
   </si>
   <si>
     <t xml:space="preserve">10.6588716506958</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5079097747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4027462005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.351861000061</t>
+    <t xml:space="preserve">10.5079107284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4027452468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3518600463867</t>
   </si>
   <si>
     <t xml:space="preserve">10.1941146850586</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3026704788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.177152633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3450756072998</t>
+    <t xml:space="preserve">10.3026714324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1771545410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3450746536255</t>
   </si>
   <si>
     <t xml:space="preserve">10.2212533950806</t>
@@ -4031,19 +4031,19 @@
     <t xml:space="preserve">10.0363683700562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3298120498657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3247213363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3806962966919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4264936447144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4146175384521</t>
+    <t xml:space="preserve">10.3298101425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3247222900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3806943893433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.42649269104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4146194458008</t>
   </si>
   <si>
     <t xml:space="preserve">10.3637342453003</t>
@@ -4055,55 +4055,55 @@
     <t xml:space="preserve">10.6944904327393</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8183126449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7284145355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8471488952637</t>
+    <t xml:space="preserve">10.8183135986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7284154891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8471508026123</t>
   </si>
   <si>
     <t xml:space="preserve">10.7572498321533</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8641109466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0693511962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0456037521362</t>
+    <t xml:space="preserve">10.864109992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0693502426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0456027984619</t>
   </si>
   <si>
     <t xml:space="preserve">11.1609439849854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2050457000732</t>
+    <t xml:space="preserve">11.2050466537476</t>
   </si>
   <si>
     <t xml:space="preserve">11.2542352676392</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3814496994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2711973190308</t>
+    <t xml:space="preserve">11.3814487457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2711954116821</t>
   </si>
   <si>
     <t xml:space="preserve">11.1151475906372</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7589464187622</t>
+    <t xml:space="preserve">10.7589483261108</t>
   </si>
   <si>
     <t xml:space="preserve">11.1049699783325</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4357280731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7139024734497</t>
+    <t xml:space="preserve">11.4357261657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7139015197754</t>
   </si>
   <si>
     <t xml:space="preserve">11.512056350708</t>
@@ -4112,25 +4112,25 @@
     <t xml:space="preserve">11.2864618301392</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4119806289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3271713256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2694997787476</t>
+    <t xml:space="preserve">11.411979675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3271703720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2695016860962</t>
   </si>
   <si>
     <t xml:space="preserve">11.4323348999023</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1829948425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0557813644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2389707565308</t>
+    <t xml:space="preserve">11.182993888855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0557823181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2389678955078</t>
   </si>
   <si>
     <t xml:space="preserve">11.277982711792</t>
@@ -4142,34 +4142,34 @@
     <t xml:space="preserve">11.3000316619873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1711206436157</t>
+    <t xml:space="preserve">11.17112159729</t>
   </si>
   <si>
     <t xml:space="preserve">11.3085117340088</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4238529205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2915496826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4425115585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3865385055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3322591781616</t>
+    <t xml:space="preserve">11.4238538742065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2915506362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.442512512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3865365982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3322601318359</t>
   </si>
   <si>
     <t xml:space="preserve">11.6867628097534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7308654785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.087064743042</t>
+    <t xml:space="preserve">11.7308645248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0870637893677</t>
   </si>
   <si>
     <t xml:space="preserve">12.3228349685669</t>
@@ -4184,88 +4184,88 @@
     <t xml:space="preserve">11.3695755004883</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5934734344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5358037948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1134510040283</t>
+    <t xml:space="preserve">11.5934724807739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5358028411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.113450050354</t>
   </si>
   <si>
     <t xml:space="preserve">11.0065908432007</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9607925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8301849365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1185388565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7945671081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.213526725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4187641143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2559309005737</t>
+    <t xml:space="preserve">10.9607934951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8301858901978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1185398101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.79456615448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2135257720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4187650680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2559299468994</t>
   </si>
   <si>
     <t xml:space="preserve">11.1066665649414</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3492221832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2745895385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3763589859009</t>
+    <t xml:space="preserve">11.3492212295532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2745885848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3763599395752</t>
   </si>
   <si>
     <t xml:space="preserve">11.400107383728</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4560813903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3543090820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2474489212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7189931869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7003335952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0209112167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0429620742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.000560760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0667114257812</t>
+    <t xml:space="preserve">11.4560832977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3543081283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2474517822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7189922332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7003326416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0209121704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0429639816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0005588531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0667095184326</t>
   </si>
   <si>
     <t xml:space="preserve">11.8733444213867</t>
   </si>
   <si>
-    <t xml:space="preserve">11.517144203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9658823013306</t>
+    <t xml:space="preserve">11.5171451568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9658832550049</t>
   </si>
   <si>
     <t xml:space="preserve">10.9896278381348</t>
@@ -4277,10 +4277,10 @@
     <t xml:space="preserve">11.3560066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1948671340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.534107208252</t>
+    <t xml:space="preserve">11.1948680877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5341053009033</t>
   </si>
   <si>
     <t xml:space="preserve">11.4577770233154</t>
@@ -4292,40 +4292,40 @@
     <t xml:space="preserve">11.0914001464844</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2440576553345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5510683059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5680313110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7257747650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8156747817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6918535232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800540924072</t>
+    <t xml:space="preserve">11.2440567016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5510673522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5680303573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.725775718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.815673828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6918525695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800531387329</t>
   </si>
   <si>
     <t xml:space="preserve">12.0023517608643</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9113340377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3576793670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4679527282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4206924438477</t>
+    <t xml:space="preserve">11.9113321304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3576803207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4679536819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.420693397522</t>
   </si>
   <si>
     <t xml:space="preserve">12.4276943206787</t>
@@ -4334,31 +4334,31 @@
     <t xml:space="preserve">12.4259443283081</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3384246826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3156700134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4784564971924</t>
+    <t xml:space="preserve">12.3384237289429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3156690597534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4784555435181</t>
   </si>
   <si>
     <t xml:space="preserve">12.6307392120361</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6272382736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5957317352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.275411605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5875120162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3582134246826</t>
+    <t xml:space="preserve">12.6272373199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5957307815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2754106521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5875129699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3582124710083</t>
   </si>
   <si>
     <t xml:space="preserve">11.5262489318848</t>
@@ -4376,189 +4376,189 @@
     <t xml:space="preserve">10.5407848358154</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5722932815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2047138214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0034198760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2099637985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0646829605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1539516448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91414928436279</t>
+    <t xml:space="preserve">10.5722923278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2047128677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0034189224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2099647521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0646820068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1539525985718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91415023803711</t>
   </si>
   <si>
     <t xml:space="preserve">9.82662963867188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0629320144653</t>
+    <t xml:space="preserve">10.062931060791</t>
   </si>
   <si>
     <t xml:space="preserve">9.48005485534668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41353988647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66734600067139</t>
+    <t xml:space="preserve">9.41354084014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6673469543457</t>
   </si>
   <si>
     <t xml:space="preserve">9.82488059997559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80212497711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74786376953125</t>
+    <t xml:space="preserve">9.80212593078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74786281585693</t>
   </si>
   <si>
     <t xml:space="preserve">9.72861003875732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31551933288574</t>
+    <t xml:space="preserve">9.31552124023438</t>
   </si>
   <si>
     <t xml:space="preserve">9.48530673980713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63933944702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89314365386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77937030792236</t>
+    <t xml:space="preserve">9.6393404006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89314556121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77936935424805</t>
   </si>
   <si>
     <t xml:space="preserve">9.62708759307861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60083103179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68134880065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64459133148193</t>
+    <t xml:space="preserve">9.60083293914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68134784698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64459228515625</t>
   </si>
   <si>
     <t xml:space="preserve">9.70760536193848</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2537221908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2414693832397</t>
+    <t xml:space="preserve">10.2537240982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2414712905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0156726837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97716426849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96841239929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0261745452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0174226760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0576801300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99816703796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1434497833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1784572601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1329460144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2327194213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4445142745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3009843826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4672689437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8593549728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7245759963989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9451236724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7788362503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9398727416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7088212966919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3342418670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2624750137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.577543258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.75608253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4602670669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1679534912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1364479064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2239675521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4532670974731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3587465286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3359899520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0996894836426</t>
   </si>
   <si>
     <t xml:space="preserve">10.0156717300415</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97716331481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96841239929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0261735916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0174217224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0576801300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99816799163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1434488296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1784572601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1329460144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2327194213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4445152282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3009843826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4672698974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8593559265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7245750427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.945122718811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7788381576538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9398717880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7088222503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3342399597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2624750137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.577543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7560815811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4602680206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1679534912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1364469528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2239665985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4532670974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3587465286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.335991859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0996904373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0156726837158</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.94071388244629</t>
   </si>
   <si>
@@ -4574,37 +4574,37 @@
     <t xml:space="preserve">9.59448528289795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6248254776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73547554016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0317335128784</t>
+    <t xml:space="preserve">9.62482452392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7354736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0317325592041</t>
   </si>
   <si>
     <t xml:space="preserve">10.2976531982422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4618434906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4671974182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5653562545776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5135984420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3244218826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1691551208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4297180175781</t>
+    <t xml:space="preserve">10.4618444442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4671983718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5653553009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.513599395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3244228363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1691541671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4297189712524</t>
   </si>
   <si>
     <t xml:space="preserve">10.5867729187012</t>
@@ -4613,25 +4613,25 @@
     <t xml:space="preserve">10.5885572433472</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7920122146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7598857879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240211486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9954643249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1400260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5273027420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7218332290649</t>
+    <t xml:space="preserve">10.792010307312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7598848342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240201950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9954652786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.140025138855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.527304649353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7218341827393</t>
   </si>
   <si>
     <t xml:space="preserve">11.827130317688</t>
@@ -4643,16 +4643,16 @@
     <t xml:space="preserve">12.0734176635742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2429647445679</t>
+    <t xml:space="preserve">12.2429628372192</t>
   </si>
   <si>
     <t xml:space="preserve">12.5017433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7319679260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.683780670166</t>
+    <t xml:space="preserve">12.7319669723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6837816238403</t>
   </si>
   <si>
     <t xml:space="preserve">12.512451171875</t>
@@ -4664,7 +4664,7 @@
     <t xml:space="preserve">12.740891456604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9157915115356</t>
+    <t xml:space="preserve">12.915789604187</t>
   </si>
   <si>
     <t xml:space="preserve">12.917573928833</t>
@@ -4673,172 +4673,172 @@
     <t xml:space="preserve">12.8122787475586</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5695610046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6605787277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1856269836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7367181777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7983522415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8563632965088</t>
+    <t xml:space="preserve">12.569561958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6605796813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1856288909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7367172241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7983531951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8563623428345</t>
   </si>
   <si>
     <t xml:space="preserve">12.9596920013428</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7058992385864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8672399520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9832592010498</t>
+    <t xml:space="preserve">12.7059011459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8672389984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9832582473755</t>
   </si>
   <si>
     <t xml:space="preserve">12.7711610794067</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5916938781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5391235351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3650932312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1783761978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2581396102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2599515914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3342761993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5209951400757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3360900878906</t>
+    <t xml:space="preserve">12.5916948318481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5391225814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3650951385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1783752441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2581386566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.259952545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3342771530151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5209941864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3360891342163</t>
   </si>
   <si>
     <t xml:space="preserve">11.8285064697266</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6925449371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7741212844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7831859588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2019424438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1239929199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2146329879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2780780792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2436370849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3197746276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0424175262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.424916267395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4956159591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3052730560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5427484512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6388282775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6660184860229</t>
+    <t xml:space="preserve">11.6925468444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7741222381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7831869125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.201943397522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1239938735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2146320343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2780809402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2436389923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3197736740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0424156188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4249172210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4956150054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.305272102356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5427494049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6388273239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6660175323486</t>
   </si>
   <si>
     <t xml:space="preserve">12.9071207046509</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0666456222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0720844268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9868850708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0267658233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1065282821655</t>
+    <t xml:space="preserve">13.0666465759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0720853805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9868841171265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0267648696899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1065292358398</t>
   </si>
   <si>
     <t xml:space="preserve">12.919810295105</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1029024124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0521459579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8527374267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.758472442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8690519332886</t>
+    <t xml:space="preserve">13.1029033660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0521450042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8527364730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7584714889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8690528869629</t>
   </si>
   <si>
     <t xml:space="preserve">12.9542541503906</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8436737060547</t>
+    <t xml:space="preserve">12.8436727523804</t>
   </si>
   <si>
     <t xml:space="preserve">12.81285572052</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5500001907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.462984085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5481882095337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4140396118164</t>
+    <t xml:space="preserve">12.5499992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4629859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5481872558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4140405654907</t>
   </si>
   <si>
     <t xml:space="preserve">12.6043844223022</t>
@@ -4847,16 +4847,16 @@
     <t xml:space="preserve">12.8346090316772</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0013866424561</t>
+    <t xml:space="preserve">13.0013856887817</t>
   </si>
   <si>
     <t xml:space="preserve">13.369384765625</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3856983184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4382705688477</t>
+    <t xml:space="preserve">13.3856992721558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.438271522522</t>
   </si>
   <si>
     <t xml:space="preserve">13.3150005340576</t>
@@ -4865,43 +4865,43 @@
     <t xml:space="preserve">13.3367538452148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9615049362183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0068244934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9325008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.792914390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1076765060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9572162628174</t>
+    <t xml:space="preserve">12.9615058898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0068254470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9324998855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7929134368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1076774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9572153091431</t>
   </si>
   <si>
     <t xml:space="preserve">12.1457452774048</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1149282455444</t>
+    <t xml:space="preserve">12.1149291992188</t>
   </si>
   <si>
     <t xml:space="preserve">11.937273979187</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0949869155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1765623092651</t>
+    <t xml:space="preserve">12.0949878692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1765632629395</t>
   </si>
   <si>
     <t xml:space="preserve">12.2690162658691</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1656875610352</t>
+    <t xml:space="preserve">12.1656856536865</t>
   </si>
   <si>
     <t xml:space="preserve">12.1620607376099</t>
@@ -4910,10 +4910,10 @@
     <t xml:space="preserve">12.1384944915771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1729373931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7142992019653</t>
+    <t xml:space="preserve">12.1729383468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7143001556396</t>
   </si>
   <si>
     <t xml:space="preserve">11.8194417953491</t>
@@ -4928,19 +4928,19 @@
     <t xml:space="preserve">11.2673206329346</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5054817199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.518404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4962501525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2359352111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3614768981934</t>
+    <t xml:space="preserve">11.5054798126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5184030532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4962491989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.235936164856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.361475944519</t>
   </si>
   <si>
     <t xml:space="preserve">11.5811738967896</t>
@@ -4952,10 +4952,10 @@
     <t xml:space="preserve">11.8950262069702</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9134883880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3990383148193</t>
+    <t xml:space="preserve">11.9134893417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3990392684937</t>
   </si>
   <si>
     <t xml:space="preserve">12.2864208221436</t>
@@ -4967,22 +4967,22 @@
     <t xml:space="preserve">12.4987325668335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7239685058594</t>
+    <t xml:space="preserve">12.7239694595337</t>
   </si>
   <si>
     <t xml:space="preserve">12.6150436401367</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7978172302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7405834197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8125867843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.821816444397</t>
+    <t xml:space="preserve">12.797815322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7405843734741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8125848770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8218154907227</t>
   </si>
   <si>
     <t xml:space="preserve">12.6962747573853</t>
@@ -4991,19 +4991,19 @@
     <t xml:space="preserve">12.5393486022949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7073526382446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.755352973938</t>
+    <t xml:space="preserve">12.7073516845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7553539276123</t>
   </si>
   <si>
     <t xml:space="preserve">12.5670413970947</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6888914108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4451932907104</t>
+    <t xml:space="preserve">12.6888904571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4451923370361</t>
   </si>
   <si>
     <t xml:space="preserve">12.1571865081787</t>
@@ -5012,7 +5012,7 @@
     <t xml:space="preserve">12.0353384017944</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9762601852417</t>
+    <t xml:space="preserve">11.9762592315674</t>
   </si>
   <si>
     <t xml:space="preserve">12.5264253616333</t>
@@ -5021,28 +5021,28 @@
     <t xml:space="preserve">12.5947341918945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4802713394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1793413162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3565759658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3196516036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2125720977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3658075332642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.314112663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4156541824341</t>
+    <t xml:space="preserve">12.4802703857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1793422698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.356575012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3196506500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.212571144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3658056259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3141136169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4156532287598</t>
   </si>
   <si>
     <t xml:space="preserve">12.4531927108765</t>
@@ -5051,10 +5051,10 @@
     <t xml:space="preserve">12.5414056777954</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5451593399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2429800033569</t>
+    <t xml:space="preserve">12.5451602935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2429790496826</t>
   </si>
   <si>
     <t xml:space="preserve">12.3799934387207</t>
@@ -5066,7 +5066,7 @@
     <t xml:space="preserve">12.1115970611572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6836643218994</t>
+    <t xml:space="preserve">11.683666229248</t>
   </si>
   <si>
     <t xml:space="preserve">12.0008611679077</t>
@@ -5078,13 +5078,13 @@
     <t xml:space="preserve">12.2955331802368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1847953796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2748861312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3086709976196</t>
+    <t xml:space="preserve">12.184796333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2748870849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3086719512939</t>
   </si>
   <si>
     <t xml:space="preserve">12.0402746200562</t>
@@ -5093,28 +5093,28 @@
     <t xml:space="preserve">12.1622734069824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.186674118042</t>
+    <t xml:space="preserve">12.1866731643677</t>
   </si>
   <si>
     <t xml:space="preserve">12.2467336654663</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1791648864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1904258728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0271368026733</t>
+    <t xml:space="preserve">12.1791658401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1904268264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0271377563477</t>
   </si>
   <si>
     <t xml:space="preserve">12.2617492675781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0928268432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0083665847778</t>
+    <t xml:space="preserve">12.092827796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0083675384521</t>
   </si>
   <si>
     <t xml:space="preserve">12.1416273117065</t>
@@ -5123,16 +5123,16 @@
     <t xml:space="preserve">11.9614458084106</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0139999389648</t>
+    <t xml:space="preserve">12.0139980316162</t>
   </si>
   <si>
     <t xml:space="preserve">12.0947046279907</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3706092834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5864505767822</t>
+    <t xml:space="preserve">12.3706083297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5864515304565</t>
   </si>
   <si>
     <t xml:space="preserve">12.6352500915527</t>
@@ -5141,25 +5141,25 @@
     <t xml:space="preserve">12.5470371246338</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2317190170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.248610496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.312424659729</t>
+    <t xml:space="preserve">12.2317180633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2486095428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3124237060547</t>
   </si>
   <si>
     <t xml:space="preserve">12.4194078445435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7009420394897</t>
+    <t xml:space="preserve">12.7009429931641</t>
   </si>
   <si>
     <t xml:space="preserve">12.7816486358643</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5995893478394</t>
+    <t xml:space="preserve">12.599588394165</t>
   </si>
   <si>
     <t xml:space="preserve">12.4757137298584</t>
@@ -5171,13 +5171,13 @@
     <t xml:space="preserve">12.7065725326538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004188537598</t>
+    <t xml:space="preserve">12.8004179000854</t>
   </si>
   <si>
     <t xml:space="preserve">12.9580755233765</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8661079406738</t>
+    <t xml:space="preserve">12.8661088943481</t>
   </si>
   <si>
     <t xml:space="preserve">12.7534952163696</t>
@@ -5186,7 +5186,7 @@
     <t xml:space="preserve">12.884877204895</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8173084259033</t>
+    <t xml:space="preserve">12.8173093795776</t>
   </si>
   <si>
     <t xml:space="preserve">13.0293989181519</t>
@@ -5201,7 +5201,7 @@
     <t xml:space="preserve">12.8792457580566</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8360776901245</t>
+    <t xml:space="preserve">12.8360795974731</t>
   </si>
   <si>
     <t xml:space="preserve">12.7872791290283</t>
@@ -5213,16 +5213,16 @@
     <t xml:space="preserve">13.2565021514893</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1833038330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1513967514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0725679397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1138582229614</t>
+    <t xml:space="preserve">13.1833047866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1513957977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.072566986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1138591766357</t>
   </si>
   <si>
     <t xml:space="preserve">13.170166015625</t>
@@ -5231,31 +5231,31 @@
     <t xml:space="preserve">13.2227191925049</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2452411651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2077035903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2583799362183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2827787399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4179162979126</t>
+    <t xml:space="preserve">13.2452402114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2077045440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2583789825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2827796936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4179153442383</t>
   </si>
   <si>
     <t xml:space="preserve">13.4723453521729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4836072921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4047784805298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6431436538696</t>
+    <t xml:space="preserve">13.483606338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4047775268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6431427001953</t>
   </si>
   <si>
     <t xml:space="preserve">13.7032032012939</t>
@@ -5264,13 +5264,13 @@
     <t xml:space="preserve">13.9209222793579</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8815078735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8327083587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8871393203735</t>
+    <t xml:space="preserve">13.8815088272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.832709312439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8871383666992</t>
   </si>
   <si>
     <t xml:space="preserve">14.1255044937134</t>
@@ -5279,7 +5279,7 @@
     <t xml:space="preserve">14.1724271774292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1911964416504</t>
+    <t xml:space="preserve">14.1911954879761</t>
   </si>
   <si>
     <t xml:space="preserve">14.4239311218262</t>
@@ -5294,43 +5294,43 @@
     <t xml:space="preserve">14.5865097045898</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5254945755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3157539367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5274019241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5083351135254</t>
+    <t xml:space="preserve">14.5254936218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3157529830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.527400970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5083341598511</t>
   </si>
   <si>
     <t xml:space="preserve">14.4702005386353</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6551523208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7009134292603</t>
+    <t xml:space="preserve">14.6551513671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7009143829346</t>
   </si>
   <si>
     <t xml:space="preserve">14.5445613861084</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2051620483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0411834716797</t>
+    <t xml:space="preserve">14.2051630020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.041184425354</t>
   </si>
   <si>
     <t xml:space="preserve">13.8219108581543</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7666139602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9572877883911</t>
+    <t xml:space="preserve">13.7666149139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9572887420654</t>
   </si>
   <si>
     <t xml:space="preserve">14.2738056182861</t>
@@ -5339,7 +5339,7 @@
     <t xml:space="preserve">14.4435043334961</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3824911117554</t>
+    <t xml:space="preserve">14.3824901580811</t>
   </si>
   <si>
     <t xml:space="preserve">14.5826959609985</t>
@@ -5354,7 +5354,7 @@
     <t xml:space="preserve">14.8076906204224</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9106550216675</t>
+    <t xml:space="preserve">14.9106540679932</t>
   </si>
   <si>
     <t xml:space="preserve">14.7314214706421</t>
@@ -5363,7 +5363,7 @@
     <t xml:space="preserve">14.6799392700195</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7161684036255</t>
+    <t xml:space="preserve">14.7161674499512</t>
   </si>
   <si>
     <t xml:space="preserve">14.6875667572021</t>
@@ -5390,34 +5390,34 @@
     <t xml:space="preserve">14.6856603622437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3119401931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346139907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.239483833313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2985935211182</t>
+    <t xml:space="preserve">14.3119411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.134614944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2394847869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2985925674438</t>
   </si>
   <si>
     <t xml:space="preserve">14.5216817855835</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5388412475586</t>
+    <t xml:space="preserve">14.5388422012329</t>
   </si>
   <si>
     <t xml:space="preserve">14.4816389083862</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1670274734497</t>
+    <t xml:space="preserve">14.167028427124</t>
   </si>
   <si>
     <t xml:space="preserve">14.5307540893555</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4591073989868</t>
+    <t xml:space="preserve">14.4591064453125</t>
   </si>
   <si>
     <t xml:space="preserve">14.2557849884033</t>
@@ -5426,25 +5426,25 @@
     <t xml:space="preserve">14.4610433578491</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5888452529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5520534515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7147121429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.62757396698</t>
+    <t xml:space="preserve">14.588846206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5520544052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.71471118927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6275730133057</t>
   </si>
   <si>
     <t xml:space="preserve">14.6856660842896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7650575637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4842805862427</t>
+    <t xml:space="preserve">14.7650585174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4842796325684</t>
   </si>
   <si>
     <t xml:space="preserve">14.610146522522</t>
@@ -5462,7 +5462,7 @@
     <t xml:space="preserve">14.5075168609619</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3332405090332</t>
+    <t xml:space="preserve">14.3332414627075</t>
   </si>
   <si>
     <t xml:space="preserve">14.2809581756592</t>
@@ -5471,16 +5471,16 @@
     <t xml:space="preserve">14.3758411407471</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429222106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5152616500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5481805801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7205209732056</t>
+    <t xml:space="preserve">14.3429231643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5152626037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5481815338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7205219268799</t>
   </si>
   <si>
     <t xml:space="preserve">14.7166481018066</t>
@@ -5489,7 +5489,7 @@
     <t xml:space="preserve">14.8018493652344</t>
   </si>
   <si>
-    <t xml:space="preserve">14.945143699646</t>
+    <t xml:space="preserve">14.9451427459717</t>
   </si>
   <si>
     <t xml:space="preserve">14.8696241378784</t>
@@ -5504,25 +5504,25 @@
     <t xml:space="preserve">14.9470796585083</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0264720916748</t>
+    <t xml:space="preserve">15.0264730453491</t>
   </si>
   <si>
     <t xml:space="preserve">15.0458364486694</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6004638671875</t>
+    <t xml:space="preserve">14.6004648208618</t>
   </si>
   <si>
     <t xml:space="preserve">14.4494247436523</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4106969833374</t>
+    <t xml:space="preserve">14.4106960296631</t>
   </si>
   <si>
     <t xml:space="preserve">14.3409862518311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5636720657349</t>
+    <t xml:space="preserve">14.5636730194092</t>
   </si>
   <si>
     <t xml:space="preserve">14.5191354751587</t>
@@ -5540,19 +5540,19 @@
     <t xml:space="preserve">13.9904975891113</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8839960098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9014225006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0292253494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1028089523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2867670059204</t>
+    <t xml:space="preserve">13.8839950561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9014234542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0292263031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1028099060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2867660522461</t>
   </si>
   <si>
     <t xml:space="preserve">14.4455518722534</t>
@@ -5567,13 +5567,13 @@
     <t xml:space="preserve">13.9169139862061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1376638412476</t>
+    <t xml:space="preserve">14.1376647949219</t>
   </si>
   <si>
     <t xml:space="preserve">13.9130411148071</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9091691970825</t>
+    <t xml:space="preserve">13.9091682434082</t>
   </si>
   <si>
     <t xml:space="preserve">13.8394584655762</t>
@@ -5585,13 +5585,13 @@
     <t xml:space="preserve">14.009861946106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.040843963623</t>
+    <t xml:space="preserve">14.0408449172974</t>
   </si>
   <si>
     <t xml:space="preserve">14.1396007537842</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7039098739624</t>
+    <t xml:space="preserve">13.7039108276367</t>
   </si>
   <si>
     <t xml:space="preserve">13.7194013595581</t>
@@ -5600,7 +5600,7 @@
     <t xml:space="preserve">13.6826095581055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.847204208374</t>
+    <t xml:space="preserve">13.8472032546997</t>
   </si>
   <si>
     <t xml:space="preserve">13.7774934768677</t>
@@ -5624,7 +5624,7 @@
     <t xml:space="preserve">13.8723773956299</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9304685592651</t>
+    <t xml:space="preserve">13.9304695129395</t>
   </si>
   <si>
     <t xml:space="preserve">14.0466537475586</t>
@@ -5633,25 +5633,25 @@
     <t xml:space="preserve">14.1628379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1667108535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2344837188721</t>
+    <t xml:space="preserve">14.1667098999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2344846725464</t>
   </si>
   <si>
     <t xml:space="preserve">14.0950632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2248029708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5017070770264</t>
+    <t xml:space="preserve">14.2248020172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5017080307007</t>
   </si>
   <si>
     <t xml:space="preserve">14.0602083206177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.044716835022</t>
+    <t xml:space="preserve">14.0447158813477</t>
   </si>
   <si>
     <t xml:space="preserve">13.9954919815063</t>
@@ -5841,6 +5841,9 @@
   </si>
   <si>
     <t xml:space="preserve">13.7840003967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8979997634888</t>
   </si>
 </sst>
 </file>
@@ -62160,7 +62163,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.649537037</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>8707857</v>
@@ -62181,6 +62184,32 @@
         <v>1942</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6522337963</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>7822157</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>13.9899997711182</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>13.8100004196167</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>13.8199996948242</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>13.8979997634888</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1943</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENI.MI.xlsx
+++ b/data/ENI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="1945">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95016002655029</t>
+    <t xml:space="preserve">7.95015907287598</t>
   </si>
   <si>
     <t xml:space="preserve">ENI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02119636535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79624700546265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73705101013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51802015304565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48842191696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50618171691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59497690200806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70153284072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42922449111938</t>
+    <t xml:space="preserve">8.02119445800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79624795913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73705053329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51802253723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48842334747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50618267059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59497737884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70153045654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42922496795654</t>
   </si>
   <si>
     <t xml:space="preserve">7.34634971618652</t>
@@ -77,268 +77,268 @@
     <t xml:space="preserve">7.4469838142395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19835805892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67785263061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58313751220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74296998977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77849006652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86136388778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40554761886597</t>
+    <t xml:space="preserve">7.19835758209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67785310745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58313894271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74297046661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77848768234253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86136245727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40554666519165</t>
   </si>
   <si>
     <t xml:space="preserve">7.37594938278198</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54169988632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41738653182983</t>
+    <t xml:space="preserve">7.54169940948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41738700866699</t>
   </si>
   <si>
     <t xml:space="preserve">7.15099954605103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86685276031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8846116065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4702353477478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90237379074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06812334060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01484680175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23979616165161</t>
+    <t xml:space="preserve">6.86685466766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88461494445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47023439407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90237331390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06812381744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01484775543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23979568481445</t>
   </si>
   <si>
     <t xml:space="preserve">7.08588409423828</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05628347396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31083250045776</t>
+    <t xml:space="preserve">7.05628395080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31083106994629</t>
   </si>
   <si>
     <t xml:space="preserve">6.97340774536133</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1569185256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52394151687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66601324081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90280389785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96199941635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06855201721191</t>
+    <t xml:space="preserve">7.15691995620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5239405632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66601514816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90280199050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96199798583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06855297088623</t>
   </si>
   <si>
     <t xml:space="preserve">8.01527690887451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0448751449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84360313415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93240118026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66009378433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88504266738892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92648220062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81400585174561</t>
+    <t xml:space="preserve">8.04487705230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84360361099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93240022659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66009426116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8850417137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92648029327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8140082359314</t>
   </si>
   <si>
     <t xml:space="preserve">7.9146409034729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05671310424805</t>
+    <t xml:space="preserve">8.05671405792236</t>
   </si>
   <si>
     <t xml:space="preserve">8.1277494430542</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16918754577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9738392829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78440570831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00343799591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87320375442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57129955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.553542137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36410903930664</t>
+    <t xml:space="preserve">8.16918849945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97383737564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78440856933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00343704223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87320423126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57129907608032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55354022979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36410808563232</t>
   </si>
   <si>
     <t xml:space="preserve">7.44106483459473</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29307317733765</t>
+    <t xml:space="preserve">7.2930736541748</t>
   </si>
   <si>
     <t xml:space="preserve">7.60681629180908</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63049840927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67193412780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97975826263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12182998657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99159812927246</t>
+    <t xml:space="preserve">7.63049697875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67193222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97975730895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1218318939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99159717559814</t>
   </si>
   <si>
     <t xml:space="preserve">8.09223365783691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22246265411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32902050018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37637710571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33493995666504</t>
+    <t xml:space="preserve">8.22246646881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32901859283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37637805938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33494091033936</t>
   </si>
   <si>
     <t xml:space="preserve">8.37045860290527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44741344451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52436923980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40597820281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25798416137695</t>
+    <t xml:space="preserve">8.44741535186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52437019348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40597629547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25798320770264</t>
   </si>
   <si>
     <t xml:space="preserve">8.08631324768066</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92056083679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.033034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10407161712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8080849647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90188932418823</t>
+    <t xml:space="preserve">7.92055988311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03303623199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10407257080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80808591842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90189218521118</t>
   </si>
   <si>
     <t xml:space="preserve">8.14596462249756</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42665004730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46936321258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43885231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50597286224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37783432006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26190185546875</t>
+    <t xml:space="preserve">8.42664909362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46936416625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43885326385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50597190856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37783336639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26189994812012</t>
   </si>
   <si>
     <t xml:space="preserve">8.25579738616943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18867778778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40224170684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59749984741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62190723419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57919502258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20698261260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05443668365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15816974639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0727424621582</t>
+    <t xml:space="preserve">8.18867683410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40224456787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59750080108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62190818786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57919692993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20698165893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0544376373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15816879272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07274150848389</t>
   </si>
   <si>
     <t xml:space="preserve">8.39003849029541</t>
@@ -347,22 +347,22 @@
     <t xml:space="preserve">8.64021396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75004768371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61580848693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89649200439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07884407043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33512115478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72564125061035</t>
+    <t xml:space="preserve">8.75004863739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61580657958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89649105072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07884311676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33512210845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72563934326172</t>
   </si>
   <si>
     <t xml:space="preserve">8.85988140106201</t>
@@ -371,43 +371,43 @@
     <t xml:space="preserve">9.04293537139893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79275989532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62801074981689</t>
+    <t xml:space="preserve">8.79276180267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62801170349121</t>
   </si>
   <si>
     <t xml:space="preserve">8.67682647705078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84767532348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95140552520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03683376312256</t>
+    <t xml:space="preserve">8.84767723083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95140647888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03683471679688</t>
   </si>
   <si>
     <t xml:space="preserve">8.92700004577637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09175205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98191833496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8842887878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8537769317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76835250854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71953868865967</t>
+    <t xml:space="preserve">9.09175300598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98191738128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88428783416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85377883911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76835346221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71953773498535</t>
   </si>
   <si>
     <t xml:space="preserve">8.68292713165283</t>
@@ -416,25 +416,25 @@
     <t xml:space="preserve">8.56089115142822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56699180603027</t>
+    <t xml:space="preserve">8.56699085235596</t>
   </si>
   <si>
     <t xml:space="preserve">8.34122467041016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34732627868652</t>
+    <t xml:space="preserve">8.34732437133789</t>
   </si>
   <si>
     <t xml:space="preserve">8.18257617950439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0117244720459</t>
+    <t xml:space="preserve">8.01172637939453</t>
   </si>
   <si>
     <t xml:space="preserve">8.06664085388184</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08494663238525</t>
+    <t xml:space="preserve">8.08494758605957</t>
   </si>
   <si>
     <t xml:space="preserve">8.28020477294922</t>
@@ -443,82 +443,82 @@
     <t xml:space="preserve">8.26800155639648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24359321594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35953044891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38393783569336</t>
+    <t xml:space="preserve">8.2435941696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35952854156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38393688201904</t>
   </si>
   <si>
     <t xml:space="preserve">8.21918773651123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2008810043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31071376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30461311340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37173366546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27410316467285</t>
+    <t xml:space="preserve">8.20088195800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31071281433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.304612159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37173461914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27410411834717</t>
   </si>
   <si>
     <t xml:space="preserve">7.99951887130737</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02392673492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06054019927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8774847984314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99712419509888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85229635238647</t>
+    <t xml:space="preserve">8.02392768859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06053924560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87748289108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99712514877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85229444503784</t>
   </si>
   <si>
     <t xml:space="preserve">7.96564054489136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.934157371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7893271446228</t>
+    <t xml:space="preserve">7.93415546417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78932666778564</t>
   </si>
   <si>
     <t xml:space="preserve">7.75154399871826</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77673435211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13565731048584</t>
+    <t xml:space="preserve">7.77673292160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13565921783447</t>
   </si>
   <si>
     <t xml:space="preserve">8.07268905639648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11677074432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16714382171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35605430603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36864566802979</t>
+    <t xml:space="preserve">8.11676692962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16714477539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35605144500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36864471435547</t>
   </si>
   <si>
     <t xml:space="preserve">8.56385135650635</t>
@@ -527,19 +527,19 @@
     <t xml:space="preserve">8.40013122558594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34345817565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28678703308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45050716400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38124084472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53236675262451</t>
+    <t xml:space="preserve">8.34346008300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28678512573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45050430297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38123989105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5323657989502</t>
   </si>
   <si>
     <t xml:space="preserve">8.55755424499512</t>
@@ -554,169 +554,169 @@
     <t xml:space="preserve">8.61422729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5260705947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65830516815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50717830657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31827163696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18603515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06639289855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00342178344727</t>
+    <t xml:space="preserve">8.52607154846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65830421447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50718021392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31826972961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18603324890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06639385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00342273712158</t>
   </si>
   <si>
     <t xml:space="preserve">7.92785978317261</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04120540618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09158134460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06009578704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02860927581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90267133712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72005891799927</t>
+    <t xml:space="preserve">8.04120635986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09158039093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06009483337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02861022949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90267038345337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72006034851074</t>
   </si>
   <si>
     <t xml:space="preserve">7.87118625640869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82081079483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79562282562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91526508331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92156076431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9719386100769</t>
+    <t xml:space="preserve">7.82080984115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79562330245972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91526412963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92155981063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97193765640259</t>
   </si>
   <si>
     <t xml:space="preserve">8.27419185638428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57014751434326</t>
+    <t xml:space="preserve">8.57014846801758</t>
   </si>
   <si>
     <t xml:space="preserve">8.62052249908447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79054260253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87869834899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96055889129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97315120697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30689144134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40134334564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36985969543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42653465270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47691059112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4202356338501</t>
+    <t xml:space="preserve">8.79054164886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87870025634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9605598449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97315216064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3068904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40134716033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36986064910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42653179168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47690963745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42023468017578</t>
   </si>
   <si>
     <t xml:space="preserve">9.53987598419189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55247116088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65952014923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64062976837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72248935699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.741379737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84842777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84213352203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87991333007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8988037109375</t>
+    <t xml:space="preserve">9.5524730682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65951919555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64062881469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72249031066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74138164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84842681884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84213256835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87991237640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89880275726318</t>
   </si>
   <si>
     <t xml:space="preserve">9.69100570678711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79175567626953</t>
+    <t xml:space="preserve">9.79175662994385</t>
   </si>
   <si>
     <t xml:space="preserve">9.7854585647583</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73508548736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86732006072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69729995727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80434703826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76657009124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66581916809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41394233703613</t>
+    <t xml:space="preserve">9.73508358001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8673210144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69730281829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80434989929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76656913757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6658182144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41393852233887</t>
   </si>
   <si>
     <t xml:space="preserve">9.30059432983398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06130981445312</t>
+    <t xml:space="preserve">9.06130886077881</t>
   </si>
   <si>
     <t xml:space="preserve">8.94796562194824</t>
@@ -728,55 +728,55 @@
     <t xml:space="preserve">8.91648006439209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1494665145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9416675567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90388679504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04241943359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06760501861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15576362609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05501270294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89129257202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18095207214355</t>
+    <t xml:space="preserve">9.14946556091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94166851043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90388584136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04242134094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06760597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15576553344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05501365661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89129066467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18095302581787</t>
   </si>
   <si>
     <t xml:space="preserve">9.07390403747559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.004638671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14317035675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4454231262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45172023773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61544227600098</t>
+    <t xml:space="preserve">9.00463676452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1431713104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44542407989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45172214508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61544418334961</t>
   </si>
   <si>
     <t xml:space="preserve">9.50209808349609</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31948661804199</t>
+    <t xml:space="preserve">9.31948280334473</t>
   </si>
   <si>
     <t xml:space="preserve">9.25651454925537</t>
@@ -785,25 +785,25 @@
     <t xml:space="preserve">9.21243762969971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22502994537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11168766021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23762321472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39504814147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35097026824951</t>
+    <t xml:space="preserve">9.22503185272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11168670654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.237624168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39504909515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3509693145752</t>
   </si>
   <si>
     <t xml:space="preserve">9.37615776062012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46431541442871</t>
+    <t xml:space="preserve">9.46431446075439</t>
   </si>
   <si>
     <t xml:space="preserve">9.43912696838379</t>
@@ -812,40 +812,40 @@
     <t xml:space="preserve">9.52098751068115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64692497253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59025382995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58395862579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59654998779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24392127990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25021743774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41513252258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37628269195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27267646789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24030208587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25972652435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22087574005127</t>
+    <t xml:space="preserve">9.64692783355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59025192260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58395767211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5965518951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24392223358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25021648406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41513538360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37628173828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27267837524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24030017852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25972557067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22087478637695</t>
   </si>
   <si>
     <t xml:space="preserve">9.21439933776855</t>
@@ -857,106 +857,106 @@
     <t xml:space="preserve">9.54464149475098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59644222259521</t>
+    <t xml:space="preserve">9.59644412994385</t>
   </si>
   <si>
     <t xml:space="preserve">9.64824676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64177227020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71299839019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74537658691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62234592437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73890113830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72594928741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70652294158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66767311096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48636150360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26620006561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24677562713623</t>
+    <t xml:space="preserve">9.64177131652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71300029754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74537467956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62234497070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73890018463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72595119476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70652389526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6676721572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48636436462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26620101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24677467346191</t>
   </si>
   <si>
     <t xml:space="preserve">9.12374401092529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23382472991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0978422164917</t>
+    <t xml:space="preserve">9.23382568359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09784317016602</t>
   </si>
   <si>
     <t xml:space="preserve">9.03956508636475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11079502105713</t>
+    <t xml:space="preserve">9.11079406738281</t>
   </si>
   <si>
     <t xml:space="preserve">8.92948532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99423599243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00071239471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06546497344971</t>
+    <t xml:space="preserve">8.99423789978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00071334838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06546688079834</t>
   </si>
   <si>
     <t xml:space="preserve">8.96833610534668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91653251647949</t>
+    <t xml:space="preserve">8.91653347015381</t>
   </si>
   <si>
     <t xml:space="preserve">9.00718879699707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82588005065918</t>
+    <t xml:space="preserve">8.82587909698486</t>
   </si>
   <si>
     <t xml:space="preserve">8.87120723724365</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84530544281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79350471496582</t>
+    <t xml:space="preserve">8.84530448913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79350280761719</t>
   </si>
   <si>
     <t xml:space="preserve">8.80645275115967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75465106964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78055191040039</t>
+    <t xml:space="preserve">8.7546501159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78055286407471</t>
   </si>
   <si>
     <t xml:space="preserve">8.6121940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52153968811035</t>
+    <t xml:space="preserve">8.52153873443604</t>
   </si>
   <si>
     <t xml:space="preserve">8.62514305114746</t>
@@ -965,22 +965,22 @@
     <t xml:space="preserve">8.65104484558105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52801418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47621059417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39203262329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41793537139893</t>
+    <t xml:space="preserve">8.52801513671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47620964050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39203071594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41793251037598</t>
   </si>
   <si>
     <t xml:space="preserve">8.3985071182251</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54096508026123</t>
+    <t xml:space="preserve">8.54096412658691</t>
   </si>
   <si>
     <t xml:space="preserve">8.55391502380371</t>
@@ -989,94 +989,94 @@
     <t xml:space="preserve">8.57334136962891</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50858783721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50211238861084</t>
+    <t xml:space="preserve">8.50858688354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50211429595947</t>
   </si>
   <si>
     <t xml:space="preserve">8.515061378479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44383430480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45678615570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5862922668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56039237976074</t>
+    <t xml:space="preserve">8.44383335113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45678520202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58629131317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56039142608643</t>
   </si>
   <si>
     <t xml:space="preserve">8.65751934051514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7222728729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7611255645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74170112609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77407741546631</t>
+    <t xml:space="preserve">8.72227478027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76112651824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74169826507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77407550811768</t>
   </si>
   <si>
     <t xml:space="preserve">8.78702640533447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76760292053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73522281646729</t>
+    <t xml:space="preserve">8.76760101318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7352237701416</t>
   </si>
   <si>
     <t xml:space="preserve">8.64456844329834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68342399597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57981777191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48916149139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61866855621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63162136077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67047214508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7287483215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71579742431641</t>
+    <t xml:space="preserve">8.68342208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5798168182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48916053771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61866664886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63161849975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67047119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72875022888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71579837799072</t>
   </si>
   <si>
     <t xml:space="preserve">8.74817562103271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83235740661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9424352645874</t>
+    <t xml:space="preserve">8.83235549926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94243621826172</t>
   </si>
   <si>
     <t xml:space="preserve">8.97577857971191</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02245426177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09581089019775</t>
+    <t xml:space="preserve">9.02245616912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09580993652344</t>
   </si>
   <si>
     <t xml:space="preserve">9.16249370574951</t>
@@ -1085,25 +1085,25 @@
     <t xml:space="preserve">9.18916893005371</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29586410522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32920551300049</t>
+    <t xml:space="preserve">9.29586219787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3292064666748</t>
   </si>
   <si>
     <t xml:space="preserve">9.2891960144043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30253314971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33587551116943</t>
+    <t xml:space="preserve">9.30253219604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33587646484375</t>
   </si>
   <si>
     <t xml:space="preserve">9.31587028503418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38255405426025</t>
+    <t xml:space="preserve">9.38255596160889</t>
   </si>
   <si>
     <t xml:space="preserve">9.26919078826904</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">9.35588073730469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23584938049316</t>
+    <t xml:space="preserve">9.23584842681885</t>
   </si>
   <si>
     <t xml:space="preserve">9.28252696990967</t>
@@ -1124,22 +1124,22 @@
     <t xml:space="preserve">9.26252174377441</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25585269927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18250179290771</t>
+    <t xml:space="preserve">9.25585460662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1825008392334</t>
   </si>
   <si>
     <t xml:space="preserve">9.22251033782959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20250701904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22918033599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36254978179932</t>
+    <t xml:space="preserve">9.20250606536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22917747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.362548828125</t>
   </si>
   <si>
     <t xml:space="preserve">9.48258209228516</t>
@@ -1148,22 +1148,22 @@
     <t xml:space="preserve">9.53592967987061</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58927726745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66930103302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81600666046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7493200302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6759672164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60928153991699</t>
+    <t xml:space="preserve">9.58927822113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6693000793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81600570678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74932289123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67596912384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60928535461426</t>
   </si>
   <si>
     <t xml:space="preserve">9.54259872436523</t>
@@ -1172,76 +1172,76 @@
     <t xml:space="preserve">9.42923450469971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1558256149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17583179473877</t>
+    <t xml:space="preserve">9.15582466125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17583084106445</t>
   </si>
   <si>
     <t xml:space="preserve">9.24918556213379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27585887908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21584224700928</t>
+    <t xml:space="preserve">9.27585983276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21584415435791</t>
   </si>
   <si>
     <t xml:space="preserve">9.12915229797363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20917415618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34921455383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37588691711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32253932952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30920028686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50258636474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62262058258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68263721466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80266857147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94937515258789</t>
+    <t xml:space="preserve">9.20917701721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34921169281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37588787078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32253742218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30920219421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50258922576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62261867523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68263626098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80266952514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94937610626221</t>
   </si>
   <si>
     <t xml:space="preserve">9.94270801544189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90936756134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96938228607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88935852050781</t>
+    <t xml:space="preserve">9.90936374664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96938133239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88936042785645</t>
   </si>
   <si>
     <t xml:space="preserve">9.96271419525146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97605133056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95604228973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86268711090088</t>
+    <t xml:space="preserve">9.97604846954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95604419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86268424987793</t>
   </si>
   <si>
     <t xml:space="preserve">9.69863891601562</t>
@@ -1250,52 +1250,52 @@
     <t xml:space="preserve">9.6599645614624</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72931575775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56793689727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43857192993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17183113098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11714935302734</t>
+    <t xml:space="preserve">9.72931480407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56793785095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43857002258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17183017730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11714839935303</t>
   </si>
   <si>
     <t xml:space="preserve">8.93443202972412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99044895172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90375900268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96110725402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00511741638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09047412872314</t>
+    <t xml:space="preserve">8.99044704437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90375804901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96110534667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00511837005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09047603607178</t>
   </si>
   <si>
     <t xml:space="preserve">9.14115619659424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14382266998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12248420715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19583797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2438497543335</t>
+    <t xml:space="preserve">9.14382362365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.122483253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19583606719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24385070800781</t>
   </si>
   <si>
     <t xml:space="preserve">9.14515686035156</t>
@@ -1307,13 +1307,13 @@
     <t xml:space="preserve">8.92109775543213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88908863067627</t>
+    <t xml:space="preserve">8.88908767700195</t>
   </si>
   <si>
     <t xml:space="preserve">9.0117883682251</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0571346282959</t>
+    <t xml:space="preserve">9.05713176727295</t>
   </si>
   <si>
     <t xml:space="preserve">9.06380176544189</t>
@@ -1322,61 +1322,61 @@
     <t xml:space="preserve">9.14782524108887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21851062774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40256118774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29453086853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42256736755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4959192276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44923877716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40789794921875</t>
+    <t xml:space="preserve">9.21850967407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40256023406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29452991485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42256546020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49591827392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44923782348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40789413452148</t>
   </si>
   <si>
     <t xml:space="preserve">9.37455177307129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46924495697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44390487670898</t>
+    <t xml:space="preserve">9.46924591064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44390392303467</t>
   </si>
   <si>
     <t xml:space="preserve">9.52792739868164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6239538192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70664310455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91069984436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92803573608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99472236633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.092080116272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1547660827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2227830886841</t>
+    <t xml:space="preserve">9.62395286560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70664215087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9106969833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92803478240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99472045898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0920820236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.154764175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2227840423584</t>
   </si>
   <si>
     <t xml:space="preserve">10.2908029556274</t>
@@ -1385,22 +1385,22 @@
     <t xml:space="preserve">10.3014726638794</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4561805725098</t>
+    <t xml:space="preserve">10.4561815261841</t>
   </si>
   <si>
     <t xml:space="preserve">10.5335340499878</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6695728302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6375646591187</t>
+    <t xml:space="preserve">10.6695709228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6375617980957</t>
   </si>
   <si>
     <t xml:space="preserve">10.7282552719116</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6882419586182</t>
+    <t xml:space="preserve">10.6882448196411</t>
   </si>
   <si>
     <t xml:space="preserve">10.5695457458496</t>
@@ -1409,19 +1409,19 @@
     <t xml:space="preserve">10.7829351425171</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7749357223511</t>
+    <t xml:space="preserve">10.7749366760254</t>
   </si>
   <si>
     <t xml:space="preserve">10.8029432296753</t>
   </si>
   <si>
-    <t xml:space="preserve">10.884298324585</t>
+    <t xml:space="preserve">10.8842973709106</t>
   </si>
   <si>
     <t xml:space="preserve">10.7549285888672</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9029703140259</t>
+    <t xml:space="preserve">10.9029684066772</t>
   </si>
   <si>
     <t xml:space="preserve">11.112359046936</t>
@@ -1430,22 +1430,22 @@
     <t xml:space="preserve">10.8269481658936</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1270294189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9416475296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9629859924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1203632354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1790437698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0283365249634</t>
+    <t xml:space="preserve">11.1270303726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9416484832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9629850387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.120361328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1790456771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0283374786377</t>
   </si>
   <si>
     <t xml:space="preserve">11.0710134506226</t>
@@ -1457,49 +1457,49 @@
     <t xml:space="preserve">10.9502010345459</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0035057067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8818664550781</t>
+    <t xml:space="preserve">11.0035047531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8818655014038</t>
   </si>
   <si>
     <t xml:space="preserve">10.7820949554443</t>
   </si>
   <si>
-    <t xml:space="preserve">10.514217376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3010091781616</t>
+    <t xml:space="preserve">10.5142183303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.301007270813</t>
   </si>
   <si>
     <t xml:space="preserve">10.3146753311157</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5852861404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.750659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6508913040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5593175888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5579509735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6809568405151</t>
+    <t xml:space="preserve">10.5852851867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7506608963013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6508893966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5593185424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5579528808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6809587478638</t>
   </si>
   <si>
     <t xml:space="preserve">10.4035120010376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7069244384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6003198623657</t>
+    <t xml:space="preserve">10.7069253921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.60032081604</t>
   </si>
   <si>
     <t xml:space="preserve">10.8066968917847</t>
@@ -1508,49 +1508,49 @@
     <t xml:space="preserve">10.6139879226685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6194553375244</t>
+    <t xml:space="preserve">10.6194534301758</t>
   </si>
   <si>
     <t xml:space="preserve">10.5470180511475</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3611450195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.68505859375</t>
+    <t xml:space="preserve">10.3611440658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6850576400757</t>
   </si>
   <si>
     <t xml:space="preserve">10.4431467056274</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5456514358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.836763381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8722982406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8695669174194</t>
+    <t xml:space="preserve">10.5456523895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8367643356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8722991943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8695659637451</t>
   </si>
   <si>
     <t xml:space="preserve">10.7793626785278</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0404062271118</t>
+    <t xml:space="preserve">11.0404052734375</t>
   </si>
   <si>
     <t xml:space="preserve">11.0335721969604</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0814065933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0568065643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1497449874878</t>
+    <t xml:space="preserve">11.0814075469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0568056106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1497440338135</t>
   </si>
   <si>
     <t xml:space="preserve">11.2959842681885</t>
@@ -1559,40 +1559,40 @@
     <t xml:space="preserve">11.1060085296631</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1114749908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1251440048218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0281038284302</t>
+    <t xml:space="preserve">11.111475944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1251430511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9707040786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0281057357788</t>
   </si>
   <si>
     <t xml:space="preserve">11.0267391204834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9884700775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9925708770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0226392745972</t>
+    <t xml:space="preserve">10.988471031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9925699234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0226373672485</t>
   </si>
   <si>
     <t xml:space="preserve">11.0964412689209</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0896081924438</t>
+    <t xml:space="preserve">11.0896091461182</t>
   </si>
   <si>
     <t xml:space="preserve">11.1456432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0704746246338</t>
+    <t xml:space="preserve">11.0704727172852</t>
   </si>
   <si>
     <t xml:space="preserve">11.129243850708</t>
@@ -1601,142 +1601,142 @@
     <t xml:space="preserve">11.250883102417</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1675109863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0732078552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1333427429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3506526947021</t>
+    <t xml:space="preserve">11.1675119400024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0732069015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1333408355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3506536483765</t>
   </si>
   <si>
     <t xml:space="preserve">11.2754831314087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1975793838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9037342071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9050998687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0117044448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.873664855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8135280609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9420013427734</t>
+    <t xml:space="preserve">11.1975784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.903733253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9050979614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0117053985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8736639022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8135299682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9420003890991</t>
   </si>
   <si>
     <t xml:space="preserve">11.0527057647705</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1524772644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0937080383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2071447372437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2290124893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2098798751831</t>
+    <t xml:space="preserve">11.1524782180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0937070846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2071466445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2290143966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2098808288574</t>
   </si>
   <si>
     <t xml:space="preserve">10.9201326370239</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9912042617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0185375213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9064674377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8148956298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7465600967407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8312959671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8517971038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9461002349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9255990982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9242334365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240058898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1647777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3322238922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6071825027466</t>
+    <t xml:space="preserve">10.9912023544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0185384750366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9064664840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8148965835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7465591430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8312978744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8517990112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.946102142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9256000518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9242343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240030288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.164776802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3322219848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6071805953979</t>
   </si>
   <si>
     <t xml:space="preserve">11.640851020813</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5959596633911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4206008911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4472551345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4626865386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.486536026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4177961349487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4107828140259</t>
+    <t xml:space="preserve">11.5959587097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4206027984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4472560882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4626884460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4865369796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4177951812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4107809066772</t>
   </si>
   <si>
     <t xml:space="preserve">11.1147804260254</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4065732955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308191299438</t>
+    <t xml:space="preserve">11.4065742492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308200836182</t>
   </si>
   <si>
     <t xml:space="preserve">11.0193881988525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.956259727478</t>
+    <t xml:space="preserve">10.9562587738037</t>
   </si>
   <si>
     <t xml:space="preserve">11.0558605194092</t>
@@ -1751,49 +1751,49 @@
     <t xml:space="preserve">10.7261905670166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7949295043945</t>
+    <t xml:space="preserve">10.7949314117432</t>
   </si>
   <si>
     <t xml:space="preserve">10.6434230804443</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4863052368164</t>
+    <t xml:space="preserve">10.4863033294678</t>
   </si>
   <si>
     <t xml:space="preserve">10.326379776001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5031394958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6153650283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7752904891968</t>
+    <t xml:space="preserve">10.503137588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.61536693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7752923965454</t>
   </si>
   <si>
     <t xml:space="preserve">10.79212474823</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0165824890137</t>
+    <t xml:space="preserve">11.0165815353394</t>
   </si>
   <si>
     <t xml:space="preserve">10.820182800293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7738876342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.838418006897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7584581375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9660778045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9239940643311</t>
+    <t xml:space="preserve">10.7738885879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8384189605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7584562301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9660797119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9239931106567</t>
   </si>
   <si>
     <t xml:space="preserve">10.8412246704102</t>
@@ -1808,88 +1808,88 @@
     <t xml:space="preserve">10.4694700241089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.504542350769</t>
+    <t xml:space="preserve">10.5045394897461</t>
   </si>
   <si>
     <t xml:space="preserve">10.4512319564819</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3249759674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1369943618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2604446411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.041600227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86203479766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0275716781616</t>
+    <t xml:space="preserve">10.3249769210815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1369953155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2604455947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0416011810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86203670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0275707244873</t>
   </si>
   <si>
     <t xml:space="preserve">9.95602798461914</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92796993255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97145748138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99249935150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1790800094604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1103410720825</t>
+    <t xml:space="preserve">9.92797183990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97145557403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9925012588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1790790557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1103391647339</t>
   </si>
   <si>
     <t xml:space="preserve">10.0233640670776</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70351123809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89991188049316</t>
+    <t xml:space="preserve">9.70351409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8999137878418</t>
   </si>
   <si>
     <t xml:space="preserve">9.77786254882812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86624526977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98548793792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0037231445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92376041412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79189395904541</t>
+    <t xml:space="preserve">9.86624336242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98548698425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0037221908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92376136779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79189205169678</t>
   </si>
   <si>
     <t xml:space="preserve">9.68948554992676</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78487968444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69790363311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66142749786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48326778411865</t>
+    <t xml:space="preserve">9.78487777709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69790267944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66142845153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48326587677002</t>
   </si>
   <si>
     <t xml:space="preserve">9.64319229125977</t>
@@ -1904,49 +1904,49 @@
     <t xml:space="preserve">10.0584354400635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97005462646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90832996368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99951553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98969268798828</t>
+    <t xml:space="preserve">9.97005558013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9083309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99951457977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98969459533691</t>
   </si>
   <si>
     <t xml:space="preserve">9.9391918182373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9041223526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99530792236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0163497924805</t>
+    <t xml:space="preserve">9.90412044525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99530696868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0163488388062</t>
   </si>
   <si>
     <t xml:space="preserve">9.97286224365234</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2464170455933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2029294967651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1538286209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1117429733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2211656570435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1229648590088</t>
+    <t xml:space="preserve">10.2464179992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2029275894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1538276672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.111743927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2211647033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1229667663574</t>
   </si>
   <si>
     <t xml:space="preserve">10.1860942840576</t>
@@ -1955,28 +1955,28 @@
     <t xml:space="preserve">10.2716684341431</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3852987289429</t>
+    <t xml:space="preserve">10.3853006362915</t>
   </si>
   <si>
     <t xml:space="preserve">10.3614511489868</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3712711334229</t>
+    <t xml:space="preserve">10.3712720870972</t>
   </si>
   <si>
     <t xml:space="preserve">10.4792890548706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4231758117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1945114135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1818876266479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2758750915527</t>
+    <t xml:space="preserve">10.4231748580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1945123672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1818866729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2758769989014</t>
   </si>
   <si>
     <t xml:space="preserve">10.350227355957</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">10.4203701019287</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3670616149902</t>
+    <t xml:space="preserve">10.3670606613159</t>
   </si>
   <si>
     <t xml:space="preserve">10.6055469512939</t>
@@ -2000,52 +2000,52 @@
     <t xml:space="preserve">10.6981344223022</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7107591629028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7233858108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6700773239136</t>
+    <t xml:space="preserve">10.7107610702515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7233848571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6700792312622</t>
   </si>
   <si>
     <t xml:space="preserve">10.6686754226685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6770915985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6378116607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5480318069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5985317230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6504383087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7177753448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4989290237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6069488525391</t>
+    <t xml:space="preserve">10.6770906448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6378126144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5480289459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5985307693481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6504364013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7177743911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4989309310913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6069498062134</t>
   </si>
   <si>
     <t xml:space="preserve">10.6364088058472</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9029512405396</t>
+    <t xml:space="preserve">10.9029502868652</t>
   </si>
   <si>
     <t xml:space="preserve">10.8987426757812</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9338130950928</t>
+    <t xml:space="preserve">10.9338140487671</t>
   </si>
   <si>
     <t xml:space="preserve">11.0432367324829</t>
@@ -2057,10 +2057,10 @@
     <t xml:space="preserve">11.0656814575195</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1035575866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0123720169067</t>
+    <t xml:space="preserve">11.1035566329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0123729705811</t>
   </si>
   <si>
     <t xml:space="preserve">10.9590635299683</t>
@@ -2069,16 +2069,16 @@
     <t xml:space="preserve">10.9534530639648</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9352159500122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.858060836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0502481460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0755004882812</t>
+    <t xml:space="preserve">10.9352169036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8580589294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0502500534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0755014419556</t>
   </si>
   <si>
     <t xml:space="preserve">11.155463218689</t>
@@ -2087,19 +2087,19 @@
     <t xml:space="preserve">11.0516519546509</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1161832809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0923357009888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1442394256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1807155609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1694917678833</t>
+    <t xml:space="preserve">11.1161823272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0923347473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1442413330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1807146072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1694927215576</t>
   </si>
   <si>
     <t xml:space="preserve">11.0937376022339</t>
@@ -2111,19 +2111,19 @@
     <t xml:space="preserve">10.8229875564575</t>
   </si>
   <si>
-    <t xml:space="preserve">10.824390411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0811128616333</t>
+    <t xml:space="preserve">10.8243923187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0811109542847</t>
   </si>
   <si>
     <t xml:space="preserve">10.9071588516235</t>
   </si>
   <si>
-    <t xml:space="preserve">10.876296043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7612628936768</t>
+    <t xml:space="preserve">10.8762950897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7612638473511</t>
   </si>
   <si>
     <t xml:space="preserve">10.5901165008545</t>
@@ -2132,31 +2132,31 @@
     <t xml:space="preserve">10.6742858886719</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5452241897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5830993652344</t>
+    <t xml:space="preserve">10.5452251434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.583101272583</t>
   </si>
   <si>
     <t xml:space="preserve">10.4315938949585</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1636486053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1566333770752</t>
+    <t xml:space="preserve">10.1636476516724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1566352844238</t>
   </si>
   <si>
     <t xml:space="preserve">10.047212600708</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0065288543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1159524917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.243613243103</t>
+    <t xml:space="preserve">10.0065298080444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1159515380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2436122894287</t>
   </si>
   <si>
     <t xml:space="preserve">10.1832876205444</t>
@@ -2165,37 +2165,37 @@
     <t xml:space="preserve">10.346019744873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4091472625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3990468978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4884948730469</t>
+    <t xml:space="preserve">10.4091463088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3990478515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4884958267212</t>
   </si>
   <si>
     <t xml:space="preserve">10.4004907608032</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0412569046021</t>
+    <t xml:space="preserve">10.0412559509277</t>
   </si>
   <si>
     <t xml:space="preserve">10.13791847229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1494607925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1177196502686</t>
+    <t xml:space="preserve">10.1494588851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1177206039429</t>
   </si>
   <si>
     <t xml:space="preserve">9.90708446502686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87678623199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79599761962891</t>
+    <t xml:space="preserve">9.87678718566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79599666595459</t>
   </si>
   <si>
     <t xml:space="preserve">9.9691219329834</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">10.11194896698</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0037450790405</t>
+    <t xml:space="preserve">10.0037460327148</t>
   </si>
   <si>
     <t xml:space="preserve">10.0268297195435</t>
@@ -2213,25 +2213,25 @@
     <t xml:space="preserve">10.0701093673706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0989646911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1321468353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0297145843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0585699081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0051889419556</t>
+    <t xml:space="preserve">10.0989665985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1321458816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0297155380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0585689544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0051908493042</t>
   </si>
   <si>
     <t xml:space="preserve">10.2114973068237</t>
   </si>
   <si>
-    <t xml:space="preserve">10.259105682373</t>
+    <t xml:space="preserve">10.2591066360474</t>
   </si>
   <si>
     <t xml:space="preserve">10.3572082519531</t>
@@ -2240,22 +2240,22 @@
     <t xml:space="preserve">10.5361051559448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4755125045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4163608551025</t>
+    <t xml:space="preserve">10.475510597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4163618087769</t>
   </si>
   <si>
     <t xml:space="preserve">10.4654130935669</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4351148605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5606307983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4582004547119</t>
+    <t xml:space="preserve">10.435115814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5606317520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4581995010376</t>
   </si>
   <si>
     <t xml:space="preserve">10.5086936950684</t>
@@ -2279,40 +2279,40 @@
     <t xml:space="preserve">10.6948041915894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.61256980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793867111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3976049423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3153705596924</t>
+    <t xml:space="preserve">10.6125679016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793876647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3976039886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3153696060181</t>
   </si>
   <si>
     <t xml:space="preserve">10.257661819458</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269128799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3802928924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3514366149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3427820205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2778615951538</t>
+    <t xml:space="preserve">10.3269119262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3802947998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3514385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3427829742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2778596878052</t>
   </si>
   <si>
     <t xml:space="preserve">10.1667718887329</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2461204528809</t>
+    <t xml:space="preserve">10.2461214065552</t>
   </si>
   <si>
     <t xml:space="preserve">10.1682147979736</t>
@@ -2321,43 +2321,43 @@
     <t xml:space="preserve">9.86813068389893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72385883331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65460968017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51755142211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69067764282227</t>
+    <t xml:space="preserve">9.7238597869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65460872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51755046844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69067859649658</t>
   </si>
   <si>
     <t xml:space="preserve">9.51611042022705</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50024032592773</t>
+    <t xml:space="preserve">9.50024127960205</t>
   </si>
   <si>
     <t xml:space="preserve">9.68057918548584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4511890411377</t>
+    <t xml:space="preserve">9.45118713378906</t>
   </si>
   <si>
     <t xml:space="preserve">9.40646362304688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5752592086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48148536682129</t>
+    <t xml:space="preserve">9.57526111602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48148441314697</t>
   </si>
   <si>
     <t xml:space="preserve">9.63008308410645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60267448425293</t>
+    <t xml:space="preserve">9.60267353057861</t>
   </si>
   <si>
     <t xml:space="preserve">9.48004245758057</t>
@@ -2366,97 +2366,97 @@
     <t xml:space="preserve">9.53486442565918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59545803070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66615200042725</t>
+    <t xml:space="preserve">9.595458984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66615009307861</t>
   </si>
   <si>
     <t xml:space="preserve">9.82340621948242</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89121437072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81186580657959</t>
+    <t xml:space="preserve">9.89121341705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81186771392822</t>
   </si>
   <si>
     <t xml:space="preserve">9.86091613769531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9330530166626</t>
+    <t xml:space="preserve">9.93305397033691</t>
   </si>
   <si>
     <t xml:space="preserve">10.0426998138428</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1725435256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1523456573486</t>
+    <t xml:space="preserve">10.1725425720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.15234375</t>
   </si>
   <si>
     <t xml:space="preserve">10.1307039260864</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3254690170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.208610534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3326845169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4971513748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5105314254761</t>
+    <t xml:space="preserve">10.3254709243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2086114883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3326826095581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4971523284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5105333328247</t>
   </si>
   <si>
     <t xml:space="preserve">10.4034938812256</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3038902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3574085235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4466075897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4317398071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3916015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0764331817627</t>
+    <t xml:space="preserve">10.3038892745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3574075698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.446605682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4317407608032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3915996551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0764322280884</t>
   </si>
   <si>
     <t xml:space="preserve">9.96642208099365</t>
   </si>
   <si>
-    <t xml:space="preserve">10.067512512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1477928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.060079574585</t>
+    <t xml:space="preserve">10.0675134658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1477918624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0600805282593</t>
   </si>
   <si>
     <t xml:space="preserve">10.1091394424438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1700916290283</t>
+    <t xml:space="preserve">10.1700925827026</t>
   </si>
   <si>
     <t xml:space="preserve">10.2845621109009</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2161779403687</t>
+    <t xml:space="preserve">10.2161750793457</t>
   </si>
   <si>
     <t xml:space="preserve">10.2860488891602</t>
@@ -2465,91 +2465,91 @@
     <t xml:space="preserve">10.2696962356567</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2429370880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.372275352478</t>
+    <t xml:space="preserve">10.2429361343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3722763061523</t>
   </si>
   <si>
     <t xml:space="preserve">10.4599857330322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5090446472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4362001419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3603811264038</t>
+    <t xml:space="preserve">10.5090456008911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4361991882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3603801727295</t>
   </si>
   <si>
     <t xml:space="preserve">10.2786159515381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1819839477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0868377685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1864442825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3871402740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5536441802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5283708572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5372905731201</t>
+    <t xml:space="preserve">10.1819849014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0868406295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1864452362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3871421813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5536432266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5283727645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5372896194458</t>
   </si>
   <si>
     <t xml:space="preserve">10.5476970672607</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5075569152832</t>
+    <t xml:space="preserve">10.5075578689575</t>
   </si>
   <si>
     <t xml:space="preserve">10.595269203186</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5417499542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5699977874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4882326126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.384165763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4153871536255</t>
+    <t xml:space="preserve">10.5417518615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5699987411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4882307052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3841667175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4153861999512</t>
   </si>
   <si>
     <t xml:space="preserve">10.4376859664917</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4421472549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3559198379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3247022628784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2578010559082</t>
+    <t xml:space="preserve">10.4421463012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.355920791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3247032165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2578039169312</t>
   </si>
   <si>
     <t xml:space="preserve">10.1938772201538</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0883264541626</t>
+    <t xml:space="preserve">10.0883255004883</t>
   </si>
   <si>
     <t xml:space="preserve">10.0199403762817</t>
@@ -2558,34 +2558,34 @@
     <t xml:space="preserve">10.141845703125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2355051040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1284666061401</t>
+    <t xml:space="preserve">10.2355060577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1284656524658</t>
   </si>
   <si>
     <t xml:space="preserve">10.1581993103027</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1031932830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1463069915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1121120452881</t>
+    <t xml:space="preserve">10.1031942367554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1463050842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1121110916138</t>
   </si>
   <si>
     <t xml:space="preserve">10.1269788742065</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1849575042725</t>
+    <t xml:space="preserve">10.1849584579468</t>
   </si>
   <si>
     <t xml:space="preserve">10.2711839675903</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2919979095459</t>
+    <t xml:space="preserve">10.2919950485229</t>
   </si>
   <si>
     <t xml:space="preserve">10.418360710144</t>
@@ -2594,136 +2594,136 @@
     <t xml:space="preserve">10.4064674377441</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4124135971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.485258102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6413555145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6443319320679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5595903396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4807987213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3128089904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2563171386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3232145309448</t>
+    <t xml:space="preserve">10.4124145507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4852590560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6413536071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6443290710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.559591293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4807977676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3128080368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2563161849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3232154846191</t>
   </si>
   <si>
     <t xml:space="preserve">10.3440284729004</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3187561035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0779190063477</t>
+    <t xml:space="preserve">10.318754196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.077919960022</t>
   </si>
   <si>
     <t xml:space="preserve">10.0035886764526</t>
   </si>
   <si>
-    <t xml:space="preserve">10.012508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.808837890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95898818969727</t>
+    <t xml:space="preserve">10.0125074386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80883884429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95898914337158</t>
   </si>
   <si>
     <t xml:space="preserve">9.87722396850586</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60814189910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40893268585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37325286865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50556373596191</t>
+    <t xml:space="preserve">9.60813999176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40893363952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37325477600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50556468963623</t>
   </si>
   <si>
     <t xml:space="preserve">9.6839599609375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64085006713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59327697753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4996166229248</t>
+    <t xml:space="preserve">9.64084911346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59327602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49961757659912</t>
   </si>
   <si>
     <t xml:space="preserve">9.73748016357422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65422821044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58287048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5962495803833</t>
+    <t xml:space="preserve">9.65422916412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5828685760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59624862670898</t>
   </si>
   <si>
     <t xml:space="preserve">9.61706256866455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58881568908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48772621154785</t>
+    <t xml:space="preserve">9.58881664276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48772430419922</t>
   </si>
   <si>
     <t xml:space="preserve">9.04470729827881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9019889831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9674015045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73994445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29395389556885</t>
+    <t xml:space="preserve">8.90198993682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96740245819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73994636535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29395484924316</t>
   </si>
   <si>
     <t xml:space="preserve">8.26422119140625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26570892333984</t>
+    <t xml:space="preserve">8.26570796966553</t>
   </si>
   <si>
     <t xml:space="preserve">8.28949546813965</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15272331237793</t>
+    <t xml:space="preserve">8.15272426605225</t>
   </si>
   <si>
     <t xml:space="preserve">7.60712766647339</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02088451385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06920099258423</t>
+    <t xml:space="preserve">6.0208854675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06920146942139</t>
   </si>
   <si>
     <t xml:space="preserve">5.98371887207031</t>
@@ -2735,31 +2735,31 @@
     <t xml:space="preserve">5.13707780838013</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82562780380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10362863540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9757776260376</t>
+    <t xml:space="preserve">4.82562732696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10362911224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97577810287476</t>
   </si>
   <si>
     <t xml:space="preserve">5.17721748352051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4210262298584</t>
+    <t xml:space="preserve">5.42102670669556</t>
   </si>
   <si>
     <t xml:space="preserve">5.41656589508057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22529745101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48397159576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47505235671997</t>
+    <t xml:space="preserve">6.22529649734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48397064208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47505187988281</t>
   </si>
   <si>
     <t xml:space="preserve">6.10785245895386</t>
@@ -2774,112 +2774,112 @@
     <t xml:space="preserve">6.83853530883789</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31277370452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93145036697388</t>
+    <t xml:space="preserve">7.31277322769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93144989013672</t>
   </si>
   <si>
     <t xml:space="preserve">6.92401742935181</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00801277160645</t>
+    <t xml:space="preserve">7.00801372528076</t>
   </si>
   <si>
     <t xml:space="preserve">6.90915107727051</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91881322860718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81400489807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37916421890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28401947021484</t>
+    <t xml:space="preserve">6.91881370544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81400585174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37916469573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.284019947052</t>
   </si>
   <si>
     <t xml:space="preserve">6.38288116455078</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2691535949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91681909561157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20522689819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29739856719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13238286972046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24685478210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4549822807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65790891647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47728300094604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10339403152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45721340179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26097774505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3598370552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41558694839478</t>
+    <t xml:space="preserve">6.26915264129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91681957244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20522785186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29739952087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13238191604614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24685382843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45498275756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65790843963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47728252410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10339307785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45721387863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26097679138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35983753204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4155855178833</t>
   </si>
   <si>
     <t xml:space="preserve">6.33679580688477</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32861852645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33307933807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77694177627563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56323003768921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59845733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43641185760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39883518218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46615982055664</t>
+    <t xml:space="preserve">6.32861804962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33307981491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77694129943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56322908401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59845685958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43641138076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3988356590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4661602973938</t>
   </si>
   <si>
     <t xml:space="preserve">6.47711896896362</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61489582061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64777421951294</t>
+    <t xml:space="preserve">6.61489629745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6477746963501</t>
   </si>
   <si>
     <t xml:space="preserve">6.35891151428223</t>
@@ -2888,34 +2888,34 @@
     <t xml:space="preserve">6.52878570556641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86618375778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04466867446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01726961135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44156265258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56525039672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33979511260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22550201416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71744823455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72214412689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71666431427002</t>
+    <t xml:space="preserve">6.8661847114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04466819763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01727056503296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44156217575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56524801254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33979558944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22550106048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71744585037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72214508056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71666383743286</t>
   </si>
   <si>
     <t xml:space="preserve">6.99456882476807</t>
@@ -2924,13 +2924,13 @@
     <t xml:space="preserve">6.96403741836548</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91628456115723</t>
+    <t xml:space="preserve">6.91628551483154</t>
   </si>
   <si>
     <t xml:space="preserve">6.9468150138855</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89123487472534</t>
+    <t xml:space="preserve">6.89123439788818</t>
   </si>
   <si>
     <t xml:space="preserve">6.63211822509766</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">6.63916349411011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57340669631958</t>
+    <t xml:space="preserve">6.57340574264526</t>
   </si>
   <si>
     <t xml:space="preserve">6.75189161300659</t>
@@ -2948,43 +2948,43 @@
     <t xml:space="preserve">6.64620923995972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63446807861328</t>
+    <t xml:space="preserve">6.63446760177612</t>
   </si>
   <si>
     <t xml:space="preserve">6.82626104354858</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79024934768677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85600709915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90454244613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80903816223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60237169265747</t>
+    <t xml:space="preserve">6.79024982452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85600852966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90454196929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80903768539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.602370262146</t>
   </si>
   <si>
     <t xml:space="preserve">6.77929019927979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8755784034729</t>
+    <t xml:space="preserve">6.87557792663574</t>
   </si>
   <si>
     <t xml:space="preserve">6.91706800460815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96325588226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89906215667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87401294708252</t>
+    <t xml:space="preserve">6.96325540542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8990626335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8740119934082</t>
   </si>
   <si>
     <t xml:space="preserve">6.98987102508545</t>
@@ -2993,19 +2993,19 @@
     <t xml:space="preserve">6.81608247756958</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73310327529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6696949005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62507343292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63603353500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58358335494995</t>
+    <t xml:space="preserve">6.73310279846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66969585418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62507295608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6360330581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58358287811279</t>
   </si>
   <si>
     <t xml:space="preserve">6.12014865875244</t>
@@ -3014,94 +3014,94 @@
     <t xml:space="preserve">5.90330600738525</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89782619476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15224599838257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33777523040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21721982955933</t>
+    <t xml:space="preserve">5.89782571792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15224552154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33777475357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21722030639648</t>
   </si>
   <si>
     <t xml:space="preserve">6.11075592041016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25166416168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45363473892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55461883544922</t>
+    <t xml:space="preserve">6.25166463851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45363426208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55461835861206</t>
   </si>
   <si>
     <t xml:space="preserve">6.45441675186157</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40274953842163</t>
+    <t xml:space="preserve">6.40275049209595</t>
   </si>
   <si>
     <t xml:space="preserve">6.34090757369995</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30489635467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36282634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21174049377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16320466995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41214418411255</t>
+    <t xml:space="preserve">6.30489683151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36282539367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21173906326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16320514678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41214370727539</t>
   </si>
   <si>
     <t xml:space="preserve">6.32368469238281</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23287582397461</t>
+    <t xml:space="preserve">6.23287677764893</t>
   </si>
   <si>
     <t xml:space="preserve">6.10605812072754</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08727073669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00898790359497</t>
+    <t xml:space="preserve">6.08727025985718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00898694992065</t>
   </si>
   <si>
     <t xml:space="preserve">6.02464389801025</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98471975326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08492136001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88608407974243</t>
+    <t xml:space="preserve">5.98472023010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08492279052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88608312606812</t>
   </si>
   <si>
     <t xml:space="preserve">5.97141122817993</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96984529495239</t>
+    <t xml:space="preserve">5.96984672546387</t>
   </si>
   <si>
     <t xml:space="preserve">5.94870948791504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85242176055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95888614654541</t>
+    <t xml:space="preserve">5.85242128372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95888662338257</t>
   </si>
   <si>
     <t xml:space="preserve">5.98941707611084</t>
@@ -3110,88 +3110,88 @@
     <t xml:space="preserve">5.94479513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78353261947632</t>
+    <t xml:space="preserve">5.78353357315063</t>
   </si>
   <si>
     <t xml:space="preserve">5.53048324584961</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61483430862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5129771232605</t>
+    <t xml:space="preserve">5.61483383178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51297664642334</t>
   </si>
   <si>
     <t xml:space="preserve">5.42066955566406</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32279205322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45886564254761</t>
+    <t xml:space="preserve">5.3227915763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45886611938477</t>
   </si>
   <si>
     <t xml:space="preserve">5.30369424819946</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32199668884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14215612411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17000865936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32358741760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5050196647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35541772842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.478759765625</t>
+    <t xml:space="preserve">5.32199573516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14215707778931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17000770568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3235878944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50501918792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35541820526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47876024246216</t>
   </si>
   <si>
     <t xml:space="preserve">5.46045732498169</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42623949050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32040500640869</t>
+    <t xml:space="preserve">5.42624092102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32040548324585</t>
   </si>
   <si>
     <t xml:space="preserve">5.32995414733887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10714292526245</t>
+    <t xml:space="preserve">5.10714340209961</t>
   </si>
   <si>
     <t xml:space="preserve">5.22252798080444</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24083042144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22173166275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04507398605347</t>
+    <t xml:space="preserve">5.24083089828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2217321395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04507446289062</t>
   </si>
   <si>
     <t xml:space="preserve">5.04586982727051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12783241271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96947813034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8540940284729</t>
+    <t xml:space="preserve">5.12783288955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96947765350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85409307479858</t>
   </si>
   <si>
     <t xml:space="preserve">4.68300628662109</t>
@@ -3203,16 +3203,16 @@
     <t xml:space="preserve">4.78327178955078</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06258058547974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1835355758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24958276748657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24878787994385</t>
+    <t xml:space="preserve">5.06258106231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18353509902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24958229064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24878740310669</t>
   </si>
   <si>
     <t xml:space="preserve">5.2058162689209</t>
@@ -3221,28 +3221,28 @@
     <t xml:space="preserve">5.87106609344482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10979223251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04135751724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06204652786255</t>
+    <t xml:space="preserve">6.10979175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04135704040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06204605102539</t>
   </si>
   <si>
     <t xml:space="preserve">6.09546852111816</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34056043624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43445920944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52040100097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42729711532593</t>
+    <t xml:space="preserve">6.34056091308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4344596862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52040147781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42729663848877</t>
   </si>
   <si>
     <t xml:space="preserve">6.46549367904663</t>
@@ -3251,55 +3251,55 @@
     <t xml:space="preserve">6.62862253189087</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85939121246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90077114105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81005430221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82915163040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60713768005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69626235961914</t>
+    <t xml:space="preserve">6.85939073562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90077066421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81005334854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82915258407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60713815689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69626188278198</t>
   </si>
   <si>
     <t xml:space="preserve">6.76310443878174</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72570419311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95806503295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97636747360229</t>
+    <t xml:space="preserve">6.72570466995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95806455612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97636699676514</t>
   </si>
   <si>
     <t xml:space="preserve">6.99466896057129</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0368447303772</t>
+    <t xml:space="preserve">7.03684425354004</t>
   </si>
   <si>
     <t xml:space="preserve">7.11084938049316</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00899362564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90554523468018</t>
+    <t xml:space="preserve">7.00899314880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90554571151733</t>
   </si>
   <si>
     <t xml:space="preserve">6.96443128585815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.967613697052</t>
+    <t xml:space="preserve">6.96761322021484</t>
   </si>
   <si>
     <t xml:space="preserve">6.93180513381958</t>
@@ -3311,49 +3311,49 @@
     <t xml:space="preserve">6.56018781661987</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65249490737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83074378967285</t>
+    <t xml:space="preserve">6.65249443054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83074426651001</t>
   </si>
   <si>
     <t xml:space="preserve">6.84029340744019</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81323766708374</t>
+    <t xml:space="preserve">6.8132381439209</t>
   </si>
   <si>
     <t xml:space="preserve">6.80209732055664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72252178192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97159290313721</t>
+    <t xml:space="preserve">6.72252225875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97159147262573</t>
   </si>
   <si>
     <t xml:space="preserve">7.19997453689575</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21588802337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18565034866333</t>
+    <t xml:space="preserve">7.21588897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18564987182617</t>
   </si>
   <si>
     <t xml:space="preserve">7.1442699432373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20474863052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20952272415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16575527191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02729558944702</t>
+    <t xml:space="preserve">7.20474672317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20952224731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1657567024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02729511260986</t>
   </si>
   <si>
     <t xml:space="preserve">7.0471887588501</t>
@@ -3362,148 +3362,148 @@
     <t xml:space="preserve">7.02411222457886</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08299732208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89758825302124</t>
+    <t xml:space="preserve">7.08299779891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89758634567261</t>
   </si>
   <si>
     <t xml:space="preserve">6.79732179641724</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64692449569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78618144989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8013014793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64612913131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52517604827881</t>
+    <t xml:space="preserve">6.64692544937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78618192672729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80130100250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64613008499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52517461776733</t>
   </si>
   <si>
     <t xml:space="preserve">6.61350393295288</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75514841079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81960487365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85223007202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90793085098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98273229598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03764009475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98432636260986</t>
+    <t xml:space="preserve">6.75514793395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81960439682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85223054885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90793180465698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98273324966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03764057159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98432445526123</t>
   </si>
   <si>
     <t xml:space="preserve">7.06549119949341</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25965404510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22464227676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29148578643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23896551132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3193359375</t>
+    <t xml:space="preserve">7.25965452194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22464179992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29148483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23896598815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31933641433716</t>
   </si>
   <si>
     <t xml:space="preserve">7.44506502151489</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49917697906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62092685699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70288896560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54533004760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60819339752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55328750610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68697500228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85885715484619</t>
+    <t xml:space="preserve">7.4991774559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62092733383179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70288944244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5453314781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60819482803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55328941345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68697547912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85885763168335</t>
   </si>
   <si>
     <t xml:space="preserve">8.00686740875244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10076713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06893539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13259696960449</t>
+    <t xml:space="preserve">8.1007661819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06893634796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13259506225586</t>
   </si>
   <si>
     <t xml:space="preserve">8.19625663757324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29015636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22331142425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14851188659668</t>
+    <t xml:space="preserve">8.29015445709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22331237792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14851093292236</t>
   </si>
   <si>
     <t xml:space="preserve">8.22649478912354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09599208831787</t>
+    <t xml:space="preserve">8.09599304199219</t>
   </si>
   <si>
     <t xml:space="preserve">8.07370948791504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94161558151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15328598022461</t>
+    <t xml:space="preserve">7.94161462783813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15328502655029</t>
   </si>
   <si>
     <t xml:space="preserve">8.04665565490723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14214706420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23445224761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28538036346436</t>
+    <t xml:space="preserve">8.14214515686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23445129394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28538131713867</t>
   </si>
   <si>
     <t xml:space="preserve">8.35063171386719</t>
@@ -3512,10 +3512,10 @@
     <t xml:space="preserve">8.41110897064209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33471870422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32039260864258</t>
+    <t xml:space="preserve">8.33471584320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32039451599121</t>
   </si>
   <si>
     <t xml:space="preserve">8.16442584991455</t>
@@ -3530,124 +3530,124 @@
     <t xml:space="preserve">8.13737106323242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34585857391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24718570709229</t>
+    <t xml:space="preserve">8.34585762023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24718475341797</t>
   </si>
   <si>
     <t xml:space="preserve">8.23604393005371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21535491943359</t>
+    <t xml:space="preserve">8.21535396575928</t>
   </si>
   <si>
     <t xml:space="preserve">8.01641654968262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07689094543457</t>
+    <t xml:space="preserve">8.07689380645752</t>
   </si>
   <si>
     <t xml:space="preserve">8.09121799468994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03869724273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07530117034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04506206512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11986351013184</t>
+    <t xml:space="preserve">8.0386962890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07530212402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04506301879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11986446380615</t>
   </si>
   <si>
     <t xml:space="preserve">8.11827278137207</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90182733535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03710651397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20262336730957</t>
+    <t xml:space="preserve">7.90182828903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03710460662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20262145996094</t>
   </si>
   <si>
     <t xml:space="preserve">8.21694564819336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21217060089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28219795227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32198429107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19943904876709</t>
+    <t xml:space="preserve">8.21217155456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28219890594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32198619842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19944095611572</t>
   </si>
   <si>
     <t xml:space="preserve">8.29970455169678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32675933837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30288600921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11349868774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18352508544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23729705810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13545322418213</t>
+    <t xml:space="preserve">8.32676029205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30288696289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11349773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1835241317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2372989654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13545417785645</t>
   </si>
   <si>
     <t xml:space="preserve">8.17211818695068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22915172576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22426223754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1933012008667</t>
+    <t xml:space="preserve">8.22915077209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22426319122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19330215454102</t>
   </si>
   <si>
     <t xml:space="preserve">8.38721561431885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44913768768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50617027282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45728778839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51757907867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55179882049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50943279266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56646633148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62187004089355</t>
+    <t xml:space="preserve">8.44913864135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50617218017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45728588104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51758003234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55179977416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50943088531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56646537780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62186908721924</t>
   </si>
   <si>
     <t xml:space="preserve">8.74082565307617</t>
@@ -3659,25 +3659,25 @@
     <t xml:space="preserve">8.75223255157471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66097831726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40351104736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48824691772461</t>
+    <t xml:space="preserve">8.66097927093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40351009368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48824787139893</t>
   </si>
   <si>
     <t xml:space="preserve">8.48498916625977</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49150562286377</t>
+    <t xml:space="preserve">8.4915075302124</t>
   </si>
   <si>
     <t xml:space="preserve">8.58764934539795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60068416595459</t>
+    <t xml:space="preserve">8.60068511962891</t>
   </si>
   <si>
     <t xml:space="preserve">8.42632484436035</t>
@@ -3686,25 +3686,25 @@
     <t xml:space="preserve">8.42306613922119</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36766242980957</t>
+    <t xml:space="preserve">8.36766338348389</t>
   </si>
   <si>
     <t xml:space="preserve">8.5224666595459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47195148468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51921081542969</t>
+    <t xml:space="preserve">8.47195243835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51920986175537</t>
   </si>
   <si>
     <t xml:space="preserve">8.2861852645874</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11752796173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21285533905029</t>
+    <t xml:space="preserve">8.11752891540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21285629272461</t>
   </si>
   <si>
     <t xml:space="preserve">8.15093326568604</t>
@@ -3713,52 +3713,52 @@
     <t xml:space="preserve">8.16722869873047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07434558868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01079559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70281219482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74273538589478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94398164749146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85761737823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87798643112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03849697113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9912371635437</t>
+    <t xml:space="preserve">8.0743465423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01079273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70281267166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74273633956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94398355484009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85761785507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87798738479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03849601745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99123907089233</t>
   </si>
   <si>
     <t xml:space="preserve">8.08004856109619</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15908050537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12486362457275</t>
+    <t xml:space="preserve">8.15908145904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12486267089844</t>
   </si>
   <si>
     <t xml:space="preserve">8.25848388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24544620513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31062793731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39373397827148</t>
+    <t xml:space="preserve">8.24544811248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31062889099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3937349319458</t>
   </si>
   <si>
     <t xml:space="preserve">8.37906837463379</t>
@@ -3770,28 +3770,28 @@
     <t xml:space="preserve">8.48661804199219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53713417053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56972503662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45076751708984</t>
+    <t xml:space="preserve">8.53713130950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56972408294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45076656341553</t>
   </si>
   <si>
     <t xml:space="preserve">8.45402717590332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44587993621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20959854125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19819164276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33832931518555</t>
+    <t xml:space="preserve">8.44588088989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20959758758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19819068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33833026885986</t>
   </si>
   <si>
     <t xml:space="preserve">8.40677070617676</t>
@@ -3800,43 +3800,43 @@
     <t xml:space="preserve">8.41654872894287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39699363708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4963960647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49965476989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66260814666748</t>
+    <t xml:space="preserve">8.39699268341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49639415740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49965572357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66260719299316</t>
   </si>
   <si>
     <t xml:space="preserve">8.57950115203857</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62512874603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62838554382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59090709686279</t>
+    <t xml:space="preserve">8.62513065338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62838840484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59090900421143</t>
   </si>
   <si>
     <t xml:space="preserve">8.80437660217285</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8842248916626</t>
+    <t xml:space="preserve">8.88422393798828</t>
   </si>
   <si>
     <t xml:space="preserve">8.9542932510376</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98199558258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91518592834473</t>
+    <t xml:space="preserve">8.98199653625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91518497467041</t>
   </si>
   <si>
     <t xml:space="preserve">8.83207225799561</t>
@@ -3845,7 +3845,7 @@
     <t xml:space="preserve">8.99490737915039</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23237228393555</t>
+    <t xml:space="preserve">9.23237419128418</t>
   </si>
   <si>
     <t xml:space="preserve">9.24594306945801</t>
@@ -3854,37 +3854,37 @@
     <t xml:space="preserve">9.27138614654541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48680305480957</t>
+    <t xml:space="preserve">9.48680210113525</t>
   </si>
   <si>
     <t xml:space="preserve">9.55295467376709</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65811824798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79211616516113</t>
+    <t xml:space="preserve">9.65811729431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79211711883545</t>
   </si>
   <si>
     <t xml:space="preserve">9.73783874511719</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87353610992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0482416152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89388847351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82773685455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0567235946655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1822414398193</t>
+    <t xml:space="preserve">9.87353420257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0482425689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89388656616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82773876190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0567226409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1822395324707</t>
   </si>
   <si>
     <t xml:space="preserve">10.1551027297974</t>
@@ -3893,112 +3893,112 @@
     <t xml:space="preserve">10.0261917114258</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1601886749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3535585403442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3773031234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3230247497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4468488693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2907962799072</t>
+    <t xml:space="preserve">10.1601896286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3535575866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3773012161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3230266571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4468479156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2907972335815</t>
   </si>
   <si>
     <t xml:space="preserve">10.2433052062988</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4129238128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4807710647583</t>
+    <t xml:space="preserve">10.4129219055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.480770111084</t>
   </si>
   <si>
     <t xml:space="preserve">10.4044427871704</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3162403106689</t>
+    <t xml:space="preserve">10.3162412643433</t>
   </si>
   <si>
     <t xml:space="preserve">10.5197839736938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.809832572937</t>
+    <t xml:space="preserve">10.8098335266113</t>
   </si>
   <si>
     <t xml:space="preserve">10.635124206543</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4994287490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6520862579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7470731735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7555541992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7029733657837</t>
+    <t xml:space="preserve">10.4994297027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6520872116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7470722198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7555551528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7029714584351</t>
   </si>
   <si>
     <t xml:space="preserve">10.7402868270874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7250232696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6113777160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.640212059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6843118667603</t>
+    <t xml:space="preserve">10.725022315979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6113767623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6402111053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6843137741089</t>
   </si>
   <si>
     <t xml:space="preserve">10.6792240142822</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5418338775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3196325302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4553279876709</t>
+    <t xml:space="preserve">10.5418357849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3196334838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4553270339966</t>
   </si>
   <si>
     <t xml:space="preserve">10.4909496307373</t>
   </si>
   <si>
-    <t xml:space="preserve">10.428186416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77854633331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0075330734253</t>
+    <t xml:space="preserve">10.4281892776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7785472869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0075349807739</t>
   </si>
   <si>
     <t xml:space="preserve">10.0957355499268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1262664794922</t>
+    <t xml:space="preserve">10.1262674331665</t>
   </si>
   <si>
     <t xml:space="preserve">10.1856336593628</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4247970581055</t>
+    <t xml:space="preserve">10.4247980117798</t>
   </si>
   <si>
     <t xml:space="preserve">10.6588716506958</t>
@@ -4007,7 +4007,7 @@
     <t xml:space="preserve">10.5079107284546</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4027452468872</t>
+    <t xml:space="preserve">10.4027462005615</t>
   </si>
   <si>
     <t xml:space="preserve">10.3518600463867</t>
@@ -4016,16 +4016,16 @@
     <t xml:space="preserve">10.1941146850586</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3026714324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1771545410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3450746536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2212533950806</t>
+    <t xml:space="preserve">10.3026704788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.177152633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3450756072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2212524414062</t>
   </si>
   <si>
     <t xml:space="preserve">10.0363683700562</t>
@@ -4034,7 +4034,7 @@
     <t xml:space="preserve">10.3298101425171</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3247222900391</t>
+    <t xml:space="preserve">10.3247213363647</t>
   </si>
   <si>
     <t xml:space="preserve">10.3806943893433</t>
@@ -4043,25 +4043,25 @@
     <t xml:space="preserve">10.42649269104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4146194458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3637342453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5231761932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6944904327393</t>
+    <t xml:space="preserve">10.4146184921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.363733291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.523175239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6944913864136</t>
   </si>
   <si>
     <t xml:space="preserve">10.8183135986328</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7284154891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8471508026123</t>
+    <t xml:space="preserve">10.7284145355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.847149848938</t>
   </si>
   <si>
     <t xml:space="preserve">10.7572498321533</t>
@@ -4070,94 +4070,94 @@
     <t xml:space="preserve">10.864109992981</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0693502426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0456027984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1609439849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2050466537476</t>
+    <t xml:space="preserve">11.0693492889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0456047058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.160943031311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2050457000732</t>
   </si>
   <si>
     <t xml:space="preserve">11.2542352676392</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3814487457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2711954116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1151475906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7589483261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1049699783325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4357261657715</t>
+    <t xml:space="preserve">11.3814496994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2711963653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1151456832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7589473724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1049690246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4357271194458</t>
   </si>
   <si>
     <t xml:space="preserve">11.7139015197754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.512056350708</t>
+    <t xml:space="preserve">11.5120553970337</t>
   </si>
   <si>
     <t xml:space="preserve">11.2864618301392</t>
   </si>
   <si>
-    <t xml:space="preserve">11.411979675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3271703720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2695016860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323348999023</t>
+    <t xml:space="preserve">11.4119806289673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3271713256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2695007324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4323329925537</t>
   </si>
   <si>
     <t xml:space="preserve">11.182993888855</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0557823181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2389678955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.277982711792</t>
+    <t xml:space="preserve">11.0557804107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2389688491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2779808044434</t>
   </si>
   <si>
     <t xml:space="preserve">11.4730434417725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3000316619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.17112159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3085117340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4238538742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2915506362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.442512512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3865365982056</t>
+    <t xml:space="preserve">11.3000326156616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1711225509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3085126876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4238548278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2915515899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4425115585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3865356445312</t>
   </si>
   <si>
     <t xml:space="preserve">11.3322601318359</t>
@@ -4169,7 +4169,7 @@
     <t xml:space="preserve">11.7308645248413</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0870637893677</t>
+    <t xml:space="preserve">12.087064743042</t>
   </si>
   <si>
     <t xml:space="preserve">12.3228349685669</t>
@@ -4178,43 +4178,43 @@
     <t xml:space="preserve">11.7596998214722</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9014272689819</t>
+    <t xml:space="preserve">10.9014253616333</t>
   </si>
   <si>
     <t xml:space="preserve">11.3695755004883</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5934724807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5358028411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.113450050354</t>
+    <t xml:space="preserve">11.5934734344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5358037948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1134510040283</t>
   </si>
   <si>
     <t xml:space="preserve">11.0065908432007</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9607934951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8301858901978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1185398101807</t>
+    <t xml:space="preserve">10.9607944488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8301877975464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.118537902832</t>
   </si>
   <si>
     <t xml:space="preserve">10.79456615448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2135257720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4187650680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2559299468994</t>
+    <t xml:space="preserve">11.2135276794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4187660217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2559309005737</t>
   </si>
   <si>
     <t xml:space="preserve">11.1066665649414</t>
@@ -4229,25 +4229,25 @@
     <t xml:space="preserve">11.3763599395752</t>
   </si>
   <si>
-    <t xml:space="preserve">11.400107383728</t>
+    <t xml:space="preserve">11.4001064300537</t>
   </si>
   <si>
     <t xml:space="preserve">11.4560832977295</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3543081283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2474517822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7189922332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7003326416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0209121704102</t>
+    <t xml:space="preserve">11.3543090820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2474498748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7189912796021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7003345489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0209131240845</t>
   </si>
   <si>
     <t xml:space="preserve">12.0429639816284</t>
@@ -4262,79 +4262,79 @@
     <t xml:space="preserve">11.8733444213867</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5171451568604</t>
+    <t xml:space="preserve">11.517144203186</t>
   </si>
   <si>
     <t xml:space="preserve">10.9658832550049</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9896278381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1592483520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3560066223145</t>
+    <t xml:space="preserve">10.9896287918091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1592464447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3560075759888</t>
   </si>
   <si>
     <t xml:space="preserve">11.1948680877686</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5341053009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4577770233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5374994277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0914001464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2440567016602</t>
+    <t xml:space="preserve">11.534107208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4577779769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5374975204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0914011001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2440576553345</t>
   </si>
   <si>
     <t xml:space="preserve">11.5510673522949</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5680303573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.725775718689</t>
+    <t xml:space="preserve">11.5680313110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7257766723633</t>
   </si>
   <si>
     <t xml:space="preserve">11.815673828125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6918525695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800531387329</t>
+    <t xml:space="preserve">11.6918516159058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800550460815</t>
   </si>
   <si>
     <t xml:space="preserve">12.0023517608643</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9113321304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3576803207397</t>
+    <t xml:space="preserve">11.9113330841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3576793670654</t>
   </si>
   <si>
     <t xml:space="preserve">12.4679536819458</t>
   </si>
   <si>
-    <t xml:space="preserve">12.420693397522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4276943206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4259443283081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3384237289429</t>
+    <t xml:space="preserve">12.4206943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4276933670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4259433746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3384246826172</t>
   </si>
   <si>
     <t xml:space="preserve">12.3156690597534</t>
@@ -4343,10 +4343,10 @@
     <t xml:space="preserve">12.4784555435181</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6307392120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6272373199463</t>
+    <t xml:space="preserve">12.6307382583618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6272382736206</t>
   </si>
   <si>
     <t xml:space="preserve">12.5957307815552</t>
@@ -4355,52 +4355,52 @@
     <t xml:space="preserve">12.2754106521606</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5875129699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3582124710083</t>
+    <t xml:space="preserve">11.5875120162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3582143783569</t>
   </si>
   <si>
     <t xml:space="preserve">11.5262489318848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5997648239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.032642364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5110292434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5407848358154</t>
+    <t xml:space="preserve">11.5997657775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0326414108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5110301971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5407857894897</t>
   </si>
   <si>
     <t xml:space="preserve">10.5722923278809</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2047128677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0034189224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2099647521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0646820068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1539525985718</t>
+    <t xml:space="preserve">10.2047119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0034198760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2099637985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0646829605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1539516448975</t>
   </si>
   <si>
     <t xml:space="preserve">9.91415023803711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82662963867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.062931060791</t>
+    <t xml:space="preserve">9.82663154602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0629329681396</t>
   </si>
   <si>
     <t xml:space="preserve">9.48005485534668</t>
@@ -4412,70 +4412,70 @@
     <t xml:space="preserve">9.6673469543457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82488059997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80212593078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74786281585693</t>
+    <t xml:space="preserve">9.82487964630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80212688446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74786376953125</t>
   </si>
   <si>
     <t xml:space="preserve">9.72861003875732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31552124023438</t>
+    <t xml:space="preserve">9.31552028656006</t>
   </si>
   <si>
     <t xml:space="preserve">9.48530673980713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6393404006958</t>
+    <t xml:space="preserve">9.63933849334717</t>
   </si>
   <si>
     <t xml:space="preserve">9.89314556121826</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77936935424805</t>
+    <t xml:space="preserve">9.77937030792236</t>
   </si>
   <si>
     <t xml:space="preserve">9.62708759307861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60083293914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68134784698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64459228515625</t>
+    <t xml:space="preserve">9.60083198547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68134880065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64459323883057</t>
   </si>
   <si>
     <t xml:space="preserve">9.70760536193848</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2537240982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2414712905884</t>
+    <t xml:space="preserve">10.2537231445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2414703369141</t>
   </si>
   <si>
     <t xml:space="preserve">10.0156726837158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97716426849365</t>
+    <t xml:space="preserve">9.97716236114502</t>
   </si>
   <si>
     <t xml:space="preserve">9.96841239929199</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0261745452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0174226760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0576801300049</t>
+    <t xml:space="preserve">10.0261735916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0174217224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0576791763306</t>
   </si>
   <si>
     <t xml:space="preserve">9.99816703796387</t>
@@ -4487,19 +4487,19 @@
     <t xml:space="preserve">10.1784572601318</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1329460144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2327194213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4445142745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3009843826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4672689437866</t>
+    <t xml:space="preserve">10.1329469680786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2327184677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4445152282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3009853363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4672698974609</t>
   </si>
   <si>
     <t xml:space="preserve">10.8593549728394</t>
@@ -4508,22 +4508,22 @@
     <t xml:space="preserve">10.7245759963989</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9451236724854</t>
+    <t xml:space="preserve">10.945122718811</t>
   </si>
   <si>
     <t xml:space="preserve">10.7788362503052</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9398727416992</t>
+    <t xml:space="preserve">10.9398708343506</t>
   </si>
   <si>
     <t xml:space="preserve">10.7088212966919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3342418670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2624750137329</t>
+    <t xml:space="preserve">10.3342409133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2624759674072</t>
   </si>
   <si>
     <t xml:space="preserve">10.577543258667</t>
@@ -4532,16 +4532,16 @@
     <t xml:space="preserve">10.75608253479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4602670669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1679534912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1364479064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2239675521851</t>
+    <t xml:space="preserve">10.4602680206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1679544448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1364459991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2239665985107</t>
   </si>
   <si>
     <t xml:space="preserve">10.4532670974731</t>
@@ -4550,19 +4550,19 @@
     <t xml:space="preserve">10.3587465286255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3359899520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0996894836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0156717300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94071388244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1191835403442</t>
+    <t xml:space="preserve">10.3359909057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0996913909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0156707763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94071483612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1191844940186</t>
   </si>
   <si>
     <t xml:space="preserve">9.6391019821167</t>
@@ -4577,25 +4577,25 @@
     <t xml:space="preserve">9.62482452392578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7354736328125</t>
+    <t xml:space="preserve">9.73547554016113</t>
   </si>
   <si>
     <t xml:space="preserve">10.0317325592041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2976531982422</t>
+    <t xml:space="preserve">10.2976541519165</t>
   </si>
   <si>
     <t xml:space="preserve">10.4618444442749</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4671983718872</t>
+    <t xml:space="preserve">10.4671964645386</t>
   </si>
   <si>
     <t xml:space="preserve">10.5653553009033</t>
   </si>
   <si>
-    <t xml:space="preserve">10.513599395752</t>
+    <t xml:space="preserve">10.5135984420776</t>
   </si>
   <si>
     <t xml:space="preserve">10.3244228363037</t>
@@ -4610,34 +4610,34 @@
     <t xml:space="preserve">10.5867729187012</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5885572433472</t>
+    <t xml:space="preserve">10.5885562896729</t>
   </si>
   <si>
     <t xml:space="preserve">10.792010307312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7598848342896</t>
+    <t xml:space="preserve">10.7598857879639</t>
   </si>
   <si>
     <t xml:space="preserve">11.0240201950073</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9954652786255</t>
+    <t xml:space="preserve">10.9954662322998</t>
   </si>
   <si>
     <t xml:space="preserve">11.140025138855</t>
   </si>
   <si>
-    <t xml:space="preserve">11.527304649353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7218341827393</t>
+    <t xml:space="preserve">11.5273027420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7218332290649</t>
   </si>
   <si>
     <t xml:space="preserve">11.827130317688</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0145215988159</t>
+    <t xml:space="preserve">12.0145225524902</t>
   </si>
   <si>
     <t xml:space="preserve">12.0734176635742</t>
@@ -4655,127 +4655,127 @@
     <t xml:space="preserve">12.6837816238403</t>
   </si>
   <si>
-    <t xml:space="preserve">12.512451171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5552835464478</t>
+    <t xml:space="preserve">12.5124521255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5552825927734</t>
   </si>
   <si>
     <t xml:space="preserve">12.740891456604</t>
   </si>
   <si>
-    <t xml:space="preserve">12.915789604187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.917573928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8122787475586</t>
+    <t xml:space="preserve">12.9157915115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9175748825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8122777938843</t>
   </si>
   <si>
     <t xml:space="preserve">12.569561958313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6605796813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1856288909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7367172241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7983531951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8563623428345</t>
+    <t xml:space="preserve">12.6605806350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1856279373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7367181777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7983522415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8563632965088</t>
   </si>
   <si>
     <t xml:space="preserve">12.9596920013428</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7059011459351</t>
+    <t xml:space="preserve">12.7059001922607</t>
   </si>
   <si>
     <t xml:space="preserve">12.8672389984131</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9832582473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7711610794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5916948318481</t>
+    <t xml:space="preserve">12.9832592010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7711620330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5916938781738</t>
   </si>
   <si>
     <t xml:space="preserve">12.5391225814819</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3650951385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1783752441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2581386566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.259952545166</t>
+    <t xml:space="preserve">12.3650941848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1783771514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2581396102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2599506378174</t>
   </si>
   <si>
     <t xml:space="preserve">12.3342771530151</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5209941864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3360891342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8285064697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6925468444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7741222381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7831869125366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.201943397522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1239938735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2146320343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2780809402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2436389923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3197736740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0424156188965</t>
+    <t xml:space="preserve">12.5209951400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3360900878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8285074234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6925458908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7741231918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7831859588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2019424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1239929199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2146310806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2780799865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2436380386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3197746276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0424165725708</t>
   </si>
   <si>
     <t xml:space="preserve">12.4249172210693</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4956150054932</t>
+    <t xml:space="preserve">12.4956159591675</t>
   </si>
   <si>
     <t xml:space="preserve">12.305272102356</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427494049072</t>
+    <t xml:space="preserve">12.5427484512329</t>
   </si>
   <si>
     <t xml:space="preserve">12.6388273239136</t>
@@ -4787,7 +4787,7 @@
     <t xml:space="preserve">12.9071207046509</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0666465759277</t>
+    <t xml:space="preserve">13.0666475296021</t>
   </si>
   <si>
     <t xml:space="preserve">13.0720853805542</t>
@@ -4796,13 +4796,13 @@
     <t xml:space="preserve">12.9868841171265</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0267648696899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1065292358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.919810295105</t>
+    <t xml:space="preserve">13.0267658233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1065282821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198112487793</t>
   </si>
   <si>
     <t xml:space="preserve">13.1029033660889</t>
@@ -4811,13 +4811,13 @@
     <t xml:space="preserve">13.0521450042725</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8527364730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7584714889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8690528869629</t>
+    <t xml:space="preserve">12.8527383804321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7584705352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8690519332886</t>
   </si>
   <si>
     <t xml:space="preserve">12.9542541503906</t>
@@ -4826,7 +4826,7 @@
     <t xml:space="preserve">12.8436727523804</t>
   </si>
   <si>
-    <t xml:space="preserve">12.81285572052</t>
+    <t xml:space="preserve">12.8128547668457</t>
   </si>
   <si>
     <t xml:space="preserve">12.5499992370605</t>
@@ -4835,7 +4835,7 @@
     <t xml:space="preserve">12.4629859924316</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5481872558594</t>
+    <t xml:space="preserve">12.5481882095337</t>
   </si>
   <si>
     <t xml:space="preserve">12.4140405654907</t>
@@ -4847,7 +4847,7 @@
     <t xml:space="preserve">12.8346090316772</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0013856887817</t>
+    <t xml:space="preserve">13.0013866424561</t>
   </si>
   <si>
     <t xml:space="preserve">13.369384765625</t>
@@ -4856,16 +4856,16 @@
     <t xml:space="preserve">13.3856992721558</t>
   </si>
   <si>
-    <t xml:space="preserve">13.438271522522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3150005340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3367538452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9615058898926</t>
+    <t xml:space="preserve">13.4382705688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3149995803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3367528915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9615049362183</t>
   </si>
   <si>
     <t xml:space="preserve">13.0068254470825</t>
@@ -4874,19 +4874,19 @@
     <t xml:space="preserve">12.9324998855591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7929134368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1076774597168</t>
+    <t xml:space="preserve">12.792914390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1076765060425</t>
   </si>
   <si>
     <t xml:space="preserve">11.9572153091431</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1457452774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1149291992188</t>
+    <t xml:space="preserve">12.1457462310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1149282455444</t>
   </si>
   <si>
     <t xml:space="preserve">11.937273979187</t>
@@ -4898,19 +4898,19 @@
     <t xml:space="preserve">12.1765632629395</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2690162658691</t>
+    <t xml:space="preserve">12.2690172195435</t>
   </si>
   <si>
     <t xml:space="preserve">12.1656856536865</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1620607376099</t>
+    <t xml:space="preserve">12.1620616912842</t>
   </si>
   <si>
     <t xml:space="preserve">12.1384944915771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1729383468628</t>
+    <t xml:space="preserve">12.1729373931885</t>
   </si>
   <si>
     <t xml:space="preserve">11.7143001556396</t>
@@ -4928,7 +4928,7 @@
     <t xml:space="preserve">11.2673206329346</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5054798126221</t>
+    <t xml:space="preserve">11.5054807662964</t>
   </si>
   <si>
     <t xml:space="preserve">11.5184030532837</t>
@@ -4943,19 +4943,19 @@
     <t xml:space="preserve">11.361475944519</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5811738967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.699330329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8950262069702</t>
+    <t xml:space="preserve">11.5811729431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6993293762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8950271606445</t>
   </si>
   <si>
     <t xml:space="preserve">11.9134893417358</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3990392684937</t>
+    <t xml:space="preserve">12.3990383148193</t>
   </si>
   <si>
     <t xml:space="preserve">12.2864208221436</t>
@@ -4976,10 +4976,10 @@
     <t xml:space="preserve">12.797815322876</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7405843734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8125848770142</t>
+    <t xml:space="preserve">12.7405853271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8125858306885</t>
   </si>
   <si>
     <t xml:space="preserve">12.8218154907227</t>
@@ -4991,40 +4991,40 @@
     <t xml:space="preserve">12.5393486022949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7073516845703</t>
+    <t xml:space="preserve">12.7073526382446</t>
   </si>
   <si>
     <t xml:space="preserve">12.7553539276123</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5670413970947</t>
+    <t xml:space="preserve">12.567042350769</t>
   </si>
   <si>
     <t xml:space="preserve">12.6888904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4451923370361</t>
+    <t xml:space="preserve">12.4451932907104</t>
   </si>
   <si>
     <t xml:space="preserve">12.1571865081787</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0353384017944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9762592315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5264253616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5947341918945</t>
+    <t xml:space="preserve">12.0353374481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9762601852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.526424407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5947351455688</t>
   </si>
   <si>
     <t xml:space="preserve">12.4802703857422</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1793422698975</t>
+    <t xml:space="preserve">12.1793413162231</t>
   </si>
   <si>
     <t xml:space="preserve">12.356575012207</t>
@@ -5060,13 +5060,13 @@
     <t xml:space="preserve">12.3799934387207</t>
   </si>
   <si>
-    <t xml:space="preserve">12.402515411377</t>
+    <t xml:space="preserve">12.4025144577026</t>
   </si>
   <si>
     <t xml:space="preserve">12.1115970611572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.683666229248</t>
+    <t xml:space="preserve">11.6836652755737</t>
   </si>
   <si>
     <t xml:space="preserve">12.0008611679077</t>
@@ -5084,10 +5084,10 @@
     <t xml:space="preserve">12.2748870849609</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3086719512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0402746200562</t>
+    <t xml:space="preserve">12.3086709976196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0402755737305</t>
   </si>
   <si>
     <t xml:space="preserve">12.1622734069824</t>
@@ -5105,19 +5105,19 @@
     <t xml:space="preserve">12.1904268264771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0271377563477</t>
+    <t xml:space="preserve">12.0271368026733</t>
   </si>
   <si>
     <t xml:space="preserve">12.2617492675781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.092827796936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0083675384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1416273117065</t>
+    <t xml:space="preserve">12.0928268432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0083665847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1416263580322</t>
   </si>
   <si>
     <t xml:space="preserve">11.9614458084106</t>
@@ -5129,7 +5129,7 @@
     <t xml:space="preserve">12.0947046279907</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3706083297729</t>
+    <t xml:space="preserve">12.3706092834473</t>
   </si>
   <si>
     <t xml:space="preserve">12.5864515304565</t>
@@ -5138,10 +5138,10 @@
     <t xml:space="preserve">12.6352500915527</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5470371246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2317180633545</t>
+    <t xml:space="preserve">12.5470361709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2317190170288</t>
   </si>
   <si>
     <t xml:space="preserve">12.2486095428467</t>
@@ -5150,7 +5150,7 @@
     <t xml:space="preserve">12.3124237060547</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4194078445435</t>
+    <t xml:space="preserve">12.4194087982178</t>
   </si>
   <si>
     <t xml:space="preserve">12.7009429931641</t>
@@ -5159,19 +5159,19 @@
     <t xml:space="preserve">12.7816486358643</t>
   </si>
   <si>
-    <t xml:space="preserve">12.599588394165</t>
+    <t xml:space="preserve">12.5995893478394</t>
   </si>
   <si>
     <t xml:space="preserve">12.4757137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">12.603343963623</t>
+    <t xml:space="preserve">12.6033430099487</t>
   </si>
   <si>
     <t xml:space="preserve">12.7065725326538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004179000854</t>
+    <t xml:space="preserve">12.8004188537598</t>
   </si>
   <si>
     <t xml:space="preserve">12.9580755233765</t>
@@ -5180,10 +5180,10 @@
     <t xml:space="preserve">12.8661088943481</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7534952163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.884877204895</t>
+    <t xml:space="preserve">12.7534942626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8848781585693</t>
   </si>
   <si>
     <t xml:space="preserve">12.8173093795776</t>
@@ -5192,13 +5192,13 @@
     <t xml:space="preserve">13.0293989181519</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9280462265015</t>
+    <t xml:space="preserve">12.9280452728271</t>
   </si>
   <si>
     <t xml:space="preserve">12.8248176574707</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8792457580566</t>
+    <t xml:space="preserve">12.879246711731</t>
   </si>
   <si>
     <t xml:space="preserve">12.8360795974731</t>
@@ -5213,10 +5213,10 @@
     <t xml:space="preserve">13.2565021514893</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1833047866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1513957977295</t>
+    <t xml:space="preserve">13.1833038330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1513967514038</t>
   </si>
   <si>
     <t xml:space="preserve">13.072566986084</t>
@@ -5225,31 +5225,31 @@
     <t xml:space="preserve">13.1138591766357</t>
   </si>
   <si>
-    <t xml:space="preserve">13.170166015625</t>
+    <t xml:space="preserve">13.1701650619507</t>
   </si>
   <si>
     <t xml:space="preserve">13.2227191925049</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2452402114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2077045440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2583789825439</t>
+    <t xml:space="preserve">13.2452411651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2077035903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2583799362183</t>
   </si>
   <si>
     <t xml:space="preserve">13.2827796936035</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4179153442383</t>
+    <t xml:space="preserve">13.417914390564</t>
   </si>
   <si>
     <t xml:space="preserve">13.4723453521729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.483606338501</t>
+    <t xml:space="preserve">13.4836072921753</t>
   </si>
   <si>
     <t xml:space="preserve">13.4047775268555</t>
@@ -5264,10 +5264,10 @@
     <t xml:space="preserve">13.9209222793579</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8815088272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.832709312439</t>
+    <t xml:space="preserve">13.8815078735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8327083587646</t>
   </si>
   <si>
     <t xml:space="preserve">13.8871383666992</t>
@@ -5844,6 +5844,9 @@
   </si>
   <si>
     <t xml:space="preserve">13.8979997634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1319999694824</t>
   </si>
 </sst>
 </file>
@@ -62189,7 +62192,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6522337963</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>7822157</v>
@@ -62210,6 +62213,32 @@
         <v>1943</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6495601852</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>12289144</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>14.173999786377</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>13.8959999084473</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>13.9020004272461</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>14.1319999694824</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENI.MI.xlsx
+++ b/data/ENI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="1945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1946">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,43 +38,43 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95015907287598</t>
+    <t xml:space="preserve">7.95016193389893</t>
   </si>
   <si>
     <t xml:space="preserve">ENI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02119445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79624795913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73705053329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51802253723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48842334747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50618267059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59497737884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70153045654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42922496795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34634971618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4469838142395</t>
+    <t xml:space="preserve">8.02119731903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79624652862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7370491027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51802158355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48842239379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50618410110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59497833251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7015323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42922449111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34634828567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44698524475098</t>
   </si>
   <si>
     <t xml:space="preserve">7.19835758209229</t>
@@ -83,40 +83,40 @@
     <t xml:space="preserve">7.67785310745239</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58313894271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74297046661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77848768234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86136245727539</t>
+    <t xml:space="preserve">7.58313798904419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74296855926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77848815917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86136341094971</t>
   </si>
   <si>
     <t xml:space="preserve">7.40554666519165</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37594938278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54169940948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41738700866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15099954605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86685466766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88461494445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47023439407349</t>
+    <t xml:space="preserve">7.37594795227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54170083999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41738653182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15099906921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86685371398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88461303710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47023296356201</t>
   </si>
   <si>
     <t xml:space="preserve">6.90237331390381</t>
@@ -128,184 +128,184 @@
     <t xml:space="preserve">7.01484775543213</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23979568481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08588409423828</t>
+    <t xml:space="preserve">7.23979663848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08588314056396</t>
   </si>
   <si>
     <t xml:space="preserve">7.05628395080566</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31083106994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97340774536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15691995620728</t>
+    <t xml:space="preserve">7.31083011627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9734091758728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15692043304443</t>
   </si>
   <si>
     <t xml:space="preserve">7.5239405632019</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66601514816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90280199050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96199798583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06855297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01527690887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04487705230713</t>
+    <t xml:space="preserve">7.66601276397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90280151367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96199703216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06855487823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0152759552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04487609863281</t>
   </si>
   <si>
     <t xml:space="preserve">7.84360361099243</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93240022659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66009426116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8850417137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92648029327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8140082359314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9146409034729</t>
+    <t xml:space="preserve">7.93240118026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66009330749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88504219055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9264817237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81400489807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91464185714722</t>
   </si>
   <si>
     <t xml:space="preserve">8.05671405792236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1277494430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16918849945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97383737564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78440856933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00343704223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87320423126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57129907608032</t>
+    <t xml:space="preserve">8.12775039672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16919136047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97383975982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78440618515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00343608856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87320327758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57130002975464</t>
   </si>
   <si>
     <t xml:space="preserve">7.55354022979736</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36410808563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44106483459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2930736541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60681629180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63049697875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67193222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97975730895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1218318939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99159717559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09223365783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22246646881104</t>
+    <t xml:space="preserve">7.36410856246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44106578826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29307222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60681772232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63049793243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67193365097046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97975826263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12182998657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99159669876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09223175048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22246551513672</t>
   </si>
   <si>
     <t xml:space="preserve">8.32901859283447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37637805938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33494091033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37045860290527</t>
+    <t xml:space="preserve">8.37637710571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33493995666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37045764923096</t>
   </si>
   <si>
     <t xml:space="preserve">8.44741535186768</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52437019348145</t>
+    <t xml:space="preserve">8.52437114715576</t>
   </si>
   <si>
     <t xml:space="preserve">8.40597629547119</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25798320770264</t>
+    <t xml:space="preserve">8.25798416137695</t>
   </si>
   <si>
     <t xml:space="preserve">8.08631324768066</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92055988311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03303623199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10407257080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80808591842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90189218521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14596462249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42664909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46936416625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43885326385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50597190856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37783336639404</t>
+    <t xml:space="preserve">7.92056035995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.033034324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10407066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80808925628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90189075469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14596366882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42665004730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46936225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4388542175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50597286224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37783432006836</t>
   </si>
   <si>
     <t xml:space="preserve">8.26189994812012</t>
@@ -314,40 +314,40 @@
     <t xml:space="preserve">8.25579738616943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18867683410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40224456787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59750080108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62190818786621</t>
+    <t xml:space="preserve">8.18867874145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40224170684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59750366210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62191009521484</t>
   </si>
   <si>
     <t xml:space="preserve">8.57919692993164</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20698165893555</t>
+    <t xml:space="preserve">8.20698356628418</t>
   </si>
   <si>
     <t xml:space="preserve">8.0544376373291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15816879272461</t>
+    <t xml:space="preserve">8.15816783905029</t>
   </si>
   <si>
     <t xml:space="preserve">8.07274150848389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39003849029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64021396636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75004863739014</t>
+    <t xml:space="preserve">8.39004039764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64021301269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75004768371582</t>
   </si>
   <si>
     <t xml:space="preserve">8.61580657958984</t>
@@ -356,64 +356,64 @@
     <t xml:space="preserve">8.89649105072021</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07884311676025</t>
+    <t xml:space="preserve">8.07884407043457</t>
   </si>
   <si>
     <t xml:space="preserve">8.33512210845947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72563934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85988140106201</t>
+    <t xml:space="preserve">8.72564029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85988235473633</t>
   </si>
   <si>
     <t xml:space="preserve">9.04293537139893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79276180267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62801170349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67682647705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84767723083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95140647888184</t>
+    <t xml:space="preserve">8.79276084899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62801074981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67682361602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84767627716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95140933990479</t>
   </si>
   <si>
     <t xml:space="preserve">9.03683471679688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92700004577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09175300598145</t>
+    <t xml:space="preserve">8.92700290679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0917501449585</t>
   </si>
   <si>
     <t xml:space="preserve">8.98191738128662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88428783416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85377883911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76835346221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71953773498535</t>
+    <t xml:space="preserve">8.88429069519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85377979278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76835536956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71953868865967</t>
   </si>
   <si>
     <t xml:space="preserve">8.68292713165283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56089115142822</t>
+    <t xml:space="preserve">8.56088924407959</t>
   </si>
   <si>
     <t xml:space="preserve">8.56699085235596</t>
@@ -422,169 +422,169 @@
     <t xml:space="preserve">8.34122467041016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34732437133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18257617950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01172637939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06664085388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08494758605957</t>
+    <t xml:space="preserve">8.34732532501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18257522583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01172542572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06663990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08494663238525</t>
   </si>
   <si>
     <t xml:space="preserve">8.28020477294922</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26800155639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2435941696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35952854156494</t>
+    <t xml:space="preserve">8.26800537109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24359321594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35952949523926</t>
   </si>
   <si>
     <t xml:space="preserve">8.38393688201904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21918773651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20088195800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31071281433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.304612159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37173461914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27410411834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99951887130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02392768859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06053924560547</t>
+    <t xml:space="preserve">8.21918964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2008810043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31071376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30461311340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37173271179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27410316467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99951839447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02392864227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06053829193115</t>
   </si>
   <si>
     <t xml:space="preserve">7.87748289108276</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99712514877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85229444503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96564054489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93415546417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78932666778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154399871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77673292160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13565921783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07268905639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11676692962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16714477539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35605144500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36864471435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56385135650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40013122558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34346008300781</t>
+    <t xml:space="preserve">7.99712419509888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85229635238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96564102172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93415594100952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78932809829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154495239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77673053741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13565731048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0726900100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11676788330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16714286804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35605430603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36864566802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56385231018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40013027191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3434591293335</t>
   </si>
   <si>
     <t xml:space="preserve">8.28678512573242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45050430297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38123989105225</t>
+    <t xml:space="preserve">8.45050525665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38124084472656</t>
   </si>
   <si>
     <t xml:space="preserve">8.5323657989502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55755424499512</t>
+    <t xml:space="preserve">8.55755519866943</t>
   </si>
   <si>
     <t xml:space="preserve">8.64571189880371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67089939117432</t>
+    <t xml:space="preserve">8.67090034484863</t>
   </si>
   <si>
     <t xml:space="preserve">8.61422729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52607154846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65830421447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50718021392822</t>
+    <t xml:space="preserve">8.52606868743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65830516815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50717926025391</t>
   </si>
   <si>
     <t xml:space="preserve">8.31826972961426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18603324890137</t>
+    <t xml:space="preserve">8.18603420257568</t>
   </si>
   <si>
     <t xml:space="preserve">8.06639385223389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00342273712158</t>
+    <t xml:space="preserve">8.0034236907959</t>
   </si>
   <si>
     <t xml:space="preserve">7.92785978317261</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04120635986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09158039093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06009483337402</t>
+    <t xml:space="preserve">8.04120349884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09157943725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06009578704834</t>
   </si>
   <si>
     <t xml:space="preserve">8.02861022949219</t>
@@ -596,37 +596,37 @@
     <t xml:space="preserve">7.72006034851074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87118625640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82080984115601</t>
+    <t xml:space="preserve">7.87118911743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82081031799316</t>
   </si>
   <si>
     <t xml:space="preserve">7.79562330245972</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91526412963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92155981063843</t>
+    <t xml:space="preserve">7.91526365280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92156219482422</t>
   </si>
   <si>
     <t xml:space="preserve">7.97193765640259</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27419185638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57014846801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62052249908447</t>
+    <t xml:space="preserve">8.27419090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57014751434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62052345275879</t>
   </si>
   <si>
     <t xml:space="preserve">8.79054164886475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87870025634766</t>
+    <t xml:space="preserve">8.87869930267334</t>
   </si>
   <si>
     <t xml:space="preserve">8.9605598449707</t>
@@ -635,148 +635,148 @@
     <t xml:space="preserve">8.97315216064453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3068904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40134716033936</t>
+    <t xml:space="preserve">9.30689144134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40134429931641</t>
   </si>
   <si>
     <t xml:space="preserve">9.36986064910889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42653179168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47690963745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42023468017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53987598419189</t>
+    <t xml:space="preserve">9.42653560638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47690773010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4202356338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53987789154053</t>
   </si>
   <si>
     <t xml:space="preserve">9.5524730682373</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65951919555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64062881469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72249031066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74138164520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84842681884766</t>
+    <t xml:space="preserve">9.65952110290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6406307220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72248935699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74137878417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84842777252197</t>
   </si>
   <si>
     <t xml:space="preserve">9.84213256835938</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87991237640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89880275726318</t>
+    <t xml:space="preserve">9.87991333007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89880561828613</t>
   </si>
   <si>
     <t xml:space="preserve">9.69100570678711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79175662994385</t>
+    <t xml:space="preserve">9.79175567626953</t>
   </si>
   <si>
     <t xml:space="preserve">9.7854585647583</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73508358001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8673210144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69730281829834</t>
+    <t xml:space="preserve">9.73508262634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86731910705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69730186462402</t>
   </si>
   <si>
     <t xml:space="preserve">9.80434989929199</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76656913757324</t>
+    <t xml:space="preserve">9.76656818389893</t>
   </si>
   <si>
     <t xml:space="preserve">9.6658182144165</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41393852233887</t>
+    <t xml:space="preserve">9.41394138336182</t>
   </si>
   <si>
     <t xml:space="preserve">9.30059432983398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06130886077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94796562194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89758968353271</t>
+    <t xml:space="preserve">9.06130981445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94796371459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89759063720703</t>
   </si>
   <si>
     <t xml:space="preserve">8.91648006439209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14946556091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94166851043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90388584136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04242134094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06760597229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15576553344727</t>
+    <t xml:space="preserve">9.1494665145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9416675567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90388679504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04241752624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06760692596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15576362609863</t>
   </si>
   <si>
     <t xml:space="preserve">9.05501365661621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89129066467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18095302581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07390403747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00463676452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1431713104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44542407989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45172214508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61544418334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50209808349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31948280334473</t>
+    <t xml:space="preserve">8.89129257202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18095207214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0739049911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.004638671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14317035675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44542503356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45172023773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61544132232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50209522247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31948566436768</t>
   </si>
   <si>
     <t xml:space="preserve">9.25651454925537</t>
@@ -785,22 +785,22 @@
     <t xml:space="preserve">9.21243762969971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22503185272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11168670654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.237624168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39504909515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3509693145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37615776062012</t>
+    <t xml:space="preserve">9.22502994537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11168575286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23762512207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39504623413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35097122192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37615871429443</t>
   </si>
   <si>
     <t xml:space="preserve">9.46431446075439</t>
@@ -812,43 +812,43 @@
     <t xml:space="preserve">9.52098751068115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64692783355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59025192260742</t>
+    <t xml:space="preserve">9.64692878723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59025287628174</t>
   </si>
   <si>
     <t xml:space="preserve">9.58395767211914</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5965518951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24392223358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25021648406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41513538360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37628173828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27267837524414</t>
+    <t xml:space="preserve">9.59655094146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24392127990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25022029876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41513347625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37628364562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27267646789551</t>
   </si>
   <si>
     <t xml:space="preserve">9.24030017852783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25972557067871</t>
+    <t xml:space="preserve">9.25972652435303</t>
   </si>
   <si>
     <t xml:space="preserve">9.22087478637695</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21439933776855</t>
+    <t xml:space="preserve">9.21439838409424</t>
   </si>
   <si>
     <t xml:space="preserve">9.44751071929932</t>
@@ -860,16 +860,16 @@
     <t xml:space="preserve">9.59644412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64824676513672</t>
+    <t xml:space="preserve">9.64824485778809</t>
   </si>
   <si>
     <t xml:space="preserve">9.64177131652832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71300029754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74537467956543</t>
+    <t xml:space="preserve">9.71299839019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74537754058838</t>
   </si>
   <si>
     <t xml:space="preserve">9.62234497070312</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">9.73890018463135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72595119476318</t>
+    <t xml:space="preserve">9.72594833374023</t>
   </si>
   <si>
     <t xml:space="preserve">9.70652389526367</t>
@@ -887,61 +887,61 @@
     <t xml:space="preserve">9.6676721572876</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48636436462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26620101928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24677467346191</t>
+    <t xml:space="preserve">9.48636150360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26620006561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24677562713623</t>
   </si>
   <si>
     <t xml:space="preserve">9.12374401092529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23382568359375</t>
+    <t xml:space="preserve">9.23382663726807</t>
   </si>
   <si>
     <t xml:space="preserve">9.09784317016602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03956508636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11079406738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92948532104492</t>
+    <t xml:space="preserve">9.03956604003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1107931137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92948341369629</t>
   </si>
   <si>
     <t xml:space="preserve">8.99423789978027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00071334838867</t>
+    <t xml:space="preserve">9.00071239471436</t>
   </si>
   <si>
     <t xml:space="preserve">9.06546688079834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96833610534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91653347015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00718879699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82587909698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87120723724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84530448913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79350280761719</t>
+    <t xml:space="preserve">8.968337059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91653442382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00718688964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82588005065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87120628356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84530735015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79350090026855</t>
   </si>
   <si>
     <t xml:space="preserve">8.80645275115967</t>
@@ -950,37 +950,37 @@
     <t xml:space="preserve">8.7546501159668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78055286407471</t>
+    <t xml:space="preserve">8.78055191040039</t>
   </si>
   <si>
     <t xml:space="preserve">8.6121940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52153873443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62514305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65104484558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52801513671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47620964050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39203071594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41793251037598</t>
+    <t xml:space="preserve">8.5215368270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62514495849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65104579925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52801418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47621250152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3920316696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41793346405029</t>
   </si>
   <si>
     <t xml:space="preserve">8.3985071182251</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54096412658691</t>
+    <t xml:space="preserve">8.5409631729126</t>
   </si>
   <si>
     <t xml:space="preserve">8.55391502380371</t>
@@ -989,64 +989,64 @@
     <t xml:space="preserve">8.57334136962891</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50858688354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50211429595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.515061378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44383335113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45678520202637</t>
+    <t xml:space="preserve">8.50858783721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50211143493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51506423950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44383430480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45678424835205</t>
   </si>
   <si>
     <t xml:space="preserve">8.58629131317139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56039142608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65751934051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72227478027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76112651824951</t>
+    <t xml:space="preserve">8.56038856506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65752029418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7222728729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7611255645752</t>
   </si>
   <si>
     <t xml:space="preserve">8.74169826507568</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77407550811768</t>
+    <t xml:space="preserve">8.77407741546631</t>
   </si>
   <si>
     <t xml:space="preserve">8.78702640533447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76760101318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7352237701416</t>
+    <t xml:space="preserve">8.76760005950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73522472381592</t>
   </si>
   <si>
     <t xml:space="preserve">8.64456844329834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68342208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5798168182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48916053771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61866664886475</t>
+    <t xml:space="preserve">8.68342113494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57981777191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48916149139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61866855621338</t>
   </si>
   <si>
     <t xml:space="preserve">8.63161849975586</t>
@@ -1055,58 +1055,58 @@
     <t xml:space="preserve">8.67047119140625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72875022888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71579837799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74817562103271</t>
+    <t xml:space="preserve">8.7287483215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71579742431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74817657470703</t>
   </si>
   <si>
     <t xml:space="preserve">8.83235549926758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94243621826172</t>
+    <t xml:space="preserve">8.9424352645874</t>
   </si>
   <si>
     <t xml:space="preserve">8.97577857971191</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02245616912842</t>
+    <t xml:space="preserve">9.02245712280273</t>
   </si>
   <si>
     <t xml:space="preserve">9.09580993652344</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16249370574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18916893005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29586219787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3292064666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2891960144043</t>
+    <t xml:space="preserve">9.16249561309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18916702270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29586505889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32920742034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28919506072998</t>
   </si>
   <si>
     <t xml:space="preserve">9.30253219604492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33587646484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31587028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38255596160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26919078826904</t>
+    <t xml:space="preserve">9.33587551116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31587219238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38255405426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26918983459473</t>
   </si>
   <si>
     <t xml:space="preserve">9.35588073730469</t>
@@ -1115,28 +1115,28 @@
     <t xml:space="preserve">9.23584842681885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28252696990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24251651763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26252174377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25585460662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1825008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22251033782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20250606536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22917747497559</t>
+    <t xml:space="preserve">9.2825288772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24251842498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26252269744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2558536529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18249988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22251224517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20250701904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22918033599854</t>
   </si>
   <si>
     <t xml:space="preserve">9.362548828125</t>
@@ -1148,67 +1148,67 @@
     <t xml:space="preserve">9.53592967987061</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58927822113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6693000793457</t>
+    <t xml:space="preserve">9.58927726745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66929912567139</t>
   </si>
   <si>
     <t xml:space="preserve">9.81600570678711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74932289123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67596912384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60928535461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54259872436523</t>
+    <t xml:space="preserve">9.74932098388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67596817016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60928440093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54259777069092</t>
   </si>
   <si>
     <t xml:space="preserve">9.42923450469971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15582466125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17583084106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24918556213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27585983276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21584415435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12915229797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20917701721191</t>
+    <t xml:space="preserve">9.1558256149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1758337020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24918460845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27585887908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21584320068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12915325164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20917415618896</t>
   </si>
   <si>
     <t xml:space="preserve">9.34921169281006</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37588787078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32253742218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30920219421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50258922576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62261867523193</t>
+    <t xml:space="preserve">9.37588691711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32254028320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30920028686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50258731842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62262058258057</t>
   </si>
   <si>
     <t xml:space="preserve">9.68263626098633</t>
@@ -1217,55 +1217,55 @@
     <t xml:space="preserve">9.80266952514648</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94937610626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94270801544189</t>
+    <t xml:space="preserve">9.94937419891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94270706176758</t>
   </si>
   <si>
     <t xml:space="preserve">9.90936374664307</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96938133239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88936042785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96271419525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97604846954346</t>
+    <t xml:space="preserve">9.96938228607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88935947418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96271228790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97605037689209</t>
   </si>
   <si>
     <t xml:space="preserve">9.95604419708252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86268424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69863891601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6599645614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72931480407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56793785095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43857002258301</t>
+    <t xml:space="preserve">9.86268615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69864082336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65996360778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7293176651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56793689727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43857097625732</t>
   </si>
   <si>
     <t xml:space="preserve">9.17183017730713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11714839935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93443202972412</t>
+    <t xml:space="preserve">9.11714935302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93443298339844</t>
   </si>
   <si>
     <t xml:space="preserve">8.99044704437256</t>
@@ -1274,22 +1274,22 @@
     <t xml:space="preserve">8.90375804901123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96110534667969</t>
+    <t xml:space="preserve">8.961106300354</t>
   </si>
   <si>
     <t xml:space="preserve">9.00511837005615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09047603607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14115619659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14382362365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.122483253479</t>
+    <t xml:space="preserve">9.09047508239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14115715026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14382266998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12248420715332</t>
   </si>
   <si>
     <t xml:space="preserve">9.19583606719971</t>
@@ -1304,52 +1304,52 @@
     <t xml:space="preserve">9.05046367645264</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92109775543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88908767700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0117883682251</t>
+    <t xml:space="preserve">8.92109680175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88908863067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01178646087646</t>
   </si>
   <si>
     <t xml:space="preserve">9.05713176727295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06380176544189</t>
+    <t xml:space="preserve">9.06380081176758</t>
   </si>
   <si>
     <t xml:space="preserve">9.14782524108887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21850967407227</t>
+    <t xml:space="preserve">9.21850872039795</t>
   </si>
   <si>
     <t xml:space="preserve">9.40256023406982</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29452991485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42256546020508</t>
+    <t xml:space="preserve">9.29453086853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42256641387939</t>
   </si>
   <si>
     <t xml:space="preserve">9.49591827392578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44923782348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40789413452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37455177307129</t>
+    <t xml:space="preserve">9.44923877716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40789604187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37455081939697</t>
   </si>
   <si>
     <t xml:space="preserve">9.46924591064453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44390392303467</t>
+    <t xml:space="preserve">9.4439058303833</t>
   </si>
   <si>
     <t xml:space="preserve">9.52792739868164</t>
@@ -1358,61 +1358,61 @@
     <t xml:space="preserve">9.62395286560059</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70664215087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9106969833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92803478240967</t>
+    <t xml:space="preserve">9.70664310455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91070079803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92803573608398</t>
   </si>
   <si>
     <t xml:space="preserve">9.99472045898438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0920820236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.154764175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2227840423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2908029556274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3014726638794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4561815261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5335340499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695709228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6375617980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7282552719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6882448196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5695457458496</t>
+    <t xml:space="preserve">10.092080116272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1547651290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2227830886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2908039093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3014717102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4561796188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5335369110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695728302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6375637054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7282543182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6882438659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.569543838501</t>
   </si>
   <si>
     <t xml:space="preserve">10.7829351425171</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7749366760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8029432296753</t>
+    <t xml:space="preserve">10.7749357223511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.802942276001</t>
   </si>
   <si>
     <t xml:space="preserve">10.8842973709106</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">11.112359046936</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8269481658936</t>
+    <t xml:space="preserve">10.8269472122192</t>
   </si>
   <si>
     <t xml:space="preserve">11.1270303726196</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9416484832764</t>
+    <t xml:space="preserve">10.9416456222534</t>
   </si>
   <si>
     <t xml:space="preserve">10.9629850387573</t>
   </si>
   <si>
-    <t xml:space="preserve">11.120361328125</t>
+    <t xml:space="preserve">11.1203632354736</t>
   </si>
   <si>
     <t xml:space="preserve">11.1790456771851</t>
@@ -1448,88 +1448,88 @@
     <t xml:space="preserve">11.0283374786377</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0710134506226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0376720428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9502010345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0035047531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8818655014038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7820949554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5142183303833</t>
+    <t xml:space="preserve">11.0710144042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.037672996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9502019882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0035037994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8818664550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.78209400177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.514217376709</t>
   </si>
   <si>
     <t xml:space="preserve">10.301007270813</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3146753311157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5852851867676</t>
+    <t xml:space="preserve">10.3146743774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5852861404419</t>
   </si>
   <si>
     <t xml:space="preserve">10.7506608963013</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6508893966675</t>
+    <t xml:space="preserve">10.6508922576904</t>
   </si>
   <si>
     <t xml:space="preserve">10.5593185424805</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5579528808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6809587478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4035120010376</t>
+    <t xml:space="preserve">10.5579509735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6809577941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4035139083862</t>
   </si>
   <si>
     <t xml:space="preserve">10.7069253921509</t>
   </si>
   <si>
-    <t xml:space="preserve">10.60032081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8066968917847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6139879226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6194534301758</t>
+    <t xml:space="preserve">10.6003198623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8066940307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6139869689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6194553375244</t>
   </si>
   <si>
     <t xml:space="preserve">10.5470180511475</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3611440658569</t>
+    <t xml:space="preserve">10.3611431121826</t>
   </si>
   <si>
     <t xml:space="preserve">10.6850576400757</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4431467056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5456523895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8367643356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8722991943359</t>
+    <t xml:space="preserve">10.4431457519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5456514358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.836763381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8722982406616</t>
   </si>
   <si>
     <t xml:space="preserve">10.8695659637451</t>
@@ -1538,16 +1538,16 @@
     <t xml:space="preserve">10.7793626785278</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0404052734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0335721969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0814075469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0568056106567</t>
+    <t xml:space="preserve">11.0404071807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0335712432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0814094543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0568065643311</t>
   </si>
   <si>
     <t xml:space="preserve">11.1497440338135</t>
@@ -1556,7 +1556,7 @@
     <t xml:space="preserve">11.2959842681885</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1060085296631</t>
+    <t xml:space="preserve">11.1060094833374</t>
   </si>
   <si>
     <t xml:space="preserve">11.111475944519</t>
@@ -1571,112 +1571,112 @@
     <t xml:space="preserve">11.0281057357788</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0267391204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.988471031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9925699234009</t>
+    <t xml:space="preserve">11.0267381668091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9884700775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9925727844238</t>
   </si>
   <si>
     <t xml:space="preserve">11.0226373672485</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0964412689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0896091461182</t>
+    <t xml:space="preserve">11.0964422225952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0896072387695</t>
   </si>
   <si>
     <t xml:space="preserve">11.1456432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0704727172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.129243850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.250883102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1675119400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0732069015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1333408355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3506536483765</t>
+    <t xml:space="preserve">11.0704746246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1292419433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2508821487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1675100326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0732088088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1333427429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3506517410278</t>
   </si>
   <si>
     <t xml:space="preserve">11.2754831314087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1975784301758</t>
+    <t xml:space="preserve">11.1975793838501</t>
   </si>
   <si>
     <t xml:space="preserve">10.903733253479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9050979614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0117053985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8736639022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8135299682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9420003890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0527057647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1524782180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0937070846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2071466445923</t>
+    <t xml:space="preserve">10.9050989151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0117044448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8736658096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.813530921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9420013427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0527067184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1524753570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0937080383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.207145690918</t>
   </si>
   <si>
     <t xml:space="preserve">11.2290143966675</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2098808288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9201326370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9912023544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0185384750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9064664840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8148965835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7465591430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8312978744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8517990112305</t>
+    <t xml:space="preserve">11.2098789215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9201335906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9912042617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0185394287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9064674377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8148956298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.746561050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8312969207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8517980575562</t>
   </si>
   <si>
     <t xml:space="preserve">10.946102142334</t>
@@ -1685,40 +1685,40 @@
     <t xml:space="preserve">10.9256000518799</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9242343902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240030288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.164776802063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3322219848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6071805953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.640851020813</t>
+    <t xml:space="preserve">10.9242353439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240039825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1647806167603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3322238922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6071815490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6408491134644</t>
   </si>
   <si>
     <t xml:space="preserve">11.5959587097168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4206027984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4472560882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4626884460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4865369796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4177951812744</t>
+    <t xml:space="preserve">11.4206018447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4472541809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4626865386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4865350723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.417797088623</t>
   </si>
   <si>
     <t xml:space="preserve">11.4107809066772</t>
@@ -1727,13 +1727,13 @@
     <t xml:space="preserve">11.1147804260254</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4065742492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308200836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0193881988525</t>
+    <t xml:space="preserve">11.4065713882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308191299438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0193872451782</t>
   </si>
   <si>
     <t xml:space="preserve">10.9562587738037</t>
@@ -1745,34 +1745,34 @@
     <t xml:space="preserve">11.1049604415894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9310083389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7261905670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7949314117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6434230804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4863033294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.326379776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.503137588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.61536693573</t>
+    <t xml:space="preserve">10.9310073852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7261924743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7949304580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.64342212677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4863052368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3263788223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5031385421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6153650283813</t>
   </si>
   <si>
     <t xml:space="preserve">10.7752923965454</t>
   </si>
   <si>
-    <t xml:space="preserve">10.79212474823</t>
+    <t xml:space="preserve">10.7921257019043</t>
   </si>
   <si>
     <t xml:space="preserve">11.0165815353394</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">10.7584562301636</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9660797119141</t>
+    <t xml:space="preserve">10.9660778045654</t>
   </si>
   <si>
     <t xml:space="preserve">10.9239931106567</t>
@@ -1799,58 +1799,58 @@
     <t xml:space="preserve">10.8412246704102</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8636713027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6251859664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4694700241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5045394897461</t>
+    <t xml:space="preserve">10.8636703491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6251840591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4694690704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5045404434204</t>
   </si>
   <si>
     <t xml:space="preserve">10.4512319564819</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3249769210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1369953155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2604455947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0416011810303</t>
+    <t xml:space="preserve">10.3249759674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1369934082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.260443687439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.041600227356</t>
   </si>
   <si>
     <t xml:space="preserve">9.86203670501709</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0275707244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95602798461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92797183990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97145557403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9925012588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1790790557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1103391647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0233640670776</t>
+    <t xml:space="preserve">10.0275716781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95602703094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92797088623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97145652770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99250030517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1790781021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1103410720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.023362159729</t>
   </si>
   <si>
     <t xml:space="preserve">9.70351409912109</t>
@@ -1859,109 +1859,109 @@
     <t xml:space="preserve">9.8999137878418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77786254882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86624336242676</t>
+    <t xml:space="preserve">9.77786540985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86624431610107</t>
   </si>
   <si>
     <t xml:space="preserve">9.98548698425293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0037221908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92376136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79189205169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68948554992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78487777709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69790267944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66142845153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48326587677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64319229125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66563606262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70772171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0584354400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97005558013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9083309173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99951457977295</t>
+    <t xml:space="preserve">10.0037240982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92376232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79189300537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68948650360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78487968444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69790363311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66142749786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48326778411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64319133758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66563510894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70772361755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0584363937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97005462646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90832996368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99951648712158</t>
   </si>
   <si>
     <t xml:space="preserve">9.98969459533691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9391918182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90412044525146</t>
+    <t xml:space="preserve">9.93919277191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90412139892578</t>
   </si>
   <si>
     <t xml:space="preserve">9.99530696868896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0163488388062</t>
+    <t xml:space="preserve">10.0163478851318</t>
   </si>
   <si>
     <t xml:space="preserve">9.97286224365234</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2464179992676</t>
+    <t xml:space="preserve">10.2464170455933</t>
   </si>
   <si>
     <t xml:space="preserve">10.2029275894165</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1538276672363</t>
+    <t xml:space="preserve">10.1538286209106</t>
   </si>
   <si>
     <t xml:space="preserve">10.111743927002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2211647033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1229667663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1860942840576</t>
+    <t xml:space="preserve">10.2211666107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1229658126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1860933303833</t>
   </si>
   <si>
     <t xml:space="preserve">10.2716684341431</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3853006362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3614511489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3712720870972</t>
+    <t xml:space="preserve">10.3852977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3614492416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3712701797485</t>
   </si>
   <si>
     <t xml:space="preserve">10.4792890548706</t>
@@ -1973,58 +1973,58 @@
     <t xml:space="preserve">10.1945123672485</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1818866729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2758769989014</t>
+    <t xml:space="preserve">10.181884765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2758760452271</t>
   </si>
   <si>
     <t xml:space="preserve">10.350227355957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4203701019287</t>
+    <t xml:space="preserve">10.4203720092773</t>
   </si>
   <si>
     <t xml:space="preserve">10.3670606613159</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6055469512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6448259353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6602573394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6981344223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7107610702515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7233848571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6700792312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6686754226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6770906448364</t>
+    <t xml:space="preserve">10.6055450439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6448268890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6602582931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6981334686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7107591629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7233867645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6700782775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6686744689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6770915985107</t>
   </si>
   <si>
     <t xml:space="preserve">10.6378126144409</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5480289459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5985307693481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6504364013672</t>
+    <t xml:space="preserve">10.5480298995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5985317230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6504373550415</t>
   </si>
   <si>
     <t xml:space="preserve">10.7177743911743</t>
@@ -2033,70 +2033,70 @@
     <t xml:space="preserve">10.4989309310913</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6069498062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6364088058472</t>
+    <t xml:space="preserve">10.6069488525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6364068984985</t>
   </si>
   <si>
     <t xml:space="preserve">10.9029502868652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8987426757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9338140487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0432367324829</t>
+    <t xml:space="preserve">10.8987417221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9338159561157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0432348251343</t>
   </si>
   <si>
     <t xml:space="preserve">11.1456441879272</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0656814575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1035566329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0123729705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9590635299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9534530639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9352169036865</t>
+    <t xml:space="preserve">11.0656824111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1035585403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0123720169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9590644836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9534521102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9352149963379</t>
   </si>
   <si>
     <t xml:space="preserve">10.8580589294434</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0502500534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0755014419556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.155463218689</t>
+    <t xml:space="preserve">11.0502490997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0755004882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1554622650146</t>
   </si>
   <si>
     <t xml:space="preserve">11.0516519546509</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1161823272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0923347473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1442413330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1807146072388</t>
+    <t xml:space="preserve">11.1161832809448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0923337936401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1442394256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1807136535645</t>
   </si>
   <si>
     <t xml:space="preserve">11.1694927215576</t>
@@ -2108,67 +2108,67 @@
     <t xml:space="preserve">10.9913301467896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8229875564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8243923187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0811109542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9071588516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8762950897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7612638473511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5901165008545</t>
+    <t xml:space="preserve">10.8229885101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8243913650513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.081111907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9071607589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.876296043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7612628936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5901145935059</t>
   </si>
   <si>
     <t xml:space="preserve">10.6742858886719</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5452251434326</t>
+    <t xml:space="preserve">10.545223236084</t>
   </si>
   <si>
     <t xml:space="preserve">10.583101272583</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4315938949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1636476516724</t>
+    <t xml:space="preserve">10.4315919876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1636486053467</t>
   </si>
   <si>
     <t xml:space="preserve">10.1566352844238</t>
   </si>
   <si>
-    <t xml:space="preserve">10.047212600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0065298080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1159515380859</t>
+    <t xml:space="preserve">10.0472116470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0065279006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1159505844116</t>
   </si>
   <si>
     <t xml:space="preserve">10.2436122894287</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1832876205444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.346019744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4091463088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3990478515625</t>
+    <t xml:space="preserve">10.1832885742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3460187911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4091482162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3990488052368</t>
   </si>
   <si>
     <t xml:space="preserve">10.4884958267212</t>
@@ -2180,25 +2180,25 @@
     <t xml:space="preserve">10.0412559509277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.13791847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1494588851929</t>
+    <t xml:space="preserve">10.1379165649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1494579315186</t>
   </si>
   <si>
     <t xml:space="preserve">10.1177206039429</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90708446502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87678718566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79599666595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9691219329834</t>
+    <t xml:space="preserve">9.90708351135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87678623199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79599285125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96912097930908</t>
   </si>
   <si>
     <t xml:space="preserve">10.11194896698</t>
@@ -2207,13 +2207,13 @@
     <t xml:space="preserve">10.0037460327148</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0268297195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0701093673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0989665985107</t>
+    <t xml:space="preserve">10.0268287658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0701103210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0989646911621</t>
   </si>
   <si>
     <t xml:space="preserve">10.1321458816528</t>
@@ -2222,34 +2222,34 @@
     <t xml:space="preserve">10.0297155380249</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0585689544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0051908493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2114973068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2591066360474</t>
+    <t xml:space="preserve">10.0585670471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0051879882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2114953994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.259105682373</t>
   </si>
   <si>
     <t xml:space="preserve">10.3572082519531</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5361051559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.475510597229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4163618087769</t>
+    <t xml:space="preserve">10.5361061096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4755115509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4163608551025</t>
   </si>
   <si>
     <t xml:space="preserve">10.4654130935669</t>
   </si>
   <si>
-    <t xml:space="preserve">10.435115814209</t>
+    <t xml:space="preserve">10.4351148605347</t>
   </si>
   <si>
     <t xml:space="preserve">10.5606317520142</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">10.5707302093506</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6082420349121</t>
+    <t xml:space="preserve">10.6082391738892</t>
   </si>
   <si>
     <t xml:space="preserve">10.6760482788086</t>
@@ -2279,43 +2279,43 @@
     <t xml:space="preserve">10.6948041915894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6125679016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793876647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3976039886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3153696060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.257661819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3269119262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3802947998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3514385223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3427829742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2778596878052</t>
+    <t xml:space="preserve">10.6125688552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793867111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3976068496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3153686523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2576627731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3269128799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3802928924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3514394760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3427801132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2778606414795</t>
   </si>
   <si>
     <t xml:space="preserve">10.1667718887329</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2461214065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1682147979736</t>
+    <t xml:space="preserve">10.2461204528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.168212890625</t>
   </si>
   <si>
     <t xml:space="preserve">9.86813068389893</t>
@@ -2324,22 +2324,22 @@
     <t xml:space="preserve">9.7238597869873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65460872650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51755046844482</t>
+    <t xml:space="preserve">9.65461158752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51755332946777</t>
   </si>
   <si>
     <t xml:space="preserve">9.69067859649658</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51611042022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50024127960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68057918548584</t>
+    <t xml:space="preserve">9.51610946655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50023937225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68057823181152</t>
   </si>
   <si>
     <t xml:space="preserve">9.45118713378906</t>
@@ -2351,16 +2351,16 @@
     <t xml:space="preserve">9.57526111602783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48148441314697</t>
+    <t xml:space="preserve">9.48148536682129</t>
   </si>
   <si>
     <t xml:space="preserve">9.63008308410645</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60267353057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48004245758057</t>
+    <t xml:space="preserve">9.60267162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4800443649292</t>
   </si>
   <si>
     <t xml:space="preserve">9.53486442565918</t>
@@ -2369,40 +2369,40 @@
     <t xml:space="preserve">9.595458984375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66615009307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82340621948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89121341705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81186771392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86091613769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93305397033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0426998138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1725425720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.15234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1307039260864</t>
+    <t xml:space="preserve">9.66615295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82340812683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89121437072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81186389923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86091709136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93305206298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0426969528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1725416183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1523447036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1307029724121</t>
   </si>
   <si>
     <t xml:space="preserve">10.3254709243774</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2086114883423</t>
+    <t xml:space="preserve">10.2086095809937</t>
   </si>
   <si>
     <t xml:space="preserve">10.3326826095581</t>
@@ -2411,37 +2411,37 @@
     <t xml:space="preserve">10.4971523284912</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5105333328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4034938812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3038892745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3574075698853</t>
+    <t xml:space="preserve">10.5105314254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4034957885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3038902282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3574094772339</t>
   </si>
   <si>
     <t xml:space="preserve">10.446605682373</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4317407608032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3915996551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0764322280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96642208099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0675134658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1477918624878</t>
+    <t xml:space="preserve">10.4317398071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3916006088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.076434135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96642017364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.067512512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1477937698364</t>
   </si>
   <si>
     <t xml:space="preserve">10.0600805282593</t>
@@ -2450,181 +2450,181 @@
     <t xml:space="preserve">10.1091394424438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1700925827026</t>
+    <t xml:space="preserve">10.1700897216797</t>
   </si>
   <si>
     <t xml:space="preserve">10.2845621109009</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2161750793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2860488891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2696962356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2429361343384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3722763061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4599857330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5090456008911</t>
+    <t xml:space="preserve">10.2161779403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2860507965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2696971893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2429351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.372275352478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4599866867065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5090446472168</t>
   </si>
   <si>
     <t xml:space="preserve">10.4361991882324</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3603801727295</t>
+    <t xml:space="preserve">10.3603820800781</t>
   </si>
   <si>
     <t xml:space="preserve">10.2786159515381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1819849014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0868406295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1864452362061</t>
+    <t xml:space="preserve">10.1819839477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.086838722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1864433288574</t>
   </si>
   <si>
     <t xml:space="preserve">10.3871421813965</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5536432266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5283727645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5372896194458</t>
+    <t xml:space="preserve">10.5536441802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5283708572388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5372905731201</t>
   </si>
   <si>
     <t xml:space="preserve">10.5476970672607</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5075578689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.595269203186</t>
+    <t xml:space="preserve">10.5075597763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5952711105347</t>
   </si>
   <si>
     <t xml:space="preserve">10.5417518615723</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5699987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4882307052612</t>
+    <t xml:space="preserve">10.5699977874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4882326126099</t>
   </si>
   <si>
     <t xml:space="preserve">10.3841667175293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4153861999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4376859664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4421463012695</t>
+    <t xml:space="preserve">10.4153871536255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4376850128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4421472549438</t>
   </si>
   <si>
     <t xml:space="preserve">10.355920791626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3247032165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2578039169312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1938772201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0883255004883</t>
+    <t xml:space="preserve">10.3247022628784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2578048706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1938762664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0883274078369</t>
   </si>
   <si>
     <t xml:space="preserve">10.0199403762817</t>
   </si>
   <si>
-    <t xml:space="preserve">10.141845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2355060577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1284656524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1581993103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1031942367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1463050842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1121110916138</t>
+    <t xml:space="preserve">10.1418447494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2355041503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1284666061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1581983566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1031913757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1463041305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1121129989624</t>
   </si>
   <si>
     <t xml:space="preserve">10.1269788742065</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1849584579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2711839675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2919950485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.418360710144</t>
+    <t xml:space="preserve">10.1849575042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.271183013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2919960021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4183597564697</t>
   </si>
   <si>
     <t xml:space="preserve">10.4064674377441</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4124145507812</t>
+    <t xml:space="preserve">10.4124135971069</t>
   </si>
   <si>
     <t xml:space="preserve">10.4852590560913</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6413536071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6443290710449</t>
+    <t xml:space="preserve">10.6413555145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6443300247192</t>
   </si>
   <si>
     <t xml:space="preserve">10.559591293335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4807977676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3128080368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2563161849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3232154846191</t>
+    <t xml:space="preserve">10.4807987213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3128089904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2563171386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3232145309448</t>
   </si>
   <si>
     <t xml:space="preserve">10.3440284729004</t>
   </si>
   <si>
-    <t xml:space="preserve">10.318754196167</t>
+    <t xml:space="preserve">10.3187551498413</t>
   </si>
   <si>
     <t xml:space="preserve">10.077919960022</t>
@@ -2633,52 +2633,52 @@
     <t xml:space="preserve">10.0035886764526</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0125074386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80883884429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95898914337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87722396850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60813999176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40893363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37325477600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50556468963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6839599609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64084911346436</t>
+    <t xml:space="preserve">10.012508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80883979797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9589900970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87722301483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60814094543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40893268585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37325286865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50556564331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68396186828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64085006713867</t>
   </si>
   <si>
     <t xml:space="preserve">9.59327602386475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49961757659912</t>
+    <t xml:space="preserve">9.49961853027344</t>
   </si>
   <si>
     <t xml:space="preserve">9.73748016357422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65422916412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5828685760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59624862670898</t>
+    <t xml:space="preserve">9.65422821044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58286952972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59624767303467</t>
   </si>
   <si>
     <t xml:space="preserve">9.61706256866455</t>
@@ -2687,43 +2687,43 @@
     <t xml:space="preserve">9.58881664276123</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48772430419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04470729827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90198993682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96740245819092</t>
+    <t xml:space="preserve">9.48772525787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04470634460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9019889831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96739959716797</t>
   </si>
   <si>
     <t xml:space="preserve">8.73994636535645</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29395484924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26422119140625</t>
+    <t xml:space="preserve">8.29395389556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26422023773193</t>
   </si>
   <si>
     <t xml:space="preserve">8.26570796966553</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28949546813965</t>
+    <t xml:space="preserve">8.28949451446533</t>
   </si>
   <si>
     <t xml:space="preserve">8.15272426605225</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60712766647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0208854675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06920146942139</t>
+    <t xml:space="preserve">7.60712814331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02088499069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06920051574707</t>
   </si>
   <si>
     <t xml:space="preserve">5.98371887207031</t>
@@ -2738,13 +2738,13 @@
     <t xml:space="preserve">4.82562732696533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10362911224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97577810287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17721748352051</t>
+    <t xml:space="preserve">5.10362958908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97577857971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17721700668335</t>
   </si>
   <si>
     <t xml:space="preserve">5.42102670669556</t>
@@ -2753,145 +2753,145 @@
     <t xml:space="preserve">5.41656589508057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22529649734497</t>
+    <t xml:space="preserve">6.22529745101929</t>
   </si>
   <si>
     <t xml:space="preserve">6.48397064208984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47505187988281</t>
+    <t xml:space="preserve">6.47505283355713</t>
   </si>
   <si>
     <t xml:space="preserve">6.10785245895386</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3873405456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85340261459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83853530883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31277322769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93144989013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92401742935181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00801372528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90915107727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91881370544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81400585174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37916469573975</t>
+    <t xml:space="preserve">6.38734102249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85340166091919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83853483200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31277370452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93144941329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92401599884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00801277160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90915155410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91881322860718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81400680541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37916421890259</t>
   </si>
   <si>
     <t xml:space="preserve">6.284019947052</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38288116455078</t>
+    <t xml:space="preserve">6.38288021087646</t>
   </si>
   <si>
     <t xml:space="preserve">6.26915264129639</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91681957244873</t>
+    <t xml:space="preserve">5.91682004928589</t>
   </si>
   <si>
     <t xml:space="preserve">6.20522785186768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29739952087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13238191604614</t>
+    <t xml:space="preserve">6.29739999771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13238286972046</t>
   </si>
   <si>
     <t xml:space="preserve">6.24685382843018</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45498275756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65790843963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47728252410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10339307785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45721387863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26097679138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35983753204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4155855178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33679580688477</t>
+    <t xml:space="preserve">6.45498323440552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65790796279907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4772834777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1033935546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45721435546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26097774505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35983800888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41558694839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33679533004761</t>
   </si>
   <si>
     <t xml:space="preserve">6.32861804962158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33307981491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77694129943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56322908401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59845685958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43641138076782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3988356590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4661602973938</t>
+    <t xml:space="preserve">6.33307886123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77694082260132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56323003768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59845733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43641185760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39883613586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46615886688232</t>
   </si>
   <si>
     <t xml:space="preserve">6.47711896896362</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61489629745483</t>
+    <t xml:space="preserve">6.61489725112915</t>
   </si>
   <si>
     <t xml:space="preserve">6.6477746963501</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35891151428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52878570556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8661847114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04466819763184</t>
+    <t xml:space="preserve">6.35891056060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52878618240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86618423461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04466915130615</t>
   </si>
   <si>
     <t xml:space="preserve">7.01727056503296</t>
@@ -2900,76 +2900,76 @@
     <t xml:space="preserve">7.44156217575073</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56524801254272</t>
+    <t xml:space="preserve">7.56524753570557</t>
   </si>
   <si>
     <t xml:space="preserve">7.33979558944702</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22550106048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71744585037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72214508056641</t>
+    <t xml:space="preserve">7.22550201416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71744728088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72214317321777</t>
   </si>
   <si>
     <t xml:space="preserve">6.71666383743286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99456882476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96403741836548</t>
+    <t xml:space="preserve">6.99456787109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96403884887695</t>
   </si>
   <si>
     <t xml:space="preserve">6.91628551483154</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9468150138855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89123439788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63211822509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63916349411011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57340574264526</t>
+    <t xml:space="preserve">6.94681549072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8912353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63211917877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63916397094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5734076499939</t>
   </si>
   <si>
     <t xml:space="preserve">6.75189161300659</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64620923995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63446760177612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82626104354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79024982452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85600852966309</t>
+    <t xml:space="preserve">6.64620971679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63446664810181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82626056671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79024934768677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85600805282593</t>
   </si>
   <si>
     <t xml:space="preserve">6.90454196929932</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80903768539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.602370262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77929019927979</t>
+    <t xml:space="preserve">6.8090386390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60237121582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77929067611694</t>
   </si>
   <si>
     <t xml:space="preserve">6.87557792663574</t>
@@ -2978,25 +2978,25 @@
     <t xml:space="preserve">6.91706800460815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96325540542603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8990626335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8740119934082</t>
+    <t xml:space="preserve">6.96325492858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89906358718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87401342391968</t>
   </si>
   <si>
     <t xml:space="preserve">6.98987102508545</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81608247756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73310279846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66969585418701</t>
+    <t xml:space="preserve">6.81608200073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73310375213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6696949005127</t>
   </si>
   <si>
     <t xml:space="preserve">6.62507295608521</t>
@@ -3008,28 +3008,28 @@
     <t xml:space="preserve">6.58358287811279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12014865875244</t>
+    <t xml:space="preserve">6.1201491355896</t>
   </si>
   <si>
     <t xml:space="preserve">5.90330600738525</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89782571792603</t>
+    <t xml:space="preserve">5.89782619476318</t>
   </si>
   <si>
     <t xml:space="preserve">6.15224552154541</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33777475357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21722030639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11075592041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25166463851929</t>
+    <t xml:space="preserve">6.3377742767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21721982955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11075496673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25166416168213</t>
   </si>
   <si>
     <t xml:space="preserve">6.45363426208496</t>
@@ -3038,40 +3038,40 @@
     <t xml:space="preserve">6.55461835861206</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45441675186157</t>
+    <t xml:space="preserve">6.45441722869873</t>
   </si>
   <si>
     <t xml:space="preserve">6.40275049209595</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34090757369995</t>
+    <t xml:space="preserve">6.34090709686279</t>
   </si>
   <si>
     <t xml:space="preserve">6.30489683151245</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36282539367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21173906326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16320514678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41214370727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32368469238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23287677764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10605812072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08727025985718</t>
+    <t xml:space="preserve">6.36282682418823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21174001693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16320466995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41214466094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32368516921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23287630081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1060585975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08727073669434</t>
   </si>
   <si>
     <t xml:space="preserve">6.00898694992065</t>
@@ -3080,28 +3080,28 @@
     <t xml:space="preserve">6.02464389801025</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98472023010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08492279052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88608312606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97141122817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96984672546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94870948791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85242128372192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95888662338257</t>
+    <t xml:space="preserve">5.98471975326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08492136001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88608360290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97141170501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96984577178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94871044158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85242176055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95888710021973</t>
   </si>
   <si>
     <t xml:space="preserve">5.98941707611084</t>
@@ -3113,19 +3113,19 @@
     <t xml:space="preserve">5.78353357315063</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53048324584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61483383178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51297664642334</t>
+    <t xml:space="preserve">5.53048372268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61483335494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5129771232605</t>
   </si>
   <si>
     <t xml:space="preserve">5.42066955566406</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3227915763855</t>
+    <t xml:space="preserve">5.32279205322266</t>
   </si>
   <si>
     <t xml:space="preserve">5.45886611938477</t>
@@ -3137,55 +3137,55 @@
     <t xml:space="preserve">5.32199573516846</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14215707778931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17000770568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3235878944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50501918792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35541820526123</t>
+    <t xml:space="preserve">5.14215612411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17000675201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32358837127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5050196647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35541772842407</t>
   </si>
   <si>
     <t xml:space="preserve">5.47876024246216</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46045732498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42624092102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32040548324585</t>
+    <t xml:space="preserve">5.46045684814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42623996734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32040452957153</t>
   </si>
   <si>
     <t xml:space="preserve">5.32995414733887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10714340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22252798080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24083089828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2217321395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04507446289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04586982727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12783288955688</t>
+    <t xml:space="preserve">5.10714292526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22252702713013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24082946777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22173166275024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04507350921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04587030410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12783241271973</t>
   </si>
   <si>
     <t xml:space="preserve">4.96947765350342</t>
@@ -3200,10 +3200,10 @@
     <t xml:space="preserve">4.70926713943481</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78327178955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06258106231689</t>
+    <t xml:space="preserve">4.78327131271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06258153915405</t>
   </si>
   <si>
     <t xml:space="preserve">5.18353509902954</t>
@@ -3212,94 +3212,94 @@
     <t xml:space="preserve">5.24958229064941</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24878740310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2058162689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87106609344482</t>
+    <t xml:space="preserve">5.24878692626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20581579208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87106561660767</t>
   </si>
   <si>
     <t xml:space="preserve">6.10979175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04135704040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06204605102539</t>
+    <t xml:space="preserve">6.04135799407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06204652786255</t>
   </si>
   <si>
     <t xml:space="preserve">6.09546852111816</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34056091308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4344596862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52040147781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42729663848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46549367904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62862253189087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85939073562622</t>
+    <t xml:space="preserve">6.34055995941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43446016311646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52040100097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42729711532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46549320220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62862300872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85939168930054</t>
   </si>
   <si>
     <t xml:space="preserve">6.90077066421509</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81005334854126</t>
+    <t xml:space="preserve">6.81005430221558</t>
   </si>
   <si>
     <t xml:space="preserve">6.82915258407593</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60713815689087</t>
+    <t xml:space="preserve">6.60713768005371</t>
   </si>
   <si>
     <t xml:space="preserve">6.69626188278198</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76310443878174</t>
+    <t xml:space="preserve">6.76310586929321</t>
   </si>
   <si>
     <t xml:space="preserve">6.72570466995239</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95806455612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97636699676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99466896057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03684425354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11084938049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00899314880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90554571151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96443128585815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96761322021484</t>
+    <t xml:space="preserve">6.95806550979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97636747360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99466848373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03684520721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11084985733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00899219512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90554523468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.964430809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96761274337769</t>
   </si>
   <si>
     <t xml:space="preserve">6.93180513381958</t>
@@ -3308,79 +3308,79 @@
     <t xml:space="preserve">6.86018705368042</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56018781661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65249443054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83074426651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84029340744019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8132381439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80209732055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72252225875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97159147262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19997453689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21588897705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18564987182617</t>
+    <t xml:space="preserve">6.56018829345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65249586105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83074331283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84029388427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81323719024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8020977973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72252035140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97159194946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19997358322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2158899307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18564939498901</t>
   </si>
   <si>
     <t xml:space="preserve">7.1442699432373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20474672317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20952224731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1657567024231</t>
+    <t xml:space="preserve">7.20474863052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20952272415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16575622558594</t>
   </si>
   <si>
     <t xml:space="preserve">7.02729511260986</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0471887588501</t>
+    <t xml:space="preserve">7.04718923568726</t>
   </si>
   <si>
     <t xml:space="preserve">7.02411222457886</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08299779891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89758634567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79732179641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64692544937134</t>
+    <t xml:space="preserve">7.08299875259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89758729934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79732227325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64692497253418</t>
   </si>
   <si>
     <t xml:space="preserve">6.78618192672729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80130100250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64613008499146</t>
+    <t xml:space="preserve">6.80130195617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6461296081543</t>
   </si>
   <si>
     <t xml:space="preserve">6.52517461776733</t>
@@ -3389,34 +3389,34 @@
     <t xml:space="preserve">6.61350393295288</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75514793395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81960439682007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85223054885864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90793180465698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98273324966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03764057159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98432445526123</t>
+    <t xml:space="preserve">6.7551474571228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81960391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8522310256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90793228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98273372650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03763961791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98432397842407</t>
   </si>
   <si>
     <t xml:space="preserve">7.06549119949341</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25965452194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22464179992676</t>
+    <t xml:space="preserve">7.25965547561646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2246413230896</t>
   </si>
   <si>
     <t xml:space="preserve">7.29148483276367</t>
@@ -3428,10 +3428,10 @@
     <t xml:space="preserve">7.31933641433716</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44506502151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4991774559021</t>
+    <t xml:space="preserve">7.44506645202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49917602539062</t>
   </si>
   <si>
     <t xml:space="preserve">7.62092733383179</t>
@@ -3440,16 +3440,16 @@
     <t xml:space="preserve">7.70288944244385</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5453314781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60819482803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55328941345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68697547912598</t>
+    <t xml:space="preserve">7.54533100128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60819530487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55328798294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68697452545166</t>
   </si>
   <si>
     <t xml:space="preserve">7.85885763168335</t>
@@ -3461,43 +3461,43 @@
     <t xml:space="preserve">8.1007661819458</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06893634796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13259506225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19625663757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29015445709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22331237792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14851093292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22649478912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09599304199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07370948791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94161462783813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15328502655029</t>
+    <t xml:space="preserve">8.06893539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13259601593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19625568389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29015636444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22331142425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14851188659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22649383544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09599018096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07371044158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94161415100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15328598022461</t>
   </si>
   <si>
     <t xml:space="preserve">8.04665565490723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14214515686035</t>
+    <t xml:space="preserve">8.14214611053467</t>
   </si>
   <si>
     <t xml:space="preserve">8.23445129394531</t>
@@ -3506,58 +3506,58 @@
     <t xml:space="preserve">8.28538131713867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35063171386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41110897064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33471584320068</t>
+    <t xml:space="preserve">8.3506326675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41110992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.334716796875</t>
   </si>
   <si>
     <t xml:space="preserve">8.32039451599121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16442584991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11668109893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08644104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13737106323242</t>
+    <t xml:space="preserve">8.16442489624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1166820526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08644199371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13737010955811</t>
   </si>
   <si>
     <t xml:space="preserve">8.34585762023926</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24718475341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23604393005371</t>
+    <t xml:space="preserve">8.24718570709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23604488372803</t>
   </si>
   <si>
     <t xml:space="preserve">8.21535396575928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01641654968262</t>
+    <t xml:space="preserve">8.01641464233398</t>
   </si>
   <si>
     <t xml:space="preserve">8.07689380645752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09121799468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0386962890625</t>
+    <t xml:space="preserve">8.09121704101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03869819641113</t>
   </si>
   <si>
     <t xml:space="preserve">8.07530212402344</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04506301879883</t>
+    <t xml:space="preserve">8.04506206512451</t>
   </si>
   <si>
     <t xml:space="preserve">8.11986446380615</t>
@@ -3566,10 +3566,10 @@
     <t xml:space="preserve">8.11827278137207</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90182828903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03710460662842</t>
+    <t xml:space="preserve">7.90182781219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03710651397705</t>
   </si>
   <si>
     <t xml:space="preserve">8.20262145996094</t>
@@ -3584,19 +3584,19 @@
     <t xml:space="preserve">8.28219890594482</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32198619842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19944095611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29970455169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32676029205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30288696289062</t>
+    <t xml:space="preserve">8.32198429107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19944000244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29970359802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32675933837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30288791656494</t>
   </si>
   <si>
     <t xml:space="preserve">8.11349773406982</t>
@@ -3605,28 +3605,28 @@
     <t xml:space="preserve">8.1835241317749</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2372989654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13545417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17211818695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22915077209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22426319122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19330215454102</t>
+    <t xml:space="preserve">8.23729801177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13545322418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.172119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22915267944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22426414489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1933012008667</t>
   </si>
   <si>
     <t xml:space="preserve">8.38721561431885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44913864135742</t>
+    <t xml:space="preserve">8.44913768768311</t>
   </si>
   <si>
     <t xml:space="preserve">8.50617218017578</t>
@@ -3635,16 +3635,16 @@
     <t xml:space="preserve">8.45728588104248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51758003234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55179977416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50943088531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56646537780762</t>
+    <t xml:space="preserve">8.51757907867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55180072784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50943183898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56646633148193</t>
   </si>
   <si>
     <t xml:space="preserve">8.62186908721924</t>
@@ -3653,7 +3653,7 @@
     <t xml:space="preserve">8.74082565307617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74571418762207</t>
+    <t xml:space="preserve">8.74571514129639</t>
   </si>
   <si>
     <t xml:space="preserve">8.75223255157471</t>
@@ -3665,7 +3665,7 @@
     <t xml:space="preserve">8.40351009368896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48824787139893</t>
+    <t xml:space="preserve">8.48824882507324</t>
   </si>
   <si>
     <t xml:space="preserve">8.48498916625977</t>
@@ -3674,85 +3674,85 @@
     <t xml:space="preserve">8.4915075302124</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58764934539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60068511962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42632484436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42306613922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36766338348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5224666595459</t>
+    <t xml:space="preserve">8.58764839172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60068416595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42632579803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42306518554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36766147613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52246761322021</t>
   </si>
   <si>
     <t xml:space="preserve">8.47195243835449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51920986175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2861852645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11752891540527</t>
+    <t xml:space="preserve">8.51920890808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28618621826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11752700805664</t>
   </si>
   <si>
     <t xml:space="preserve">8.21285629272461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15093326568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16722869873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0743465423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01079273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70281267166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74273633956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94398355484009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85761785507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87798738479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03849601745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99123907089233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08004856109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15908145904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12486267089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25848388671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24544811248779</t>
+    <t xml:space="preserve">8.15093421936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16722774505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07434558868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0107946395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7028112411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74273490905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94398307800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85761833190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87798547744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03849697113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99123764038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08005046844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15908241271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1248607635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25848293304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24544715881348</t>
   </si>
   <si>
     <t xml:space="preserve">8.31062889099121</t>
@@ -3764,25 +3764,25 @@
     <t xml:space="preserve">8.37906837463379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43284320831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48661804199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53713130950928</t>
+    <t xml:space="preserve">8.4328441619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48661708831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53713321685791</t>
   </si>
   <si>
     <t xml:space="preserve">8.56972408294678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45076656341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45402717590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44588088989258</t>
+    <t xml:space="preserve">8.45076751708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45402812957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44587898254395</t>
   </si>
   <si>
     <t xml:space="preserve">8.20959758758545</t>
@@ -3803,31 +3803,31 @@
     <t xml:space="preserve">8.39699268341064</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49639415740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49965572357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66260719299316</t>
+    <t xml:space="preserve">8.4963960647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49965476989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66261005401611</t>
   </si>
   <si>
     <t xml:space="preserve">8.57950115203857</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62513065338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62838840484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59090900421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80437660217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88422393798828</t>
+    <t xml:space="preserve">8.62512874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62838745117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59090805053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80437755584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88422298431396</t>
   </si>
   <si>
     <t xml:space="preserve">8.9542932510376</t>
@@ -3836,55 +3836,55 @@
     <t xml:space="preserve">8.98199653625488</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91518497467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83207225799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99490737915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23237419128418</t>
+    <t xml:space="preserve">8.91518592834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83207035064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99490833282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23237323760986</t>
   </si>
   <si>
     <t xml:space="preserve">9.24594306945801</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27138614654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48680210113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55295467376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65811729431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79211711883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73783874511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87353420257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0482425689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89388656616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82773876190186</t>
+    <t xml:space="preserve">9.27138519287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48680305480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55295372009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65811634063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79211616516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7378396987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87353324890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0482444763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89388847351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82773685455322</t>
   </si>
   <si>
     <t xml:space="preserve">10.0567226409912</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1822395324707</t>
+    <t xml:space="preserve">10.182240486145</t>
   </si>
   <si>
     <t xml:space="preserve">10.1551027297974</t>
@@ -3893,49 +3893,49 @@
     <t xml:space="preserve">10.0261917114258</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1601896286011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3535575866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3773012161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3230266571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4468479156494</t>
+    <t xml:space="preserve">10.1601905822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3535566329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3773031234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3230257034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4468469619751</t>
   </si>
   <si>
     <t xml:space="preserve">10.2907972335815</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2433052062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4129219055176</t>
+    <t xml:space="preserve">10.2433042526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4129228591919</t>
   </si>
   <si>
     <t xml:space="preserve">10.480770111084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4044427871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3162412643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5197839736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8098335266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.635124206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4994297027588</t>
+    <t xml:space="preserve">10.4044418334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3162393569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5197830200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.809832572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6351251602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4994287490845</t>
   </si>
   <si>
     <t xml:space="preserve">10.6520872116089</t>
@@ -3944,73 +3944,73 @@
     <t xml:space="preserve">10.7470722198486</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7555551528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7029714584351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7402868270874</t>
+    <t xml:space="preserve">10.7555541992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7029724121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.740288734436</t>
   </si>
   <si>
     <t xml:space="preserve">10.725022315979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6113767623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6402111053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6843137741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6792240142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5418357849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3196334838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4553270339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4909496307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4281892776489</t>
+    <t xml:space="preserve">10.6113777160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6402139663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6843128204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6792259216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5418329238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3196325302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4553279876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4909477233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4281883239746</t>
   </si>
   <si>
     <t xml:space="preserve">9.7785472869873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0075349807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0957355499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1262674331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1856336593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4247980117798</t>
+    <t xml:space="preserve">10.0075330734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0957365036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1262664794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1856327056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4247970581055</t>
   </si>
   <si>
     <t xml:space="preserve">10.6588716506958</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5079107284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4027462005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3518600463867</t>
+    <t xml:space="preserve">10.5079116821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4027471542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.351861000061</t>
   </si>
   <si>
     <t xml:space="preserve">10.1941146850586</t>
@@ -4019,10 +4019,10 @@
     <t xml:space="preserve">10.3026704788208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.177152633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3450756072998</t>
+    <t xml:space="preserve">10.1771507263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3450746536255</t>
   </si>
   <si>
     <t xml:space="preserve">10.2212524414062</t>
@@ -4031,19 +4031,19 @@
     <t xml:space="preserve">10.0363683700562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3298101425171</t>
+    <t xml:space="preserve">10.3298110961914</t>
   </si>
   <si>
     <t xml:space="preserve">10.3247213363647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3806943893433</t>
+    <t xml:space="preserve">10.3806953430176</t>
   </si>
   <si>
     <t xml:space="preserve">10.42649269104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4146184921265</t>
+    <t xml:space="preserve">10.4146203994751</t>
   </si>
   <si>
     <t xml:space="preserve">10.363733291626</t>
@@ -4061,88 +4061,88 @@
     <t xml:space="preserve">10.7284145355225</t>
   </si>
   <si>
-    <t xml:space="preserve">10.847149848938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7572498321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.864109992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0693492889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0456047058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.160943031311</t>
+    <t xml:space="preserve">10.8471488952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7572507858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8641109466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0693502426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0456027984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1609439849854</t>
   </si>
   <si>
     <t xml:space="preserve">11.2050457000732</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2542352676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3814496994019</t>
+    <t xml:space="preserve">11.2542362213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3814487457275</t>
   </si>
   <si>
     <t xml:space="preserve">11.2711963653564</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1151456832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7589473724365</t>
+    <t xml:space="preserve">11.1151466369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7589454650879</t>
   </si>
   <si>
     <t xml:space="preserve">11.1049690246582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4357271194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7139015197754</t>
+    <t xml:space="preserve">11.4357280731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7139024734497</t>
   </si>
   <si>
     <t xml:space="preserve">11.5120553970337</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2864618301392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4119806289673</t>
+    <t xml:space="preserve">11.2864627838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4119815826416</t>
   </si>
   <si>
     <t xml:space="preserve">11.3271713256836</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2695007324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323329925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.182993888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0557804107666</t>
+    <t xml:space="preserve">11.2694997787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4323358535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1829948425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0557813644409</t>
   </si>
   <si>
     <t xml:space="preserve">11.2389688491821</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2779808044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4730434417725</t>
+    <t xml:space="preserve">11.2779817581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4730443954468</t>
   </si>
   <si>
     <t xml:space="preserve">11.3000326156616</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1711225509644</t>
+    <t xml:space="preserve">11.1711206436157</t>
   </si>
   <si>
     <t xml:space="preserve">11.3085126876831</t>
@@ -4151,16 +4151,16 @@
     <t xml:space="preserve">11.4238548278809</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2915515899658</t>
+    <t xml:space="preserve">11.2915506362915</t>
   </si>
   <si>
     <t xml:space="preserve">11.4425115585327</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3865356445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3322601318359</t>
+    <t xml:space="preserve">11.3865375518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3322591781616</t>
   </si>
   <si>
     <t xml:space="preserve">11.6867628097534</t>
@@ -4178,19 +4178,19 @@
     <t xml:space="preserve">11.7596998214722</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9014253616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3695755004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5934734344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5358037948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1134510040283</t>
+    <t xml:space="preserve">10.9014263153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3695764541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5934724807739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5358018875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.113450050354</t>
   </si>
   <si>
     <t xml:space="preserve">11.0065908432007</t>
@@ -4199,25 +4199,25 @@
     <t xml:space="preserve">10.9607944488525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8301877975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.118537902832</t>
+    <t xml:space="preserve">10.8301858901978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1185398101807</t>
   </si>
   <si>
     <t xml:space="preserve">10.79456615448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2135276794434</t>
+    <t xml:space="preserve">11.213526725769</t>
   </si>
   <si>
     <t xml:space="preserve">11.4187660217285</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2559309005737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1066665649414</t>
+    <t xml:space="preserve">11.2559299468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1066646575928</t>
   </si>
   <si>
     <t xml:space="preserve">11.3492212295532</t>
@@ -4226,37 +4226,37 @@
     <t xml:space="preserve">11.2745885848999</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3763599395752</t>
+    <t xml:space="preserve">11.3763589859009</t>
   </si>
   <si>
     <t xml:space="preserve">11.4001064300537</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4560832977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3543090820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2474498748779</t>
+    <t xml:space="preserve">11.4560813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3543100357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2474508285522</t>
   </si>
   <si>
     <t xml:space="preserve">11.7189912796021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7003345489502</t>
+    <t xml:space="preserve">11.7003326416016</t>
   </si>
   <si>
     <t xml:space="preserve">12.0209131240845</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0429639816284</t>
+    <t xml:space="preserve">12.0429649353027</t>
   </si>
   <si>
     <t xml:space="preserve">12.0005588531494</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0667095184326</t>
+    <t xml:space="preserve">12.0667104721069</t>
   </si>
   <si>
     <t xml:space="preserve">11.8733444213867</t>
@@ -4265,28 +4265,28 @@
     <t xml:space="preserve">11.517144203186</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9658832550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9896287918091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1592464447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3560075759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1948680877686</t>
+    <t xml:space="preserve">10.9658813476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9896297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1592483520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3560066223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1948690414429</t>
   </si>
   <si>
     <t xml:space="preserve">11.534107208252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4577779769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5374975204468</t>
+    <t xml:space="preserve">11.4577770233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5374984741211</t>
   </si>
   <si>
     <t xml:space="preserve">11.0914011001587</t>
@@ -4295,7 +4295,7 @@
     <t xml:space="preserve">11.2440576553345</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5510673522949</t>
+    <t xml:space="preserve">11.5510683059692</t>
   </si>
   <si>
     <t xml:space="preserve">11.5680313110352</t>
@@ -4307,43 +4307,43 @@
     <t xml:space="preserve">11.815673828125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6918516159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800550460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0023517608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9113330841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3576793670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4679536819458</t>
+    <t xml:space="preserve">11.6918535232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800540924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0023527145386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9113321304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3576803207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4679527282715</t>
   </si>
   <si>
     <t xml:space="preserve">12.4206943511963</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4276933670044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4259433746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3384246826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3156690597534</t>
+    <t xml:space="preserve">12.427695274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4259443283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3384256362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3156709671021</t>
   </si>
   <si>
     <t xml:space="preserve">12.4784555435181</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6307382583618</t>
+    <t xml:space="preserve">12.6307392120361</t>
   </si>
   <si>
     <t xml:space="preserve">12.6272382736206</t>
@@ -4352,16 +4352,16 @@
     <t xml:space="preserve">12.5957307815552</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2754106521606</t>
+    <t xml:space="preserve">12.2754125595093</t>
   </si>
   <si>
     <t xml:space="preserve">11.5875120162964</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3582143783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5262489318848</t>
+    <t xml:space="preserve">11.3582124710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5262479782104</t>
   </si>
   <si>
     <t xml:space="preserve">11.5997657775879</t>
@@ -4370,28 +4370,28 @@
     <t xml:space="preserve">11.0326414108276</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5110301971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5407857894897</t>
+    <t xml:space="preserve">10.5110282897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5407838821411</t>
   </si>
   <si>
     <t xml:space="preserve">10.5722923278809</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2047119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0034198760986</t>
+    <t xml:space="preserve">10.2047128677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0034189224243</t>
   </si>
   <si>
     <t xml:space="preserve">10.2099637985229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0646829605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1539516448975</t>
+    <t xml:space="preserve">10.0646820068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1539525985718</t>
   </si>
   <si>
     <t xml:space="preserve">9.91415023803711</t>
@@ -4400,37 +4400,37 @@
     <t xml:space="preserve">9.82663154602051</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0629329681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48005485534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41354084014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6673469543457</t>
+    <t xml:space="preserve">10.0629320144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48005676269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41354179382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66734504699707</t>
   </si>
   <si>
     <t xml:space="preserve">9.82487964630127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80212688446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74786376953125</t>
+    <t xml:space="preserve">9.80212593078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74786281585693</t>
   </si>
   <si>
     <t xml:space="preserve">9.72861003875732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31552028656006</t>
+    <t xml:space="preserve">9.31551933288574</t>
   </si>
   <si>
     <t xml:space="preserve">9.48530673980713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63933849334717</t>
+    <t xml:space="preserve">9.63933944702148</t>
   </si>
   <si>
     <t xml:space="preserve">9.89314556121826</t>
@@ -4448,13 +4448,13 @@
     <t xml:space="preserve">9.68134880065918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64459323883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70760536193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2537231445312</t>
+    <t xml:space="preserve">9.64459228515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70760440826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2537221908569</t>
   </si>
   <si>
     <t xml:space="preserve">10.2414703369141</t>
@@ -4463,10 +4463,10 @@
     <t xml:space="preserve">10.0156726837158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97716236114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96841239929199</t>
+    <t xml:space="preserve">9.97716331481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96841144561768</t>
   </si>
   <si>
     <t xml:space="preserve">10.0261735916138</t>
@@ -4475,55 +4475,55 @@
     <t xml:space="preserve">10.0174217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0576791763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99816703796387</t>
+    <t xml:space="preserve">10.0576820373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99816799163818</t>
   </si>
   <si>
     <t xml:space="preserve">10.1434497833252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1784572601318</t>
+    <t xml:space="preserve">10.1784563064575</t>
   </si>
   <si>
     <t xml:space="preserve">10.1329469680786</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2327184677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4445152282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3009853363037</t>
+    <t xml:space="preserve">10.232720375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4445142745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3009843826294</t>
   </si>
   <si>
     <t xml:space="preserve">10.4672698974609</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8593549728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7245759963989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.945122718811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7788362503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9398708343506</t>
+    <t xml:space="preserve">10.859354019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7245740890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9451217651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7788372039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9398717880249</t>
   </si>
   <si>
     <t xml:space="preserve">10.7088212966919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3342409133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2624759674072</t>
+    <t xml:space="preserve">10.3342399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2624740600586</t>
   </si>
   <si>
     <t xml:space="preserve">10.577543258667</t>
@@ -4532,13 +4532,13 @@
     <t xml:space="preserve">10.75608253479</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4602680206299</t>
+    <t xml:space="preserve">10.4602670669556</t>
   </si>
   <si>
     <t xml:space="preserve">10.1679544448853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1364459991455</t>
+    <t xml:space="preserve">10.1364479064941</t>
   </si>
   <si>
     <t xml:space="preserve">10.2239665985107</t>
@@ -4550,19 +4550,19 @@
     <t xml:space="preserve">10.3587465286255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3359909057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0996913909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0156707763672</t>
+    <t xml:space="preserve">10.335991859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0996904373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0156717300415</t>
   </si>
   <si>
     <t xml:space="preserve">9.94071483612061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1191844940186</t>
+    <t xml:space="preserve">10.1191835403442</t>
   </si>
   <si>
     <t xml:space="preserve">9.6391019821167</t>
@@ -4577,31 +4577,31 @@
     <t xml:space="preserve">9.62482452392578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73547554016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0317325592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2976541519165</t>
+    <t xml:space="preserve">9.73547458648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0317335128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2976531982422</t>
   </si>
   <si>
     <t xml:space="preserve">10.4618444442749</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4671964645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5653553009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5135984420776</t>
+    <t xml:space="preserve">10.4671974182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5653562545776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5136003494263</t>
   </si>
   <si>
     <t xml:space="preserve">10.3244228363037</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1691541671753</t>
+    <t xml:space="preserve">10.1691551208496</t>
   </si>
   <si>
     <t xml:space="preserve">10.4297189712524</t>
@@ -4610,22 +4610,22 @@
     <t xml:space="preserve">10.5867729187012</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5885562896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.792010307312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7598857879639</t>
+    <t xml:space="preserve">10.5885553359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7920112609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7598867416382</t>
   </si>
   <si>
     <t xml:space="preserve">11.0240201950073</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9954662322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.140025138855</t>
+    <t xml:space="preserve">10.9954652786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1400241851807</t>
   </si>
   <si>
     <t xml:space="preserve">11.5273027420044</t>
@@ -4634,10 +4634,10 @@
     <t xml:space="preserve">11.7218332290649</t>
   </si>
   <si>
-    <t xml:space="preserve">11.827130317688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0145225524902</t>
+    <t xml:space="preserve">11.8271312713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0145235061646</t>
   </si>
   <si>
     <t xml:space="preserve">12.0734176635742</t>
@@ -4646,22 +4646,22 @@
     <t xml:space="preserve">12.2429628372192</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5017433166504</t>
+    <t xml:space="preserve">12.5017423629761</t>
   </si>
   <si>
     <t xml:space="preserve">12.7319669723511</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6837816238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5124521255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5552825927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.740891456604</t>
+    <t xml:space="preserve">12.683780670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.512451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5552835464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7408895492554</t>
   </si>
   <si>
     <t xml:space="preserve">12.9157915115356</t>
@@ -4670,25 +4670,25 @@
     <t xml:space="preserve">12.9175748825073</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8122777938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.569561958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6605806350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1856279373169</t>
+    <t xml:space="preserve">12.8122787475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5695600509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6605787277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1856269836426</t>
   </si>
   <si>
     <t xml:space="preserve">12.7367181777954</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7983522415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8563632965088</t>
+    <t xml:space="preserve">12.7983531951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8563623428345</t>
   </si>
   <si>
     <t xml:space="preserve">12.9596920013428</t>
@@ -4697,16 +4697,16 @@
     <t xml:space="preserve">12.7059001922607</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8672389984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9832592010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7711620330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5916938781738</t>
+    <t xml:space="preserve">12.8672399520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9832601547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7711601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5916929244995</t>
   </si>
   <si>
     <t xml:space="preserve">12.5391225814819</t>
@@ -4715,34 +4715,34 @@
     <t xml:space="preserve">12.3650941848755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1783771514893</t>
+    <t xml:space="preserve">12.1783742904663</t>
   </si>
   <si>
     <t xml:space="preserve">12.2581396102905</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2599506378174</t>
+    <t xml:space="preserve">12.259952545166</t>
   </si>
   <si>
     <t xml:space="preserve">12.3342771530151</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5209951400757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3360900878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8285074234009</t>
+    <t xml:space="preserve">12.5209941864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3360891342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8285064697266</t>
   </si>
   <si>
     <t xml:space="preserve">11.6925458908081</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7741231918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7831859588623</t>
+    <t xml:space="preserve">11.7741212844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.783185005188</t>
   </si>
   <si>
     <t xml:space="preserve">12.2019424438477</t>
@@ -4751,22 +4751,22 @@
     <t xml:space="preserve">12.1239929199219</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2146310806274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2780799865723</t>
+    <t xml:space="preserve">12.2146320343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2780790328979</t>
   </si>
   <si>
     <t xml:space="preserve">12.2436380386353</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3197746276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0424165725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4249172210693</t>
+    <t xml:space="preserve">12.3197736740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0424175262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.424916267395</t>
   </si>
   <si>
     <t xml:space="preserve">12.4956159591675</t>
@@ -4781,7 +4781,7 @@
     <t xml:space="preserve">12.6388273239136</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6660175323486</t>
+    <t xml:space="preserve">12.6660184860229</t>
   </si>
   <si>
     <t xml:space="preserve">12.9071207046509</t>
@@ -4790,22 +4790,22 @@
     <t xml:space="preserve">13.0666475296021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0720853805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9868841171265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0267658233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1065282821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9198112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1029033660889</t>
+    <t xml:space="preserve">13.0720844268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9868831634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0267667770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1065292358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9198093414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1029024124146</t>
   </si>
   <si>
     <t xml:space="preserve">13.0521450042725</t>
@@ -4814,43 +4814,43 @@
     <t xml:space="preserve">12.8527383804321</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7584705352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8690519332886</t>
+    <t xml:space="preserve">12.7584714889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8690509796143</t>
   </si>
   <si>
     <t xml:space="preserve">12.9542541503906</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8436727523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8128547668457</t>
+    <t xml:space="preserve">12.8436737060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.81285572052</t>
   </si>
   <si>
     <t xml:space="preserve">12.5499992370605</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4629859924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5481882095337</t>
+    <t xml:space="preserve">12.4629850387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5481863021851</t>
   </si>
   <si>
     <t xml:space="preserve">12.4140405654907</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6043844223022</t>
+    <t xml:space="preserve">12.6043834686279</t>
   </si>
   <si>
     <t xml:space="preserve">12.8346090316772</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0013866424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.369384765625</t>
+    <t xml:space="preserve">13.0013856887817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3693838119507</t>
   </si>
   <si>
     <t xml:space="preserve">13.3856992721558</t>
@@ -4859,10 +4859,10 @@
     <t xml:space="preserve">13.4382705688477</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3149995803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3367528915405</t>
+    <t xml:space="preserve">13.3150005340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3367538452148</t>
   </si>
   <si>
     <t xml:space="preserve">12.9615049362183</t>
@@ -4874,13 +4874,13 @@
     <t xml:space="preserve">12.9324998855591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.792914390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1076765060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9572153091431</t>
+    <t xml:space="preserve">12.7929153442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1076774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9572143554688</t>
   </si>
   <si>
     <t xml:space="preserve">12.1457462310791</t>
@@ -4892,31 +4892,31 @@
     <t xml:space="preserve">11.937273979187</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0949878692627</t>
+    <t xml:space="preserve">12.0949869155884</t>
   </si>
   <si>
     <t xml:space="preserve">12.1765632629395</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2690172195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1656856536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1620616912842</t>
+    <t xml:space="preserve">12.2690153121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1656866073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1620607376099</t>
   </si>
   <si>
     <t xml:space="preserve">12.1384944915771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1729373931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7143001556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8194417953491</t>
+    <t xml:space="preserve">12.1729383468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7142992019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8194408416748</t>
   </si>
   <si>
     <t xml:space="preserve">11.157772064209</t>
@@ -4925,7 +4925,7 @@
     <t xml:space="preserve">11.0236234664917</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2673206329346</t>
+    <t xml:space="preserve">11.2673215866089</t>
   </si>
   <si>
     <t xml:space="preserve">11.5054807662964</t>
@@ -4934,19 +4934,19 @@
     <t xml:space="preserve">11.5184030532837</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4962491989136</t>
+    <t xml:space="preserve">11.4962501525879</t>
   </si>
   <si>
     <t xml:space="preserve">11.235936164856</t>
   </si>
   <si>
-    <t xml:space="preserve">11.361475944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5811729431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6993293762207</t>
+    <t xml:space="preserve">11.3614768981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5811738967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.699330329895</t>
   </si>
   <si>
     <t xml:space="preserve">11.8950271606445</t>
@@ -4955,37 +4955,37 @@
     <t xml:space="preserve">11.9134893417358</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3990383148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2864208221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4008836746216</t>
+    <t xml:space="preserve">12.3990392684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2864217758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4008846282959</t>
   </si>
   <si>
     <t xml:space="preserve">12.4987325668335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7239694595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6150436401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.797815322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7405853271484</t>
+    <t xml:space="preserve">12.7239685058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6150426864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7978162765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7405843734741</t>
   </si>
   <si>
     <t xml:space="preserve">12.8125858306885</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8218154907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6962747573853</t>
+    <t xml:space="preserve">12.821816444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6962757110596</t>
   </si>
   <si>
     <t xml:space="preserve">12.5393486022949</t>
@@ -5009,7 +5009,7 @@
     <t xml:space="preserve">12.1571865081787</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0353374481201</t>
+    <t xml:space="preserve">12.0353384017944</t>
   </si>
   <si>
     <t xml:space="preserve">11.9762601852417</t>
@@ -5018,40 +5018,40 @@
     <t xml:space="preserve">12.526424407959</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5947351455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4802703857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1793413162231</t>
+    <t xml:space="preserve">12.5947341918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4802713394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1793403625488</t>
   </si>
   <si>
     <t xml:space="preserve">12.356575012207</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3196506500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.212571144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3658056259155</t>
+    <t xml:space="preserve">12.3196516036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2125730514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3658065795898</t>
   </si>
   <si>
     <t xml:space="preserve">12.3141136169434</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4156532287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4531927108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5414056777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5451602935791</t>
+    <t xml:space="preserve">12.4156541824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4531917572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5414066314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5451593399048</t>
   </si>
   <si>
     <t xml:space="preserve">12.2429790496826</t>
@@ -5060,7 +5060,7 @@
     <t xml:space="preserve">12.3799934387207</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4025144577026</t>
+    <t xml:space="preserve">12.402515411377</t>
   </si>
   <si>
     <t xml:space="preserve">12.1115970611572</t>
@@ -5069,19 +5069,19 @@
     <t xml:space="preserve">11.6836652755737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0008611679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3330707550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2955331802368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.184796333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2748870849609</t>
+    <t xml:space="preserve">12.0008602142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3330717086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2955322265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1847953796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2748861312866</t>
   </si>
   <si>
     <t xml:space="preserve">12.3086709976196</t>
@@ -5093,34 +5093,34 @@
     <t xml:space="preserve">12.1622734069824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1866731643677</t>
+    <t xml:space="preserve">12.186674118042</t>
   </si>
   <si>
     <t xml:space="preserve">12.2467336654663</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1791658401489</t>
+    <t xml:space="preserve">12.1791648864746</t>
   </si>
   <si>
     <t xml:space="preserve">12.1904268264771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0271368026733</t>
+    <t xml:space="preserve">12.027135848999</t>
   </si>
   <si>
     <t xml:space="preserve">12.2617492675781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0928268432617</t>
+    <t xml:space="preserve">12.092827796936</t>
   </si>
   <si>
     <t xml:space="preserve">12.0083665847778</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1416263580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9614458084106</t>
+    <t xml:space="preserve">12.1416273117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.961446762085</t>
   </si>
   <si>
     <t xml:space="preserve">12.0139980316162</t>
@@ -5129,13 +5129,13 @@
     <t xml:space="preserve">12.0947046279907</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3706092834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5864515304565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6352500915527</t>
+    <t xml:space="preserve">12.3706083297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5864505767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6352510452271</t>
   </si>
   <si>
     <t xml:space="preserve">12.5470361709595</t>
@@ -5144,16 +5144,16 @@
     <t xml:space="preserve">12.2317190170288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2486095428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3124237060547</t>
+    <t xml:space="preserve">12.248610496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3124256134033</t>
   </si>
   <si>
     <t xml:space="preserve">12.4194087982178</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7009429931641</t>
+    <t xml:space="preserve">12.7009420394897</t>
   </si>
   <si>
     <t xml:space="preserve">12.7816486358643</t>
@@ -5165,25 +5165,25 @@
     <t xml:space="preserve">12.4757137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6033430099487</t>
+    <t xml:space="preserve">12.603343963623</t>
   </si>
   <si>
     <t xml:space="preserve">12.7065725326538</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8004188537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9580755233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8661088943481</t>
+    <t xml:space="preserve">12.8004179000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9580764770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8661079406738</t>
   </si>
   <si>
     <t xml:space="preserve">12.7534942626953</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8848781585693</t>
+    <t xml:space="preserve">12.884877204895</t>
   </si>
   <si>
     <t xml:space="preserve">12.8173093795776</t>
@@ -5192,16 +5192,16 @@
     <t xml:space="preserve">13.0293989181519</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9280452728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8248176574707</t>
+    <t xml:space="preserve">12.9280462265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8248167037964</t>
   </si>
   <si>
     <t xml:space="preserve">12.879246711731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8360795974731</t>
+    <t xml:space="preserve">12.8360786437988</t>
   </si>
   <si>
     <t xml:space="preserve">12.7872791290283</t>
@@ -5210,7 +5210,7 @@
     <t xml:space="preserve">13.2020721435547</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2565021514893</t>
+    <t xml:space="preserve">13.2565031051636</t>
   </si>
   <si>
     <t xml:space="preserve">13.1833038330078</t>
@@ -5228,10 +5228,10 @@
     <t xml:space="preserve">13.1701650619507</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2227191925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2452411651611</t>
+    <t xml:space="preserve">13.2227182388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2452421188354</t>
   </si>
   <si>
     <t xml:space="preserve">13.2077035903931</t>
@@ -5240,10 +5240,10 @@
     <t xml:space="preserve">13.2583799362183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2827796936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.417914390564</t>
+    <t xml:space="preserve">13.2827787399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4179153442383</t>
   </si>
   <si>
     <t xml:space="preserve">13.4723453521729</t>
@@ -5252,7 +5252,7 @@
     <t xml:space="preserve">13.4836072921753</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4047775268555</t>
+    <t xml:space="preserve">13.4047765731812</t>
   </si>
   <si>
     <t xml:space="preserve">13.6431427001953</t>
@@ -5261,28 +5261,28 @@
     <t xml:space="preserve">13.7032032012939</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9209222793579</t>
+    <t xml:space="preserve">13.9209232330322</t>
   </si>
   <si>
     <t xml:space="preserve">13.8815078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8327083587646</t>
+    <t xml:space="preserve">13.832709312439</t>
   </si>
   <si>
     <t xml:space="preserve">13.8871383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1255044937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1724271774292</t>
+    <t xml:space="preserve">14.1255035400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1724262237549</t>
   </si>
   <si>
     <t xml:space="preserve">14.1911954879761</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4239311218262</t>
+    <t xml:space="preserve">14.4239301681519</t>
   </si>
   <si>
     <t xml:space="preserve">14.3920240402222</t>
@@ -5291,16 +5291,16 @@
     <t xml:space="preserve">14.2757129669189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5865097045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5254936218262</t>
+    <t xml:space="preserve">14.5865106582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5254945755005</t>
   </si>
   <si>
     <t xml:space="preserve">14.3157529830933</t>
   </si>
   <si>
-    <t xml:space="preserve">14.527400970459</t>
+    <t xml:space="preserve">14.5274019241333</t>
   </si>
   <si>
     <t xml:space="preserve">14.5083341598511</t>
@@ -5309,7 +5309,7 @@
     <t xml:space="preserve">14.4702005386353</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6551513671875</t>
+    <t xml:space="preserve">14.6551523208618</t>
   </si>
   <si>
     <t xml:space="preserve">14.7009143829346</t>
@@ -5321,22 +5321,22 @@
     <t xml:space="preserve">14.2051630020142</t>
   </si>
   <si>
-    <t xml:space="preserve">14.041184425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8219108581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7666149139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9572887420654</t>
+    <t xml:space="preserve">14.0411834716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.82190990448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7666139602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9572877883911</t>
   </si>
   <si>
     <t xml:space="preserve">14.2738056182861</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4435043334961</t>
+    <t xml:space="preserve">14.4435052871704</t>
   </si>
   <si>
     <t xml:space="preserve">14.3824901580811</t>
@@ -5351,10 +5351,10 @@
     <t xml:space="preserve">14.7581157684326</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8076906204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9106540679932</t>
+    <t xml:space="preserve">14.8076915740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9106559753418</t>
   </si>
   <si>
     <t xml:space="preserve">14.7314214706421</t>
@@ -5372,7 +5372,7 @@
     <t xml:space="preserve">14.7600231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">14.786717414856</t>
+    <t xml:space="preserve">14.7867164611816</t>
   </si>
   <si>
     <t xml:space="preserve">14.6475257873535</t>
@@ -5396,28 +5396,28 @@
     <t xml:space="preserve">14.134614944458</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2394847869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2985925674438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5216817855835</t>
+    <t xml:space="preserve">14.239483833313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2985935211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5216808319092</t>
   </si>
   <si>
     <t xml:space="preserve">14.5388422012329</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4816389083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.167028427124</t>
+    <t xml:space="preserve">14.4816398620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1670274734497</t>
   </si>
   <si>
     <t xml:space="preserve">14.5307540893555</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4591064453125</t>
+    <t xml:space="preserve">14.4591073989868</t>
   </si>
   <si>
     <t xml:space="preserve">14.2557849884033</t>
@@ -5426,25 +5426,25 @@
     <t xml:space="preserve">14.4610433578491</t>
   </si>
   <si>
-    <t xml:space="preserve">14.588846206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5520544052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.71471118927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6275730133057</t>
+    <t xml:space="preserve">14.5888452529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5520534515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7147121429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.62757396698</t>
   </si>
   <si>
     <t xml:space="preserve">14.6856660842896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7650585174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4842796325684</t>
+    <t xml:space="preserve">14.7650575637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4842805862427</t>
   </si>
   <si>
     <t xml:space="preserve">14.610146522522</t>
@@ -5462,7 +5462,7 @@
     <t xml:space="preserve">14.5075168609619</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3332414627075</t>
+    <t xml:space="preserve">14.3332405090332</t>
   </si>
   <si>
     <t xml:space="preserve">14.2809581756592</t>
@@ -5471,16 +5471,16 @@
     <t xml:space="preserve">14.3758411407471</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429231643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5152626037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5481815338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7205219268799</t>
+    <t xml:space="preserve">14.3429222106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5152616500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5481805801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7205209732056</t>
   </si>
   <si>
     <t xml:space="preserve">14.7166481018066</t>
@@ -5489,7 +5489,7 @@
     <t xml:space="preserve">14.8018493652344</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9451427459717</t>
+    <t xml:space="preserve">14.945143699646</t>
   </si>
   <si>
     <t xml:space="preserve">14.8696241378784</t>
@@ -5504,25 +5504,25 @@
     <t xml:space="preserve">14.9470796585083</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0264730453491</t>
+    <t xml:space="preserve">15.0264720916748</t>
   </si>
   <si>
     <t xml:space="preserve">15.0458364486694</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6004648208618</t>
+    <t xml:space="preserve">14.6004638671875</t>
   </si>
   <si>
     <t xml:space="preserve">14.4494247436523</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4106960296631</t>
+    <t xml:space="preserve">14.4106969833374</t>
   </si>
   <si>
     <t xml:space="preserve">14.3409862518311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5636730194092</t>
+    <t xml:space="preserve">14.5636720657349</t>
   </si>
   <si>
     <t xml:space="preserve">14.5191354751587</t>
@@ -5540,19 +5540,19 @@
     <t xml:space="preserve">13.9904975891113</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8839950561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9014234542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0292263031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1028099060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2867660522461</t>
+    <t xml:space="preserve">13.8839960098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9014225006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0292253494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1028089523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2867670059204</t>
   </si>
   <si>
     <t xml:space="preserve">14.4455518722534</t>
@@ -5567,13 +5567,13 @@
     <t xml:space="preserve">13.9169139862061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1376647949219</t>
+    <t xml:space="preserve">14.1376638412476</t>
   </si>
   <si>
     <t xml:space="preserve">13.9130411148071</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9091682434082</t>
+    <t xml:space="preserve">13.9091691970825</t>
   </si>
   <si>
     <t xml:space="preserve">13.8394584655762</t>
@@ -5585,13 +5585,13 @@
     <t xml:space="preserve">14.009861946106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0408449172974</t>
+    <t xml:space="preserve">14.040843963623</t>
   </si>
   <si>
     <t xml:space="preserve">14.1396007537842</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7039108276367</t>
+    <t xml:space="preserve">13.7039098739624</t>
   </si>
   <si>
     <t xml:space="preserve">13.7194013595581</t>
@@ -5600,7 +5600,7 @@
     <t xml:space="preserve">13.6826095581055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8472032546997</t>
+    <t xml:space="preserve">13.847204208374</t>
   </si>
   <si>
     <t xml:space="preserve">13.7774934768677</t>
@@ -5624,7 +5624,7 @@
     <t xml:space="preserve">13.8723773956299</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9304695129395</t>
+    <t xml:space="preserve">13.9304685592651</t>
   </si>
   <si>
     <t xml:space="preserve">14.0466537475586</t>
@@ -5633,25 +5633,25 @@
     <t xml:space="preserve">14.1628379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1667098999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2344846725464</t>
+    <t xml:space="preserve">14.1667108535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2344837188721</t>
   </si>
   <si>
     <t xml:space="preserve">14.0950632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2248020172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5017080307007</t>
+    <t xml:space="preserve">14.2248029708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5017070770264</t>
   </si>
   <si>
     <t xml:space="preserve">14.0602083206177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0447158813477</t>
+    <t xml:space="preserve">14.044716835022</t>
   </si>
   <si>
     <t xml:space="preserve">13.9954919815063</t>
@@ -5847,6 +5847,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.1319999694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9359998703003</t>
   </si>
 </sst>
 </file>
@@ -62218,7 +62221,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6495601852</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>12289144</v>
@@ -62239,6 +62242,32 @@
         <v>1944</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6496412037</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>29704326</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>14.1560001373291</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>13.9060001373291</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>14.0600004196167</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>13.9359998703003</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>1945</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENI.MI.xlsx
+++ b/data/ENI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="1947">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95016193389893</t>
+    <t xml:space="preserve">7.95016002655029</t>
   </si>
   <si>
     <t xml:space="preserve">ENI.MI</t>
@@ -47,79 +47,79 @@
     <t xml:space="preserve">8.02119731903076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79624652862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7370491027832</t>
+    <t xml:space="preserve">7.79624557495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73705053329468</t>
   </si>
   <si>
     <t xml:space="preserve">7.51802158355713</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48842239379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50618410110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59497833251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7015323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42922449111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34634828567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44698524475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19835758209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67785310745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58313798904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74296855926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77848815917969</t>
+    <t xml:space="preserve">7.48842287063599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50618028640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59497785568237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70153141021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4292254447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34635019302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44698667526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19835662841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67785501480103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58313751220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74297046661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77848958969116</t>
   </si>
   <si>
     <t xml:space="preserve">7.86136341094971</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40554666519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37594795227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54170083999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41738653182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15099906921387</t>
+    <t xml:space="preserve">7.40554714202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37594842910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54170036315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41738748550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1510009765625</t>
   </si>
   <si>
     <t xml:space="preserve">6.86685371398926</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88461303710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47023296356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90237331390381</t>
+    <t xml:space="preserve">6.88461256027222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47023487091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90237236022949</t>
   </si>
   <si>
     <t xml:space="preserve">7.06812381744385</t>
@@ -128,64 +128,64 @@
     <t xml:space="preserve">7.01484775543213</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23979663848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08588314056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05628395080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31083011627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9734091758728</t>
+    <t xml:space="preserve">7.23979425430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08588361740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05628490447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31083250045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97340774536133</t>
   </si>
   <si>
     <t xml:space="preserve">7.15692043304443</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5239405632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66601276397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90280151367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96199703216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06855487823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0152759552002</t>
+    <t xml:space="preserve">7.52394104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66601228713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90280485153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96199941635132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06855392456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01527500152588</t>
   </si>
   <si>
     <t xml:space="preserve">8.04487609863281</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84360361099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93240118026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66009330749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88504219055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9264817237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81400489807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91464185714722</t>
+    <t xml:space="preserve">7.84360408782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93239974975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66009426116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88504362106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92647886276245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8140082359314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91463947296143</t>
   </si>
   <si>
     <t xml:space="preserve">8.05671405792236</t>
@@ -194,10 +194,10 @@
     <t xml:space="preserve">8.12775039672852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16919136047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97383975982666</t>
+    <t xml:space="preserve">8.16918754577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97383737564087</t>
   </si>
   <si>
     <t xml:space="preserve">7.78440618515015</t>
@@ -209,67 +209,67 @@
     <t xml:space="preserve">7.87320327758789</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57130002975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55354022979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36410856246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44106578826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29307222366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60681772232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63049793243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67193365097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97975826263428</t>
+    <t xml:space="preserve">7.57129764556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55353975296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3641095161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4410662651062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29307270050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60681581497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63049507141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67193460464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9797568321228</t>
   </si>
   <si>
     <t xml:space="preserve">8.12182998657227</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99159669876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09223175048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22246551513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32901859283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37637710571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33493995666504</t>
+    <t xml:space="preserve">7.99159860610962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0922327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2224645614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32902050018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37637901306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33494091033936</t>
   </si>
   <si>
     <t xml:space="preserve">8.37045764923096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44741535186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52437114715576</t>
+    <t xml:space="preserve">8.44741439819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52437019348145</t>
   </si>
   <si>
     <t xml:space="preserve">8.40597629547119</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25798416137695</t>
+    <t xml:space="preserve">8.25798511505127</t>
   </si>
   <si>
     <t xml:space="preserve">8.08631324768066</t>
@@ -281,34 +281,34 @@
     <t xml:space="preserve">8.033034324646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10407066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80808925628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90189075469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14596366882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42665004730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46936225891113</t>
+    <t xml:space="preserve">8.10407257080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80808782577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90189027786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14596748352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42664909362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46936416625977</t>
   </si>
   <si>
     <t xml:space="preserve">8.4388542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50597286224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37783432006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26189994812012</t>
+    <t xml:space="preserve">8.50597476959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37783336639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2618989944458</t>
   </si>
   <si>
     <t xml:space="preserve">8.25579738616943</t>
@@ -317,10 +317,10 @@
     <t xml:space="preserve">8.18867874145508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40224170684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59750366210938</t>
+    <t xml:space="preserve">8.40224266052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59749984741211</t>
   </si>
   <si>
     <t xml:space="preserve">8.62191009521484</t>
@@ -329,55 +329,55 @@
     <t xml:space="preserve">8.57919692993164</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20698356628418</t>
+    <t xml:space="preserve">8.20698261260986</t>
   </si>
   <si>
     <t xml:space="preserve">8.0544376373291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15816783905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07274150848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39004039764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64021301269531</t>
+    <t xml:space="preserve">8.15816688537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0727424621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39003944396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64021492004395</t>
   </si>
   <si>
     <t xml:space="preserve">8.75004768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61580657958984</t>
+    <t xml:space="preserve">8.61580848693848</t>
   </si>
   <si>
     <t xml:space="preserve">8.89649105072021</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07884407043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33512210845947</t>
+    <t xml:space="preserve">8.07884502410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33512306213379</t>
   </si>
   <si>
     <t xml:space="preserve">8.72564029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85988235473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04293537139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79276084899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62801074981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67682361602783</t>
+    <t xml:space="preserve">8.8598804473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04293441772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79275989532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62801170349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67682647705078</t>
   </si>
   <si>
     <t xml:space="preserve">8.84767627716064</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">9.03683471679688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92700290679932</t>
+    <t xml:space="preserve">8.92700099945068</t>
   </si>
   <si>
     <t xml:space="preserve">9.0917501449585</t>
@@ -398,67 +398,67 @@
     <t xml:space="preserve">8.98191738128662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88429069519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85377979278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76835536956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71953868865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68292713165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56088924407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56699085235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34122467041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34732532501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18257522583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01172542572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06663990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08494663238525</t>
+    <t xml:space="preserve">8.88428783416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85378074645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76835346221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71953773498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68292808532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56089019775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56699371337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34122371673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34732627868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18257617950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0117244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06664085388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08494472503662</t>
   </si>
   <si>
     <t xml:space="preserve">8.28020477294922</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26800537109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24359321594238</t>
+    <t xml:space="preserve">8.26800155639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24359607696533</t>
   </si>
   <si>
     <t xml:space="preserve">8.35952949523926</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38393688201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21918964385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2008810043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31071376800537</t>
+    <t xml:space="preserve">8.38393592834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21918773651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20088291168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.310715675354</t>
   </si>
   <si>
     <t xml:space="preserve">8.30461311340332</t>
@@ -470,58 +470,58 @@
     <t xml:space="preserve">8.27410316467285</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99951839447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02392864227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06053829193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87748289108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99712419509888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85229635238647</t>
+    <t xml:space="preserve">7.99952030181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02392673492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06053733825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87748336791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99712562561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85229587554932</t>
   </si>
   <si>
     <t xml:space="preserve">7.96564102172852</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93415594100952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78932809829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154495239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77673053741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13565731048584</t>
+    <t xml:space="preserve">7.93415832519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78932762145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154638290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77673292160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13565826416016</t>
   </si>
   <si>
     <t xml:space="preserve">8.0726900100708</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11676788330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16714286804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35605430603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36864566802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56385231018066</t>
+    <t xml:space="preserve">8.11676692962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16714572906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35605239868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3686466217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56385135650635</t>
   </si>
   <si>
     <t xml:space="preserve">8.40013027191162</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">8.3434591293335</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28678512573242</t>
+    <t xml:space="preserve">8.28678607940674</t>
   </si>
   <si>
     <t xml:space="preserve">8.45050525665283</t>
@@ -539,40 +539,40 @@
     <t xml:space="preserve">8.38124084472656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5323657989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55755519866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64571189880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67090034484863</t>
+    <t xml:space="preserve">8.53236484527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55755424499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64571094512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6708984375</t>
   </si>
   <si>
     <t xml:space="preserve">8.61422729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52606868743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65830516815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50717926025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31826972961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18603420257568</t>
+    <t xml:space="preserve">8.52606964111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65830707550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50717830657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31827068328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18603515625</t>
   </si>
   <si>
     <t xml:space="preserve">8.06639385223389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0034236907959</t>
+    <t xml:space="preserve">8.00342178344727</t>
   </si>
   <si>
     <t xml:space="preserve">7.92785978317261</t>
@@ -581,118 +581,118 @@
     <t xml:space="preserve">8.04120349884033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09157943725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06009578704834</t>
+    <t xml:space="preserve">8.09158039093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06009387969971</t>
   </si>
   <si>
     <t xml:space="preserve">8.02861022949219</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90267038345337</t>
+    <t xml:space="preserve">7.90267276763916</t>
   </si>
   <si>
     <t xml:space="preserve">7.72006034851074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87118911743164</t>
+    <t xml:space="preserve">7.87118673324585</t>
   </si>
   <si>
     <t xml:space="preserve">7.82081031799316</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79562330245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91526365280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92156219482422</t>
+    <t xml:space="preserve">7.79562473297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91526460647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92156362533569</t>
   </si>
   <si>
     <t xml:space="preserve">7.97193765640259</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27419090270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57014751434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62052345275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79054164886475</t>
+    <t xml:space="preserve">8.27419185638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57014846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62052440643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79054355621338</t>
   </si>
   <si>
     <t xml:space="preserve">8.87869930267334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9605598449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97315216064453</t>
+    <t xml:space="preserve">8.96055889129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97315120697021</t>
   </si>
   <si>
     <t xml:space="preserve">9.30689144134521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40134429931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36986064910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42653560638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47690773010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4202356338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53987789154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5524730682373</t>
+    <t xml:space="preserve">9.40134620666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3698616027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42653369903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47690868377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42023468017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53987979888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55247211456299</t>
   </si>
   <si>
     <t xml:space="preserve">9.65952110290527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6406307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72248935699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74137878417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84842777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84213256835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87991333007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89880561828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69100570678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79175567626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7854585647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73508262634277</t>
+    <t xml:space="preserve">9.64062976837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72249031066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74138259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84842872619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84212970733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87991523742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8988037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69100666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79175853729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78546047210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73508453369141</t>
   </si>
   <si>
     <t xml:space="preserve">9.86731910705566</t>
@@ -701,19 +701,19 @@
     <t xml:space="preserve">9.69730186462402</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80434989929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76656818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6658182144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41394138336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30059432983398</t>
+    <t xml:space="preserve">9.80435085296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76657009124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66581726074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41393852233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3005952835083</t>
   </si>
   <si>
     <t xml:space="preserve">9.06130981445312</t>
@@ -725,139 +725,139 @@
     <t xml:space="preserve">8.89759063720703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91648006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1494665145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9416675567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90388679504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04241752624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06760692596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15576362609863</t>
+    <t xml:space="preserve">8.91648101806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14946842193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94166660308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90388774871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04241943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06760883331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15576457977295</t>
   </si>
   <si>
     <t xml:space="preserve">9.05501365661621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89129257202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18095207214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0739049911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.004638671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14317035675049</t>
+    <t xml:space="preserve">8.8912935256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18095302581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07390403747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00463676452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14316940307617</t>
   </si>
   <si>
     <t xml:space="preserve">9.44542503356934</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45172023773193</t>
+    <t xml:space="preserve">9.45171928405762</t>
   </si>
   <si>
     <t xml:space="preserve">9.61544132232666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50209522247314</t>
+    <t xml:space="preserve">9.50209712982178</t>
   </si>
   <si>
     <t xml:space="preserve">9.31948566436768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25651454925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21243762969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22502994537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11168575286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23762512207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39504623413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35097122192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37615871429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46431446075439</t>
+    <t xml:space="preserve">9.256516456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21243858337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22503089904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11168479919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23762607574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39504718780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35097026824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3761568069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46431541442871</t>
   </si>
   <si>
     <t xml:space="preserve">9.43912696838379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52098751068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64692878723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59025287628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58395767211914</t>
+    <t xml:space="preserve">9.52098846435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6469259262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59025382995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58395576477051</t>
   </si>
   <si>
     <t xml:space="preserve">9.59655094146729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24392127990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25022029876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41513347625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37628364562988</t>
+    <t xml:space="preserve">9.24392223358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25021839141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41513442993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37628269195557</t>
   </si>
   <si>
     <t xml:space="preserve">9.27267646789551</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24030017852783</t>
+    <t xml:space="preserve">9.24030113220215</t>
   </si>
   <si>
     <t xml:space="preserve">9.25972652435303</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22087478637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21439838409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44751071929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54464149475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59644412994385</t>
+    <t xml:space="preserve">9.22087287902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21439933776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44751167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54463863372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59644222259521</t>
   </si>
   <si>
     <t xml:space="preserve">9.64824485778809</t>
@@ -866,82 +866,82 @@
     <t xml:space="preserve">9.64177131652832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71299839019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74537754058838</t>
+    <t xml:space="preserve">9.71299934387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74537658691406</t>
   </si>
   <si>
     <t xml:space="preserve">9.62234497070312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73890018463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72594833374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70652389526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6676721572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48636150360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26620006561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24677562713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12374401092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23382663726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09784317016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03956604003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1107931137085</t>
+    <t xml:space="preserve">9.73890113830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72595024108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70652294158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66767311096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48636245727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26620101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24677467346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12374496459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23382472991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0978422164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03956508636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11079406738281</t>
   </si>
   <si>
     <t xml:space="preserve">8.92948341369629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99423789978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00071239471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06546688079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.968337059021</t>
+    <t xml:space="preserve">8.99423885345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00071334838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06546783447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96833610534668</t>
   </si>
   <si>
     <t xml:space="preserve">8.91653442382812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00718688964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82588005065918</t>
+    <t xml:space="preserve">9.00718879699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82587909698486</t>
   </si>
   <si>
     <t xml:space="preserve">8.87120628356934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84530735015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79350090026855</t>
+    <t xml:space="preserve">8.84530639648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79350185394287</t>
   </si>
   <si>
     <t xml:space="preserve">8.80645275115967</t>
@@ -950,25 +950,25 @@
     <t xml:space="preserve">8.7546501159668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78055191040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6121940612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5215368270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62514495849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65104579925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52801418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47621250152588</t>
+    <t xml:space="preserve">8.78055286407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61219215393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52153968811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62514305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65104484558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52801322937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47620964050293</t>
   </si>
   <si>
     <t xml:space="preserve">8.3920316696167</t>
@@ -977,10 +977,10 @@
     <t xml:space="preserve">8.41793346405029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3985071182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5409631729126</t>
+    <t xml:space="preserve">8.39850902557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54096412658691</t>
   </si>
   <si>
     <t xml:space="preserve">8.55391502380371</t>
@@ -992,76 +992,76 @@
     <t xml:space="preserve">8.50858783721924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50211143493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51506423950195</t>
+    <t xml:space="preserve">8.50211334228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.515061378479</t>
   </si>
   <si>
     <t xml:space="preserve">8.44383430480957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45678424835205</t>
+    <t xml:space="preserve">8.45678520202637</t>
   </si>
   <si>
     <t xml:space="preserve">8.58629131317139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56038856506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65752029418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7222728729248</t>
+    <t xml:space="preserve">8.56039047241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65751934051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72227382659912</t>
   </si>
   <si>
     <t xml:space="preserve">8.7611255645752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74169826507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77407741546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78702640533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76760005950928</t>
+    <t xml:space="preserve">8.74169921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77407550811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78702831268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76760101318359</t>
   </si>
   <si>
     <t xml:space="preserve">8.73522472381592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64456844329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68342113494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57981777191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48916149139404</t>
+    <t xml:space="preserve">8.64456939697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68342208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5798168182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48916053771973</t>
   </si>
   <si>
     <t xml:space="preserve">8.61866855621338</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63161849975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67047119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7287483215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71579742431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74817657470703</t>
+    <t xml:space="preserve">8.63161945343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67047023773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72875022888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71579837799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74817371368408</t>
   </si>
   <si>
     <t xml:space="preserve">8.83235549926758</t>
@@ -1070,82 +1070,82 @@
     <t xml:space="preserve">8.9424352645874</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97577857971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02245712280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09580993652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16249561309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18916702270508</t>
+    <t xml:space="preserve">8.97577667236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02245807647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09581089019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16249656677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18916893005371</t>
   </si>
   <si>
     <t xml:space="preserve">9.29586505889893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32920742034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28919506072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30253219604492</t>
+    <t xml:space="preserve">9.3292064666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28919696807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30253410339355</t>
   </si>
   <si>
     <t xml:space="preserve">9.33587551116943</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31587219238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38255405426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26918983459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35588073730469</t>
+    <t xml:space="preserve">9.31586837768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38255596160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26919078826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.355881690979</t>
   </si>
   <si>
     <t xml:space="preserve">9.23584842681885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2825288772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24251842498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26252269744873</t>
+    <t xml:space="preserve">9.28252792358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24251461029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26252365112305</t>
   </si>
   <si>
     <t xml:space="preserve">9.2558536529541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18249988555908</t>
+    <t xml:space="preserve">9.1825008392334</t>
   </si>
   <si>
     <t xml:space="preserve">9.22251224517822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20250701904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22918033599854</t>
+    <t xml:space="preserve">9.20250606536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22917938232422</t>
   </si>
   <si>
     <t xml:space="preserve">9.362548828125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48258209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53592967987061</t>
+    <t xml:space="preserve">9.48258113861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53593063354492</t>
   </si>
   <si>
     <t xml:space="preserve">9.58927726745605</t>
@@ -1154,52 +1154,52 @@
     <t xml:space="preserve">9.66929912567139</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81600570678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74932098388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67596817016602</t>
+    <t xml:space="preserve">9.81600475311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74932289123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6759672164917</t>
   </si>
   <si>
     <t xml:space="preserve">9.60928440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54259777069092</t>
+    <t xml:space="preserve">9.5425968170166</t>
   </si>
   <si>
     <t xml:space="preserve">9.42923450469971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1558256149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1758337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24918460845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27585887908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21584320068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12915325164795</t>
+    <t xml:space="preserve">9.15582466125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17583179473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24918556213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27586078643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21584129333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12915134429932</t>
   </si>
   <si>
     <t xml:space="preserve">9.20917415618896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34921169281006</t>
+    <t xml:space="preserve">9.34921264648438</t>
   </si>
   <si>
     <t xml:space="preserve">9.37588691711426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32254028320312</t>
+    <t xml:space="preserve">9.32253742218018</t>
   </si>
   <si>
     <t xml:space="preserve">9.30920028686523</t>
@@ -1208,67 +1208,67 @@
     <t xml:space="preserve">9.50258731842041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62262058258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68263626098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80266952514648</t>
+    <t xml:space="preserve">9.62262153625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68263721466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80266761779785</t>
   </si>
   <si>
     <t xml:space="preserve">9.94937419891357</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94270706176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90936374664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96938228607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88935947418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96271228790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97605037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95604419708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86268615722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69864082336426</t>
+    <t xml:space="preserve">9.94270610809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9093656539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96938133239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88935852050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96271324157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97604942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95604515075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86268520355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69864177703857</t>
   </si>
   <si>
     <t xml:space="preserve">9.65996360778809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7293176651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56793689727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43857097625732</t>
+    <t xml:space="preserve">9.72931671142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56793975830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43856906890869</t>
   </si>
   <si>
     <t xml:space="preserve">9.17183017730713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11714935302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93443298339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99044704437256</t>
+    <t xml:space="preserve">9.11715030670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9344310760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99044799804688</t>
   </si>
   <si>
     <t xml:space="preserve">8.90375804901123</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">8.961106300354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00511837005615</t>
+    <t xml:space="preserve">9.00512027740479</t>
   </si>
   <si>
     <t xml:space="preserve">9.09047508239746</t>
@@ -1286,16 +1286,16 @@
     <t xml:space="preserve">9.14115715026855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14382266998291</t>
+    <t xml:space="preserve">9.14382362365723</t>
   </si>
   <si>
     <t xml:space="preserve">9.12248420715332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19583606719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24385070800781</t>
+    <t xml:space="preserve">9.19583797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2438497543335</t>
   </si>
   <si>
     <t xml:space="preserve">9.14515686035156</t>
@@ -1304,25 +1304,25 @@
     <t xml:space="preserve">9.05046367645264</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92109680175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88908863067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01178646087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05713176727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06380081176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14782524108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21850872039795</t>
+    <t xml:space="preserve">8.9210958480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88908767700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01178741455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05713272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06380176544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14782333374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21851253509521</t>
   </si>
   <si>
     <t xml:space="preserve">9.40256023406982</t>
@@ -1331,28 +1331,28 @@
     <t xml:space="preserve">9.29453086853027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42256641387939</t>
+    <t xml:space="preserve">9.42256736755371</t>
   </si>
   <si>
     <t xml:space="preserve">9.49591827392578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44923877716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40789604187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37455081939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46924591064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4439058303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52792739868164</t>
+    <t xml:space="preserve">9.44924068450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4078950881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37455272674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46924304962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44390487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52792549133301</t>
   </si>
   <si>
     <t xml:space="preserve">9.62395286560059</t>
@@ -1361,40 +1361,40 @@
     <t xml:space="preserve">9.70664310455322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91070079803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92803573608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99472045898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.092080116272</t>
+    <t xml:space="preserve">9.91069889068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9280366897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99472141265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0920820236206</t>
   </si>
   <si>
     <t xml:space="preserve">10.1547651290894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2227830886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2908039093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3014717102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4561796188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5335369110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695728302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6375637054443</t>
+    <t xml:space="preserve">10.2227840423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2908020019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3014698028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4561815261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5335340499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695718765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.63756275177</t>
   </si>
   <si>
     <t xml:space="preserve">10.7282543182373</t>
@@ -1403,13 +1403,13 @@
     <t xml:space="preserve">10.6882438659668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.569543838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7829351425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7749357223511</t>
+    <t xml:space="preserve">10.5695457458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.78293800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7749347686768</t>
   </si>
   <si>
     <t xml:space="preserve">10.802942276001</t>
@@ -1418,22 +1418,22 @@
     <t xml:space="preserve">10.8842973709106</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7549285888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9029684066772</t>
+    <t xml:space="preserve">10.7549295425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9029674530029</t>
   </si>
   <si>
     <t xml:space="preserve">11.112359046936</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8269472122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1270303726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9416456222534</t>
+    <t xml:space="preserve">10.8269491195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1270313262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9416465759277</t>
   </si>
   <si>
     <t xml:space="preserve">10.9629850387573</t>
@@ -1442,109 +1442,109 @@
     <t xml:space="preserve">11.1203632354736</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1790456771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0283374786377</t>
+    <t xml:space="preserve">11.1790447235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0283355712891</t>
   </si>
   <si>
     <t xml:space="preserve">11.0710144042969</t>
   </si>
   <si>
-    <t xml:space="preserve">11.037672996521</t>
+    <t xml:space="preserve">11.0376710891724</t>
   </si>
   <si>
     <t xml:space="preserve">10.9502019882202</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0035037994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8818664550781</t>
+    <t xml:space="preserve">11.0035057067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8818635940552</t>
   </si>
   <si>
     <t xml:space="preserve">10.78209400177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.514217376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.301007270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3146743774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5852861404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7506608963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6508922576904</t>
+    <t xml:space="preserve">10.5142164230347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3010091781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.31467628479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5852851867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7506589889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6508903503418</t>
   </si>
   <si>
     <t xml:space="preserve">10.5593185424805</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5579509735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6809577941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4035139083862</t>
+    <t xml:space="preserve">10.5579519271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6809568405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4035129547119</t>
   </si>
   <si>
     <t xml:space="preserve">10.7069253921509</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6003198623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8066940307617</t>
+    <t xml:space="preserve">10.6003217697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.806697845459</t>
   </si>
   <si>
     <t xml:space="preserve">10.6139869689941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6194553375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5470180511475</t>
+    <t xml:space="preserve">10.6194534301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5470190048218</t>
   </si>
   <si>
     <t xml:space="preserve">10.3611431121826</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6850576400757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4431457519531</t>
+    <t xml:space="preserve">10.6850566864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4431476593018</t>
   </si>
   <si>
     <t xml:space="preserve">10.5456514358521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.836763381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8722982406616</t>
+    <t xml:space="preserve">10.8367624282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8722991943359</t>
   </si>
   <si>
     <t xml:space="preserve">10.8695659637451</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7793626785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0404071807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0335712432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0814094543457</t>
+    <t xml:space="preserve">10.7793598175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0404052734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0335721969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0814085006714</t>
   </si>
   <si>
     <t xml:space="preserve">11.0568065643311</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">11.1060094833374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.111475944519</t>
+    <t xml:space="preserve">11.1114749908447</t>
   </si>
   <si>
     <t xml:space="preserve">11.1251430511475</t>
@@ -1577,496 +1577,496 @@
     <t xml:space="preserve">10.9884700775146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9925727844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0226373672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0964422225952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0896072387695</t>
+    <t xml:space="preserve">10.9925708770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0226383209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0964441299438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0896091461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1456422805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0704746246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1292419433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2508811950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1675100326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.073205947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1333427429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3506526947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2754821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1975793838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9037313461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.905101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0117044448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8736667633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.813530921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9420013427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0527076721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1524782180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0937070846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2071466445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2290124893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2098817825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9201335906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9912042617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0185403823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9064674377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8148956298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7465600967407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8312978744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8517980575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.946102142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9256000518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9242353439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240039825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.164776802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3322219848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6071815490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6408500671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5959587097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4206027984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4472551345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4626865386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4865369796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4177961349487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4107818603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1147813796997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4065732955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308181762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0193872451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9562578201294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0558633804321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1049604415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9310064315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7261924743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7949304580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6434230804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4863033294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3263788223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5031394958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6153650283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7752914428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7921237945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.016580581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.820182800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7738885879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.838418006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7584562301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9660768508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9239950180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8412256240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8636713027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.625186920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4694681167603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5045404434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4512319564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3249769210815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1369953155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.260443687439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.041600227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86203479766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0275716781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95602703094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92797088623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97145557403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99250221252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1790809631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1103410720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.023365020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70351505279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8999137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77786445617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86624526977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98548698425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0037250518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92376136779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79189300537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68948459625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78487968444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69790077209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66142845153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48326778411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64319133758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6656379699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70772266387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0584344863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97005558013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9083309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99951553344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98969459533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93919372558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90411949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99530601501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0163478851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97286224365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2464160919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2029275894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1538286209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.111741065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2211656570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1229658126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1860942840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2716684341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3852977752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3614511489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3712701797485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4792900085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4231748580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1945114135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.181884765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2758760452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.350227355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4203691482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3670616149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6055469512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6448249816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6602563858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6981344223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7107601165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7233858108521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6700792312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6686744689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6770915985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6378116607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5480298995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5985326766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6504373550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7177753448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4989290237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6069488525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6364097595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9029521942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8987417221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9338140487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0432367324829</t>
   </si>
   <si>
     <t xml:space="preserve">11.1456432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0704746246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1292419433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2508821487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1675100326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0732088088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1333427429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3506517410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2754831314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1975793838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.903733253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9050989151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0117044448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8736658096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.813530921936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9420013427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0527067184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1524753570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0937080383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.207145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2290143966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2098789215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9201335906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9912042617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0185394287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9064674377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8148956298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.746561050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8312969207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8517980575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.946102142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9256000518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9242353439331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240039825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1647806167603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3322238922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6071815490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6408491134644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5959587097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4206018447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4472541809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4626865386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4865350723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.417797088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4107809066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1147804260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4065713882446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308191299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0193872451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9562587738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0558605194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1049604415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9310073852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7261924743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7949304580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.64342212677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4863052368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3263788223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5031385421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6153650283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7752923965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7921257019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0165815353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.820182800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7738885879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8384189605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7584562301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9660778045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9239931106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8412246704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8636703491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6251840591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4694690704346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5045404434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4512319564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3249759674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1369934082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.260443687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.041600227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86203670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0275716781616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95602703094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92797088623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97145652770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99250030517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1790781021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1103410720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.023362159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70351409912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8999137878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77786540985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86624431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98548698425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0037240982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92376232147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79189300537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68948650360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78487968444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69790363311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66142749786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48326778411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64319133758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66563510894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70772361755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0584363937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97005462646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90832996368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99951648712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98969459533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93919277191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90412139892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99530696868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0163478851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97286224365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2464170455933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2029275894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1538286209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.111743927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2211666107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1229658126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1860933303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2716684341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3852977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3614492416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3712701797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4792890548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4231748580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1945123672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.181884765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2758760452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.350227355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4203720092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3670606613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6055450439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6448268890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6602582931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6981334686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7107591629028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7233867645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6700782775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6686744689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6770915985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6378126144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5480298995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5985317230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6504373550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7177743911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4989309310913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6069488525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6364068984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9029502868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8987417221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9338159561157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0432348251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1456441879272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0656824111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1035585403442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0123720169067</t>
+    <t xml:space="preserve">11.0656814575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1035575866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0123729705811</t>
   </si>
   <si>
     <t xml:space="preserve">10.9590644836426</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9534521102905</t>
+    <t xml:space="preserve">10.9534549713135</t>
   </si>
   <si>
     <t xml:space="preserve">10.9352149963379</t>
@@ -2075,16 +2075,16 @@
     <t xml:space="preserve">10.8580589294434</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0502490997314</t>
+    <t xml:space="preserve">11.0502481460571</t>
   </si>
   <si>
     <t xml:space="preserve">11.0755004882812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1554622650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0516519546509</t>
+    <t xml:space="preserve">11.155463218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0516529083252</t>
   </si>
   <si>
     <t xml:space="preserve">11.1161832809448</t>
@@ -2096,16 +2096,16 @@
     <t xml:space="preserve">11.1442394256592</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1807136535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1694927215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0937376022339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9913301467896</t>
+    <t xml:space="preserve">11.1807146072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.169490814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0937395095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9913291931152</t>
   </si>
   <si>
     <t xml:space="preserve">10.8229885101318</t>
@@ -2117,25 +2117,25 @@
     <t xml:space="preserve">11.081111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9071607589722</t>
+    <t xml:space="preserve">10.9071588516235</t>
   </si>
   <si>
     <t xml:space="preserve">10.876296043396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7612628936768</t>
+    <t xml:space="preserve">10.7612619400024</t>
   </si>
   <si>
     <t xml:space="preserve">10.5901145935059</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6742858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.545223236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.583101272583</t>
+    <t xml:space="preserve">10.6742868423462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5452241897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5831022262573</t>
   </si>
   <si>
     <t xml:space="preserve">10.4315919876099</t>
@@ -2144,31 +2144,31 @@
     <t xml:space="preserve">10.1636486053467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1566352844238</t>
+    <t xml:space="preserve">10.1566333770752</t>
   </si>
   <si>
     <t xml:space="preserve">10.0472116470337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0065279006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1159505844116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2436122894287</t>
+    <t xml:space="preserve">10.0065298080444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1159524917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2436113357544</t>
   </si>
   <si>
     <t xml:space="preserve">10.1832885742188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3460187911987</t>
+    <t xml:space="preserve">10.346019744873</t>
   </si>
   <si>
     <t xml:space="preserve">10.4091482162476</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3990488052368</t>
+    <t xml:space="preserve">10.3990478515625</t>
   </si>
   <si>
     <t xml:space="preserve">10.4884958267212</t>
@@ -2177,25 +2177,25 @@
     <t xml:space="preserve">10.4004907608032</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0412559509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1379165649414</t>
+    <t xml:space="preserve">10.0412569046021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1379175186157</t>
   </si>
   <si>
     <t xml:space="preserve">10.1494579315186</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1177206039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90708351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87678623199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79599285125732</t>
+    <t xml:space="preserve">10.1177186965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90708446502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87678813934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79599571228027</t>
   </si>
   <si>
     <t xml:space="preserve">9.96912097930908</t>
@@ -2213,43 +2213,43 @@
     <t xml:space="preserve">10.0701103210449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0989646911621</t>
+    <t xml:space="preserve">10.0989637374878</t>
   </si>
   <si>
     <t xml:space="preserve">10.1321458816528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0297155380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0585670471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0051879882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2114953994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.259105682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572082519531</t>
+    <t xml:space="preserve">10.0297145843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0585689544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0051889419556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2114973068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2591075897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572101593018</t>
   </si>
   <si>
     <t xml:space="preserve">10.5361061096191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4755115509033</t>
+    <t xml:space="preserve">10.475513458252</t>
   </si>
   <si>
     <t xml:space="preserve">10.4163608551025</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4654130935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4351148605347</t>
+    <t xml:space="preserve">10.4654121398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.435115814209</t>
   </si>
   <si>
     <t xml:space="preserve">10.5606317520142</t>
@@ -2258,55 +2258,55 @@
     <t xml:space="preserve">10.4581995010376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5086936950684</t>
+    <t xml:space="preserve">10.5086946487427</t>
   </si>
   <si>
     <t xml:space="preserve">10.564959526062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4957094192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5707302093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6082391738892</t>
+    <t xml:space="preserve">10.4957103729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5707311630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6082410812378</t>
   </si>
   <si>
     <t xml:space="preserve">10.6760482788086</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6948041915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6125688552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793867111206</t>
+    <t xml:space="preserve">10.6948022842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.61256980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793876647949</t>
   </si>
   <si>
     <t xml:space="preserve">10.3976068496704</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3153686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2576627731323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3269128799438</t>
+    <t xml:space="preserve">10.3153696060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2576637268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3269138336182</t>
   </si>
   <si>
     <t xml:space="preserve">10.3802928924561</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3514394760132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3427801132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2778606414795</t>
+    <t xml:space="preserve">10.3514375686646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3427810668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2778615951538</t>
   </si>
   <si>
     <t xml:space="preserve">10.1667718887329</t>
@@ -2315,106 +2315,106 @@
     <t xml:space="preserve">10.2461204528809</t>
   </si>
   <si>
-    <t xml:space="preserve">10.168212890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86813068389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7238597869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65461158752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51755332946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69067859649658</t>
+    <t xml:space="preserve">10.1682138442993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86813259124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72385883331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65460872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51755428314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69067668914795</t>
   </si>
   <si>
     <t xml:space="preserve">9.51610946655273</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50023937225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68057823181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45118713378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40646362304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57526111602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48148536682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63008308410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60267162322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4800443649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53486442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.595458984375</t>
+    <t xml:space="preserve">9.50024032592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68057918548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45118808746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40646266937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57526206970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48148441314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63008403778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60267066955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48004245758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5348653793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59545803070068</t>
   </si>
   <si>
     <t xml:space="preserve">9.66615295410156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82340812683105</t>
+    <t xml:space="preserve">9.82340717315674</t>
   </si>
   <si>
     <t xml:space="preserve">9.89121437072754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81186389923096</t>
+    <t xml:space="preserve">9.81186676025391</t>
   </si>
   <si>
     <t xml:space="preserve">9.86091709136963</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93305206298828</t>
+    <t xml:space="preserve">9.9330530166626</t>
   </si>
   <si>
     <t xml:space="preserve">10.0426969528198</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1725416183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1523447036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1307029724121</t>
+    <t xml:space="preserve">10.1725435256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1523456573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1307058334351</t>
   </si>
   <si>
     <t xml:space="preserve">10.3254709243774</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2086095809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3326826095581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4971523284912</t>
+    <t xml:space="preserve">10.208610534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3326835632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4971513748169</t>
   </si>
   <si>
     <t xml:space="preserve">10.5105314254761</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4034957885742</t>
+    <t xml:space="preserve">10.4034938812256</t>
   </si>
   <si>
     <t xml:space="preserve">10.3038902282715</t>
@@ -2423,64 +2423,64 @@
     <t xml:space="preserve">10.3574094772339</t>
   </si>
   <si>
-    <t xml:space="preserve">10.446605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4317398071289</t>
+    <t xml:space="preserve">10.4466047286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4317388534546</t>
   </si>
   <si>
     <t xml:space="preserve">10.3916006088257</t>
   </si>
   <si>
-    <t xml:space="preserve">10.076434135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96642017364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.067512512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1477937698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0600805282593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1091394424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1700897216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2845621109009</t>
+    <t xml:space="preserve">10.0764322280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96642112731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0675115585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1477918624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0600824356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1091384887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.170090675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2845640182495</t>
   </si>
   <si>
     <t xml:space="preserve">10.2161779403687</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2860507965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2696971893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2429351806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.372275352478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4599866867065</t>
+    <t xml:space="preserve">10.2860488891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2696981430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2429370880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3722743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4599847793579</t>
   </si>
   <si>
     <t xml:space="preserve">10.5090446472168</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4361991882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3603820800781</t>
+    <t xml:space="preserve">10.4362001419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3603811264038</t>
   </si>
   <si>
     <t xml:space="preserve">10.2786159515381</t>
@@ -2489,19 +2489,19 @@
     <t xml:space="preserve">10.1819839477539</t>
   </si>
   <si>
-    <t xml:space="preserve">10.086838722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1864433288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3871421813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5536441802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5283708572388</t>
+    <t xml:space="preserve">10.0868396759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1864442825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3871412277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5536451339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5283718109131</t>
   </si>
   <si>
     <t xml:space="preserve">10.5372905731201</t>
@@ -2510,73 +2510,73 @@
     <t xml:space="preserve">10.5476970672607</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5075597763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5952711105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5417518615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5699977874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4882326126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3841667175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4153871536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4376850128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4421472549438</t>
+    <t xml:space="preserve">10.5075578689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5952701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5417509078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.569995880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4882307052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3841676712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4153881072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.437686920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4421482086182</t>
   </si>
   <si>
     <t xml:space="preserve">10.355920791626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3247022628784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2578048706055</t>
+    <t xml:space="preserve">10.3247032165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2578029632568</t>
   </si>
   <si>
     <t xml:space="preserve">10.1938762664795</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0883274078369</t>
+    <t xml:space="preserve">10.0883264541626</t>
   </si>
   <si>
     <t xml:space="preserve">10.0199403762817</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1418447494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2355041503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1284666061401</t>
+    <t xml:space="preserve">10.141845703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2355051040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1284646987915</t>
   </si>
   <si>
     <t xml:space="preserve">10.1581983566284</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1031913757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1463041305542</t>
+    <t xml:space="preserve">10.1031923294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1463050842285</t>
   </si>
   <si>
     <t xml:space="preserve">10.1121129989624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1269788742065</t>
+    <t xml:space="preserve">10.1269779205322</t>
   </si>
   <si>
     <t xml:space="preserve">10.1849575042725</t>
@@ -2585,28 +2585,28 @@
     <t xml:space="preserve">10.271183013916</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2919960021973</t>
+    <t xml:space="preserve">10.2919969558716</t>
   </si>
   <si>
     <t xml:space="preserve">10.4183597564697</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4064674377441</t>
+    <t xml:space="preserve">10.4064664840698</t>
   </si>
   <si>
     <t xml:space="preserve">10.4124135971069</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4852590560913</t>
+    <t xml:space="preserve">10.485258102417</t>
   </si>
   <si>
     <t xml:space="preserve">10.6413555145264</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6443300247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.559591293335</t>
+    <t xml:space="preserve">10.6443290710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5595893859863</t>
   </si>
   <si>
     <t xml:space="preserve">10.4807987213135</t>
@@ -2618,13 +2618,13 @@
     <t xml:space="preserve">10.2563171386719</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3232145309448</t>
+    <t xml:space="preserve">10.3232164382935</t>
   </si>
   <si>
     <t xml:space="preserve">10.3440284729004</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3187551498413</t>
+    <t xml:space="preserve">10.318754196167</t>
   </si>
   <si>
     <t xml:space="preserve">10.077919960022</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">10.012508392334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80883979797363</t>
+    <t xml:space="preserve">9.80883884429932</t>
   </si>
   <si>
     <t xml:space="preserve">9.9589900970459</t>
@@ -2645,16 +2645,16 @@
     <t xml:space="preserve">9.87722301483154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60814094543457</t>
+    <t xml:space="preserve">9.60814380645752</t>
   </si>
   <si>
     <t xml:space="preserve">9.40893268585205</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37325286865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50556564331055</t>
+    <t xml:space="preserve">9.37325191497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50556468963623</t>
   </si>
   <si>
     <t xml:space="preserve">9.68396186828613</t>
@@ -2663,10 +2663,10 @@
     <t xml:space="preserve">9.64085006713867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59327602386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49961853027344</t>
+    <t xml:space="preserve">9.59327697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49961757659912</t>
   </si>
   <si>
     <t xml:space="preserve">9.73748016357422</t>
@@ -2675,19 +2675,19 @@
     <t xml:space="preserve">9.65422821044922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58286952972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59624767303467</t>
+    <t xml:space="preserve">9.5828685760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59624862670898</t>
   </si>
   <si>
     <t xml:space="preserve">9.61706256866455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58881664276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48772525787354</t>
+    <t xml:space="preserve">9.58881568908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48772430419922</t>
   </si>
   <si>
     <t xml:space="preserve">9.04470634460449</t>
@@ -2696,31 +2696,31 @@
     <t xml:space="preserve">8.9019889831543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96739959716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73994636535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29395389556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26422023773193</t>
+    <t xml:space="preserve">8.96740055084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73994541168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29395294189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26422214508057</t>
   </si>
   <si>
     <t xml:space="preserve">8.26570796966553</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28949451446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15272426605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60712814331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02088499069214</t>
+    <t xml:space="preserve">8.28949546813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15272521972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60712766647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02088451385498</t>
   </si>
   <si>
     <t xml:space="preserve">6.06920051574707</t>
@@ -2729,202 +2729,202 @@
     <t xml:space="preserve">5.98371887207031</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89995956420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13707780838013</t>
+    <t xml:space="preserve">4.89995908737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13707828521729</t>
   </si>
   <si>
     <t xml:space="preserve">4.82562732696533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10362958908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97577857971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17721700668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42102670669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41656589508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22529745101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48397064208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47505283355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10785245895386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38734102249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85340166091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83853483200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31277370452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93144941329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92401599884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00801277160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90915155410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91881322860718</t>
+    <t xml:space="preserve">5.10362863540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9757776260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17721748352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4210262298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41656637191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22529649734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.483971118927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47505235671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10785293579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38734149932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85340213775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83853530883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31277275085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93144989013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92401647567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00801229476929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90915060043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91881370544434</t>
   </si>
   <si>
     <t xml:space="preserve">6.81400680541992</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37916421890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.284019947052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38288021087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26915264129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91682004928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20522785186768</t>
+    <t xml:space="preserve">6.37916374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28401947021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38288116455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26915407180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91681957244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20522737503052</t>
   </si>
   <si>
     <t xml:space="preserve">6.29739999771118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13238286972046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24685382843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45498323440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65790796279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4772834777832</t>
+    <t xml:space="preserve">6.13238143920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24685335159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45498275756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65790891647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47728252410889</t>
   </si>
   <si>
     <t xml:space="preserve">6.1033935546875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45721435546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26097774505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35983800888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41558694839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33679533004761</t>
+    <t xml:space="preserve">6.45721340179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26097726821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35983753204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41558599472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33679580688477</t>
   </si>
   <si>
     <t xml:space="preserve">6.32861804962158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33307886123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77694082260132</t>
+    <t xml:space="preserve">6.33307933807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77694177627563</t>
   </si>
   <si>
     <t xml:space="preserve">6.56323003768921</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59845733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43641185760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39883613586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46615886688232</t>
+    <t xml:space="preserve">6.59845685958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43641233444214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39883470535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46615982055664</t>
   </si>
   <si>
     <t xml:space="preserve">6.47711896896362</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61489725112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6477746963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35891056060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52878618240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86618423461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04466915130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01727056503296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44156217575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56524753570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33979558944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22550201416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71744728088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72214317321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71666383743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99456787109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96403884887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91628551483154</t>
+    <t xml:space="preserve">6.61489629745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64777565002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35891151428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52878570556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8661847114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04466867446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01726961135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44156360626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5652494430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33979511260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22550249099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71744680404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72214365005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71666288375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99456834793091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96403741836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9162859916687</t>
   </si>
   <si>
     <t xml:space="preserve">6.94681549072266</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">6.63916397094727</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5734076499939</t>
+    <t xml:space="preserve">6.57340669631958</t>
   </si>
   <si>
     <t xml:space="preserve">6.75189161300659</t>
@@ -2948,28 +2948,28 @@
     <t xml:space="preserve">6.64620971679688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63446664810181</t>
+    <t xml:space="preserve">6.63446760177612</t>
   </si>
   <si>
     <t xml:space="preserve">6.82626056671143</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79024934768677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85600805282593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90454196929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8090386390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60237121582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77929067611694</t>
+    <t xml:space="preserve">6.79024982452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85600757598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.904541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80903816223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60237216949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77929162979126</t>
   </si>
   <si>
     <t xml:space="preserve">6.87557792663574</t>
@@ -2978,139 +2978,139 @@
     <t xml:space="preserve">6.91706800460815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96325492858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89906358718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87401342391968</t>
+    <t xml:space="preserve">6.96325540542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8990626335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8740119934082</t>
   </si>
   <si>
     <t xml:space="preserve">6.98987102508545</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81608200073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73310375213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6696949005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62507295608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6360330581665</t>
+    <t xml:space="preserve">6.81608295440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73310232162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66969537734985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62507343292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63603210449219</t>
   </si>
   <si>
     <t xml:space="preserve">6.58358287811279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1201491355896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90330600738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89782619476318</t>
+    <t xml:space="preserve">6.12014865875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90330505371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89782571792603</t>
   </si>
   <si>
     <t xml:space="preserve">6.15224552154541</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3377742767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21721982955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11075496673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25166416168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45363426208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55461835861206</t>
+    <t xml:space="preserve">6.33777475357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21722030639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11075592041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25166368484497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45363521575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55461931228638</t>
   </si>
   <si>
     <t xml:space="preserve">6.45441722869873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40275049209595</t>
+    <t xml:space="preserve">6.40275001525879</t>
   </si>
   <si>
     <t xml:space="preserve">6.34090709686279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30489683151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36282682418823</t>
+    <t xml:space="preserve">6.30489730834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36282587051392</t>
   </si>
   <si>
     <t xml:space="preserve">6.21174001693726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16320466995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41214466094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32368516921997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23287630081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1060585975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08727073669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00898694992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02464389801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98471975326538</t>
+    <t xml:space="preserve">6.16320371627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41214418411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32368469238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23287582397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10605907440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08727121353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00898790359497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02464437484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98472023010254</t>
   </si>
   <si>
     <t xml:space="preserve">6.08492136001587</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88608360290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97141170501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96984577178955</t>
+    <t xml:space="preserve">5.88608312606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97141122817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96984624862671</t>
   </si>
   <si>
     <t xml:space="preserve">5.94871044158936</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85242176055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95888710021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98941707611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94479513168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78353357315063</t>
+    <t xml:space="preserve">5.8524227142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95888614654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.989417552948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94479560852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78353261947632</t>
   </si>
   <si>
     <t xml:space="preserve">5.53048372268677</t>
@@ -3122,40 +3122,40 @@
     <t xml:space="preserve">5.5129771232605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42066955566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32279205322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45886611938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30369424819946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32199573516846</t>
+    <t xml:space="preserve">5.4206690788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3227915763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45886659622192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3036937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32199621200562</t>
   </si>
   <si>
     <t xml:space="preserve">5.14215612411499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17000675201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32358837127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5050196647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35541772842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47876024246216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46045684814453</t>
+    <t xml:space="preserve">5.17000770568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3235878944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50502014160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35541820526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47876071929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46045732498169</t>
   </si>
   <si>
     <t xml:space="preserve">5.42623996734619</t>
@@ -3167,55 +3167,55 @@
     <t xml:space="preserve">5.32995414733887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10714292526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22252702713013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24082946777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22173166275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04507350921631</t>
+    <t xml:space="preserve">5.10714340209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22252798080444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2408299446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2217321395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04507398605347</t>
   </si>
   <si>
     <t xml:space="preserve">5.04587030410767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12783241271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96947765350342</t>
+    <t xml:space="preserve">5.12783288955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9694766998291</t>
   </si>
   <si>
     <t xml:space="preserve">4.85409307479858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68300628662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70926713943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78327131271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06258153915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18353509902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24958229064941</t>
+    <t xml:space="preserve">4.68300771713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70926666259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78327178955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06258058547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18353605270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24958372116089</t>
   </si>
   <si>
     <t xml:space="preserve">5.24878692626953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20581579208374</t>
+    <t xml:space="preserve">5.2058162689209</t>
   </si>
   <si>
     <t xml:space="preserve">5.87106561660767</t>
@@ -3224,10 +3224,10 @@
     <t xml:space="preserve">6.10979175567627</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04135799407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06204652786255</t>
+    <t xml:space="preserve">6.04135751724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06204700469971</t>
   </si>
   <si>
     <t xml:space="preserve">6.09546852111816</t>
@@ -3236,139 +3236,139 @@
     <t xml:space="preserve">6.34055995941162</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43446016311646</t>
+    <t xml:space="preserve">6.43445920944214</t>
   </si>
   <si>
     <t xml:space="preserve">6.52040100097656</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42729711532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46549320220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62862300872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85939168930054</t>
+    <t xml:space="preserve">6.42729663848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46549367904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62862253189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85939121246338</t>
   </si>
   <si>
     <t xml:space="preserve">6.90077066421509</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81005430221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82915258407593</t>
+    <t xml:space="preserve">6.81005477905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82915210723877</t>
   </si>
   <si>
     <t xml:space="preserve">6.60713768005371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69626188278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76310586929321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72570466995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95806550979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97636747360229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99466848373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03684520721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11084985733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00899219512939</t>
+    <t xml:space="preserve">6.6962628364563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7631049156189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72570514678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9580659866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97636699676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99466943740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03684425354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11084938049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00899267196655</t>
   </si>
   <si>
     <t xml:space="preserve">6.90554523468018</t>
   </si>
   <si>
-    <t xml:space="preserve">6.964430809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96761274337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93180513381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86018705368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56018829345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65249586105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83074331283569</t>
+    <t xml:space="preserve">6.96443033218384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96761322021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93180465698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86018753051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56018877029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65249490737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83074426651001</t>
   </si>
   <si>
     <t xml:space="preserve">6.84029388427734</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81323719024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8020977973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72252035140991</t>
+    <t xml:space="preserve">6.81323671340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80209732055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72252178192139</t>
   </si>
   <si>
     <t xml:space="preserve">6.97159194946289</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19997358322144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2158899307251</t>
+    <t xml:space="preserve">7.19997501373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21588945388794</t>
   </si>
   <si>
     <t xml:space="preserve">7.18564939498901</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1442699432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20474863052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20952272415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16575622558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02729511260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04718923568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02411222457886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08299875259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89758729934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79732227325439</t>
+    <t xml:space="preserve">7.14427137374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20474815368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20952224731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16575574874878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02729606628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0471887588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0241117477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08299827575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89758825302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79732275009155</t>
   </si>
   <si>
     <t xml:space="preserve">6.64692497253418</t>
@@ -3380,76 +3380,76 @@
     <t xml:space="preserve">6.80130195617676</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6461296081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52517461776733</t>
+    <t xml:space="preserve">6.64612865447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52517557144165</t>
   </si>
   <si>
     <t xml:space="preserve">6.61350393295288</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7551474571228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81960391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8522310256958</t>
+    <t xml:space="preserve">6.75514793395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81960344314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85223007202148</t>
   </si>
   <si>
     <t xml:space="preserve">6.90793228149414</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98273372650146</t>
+    <t xml:space="preserve">6.98273277282715</t>
   </si>
   <si>
     <t xml:space="preserve">7.03763961791992</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98432397842407</t>
+    <t xml:space="preserve">6.98432540893555</t>
   </si>
   <si>
     <t xml:space="preserve">7.06549119949341</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25965547561646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2246413230896</t>
+    <t xml:space="preserve">7.25965452194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22464275360107</t>
   </si>
   <si>
     <t xml:space="preserve">7.29148483276367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23896598815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31933641433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44506645202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49917602539062</t>
+    <t xml:space="preserve">7.23896646499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31933498382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44506502151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49917793273926</t>
   </si>
   <si>
     <t xml:space="preserve">7.62092733383179</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70288944244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54533100128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60819530487061</t>
+    <t xml:space="preserve">7.70288991928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54532861709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60819482803345</t>
   </si>
   <si>
     <t xml:space="preserve">7.55328798294067</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68697452545166</t>
+    <t xml:space="preserve">7.6869740486145</t>
   </si>
   <si>
     <t xml:space="preserve">7.85885763168335</t>
@@ -3458,34 +3458,34 @@
     <t xml:space="preserve">8.00686740875244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1007661819458</t>
+    <t xml:space="preserve">8.10076427459717</t>
   </si>
   <si>
     <t xml:space="preserve">8.06893539428711</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13259601593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19625568389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29015636444092</t>
+    <t xml:space="preserve">8.13259696960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19625663757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2901554107666</t>
   </si>
   <si>
     <t xml:space="preserve">8.22331142425537</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14851188659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22649383544922</t>
+    <t xml:space="preserve">8.14851093292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22649574279785</t>
   </si>
   <si>
     <t xml:space="preserve">8.09599018096924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07371044158936</t>
+    <t xml:space="preserve">8.07370853424072</t>
   </si>
   <si>
     <t xml:space="preserve">7.94161415100098</t>
@@ -3494,34 +3494,34 @@
     <t xml:space="preserve">8.15328598022461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04665565490723</t>
+    <t xml:space="preserve">8.04665470123291</t>
   </si>
   <si>
     <t xml:space="preserve">8.14214611053467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23445129394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28538131713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3506326675415</t>
+    <t xml:space="preserve">8.23445320129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28538036346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35063171386719</t>
   </si>
   <si>
     <t xml:space="preserve">8.41110992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.334716796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32039451599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16442489624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1166820526123</t>
+    <t xml:space="preserve">8.33471870422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32039546966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16442680358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11668109893799</t>
   </si>
   <si>
     <t xml:space="preserve">8.08644199371338</t>
@@ -3530,22 +3530,22 @@
     <t xml:space="preserve">8.13737010955811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34585762023926</t>
+    <t xml:space="preserve">8.34585857391357</t>
   </si>
   <si>
     <t xml:space="preserve">8.24718570709229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23604488372803</t>
+    <t xml:space="preserve">8.23604393005371</t>
   </si>
   <si>
     <t xml:space="preserve">8.21535396575928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01641464233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07689380645752</t>
+    <t xml:space="preserve">8.01641750335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07689476013184</t>
   </si>
   <si>
     <t xml:space="preserve">8.09121704101562</t>
@@ -3554,49 +3554,49 @@
     <t xml:space="preserve">8.03869819641113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07530212402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04506206512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11986446380615</t>
+    <t xml:space="preserve">8.07530117034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04506397247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11986541748047</t>
   </si>
   <si>
     <t xml:space="preserve">8.11827278137207</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90182781219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03710651397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20262145996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21694564819336</t>
+    <t xml:space="preserve">7.90182971954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03710556030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20262336730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21694660186768</t>
   </si>
   <si>
     <t xml:space="preserve">8.21217155456543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28219890594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32198429107666</t>
+    <t xml:space="preserve">8.28219795227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32198524475098</t>
   </si>
   <si>
     <t xml:space="preserve">8.19944000244141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29970359802246</t>
+    <t xml:space="preserve">8.29970455169678</t>
   </si>
   <si>
     <t xml:space="preserve">8.32675933837891</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30288791656494</t>
+    <t xml:space="preserve">8.30288696289062</t>
   </si>
   <si>
     <t xml:space="preserve">8.11349773406982</t>
@@ -3605,34 +3605,34 @@
     <t xml:space="preserve">8.1835241317749</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23729801177979</t>
+    <t xml:space="preserve">8.23729991912842</t>
   </si>
   <si>
     <t xml:space="preserve">8.13545322418213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.172119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22915267944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22426414489746</t>
+    <t xml:space="preserve">8.17211723327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22915172576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22426223754883</t>
   </si>
   <si>
     <t xml:space="preserve">8.1933012008667</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38721561431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44913768768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50617218017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45728588104248</t>
+    <t xml:space="preserve">8.38721656799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44913864135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5061731338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45728778839111</t>
   </si>
   <si>
     <t xml:space="preserve">8.51757907867432</t>
@@ -3641,52 +3641,52 @@
     <t xml:space="preserve">8.55180072784424</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50943183898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56646633148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62186908721924</t>
+    <t xml:space="preserve">8.50943279266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5664644241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62187004089355</t>
   </si>
   <si>
     <t xml:space="preserve">8.74082565307617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74571514129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75223255157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66097927093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40351009368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48824882507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48498916625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4915075302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58764839172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60068416595459</t>
+    <t xml:space="preserve">8.74571418762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75223159790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66097831726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40351295471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48824787139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48498821258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49150657653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58764934539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60068511962891</t>
   </si>
   <si>
     <t xml:space="preserve">8.42632579803467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42306518554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36766147613525</t>
+    <t xml:space="preserve">8.42306709289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3676643371582</t>
   </si>
   <si>
     <t xml:space="preserve">8.52246761322021</t>
@@ -3695,10 +3695,10 @@
     <t xml:space="preserve">8.47195243835449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51920890808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28618621826172</t>
+    <t xml:space="preserve">8.51921081542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28618431091309</t>
   </si>
   <si>
     <t xml:space="preserve">8.11752700805664</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">8.15093421936035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16722774505615</t>
+    <t xml:space="preserve">8.16722965240479</t>
   </si>
   <si>
     <t xml:space="preserve">8.07434558868408</t>
@@ -3719,31 +3719,31 @@
     <t xml:space="preserve">8.0107946395874</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7028112411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74273490905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94398307800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85761833190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87798547744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03849697113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99123764038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08005046844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15908241271973</t>
+    <t xml:space="preserve">7.70281219482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74273538589478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94398212432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85761690139771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87798595428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03849792480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99123859405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08004760742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15908050537109</t>
   </si>
   <si>
     <t xml:space="preserve">8.1248607635498</t>
@@ -3752,19 +3752,19 @@
     <t xml:space="preserve">8.25848293304443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24544715881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31062889099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3937349319458</t>
+    <t xml:space="preserve">8.24544811248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31062793731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39373397827148</t>
   </si>
   <si>
     <t xml:space="preserve">8.37906837463379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4328441619873</t>
+    <t xml:space="preserve">8.43284320831299</t>
   </si>
   <si>
     <t xml:space="preserve">8.48661708831787</t>
@@ -3776,124 +3776,124 @@
     <t xml:space="preserve">8.56972408294678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45076751708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45402812957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44587898254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20959758758545</t>
+    <t xml:space="preserve">8.45076847076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.454026222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44587993621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20959663391113</t>
   </si>
   <si>
     <t xml:space="preserve">8.19819068908691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33833026885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40677070617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41654872894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39699268341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4963960647583</t>
+    <t xml:space="preserve">8.33832931518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40676879882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41654777526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39699363708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49639511108398</t>
   </si>
   <si>
     <t xml:space="preserve">8.49965476989746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66261005401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57950115203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62512874603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62838745117188</t>
+    <t xml:space="preserve">8.6626091003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57950210571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6251277923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62838649749756</t>
   </si>
   <si>
     <t xml:space="preserve">8.59090805053711</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80437755584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88422298431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9542932510376</t>
+    <t xml:space="preserve">8.80437850952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8842248916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95429420471191</t>
   </si>
   <si>
     <t xml:space="preserve">8.98199653625488</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91518592834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83207035064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99490833282471</t>
+    <t xml:space="preserve">8.91518497467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83207225799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99490642547607</t>
   </si>
   <si>
     <t xml:space="preserve">9.23237323760986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24594306945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27138519287109</t>
+    <t xml:space="preserve">9.24594497680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27138614654541</t>
   </si>
   <si>
     <t xml:space="preserve">9.48680305480957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55295372009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65811634063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79211616516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7378396987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87353324890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0482444763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89388847351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82773685455322</t>
+    <t xml:space="preserve">9.55295467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65811824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79211711883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73783874511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87353420257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0482425689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89388942718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82773780822754</t>
   </si>
   <si>
     <t xml:space="preserve">10.0567226409912</t>
   </si>
   <si>
-    <t xml:space="preserve">10.182240486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1551027297974</t>
+    <t xml:space="preserve">10.1822423934937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1551036834717</t>
   </si>
   <si>
     <t xml:space="preserve">10.0261917114258</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1601905822754</t>
+    <t xml:space="preserve">10.1601896286011</t>
   </si>
   <si>
     <t xml:space="preserve">10.3535566329956</t>
@@ -3902,10 +3902,10 @@
     <t xml:space="preserve">10.3773031234741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3230257034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4468469619751</t>
+    <t xml:space="preserve">10.3230247497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4468479156494</t>
   </si>
   <si>
     <t xml:space="preserve">10.2907972335815</t>
@@ -3914,19 +3914,19 @@
     <t xml:space="preserve">10.2433042526245</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4129228591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.480770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4044418334961</t>
+    <t xml:space="preserve">10.4129238128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4807710647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4044427871704</t>
   </si>
   <si>
     <t xml:space="preserve">10.3162393569946</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5197830200195</t>
+    <t xml:space="preserve">10.5197849273682</t>
   </si>
   <si>
     <t xml:space="preserve">10.809832572937</t>
@@ -3935,40 +3935,40 @@
     <t xml:space="preserve">10.6351251602173</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4994287490845</t>
+    <t xml:space="preserve">10.4994297027588</t>
   </si>
   <si>
     <t xml:space="preserve">10.6520872116089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7470722198486</t>
+    <t xml:space="preserve">10.7470731735229</t>
   </si>
   <si>
     <t xml:space="preserve">10.7555541992188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7029724121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.740288734436</t>
+    <t xml:space="preserve">10.7029733657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7402896881104</t>
   </si>
   <si>
     <t xml:space="preserve">10.725022315979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6113777160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6402139663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6843128204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6792259216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5418329238892</t>
+    <t xml:space="preserve">10.6113786697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.640212059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6843137741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6792240142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5418348312378</t>
   </si>
   <si>
     <t xml:space="preserve">10.3196325302124</t>
@@ -3977,64 +3977,64 @@
     <t xml:space="preserve">10.4553279876709</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4909477233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4281883239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7785472869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0075330734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0957365036011</t>
+    <t xml:space="preserve">10.490948677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4281873703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77854633331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0075340270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0957355499268</t>
   </si>
   <si>
     <t xml:space="preserve">10.1262664794922</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1856327056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4247970581055</t>
+    <t xml:space="preserve">10.1856317520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4247951507568</t>
   </si>
   <si>
     <t xml:space="preserve">10.6588716506958</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5079116821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4027471542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.351861000061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1941146850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3026704788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1771507263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3450746536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2212524414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0363683700562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3298110961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3247213363647</t>
+    <t xml:space="preserve">10.5079107284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4027442932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3518600463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1941156387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3026714324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1771545410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3450756072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2212543487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0363693237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3298101425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3247222900391</t>
   </si>
   <si>
     <t xml:space="preserve">10.3806953430176</t>
@@ -4046,19 +4046,19 @@
     <t xml:space="preserve">10.4146203994751</t>
   </si>
   <si>
-    <t xml:space="preserve">10.363733291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.523175239563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6944913864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8183135986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7284145355225</t>
+    <t xml:space="preserve">10.3637351989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5231781005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6944904327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8183126449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7284135818481</t>
   </si>
   <si>
     <t xml:space="preserve">10.8471488952637</t>
@@ -4070,7 +4070,7 @@
     <t xml:space="preserve">10.8641109466553</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0693502426147</t>
+    <t xml:space="preserve">11.0693483352661</t>
   </si>
   <si>
     <t xml:space="preserve">11.0456027984619</t>
@@ -4079,34 +4079,34 @@
     <t xml:space="preserve">11.1609439849854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2050457000732</t>
+    <t xml:space="preserve">11.2050447463989</t>
   </si>
   <si>
     <t xml:space="preserve">11.2542362213135</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3814487457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2711963653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1151466369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7589454650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1049690246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4357280731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7139024734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5120553970337</t>
+    <t xml:space="preserve">11.3814496994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2711954116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1151475906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7589464187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1049709320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4357261657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.713903427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.512056350708</t>
   </si>
   <si>
     <t xml:space="preserve">11.2864627838135</t>
@@ -4118,16 +4118,16 @@
     <t xml:space="preserve">11.3271713256836</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2694997787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323358535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1829948425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0557813644409</t>
+    <t xml:space="preserve">11.2695016860962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4323348999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.182993888855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0557823181152</t>
   </si>
   <si>
     <t xml:space="preserve">11.2389688491821</t>
@@ -4136,37 +4136,37 @@
     <t xml:space="preserve">11.2779817581177</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4730443954468</t>
+    <t xml:space="preserve">11.4730424880981</t>
   </si>
   <si>
     <t xml:space="preserve">11.3000326156616</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1711206436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3085126876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4238548278809</t>
+    <t xml:space="preserve">11.17112159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3085117340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4238538742065</t>
   </si>
   <si>
     <t xml:space="preserve">11.2915506362915</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4425115585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3865375518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3322591781616</t>
+    <t xml:space="preserve">11.4425106048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3865365982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3322601318359</t>
   </si>
   <si>
     <t xml:space="preserve">11.6867628097534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7308645248413</t>
+    <t xml:space="preserve">11.7308654785156</t>
   </si>
   <si>
     <t xml:space="preserve">12.087064743042</t>
@@ -4178,28 +4178,28 @@
     <t xml:space="preserve">11.7596998214722</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9014263153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3695764541626</t>
+    <t xml:space="preserve">10.9014272689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3695774078369</t>
   </si>
   <si>
     <t xml:space="preserve">11.5934724807739</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5358018875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.113450050354</t>
+    <t xml:space="preserve">11.5358037948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1134519577026</t>
   </si>
   <si>
     <t xml:space="preserve">11.0065908432007</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9607944488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8301858901978</t>
+    <t xml:space="preserve">10.9607925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8301868438721</t>
   </si>
   <si>
     <t xml:space="preserve">11.1185398101807</t>
@@ -4208,19 +4208,19 @@
     <t xml:space="preserve">10.79456615448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.213526725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4187660217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2559299468994</t>
+    <t xml:space="preserve">11.2135276794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4187650680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2559309005737</t>
   </si>
   <si>
     <t xml:space="preserve">11.1066646575928</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3492212295532</t>
+    <t xml:space="preserve">11.3492221832275</t>
   </si>
   <si>
     <t xml:space="preserve">11.2745885848999</t>
@@ -4232,10 +4232,10 @@
     <t xml:space="preserve">11.4001064300537</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4560813903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3543100357056</t>
+    <t xml:space="preserve">11.4560832977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3543090820312</t>
   </si>
   <si>
     <t xml:space="preserve">11.2474508285522</t>
@@ -4247,13 +4247,13 @@
     <t xml:space="preserve">11.7003326416016</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0209131240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0429649353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0005588531494</t>
+    <t xml:space="preserve">12.0209121704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0429630279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0005578994751</t>
   </si>
   <si>
     <t xml:space="preserve">12.0667104721069</t>
@@ -4262,70 +4262,70 @@
     <t xml:space="preserve">11.8733444213867</t>
   </si>
   <si>
-    <t xml:space="preserve">11.517144203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9658813476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9896297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1592483520508</t>
+    <t xml:space="preserve">11.5171451568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9658823013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9896278381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1592473983765</t>
   </si>
   <si>
     <t xml:space="preserve">11.3560066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1948690414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.534107208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4577770233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5374984741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0914011001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2440576553345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5510683059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5680313110352</t>
+    <t xml:space="preserve">11.1948680877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5341062545776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4577779769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5374994277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0913991928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2440586090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5510663986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5680303573608</t>
   </si>
   <si>
     <t xml:space="preserve">11.7257766723633</t>
   </si>
   <si>
-    <t xml:space="preserve">11.815673828125</t>
+    <t xml:space="preserve">11.8156747817993</t>
   </si>
   <si>
     <t xml:space="preserve">11.6918535232544</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7800540924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0023527145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9113321304321</t>
+    <t xml:space="preserve">11.7800550460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0023517608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9113330841064</t>
   </si>
   <si>
     <t xml:space="preserve">12.3576803207397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4679527282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4206943511963</t>
+    <t xml:space="preserve">12.4679536819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4206953048706</t>
   </si>
   <si>
     <t xml:space="preserve">12.427695274353</t>
@@ -4334,16 +4334,16 @@
     <t xml:space="preserve">12.4259443283081</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3384256362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3156709671021</t>
+    <t xml:space="preserve">12.3384237289429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3156690597534</t>
   </si>
   <si>
     <t xml:space="preserve">12.4784555435181</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6307392120361</t>
+    <t xml:space="preserve">12.6307382583618</t>
   </si>
   <si>
     <t xml:space="preserve">12.6272382736206</t>
@@ -4352,25 +4352,25 @@
     <t xml:space="preserve">12.5957307815552</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2754125595093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5875120162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3582124710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5262479782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5997657775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0326414108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5110282897949</t>
+    <t xml:space="preserve">12.275411605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5875129699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.358211517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5262498855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5997648239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.032642364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5110292434692</t>
   </si>
   <si>
     <t xml:space="preserve">10.5407838821411</t>
@@ -4385,31 +4385,31 @@
     <t xml:space="preserve">10.0034189224243</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2099637985229</t>
+    <t xml:space="preserve">10.2099647521973</t>
   </si>
   <si>
     <t xml:space="preserve">10.0646820068359</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1539525985718</t>
+    <t xml:space="preserve">10.1539516448975</t>
   </si>
   <si>
     <t xml:space="preserve">9.91415023803711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82663154602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0629320144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48005676269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41354179382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66734504699707</t>
+    <t xml:space="preserve">9.82662963867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0629329681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.480055809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41353988647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66734600067139</t>
   </si>
   <si>
     <t xml:space="preserve">9.82487964630127</t>
@@ -4418,28 +4418,28 @@
     <t xml:space="preserve">9.80212593078613</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74786281585693</t>
+    <t xml:space="preserve">9.74786376953125</t>
   </si>
   <si>
     <t xml:space="preserve">9.72861003875732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31551933288574</t>
+    <t xml:space="preserve">9.31552124023438</t>
   </si>
   <si>
     <t xml:space="preserve">9.48530673980713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63933944702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89314556121826</t>
+    <t xml:space="preserve">9.6393404006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89314651489258</t>
   </si>
   <si>
     <t xml:space="preserve">9.77937030792236</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62708759307861</t>
+    <t xml:space="preserve">9.6270866394043</t>
   </si>
   <si>
     <t xml:space="preserve">9.60083198547363</t>
@@ -4448,22 +4448,22 @@
     <t xml:space="preserve">9.68134880065918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64459228515625</t>
+    <t xml:space="preserve">9.64459037780762</t>
   </si>
   <si>
     <t xml:space="preserve">9.70760440826416</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2537221908569</t>
+    <t xml:space="preserve">10.2537240982056</t>
   </si>
   <si>
     <t xml:space="preserve">10.2414703369141</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0156726837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97716331481934</t>
+    <t xml:space="preserve">10.0156707763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97716426849365</t>
   </si>
   <si>
     <t xml:space="preserve">9.96841144561768</t>
@@ -4475,28 +4475,28 @@
     <t xml:space="preserve">10.0174217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0576820373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99816799163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1434497833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1784563064575</t>
+    <t xml:space="preserve">10.0576791763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99816703796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1434488296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1784582138062</t>
   </si>
   <si>
     <t xml:space="preserve">10.1329469680786</t>
   </si>
   <si>
-    <t xml:space="preserve">10.232720375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4445142745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3009843826294</t>
+    <t xml:space="preserve">10.2327194213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4445133209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3009834289551</t>
   </si>
   <si>
     <t xml:space="preserve">10.4672698974609</t>
@@ -4505,13 +4505,13 @@
     <t xml:space="preserve">10.859354019165</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7245740890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9451217651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7788372039795</t>
+    <t xml:space="preserve">10.7245769500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.945122718811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7788362503052</t>
   </si>
   <si>
     <t xml:space="preserve">10.9398717880249</t>
@@ -4520,49 +4520,49 @@
     <t xml:space="preserve">10.7088212966919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3342399597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2624740600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.577543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.75608253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4602670669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1679544448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1364479064941</t>
+    <t xml:space="preserve">10.3342409133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2624750137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5775442123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7560815811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4602680206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1679553985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1364469528198</t>
   </si>
   <si>
     <t xml:space="preserve">10.2239665985107</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4532670974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3587465286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.335991859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0996904373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0156717300415</t>
+    <t xml:space="preserve">10.4532680511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3587455749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3359909057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0996894836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0156698226929</t>
   </si>
   <si>
     <t xml:space="preserve">9.94071483612061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1191835403442</t>
+    <t xml:space="preserve">10.1191825866699</t>
   </si>
   <si>
     <t xml:space="preserve">9.6391019821167</t>
@@ -4586,46 +4586,46 @@
     <t xml:space="preserve">10.2976531982422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4618444442749</t>
+    <t xml:space="preserve">10.4618453979492</t>
   </si>
   <si>
     <t xml:space="preserve">10.4671974182129</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5653562545776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5136003494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3244228363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1691551208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4297189712524</t>
+    <t xml:space="preserve">10.5653553009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.513599395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3244218826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1691541671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4297180175781</t>
   </si>
   <si>
     <t xml:space="preserve">10.5867729187012</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5885553359985</t>
+    <t xml:space="preserve">10.5885562896729</t>
   </si>
   <si>
     <t xml:space="preserve">10.7920112609863</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7598867416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240201950073</t>
+    <t xml:space="preserve">10.7598857879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.024022102356</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954652786255</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1400241851807</t>
+    <t xml:space="preserve">11.1400270462036</t>
   </si>
   <si>
     <t xml:space="preserve">11.5273027420044</t>
@@ -4634,37 +4634,37 @@
     <t xml:space="preserve">11.7218332290649</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8271312713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0145235061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0734176635742</t>
+    <t xml:space="preserve">11.8271293640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0145225524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0734167098999</t>
   </si>
   <si>
     <t xml:space="preserve">12.2429628372192</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5017423629761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7319669723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.683780670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.512451171875</t>
+    <t xml:space="preserve">12.5017433166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7319679260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6837816238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5124502182007</t>
   </si>
   <si>
     <t xml:space="preserve">12.5552835464478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7408895492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9157915115356</t>
+    <t xml:space="preserve">12.7408905029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.915789604187</t>
   </si>
   <si>
     <t xml:space="preserve">12.9175748825073</t>
@@ -4673,13 +4673,13 @@
     <t xml:space="preserve">12.8122787475586</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5695600509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6605787277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1856269836426</t>
+    <t xml:space="preserve">12.569561958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6605806350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1856279373169</t>
   </si>
   <si>
     <t xml:space="preserve">12.7367181777954</t>
@@ -4694,40 +4694,40 @@
     <t xml:space="preserve">12.9596920013428</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7059001922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8672399520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9832601547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7711601257324</t>
+    <t xml:space="preserve">12.7059020996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8672380447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9832592010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7711610794067</t>
   </si>
   <si>
     <t xml:space="preserve">12.5916929244995</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5391225814819</t>
+    <t xml:space="preserve">12.5391235351562</t>
   </si>
   <si>
     <t xml:space="preserve">12.3650941848755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1783742904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2581396102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.259952545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3342771530151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5209941864014</t>
+    <t xml:space="preserve">12.1783771514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2581386566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2599515914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3342761993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5209951400757</t>
   </si>
   <si>
     <t xml:space="preserve">12.3360891342163</t>
@@ -4739,7 +4739,7 @@
     <t xml:space="preserve">11.6925458908081</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7741212844849</t>
+    <t xml:space="preserve">11.7741231918335</t>
   </si>
   <si>
     <t xml:space="preserve">11.783185005188</t>
@@ -4748,34 +4748,34 @@
     <t xml:space="preserve">12.2019424438477</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1239929199219</t>
+    <t xml:space="preserve">12.1239938735962</t>
   </si>
   <si>
     <t xml:space="preserve">12.2146320343018</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2780790328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2436380386353</t>
+    <t xml:space="preserve">12.2780799865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2436370849609</t>
   </si>
   <si>
     <t xml:space="preserve">12.3197736740112</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0424175262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.424916267395</t>
+    <t xml:space="preserve">12.0424165725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4249172210693</t>
   </si>
   <si>
     <t xml:space="preserve">12.4956159591675</t>
   </si>
   <si>
-    <t xml:space="preserve">12.305272102356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5427484512329</t>
+    <t xml:space="preserve">12.3052730560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5427494049072</t>
   </si>
   <si>
     <t xml:space="preserve">12.6388273239136</t>
@@ -4790,70 +4790,70 @@
     <t xml:space="preserve">13.0666475296021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0720844268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9868831634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0267667770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1065292358398</t>
+    <t xml:space="preserve">13.0720853805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9868850708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0267648696899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1065282821655</t>
   </si>
   <si>
     <t xml:space="preserve">12.9198093414307</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1029024124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0521450042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8527383804321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7584714889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8690509796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9542541503906</t>
+    <t xml:space="preserve">13.1029033660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0521459579468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8527374267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7584705352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8690519332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9542531967163</t>
   </si>
   <si>
     <t xml:space="preserve">12.8436737060547</t>
   </si>
   <si>
-    <t xml:space="preserve">12.81285572052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5499992370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4629850387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5481863021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4140405654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6043834686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8346090316772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0013856887817</t>
+    <t xml:space="preserve">12.8128538131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5500001907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4629859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5481872558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4140396118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6043825149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8346099853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0013866424561</t>
   </si>
   <si>
     <t xml:space="preserve">13.3693838119507</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3856992721558</t>
+    <t xml:space="preserve">13.3857002258301</t>
   </si>
   <si>
     <t xml:space="preserve">13.4382705688477</t>
@@ -4865,7 +4865,7 @@
     <t xml:space="preserve">13.3367538452148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9615049362183</t>
+    <t xml:space="preserve">12.9615058898926</t>
   </si>
   <si>
     <t xml:space="preserve">13.0068254470825</t>
@@ -4874,22 +4874,22 @@
     <t xml:space="preserve">12.9324998855591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7929153442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1076774597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9572143554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1457462310791</t>
+    <t xml:space="preserve">12.792914390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1076765060425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9572153091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1457443237305</t>
   </si>
   <si>
     <t xml:space="preserve">12.1149282455444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.937273979187</t>
+    <t xml:space="preserve">11.9372730255127</t>
   </si>
   <si>
     <t xml:space="preserve">12.0949869155884</t>
@@ -4898,19 +4898,19 @@
     <t xml:space="preserve">12.1765632629395</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2690153121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1656866073608</t>
+    <t xml:space="preserve">12.2690162658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1656856536865</t>
   </si>
   <si>
     <t xml:space="preserve">12.1620607376099</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1384944915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1729383468628</t>
+    <t xml:space="preserve">12.1384954452515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1729373931885</t>
   </si>
   <si>
     <t xml:space="preserve">11.7142992019653</t>
@@ -4928,7 +4928,7 @@
     <t xml:space="preserve">11.2673215866089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5054807662964</t>
+    <t xml:space="preserve">11.5054798126221</t>
   </si>
   <si>
     <t xml:space="preserve">11.5184030532837</t>
@@ -4937,7 +4937,7 @@
     <t xml:space="preserve">11.4962501525879</t>
   </si>
   <si>
-    <t xml:space="preserve">11.235936164856</t>
+    <t xml:space="preserve">11.2359352111816</t>
   </si>
   <si>
     <t xml:space="preserve">11.3614768981934</t>
@@ -4949,34 +4949,34 @@
     <t xml:space="preserve">11.699330329895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8950271606445</t>
+    <t xml:space="preserve">11.8950262069702</t>
   </si>
   <si>
     <t xml:space="preserve">11.9134893417358</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3990392684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2864217758179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4008846282959</t>
+    <t xml:space="preserve">12.3990383148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2864198684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4008836746216</t>
   </si>
   <si>
     <t xml:space="preserve">12.4987325668335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7239685058594</t>
+    <t xml:space="preserve">12.7239694595337</t>
   </si>
   <si>
     <t xml:space="preserve">12.6150426864624</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7978162765503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7405843734741</t>
+    <t xml:space="preserve">12.797815322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7405853271484</t>
   </si>
   <si>
     <t xml:space="preserve">12.8125858306885</t>
@@ -4985,13 +4985,13 @@
     <t xml:space="preserve">12.821816444397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6962757110596</t>
+    <t xml:space="preserve">12.6962738037109</t>
   </si>
   <si>
     <t xml:space="preserve">12.5393486022949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7073526382446</t>
+    <t xml:space="preserve">12.7073516845703</t>
   </si>
   <si>
     <t xml:space="preserve">12.7553539276123</t>
@@ -5000,7 +5000,7 @@
     <t xml:space="preserve">12.567042350769</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6888904571533</t>
+    <t xml:space="preserve">12.6888914108276</t>
   </si>
   <si>
     <t xml:space="preserve">12.4451932907104</t>
@@ -5015,10 +5015,10 @@
     <t xml:space="preserve">11.9762601852417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.526424407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5947341918945</t>
+    <t xml:space="preserve">12.5264253616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5947360992432</t>
   </si>
   <si>
     <t xml:space="preserve">12.4802713394165</t>
@@ -5030,13 +5030,13 @@
     <t xml:space="preserve">12.356575012207</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3196516036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2125730514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3658065795898</t>
+    <t xml:space="preserve">12.3196506500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2125720977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3658056259155</t>
   </si>
   <si>
     <t xml:space="preserve">12.3141136169434</t>
@@ -5048,19 +5048,19 @@
     <t xml:space="preserve">12.4531917572021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5414066314697</t>
+    <t xml:space="preserve">12.5414056777954</t>
   </si>
   <si>
     <t xml:space="preserve">12.5451593399048</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2429790496826</t>
+    <t xml:space="preserve">12.2429800033569</t>
   </si>
   <si>
     <t xml:space="preserve">12.3799934387207</t>
   </si>
   <si>
-    <t xml:space="preserve">12.402515411377</t>
+    <t xml:space="preserve">12.4025144577026</t>
   </si>
   <si>
     <t xml:space="preserve">12.1115970611572</t>
@@ -5072,55 +5072,55 @@
     <t xml:space="preserve">12.0008602142334</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3330717086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2955322265625</t>
+    <t xml:space="preserve">12.3330707550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2955331802368</t>
   </si>
   <si>
     <t xml:space="preserve">12.1847953796387</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2748861312866</t>
+    <t xml:space="preserve">12.2748870849609</t>
   </si>
   <si>
     <t xml:space="preserve">12.3086709976196</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0402755737305</t>
+    <t xml:space="preserve">12.0402746200562</t>
   </si>
   <si>
     <t xml:space="preserve">12.1622734069824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.186674118042</t>
+    <t xml:space="preserve">12.1866731643677</t>
   </si>
   <si>
     <t xml:space="preserve">12.2467336654663</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1791648864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1904268264771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.027135848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2617492675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.092827796936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0083665847778</t>
+    <t xml:space="preserve">12.1791639328003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1904277801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0271368026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2617502212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0928268432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0083675384521</t>
   </si>
   <si>
     <t xml:space="preserve">12.1416273117065</t>
   </si>
   <si>
-    <t xml:space="preserve">11.961446762085</t>
+    <t xml:space="preserve">11.9614458084106</t>
   </si>
   <si>
     <t xml:space="preserve">12.0139980316162</t>
@@ -5132,10 +5132,10 @@
     <t xml:space="preserve">12.3706083297729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5864505767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6352510452271</t>
+    <t xml:space="preserve">12.5864515304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6352500915527</t>
   </si>
   <si>
     <t xml:space="preserve">12.5470361709595</t>
@@ -5144,25 +5144,25 @@
     <t xml:space="preserve">12.2317190170288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.248610496521</t>
+    <t xml:space="preserve">12.2486095428467</t>
   </si>
   <si>
     <t xml:space="preserve">12.3124256134033</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4194087982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7009420394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7816486358643</t>
+    <t xml:space="preserve">12.4194068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7009429931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7816476821899</t>
   </si>
   <si>
     <t xml:space="preserve">12.5995893478394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4757137298584</t>
+    <t xml:space="preserve">12.4757146835327</t>
   </si>
   <si>
     <t xml:space="preserve">12.603343963623</t>
@@ -5174,28 +5174,28 @@
     <t xml:space="preserve">12.8004179000854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9580764770508</t>
+    <t xml:space="preserve">12.9580755233765</t>
   </si>
   <si>
     <t xml:space="preserve">12.8661079406738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7534942626953</t>
+    <t xml:space="preserve">12.7534952163696</t>
   </si>
   <si>
     <t xml:space="preserve">12.884877204895</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8173093795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0293989181519</t>
+    <t xml:space="preserve">12.8173084259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0293979644775</t>
   </si>
   <si>
     <t xml:space="preserve">12.9280462265015</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8248167037964</t>
+    <t xml:space="preserve">12.8248176574707</t>
   </si>
   <si>
     <t xml:space="preserve">12.879246711731</t>
@@ -5219,46 +5219,46 @@
     <t xml:space="preserve">13.1513967514038</t>
   </si>
   <si>
-    <t xml:space="preserve">13.072566986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1138591766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1701650619507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2227182388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2452421188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2077035903931</t>
+    <t xml:space="preserve">13.0725660324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1138582229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.170166015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2227191925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2452402114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2077045440674</t>
   </si>
   <si>
     <t xml:space="preserve">13.2583799362183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2827787399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4179153442383</t>
+    <t xml:space="preserve">13.2827796936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.417914390564</t>
   </si>
   <si>
     <t xml:space="preserve">13.4723453521729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4836072921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4047765731812</t>
+    <t xml:space="preserve">13.483606338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4047775268555</t>
   </si>
   <si>
     <t xml:space="preserve">13.6431427001953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7032032012939</t>
+    <t xml:space="preserve">13.7032041549683</t>
   </si>
   <si>
     <t xml:space="preserve">13.9209232330322</t>
@@ -5267,31 +5267,31 @@
     <t xml:space="preserve">13.8815078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">13.832709312439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8871383666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1255035400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1724262237549</t>
+    <t xml:space="preserve">13.8327083587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8871393203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1255044937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1724271774292</t>
   </si>
   <si>
     <t xml:space="preserve">14.1911954879761</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4239301681519</t>
+    <t xml:space="preserve">14.4239311218262</t>
   </si>
   <si>
     <t xml:space="preserve">14.3920240402222</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2757129669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5865106582642</t>
+    <t xml:space="preserve">14.2757120132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5865097045898</t>
   </si>
   <si>
     <t xml:space="preserve">14.5254945755005</t>
@@ -5321,22 +5321,22 @@
     <t xml:space="preserve">14.2051630020142</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0411834716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.82190990448</t>
+    <t xml:space="preserve">14.041184425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8219108581543</t>
   </si>
   <si>
     <t xml:space="preserve">13.7666139602661</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9572877883911</t>
+    <t xml:space="preserve">13.9572887420654</t>
   </si>
   <si>
     <t xml:space="preserve">14.2738056182861</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4435052871704</t>
+    <t xml:space="preserve">14.4435043334961</t>
   </si>
   <si>
     <t xml:space="preserve">14.3824901580811</t>
@@ -5345,16 +5345,16 @@
     <t xml:space="preserve">14.5826959609985</t>
   </si>
   <si>
-    <t xml:space="preserve">14.775276184082</t>
+    <t xml:space="preserve">14.7752771377563</t>
   </si>
   <si>
     <t xml:space="preserve">14.7581157684326</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8076915740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9106559753418</t>
+    <t xml:space="preserve">14.8076906204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9106550216675</t>
   </si>
   <si>
     <t xml:space="preserve">14.7314214706421</t>
@@ -5372,10 +5372,10 @@
     <t xml:space="preserve">14.7600231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7867164611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6475257873535</t>
+    <t xml:space="preserve">14.786717414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6475248336792</t>
   </si>
   <si>
     <t xml:space="preserve">14.7085409164429</t>
@@ -5390,13 +5390,13 @@
     <t xml:space="preserve">14.6856603622437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3119411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.134614944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.239483833313</t>
+    <t xml:space="preserve">14.3119401931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346139907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2394847869873</t>
   </si>
   <si>
     <t xml:space="preserve">14.2985935211182</t>
@@ -5408,16 +5408,16 @@
     <t xml:space="preserve">14.5388422012329</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4816398620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1670274734497</t>
+    <t xml:space="preserve">14.4816389083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.167028427124</t>
   </si>
   <si>
     <t xml:space="preserve">14.5307540893555</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4591073989868</t>
+    <t xml:space="preserve">14.4591064453125</t>
   </si>
   <si>
     <t xml:space="preserve">14.2557849884033</t>
@@ -5426,25 +5426,25 @@
     <t xml:space="preserve">14.4610433578491</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5888452529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5520534515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7147121429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.62757396698</t>
+    <t xml:space="preserve">14.588846206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5520544052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.71471118927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6275730133057</t>
   </si>
   <si>
     <t xml:space="preserve">14.6856660842896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7650575637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4842805862427</t>
+    <t xml:space="preserve">14.7650585174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4842796325684</t>
   </si>
   <si>
     <t xml:space="preserve">14.610146522522</t>
@@ -5462,7 +5462,7 @@
     <t xml:space="preserve">14.5075168609619</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3332405090332</t>
+    <t xml:space="preserve">14.3332414627075</t>
   </si>
   <si>
     <t xml:space="preserve">14.2809581756592</t>
@@ -5471,16 +5471,16 @@
     <t xml:space="preserve">14.3758411407471</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429222106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5152616500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5481805801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7205209732056</t>
+    <t xml:space="preserve">14.3429231643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5152626037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5481815338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7205219268799</t>
   </si>
   <si>
     <t xml:space="preserve">14.7166481018066</t>
@@ -5489,7 +5489,7 @@
     <t xml:space="preserve">14.8018493652344</t>
   </si>
   <si>
-    <t xml:space="preserve">14.945143699646</t>
+    <t xml:space="preserve">14.9451427459717</t>
   </si>
   <si>
     <t xml:space="preserve">14.8696241378784</t>
@@ -5504,25 +5504,25 @@
     <t xml:space="preserve">14.9470796585083</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0264720916748</t>
+    <t xml:space="preserve">15.0264730453491</t>
   </si>
   <si>
     <t xml:space="preserve">15.0458364486694</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6004638671875</t>
+    <t xml:space="preserve">14.6004648208618</t>
   </si>
   <si>
     <t xml:space="preserve">14.4494247436523</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4106969833374</t>
+    <t xml:space="preserve">14.4106960296631</t>
   </si>
   <si>
     <t xml:space="preserve">14.3409862518311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5636720657349</t>
+    <t xml:space="preserve">14.5636730194092</t>
   </si>
   <si>
     <t xml:space="preserve">14.5191354751587</t>
@@ -5540,19 +5540,19 @@
     <t xml:space="preserve">13.9904975891113</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8839960098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9014225006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0292253494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1028089523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2867670059204</t>
+    <t xml:space="preserve">13.8839950561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9014234542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0292263031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1028099060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2867660522461</t>
   </si>
   <si>
     <t xml:space="preserve">14.4455518722534</t>
@@ -5567,13 +5567,13 @@
     <t xml:space="preserve">13.9169139862061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1376638412476</t>
+    <t xml:space="preserve">14.1376647949219</t>
   </si>
   <si>
     <t xml:space="preserve">13.9130411148071</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9091691970825</t>
+    <t xml:space="preserve">13.9091682434082</t>
   </si>
   <si>
     <t xml:space="preserve">13.8394584655762</t>
@@ -5585,13 +5585,13 @@
     <t xml:space="preserve">14.009861946106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.040843963623</t>
+    <t xml:space="preserve">14.0408449172974</t>
   </si>
   <si>
     <t xml:space="preserve">14.1396007537842</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7039098739624</t>
+    <t xml:space="preserve">13.7039108276367</t>
   </si>
   <si>
     <t xml:space="preserve">13.7194013595581</t>
@@ -5600,7 +5600,7 @@
     <t xml:space="preserve">13.6826095581055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.847204208374</t>
+    <t xml:space="preserve">13.8472032546997</t>
   </si>
   <si>
     <t xml:space="preserve">13.7774934768677</t>
@@ -5624,7 +5624,7 @@
     <t xml:space="preserve">13.8723773956299</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9304685592651</t>
+    <t xml:space="preserve">13.9304695129395</t>
   </si>
   <si>
     <t xml:space="preserve">14.0466537475586</t>
@@ -5633,25 +5633,25 @@
     <t xml:space="preserve">14.1628379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1667108535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2344837188721</t>
+    <t xml:space="preserve">14.1667098999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2344846725464</t>
   </si>
   <si>
     <t xml:space="preserve">14.0950632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2248029708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5017070770264</t>
+    <t xml:space="preserve">14.2248020172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5017080307007</t>
   </si>
   <si>
     <t xml:space="preserve">14.0602083206177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.044716835022</t>
+    <t xml:space="preserve">14.0447158813477</t>
   </si>
   <si>
     <t xml:space="preserve">13.9954919815063</t>
@@ -5850,6 +5850,9 @@
   </si>
   <si>
     <t xml:space="preserve">13.9359998703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1239995956421</t>
   </si>
 </sst>
 </file>
@@ -62247,7 +62250,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6496412037</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>29704326</v>
@@ -62268,6 +62271,32 @@
         <v>1945</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6494444444</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>9964478</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>14.1899995803833</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>13.8800001144409</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>14.0600004196167</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>14.1239995956421</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENI.MI.xlsx
+++ b/data/ENI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="1947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="1948">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,277 +38,277 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95016002655029</t>
+    <t xml:space="preserve">7.95016098022461</t>
   </si>
   <si>
     <t xml:space="preserve">ENI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02119731903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79624557495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73705053329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51802158355713</t>
+    <t xml:space="preserve">8.02119636535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7962474822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73705005645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51802110671997</t>
   </si>
   <si>
     <t xml:space="preserve">7.48842287063599</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50618028640747</t>
+    <t xml:space="preserve">7.5061821937561</t>
   </si>
   <si>
     <t xml:space="preserve">7.59497785568237</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70153141021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4292254447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34635019302368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44698667526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19835662841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67785501480103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58313751220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74297046661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77848958969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86136341094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40554714202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37594842910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54170036315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41738748550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1510009765625</t>
+    <t xml:space="preserve">7.70153188705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42922687530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.346351146698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44698333740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19835758209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67785215377808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58313941955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74297094345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.778489112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86136293411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40554809570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37594890594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54170083999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41738700866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15100002288818</t>
   </si>
   <si>
     <t xml:space="preserve">6.86685371398926</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88461256027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47023487091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90237236022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06812381744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01484775543213</t>
+    <t xml:space="preserve">6.88461303710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47023391723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90237092971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06812286376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01484632492065</t>
   </si>
   <si>
     <t xml:space="preserve">7.23979425430298</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08588361740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05628490447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31083250045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97340774536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15692043304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52394104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66601228713989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90280485153198</t>
+    <t xml:space="preserve">7.08588218688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05628442764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31083202362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97340869903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15691995620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5239405632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66601371765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90280294418335</t>
   </si>
   <si>
     <t xml:space="preserve">7.96199941635132</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06855392456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01527500152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04487609863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84360408782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93239974975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66009426116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88504362106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92647886276245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8140082359314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91463947296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05671405792236</t>
+    <t xml:space="preserve">8.06855201721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01527786254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04487419128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84360504150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93240213394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66009473800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88504076004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92647981643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81400537490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91464138031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.056715965271</t>
   </si>
   <si>
     <t xml:space="preserve">8.12775039672852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16918754577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97383737564087</t>
+    <t xml:space="preserve">8.16919040679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9738392829895</t>
   </si>
   <si>
     <t xml:space="preserve">7.78440618515015</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00343608856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87320327758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57129764556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55353975296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3641095161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4410662651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29307270050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60681581497192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63049507141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67193460464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9797568321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12182998657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99159860610962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0922327041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2224645614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32902050018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37637901306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33494091033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37045764923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44741439819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52437019348145</t>
+    <t xml:space="preserve">8.00343704223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87320423126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57129955291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55353879928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36410903930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44106435775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29307222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6068172454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63049650192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67193269729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97975730895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1218318939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99159717559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09223175048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22246646881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32902145385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37637805938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33493804931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37045860290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44741535186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52436923980713</t>
   </si>
   <si>
     <t xml:space="preserve">8.40597629547119</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25798511505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08631324768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92056035995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.033034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10407257080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80808782577515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90189027786255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14596748352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42664909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46936416625977</t>
+    <t xml:space="preserve">8.25798320770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08631229400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92055940628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03303527832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10406970977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80808591842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90188980102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14596557617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42665004730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46936321258545</t>
   </si>
   <si>
     <t xml:space="preserve">8.4388542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50597476959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37783336639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2618989944458</t>
+    <t xml:space="preserve">8.50597286224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37783432006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26190090179443</t>
   </si>
   <si>
     <t xml:space="preserve">8.25579738616943</t>
@@ -317,25 +317,25 @@
     <t xml:space="preserve">8.18867874145508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40224266052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59749984741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62191009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57919692993164</t>
+    <t xml:space="preserve">8.40224361419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59750175476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62191104888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57919597625732</t>
   </si>
   <si>
     <t xml:space="preserve">8.20698261260986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0544376373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15816688537598</t>
+    <t xml:space="preserve">8.05443572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15816783905029</t>
   </si>
   <si>
     <t xml:space="preserve">8.0727424621582</t>
@@ -344,46 +344,46 @@
     <t xml:space="preserve">8.39003944396973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64021492004395</t>
+    <t xml:space="preserve">8.64021587371826</t>
   </si>
   <si>
     <t xml:space="preserve">8.75004768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61580848693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89649105072021</t>
+    <t xml:space="preserve">8.61580657958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89649200439453</t>
   </si>
   <si>
     <t xml:space="preserve">8.07884502410889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33512306213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72564029693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8598804473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04293441772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79275989532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62801170349121</t>
+    <t xml:space="preserve">8.33512210845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72563934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85988140106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04293632507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79276084899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62801074981689</t>
   </si>
   <si>
     <t xml:space="preserve">8.67682647705078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84767627716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95140933990479</t>
+    <t xml:space="preserve">8.84767723083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95140743255615</t>
   </si>
   <si>
     <t xml:space="preserve">9.03683471679688</t>
@@ -392,34 +392,34 @@
     <t xml:space="preserve">8.92700099945068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0917501449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98191738128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88428783416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85378074645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76835346221924</t>
+    <t xml:space="preserve">9.09175300598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98191928863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8842887878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85377788543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76835441589355</t>
   </si>
   <si>
     <t xml:space="preserve">8.71953773498535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68292808532715</t>
+    <t xml:space="preserve">8.68292713165283</t>
   </si>
   <si>
     <t xml:space="preserve">8.56089019775391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56699371337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34122371673584</t>
+    <t xml:space="preserve">8.56699180603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34122276306152</t>
   </si>
   <si>
     <t xml:space="preserve">8.34732627868652</t>
@@ -428,160 +428,160 @@
     <t xml:space="preserve">8.18257617950439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0117244720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06664085388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08494472503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28020477294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26800155639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24359607696533</t>
+    <t xml:space="preserve">8.01172351837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06664180755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08494567871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28020572662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2680025100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24359512329102</t>
   </si>
   <si>
     <t xml:space="preserve">8.35952949523926</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38393592834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21918773651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20088291168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.310715675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30461311340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37173271179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27410316467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99952030181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02392673492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06053733825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87748336791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99712562561035</t>
+    <t xml:space="preserve">8.38393783569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21918869018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20088195800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31071376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30461406707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37173175811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27410221099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99951934814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02392578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06053829193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87748432159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99712371826172</t>
   </si>
   <si>
     <t xml:space="preserve">7.85229587554932</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96564102172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93415832519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78932762145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154638290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77673292160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13565826416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0726900100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11676692962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16714572906494</t>
+    <t xml:space="preserve">7.96563816070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93415689468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78932809829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154447555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77673149108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13565921783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07268810272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11676788330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16714382171631</t>
   </si>
   <si>
     <t xml:space="preserve">8.35605239868164</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3686466217041</t>
+    <t xml:space="preserve">8.36864376068115</t>
   </si>
   <si>
     <t xml:space="preserve">8.56385135650635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40013027191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3434591293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28678607940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45050525665283</t>
+    <t xml:space="preserve">8.40013122558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34345722198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28678512573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45050621032715</t>
   </si>
   <si>
     <t xml:space="preserve">8.38124084472656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53236484527588</t>
+    <t xml:space="preserve">8.5323657989502</t>
   </si>
   <si>
     <t xml:space="preserve">8.55755424499512</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64571094512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6708984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61422729492188</t>
+    <t xml:space="preserve">8.64570999145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67090034484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61422634124756</t>
   </si>
   <si>
     <t xml:space="preserve">8.52606964111328</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65830707550049</t>
+    <t xml:space="preserve">8.65830421447754</t>
   </si>
   <si>
     <t xml:space="preserve">8.50717830657959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31827068328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18603515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06639385223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00342178344727</t>
+    <t xml:space="preserve">8.31826972961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18603420257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06639289855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00342082977295</t>
   </si>
   <si>
     <t xml:space="preserve">7.92785978317261</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04120349884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09158039093018</t>
+    <t xml:space="preserve">8.04120445251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09157848358154</t>
   </si>
   <si>
     <t xml:space="preserve">8.06009387969971</t>
@@ -590,70 +590,70 @@
     <t xml:space="preserve">8.02861022949219</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90267276763916</t>
+    <t xml:space="preserve">7.902672290802</t>
   </si>
   <si>
     <t xml:space="preserve">7.72006034851074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87118673324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82081031799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79562473297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91526460647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92156362533569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97193765640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27419185638428</t>
+    <t xml:space="preserve">7.87118721008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82081174850464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79562330245972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91526556015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92156267166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97193622589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27419090270996</t>
   </si>
   <si>
     <t xml:space="preserve">8.57014846801758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62052440643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79054355621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87869930267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96055889129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97315120697021</t>
+    <t xml:space="preserve">8.62052154541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79054164886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87869834899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96055793762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97314929962158</t>
   </si>
   <si>
     <t xml:space="preserve">9.30689144134521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40134620666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3698616027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42653369903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47690868377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42023468017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53987979888916</t>
+    <t xml:space="preserve">9.40134525299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36986064910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42653465270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47690773010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4202356338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53987693786621</t>
   </si>
   <si>
     <t xml:space="preserve">9.55247211456299</t>
@@ -665,133 +665,133 @@
     <t xml:space="preserve">9.64062976837158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72249031066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74138259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84842872619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84212970733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87991523742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8988037109375</t>
+    <t xml:space="preserve">9.72248935699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.741379737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84842681884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84213256835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87991428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89880657196045</t>
   </si>
   <si>
     <t xml:space="preserve">9.69100666046143</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79175853729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78546047210693</t>
+    <t xml:space="preserve">9.79175567626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7854585647583</t>
   </si>
   <si>
     <t xml:space="preserve">9.73508453369141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86731910705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69730186462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80435085296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76657009124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66581726074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41393852233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3005952835083</t>
+    <t xml:space="preserve">9.86731815338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69730377197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80435180664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76656818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6658182144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4139404296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30059432983398</t>
   </si>
   <si>
     <t xml:space="preserve">9.06130981445312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94796371459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89759063720703</t>
+    <t xml:space="preserve">8.94796466827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8975887298584</t>
   </si>
   <si>
     <t xml:space="preserve">8.91648101806641</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14946842193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94166660308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90388774871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04241943359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06760883331299</t>
+    <t xml:space="preserve">9.14946746826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94166564941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90388584136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04242038726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06760692596436</t>
   </si>
   <si>
     <t xml:space="preserve">9.15576457977295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05501365661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8912935256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18095302581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07390403747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00463676452637</t>
+    <t xml:space="preserve">9.05501556396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89129161834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18095111846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0739049911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00463771820068</t>
   </si>
   <si>
     <t xml:space="preserve">9.14316940307617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44542503356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45171928405762</t>
+    <t xml:space="preserve">9.44542407989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45172214508057</t>
   </si>
   <si>
     <t xml:space="preserve">9.61544132232666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50209712982178</t>
+    <t xml:space="preserve">9.50209522247314</t>
   </si>
   <si>
     <t xml:space="preserve">9.31948566436768</t>
   </si>
   <si>
-    <t xml:space="preserve">9.256516456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21243858337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22503089904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11168479919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23762607574463</t>
+    <t xml:space="preserve">9.25651454925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21243667602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2250280380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11168670654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23762321472168</t>
   </si>
   <si>
     <t xml:space="preserve">9.39504718780518</t>
@@ -800,46 +800,46 @@
     <t xml:space="preserve">9.35097026824951</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3761568069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46431541442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43912696838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52098846435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6469259262085</t>
+    <t xml:space="preserve">9.37615871429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46431255340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43912792205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52098655700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64692687988281</t>
   </si>
   <si>
     <t xml:space="preserve">9.59025382995605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58395576477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59655094146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24392223358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25021839141846</t>
+    <t xml:space="preserve">9.58395671844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59654998779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24392127990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25021553039551</t>
   </si>
   <si>
     <t xml:space="preserve">9.41513442993164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37628269195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27267646789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24030113220215</t>
+    <t xml:space="preserve">9.37628078460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27267742156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24029922485352</t>
   </si>
   <si>
     <t xml:space="preserve">9.25972652435303</t>
@@ -848,55 +848,55 @@
     <t xml:space="preserve">9.22087287902832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21439933776855</t>
+    <t xml:space="preserve">9.21439838409424</t>
   </si>
   <si>
     <t xml:space="preserve">9.44751167297363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54463863372803</t>
+    <t xml:space="preserve">9.54463958740234</t>
   </si>
   <si>
     <t xml:space="preserve">9.59644222259521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64824485778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64177131652832</t>
+    <t xml:space="preserve">9.64824771881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64177227020264</t>
   </si>
   <si>
     <t xml:space="preserve">9.71299934387207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74537658691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62234497070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73890113830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72595024108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70652294158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66767311096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48636245727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26620101928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24677467346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12374496459961</t>
+    <t xml:space="preserve">9.74537563323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62234401702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73890018463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72595119476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70652484893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6676721572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48636054992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26620197296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24677562713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12374401092529</t>
   </si>
   <si>
     <t xml:space="preserve">9.23382472991943</t>
@@ -908,22 +908,22 @@
     <t xml:space="preserve">9.03956508636475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11079406738281</t>
+    <t xml:space="preserve">9.1107931137085</t>
   </si>
   <si>
     <t xml:space="preserve">8.92948341369629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99423885345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00071334838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06546783447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96833610534668</t>
+    <t xml:space="preserve">8.99423789978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00071239471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06546401977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96833801269531</t>
   </si>
   <si>
     <t xml:space="preserve">8.91653442382812</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">9.00718879699707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82587909698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87120628356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84530639648438</t>
+    <t xml:space="preserve">8.82587718963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87120532989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84530544281006</t>
   </si>
   <si>
     <t xml:space="preserve">8.79350185394287</t>
@@ -947,28 +947,28 @@
     <t xml:space="preserve">8.80645275115967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7546501159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78055286407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61219215393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52153968811035</t>
+    <t xml:space="preserve">8.75465202331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78055095672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61219310760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52153778076172</t>
   </si>
   <si>
     <t xml:space="preserve">8.62514305114746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65104484558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52801322937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47620964050293</t>
+    <t xml:space="preserve">8.65104579925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52801418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47621059417725</t>
   </si>
   <si>
     <t xml:space="preserve">8.3920316696167</t>
@@ -977,25 +977,25 @@
     <t xml:space="preserve">8.41793346405029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39850902557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54096412658691</t>
+    <t xml:space="preserve">8.3985071182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5409631729126</t>
   </si>
   <si>
     <t xml:space="preserve">8.55391502380371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57334136962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50858783721924</t>
+    <t xml:space="preserve">8.57334041595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50858688354492</t>
   </si>
   <si>
     <t xml:space="preserve">8.50211334228516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.515061378479</t>
+    <t xml:space="preserve">8.51506042480469</t>
   </si>
   <si>
     <t xml:space="preserve">8.44383430480957</t>
@@ -1010,16 +1010,16 @@
     <t xml:space="preserve">8.56039047241211</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65751934051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72227382659912</t>
+    <t xml:space="preserve">8.65752029418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72227478027344</t>
   </si>
   <si>
     <t xml:space="preserve">8.7611255645752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74169921875</t>
+    <t xml:space="preserve">8.74169731140137</t>
   </si>
   <si>
     <t xml:space="preserve">8.77407550811768</t>
@@ -1031,22 +1031,22 @@
     <t xml:space="preserve">8.76760101318359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73522472381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64456939697266</t>
+    <t xml:space="preserve">8.73522281646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64457035064697</t>
   </si>
   <si>
     <t xml:space="preserve">8.68342208862305</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5798168182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48916053771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61866855621338</t>
+    <t xml:space="preserve">8.57981586456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48916149139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6186695098877</t>
   </si>
   <si>
     <t xml:space="preserve">8.63161945343018</t>
@@ -1055,16 +1055,16 @@
     <t xml:space="preserve">8.67047023773193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72875022888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71579837799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74817371368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83235549926758</t>
+    <t xml:space="preserve">8.72874927520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71579742431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7481746673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83235454559326</t>
   </si>
   <si>
     <t xml:space="preserve">8.9424352645874</t>
@@ -1073,34 +1073,34 @@
     <t xml:space="preserve">8.97577667236328</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02245807647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09581089019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16249656677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18916893005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29586505889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3292064666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28919696807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30253410339355</t>
+    <t xml:space="preserve">9.02245426177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09580993652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16249561309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18916988372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29586410522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32920837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2891960144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30253314971924</t>
   </si>
   <si>
     <t xml:space="preserve">9.33587551116943</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31586837768555</t>
+    <t xml:space="preserve">9.3158712387085</t>
   </si>
   <si>
     <t xml:space="preserve">9.38255596160889</t>
@@ -1109,28 +1109,28 @@
     <t xml:space="preserve">9.26919078826904</t>
   </si>
   <si>
-    <t xml:space="preserve">9.355881690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23584842681885</t>
+    <t xml:space="preserve">9.35587978363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23584938049316</t>
   </si>
   <si>
     <t xml:space="preserve">9.28252792358398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24251461029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26252365112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2558536529541</t>
+    <t xml:space="preserve">9.24251747131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26252460479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25585556030273</t>
   </si>
   <si>
     <t xml:space="preserve">9.1825008392334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22251224517822</t>
+    <t xml:space="preserve">9.22250938415527</t>
   </si>
   <si>
     <t xml:space="preserve">9.20250606536865</t>
@@ -1139,58 +1139,58 @@
     <t xml:space="preserve">9.22917938232422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.362548828125</t>
+    <t xml:space="preserve">9.36254787445068</t>
   </si>
   <si>
     <t xml:space="preserve">9.48258113861084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53593063354492</t>
+    <t xml:space="preserve">9.53592967987061</t>
   </si>
   <si>
     <t xml:space="preserve">9.58927726745605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66929912567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81600475311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74932289123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6759672164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60928440093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5425968170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42923450469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15582466125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17583179473877</t>
+    <t xml:space="preserve">9.6693000793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81600570678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74932098388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67596912384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60928344726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54259967803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42923355102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15582656860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17583274841309</t>
   </si>
   <si>
     <t xml:space="preserve">9.24918556213379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27586078643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21584129333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12915134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20917415618896</t>
+    <t xml:space="preserve">9.27585887908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21584224700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12915420532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20917510986328</t>
   </si>
   <si>
     <t xml:space="preserve">9.34921264648438</t>
@@ -1199,40 +1199,40 @@
     <t xml:space="preserve">9.37588691711426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32253742218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30920028686523</t>
+    <t xml:space="preserve">9.32253932952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30920124053955</t>
   </si>
   <si>
     <t xml:space="preserve">9.50258731842041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62262153625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68263721466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80266761779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94937419891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94270610809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9093656539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96938133239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88935852050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96271324157715</t>
+    <t xml:space="preserve">9.62262058258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68263530731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80266952514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94937705993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94270896911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90936374664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96938037872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88935947418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96271419525146</t>
   </si>
   <si>
     <t xml:space="preserve">9.97604942321777</t>
@@ -1241,46 +1241,46 @@
     <t xml:space="preserve">9.95604515075684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86268520355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69864177703857</t>
+    <t xml:space="preserve">9.86268615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69863986968994</t>
   </si>
   <si>
     <t xml:space="preserve">9.65996360778809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72931671142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56793975830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43856906890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17183017730713</t>
+    <t xml:space="preserve">9.72931575775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56793880462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43857097625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17183208465576</t>
   </si>
   <si>
     <t xml:space="preserve">9.11715030670166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9344310760498</t>
+    <t xml:space="preserve">8.93443393707275</t>
   </si>
   <si>
     <t xml:space="preserve">8.99044799804688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90375804901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.961106300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00512027740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09047508239746</t>
+    <t xml:space="preserve">8.90375709533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96110439300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00511837005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09047412872314</t>
   </si>
   <si>
     <t xml:space="preserve">9.14115715026855</t>
@@ -1289,19 +1289,19 @@
     <t xml:space="preserve">9.14382362365723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12248420715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19583797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2438497543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14515686035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05046367645264</t>
+    <t xml:space="preserve">9.122483253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19583702087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24385070800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14515590667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05046463012695</t>
   </si>
   <si>
     <t xml:space="preserve">8.9210958480835</t>
@@ -1310,28 +1310,28 @@
     <t xml:space="preserve">8.88908767700195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01178741455078</t>
+    <t xml:space="preserve">9.01178550720215</t>
   </si>
   <si>
     <t xml:space="preserve">9.05713272094727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06380176544189</t>
+    <t xml:space="preserve">9.06379985809326</t>
   </si>
   <si>
     <t xml:space="preserve">9.14782333374023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21851253509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40256023406982</t>
+    <t xml:space="preserve">9.21851062774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40256118774414</t>
   </si>
   <si>
     <t xml:space="preserve">9.29453086853027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42256736755371</t>
+    <t xml:space="preserve">9.42256546020508</t>
   </si>
   <si>
     <t xml:space="preserve">9.49591827392578</t>
@@ -1340,52 +1340,52 @@
     <t xml:space="preserve">9.44924068450928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4078950881958</t>
+    <t xml:space="preserve">9.40789604187012</t>
   </si>
   <si>
     <t xml:space="preserve">9.37455272674561</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46924304962158</t>
+    <t xml:space="preserve">9.46924495697021</t>
   </si>
   <si>
     <t xml:space="preserve">9.44390487670898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52792549133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62395286560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70664310455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91069889068604</t>
+    <t xml:space="preserve">9.52792835235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6239538192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70664215087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91069984436035</t>
   </si>
   <si>
     <t xml:space="preserve">9.9280366897583</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99472141265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0920820236206</t>
+    <t xml:space="preserve">9.99472236633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0920810699463</t>
   </si>
   <si>
     <t xml:space="preserve">10.1547651290894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2227840423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2908020019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3014698028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4561815261841</t>
+    <t xml:space="preserve">10.2227821350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2908029556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3014707565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4561805725098</t>
   </si>
   <si>
     <t xml:space="preserve">10.5335340499878</t>
@@ -1397,16 +1397,16 @@
     <t xml:space="preserve">10.63756275177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7282543182373</t>
+    <t xml:space="preserve">10.728253364563</t>
   </si>
   <si>
     <t xml:space="preserve">10.6882438659668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5695457458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.78293800354</t>
+    <t xml:space="preserve">10.5695447921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7829370498657</t>
   </si>
   <si>
     <t xml:space="preserve">10.7749347686768</t>
@@ -1418,37 +1418,37 @@
     <t xml:space="preserve">10.8842973709106</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7549295425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9029674530029</t>
+    <t xml:space="preserve">10.7549276351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9029684066772</t>
   </si>
   <si>
     <t xml:space="preserve">11.112359046936</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8269491195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1270313262939</t>
+    <t xml:space="preserve">10.8269481658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1270294189453</t>
   </si>
   <si>
     <t xml:space="preserve">10.9416465759277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9629850387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1203632354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1790447235107</t>
+    <t xml:space="preserve">10.9629859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.120361328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1790437698364</t>
   </si>
   <si>
     <t xml:space="preserve">11.0283355712891</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0710144042969</t>
+    <t xml:space="preserve">11.0710115432739</t>
   </si>
   <si>
     <t xml:space="preserve">11.0376710891724</t>
@@ -1457,43 +1457,43 @@
     <t xml:space="preserve">10.9502019882202</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0035057067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8818635940552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.78209400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5142164230347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3010091781616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.31467628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5852851867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7506589889526</t>
+    <t xml:space="preserve">11.0035018920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8818645477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7820949554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.514217376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3010082244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3146753311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5852870941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7506618499756</t>
   </si>
   <si>
     <t xml:space="preserve">10.6508903503418</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5593185424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5579519271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6809568405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4035129547119</t>
+    <t xml:space="preserve">10.5593166351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5579509735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6809587478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4035139083862</t>
   </si>
   <si>
     <t xml:space="preserve">10.7069253921509</t>
@@ -1502,10 +1502,10 @@
     <t xml:space="preserve">10.6003217697144</t>
   </si>
   <si>
-    <t xml:space="preserve">10.806697845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6139869689941</t>
+    <t xml:space="preserve">10.806694984436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6139879226685</t>
   </si>
   <si>
     <t xml:space="preserve">10.6194534301758</t>
@@ -1514,28 +1514,28 @@
     <t xml:space="preserve">10.5470190048218</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3611431121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6850566864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4431476593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5456514358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8367624282837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8722991943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8695659637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7793598175049</t>
+    <t xml:space="preserve">10.3611421585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6850576400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4431457519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5456523895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.836763381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8722972869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8695669174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7793626785278</t>
   </si>
   <si>
     <t xml:space="preserve">11.0404052734375</t>
@@ -1550,124 +1550,124 @@
     <t xml:space="preserve">11.0568065643311</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1497440338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2959842681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1060094833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1114749908447</t>
+    <t xml:space="preserve">11.1497430801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2959823608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1060104370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1114768981934</t>
   </si>
   <si>
     <t xml:space="preserve">11.1251430511475</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9707040786743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0281057357788</t>
+    <t xml:space="preserve">10.970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0281047821045</t>
   </si>
   <si>
     <t xml:space="preserve">11.0267381668091</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9884700775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9925708770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0226383209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0964441299438</t>
+    <t xml:space="preserve">10.988471031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9925689697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0226373672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0964422225952</t>
   </si>
   <si>
     <t xml:space="preserve">11.0896091461182</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1456422805786</t>
+    <t xml:space="preserve">11.1456432342529</t>
   </si>
   <si>
     <t xml:space="preserve">11.0704746246338</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1292419433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2508811950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1675100326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.073205947876</t>
+    <t xml:space="preserve">11.1292409896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2508821487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1675109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0732069015503</t>
   </si>
   <si>
     <t xml:space="preserve">11.1333427429199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3506526947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2754821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1975793838501</t>
+    <t xml:space="preserve">11.3506517410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2754831314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1975784301758</t>
   </si>
   <si>
     <t xml:space="preserve">10.9037313461304</t>
   </si>
   <si>
-    <t xml:space="preserve">10.905101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0117044448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8736667633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.813530921936</t>
+    <t xml:space="preserve">10.9050998687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0117053985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.873664855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8135299682617</t>
   </si>
   <si>
     <t xml:space="preserve">10.9420013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0527076721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1524782180786</t>
+    <t xml:space="preserve">11.0527067184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1524772644043</t>
   </si>
   <si>
     <t xml:space="preserve">11.0937070846558</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2071466445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2290124893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2098817825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9201335906982</t>
+    <t xml:space="preserve">11.207145690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2290134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2098779678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9201345443726</t>
   </si>
   <si>
     <t xml:space="preserve">10.9912042617798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0185403823853</t>
+    <t xml:space="preserve">11.0185384750366</t>
   </si>
   <si>
     <t xml:space="preserve">10.9064674377441</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8148956298828</t>
+    <t xml:space="preserve">10.8148965835571</t>
   </si>
   <si>
     <t xml:space="preserve">10.7465600967407</t>
@@ -1676,22 +1676,22 @@
     <t xml:space="preserve">10.8312978744507</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8517980575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.946102142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9256000518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9242353439331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240039825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.164776802063</t>
+    <t xml:space="preserve">10.8517971038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9461002349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9256010055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9242343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240049362183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1647777557373</t>
   </si>
   <si>
     <t xml:space="preserve">11.3322219848633</t>
@@ -1700,85 +1700,85 @@
     <t xml:space="preserve">11.6071815490723</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6408500671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5959587097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4206027984619</t>
+    <t xml:space="preserve">11.6408491134644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5959596633911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4206018447876</t>
   </si>
   <si>
     <t xml:space="preserve">11.4472551345825</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4626865386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4865369796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4177961349487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4107818603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1147813796997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4065732955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308181762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0193872451782</t>
+    <t xml:space="preserve">11.4626874923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4865350723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.417797088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4107828140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1147794723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4065723419189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308191299438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0193862915039</t>
   </si>
   <si>
     <t xml:space="preserve">10.9562578201294</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0558633804321</t>
+    <t xml:space="preserve">11.0558614730835</t>
   </si>
   <si>
     <t xml:space="preserve">11.1049604415894</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9310064315796</t>
+    <t xml:space="preserve">10.931004524231</t>
   </si>
   <si>
     <t xml:space="preserve">10.7261924743652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7949304580688</t>
+    <t xml:space="preserve">10.7949314117432</t>
   </si>
   <si>
     <t xml:space="preserve">10.6434230804443</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4863033294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3263788223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5031394958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6153650283813</t>
+    <t xml:space="preserve">10.4863023757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3263807296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5031366348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.61536693573</t>
   </si>
   <si>
     <t xml:space="preserve">10.7752914428711</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7921237945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.016580581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.820182800293</t>
+    <t xml:space="preserve">10.7921257019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0165815353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8201818466187</t>
   </si>
   <si>
     <t xml:space="preserve">10.7738885879517</t>
@@ -1787,64 +1787,64 @@
     <t xml:space="preserve">10.838418006897</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7584562301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9660768508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9239950180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8412256240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8636713027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.625186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4694681167603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5045404434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4512319564819</t>
+    <t xml:space="preserve">10.7584571838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9660787582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9239921569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8412265777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8636703491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6251850128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4694709777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5045413970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4512329101562</t>
   </si>
   <si>
     <t xml:space="preserve">10.3249769210815</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1369953155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.260443687439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.041600227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86203479766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0275716781616</t>
+    <t xml:space="preserve">10.1369934082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2604446411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0415992736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86203670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0275726318359</t>
   </si>
   <si>
     <t xml:space="preserve">9.95602703094482</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92797088623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97145557403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99250221252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1790809631348</t>
+    <t xml:space="preserve">9.92796993255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97145843505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9925012588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1790800094604</t>
   </si>
   <si>
     <t xml:space="preserve">10.1103410720825</t>
@@ -1853,16 +1853,16 @@
     <t xml:space="preserve">10.023365020752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70351505279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8999137878418</t>
+    <t xml:space="preserve">9.70351600646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89991283416748</t>
   </si>
   <si>
     <t xml:space="preserve">9.77786445617676</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86624526977539</t>
+    <t xml:space="preserve">9.86624431610107</t>
   </si>
   <si>
     <t xml:space="preserve">9.98548698425293</t>
@@ -1871,25 +1871,25 @@
     <t xml:space="preserve">10.0037250518799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92376136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79189300537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68948459625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78487968444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69790077209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66142845153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48326778411865</t>
+    <t xml:space="preserve">9.92376232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79189395904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68948364257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78488063812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69790458679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6614294052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48326587677002</t>
   </si>
   <si>
     <t xml:space="preserve">9.64319133758545</t>
@@ -1898,10 +1898,10 @@
     <t xml:space="preserve">9.6656379699707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70772266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0584344863892</t>
+    <t xml:space="preserve">9.70772171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0584335327148</t>
   </si>
   <si>
     <t xml:space="preserve">9.97005558013916</t>
@@ -1913,19 +1913,19 @@
     <t xml:space="preserve">9.99951553344727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98969459533691</t>
+    <t xml:space="preserve">9.98969650268555</t>
   </si>
   <si>
     <t xml:space="preserve">9.93919372558594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90411949157715</t>
+    <t xml:space="preserve">9.9041223526001</t>
   </si>
   <si>
     <t xml:space="preserve">9.99530601501465</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0163478851318</t>
+    <t xml:space="preserve">10.0163488388062</t>
   </si>
   <si>
     <t xml:space="preserve">9.97286224365234</t>
@@ -1934,16 +1934,16 @@
     <t xml:space="preserve">10.2464160919189</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2029275894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1538286209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.111741065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2211656570435</t>
+    <t xml:space="preserve">10.2029285430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1538276672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1117420196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2211666107178</t>
   </si>
   <si>
     <t xml:space="preserve">10.1229658126831</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">10.1860942840576</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2716684341431</t>
+    <t xml:space="preserve">10.2716665267944</t>
   </si>
   <si>
     <t xml:space="preserve">10.3852977752686</t>
@@ -1967,46 +1967,46 @@
     <t xml:space="preserve">10.4792900085449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4231748580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1945114135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.181884765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2758760452271</t>
+    <t xml:space="preserve">10.4231758117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1945104598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1818876266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2758769989014</t>
   </si>
   <si>
     <t xml:space="preserve">10.350227355957</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4203691482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3670616149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6055469512939</t>
+    <t xml:space="preserve">10.4203701019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3670625686646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6055459976196</t>
   </si>
   <si>
     <t xml:space="preserve">10.6448249816895</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6602563858032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6981344223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7107601165771</t>
+    <t xml:space="preserve">10.6602582931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6981353759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7107620239258</t>
   </si>
   <si>
     <t xml:space="preserve">10.7233858108521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6700792312622</t>
+    <t xml:space="preserve">10.6700763702393</t>
   </si>
   <si>
     <t xml:space="preserve">10.6686744689941</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">10.6378116607666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5480298995972</t>
+    <t xml:space="preserve">10.5480289459229</t>
   </si>
   <si>
     <t xml:space="preserve">10.5985326766968</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">10.6504373550415</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7177753448486</t>
+    <t xml:space="preserve">10.7177743911743</t>
   </si>
   <si>
     <t xml:space="preserve">10.4989290237427</t>
@@ -2036,22 +2036,22 @@
     <t xml:space="preserve">10.6069488525391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6364097595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9029521942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8987417221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9338140487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0432367324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1456432342529</t>
+    <t xml:space="preserve">10.6364078521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9029512405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8987407684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9338130950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0432348251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1456441879272</t>
   </si>
   <si>
     <t xml:space="preserve">11.0656814575195</t>
@@ -2063,64 +2063,64 @@
     <t xml:space="preserve">11.0123729705811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9590644836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9534549713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9352149963379</t>
+    <t xml:space="preserve">10.9590654373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9534530639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9352159500122</t>
   </si>
   <si>
     <t xml:space="preserve">10.8580589294434</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0502481460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0755004882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.155463218689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0516529083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1161832809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0923337936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1442394256592</t>
+    <t xml:space="preserve">11.0502500534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0755014419556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1554613113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0516519546509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1161842346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0923347473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1442403793335</t>
   </si>
   <si>
     <t xml:space="preserve">11.1807146072388</t>
   </si>
   <si>
-    <t xml:space="preserve">11.169490814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0937395095825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9913291931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8229885101318</t>
+    <t xml:space="preserve">11.1694917678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0937376022339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9913311004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8229875564575</t>
   </si>
   <si>
     <t xml:space="preserve">10.8243913650513</t>
   </si>
   <si>
-    <t xml:space="preserve">11.081111907959</t>
+    <t xml:space="preserve">11.0811138153076</t>
   </si>
   <si>
     <t xml:space="preserve">10.9071588516235</t>
   </si>
   <si>
-    <t xml:space="preserve">10.876296043396</t>
+    <t xml:space="preserve">10.8762969970703</t>
   </si>
   <si>
     <t xml:space="preserve">10.7612619400024</t>
@@ -2132,22 +2132,22 @@
     <t xml:space="preserve">10.6742868423462</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5452241897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5831022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4315919876099</t>
+    <t xml:space="preserve">10.5452270507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.583101272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4315929412842</t>
   </si>
   <si>
     <t xml:space="preserve">10.1636486053467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1566333770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0472116470337</t>
+    <t xml:space="preserve">10.1566362380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0472145080566</t>
   </si>
   <si>
     <t xml:space="preserve">10.0065298080444</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">10.1159524917603</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2436113357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1832885742188</t>
+    <t xml:space="preserve">10.2436122894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1832895278931</t>
   </si>
   <si>
     <t xml:space="preserve">10.346019744873</t>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">10.4091482162476</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3990478515625</t>
+    <t xml:space="preserve">10.3990497589111</t>
   </si>
   <si>
     <t xml:space="preserve">10.4884958267212</t>
@@ -2177,34 +2177,34 @@
     <t xml:space="preserve">10.4004907608032</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0412569046021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1379175186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1494579315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1177186965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90708446502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87678813934326</t>
+    <t xml:space="preserve">10.0412578582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.13791847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1494598388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1177206039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90708541870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87678718566895</t>
   </si>
   <si>
     <t xml:space="preserve">9.79599571228027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96912097930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.11194896698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0037460327148</t>
+    <t xml:space="preserve">9.96912002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1119480133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0037441253662</t>
   </si>
   <si>
     <t xml:space="preserve">10.0268287658691</t>
@@ -2213,25 +2213,25 @@
     <t xml:space="preserve">10.0701103210449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0989637374878</t>
+    <t xml:space="preserve">10.0989646911621</t>
   </si>
   <si>
     <t xml:space="preserve">10.1321458816528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0297145843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0585689544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0051889419556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2114973068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2591075897217</t>
+    <t xml:space="preserve">10.0297164916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0585708618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0051898956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2114963531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.259105682373</t>
   </si>
   <si>
     <t xml:space="preserve">10.3572101593018</t>
@@ -2243,31 +2243,31 @@
     <t xml:space="preserve">10.475513458252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4163608551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4654121398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.435115814209</t>
+    <t xml:space="preserve">10.4163589477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4654130935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4351148605347</t>
   </si>
   <si>
     <t xml:space="preserve">10.5606317520142</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4581995010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5086946487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.564959526062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4957103729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5707311630249</t>
+    <t xml:space="preserve">10.4581985473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5086936950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5649604797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4957094192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5707302093506</t>
   </si>
   <si>
     <t xml:space="preserve">10.6082410812378</t>
@@ -2276,187 +2276,187 @@
     <t xml:space="preserve">10.6760482788086</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6948022842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.61256980896</t>
+    <t xml:space="preserve">10.6948041915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6125688552856</t>
   </si>
   <si>
     <t xml:space="preserve">10.5793876647949</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3976068496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3153696060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2576637268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3269138336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3802928924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3514375686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3427810668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2778615951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1667718887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2461204528809</t>
+    <t xml:space="preserve">10.3976049423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3153705596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2576627731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3269119262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3802919387817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3514394760132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3427820205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2778606414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1667728424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2461214065552</t>
   </si>
   <si>
     <t xml:space="preserve">10.1682138442993</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86813259124756</t>
+    <t xml:space="preserve">9.86813068389893</t>
   </si>
   <si>
     <t xml:space="preserve">9.72385883331299</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65460872650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51755428314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69067668914795</t>
+    <t xml:space="preserve">9.65460968017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51755046844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69067764282227</t>
   </si>
   <si>
     <t xml:space="preserve">9.51610946655273</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50024032592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68057918548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45118808746338</t>
+    <t xml:space="preserve">9.50023937225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68058013916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45118713378906</t>
   </si>
   <si>
     <t xml:space="preserve">9.40646266937256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57526206970215</t>
+    <t xml:space="preserve">9.57526111602783</t>
   </si>
   <si>
     <t xml:space="preserve">9.48148441314697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63008403778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60267066955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48004245758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5348653793335</t>
+    <t xml:space="preserve">9.63008308410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60267353057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48004150390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53486633300781</t>
   </si>
   <si>
     <t xml:space="preserve">9.59545803070068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66615295410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82340717315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89121437072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81186676025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86091709136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9330530166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0426969528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1725435256958</t>
+    <t xml:space="preserve">9.66615200042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82340621948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89121532440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81186580657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86091613769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93305492401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0426979064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1725425720215</t>
   </si>
   <si>
     <t xml:space="preserve">10.1523456573486</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1307058334351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3254709243774</t>
+    <t xml:space="preserve">10.1307039260864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3254699707031</t>
   </si>
   <si>
     <t xml:space="preserve">10.208610534668</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3326835632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4971513748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5105314254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4034938812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3038902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3574094772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4466047286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4317388534546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3916006088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0764322280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96642112731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0675115585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1477918624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0600824356079</t>
+    <t xml:space="preserve">10.3326845169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4971532821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5105323791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4034957885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3038883209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3574066162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4466066360474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4317407608032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3915996551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0764331817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96642303466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.067512512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1477928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0600805282593</t>
   </si>
   <si>
     <t xml:space="preserve">10.1091384887695</t>
   </si>
   <si>
-    <t xml:space="preserve">10.170090675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2845640182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2161779403687</t>
+    <t xml:space="preserve">10.1700916290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2845630645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.21617603302</t>
   </si>
   <si>
     <t xml:space="preserve">10.2860488891602</t>
@@ -2471,10 +2471,10 @@
     <t xml:space="preserve">10.3722743988037</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4599847793579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5090446472168</t>
+    <t xml:space="preserve">10.4599876403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5090475082397</t>
   </si>
   <si>
     <t xml:space="preserve">10.4362001419067</t>
@@ -2483,100 +2483,100 @@
     <t xml:space="preserve">10.3603811264038</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2786159515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1819839477539</t>
+    <t xml:space="preserve">10.2786169052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1819849014282</t>
   </si>
   <si>
     <t xml:space="preserve">10.0868396759033</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1864442825317</t>
+    <t xml:space="preserve">10.1864452362061</t>
   </si>
   <si>
     <t xml:space="preserve">10.3871412277222</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5536451339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5283718109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5372905731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5476970672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5075578689575</t>
+    <t xml:space="preserve">10.5536441802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5283708572388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5372915267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5476961135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5075588226318</t>
   </si>
   <si>
     <t xml:space="preserve">10.5952701568604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5417509078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.569995880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4882307052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3841676712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4153881072998</t>
+    <t xml:space="preserve">10.5417518615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5699987411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4882316589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3841686248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4153861999512</t>
   </si>
   <si>
     <t xml:space="preserve">10.437686920166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4421482086182</t>
+    <t xml:space="preserve">10.4421453475952</t>
   </si>
   <si>
     <t xml:space="preserve">10.355920791626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3247032165527</t>
+    <t xml:space="preserve">10.3247013092041</t>
   </si>
   <si>
     <t xml:space="preserve">10.2578029632568</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1938762664795</t>
+    <t xml:space="preserve">10.1938772201538</t>
   </si>
   <si>
     <t xml:space="preserve">10.0883264541626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0199403762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.141845703125</t>
+    <t xml:space="preserve">10.0199413299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1418437957764</t>
   </si>
   <si>
     <t xml:space="preserve">10.2355051040649</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1284646987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1581983566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1031923294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1463050842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1121129989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1269779205322</t>
+    <t xml:space="preserve">10.1284656524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1581993103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1031932830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1463041305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1121120452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1269798278809</t>
   </si>
   <si>
     <t xml:space="preserve">10.1849575042725</t>
@@ -2588,25 +2588,25 @@
     <t xml:space="preserve">10.2919969558716</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4183597564697</t>
+    <t xml:space="preserve">10.418360710144</t>
   </si>
   <si>
     <t xml:space="preserve">10.4064664840698</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4124135971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.485258102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6413555145264</t>
+    <t xml:space="preserve">10.4124126434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4852600097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.641357421875</t>
   </si>
   <si>
     <t xml:space="preserve">10.6443290710449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5595893859863</t>
+    <t xml:space="preserve">10.559591293335</t>
   </si>
   <si>
     <t xml:space="preserve">10.4807987213135</t>
@@ -2618,16 +2618,16 @@
     <t xml:space="preserve">10.2563171386719</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3232164382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3440284729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.318754196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.077919960022</t>
+    <t xml:space="preserve">10.3232154846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.344030380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3187561035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0779180526733</t>
   </si>
   <si>
     <t xml:space="preserve">10.0035886764526</t>
@@ -2636,37 +2636,37 @@
     <t xml:space="preserve">10.012508392334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80883884429932</t>
+    <t xml:space="preserve">9.808837890625</t>
   </si>
   <si>
     <t xml:space="preserve">9.9589900970459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87722301483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60814380645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40893268585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37325191497803</t>
+    <t xml:space="preserve">9.87722492218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60814094543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40893363952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37325382232666</t>
   </si>
   <si>
     <t xml:space="preserve">9.50556468963623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68396186828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64085006713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59327697753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49961757659912</t>
+    <t xml:space="preserve">9.68395900726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64084815979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59327602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49961853027344</t>
   </si>
   <si>
     <t xml:space="preserve">9.73748016357422</t>
@@ -2675,22 +2675,22 @@
     <t xml:space="preserve">9.65422821044922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5828685760498</t>
+    <t xml:space="preserve">9.58287143707275</t>
   </si>
   <si>
     <t xml:space="preserve">9.59624862670898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61706256866455</t>
+    <t xml:space="preserve">9.61706161499023</t>
   </si>
   <si>
     <t xml:space="preserve">9.58881568908691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48772430419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04470634460449</t>
+    <t xml:space="preserve">9.48772525787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04470825195312</t>
   </si>
   <si>
     <t xml:space="preserve">8.9019889831543</t>
@@ -2705,25 +2705,25 @@
     <t xml:space="preserve">8.29395294189453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26422214508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26570796966553</t>
+    <t xml:space="preserve">8.26422309875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26570892333984</t>
   </si>
   <si>
     <t xml:space="preserve">8.28949546813965</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15272521972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60712766647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02088451385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06920051574707</t>
+    <t xml:space="preserve">8.15272426605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60712623596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02088499069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06919956207275</t>
   </si>
   <si>
     <t xml:space="preserve">5.98371887207031</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">4.89995908737183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13707828521729</t>
+    <t xml:space="preserve">5.13707733154297</t>
   </si>
   <si>
     <t xml:space="preserve">4.82562732696533</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">5.10362863540649</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9757776260376</t>
+    <t xml:space="preserve">4.97577810287476</t>
   </si>
   <si>
     <t xml:space="preserve">5.17721748352051</t>
@@ -2756,34 +2756,34 @@
     <t xml:space="preserve">6.22529649734497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.483971118927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47505235671997</t>
+    <t xml:space="preserve">6.48397207260132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47505283355713</t>
   </si>
   <si>
     <t xml:space="preserve">6.10785293579102</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38734149932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85340213775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83853530883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31277275085449</t>
+    <t xml:space="preserve">6.38734102249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85340261459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83853435516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31277227401733</t>
   </si>
   <si>
     <t xml:space="preserve">6.93144989013672</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92401647567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00801229476929</t>
+    <t xml:space="preserve">6.92401599884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0080132484436</t>
   </si>
   <si>
     <t xml:space="preserve">6.90915060043335</t>
@@ -2792,19 +2792,19 @@
     <t xml:space="preserve">6.91881370544434</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81400680541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37916374206543</t>
+    <t xml:space="preserve">6.81400537490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37916421890259</t>
   </si>
   <si>
     <t xml:space="preserve">6.28401947021484</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38288116455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26915407180786</t>
+    <t xml:space="preserve">6.38288021087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26915264129639</t>
   </si>
   <si>
     <t xml:space="preserve">5.91681957244873</t>
@@ -2816,79 +2816,79 @@
     <t xml:space="preserve">6.29739999771118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13238143920898</t>
+    <t xml:space="preserve">6.13238286972046</t>
   </si>
   <si>
     <t xml:space="preserve">6.24685335159302</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45498275756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65790891647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47728252410889</t>
+    <t xml:space="preserve">6.45498323440552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65790843963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47728300094604</t>
   </si>
   <si>
     <t xml:space="preserve">6.1033935546875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45721340179443</t>
+    <t xml:space="preserve">6.45721292495728</t>
   </si>
   <si>
     <t xml:space="preserve">6.26097726821899</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35983753204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41558599472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33679580688477</t>
+    <t xml:space="preserve">6.35983848571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41558694839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33679485321045</t>
   </si>
   <si>
     <t xml:space="preserve">6.32861804962158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33307933807373</t>
+    <t xml:space="preserve">6.33307886123657</t>
   </si>
   <si>
     <t xml:space="preserve">6.77694177627563</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56323003768921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59845685958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43641233444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39883470535278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46615982055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47711896896362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61489629745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64777565002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35891151428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52878570556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8661847114563</t>
+    <t xml:space="preserve">6.56322956085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59845638275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43641185760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39883613586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46615934371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47711944580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61489677429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64777421951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35891199111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52878665924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86618375778198</t>
   </si>
   <si>
     <t xml:space="preserve">7.04466867446899</t>
@@ -2900,13 +2900,13 @@
     <t xml:space="preserve">7.44156360626221</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5652494430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33979511260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22550249099731</t>
+    <t xml:space="preserve">7.56524896621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33979558944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.225501537323</t>
   </si>
   <si>
     <t xml:space="preserve">6.71744680404663</t>
@@ -2915,28 +2915,28 @@
     <t xml:space="preserve">6.72214365005493</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71666288375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99456834793091</t>
+    <t xml:space="preserve">6.71666383743286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99456787109375</t>
   </si>
   <si>
     <t xml:space="preserve">6.96403741836548</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9162859916687</t>
+    <t xml:space="preserve">6.91628551483154</t>
   </si>
   <si>
     <t xml:space="preserve">6.94681549072266</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8912353515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63211917877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63916397094727</t>
+    <t xml:space="preserve">6.89123487472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63211870193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63916444778442</t>
   </si>
   <si>
     <t xml:space="preserve">6.57340669631958</t>
@@ -2945,199 +2945,199 @@
     <t xml:space="preserve">6.75189161300659</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64620971679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63446760177612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82626056671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79024982452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85600757598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.904541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80903816223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60237216949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77929162979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87557792663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91706800460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96325540542603</t>
+    <t xml:space="preserve">6.64620923995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63446712493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82625961303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79025030136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85600662231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90454244613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80903768539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60237169265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77928972244263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87557697296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91706943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96325445175171</t>
   </si>
   <si>
     <t xml:space="preserve">6.8990626335144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8740119934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98987102508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81608295440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73310232162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66969537734985</t>
+    <t xml:space="preserve">6.87401294708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98987054824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81608200073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73310375213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66969442367554</t>
   </si>
   <si>
     <t xml:space="preserve">6.62507343292236</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63603210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58358287811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12014865875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90330505371094</t>
+    <t xml:space="preserve">6.63603353500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58358383178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1201491355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9033055305481</t>
   </si>
   <si>
     <t xml:space="preserve">5.89782571792603</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15224552154541</t>
+    <t xml:space="preserve">6.15224504470825</t>
   </si>
   <si>
     <t xml:space="preserve">6.33777475357056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21722030639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11075592041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25166368484497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45363521575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55461931228638</t>
+    <t xml:space="preserve">6.21721935272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11075496673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25166463851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4536337852478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55461883544922</t>
   </si>
   <si>
     <t xml:space="preserve">6.45441722869873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40275001525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34090709686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30489730834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36282587051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21174001693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16320371627808</t>
+    <t xml:space="preserve">6.40275096893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34090662002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30489683151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36282634735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2117395401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16320514678955</t>
   </si>
   <si>
     <t xml:space="preserve">6.41214418411255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32368469238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23287582397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10605907440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08727121353149</t>
+    <t xml:space="preserve">6.32368421554565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23287630081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10605812072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08727073669434</t>
   </si>
   <si>
     <t xml:space="preserve">6.00898790359497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02464437484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98472023010254</t>
+    <t xml:space="preserve">6.02464389801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98471927642822</t>
   </si>
   <si>
     <t xml:space="preserve">6.08492136001587</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88608312606812</t>
+    <t xml:space="preserve">5.88608360290527</t>
   </si>
   <si>
     <t xml:space="preserve">5.97141122817993</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96984624862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94871044158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8524227142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95888614654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.989417552948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94479560852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78353261947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53048372268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61483335494995</t>
+    <t xml:space="preserve">5.96984529495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9487099647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85242176055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95888566970825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98941612243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94479608535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78353357315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53048324584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61483383178711</t>
   </si>
   <si>
     <t xml:space="preserve">5.5129771232605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4206690788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3227915763855</t>
+    <t xml:space="preserve">5.42067050933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32279253005981</t>
   </si>
   <si>
     <t xml:space="preserve">5.45886659622192</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3036937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32199621200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14215612411499</t>
+    <t xml:space="preserve">5.30369424819946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32199668884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14215564727783</t>
   </si>
   <si>
     <t xml:space="preserve">5.17000770568848</t>
@@ -3152,13 +3152,13 @@
     <t xml:space="preserve">5.35541820526123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47876071929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46045732498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42623996734619</t>
+    <t xml:space="preserve">5.478759765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46045684814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42624044418335</t>
   </si>
   <si>
     <t xml:space="preserve">5.32040452957153</t>
@@ -3167,31 +3167,31 @@
     <t xml:space="preserve">5.32995414733887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10714340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22252798080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2408299446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2217321395874</t>
+    <t xml:space="preserve">5.10714292526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22252702713013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24082899093628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22173118591309</t>
   </si>
   <si>
     <t xml:space="preserve">5.04507398605347</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04587030410767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12783288955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9694766998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85409307479858</t>
+    <t xml:space="preserve">5.04586982727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12783241271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96947813034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85409355163574</t>
   </si>
   <si>
     <t xml:space="preserve">4.68300771713257</t>
@@ -3200,88 +3200,88 @@
     <t xml:space="preserve">4.70926666259766</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78327178955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06258058547974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18353605270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24958372116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24878692626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2058162689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87106561660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10979175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04135751724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06204700469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09546852111816</t>
+    <t xml:space="preserve">4.78327131271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06258153915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18353509902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24958324432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24878787994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20581579208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87106657028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10979223251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04135704040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06204652786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09546804428101</t>
   </si>
   <si>
     <t xml:space="preserve">6.34055995941162</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43445920944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52040100097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42729663848877</t>
+    <t xml:space="preserve">6.43446016311646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52040147781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42729711532593</t>
   </si>
   <si>
     <t xml:space="preserve">6.46549367904663</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62862253189087</t>
+    <t xml:space="preserve">6.62862300872803</t>
   </si>
   <si>
     <t xml:space="preserve">6.85939121246338</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90077066421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81005477905273</t>
+    <t xml:space="preserve">6.9007716178894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81005430221558</t>
   </si>
   <si>
     <t xml:space="preserve">6.82915210723877</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60713768005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6962628364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7631049156189</t>
+    <t xml:space="preserve">6.60713815689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69626188278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76310539245605</t>
   </si>
   <si>
     <t xml:space="preserve">6.72570514678955</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9580659866333</t>
+    <t xml:space="preserve">6.95806455612183</t>
   </si>
   <si>
     <t xml:space="preserve">6.97636699676514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99466943740845</t>
+    <t xml:space="preserve">6.99466896057129</t>
   </si>
   <si>
     <t xml:space="preserve">7.03684425354004</t>
@@ -3290,106 +3290,106 @@
     <t xml:space="preserve">7.11084938049316</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00899267196655</t>
+    <t xml:space="preserve">7.00899314880371</t>
   </si>
   <si>
     <t xml:space="preserve">6.90554523468018</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96443033218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96761322021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93180465698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86018753051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56018877029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65249490737915</t>
+    <t xml:space="preserve">6.96443128585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96761274337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9318060874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86018705368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56018781661987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65249538421631</t>
   </si>
   <si>
     <t xml:space="preserve">6.83074426651001</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84029388427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81323671340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80209732055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72252178192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97159194946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19997501373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21588945388794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18564939498901</t>
+    <t xml:space="preserve">6.84029293060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81323862075806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8020977973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72252082824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97159147262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19997406005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21588802337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18565034866333</t>
   </si>
   <si>
     <t xml:space="preserve">7.14427137374878</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20474815368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20952224731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16575574874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02729606628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0471887588501</t>
+    <t xml:space="preserve">7.20474767684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20952320098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16575527191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02729558944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04718923568726</t>
   </si>
   <si>
     <t xml:space="preserve">7.0241117477417</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08299827575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89758825302124</t>
+    <t xml:space="preserve">7.08299779891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89758729934692</t>
   </si>
   <si>
     <t xml:space="preserve">6.79732275009155</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64692497253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78618192672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80130195617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64612865447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52517557144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61350393295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75514793395996</t>
+    <t xml:space="preserve">6.64692401885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78618240356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80130052566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64613008499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52517414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61350345611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75514841079712</t>
   </si>
   <si>
     <t xml:space="preserve">6.81960344314575</t>
@@ -3404,61 +3404,61 @@
     <t xml:space="preserve">6.98273277282715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03763961791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98432540893555</t>
+    <t xml:space="preserve">7.03764009475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98432588577271</t>
   </si>
   <si>
     <t xml:space="preserve">7.06549119949341</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25965452194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22464275360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29148483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23896646499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31933498382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44506502151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49917793273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62092733383179</t>
+    <t xml:space="preserve">7.25965547561646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22464179992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29148626327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23896598815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31933641433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44506692886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49917697906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62092638015747</t>
   </si>
   <si>
     <t xml:space="preserve">7.70288991928101</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54532861709595</t>
+    <t xml:space="preserve">7.54532957077026</t>
   </si>
   <si>
     <t xml:space="preserve">7.60819482803345</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55328798294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6869740486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85885763168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00686740875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10076427459717</t>
+    <t xml:space="preserve">7.55328750610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68697500228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85885858535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00686645507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10076522827148</t>
   </si>
   <si>
     <t xml:space="preserve">8.06893539428711</t>
@@ -3467,43 +3467,43 @@
     <t xml:space="preserve">8.13259696960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19625663757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2901554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22331142425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14851093292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22649574279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09599018096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07370853424072</t>
+    <t xml:space="preserve">8.19625473022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29015636444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22331047058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14850997924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22649478912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09599208831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07371234893799</t>
   </si>
   <si>
     <t xml:space="preserve">7.94161415100098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15328598022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04665470123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14214611053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23445320129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28538036346436</t>
+    <t xml:space="preserve">8.15328502655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04665565490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14214515686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23445129394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28538131713867</t>
   </si>
   <si>
     <t xml:space="preserve">8.35063171386719</t>
@@ -3515,16 +3515,16 @@
     <t xml:space="preserve">8.33471870422363</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32039546966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16442680358887</t>
+    <t xml:space="preserve">8.32039451599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16442775726318</t>
   </si>
   <si>
     <t xml:space="preserve">8.11668109893799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08644199371338</t>
+    <t xml:space="preserve">8.08644104003906</t>
   </si>
   <si>
     <t xml:space="preserve">8.13737010955811</t>
@@ -3533,40 +3533,40 @@
     <t xml:space="preserve">8.34585857391357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24718570709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23604393005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21535396575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01641750335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07689476013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09121704101562</t>
+    <t xml:space="preserve">8.24718475341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23604488372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21535587310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0164155960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0768928527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09121608734131</t>
   </si>
   <si>
     <t xml:space="preserve">8.03869819641113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07530117034912</t>
+    <t xml:space="preserve">8.07530307769775</t>
   </si>
   <si>
     <t xml:space="preserve">8.04506397247314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11986541748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11827278137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90182971954346</t>
+    <t xml:space="preserve">8.11986446380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11827182769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90182828903198</t>
   </si>
   <si>
     <t xml:space="preserve">8.03710556030273</t>
@@ -3587,16 +3587,16 @@
     <t xml:space="preserve">8.32198524475098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19944000244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29970455169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32675933837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30288696289062</t>
+    <t xml:space="preserve">8.19943904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29970550537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32676029205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30288600921631</t>
   </si>
   <si>
     <t xml:space="preserve">8.11349773406982</t>
@@ -3605,16 +3605,16 @@
     <t xml:space="preserve">8.1835241317749</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23729991912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13545322418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17211723327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22915172576904</t>
+    <t xml:space="preserve">8.2372989654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13545227050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17211627960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22915267944336</t>
   </si>
   <si>
     <t xml:space="preserve">8.22426223754883</t>
@@ -3623,10 +3623,10 @@
     <t xml:space="preserve">8.1933012008667</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38721656799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44913864135742</t>
+    <t xml:space="preserve">8.38721561431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44913768768311</t>
   </si>
   <si>
     <t xml:space="preserve">8.5061731338501</t>
@@ -3635,34 +3635,34 @@
     <t xml:space="preserve">8.45728778839111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51757907867432</t>
+    <t xml:space="preserve">8.51758003234863</t>
   </si>
   <si>
     <t xml:space="preserve">8.55180072784424</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50943279266357</t>
+    <t xml:space="preserve">8.50942993164062</t>
   </si>
   <si>
     <t xml:space="preserve">8.5664644241333</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62187004089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74082565307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74571418762207</t>
+    <t xml:space="preserve">8.62186908721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74082469940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74571514129639</t>
   </si>
   <si>
     <t xml:space="preserve">8.75223159790039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66097831726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40351295471191</t>
+    <t xml:space="preserve">8.66097927093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4035120010376</t>
   </si>
   <si>
     <t xml:space="preserve">8.48824787139893</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">8.48498821258545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49150657653809</t>
+    <t xml:space="preserve">8.4915075302124</t>
   </si>
   <si>
     <t xml:space="preserve">8.58764934539795</t>
@@ -3680,52 +3680,52 @@
     <t xml:space="preserve">8.60068511962891</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42632579803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42306709289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3676643371582</t>
+    <t xml:space="preserve">8.42632484436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42306613922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36766242980957</t>
   </si>
   <si>
     <t xml:space="preserve">8.52246761322021</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47195243835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51921081542969</t>
+    <t xml:space="preserve">8.47195148468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51920890808105</t>
   </si>
   <si>
     <t xml:space="preserve">8.28618431091309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11752700805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21285629272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15093421936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16722965240479</t>
+    <t xml:space="preserve">8.11752986907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21285533905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15093517303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16722869873047</t>
   </si>
   <si>
     <t xml:space="preserve">8.07434558868408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0107946395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70281219482422</t>
+    <t xml:space="preserve">8.01079273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70281171798706</t>
   </si>
   <si>
     <t xml:space="preserve">7.74273538589478</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94398212432861</t>
+    <t xml:space="preserve">7.94398307800293</t>
   </si>
   <si>
     <t xml:space="preserve">7.85761690139771</t>
@@ -3734,31 +3734,31 @@
     <t xml:space="preserve">7.87798595428467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03849792480469</t>
+    <t xml:space="preserve">8.03849506378174</t>
   </si>
   <si>
     <t xml:space="preserve">7.99123859405518</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08004760742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15908050537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1248607635498</t>
+    <t xml:space="preserve">8.08004951477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15908145904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12486171722412</t>
   </si>
   <si>
     <t xml:space="preserve">8.25848293304443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24544811248779</t>
+    <t xml:space="preserve">8.24544715881348</t>
   </si>
   <si>
     <t xml:space="preserve">8.31062793731689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39373397827148</t>
+    <t xml:space="preserve">8.3937349319458</t>
   </si>
   <si>
     <t xml:space="preserve">8.37906837463379</t>
@@ -3767,37 +3767,37 @@
     <t xml:space="preserve">8.43284320831299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48661708831787</t>
+    <t xml:space="preserve">8.4866189956665</t>
   </si>
   <si>
     <t xml:space="preserve">8.53713321685791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56972408294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45076847076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.454026222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44587993621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20959663391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19819068908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33832931518555</t>
+    <t xml:space="preserve">8.56972503662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45076751708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45402717590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44588088989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20959758758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1981897354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33833122253418</t>
   </si>
   <si>
     <t xml:space="preserve">8.40676879882812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41654777526855</t>
+    <t xml:space="preserve">8.41654968261719</t>
   </si>
   <si>
     <t xml:space="preserve">8.39699363708496</t>
@@ -3809,91 +3809,91 @@
     <t xml:space="preserve">8.49965476989746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6626091003418</t>
+    <t xml:space="preserve">8.66260814666748</t>
   </si>
   <si>
     <t xml:space="preserve">8.57950210571289</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6251277923584</t>
+    <t xml:space="preserve">8.62513065338135</t>
   </si>
   <si>
     <t xml:space="preserve">8.62838649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59090805053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80437850952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8842248916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95429420471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98199653625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91518497467041</t>
+    <t xml:space="preserve">8.59090709686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80437755584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88422393798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95429229736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9819974899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91518688201904</t>
   </si>
   <si>
     <t xml:space="preserve">8.83207225799561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99490642547607</t>
+    <t xml:space="preserve">8.99490833282471</t>
   </si>
   <si>
     <t xml:space="preserve">9.23237323760986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24594497680664</t>
+    <t xml:space="preserve">9.24594306945801</t>
   </si>
   <si>
     <t xml:space="preserve">9.27138614654541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48680305480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55295467376709</t>
+    <t xml:space="preserve">9.48680210113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55295372009277</t>
   </si>
   <si>
     <t xml:space="preserve">9.65811824798584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79211711883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73783874511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87353420257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0482425689697</t>
+    <t xml:space="preserve">9.79211616516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7378396987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0482416152954</t>
   </si>
   <si>
     <t xml:space="preserve">9.89388942718506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82773780822754</t>
+    <t xml:space="preserve">9.82773590087891</t>
   </si>
   <si>
     <t xml:space="preserve">10.0567226409912</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1822423934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1551036834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0261917114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1601896286011</t>
+    <t xml:space="preserve">10.182240486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1551027297974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0261907577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1601905822754</t>
   </si>
   <si>
     <t xml:space="preserve">10.3535566329956</t>
@@ -3902,16 +3902,16 @@
     <t xml:space="preserve">10.3773031234741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3230247497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4468479156494</t>
+    <t xml:space="preserve">10.3230257034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4468460083008</t>
   </si>
   <si>
     <t xml:space="preserve">10.2907972335815</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2433042526245</t>
+    <t xml:space="preserve">10.2433052062988</t>
   </si>
   <si>
     <t xml:space="preserve">10.4129238128662</t>
@@ -3920,67 +3920,67 @@
     <t xml:space="preserve">10.4807710647583</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4044427871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3162393569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5197849273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.809832572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6351251602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4994297027588</t>
+    <t xml:space="preserve">10.4044418334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3162403106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5197830200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8098335266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6351232528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4994287490845</t>
   </si>
   <si>
     <t xml:space="preserve">10.6520872116089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7470731735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7555541992188</t>
+    <t xml:space="preserve">10.7470722198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7555551528931</t>
   </si>
   <si>
     <t xml:space="preserve">10.7029733657837</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7402896881104</t>
+    <t xml:space="preserve">10.7402877807617</t>
   </si>
   <si>
     <t xml:space="preserve">10.725022315979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6113786697388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.640212059021</t>
+    <t xml:space="preserve">10.6113777160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6402139663696</t>
   </si>
   <si>
     <t xml:space="preserve">10.6843137741089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6792240142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5418348312378</t>
+    <t xml:space="preserve">10.6792259216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5418338775635</t>
   </si>
   <si>
     <t xml:space="preserve">10.3196325302124</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4553279876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.490948677063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4281873703003</t>
+    <t xml:space="preserve">10.4553289413452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4909496307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4281883239746</t>
   </si>
   <si>
     <t xml:space="preserve">9.77854633331299</t>
@@ -3992,34 +3992,34 @@
     <t xml:space="preserve">10.0957355499268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1262664794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1856317520142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4247951507568</t>
+    <t xml:space="preserve">10.1262655258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1856346130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4247961044312</t>
   </si>
   <si>
     <t xml:space="preserve">10.6588716506958</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5079107284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4027442932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3518600463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1941156387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3026714324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1771545410156</t>
+    <t xml:space="preserve">10.5079097747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4027462005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.351861000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1941146850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3026704788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1771516799927</t>
   </si>
   <si>
     <t xml:space="preserve">10.3450756072998</t>
@@ -4031,79 +4031,79 @@
     <t xml:space="preserve">10.0363693237305</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3298101425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3247222900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3806953430176</t>
+    <t xml:space="preserve">10.3298120498657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3247213363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3806943893433</t>
   </si>
   <si>
     <t xml:space="preserve">10.42649269104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4146203994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3637351989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5231781005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6944904327393</t>
+    <t xml:space="preserve">10.4146194458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.363733291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5231742858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6944923400879</t>
   </si>
   <si>
     <t xml:space="preserve">10.8183126449585</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7284135818481</t>
+    <t xml:space="preserve">10.7284145355225</t>
   </si>
   <si>
     <t xml:space="preserve">10.8471488952637</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7572507858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8641109466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0693483352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0456027984619</t>
+    <t xml:space="preserve">10.7572498321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8641128540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0693492889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0456037521362</t>
   </si>
   <si>
     <t xml:space="preserve">11.1609439849854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2050447463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2542362213135</t>
+    <t xml:space="preserve">11.2050457000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2542343139648</t>
   </si>
   <si>
     <t xml:space="preserve">11.3814496994019</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2711954116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1151475906372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7589464187622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1049709320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4357261657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.713903427124</t>
+    <t xml:space="preserve">11.2711963653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1151456832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7589454650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1049680709839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4357280731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7139024734497</t>
   </si>
   <si>
     <t xml:space="preserve">11.512056350708</t>
@@ -4112,124 +4112,124 @@
     <t xml:space="preserve">11.2864627838135</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4119815826416</t>
+    <t xml:space="preserve">11.4119806289673</t>
   </si>
   <si>
     <t xml:space="preserve">11.3271713256836</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2695016860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323348999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.182993888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0557823181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2389688491821</t>
+    <t xml:space="preserve">11.2694997787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4323329925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1829948425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0557804107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2389698028564</t>
   </si>
   <si>
     <t xml:space="preserve">11.2779817581177</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4730424880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3000326156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.17112159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3085117340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4238538742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2915506362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4425106048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3865365982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3322601318359</t>
+    <t xml:space="preserve">11.4730443954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.300030708313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1711206436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3085136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4238548278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2915515899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.442512512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3865375518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3322591781616</t>
   </si>
   <si>
     <t xml:space="preserve">11.6867628097534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7308654785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.087064743042</t>
+    <t xml:space="preserve">11.7308645248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0870637893677</t>
   </si>
   <si>
     <t xml:space="preserve">12.3228349685669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7596998214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9014272689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3695774078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5934724807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5358037948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1134519577026</t>
+    <t xml:space="preserve">11.7596988677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9014282226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3695764541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5934734344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5358028411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.113450050354</t>
   </si>
   <si>
     <t xml:space="preserve">11.0065908432007</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9607925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8301868438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1185398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.79456615448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2135276794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4187650680542</t>
+    <t xml:space="preserve">10.9607934951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8301858901978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1185388565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7945652008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.213526725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4187660217285</t>
   </si>
   <si>
     <t xml:space="preserve">11.2559309005737</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1066646575928</t>
+    <t xml:space="preserve">11.1066656112671</t>
   </si>
   <si>
     <t xml:space="preserve">11.3492221832275</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2745885848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3763589859009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4001064300537</t>
+    <t xml:space="preserve">11.2745876312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3763608932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4001092910767</t>
   </si>
   <si>
     <t xml:space="preserve">11.4560832977295</t>
@@ -4238,31 +4238,31 @@
     <t xml:space="preserve">11.3543090820312</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2474508285522</t>
+    <t xml:space="preserve">11.2474498748779</t>
   </si>
   <si>
     <t xml:space="preserve">11.7189912796021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7003326416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0209121704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0429630279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0005578994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0667104721069</t>
+    <t xml:space="preserve">11.7003316879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0209131240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0429649353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0005588531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0667114257812</t>
   </si>
   <si>
     <t xml:space="preserve">11.8733444213867</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5171451568604</t>
+    <t xml:space="preserve">11.5171432495117</t>
   </si>
   <si>
     <t xml:space="preserve">10.9658823013306</t>
@@ -4271,16 +4271,16 @@
     <t xml:space="preserve">10.9896278381348</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1592473983765</t>
+    <t xml:space="preserve">11.1592483520508</t>
   </si>
   <si>
     <t xml:space="preserve">11.3560066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1948680877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5341062545776</t>
+    <t xml:space="preserve">11.1948671340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.534107208252</t>
   </si>
   <si>
     <t xml:space="preserve">11.4577779769897</t>
@@ -4289,43 +4289,43 @@
     <t xml:space="preserve">11.5374994277954</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0913991928101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2440586090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5510663986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5680303573608</t>
+    <t xml:space="preserve">11.0914011001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2440576553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5510683059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5680313110352</t>
   </si>
   <si>
     <t xml:space="preserve">11.7257766723633</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8156747817993</t>
+    <t xml:space="preserve">11.815673828125</t>
   </si>
   <si>
     <t xml:space="preserve">11.6918535232544</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7800550460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0023517608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9113330841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3576803207397</t>
+    <t xml:space="preserve">11.7800540924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0023527145386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9113321304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3576793670654</t>
   </si>
   <si>
     <t xml:space="preserve">12.4679536819458</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4206953048706</t>
+    <t xml:space="preserve">12.420693397522</t>
   </si>
   <si>
     <t xml:space="preserve">12.427695274353</t>
@@ -4334,31 +4334,31 @@
     <t xml:space="preserve">12.4259443283081</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3384237289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3156690597534</t>
+    <t xml:space="preserve">12.3384256362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3156700134277</t>
   </si>
   <si>
     <t xml:space="preserve">12.4784555435181</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6307382583618</t>
+    <t xml:space="preserve">12.6307392120361</t>
   </si>
   <si>
     <t xml:space="preserve">12.6272382736206</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5957307815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.275411605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5875129699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.358211517334</t>
+    <t xml:space="preserve">12.5957317352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2754125595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5875120162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3582134246826</t>
   </si>
   <si>
     <t xml:space="preserve">11.5262498855591</t>
@@ -4367,22 +4367,22 @@
     <t xml:space="preserve">11.5997648239136</t>
   </si>
   <si>
-    <t xml:space="preserve">11.032642364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5110292434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5407838821411</t>
+    <t xml:space="preserve">11.0326414108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5110301971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5407848358154</t>
   </si>
   <si>
     <t xml:space="preserve">10.5722923278809</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2047128677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0034189224243</t>
+    <t xml:space="preserve">10.2047119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0034198760986</t>
   </si>
   <si>
     <t xml:space="preserve">10.2099647521973</t>
@@ -4397,10 +4397,10 @@
     <t xml:space="preserve">9.91415023803711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82662963867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0629329681396</t>
+    <t xml:space="preserve">9.82663059234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0629320144653</t>
   </si>
   <si>
     <t xml:space="preserve">9.480055809021</t>
@@ -4409,40 +4409,40 @@
     <t xml:space="preserve">9.41353988647461</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66734600067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82487964630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80212593078613</t>
+    <t xml:space="preserve">9.66734504699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82488059997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80212497711182</t>
   </si>
   <si>
     <t xml:space="preserve">9.74786376953125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72861003875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31552124023438</t>
+    <t xml:space="preserve">9.72860908508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31552028656006</t>
   </si>
   <si>
     <t xml:space="preserve">9.48530673980713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6393404006958</t>
+    <t xml:space="preserve">9.63933944702148</t>
   </si>
   <si>
     <t xml:space="preserve">9.89314651489258</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77937030792236</t>
+    <t xml:space="preserve">9.77937126159668</t>
   </si>
   <si>
     <t xml:space="preserve">9.6270866394043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60083198547363</t>
+    <t xml:space="preserve">9.60083103179932</t>
   </si>
   <si>
     <t xml:space="preserve">9.68134880065918</t>
@@ -4451,19 +4451,19 @@
     <t xml:space="preserve">9.64459037780762</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70760440826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2537240982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2414703369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0156707763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97716426849365</t>
+    <t xml:space="preserve">9.70760345458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2537231445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2414712905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0156726837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97716331481934</t>
   </si>
   <si>
     <t xml:space="preserve">9.96841144561768</t>
@@ -4475,28 +4475,28 @@
     <t xml:space="preserve">10.0174217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0576791763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99816703796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1434488296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1784582138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1329469680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2327194213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4445133209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3009834289551</t>
+    <t xml:space="preserve">10.0576801300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99816799163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1434497833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1784563064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1329460144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.232720375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4445161819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3009843826294</t>
   </si>
   <si>
     <t xml:space="preserve">10.4672698974609</t>
@@ -4505,16 +4505,16 @@
     <t xml:space="preserve">10.859354019165</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7245769500732</t>
+    <t xml:space="preserve">10.7245740890503</t>
   </si>
   <si>
     <t xml:space="preserve">10.945122718811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7788362503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9398717880249</t>
+    <t xml:space="preserve">10.7788372039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9398727416992</t>
   </si>
   <si>
     <t xml:space="preserve">10.7088212966919</t>
@@ -4526,7 +4526,7 @@
     <t xml:space="preserve">10.2624750137329</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5775442123413</t>
+    <t xml:space="preserve">10.577543258667</t>
   </si>
   <si>
     <t xml:space="preserve">10.7560815811157</t>
@@ -4535,34 +4535,34 @@
     <t xml:space="preserve">10.4602680206299</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1679553985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1364469528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2239665985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4532680511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3587455749512</t>
+    <t xml:space="preserve">10.1679544448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1364479064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2239656448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4532661437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3587465286255</t>
   </si>
   <si>
     <t xml:space="preserve">10.3359909057617</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0996894836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0156698226929</t>
+    <t xml:space="preserve">10.0996904373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0156717300415</t>
   </si>
   <si>
     <t xml:space="preserve">9.94071483612061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1191825866699</t>
+    <t xml:space="preserve">10.1191835403442</t>
   </si>
   <si>
     <t xml:space="preserve">9.6391019821167</t>
@@ -4574,34 +4574,34 @@
     <t xml:space="preserve">9.59448528289795</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62482452392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73547458648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0317335128784</t>
+    <t xml:space="preserve">9.62482643127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73547554016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0317325592041</t>
   </si>
   <si>
     <t xml:space="preserve">10.2976531982422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4618453979492</t>
+    <t xml:space="preserve">10.4618434906006</t>
   </si>
   <si>
     <t xml:space="preserve">10.4671974182129</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5653553009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.513599395752</t>
+    <t xml:space="preserve">10.5653562545776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5135984420776</t>
   </si>
   <si>
     <t xml:space="preserve">10.3244218826294</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1691541671753</t>
+    <t xml:space="preserve">10.1691560745239</t>
   </si>
   <si>
     <t xml:space="preserve">10.4297180175781</t>
@@ -4610,37 +4610,37 @@
     <t xml:space="preserve">10.5867729187012</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5885562896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7920112609863</t>
+    <t xml:space="preserve">10.5885572433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.792010307312</t>
   </si>
   <si>
     <t xml:space="preserve">10.7598857879639</t>
   </si>
   <si>
-    <t xml:space="preserve">11.024022102356</t>
+    <t xml:space="preserve">11.0240211486816</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954652786255</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1400270462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5273027420044</t>
+    <t xml:space="preserve">11.140025138855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5273036956787</t>
   </si>
   <si>
     <t xml:space="preserve">11.7218332290649</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8271293640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0145225524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0734167098999</t>
+    <t xml:space="preserve">11.827130317688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0145235061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0734186172485</t>
   </si>
   <si>
     <t xml:space="preserve">12.2429628372192</t>
@@ -4649,25 +4649,25 @@
     <t xml:space="preserve">12.5017433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7319679260254</t>
+    <t xml:space="preserve">12.7319660186768</t>
   </si>
   <si>
     <t xml:space="preserve">12.6837816238403</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5124502182007</t>
+    <t xml:space="preserve">12.512451171875</t>
   </si>
   <si>
     <t xml:space="preserve">12.5552835464478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7408905029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.915789604187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9175748825073</t>
+    <t xml:space="preserve">12.7408885955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9157915115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.917573928833</t>
   </si>
   <si>
     <t xml:space="preserve">12.8122787475586</t>
@@ -4676,7 +4676,7 @@
     <t xml:space="preserve">12.569561958313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6605806350708</t>
+    <t xml:space="preserve">12.6605787277222</t>
   </si>
   <si>
     <t xml:space="preserve">12.1856279373169</t>
@@ -4688,91 +4688,91 @@
     <t xml:space="preserve">12.7983531951904</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8563623428345</t>
+    <t xml:space="preserve">12.8563632965088</t>
   </si>
   <si>
     <t xml:space="preserve">12.9596920013428</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7059020996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8672380447388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9832592010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7711610794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5916929244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5391235351562</t>
+    <t xml:space="preserve">12.7059001922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8672399520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9832601547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7711601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5916938781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5391216278076</t>
   </si>
   <si>
     <t xml:space="preserve">12.3650941848755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1783771514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2581386566162</t>
+    <t xml:space="preserve">12.1783761978149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2581396102905</t>
   </si>
   <si>
     <t xml:space="preserve">12.2599515914917</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3342761993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5209951400757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3360891342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8285064697266</t>
+    <t xml:space="preserve">12.3342771530151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5209941864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.336088180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8285055160522</t>
   </si>
   <si>
     <t xml:space="preserve">11.6925458908081</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7741231918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.783185005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2019424438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1239938735962</t>
+    <t xml:space="preserve">11.7741212844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7831869125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2019414901733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1239929199219</t>
   </si>
   <si>
     <t xml:space="preserve">12.2146320343018</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2780799865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2436370849609</t>
+    <t xml:space="preserve">12.2780790328979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2436380386353</t>
   </si>
   <si>
     <t xml:space="preserve">12.3197736740112</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0424165725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4249172210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4956159591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3052730560303</t>
+    <t xml:space="preserve">12.0424175262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.424916267395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4956169128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.305272102356</t>
   </si>
   <si>
     <t xml:space="preserve">12.5427494049072</t>
@@ -4793,7 +4793,7 @@
     <t xml:space="preserve">13.0720853805542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9868850708008</t>
+    <t xml:space="preserve">12.9868841171265</t>
   </si>
   <si>
     <t xml:space="preserve">13.0267648696899</t>
@@ -4802,58 +4802,58 @@
     <t xml:space="preserve">13.1065282821655</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9198093414307</t>
+    <t xml:space="preserve">12.919810295105</t>
   </si>
   <si>
     <t xml:space="preserve">13.1029033660889</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0521459579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8527374267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7584705352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8690519332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9542531967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8436737060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8128538131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5500001907349</t>
+    <t xml:space="preserve">13.0521440505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8527383804321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.758472442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8690528869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9542541503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8436727523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8128547668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5499992370605</t>
   </si>
   <si>
     <t xml:space="preserve">12.4629859924316</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5481872558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4140396118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6043825149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8346099853516</t>
+    <t xml:space="preserve">12.5481863021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4140405654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6043844223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8346080780029</t>
   </si>
   <si>
     <t xml:space="preserve">13.0013866424561</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3693838119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3857002258301</t>
+    <t xml:space="preserve">13.3693828582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3856992721558</t>
   </si>
   <si>
     <t xml:space="preserve">13.4382705688477</t>
@@ -4874,22 +4874,22 @@
     <t xml:space="preserve">12.9324998855591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.792914390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1076765060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9572153091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1457443237305</t>
+    <t xml:space="preserve">12.7929153442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1076774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9572134017944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1457452774048</t>
   </si>
   <si>
     <t xml:space="preserve">12.1149282455444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9372730255127</t>
+    <t xml:space="preserve">11.9372749328613</t>
   </si>
   <si>
     <t xml:space="preserve">12.0949869155884</t>
@@ -4898,25 +4898,25 @@
     <t xml:space="preserve">12.1765632629395</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2690162658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1656856536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1620607376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1384954452515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1729373931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7142992019653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8194408416748</t>
+    <t xml:space="preserve">12.2690143585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1656866073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1620616912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1384944915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1729383468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7143001556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8194417953491</t>
   </si>
   <si>
     <t xml:space="preserve">11.157772064209</t>
@@ -4928,16 +4928,16 @@
     <t xml:space="preserve">11.2673215866089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5054798126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5184030532837</t>
+    <t xml:space="preserve">11.5054807662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.518404006958</t>
   </si>
   <si>
     <t xml:space="preserve">11.4962501525879</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2359352111816</t>
+    <t xml:space="preserve">11.235936164856</t>
   </si>
   <si>
     <t xml:space="preserve">11.3614768981934</t>
@@ -4949,7 +4949,7 @@
     <t xml:space="preserve">11.699330329895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8950262069702</t>
+    <t xml:space="preserve">11.8950271606445</t>
   </si>
   <si>
     <t xml:space="preserve">11.9134893417358</t>
@@ -4958,25 +4958,25 @@
     <t xml:space="preserve">12.3990383148193</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2864198684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4008836746216</t>
+    <t xml:space="preserve">12.2864217758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4008846282959</t>
   </si>
   <si>
     <t xml:space="preserve">12.4987325668335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7239694595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6150426864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.797815322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7405853271484</t>
+    <t xml:space="preserve">12.7239685058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6150436401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7978162765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7405834197998</t>
   </si>
   <si>
     <t xml:space="preserve">12.8125858306885</t>
@@ -4985,28 +4985,28 @@
     <t xml:space="preserve">12.821816444397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6962738037109</t>
+    <t xml:space="preserve">12.6962757110596</t>
   </si>
   <si>
     <t xml:space="preserve">12.5393486022949</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7073516845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7553539276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.567042350769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6888914108276</t>
+    <t xml:space="preserve">12.7073526382446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.755352973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5670413970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6888904571533</t>
   </si>
   <si>
     <t xml:space="preserve">12.4451932907104</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1571865081787</t>
+    <t xml:space="preserve">12.157187461853</t>
   </si>
   <si>
     <t xml:space="preserve">12.0353384017944</t>
@@ -5018,28 +5018,28 @@
     <t xml:space="preserve">12.5264253616333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5947360992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4802713394165</t>
+    <t xml:space="preserve">12.5947341918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4802703857422</t>
   </si>
   <si>
     <t xml:space="preserve">12.1793403625488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.356575012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3196506500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2125720977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3658056259155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3141136169434</t>
+    <t xml:space="preserve">12.3565759658813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3196516036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2125730514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3658065795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.314112663269</t>
   </si>
   <si>
     <t xml:space="preserve">12.4156541824341</t>
@@ -5048,19 +5048,19 @@
     <t xml:space="preserve">12.4531917572021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5414056777954</t>
+    <t xml:space="preserve">12.5414066314697</t>
   </si>
   <si>
     <t xml:space="preserve">12.5451593399048</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2429800033569</t>
+    <t xml:space="preserve">12.2429790496826</t>
   </si>
   <si>
     <t xml:space="preserve">12.3799934387207</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4025144577026</t>
+    <t xml:space="preserve">12.402515411377</t>
   </si>
   <si>
     <t xml:space="preserve">12.1115970611572</t>
@@ -5072,55 +5072,55 @@
     <t xml:space="preserve">12.0008602142334</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3330707550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2955331802368</t>
+    <t xml:space="preserve">12.3330717086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2955322265625</t>
   </si>
   <si>
     <t xml:space="preserve">12.1847953796387</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2748870849609</t>
+    <t xml:space="preserve">12.2748861312866</t>
   </si>
   <si>
     <t xml:space="preserve">12.3086709976196</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0402746200562</t>
+    <t xml:space="preserve">12.0402755737305</t>
   </si>
   <si>
     <t xml:space="preserve">12.1622734069824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1866731643677</t>
+    <t xml:space="preserve">12.186674118042</t>
   </si>
   <si>
     <t xml:space="preserve">12.2467336654663</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1791639328003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1904277801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0271368026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2617502212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0928268432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0083675384521</t>
+    <t xml:space="preserve">12.1791648864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1904268264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.027135848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2617492675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.092827796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0083665847778</t>
   </si>
   <si>
     <t xml:space="preserve">12.1416273117065</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9614458084106</t>
+    <t xml:space="preserve">11.961446762085</t>
   </si>
   <si>
     <t xml:space="preserve">12.0139980316162</t>
@@ -5132,10 +5132,10 @@
     <t xml:space="preserve">12.3706083297729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5864515304565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6352500915527</t>
+    <t xml:space="preserve">12.5864505767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6352510452271</t>
   </si>
   <si>
     <t xml:space="preserve">12.5470361709595</t>
@@ -5144,25 +5144,25 @@
     <t xml:space="preserve">12.2317190170288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2486095428467</t>
+    <t xml:space="preserve">12.248610496521</t>
   </si>
   <si>
     <t xml:space="preserve">12.3124256134033</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4194068908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7009429931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7816476821899</t>
+    <t xml:space="preserve">12.4194087982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7009420394897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7816486358643</t>
   </si>
   <si>
     <t xml:space="preserve">12.5995893478394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4757146835327</t>
+    <t xml:space="preserve">12.4757137298584</t>
   </si>
   <si>
     <t xml:space="preserve">12.603343963623</t>
@@ -5174,28 +5174,28 @@
     <t xml:space="preserve">12.8004179000854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9580755233765</t>
+    <t xml:space="preserve">12.9580764770508</t>
   </si>
   <si>
     <t xml:space="preserve">12.8661079406738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7534952163696</t>
+    <t xml:space="preserve">12.7534942626953</t>
   </si>
   <si>
     <t xml:space="preserve">12.884877204895</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8173084259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0293979644775</t>
+    <t xml:space="preserve">12.8173093795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0293989181519</t>
   </si>
   <si>
     <t xml:space="preserve">12.9280462265015</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8248176574707</t>
+    <t xml:space="preserve">12.8248167037964</t>
   </si>
   <si>
     <t xml:space="preserve">12.879246711731</t>
@@ -5219,46 +5219,46 @@
     <t xml:space="preserve">13.1513967514038</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0725660324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1138582229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.170166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2227191925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2452402114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2077045440674</t>
+    <t xml:space="preserve">13.072566986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1138591766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1701650619507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2227182388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2452421188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2077035903931</t>
   </si>
   <si>
     <t xml:space="preserve">13.2583799362183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2827796936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.417914390564</t>
+    <t xml:space="preserve">13.2827787399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4179153442383</t>
   </si>
   <si>
     <t xml:space="preserve">13.4723453521729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.483606338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4047775268555</t>
+    <t xml:space="preserve">13.4836072921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4047765731812</t>
   </si>
   <si>
     <t xml:space="preserve">13.6431427001953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7032041549683</t>
+    <t xml:space="preserve">13.7032032012939</t>
   </si>
   <si>
     <t xml:space="preserve">13.9209232330322</t>
@@ -5267,31 +5267,31 @@
     <t xml:space="preserve">13.8815078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8327083587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8871393203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1255044937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1724271774292</t>
+    <t xml:space="preserve">13.832709312439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8871383666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1255035400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1724262237549</t>
   </si>
   <si>
     <t xml:space="preserve">14.1911954879761</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4239311218262</t>
+    <t xml:space="preserve">14.4239301681519</t>
   </si>
   <si>
     <t xml:space="preserve">14.3920240402222</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2757120132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5865097045898</t>
+    <t xml:space="preserve">14.2757129669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5865106582642</t>
   </si>
   <si>
     <t xml:space="preserve">14.5254945755005</t>
@@ -5321,22 +5321,22 @@
     <t xml:space="preserve">14.2051630020142</t>
   </si>
   <si>
-    <t xml:space="preserve">14.041184425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8219108581543</t>
+    <t xml:space="preserve">14.0411834716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.82190990448</t>
   </si>
   <si>
     <t xml:space="preserve">13.7666139602661</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9572887420654</t>
+    <t xml:space="preserve">13.9572877883911</t>
   </si>
   <si>
     <t xml:space="preserve">14.2738056182861</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4435043334961</t>
+    <t xml:space="preserve">14.4435052871704</t>
   </si>
   <si>
     <t xml:space="preserve">14.3824901580811</t>
@@ -5345,16 +5345,16 @@
     <t xml:space="preserve">14.5826959609985</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7752771377563</t>
+    <t xml:space="preserve">14.775276184082</t>
   </si>
   <si>
     <t xml:space="preserve">14.7581157684326</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8076906204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9106550216675</t>
+    <t xml:space="preserve">14.8076915740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9106559753418</t>
   </si>
   <si>
     <t xml:space="preserve">14.7314214706421</t>
@@ -5372,10 +5372,10 @@
     <t xml:space="preserve">14.7600231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">14.786717414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6475248336792</t>
+    <t xml:space="preserve">14.7867164611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6475257873535</t>
   </si>
   <si>
     <t xml:space="preserve">14.7085409164429</t>
@@ -5390,13 +5390,13 @@
     <t xml:space="preserve">14.6856603622437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3119401931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346139907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2394847869873</t>
+    <t xml:space="preserve">14.3119411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.134614944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.239483833313</t>
   </si>
   <si>
     <t xml:space="preserve">14.2985935211182</t>
@@ -5408,16 +5408,16 @@
     <t xml:space="preserve">14.5388422012329</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4816389083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.167028427124</t>
+    <t xml:space="preserve">14.4816398620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1670274734497</t>
   </si>
   <si>
     <t xml:space="preserve">14.5307540893555</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4591064453125</t>
+    <t xml:space="preserve">14.4591073989868</t>
   </si>
   <si>
     <t xml:space="preserve">14.2557849884033</t>
@@ -5426,25 +5426,25 @@
     <t xml:space="preserve">14.4610433578491</t>
   </si>
   <si>
-    <t xml:space="preserve">14.588846206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5520544052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.71471118927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6275730133057</t>
+    <t xml:space="preserve">14.5888452529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5520534515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7147121429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.62757396698</t>
   </si>
   <si>
     <t xml:space="preserve">14.6856660842896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7650585174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4842796325684</t>
+    <t xml:space="preserve">14.7650575637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4842805862427</t>
   </si>
   <si>
     <t xml:space="preserve">14.610146522522</t>
@@ -5462,7 +5462,7 @@
     <t xml:space="preserve">14.5075168609619</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3332414627075</t>
+    <t xml:space="preserve">14.3332405090332</t>
   </si>
   <si>
     <t xml:space="preserve">14.2809581756592</t>
@@ -5471,16 +5471,16 @@
     <t xml:space="preserve">14.3758411407471</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429231643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5152626037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5481815338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7205219268799</t>
+    <t xml:space="preserve">14.3429222106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5152616500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5481805801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7205209732056</t>
   </si>
   <si>
     <t xml:space="preserve">14.7166481018066</t>
@@ -5489,7 +5489,7 @@
     <t xml:space="preserve">14.8018493652344</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9451427459717</t>
+    <t xml:space="preserve">14.945143699646</t>
   </si>
   <si>
     <t xml:space="preserve">14.8696241378784</t>
@@ -5504,25 +5504,25 @@
     <t xml:space="preserve">14.9470796585083</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0264730453491</t>
+    <t xml:space="preserve">15.0264720916748</t>
   </si>
   <si>
     <t xml:space="preserve">15.0458364486694</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6004648208618</t>
+    <t xml:space="preserve">14.6004638671875</t>
   </si>
   <si>
     <t xml:space="preserve">14.4494247436523</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4106960296631</t>
+    <t xml:space="preserve">14.4106969833374</t>
   </si>
   <si>
     <t xml:space="preserve">14.3409862518311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5636730194092</t>
+    <t xml:space="preserve">14.5636720657349</t>
   </si>
   <si>
     <t xml:space="preserve">14.5191354751587</t>
@@ -5540,19 +5540,19 @@
     <t xml:space="preserve">13.9904975891113</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8839950561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9014234542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0292263031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1028099060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2867660522461</t>
+    <t xml:space="preserve">13.8839960098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9014225006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0292253494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1028089523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2867670059204</t>
   </si>
   <si>
     <t xml:space="preserve">14.4455518722534</t>
@@ -5567,13 +5567,13 @@
     <t xml:space="preserve">13.9169139862061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1376647949219</t>
+    <t xml:space="preserve">14.1376638412476</t>
   </si>
   <si>
     <t xml:space="preserve">13.9130411148071</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9091682434082</t>
+    <t xml:space="preserve">13.9091691970825</t>
   </si>
   <si>
     <t xml:space="preserve">13.8394584655762</t>
@@ -5585,13 +5585,13 @@
     <t xml:space="preserve">14.009861946106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0408449172974</t>
+    <t xml:space="preserve">14.040843963623</t>
   </si>
   <si>
     <t xml:space="preserve">14.1396007537842</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7039108276367</t>
+    <t xml:space="preserve">13.7039098739624</t>
   </si>
   <si>
     <t xml:space="preserve">13.7194013595581</t>
@@ -5600,7 +5600,7 @@
     <t xml:space="preserve">13.6826095581055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8472032546997</t>
+    <t xml:space="preserve">13.847204208374</t>
   </si>
   <si>
     <t xml:space="preserve">13.7774934768677</t>
@@ -5624,7 +5624,7 @@
     <t xml:space="preserve">13.8723773956299</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9304695129395</t>
+    <t xml:space="preserve">13.9304685592651</t>
   </si>
   <si>
     <t xml:space="preserve">14.0466537475586</t>
@@ -5633,25 +5633,25 @@
     <t xml:space="preserve">14.1628379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1667098999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2344846725464</t>
+    <t xml:space="preserve">14.1667108535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2344837188721</t>
   </si>
   <si>
     <t xml:space="preserve">14.0950632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2248020172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5017080307007</t>
+    <t xml:space="preserve">14.2248029708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5017070770264</t>
   </si>
   <si>
     <t xml:space="preserve">14.0602083206177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0447158813477</t>
+    <t xml:space="preserve">14.044716835022</t>
   </si>
   <si>
     <t xml:space="preserve">13.9954919815063</t>
@@ -5853,6 +5853,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.1239995956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2360000610352</t>
   </si>
 </sst>
 </file>
@@ -62276,7 +62279,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6494444444</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>9964478</v>
@@ -62288,7 +62291,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="E2158" t="n">
-        <v>14.0600004196167</v>
+        <v>13.8819999694824</v>
       </c>
       <c r="F2158" t="n">
         <v>14.1239995956421</v>
@@ -62297,6 +62300,32 @@
         <v>1946</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.649525463</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>10191772</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>14.4359998703003</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>14.1920003890991</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>14.2360000610352</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENI.MI.xlsx
+++ b/data/ENI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="1949">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,16 +44,16 @@
     <t xml:space="preserve">ENI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02119636535645</t>
+    <t xml:space="preserve">8.02119731903076</t>
   </si>
   <si>
     <t xml:space="preserve">7.7962474822998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73705005645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51802110671997</t>
+    <t xml:space="preserve">7.73704957962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5180196762085</t>
   </si>
   <si>
     <t xml:space="preserve">7.48842287063599</t>
@@ -62,94 +62,94 @@
     <t xml:space="preserve">7.5061821937561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59497785568237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70153188705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42922687530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.346351146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44698333740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19835758209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67785215377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58313941955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74297094345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.778489112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86136293411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40554809570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37594890594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54170083999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41738700866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15100002288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86685371398926</t>
+    <t xml:space="preserve">7.59497690200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70153093338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42922496795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34634923934937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44698476791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19835615158081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67785263061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58313703536987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74296951293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77848958969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86136484146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40554761886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37594842910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54169940948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41738605499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15100049972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8668532371521</t>
   </si>
   <si>
     <t xml:space="preserve">6.88461303710938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47023391723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90237092971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06812286376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01484632492065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23979425430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08588218688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05628442764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31083202362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97340869903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15691995620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5239405632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66601371765137</t>
+    <t xml:space="preserve">6.47023487091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90237283706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06812381744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01484727859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23979520797729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08588266372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05628490447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31083106994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9734091758728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15691804885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52394104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66601228713989</t>
   </si>
   <si>
     <t xml:space="preserve">7.90280294418335</t>
@@ -158,232 +158,232 @@
     <t xml:space="preserve">7.96199941635132</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06855201721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01527786254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04487419128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84360504150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93240213394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66009473800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88504076004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92647981643677</t>
+    <t xml:space="preserve">8.06855392456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01527309417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04487609863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84360408782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93240070343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66009426116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88504457473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9264817237854</t>
   </si>
   <si>
     <t xml:space="preserve">7.81400537490845</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91464138031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.056715965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12775039672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16919040679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9738392829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78440618515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00343704223633</t>
+    <t xml:space="preserve">7.91464042663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05671310424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1277494430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16918659210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97383975982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7844066619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00343608856201</t>
   </si>
   <si>
     <t xml:space="preserve">7.87320423126221</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57129955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55353879928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36410903930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44106435775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29307222366333</t>
+    <t xml:space="preserve">7.57129859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55354022979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36410999298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44106483459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29307174682617</t>
   </si>
   <si>
     <t xml:space="preserve">7.6068172454834</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63049650192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67193269729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97975730895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1218318939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99159717559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09223175048828</t>
+    <t xml:space="preserve">7.63049602508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67193365097046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9797568321228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12183094024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99159526824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0922327041626</t>
   </si>
   <si>
     <t xml:space="preserve">8.22246646881104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32902145385742</t>
+    <t xml:space="preserve">8.32902050018311</t>
   </si>
   <si>
     <t xml:space="preserve">8.37637805938721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33493804931641</t>
+    <t xml:space="preserve">8.33493995666504</t>
   </si>
   <si>
     <t xml:space="preserve">8.37045860290527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44741535186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52436923980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40597629547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25798320770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08631229400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92055940628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03303527832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10406970977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80808591842651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90188980102539</t>
+    <t xml:space="preserve">8.44741439819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52437210083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40597724914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25798416137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08631038665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92055988311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03303623199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10407066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80808544158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90189123153687</t>
   </si>
   <si>
     <t xml:space="preserve">8.14596557617188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42665004730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46936321258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4388542175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50597286224365</t>
+    <t xml:space="preserve">8.42664909362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46936225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43885326385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50597381591797</t>
   </si>
   <si>
     <t xml:space="preserve">8.37783432006836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26190090179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25579738616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18867874145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40224361419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59750175476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62191104888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57919597625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20698261260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05443572998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15816783905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0727424621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39003944396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64021587371826</t>
+    <t xml:space="preserve">8.26189994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25579833984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18867969512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40224266052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59750270843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62190914154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57919502258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2069845199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05443668365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15816879272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07274150848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39003753662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64021492004395</t>
   </si>
   <si>
     <t xml:space="preserve">8.75004768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61580657958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89649200439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07884502410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33512210845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72563934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85988140106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04293632507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79276084899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62801074981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67682647705078</t>
+    <t xml:space="preserve">8.61580562591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89649105072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0788459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33512115478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72564029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85987949371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04293537139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79275989532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62800884246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67682456970215</t>
   </si>
   <si>
     <t xml:space="preserve">8.84767723083496</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95140743255615</t>
+    <t xml:space="preserve">8.95140838623047</t>
   </si>
   <si>
     <t xml:space="preserve">9.03683471679688</t>
@@ -392,19 +392,19 @@
     <t xml:space="preserve">8.92700099945068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09175300598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98191928863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8842887878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85377788543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76835441589355</t>
+    <t xml:space="preserve">9.09175109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98192119598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88428688049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85377883911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76835250854492</t>
   </si>
   <si>
     <t xml:space="preserve">8.71953773498535</t>
@@ -413,121 +413,121 @@
     <t xml:space="preserve">8.68292713165283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56089019775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56699180603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34122276306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34732627868652</t>
+    <t xml:space="preserve">8.56088924407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56699275970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34122562408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34732532501221</t>
   </si>
   <si>
     <t xml:space="preserve">8.18257617950439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01172351837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06664180755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08494567871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28020572662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2680025100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24359512329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35952949523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38393783569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21918869018555</t>
+    <t xml:space="preserve">8.0117244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06664085388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08494663238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28020477294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26800155639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2435941696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35953044891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38393688201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21918773651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.20088195800781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31071376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30461406707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37173175811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27410221099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99951934814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02392578125</t>
+    <t xml:space="preserve">8.31071472167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30461311340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37173366546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27410411834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99952030181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02392768859863</t>
   </si>
   <si>
     <t xml:space="preserve">8.06053829193115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87748432159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99712371826172</t>
+    <t xml:space="preserve">7.87748384475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99712467193604</t>
   </si>
   <si>
     <t xml:space="preserve">7.85229587554932</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96563816070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93415689468384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78932809829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77673149108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13565921783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07268810272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11676788330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16714382171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35605239868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36864376068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56385135650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40013122558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34345722198486</t>
+    <t xml:space="preserve">7.96564149856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93415594100952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78932762145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154590606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77673578262329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13565731048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07268905639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11676597595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16714286804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35605144500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36864471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56385231018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40013217926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34345817565918</t>
   </si>
   <si>
     <t xml:space="preserve">8.28678512573242</t>
@@ -536,73 +536,73 @@
     <t xml:space="preserve">8.45050621032715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38124084472656</t>
+    <t xml:space="preserve">8.38123798370361</t>
   </si>
   <si>
     <t xml:space="preserve">8.5323657989502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55755424499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64570999145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67090034484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61422634124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52606964111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65830421447754</t>
+    <t xml:space="preserve">8.5575532913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64571094512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67090129852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61422729492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52606773376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65830612182617</t>
   </si>
   <si>
     <t xml:space="preserve">8.50717830657959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31826972961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18603420257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06639289855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00342082977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92785978317261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04120445251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09157848358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06009387969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02861022949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.902672290802</t>
+    <t xml:space="preserve">8.31826877593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18603515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06639194488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00342273712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92785787582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04120540618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09157943725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06009483337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02861213684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90267133712769</t>
   </si>
   <si>
     <t xml:space="preserve">7.72006034851074</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87118721008301</t>
+    <t xml:space="preserve">7.87118530273438</t>
   </si>
   <si>
     <t xml:space="preserve">7.82081174850464</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79562330245972</t>
+    <t xml:space="preserve">7.79562377929688</t>
   </si>
   <si>
     <t xml:space="preserve">7.91526556015015</t>
@@ -611,76 +611,76 @@
     <t xml:space="preserve">7.92156267166138</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97193622589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27419090270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57014846801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62052154541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79054164886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87869834899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96055793762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97314929962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30689144134521</t>
+    <t xml:space="preserve">7.9719386100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27419281005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57014751434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62052249908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79054069519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87869930267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96055889129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97315406799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3068904876709</t>
   </si>
   <si>
     <t xml:space="preserve">9.40134525299072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36986064910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42653465270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47690773010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4202356338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53987693786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55247211456299</t>
+    <t xml:space="preserve">9.36986255645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42653560638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47691059112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42023658752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53987789154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55247116088867</t>
   </si>
   <si>
     <t xml:space="preserve">9.65952110290527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64062976837158</t>
+    <t xml:space="preserve">9.64063167572021</t>
   </si>
   <si>
     <t xml:space="preserve">9.72248935699463</t>
   </si>
   <si>
-    <t xml:space="preserve">9.741379737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84842681884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84213256835938</t>
+    <t xml:space="preserve">9.74138164520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84842967987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84213161468506</t>
   </si>
   <si>
     <t xml:space="preserve">9.87991428375244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89880657196045</t>
+    <t xml:space="preserve">9.89880466461182</t>
   </si>
   <si>
     <t xml:space="preserve">9.69100666046143</t>
@@ -695,172 +695,172 @@
     <t xml:space="preserve">9.73508453369141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86731815338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69730377197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80435180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76656818389893</t>
+    <t xml:space="preserve">9.86731910705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69730186462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80434989929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76656723022461</t>
   </si>
   <si>
     <t xml:space="preserve">9.6658182144165</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4139404296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30059432983398</t>
+    <t xml:space="preserve">9.41394138336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30059337615967</t>
   </si>
   <si>
     <t xml:space="preserve">9.06130981445312</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94796466827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8975887298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91648101806641</t>
+    <t xml:space="preserve">8.94796562194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89759063720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91648197174072</t>
   </si>
   <si>
     <t xml:space="preserve">9.14946746826172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94166564941406</t>
+    <t xml:space="preserve">8.94166851043701</t>
   </si>
   <si>
     <t xml:space="preserve">8.90388584136963</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04242038726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06760692596436</t>
+    <t xml:space="preserve">9.04241943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06760787963867</t>
   </si>
   <si>
     <t xml:space="preserve">9.15576457977295</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05501556396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89129161834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18095111846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0739049911499</t>
+    <t xml:space="preserve">9.05501365661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89129257202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18095302581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07390308380127</t>
   </si>
   <si>
     <t xml:space="preserve">9.00463771820068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14316940307617</t>
+    <t xml:space="preserve">9.1431713104248</t>
   </si>
   <si>
     <t xml:space="preserve">9.44542407989502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45172214508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61544132232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50209522247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31948566436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25651454925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21243667602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2250280380249</t>
+    <t xml:space="preserve">9.45172023773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61544227600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50209617614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31948661804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25651550292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21243858337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22502994537354</t>
   </si>
   <si>
     <t xml:space="preserve">9.11168670654297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23762321472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39504718780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35097026824951</t>
+    <t xml:space="preserve">9.237624168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39504909515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3509693145752</t>
   </si>
   <si>
     <t xml:space="preserve">9.37615871429443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46431255340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43912792205811</t>
+    <t xml:space="preserve">9.46431732177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43912601470947</t>
   </si>
   <si>
     <t xml:space="preserve">9.52098655700684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64692687988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59025382995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58395671844482</t>
+    <t xml:space="preserve">9.6469259262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59025478363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58395767211914</t>
   </si>
   <si>
     <t xml:space="preserve">9.59654998779297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24392127990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25021553039551</t>
+    <t xml:space="preserve">9.24392032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25022029876709</t>
   </si>
   <si>
     <t xml:space="preserve">9.41513442993164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37628078460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27267742156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24029922485352</t>
+    <t xml:space="preserve">9.37628269195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27267646789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24030113220215</t>
   </si>
   <si>
     <t xml:space="preserve">9.25972652435303</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22087287902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21439838409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44751167297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54463958740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59644222259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64824771881104</t>
+    <t xml:space="preserve">9.22087383270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21439933776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44751071929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54464244842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5964412689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6482458114624</t>
   </si>
   <si>
     <t xml:space="preserve">9.64177227020264</t>
@@ -869,13 +869,13 @@
     <t xml:space="preserve">9.71299934387207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74537563323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62234401702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73890018463135</t>
+    <t xml:space="preserve">9.74537658691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62234497070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7389030456543</t>
   </si>
   <si>
     <t xml:space="preserve">9.72595119476318</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">9.6676721572876</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48636054992676</t>
+    <t xml:space="preserve">9.48636341094971</t>
   </si>
   <si>
     <t xml:space="preserve">9.26620197296143</t>
@@ -896,82 +896,82 @@
     <t xml:space="preserve">9.24677562713623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12374401092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23382472991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0978422164917</t>
+    <t xml:space="preserve">9.12374496459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23382377624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09784317016602</t>
   </si>
   <si>
     <t xml:space="preserve">9.03956508636475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1107931137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92948341369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99423789978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00071239471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06546401977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96833801269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91653442382812</t>
+    <t xml:space="preserve">9.11079406738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92948532104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99423694610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00071334838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06546688079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96833610534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91653633117676</t>
   </si>
   <si>
     <t xml:space="preserve">9.00718879699707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82587718963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87120532989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84530544281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79350185394287</t>
+    <t xml:space="preserve">8.82587909698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87120628356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84530448913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7935037612915</t>
   </si>
   <si>
     <t xml:space="preserve">8.80645275115967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75465202331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78055095672607</t>
+    <t xml:space="preserve">8.75465106964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78055191040039</t>
   </si>
   <si>
     <t xml:space="preserve">8.61219310760498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52153778076172</t>
+    <t xml:space="preserve">8.52153873443604</t>
   </si>
   <si>
     <t xml:space="preserve">8.62514305114746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65104579925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52801418304443</t>
+    <t xml:space="preserve">8.65104484558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52801322937012</t>
   </si>
   <si>
     <t xml:space="preserve">8.47621059417725</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3920316696167</t>
+    <t xml:space="preserve">8.39203071594238</t>
   </si>
   <si>
     <t xml:space="preserve">8.41793346405029</t>
@@ -980,61 +980,61 @@
     <t xml:space="preserve">8.3985071182251</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5409631729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55391502380371</t>
+    <t xml:space="preserve">8.54096412658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55391407012939</t>
   </si>
   <si>
     <t xml:space="preserve">8.57334041595459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50858688354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50211334228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51506042480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44383430480957</t>
+    <t xml:space="preserve">8.50858879089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50211238861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51506423950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44383525848389</t>
   </si>
   <si>
     <t xml:space="preserve">8.45678520202637</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58629131317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56039047241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65752029418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72227478027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7611255645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74169731140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77407550811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78702831268311</t>
+    <t xml:space="preserve">8.5862922668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56038951873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65752124786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72227382659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76112651824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74169921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77407646179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78702545166016</t>
   </si>
   <si>
     <t xml:space="preserve">8.76760101318359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73522281646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64457035064697</t>
+    <t xml:space="preserve">8.7352237701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64456844329834</t>
   </si>
   <si>
     <t xml:space="preserve">8.68342208862305</t>
@@ -1043,19 +1043,19 @@
     <t xml:space="preserve">8.57981586456299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48916149139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6186695098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63161945343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67047023773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72874927520752</t>
+    <t xml:space="preserve">8.48916053771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61866664886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63162040710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67047309875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7287483215332</t>
   </si>
   <si>
     <t xml:space="preserve">8.71579742431641</t>
@@ -1067,97 +1067,97 @@
     <t xml:space="preserve">8.83235454559326</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9424352645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97577667236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02245426177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09580993652344</t>
+    <t xml:space="preserve">8.94243621826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97577857971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02245712280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0958080291748</t>
   </si>
   <si>
     <t xml:space="preserve">9.16249561309814</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18916988372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29586410522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32920837402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2891960144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30253314971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33587551116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3158712387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38255596160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26919078826904</t>
+    <t xml:space="preserve">9.18916893005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29586315155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3292064666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28919696807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30253124237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33587455749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31587028503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38255500793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26918888092041</t>
   </si>
   <si>
     <t xml:space="preserve">9.35587978363037</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23584938049316</t>
+    <t xml:space="preserve">9.23584842681885</t>
   </si>
   <si>
     <t xml:space="preserve">9.28252792358398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24251747131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26252460479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25585556030273</t>
+    <t xml:space="preserve">9.24251937866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26252269744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2558536529541</t>
   </si>
   <si>
     <t xml:space="preserve">9.1825008392334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22250938415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20250606536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22917938232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36254787445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48258113861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53592967987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58927726745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6693000793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81600570678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74932098388672</t>
+    <t xml:space="preserve">9.22251129150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20250511169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22918033599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36255073547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48258304595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53593158721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58927631378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66930103302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81600666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7493200302124</t>
   </si>
   <si>
     <t xml:space="preserve">9.67596912384033</t>
@@ -1166,28 +1166,28 @@
     <t xml:space="preserve">9.60928344726562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54259967803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42923355102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15582656860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17583274841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24918556213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27585887908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21584224700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12915420532227</t>
+    <t xml:space="preserve">9.54259872436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42923450469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1558256149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17583179473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24918460845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27586078643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21584320068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12915229797363</t>
   </si>
   <si>
     <t xml:space="preserve">9.20917510986328</t>
@@ -1196,13 +1196,13 @@
     <t xml:space="preserve">9.34921264648438</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37588691711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32253932952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30920124053955</t>
+    <t xml:space="preserve">9.37588500976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32253837585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30920219421387</t>
   </si>
   <si>
     <t xml:space="preserve">9.50258731842041</t>
@@ -1211,40 +1211,40 @@
     <t xml:space="preserve">9.62262058258057</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68263530731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80266952514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94937705993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94270896911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90936374664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96938037872314</t>
+    <t xml:space="preserve">9.68263721466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8026704788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94937515258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94270706176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90936279296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96938133239746</t>
   </si>
   <si>
     <t xml:space="preserve">9.88935947418213</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96271419525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97604942321777</t>
+    <t xml:space="preserve">9.96271228790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97604846954346</t>
   </si>
   <si>
     <t xml:space="preserve">9.95604515075684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86268615722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69863986968994</t>
+    <t xml:space="preserve">9.86268424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69864082336426</t>
   </si>
   <si>
     <t xml:space="preserve">9.65996360778809</t>
@@ -1256,13 +1256,13 @@
     <t xml:space="preserve">9.56793880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43857097625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17183208465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11715030670166</t>
+    <t xml:space="preserve">9.43857002258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17183017730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11714839935303</t>
   </si>
   <si>
     <t xml:space="preserve">8.93443393707275</t>
@@ -1271,49 +1271,49 @@
     <t xml:space="preserve">8.99044799804688</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90375709533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96110439300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00511837005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09047412872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14115715026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14382362365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.122483253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19583702087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24385070800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14515590667725</t>
+    <t xml:space="preserve">8.90375900268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.961106300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00512027740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09047508239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14115619659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14382457733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12248420715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19583892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24385166168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1451587677002</t>
   </si>
   <si>
     <t xml:space="preserve">9.05046463012695</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9210958480835</t>
+    <t xml:space="preserve">8.92109680175781</t>
   </si>
   <si>
     <t xml:space="preserve">8.88908767700195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01178550720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05713272094727</t>
+    <t xml:space="preserve">9.01178646087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05713367462158</t>
   </si>
   <si>
     <t xml:space="preserve">9.06379985809326</t>
@@ -1322,28 +1322,28 @@
     <t xml:space="preserve">9.14782333374023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21851062774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40256118774414</t>
+    <t xml:space="preserve">9.21850967407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40256023406982</t>
   </si>
   <si>
     <t xml:space="preserve">9.29453086853027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42256546020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49591827392578</t>
+    <t xml:space="preserve">9.42256450653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4959192276001</t>
   </si>
   <si>
     <t xml:space="preserve">9.44924068450928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40789604187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37455272674561</t>
+    <t xml:space="preserve">9.40789413452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37454986572266</t>
   </si>
   <si>
     <t xml:space="preserve">9.46924495697021</t>
@@ -1352,31 +1352,31 @@
     <t xml:space="preserve">9.44390487670898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52792835235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6239538192749</t>
+    <t xml:space="preserve">9.52792930603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62395477294922</t>
   </si>
   <si>
     <t xml:space="preserve">9.70664215087891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91069984436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9280366897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99472236633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0920810699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1547651290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2227821350098</t>
+    <t xml:space="preserve">9.91069889068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92803573608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99472045898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0920829772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.154764175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2227849960327</t>
   </si>
   <si>
     <t xml:space="preserve">10.2908029556274</t>
@@ -1385,22 +1385,22 @@
     <t xml:space="preserve">10.3014707565308</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4561805725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5335340499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695718765259</t>
+    <t xml:space="preserve">10.4561815261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5335350036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695728302002</t>
   </si>
   <si>
     <t xml:space="preserve">10.63756275177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.728253364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6882438659668</t>
+    <t xml:space="preserve">10.7282543182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6882448196411</t>
   </si>
   <si>
     <t xml:space="preserve">10.5695447921753</t>
@@ -1412,22 +1412,22 @@
     <t xml:space="preserve">10.7749347686768</t>
   </si>
   <si>
-    <t xml:space="preserve">10.802942276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8842973709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7549276351929</t>
+    <t xml:space="preserve">10.8029413223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.884298324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7549295425415</t>
   </si>
   <si>
     <t xml:space="preserve">10.9029684066772</t>
   </si>
   <si>
-    <t xml:space="preserve">11.112359046936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8269481658936</t>
+    <t xml:space="preserve">11.1123600006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8269491195679</t>
   </si>
   <si>
     <t xml:space="preserve">11.1270294189453</t>
@@ -1436,34 +1436,34 @@
     <t xml:space="preserve">10.9416465759277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9629859924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.120361328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1790437698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0283355712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0710115432739</t>
+    <t xml:space="preserve">10.9629850387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1203632354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1790428161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0283365249634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0710144042969</t>
   </si>
   <si>
     <t xml:space="preserve">11.0376710891724</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9502019882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0035018920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8818645477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7820949554443</t>
+    <t xml:space="preserve">10.9502029418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0035037994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8818655014038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.78209400177</t>
   </si>
   <si>
     <t xml:space="preserve">10.514217376709</t>
@@ -1472,70 +1472,70 @@
     <t xml:space="preserve">10.3010082244873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3146753311157</t>
+    <t xml:space="preserve">10.3146743774414</t>
   </si>
   <si>
     <t xml:space="preserve">10.5852870941162</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7506618499756</t>
+    <t xml:space="preserve">10.7506589889526</t>
   </si>
   <si>
     <t xml:space="preserve">10.6508903503418</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5593166351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5579509735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6809587478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4035139083862</t>
+    <t xml:space="preserve">10.5593194961548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5579519271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6809568405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4035129547119</t>
   </si>
   <si>
     <t xml:space="preserve">10.7069253921509</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6003217697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.806694984436</t>
+    <t xml:space="preserve">10.60032081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8066968917847</t>
   </si>
   <si>
     <t xml:space="preserve">10.6139879226685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6194534301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5470190048218</t>
+    <t xml:space="preserve">10.6194553375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5470180511475</t>
   </si>
   <si>
     <t xml:space="preserve">10.3611421585083</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6850576400757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4431457519531</t>
+    <t xml:space="preserve">10.6850566864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4431476593018</t>
   </si>
   <si>
     <t xml:space="preserve">10.5456523895264</t>
   </si>
   <si>
-    <t xml:space="preserve">10.836763381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8722972869873</t>
+    <t xml:space="preserve">10.8367652893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8722982406616</t>
   </si>
   <si>
     <t xml:space="preserve">10.8695669174194</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7793626785278</t>
+    <t xml:space="preserve">10.7793617248535</t>
   </si>
   <si>
     <t xml:space="preserve">11.0404052734375</t>
@@ -1547,514 +1547,514 @@
     <t xml:space="preserve">11.0814085006714</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0568065643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1497430801392</t>
+    <t xml:space="preserve">11.0568046569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1497449874878</t>
   </si>
   <si>
     <t xml:space="preserve">11.2959823608398</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1060104370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1114768981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1251430511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0281047821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0267381668091</t>
+    <t xml:space="preserve">11.1060094833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.111475944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1251420974731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9707021713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0281038284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0267391204834</t>
   </si>
   <si>
     <t xml:space="preserve">10.988471031189</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9925689697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0226373672485</t>
+    <t xml:space="preserve">10.9925708770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0226392745972</t>
   </si>
   <si>
     <t xml:space="preserve">11.0964422225952</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0896091461182</t>
+    <t xml:space="preserve">11.0896110534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1456422805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0704746246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1292448043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2508792877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1675109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0732069015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1333436965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3506536483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2754831314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1975784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9037342071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9050998687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0117053985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.873664855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8135299682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9419994354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0527067184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1524782180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0937070846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2071475982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2290124893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2098789215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9201335906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9912033081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0185375213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9064674377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8148956298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7465581893921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8312978744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8517971038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9461002349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9256010055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9242343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240049362183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.164776802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.332221031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6071815490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.64084815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5959568023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4206027984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4472560882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4626865386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.486536026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4177961349487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4107818603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1147804260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4065732955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308191299438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0193881988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9562587738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0558614730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1049613952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9310083389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7261905670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7949304580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6434230804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4863042831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.326379776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5031394958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6153659820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7752904891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7921266555786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0165815353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.820182800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7738885879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8384189605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7584562301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9660787582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9239931106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8412246704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8636703491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6251850128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4694709777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5045394897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4512338638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3249759674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1369943618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2604446411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0416021347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86203575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0275716781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95602607727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92796993255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97146034240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99250221252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1790809631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1103391647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0233640670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70351409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8999137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77786350250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86624431610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9854850769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0037250518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92376041412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79189491271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68948459625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78487777709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69790267944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6614294052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48326683044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64319038391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66563606262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70772171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0584354400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97005653381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9083309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99951457977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98969650268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93919277191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90412139892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99530696868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0163488388062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97286224365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2464170455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2029285430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1538286209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1117420196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2211637496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1229677200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1860952377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2716674804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3852987289429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3614501953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3712711334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4792900085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4231758117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1945104598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1818866729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2758769989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3502254486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4203701019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3670616149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6055469512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6448240280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6602592468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6981344223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7107601165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7233867645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6700763702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6686735153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6770906448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6378126144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5480298995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5985317230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6504392623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.498929977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6069488525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6364097595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9029502868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8987426757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9338140487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0432367324829</t>
   </si>
   <si>
     <t xml:space="preserve">11.1456432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0704746246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1292409896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2508821487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1675109863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0732069015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1333427429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3506517410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2754831314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1975784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9037313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9050998687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0117053985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.873664855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8135299682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9420013427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0527067184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1524772644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0937070846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.207145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2290134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2098779678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9201345443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9912042617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0185384750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9064674377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8148965835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7465600967407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8312978744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8517971038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9461002349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9256010055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9242343902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240049362183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1647777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3322219848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6071815490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6408491134644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5959596633911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4206018447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4472551345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4626874923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4865350723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.417797088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4107828140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1147794723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4065723419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308191299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0193862915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9562578201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0558614730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1049604415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.931004524231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7261924743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7949314117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6434230804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4863023757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3263807296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5031366348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.61536693573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7752914428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7921257019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0165815353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8201818466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7738885879517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.838418006897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7584571838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9660787582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9239921569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8412265777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8636703491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6251850128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4694709777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5045413970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4512329101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3249769210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1369934082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2604446411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0415992736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86203670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0275726318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95602703094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92796993255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97145843505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9925012588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1790800094604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1103410720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.023365020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70351600646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89991283416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77786445617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86624431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98548698425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0037250518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92376232147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79189395904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68948364257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78488063812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69790458679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6614294052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48326587677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64319133758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6656379699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70772171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0584335327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97005558013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9083309173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99951553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98969650268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93919372558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9041223526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99530601501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0163488388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97286224365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2464160919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2029285430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1538276672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1117420196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2211666107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1229658126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1860942840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2716665267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3852977752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3614511489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3712701797485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4792900085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4231758117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1945104598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1818876266479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2758769989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.350227355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4203701019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3670625686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6055459976196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6448249816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6602582931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6981353759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7107620239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7233858108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6700763702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6686744689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6770915985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6378116607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5480289459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5985326766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6504373550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7177743911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4989290237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6069488525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6364078521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9029512405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8987407684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9338130950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0432348251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1456441879272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0656814575195</t>
+    <t xml:space="preserve">11.0656795501709</t>
   </si>
   <si>
     <t xml:space="preserve">11.1035575866699</t>
@@ -2066,55 +2066,55 @@
     <t xml:space="preserve">10.9590654373169</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9534530639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9352159500122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8580589294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0502500534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0755014419556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1554613113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0516519546509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1161842346191</t>
+    <t xml:space="preserve">10.9534540176392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9352149963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8580598831177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0502490997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0755004882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1554622650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0516529083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1161832809448</t>
   </si>
   <si>
     <t xml:space="preserve">11.0923347473145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1442403793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1807146072388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1694917678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0937376022339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9913311004639</t>
+    <t xml:space="preserve">11.1442394256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1807155609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1694927215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0937385559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9913291931152</t>
   </si>
   <si>
     <t xml:space="preserve">10.8229875564575</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8243913650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0811138153076</t>
+    <t xml:space="preserve">10.824390411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.081111907959</t>
   </si>
   <si>
     <t xml:space="preserve">10.9071588516235</t>
@@ -2123,136 +2123,136 @@
     <t xml:space="preserve">10.8762969970703</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7612619400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5901145935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6742868423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5452270507812</t>
+    <t xml:space="preserve">10.7612628936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5901136398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6742858886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5452213287354</t>
   </si>
   <si>
     <t xml:space="preserve">10.583101272583</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4315929412842</t>
+    <t xml:space="preserve">10.4315938949585</t>
   </si>
   <si>
     <t xml:space="preserve">10.1636486053467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1566362380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0472145080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0065298080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1159524917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2436122894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1832895278931</t>
+    <t xml:space="preserve">10.1566343307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0472106933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0065279006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1159505844116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.243613243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1832885742188</t>
   </si>
   <si>
     <t xml:space="preserve">10.346019744873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4091482162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3990497589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4884958267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4004907608032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0412578582764</t>
+    <t xml:space="preserve">10.4091472625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3990478515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4884939193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4004917144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0412559509277</t>
   </si>
   <si>
     <t xml:space="preserve">10.13791847229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1494598388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1177206039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90708541870117</t>
+    <t xml:space="preserve">10.1494588851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1177186965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90708351135254</t>
   </si>
   <si>
     <t xml:space="preserve">9.87678718566895</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79599571228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96912002563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1119480133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0037441253662</t>
+    <t xml:space="preserve">9.79599666595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96912097930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11194896698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0037460327148</t>
   </si>
   <si>
     <t xml:space="preserve">10.0268287658691</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0701103210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0989646911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1321458816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0297164916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0585708618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0051898956299</t>
+    <t xml:space="preserve">10.0701112747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0989637374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1321449279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0297155380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0585689544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0051870346069</t>
   </si>
   <si>
     <t xml:space="preserve">10.2114963531494</t>
   </si>
   <si>
-    <t xml:space="preserve">10.259105682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572101593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5361061096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.475513458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4163589477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4654130935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4351148605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5606317520142</t>
+    <t xml:space="preserve">10.2591075897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572092056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5361051559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4755115509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4163599014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4654121398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4351167678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5606307983398</t>
   </si>
   <si>
     <t xml:space="preserve">10.4581985473633</t>
@@ -2261,40 +2261,40 @@
     <t xml:space="preserve">10.5086936950684</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5649604797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4957094192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5707302093506</t>
+    <t xml:space="preserve">10.5649576187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4957103729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5707292556763</t>
   </si>
   <si>
     <t xml:space="preserve">10.6082410812378</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6760482788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6948041915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6125688552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793876647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3976049423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3153705596924</t>
+    <t xml:space="preserve">10.6760473251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.694803237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6125679016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793867111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3976058959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3153715133667</t>
   </si>
   <si>
     <t xml:space="preserve">10.2576627731323</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269119262695</t>
+    <t xml:space="preserve">10.3269138336182</t>
   </si>
   <si>
     <t xml:space="preserve">10.3802919387817</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">10.3514394760132</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3427820205688</t>
+    <t xml:space="preserve">10.3427829742432</t>
   </si>
   <si>
     <t xml:space="preserve">10.2778606414795</t>
@@ -2315,82 +2315,82 @@
     <t xml:space="preserve">10.2461214065552</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1682138442993</t>
+    <t xml:space="preserve">10.1682147979736</t>
   </si>
   <si>
     <t xml:space="preserve">9.86813068389893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72385883331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65460968017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51755046844482</t>
+    <t xml:space="preserve">9.72386074066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6546106338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51755428314209</t>
   </si>
   <si>
     <t xml:space="preserve">9.69067764282227</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51610946655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50023937225342</t>
+    <t xml:space="preserve">9.51611042022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50024032592773</t>
   </si>
   <si>
     <t xml:space="preserve">9.68058013916016</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45118713378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40646266937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57526111602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48148441314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63008308410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60267353057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48004150390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53486633300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59545803070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66615200042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82340621948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89121532440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81186580657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86091613769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93305492401123</t>
+    <t xml:space="preserve">9.45118808746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40646362304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57526206970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48148632049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63008403778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6026725769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48004055023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5348653793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59545993804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66615009307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82340717315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89121437072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81186389923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86091709136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93305397033691</t>
   </si>
   <si>
     <t xml:space="preserve">10.0426979064941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1725425720215</t>
+    <t xml:space="preserve">10.1725416183472</t>
   </si>
   <si>
     <t xml:space="preserve">10.1523456573486</t>
@@ -2399,142 +2399,142 @@
     <t xml:space="preserve">10.1307039260864</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3254699707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.208610534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3326845169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4971532821655</t>
+    <t xml:space="preserve">10.3254690170288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2086114883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3326826095581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4971523284912</t>
   </si>
   <si>
     <t xml:space="preserve">10.5105323791504</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4034957885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3038883209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3574066162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4466066360474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4317407608032</t>
+    <t xml:space="preserve">10.4034938812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3038902282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3574085235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.446605682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4317398071289</t>
   </si>
   <si>
     <t xml:space="preserve">10.3915996551514</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0764331817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96642303466797</t>
+    <t xml:space="preserve">10.0764350891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96642398834229</t>
   </si>
   <si>
     <t xml:space="preserve">10.067512512207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1477928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0600805282593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1091384887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1700916290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2845630645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.21617603302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2860488891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2696981430054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2429370880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3722743988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4599876403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5090475082397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4362001419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3603811264038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2786169052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1819849014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0868396759033</t>
+    <t xml:space="preserve">10.1477909088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0600824356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1091394424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.170093536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2845621109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2161769866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2860498428345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2696962356567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2429361343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3722772598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4599857330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5090465545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4361991882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3603820800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2786149978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1819839477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.086838722229</t>
   </si>
   <si>
     <t xml:space="preserve">10.1864452362061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3871412277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5536441802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5283708572388</t>
+    <t xml:space="preserve">10.3871402740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5536432266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5283718109131</t>
   </si>
   <si>
     <t xml:space="preserve">10.5372915267944</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5476961135864</t>
+    <t xml:space="preserve">10.5476980209351</t>
   </si>
   <si>
     <t xml:space="preserve">10.5075588226318</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5952701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5417518615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5699987411499</t>
+    <t xml:space="preserve">10.595269203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5417509078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.569995880127</t>
   </si>
   <si>
     <t xml:space="preserve">10.4882316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3841686248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4153861999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.437686920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4421453475952</t>
+    <t xml:space="preserve">10.3841695785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4153881072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4376859664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4421482086182</t>
   </si>
   <si>
     <t xml:space="preserve">10.355920791626</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">10.3247013092041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2578029632568</t>
+    <t xml:space="preserve">10.2578020095825</t>
   </si>
   <si>
     <t xml:space="preserve">10.1938772201538</t>
@@ -2552,10 +2552,10 @@
     <t xml:space="preserve">10.0883264541626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0199413299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1418437957764</t>
+    <t xml:space="preserve">10.0199422836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1418447494507</t>
   </si>
   <si>
     <t xml:space="preserve">10.2355051040649</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">10.1284656524658</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1581993103027</t>
+    <t xml:space="preserve">10.1582002639771</t>
   </si>
   <si>
     <t xml:space="preserve">10.1031932830811</t>
@@ -2573,52 +2573,52 @@
     <t xml:space="preserve">10.1463041305542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1121120452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1269798278809</t>
+    <t xml:space="preserve">10.1121129989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1269788742065</t>
   </si>
   <si>
     <t xml:space="preserve">10.1849575042725</t>
   </si>
   <si>
-    <t xml:space="preserve">10.271183013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2919969558716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.418360710144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4064664840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4124126434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4852600097656</t>
+    <t xml:space="preserve">10.2711820602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2919950485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4183597564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4064674377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4124145507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.485258102417</t>
   </si>
   <si>
     <t xml:space="preserve">10.641357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6443290710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.559591293335</t>
+    <t xml:space="preserve">10.6443300247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5595903396606</t>
   </si>
   <si>
     <t xml:space="preserve">10.4807987213135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3128089904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2563171386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3232154846191</t>
+    <t xml:space="preserve">10.3128070831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2563180923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3232145309448</t>
   </si>
   <si>
     <t xml:space="preserve">10.344030380249</t>
@@ -2630,10 +2630,10 @@
     <t xml:space="preserve">10.0779180526733</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0035886764526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.012508392334</t>
+    <t xml:space="preserve">10.0035877227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0125074386597</t>
   </si>
   <si>
     <t xml:space="preserve">9.808837890625</t>
@@ -2642,10 +2642,10 @@
     <t xml:space="preserve">9.9589900970459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87722492218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60814094543457</t>
+    <t xml:space="preserve">9.87722396850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6081428527832</t>
   </si>
   <si>
     <t xml:space="preserve">9.40893363952637</t>
@@ -2654,43 +2654,43 @@
     <t xml:space="preserve">9.37325382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50556468963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68395900726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64084815979004</t>
+    <t xml:space="preserve">9.50556373596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68396091461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64084911346436</t>
   </si>
   <si>
     <t xml:space="preserve">9.59327602386475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49961853027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73748016357422</t>
+    <t xml:space="preserve">9.49961566925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7374792098999</t>
   </si>
   <si>
     <t xml:space="preserve">9.65422821044922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58287143707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59624862670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61706161499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58881568908691</t>
+    <t xml:space="preserve">9.58286952972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5962495803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61706256866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58881664276123</t>
   </si>
   <si>
     <t xml:space="preserve">9.48772525787354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04470825195312</t>
+    <t xml:space="preserve">9.04470729827881</t>
   </si>
   <si>
     <t xml:space="preserve">8.9019889831543</t>
@@ -2699,85 +2699,85 @@
     <t xml:space="preserve">8.96740055084229</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73994541168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29395294189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26422309875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26570892333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28949546813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15272426605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60712623596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02088499069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06919956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98371887207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89995908737183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13707733154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82562732696533</t>
+    <t xml:space="preserve">8.73994827270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29395580291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26422119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26570796966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28949451446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15272521972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60712718963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0208854675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06920051574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98371839523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89995813369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13707828521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82562780380249</t>
   </si>
   <si>
     <t xml:space="preserve">5.10362863540649</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97577810287476</t>
+    <t xml:space="preserve">4.9757776260376</t>
   </si>
   <si>
     <t xml:space="preserve">5.17721748352051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4210262298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41656637191772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22529649734497</t>
+    <t xml:space="preserve">5.42102575302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41656589508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22529697418213</t>
   </si>
   <si>
     <t xml:space="preserve">6.48397207260132</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47505283355713</t>
+    <t xml:space="preserve">6.47505187988281</t>
   </si>
   <si>
     <t xml:space="preserve">6.10785293579102</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38734102249146</t>
+    <t xml:space="preserve">6.38734245300293</t>
   </si>
   <si>
     <t xml:space="preserve">6.85340261459351</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83853435516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31277227401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93144989013672</t>
+    <t xml:space="preserve">6.83853530883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31277370452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93145132064819</t>
   </si>
   <si>
     <t xml:space="preserve">6.92401599884033</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">7.0080132484436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90915060043335</t>
+    <t xml:space="preserve">6.90915155410767</t>
   </si>
   <si>
     <t xml:space="preserve">6.91881370544434</t>
@@ -2798,40 +2798,40 @@
     <t xml:space="preserve">6.37916421890259</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28401947021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38288021087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26915264129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91681957244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20522737503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29739999771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13238286972046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24685335159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45498323440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65790843963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47728300094604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1033935546875</t>
+    <t xml:space="preserve">6.28401899337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38288116455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2691535949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91682004928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20522689819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29739952087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13238191604614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24685478210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4549822807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65790891647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47728204727173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10339403152466</t>
   </si>
   <si>
     <t xml:space="preserve">6.45721292495728</t>
@@ -2840,94 +2840,94 @@
     <t xml:space="preserve">6.26097726821899</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35983848571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41558694839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33679485321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32861804962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33307886123657</t>
+    <t xml:space="preserve">6.35983753204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41558599472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33679580688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32861757278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33307838439941</t>
   </si>
   <si>
     <t xml:space="preserve">6.77694177627563</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56322956085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59845638275146</t>
+    <t xml:space="preserve">6.56323003768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59845781326294</t>
   </si>
   <si>
     <t xml:space="preserve">6.43641185760498</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39883613586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46615934371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47711944580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61489677429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64777421951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35891199111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52878665924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86618375778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04466867446899</t>
+    <t xml:space="preserve">6.3988356590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46615982055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47711896896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61489629745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64777517318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35891151428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52878570556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86618280410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04466915130615</t>
   </si>
   <si>
     <t xml:space="preserve">7.01726961135864</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44156360626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56524896621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33979558944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.225501537323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71744680404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72214365005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71666383743286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99456787109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96403741836548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91628551483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94681549072266</t>
+    <t xml:space="preserve">7.44156265258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56524848937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33979463577271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22550249099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71744775772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72214412689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71666431427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99456739425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96403837203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91628503799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9468150138855</t>
   </si>
   <si>
     <t xml:space="preserve">6.89123487472534</t>
@@ -2939,64 +2939,64 @@
     <t xml:space="preserve">6.63916444778442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57340669631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75189161300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64620923995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63446712493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82625961303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79025030136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85600662231445</t>
+    <t xml:space="preserve">6.57340621948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75189065933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64620876312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63446807861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82626056671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79024887084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85600900650024</t>
   </si>
   <si>
     <t xml:space="preserve">6.90454244613647</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80903768539429</t>
+    <t xml:space="preserve">6.8090386390686</t>
   </si>
   <si>
     <t xml:space="preserve">6.60237169265747</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77928972244263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87557697296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91706943511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96325445175171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8990626335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87401294708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98987054824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81608200073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73310375213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66969442367554</t>
+    <t xml:space="preserve">6.7792911529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87557792663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91706800460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96325588226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89906358718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87401247024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98987150192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81608247756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73310279846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6696949005127</t>
   </si>
   <si>
     <t xml:space="preserve">6.62507343292236</t>
@@ -3005,73 +3005,73 @@
     <t xml:space="preserve">6.63603353500366</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58358383178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1201491355896</t>
+    <t xml:space="preserve">6.58358335494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12014961242676</t>
   </si>
   <si>
     <t xml:space="preserve">5.9033055305481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89782571792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15224504470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33777475357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21721935272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11075496673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25166463851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4536337852478</t>
+    <t xml:space="preserve">5.89782619476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15224599838257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3377742767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21722030639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.110755443573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25166368484497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45363426208496</t>
   </si>
   <si>
     <t xml:space="preserve">6.55461883544922</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45441722869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40275096893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34090662002563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30489683151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36282634735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2117395401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16320514678955</t>
+    <t xml:space="preserve">6.45441627502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40275001525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34090709686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30489635467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36282587051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21174001693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16320419311523</t>
   </si>
   <si>
     <t xml:space="preserve">6.41214418411255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32368421554565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23287630081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10605812072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08727073669434</t>
+    <t xml:space="preserve">6.32368469238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23287677764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10605907440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08727121353149</t>
   </si>
   <si>
     <t xml:space="preserve">6.00898790359497</t>
@@ -3080,316 +3080,316 @@
     <t xml:space="preserve">6.02464389801025</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98471927642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08492136001587</t>
+    <t xml:space="preserve">5.98471975326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08492183685303</t>
   </si>
   <si>
     <t xml:space="preserve">5.88608360290527</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97141122817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96984529495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9487099647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85242176055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95888566970825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98941612243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94479608535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78353357315063</t>
+    <t xml:space="preserve">5.97141218185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96984624862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94870948791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85242128372192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95888710021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98941707611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94479513168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78353261947632</t>
   </si>
   <si>
     <t xml:space="preserve">5.53048324584961</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61483383178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5129771232605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42067050933838</t>
+    <t xml:space="preserve">5.61483430862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51297664642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42066955566406</t>
   </si>
   <si>
     <t xml:space="preserve">5.32279253005981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45886659622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30369424819946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32199668884277</t>
+    <t xml:space="preserve">5.45886564254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3036937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32199621200562</t>
   </si>
   <si>
     <t xml:space="preserve">5.14215564727783</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17000770568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3235878944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50502014160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35541820526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.478759765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46045684814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42624044418335</t>
+    <t xml:space="preserve">5.17000818252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32358741760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5050196647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35541772842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47876024246216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46045780181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42623996734619</t>
   </si>
   <si>
     <t xml:space="preserve">5.32040452957153</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32995414733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10714292526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22252702713013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24082899093628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22173118591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04507398605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04586982727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12783241271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96947813034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85409355163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68300771713257</t>
+    <t xml:space="preserve">5.32995367050171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10714387893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22252750396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2408299446106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22173166275024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04507446289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04587030410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12783288955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96947765350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8540940284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68300724029541</t>
   </si>
   <si>
     <t xml:space="preserve">4.70926666259766</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78327131271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06258153915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18353509902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24958324432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24878787994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20581579208374</t>
+    <t xml:space="preserve">4.78327226638794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06258010864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1835355758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24958372116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24878692626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2058162689209</t>
   </si>
   <si>
     <t xml:space="preserve">5.87106657028198</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10979223251343</t>
+    <t xml:space="preserve">6.10979175567627</t>
   </si>
   <si>
     <t xml:space="preserve">6.04135704040527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06204652786255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09546804428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34055995941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43446016311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52040147781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42729711532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46549367904663</t>
+    <t xml:space="preserve">6.06204700469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09546852111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34056043624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4344596862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52039957046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42729663848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46549320220947</t>
   </si>
   <si>
     <t xml:space="preserve">6.62862300872803</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85939121246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9007716178894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81005430221558</t>
+    <t xml:space="preserve">6.85939073562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90077114105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81005477905273</t>
   </si>
   <si>
     <t xml:space="preserve">6.82915210723877</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60713815689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69626188278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76310539245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72570514678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95806455612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97636699676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99466896057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03684425354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11084938049316</t>
+    <t xml:space="preserve">6.60713768005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69626235961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76310443878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72570466995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9580659866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97636747360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99466943740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03684329986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11084985733032</t>
   </si>
   <si>
     <t xml:space="preserve">7.00899314880371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90554523468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96443128585815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96761274337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9318060874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86018705368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56018781661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65249538421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83074426651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84029293060303</t>
+    <t xml:space="preserve">6.90554571151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96442985534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.967613697052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93180561065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86018657684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56018829345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65249586105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83074378967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84029388427734</t>
   </si>
   <si>
     <t xml:space="preserve">6.81323862075806</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8020977973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72252082824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97159147262573</t>
+    <t xml:space="preserve">6.80209732055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72252178192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97159242630005</t>
   </si>
   <si>
     <t xml:space="preserve">7.19997406005859</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21588802337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18565034866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14427137374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20474767684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20952320098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16575527191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02729558944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04718923568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0241117477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08299779891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89758729934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79732275009155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64692401885986</t>
+    <t xml:space="preserve">7.21588897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18564891815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14427042007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20474815368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20952367782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1657567024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02729463577271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04718971252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02411222457886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08299875259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89758682250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79732227325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64692449569702</t>
   </si>
   <si>
     <t xml:space="preserve">6.78618240356445</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80130052566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64613008499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52517414093018</t>
+    <t xml:space="preserve">6.8013014793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64612913131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52517509460449</t>
   </si>
   <si>
     <t xml:space="preserve">6.61350345611572</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75514841079712</t>
+    <t xml:space="preserve">6.75514793395996</t>
   </si>
   <si>
     <t xml:space="preserve">6.81960344314575</t>
@@ -3398,16 +3398,16 @@
     <t xml:space="preserve">6.85223007202148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90793228149414</t>
+    <t xml:space="preserve">6.90793132781982</t>
   </si>
   <si>
     <t xml:space="preserve">6.98273277282715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03764009475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98432588577271</t>
+    <t xml:space="preserve">7.03764057159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98432540893555</t>
   </si>
   <si>
     <t xml:space="preserve">7.06549119949341</t>
@@ -3416,40 +3416,40 @@
     <t xml:space="preserve">7.25965547561646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22464179992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29148626327515</t>
+    <t xml:space="preserve">7.22464227676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29148530960083</t>
   </si>
   <si>
     <t xml:space="preserve">7.23896598815918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31933641433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44506692886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49917697906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62092638015747</t>
+    <t xml:space="preserve">7.3193359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44506645202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49917650222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62092781066895</t>
   </si>
   <si>
     <t xml:space="preserve">7.70288991928101</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54532957077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60819482803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55328750610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68697500228882</t>
+    <t xml:space="preserve">7.54533100128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60819387435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55328798294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68697357177734</t>
   </si>
   <si>
     <t xml:space="preserve">7.85885858535767</t>
@@ -3458,52 +3458,52 @@
     <t xml:space="preserve">8.00686645507812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10076522827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06893539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13259696960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19625473022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29015636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22331047058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14850997924805</t>
+    <t xml:space="preserve">8.1007661819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06893730163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13259601593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19625568389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29015445709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22331142425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14851188659668</t>
   </si>
   <si>
     <t xml:space="preserve">8.22649478912354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09599208831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07371234893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94161415100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15328502655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04665565490723</t>
+    <t xml:space="preserve">8.09599304199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07371044158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94161510467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15328693389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04665470123291</t>
   </si>
   <si>
     <t xml:space="preserve">8.14214515686035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23445129394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28538131713867</t>
+    <t xml:space="preserve">8.23445224761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28538036346436</t>
   </si>
   <si>
     <t xml:space="preserve">8.35063171386719</t>
@@ -3512,58 +3512,58 @@
     <t xml:space="preserve">8.41110992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33471870422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32039451599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16442775726318</t>
+    <t xml:space="preserve">8.33471965789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32039356231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16442680358887</t>
   </si>
   <si>
     <t xml:space="preserve">8.11668109893799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08644104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13737010955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34585857391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24718475341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23604488372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21535587310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0164155960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0768928527832</t>
+    <t xml:space="preserve">8.08644199371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13737106323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34585666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24718379974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23604393005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21535491943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01641750335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07689189910889</t>
   </si>
   <si>
     <t xml:space="preserve">8.09121608734131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03869819641113</t>
+    <t xml:space="preserve">8.0386962890625</t>
   </si>
   <si>
     <t xml:space="preserve">8.07530307769775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04506397247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11986446380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11827182769775</t>
+    <t xml:space="preserve">8.04506301879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11986541748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11827087402344</t>
   </si>
   <si>
     <t xml:space="preserve">7.90182828903198</t>
@@ -3572,64 +3572,64 @@
     <t xml:space="preserve">8.03710556030273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20262336730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21694660186768</t>
+    <t xml:space="preserve">8.20262241363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21694564819336</t>
   </si>
   <si>
     <t xml:space="preserve">8.21217155456543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28219795227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32198524475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19943904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29970550537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32676029205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30288600921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11349773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1835241317749</t>
+    <t xml:space="preserve">8.28219985961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32198429107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19944095611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29970359802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32675933837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30288887023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11349678039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18352508544922</t>
   </si>
   <si>
     <t xml:space="preserve">8.2372989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13545227050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17211627960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22915267944336</t>
+    <t xml:space="preserve">8.13545322418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.172119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22915172576904</t>
   </si>
   <si>
     <t xml:space="preserve">8.22426223754883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1933012008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38721561431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44913768768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5061731338501</t>
+    <t xml:space="preserve">8.19330024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38721656799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44913959503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50617218017578</t>
   </si>
   <si>
     <t xml:space="preserve">8.45728778839111</t>
@@ -3638,19 +3638,19 @@
     <t xml:space="preserve">8.51758003234863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55180072784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50942993164062</t>
+    <t xml:space="preserve">8.55179977416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50943279266357</t>
   </si>
   <si>
     <t xml:space="preserve">8.5664644241333</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62186908721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74082469940186</t>
+    <t xml:space="preserve">8.62187004089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74082565307617</t>
   </si>
   <si>
     <t xml:space="preserve">8.74571514129639</t>
@@ -3662,43 +3662,43 @@
     <t xml:space="preserve">8.66097927093506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4035120010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48824787139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48498821258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4915075302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58764934539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60068511962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42632484436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42306613922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36766242980957</t>
+    <t xml:space="preserve">8.40351295471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48824691772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48498916625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49150657653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58765029907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60068416595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42632675170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42306518554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36766338348389</t>
   </si>
   <si>
     <t xml:space="preserve">8.52246761322021</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47195148468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51920890808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28618431091309</t>
+    <t xml:space="preserve">8.47195243835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51920795440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28618621826172</t>
   </si>
   <si>
     <t xml:space="preserve">8.11752986907959</t>
@@ -3707,52 +3707,52 @@
     <t xml:space="preserve">8.21285533905029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15093517303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16722869873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07434558868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01079273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70281171798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74273538589478</t>
+    <t xml:space="preserve">8.15093326568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1672306060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0743465423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0107946395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70281267166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74273586273193</t>
   </si>
   <si>
     <t xml:space="preserve">7.94398307800293</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85761690139771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87798595428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03849506378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99123859405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08004951477051</t>
+    <t xml:space="preserve">7.85761737823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87798690795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03849601745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99123954772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08004856109619</t>
   </si>
   <si>
     <t xml:space="preserve">8.15908145904541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12486171722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25848293304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24544715881348</t>
+    <t xml:space="preserve">8.1248607635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25848197937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24544620513916</t>
   </si>
   <si>
     <t xml:space="preserve">8.31062793731689</t>
@@ -3761,40 +3761,40 @@
     <t xml:space="preserve">8.3937349319458</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37906837463379</t>
+    <t xml:space="preserve">8.37907028198242</t>
   </si>
   <si>
     <t xml:space="preserve">8.43284320831299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4866189956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53713321685791</t>
+    <t xml:space="preserve">8.48661804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53713417053223</t>
   </si>
   <si>
     <t xml:space="preserve">8.56972503662109</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45076751708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45402717590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44588088989258</t>
+    <t xml:space="preserve">8.45076847076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.454026222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44587802886963</t>
   </si>
   <si>
     <t xml:space="preserve">8.20959758758545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1981897354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33833122253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40676879882812</t>
+    <t xml:space="preserve">8.19819068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33833026885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40677070617676</t>
   </si>
   <si>
     <t xml:space="preserve">8.41654968261719</t>
@@ -3803,7 +3803,7 @@
     <t xml:space="preserve">8.39699363708496</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49639511108398</t>
+    <t xml:space="preserve">8.4963960647583</t>
   </si>
   <si>
     <t xml:space="preserve">8.49965476989746</t>
@@ -3812,13 +3812,13 @@
     <t xml:space="preserve">8.66260814666748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57950210571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62513065338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62838649749756</t>
+    <t xml:space="preserve">8.57950115203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62512874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62838745117188</t>
   </si>
   <si>
     <t xml:space="preserve">8.59090709686279</t>
@@ -3830,55 +3830,55 @@
     <t xml:space="preserve">8.88422393798828</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95429229736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9819974899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91518688201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83207225799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99490833282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23237323760986</t>
+    <t xml:space="preserve">8.95429420471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98199653625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91518497467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83207321166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99490642547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2323751449585</t>
   </si>
   <si>
     <t xml:space="preserve">9.24594306945801</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27138614654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48680210113525</t>
+    <t xml:space="preserve">9.27138519287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48680305480957</t>
   </si>
   <si>
     <t xml:space="preserve">9.55295372009277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65811824798584</t>
+    <t xml:space="preserve">9.65811634063721</t>
   </si>
   <si>
     <t xml:space="preserve">9.79211616516113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7378396987915</t>
+    <t xml:space="preserve">9.73783874511719</t>
   </si>
   <si>
     <t xml:space="preserve">9.87353515625</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0482416152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89388942718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82773590087891</t>
+    <t xml:space="preserve">10.0482425689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89388847351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82773780822754</t>
   </si>
   <si>
     <t xml:space="preserve">10.0567226409912</t>
@@ -3887,70 +3887,70 @@
     <t xml:space="preserve">10.182240486145</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1551027297974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0261907577515</t>
+    <t xml:space="preserve">10.1551036834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0261917114258</t>
   </si>
   <si>
     <t xml:space="preserve">10.1601905822754</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3535566329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3773031234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3230257034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4468460083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2907972335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2433052062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4129238128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4807710647583</t>
+    <t xml:space="preserve">10.3535575866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3773040771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3230247497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4468479156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2907981872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2433032989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4129228591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.480770111084</t>
   </si>
   <si>
     <t xml:space="preserve">10.4044418334961</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3162403106689</t>
+    <t xml:space="preserve">10.3162393569946</t>
   </si>
   <si>
     <t xml:space="preserve">10.5197830200195</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8098335266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6351232528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4994287490845</t>
+    <t xml:space="preserve">10.8098316192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.635124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4994297027588</t>
   </si>
   <si>
     <t xml:space="preserve">10.6520872116089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7470722198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7555551528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7029733657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7402877807617</t>
+    <t xml:space="preserve">10.7470731735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7555532455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7029714584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.740288734436</t>
   </si>
   <si>
     <t xml:space="preserve">10.725022315979</t>
@@ -3959,13 +3959,13 @@
     <t xml:space="preserve">10.6113777160645</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6402139663696</t>
+    <t xml:space="preserve">10.6402130126953</t>
   </si>
   <si>
     <t xml:space="preserve">10.6843137741089</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6792259216309</t>
+    <t xml:space="preserve">10.6792249679565</t>
   </si>
   <si>
     <t xml:space="preserve">10.5418338775635</t>
@@ -3974,40 +3974,40 @@
     <t xml:space="preserve">10.3196325302124</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4553289413452</t>
+    <t xml:space="preserve">10.4553279876709</t>
   </si>
   <si>
     <t xml:space="preserve">10.4909496307373</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4281883239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77854633331299</t>
+    <t xml:space="preserve">10.4281892776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7785472869873</t>
   </si>
   <si>
     <t xml:space="preserve">10.0075340270996</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0957355499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1262655258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1856346130371</t>
+    <t xml:space="preserve">10.0957345962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1262664794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1856336593628</t>
   </si>
   <si>
     <t xml:space="preserve">10.4247961044312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6588716506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5079097747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4027462005615</t>
+    <t xml:space="preserve">10.6588697433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5079107284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4027471542358</t>
   </si>
   <si>
     <t xml:space="preserve">10.351861000061</t>
@@ -4019,25 +4019,25 @@
     <t xml:space="preserve">10.3026704788208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1771516799927</t>
+    <t xml:space="preserve">10.1771535873413</t>
   </si>
   <si>
     <t xml:space="preserve">10.3450756072998</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2212543487549</t>
+    <t xml:space="preserve">10.2212533950806</t>
   </si>
   <si>
     <t xml:space="preserve">10.0363693237305</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3298120498657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3247213363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3806943893433</t>
+    <t xml:space="preserve">10.3298101425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3247222900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3806953430176</t>
   </si>
   <si>
     <t xml:space="preserve">10.42649269104</t>
@@ -4046,103 +4046,103 @@
     <t xml:space="preserve">10.4146194458008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.363733291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5231742858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6944923400879</t>
+    <t xml:space="preserve">10.3637342453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5231761932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6944904327393</t>
   </si>
   <si>
     <t xml:space="preserve">10.8183126449585</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7284145355225</t>
+    <t xml:space="preserve">10.7284154891968</t>
   </si>
   <si>
     <t xml:space="preserve">10.8471488952637</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7572498321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8641128540039</t>
+    <t xml:space="preserve">10.757251739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8641119003296</t>
   </si>
   <si>
     <t xml:space="preserve">11.0693492889404</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0456037521362</t>
+    <t xml:space="preserve">11.0456027984619</t>
   </si>
   <si>
     <t xml:space="preserve">11.1609439849854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2050457000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2542343139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3814496994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2711963653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1151456832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7589454650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1049680709839</t>
+    <t xml:space="preserve">11.2050437927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2542333602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3814487457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2711954116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1151475906372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7589464187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1049699783325</t>
   </si>
   <si>
     <t xml:space="preserve">11.4357280731201</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7139024734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.512056350708</t>
+    <t xml:space="preserve">11.713903427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5120573043823</t>
   </si>
   <si>
     <t xml:space="preserve">11.2864627838135</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4119806289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3271713256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2694997787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323329925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1829948425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0557804107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2389698028564</t>
+    <t xml:space="preserve">11.411979675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3271703720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2695016860962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.432333946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1829957962036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0557813644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2389688491821</t>
   </si>
   <si>
     <t xml:space="preserve">11.2779817581177</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4730443954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.300030708313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1711206436157</t>
+    <t xml:space="preserve">11.4730434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3000326156616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1711225509644</t>
   </si>
   <si>
     <t xml:space="preserve">11.3085136413574</t>
@@ -4154,52 +4154,52 @@
     <t xml:space="preserve">11.2915515899658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.442512512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3865375518799</t>
+    <t xml:space="preserve">11.4425115585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3865365982056</t>
   </si>
   <si>
     <t xml:space="preserve">11.3322591781616</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6867628097534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7308645248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0870637893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3228349685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7596988677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9014282226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3695764541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5934734344482</t>
+    <t xml:space="preserve">11.6867637634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7308654785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.087064743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3228359222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7597007751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9014272689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3695755004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5934743881226</t>
   </si>
   <si>
     <t xml:space="preserve">11.5358028411865</t>
   </si>
   <si>
-    <t xml:space="preserve">11.113450050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0065908432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9607934951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8301858901978</t>
+    <t xml:space="preserve">11.1134510040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0065898895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9607915878296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8301877975464</t>
   </si>
   <si>
     <t xml:space="preserve">11.1185388565063</t>
@@ -4211,40 +4211,40 @@
     <t xml:space="preserve">11.213526725769</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4187660217285</t>
+    <t xml:space="preserve">11.4187641143799</t>
   </si>
   <si>
     <t xml:space="preserve">11.2559309005737</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1066656112671</t>
+    <t xml:space="preserve">11.1066665649414</t>
   </si>
   <si>
     <t xml:space="preserve">11.3492221832275</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2745876312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3763608932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4001092910767</t>
+    <t xml:space="preserve">11.2745885848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3763589859009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.400107383728</t>
   </si>
   <si>
     <t xml:space="preserve">11.4560832977295</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3543090820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2474498748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7189912796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7003316879272</t>
+    <t xml:space="preserve">11.3543109893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2474508285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7189903259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7003326416016</t>
   </si>
   <si>
     <t xml:space="preserve">12.0209131240845</t>
@@ -4253,22 +4253,22 @@
     <t xml:space="preserve">12.0429649353027</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0005588531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0667114257812</t>
+    <t xml:space="preserve">12.0005598068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0667095184326</t>
   </si>
   <si>
     <t xml:space="preserve">11.8733444213867</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5171432495117</t>
+    <t xml:space="preserve">11.5171451568604</t>
   </si>
   <si>
     <t xml:space="preserve">10.9658823013306</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9896278381348</t>
+    <t xml:space="preserve">10.9896287918091</t>
   </si>
   <si>
     <t xml:space="preserve">11.1592483520508</t>
@@ -4277,34 +4277,34 @@
     <t xml:space="preserve">11.3560066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1948671340942</t>
+    <t xml:space="preserve">11.1948680877686</t>
   </si>
   <si>
     <t xml:space="preserve">11.534107208252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4577779769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5374994277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0914011001587</t>
+    <t xml:space="preserve">11.4577789306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5374984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0914001464844</t>
   </si>
   <si>
     <t xml:space="preserve">11.2440576553345</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5510683059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5680313110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7257766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.815673828125</t>
+    <t xml:space="preserve">11.5510692596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5680303573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.725775718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8156747817993</t>
   </si>
   <si>
     <t xml:space="preserve">11.6918535232544</t>
@@ -4313,10 +4313,10 @@
     <t xml:space="preserve">11.7800540924072</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0023527145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9113321304321</t>
+    <t xml:space="preserve">12.0023508071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9113330841064</t>
   </si>
   <si>
     <t xml:space="preserve">12.3576793670654</t>
@@ -4340,7 +4340,7 @@
     <t xml:space="preserve">12.3156700134277</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4784555435181</t>
+    <t xml:space="preserve">12.4784564971924</t>
   </si>
   <si>
     <t xml:space="preserve">12.6307392120361</t>
@@ -4358,28 +4358,28 @@
     <t xml:space="preserve">11.5875120162964</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3582134246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5262498855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5997648239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0326414108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5110301971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5407848358154</t>
+    <t xml:space="preserve">11.358211517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5262508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5997638702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.032642364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5110282897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5407857894897</t>
   </si>
   <si>
     <t xml:space="preserve">10.5722923278809</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2047119140625</t>
+    <t xml:space="preserve">10.2047128677368</t>
   </si>
   <si>
     <t xml:space="preserve">10.0034198760986</t>
@@ -4388,16 +4388,16 @@
     <t xml:space="preserve">10.2099647521973</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0646820068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1539516448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91415023803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82663059234619</t>
+    <t xml:space="preserve">10.0646829605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1539506912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91414928436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82662868499756</t>
   </si>
   <si>
     <t xml:space="preserve">10.0629320144653</t>
@@ -4406,19 +4406,19 @@
     <t xml:space="preserve">9.480055809021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41353988647461</t>
+    <t xml:space="preserve">9.41354084014893</t>
   </si>
   <si>
     <t xml:space="preserve">9.66734504699707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82488059997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80212497711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74786376953125</t>
+    <t xml:space="preserve">9.82487964630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80212593078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74786281585693</t>
   </si>
   <si>
     <t xml:space="preserve">9.72860908508301</t>
@@ -4430,40 +4430,40 @@
     <t xml:space="preserve">9.48530673980713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63933944702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89314651489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77937126159668</t>
+    <t xml:space="preserve">9.6393404006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89314556121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77937030792236</t>
   </si>
   <si>
     <t xml:space="preserve">9.6270866394043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60083103179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68134880065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64459037780762</t>
+    <t xml:space="preserve">9.60083293914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6813497543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64459228515625</t>
   </si>
   <si>
     <t xml:space="preserve">9.70760345458984</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2537231445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2414712905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0156726837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97716331481934</t>
+    <t xml:space="preserve">10.2537221908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2414703369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0156707763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97716426849365</t>
   </si>
   <si>
     <t xml:space="preserve">9.96841144561768</t>
@@ -4487,25 +4487,25 @@
     <t xml:space="preserve">10.1784563064575</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1329460144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.232720375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4445161819458</t>
+    <t xml:space="preserve">10.1329479217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2327184677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4445142745972</t>
   </si>
   <si>
     <t xml:space="preserve">10.3009843826294</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4672698974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.859354019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7245740890503</t>
+    <t xml:space="preserve">10.4672689437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8593549728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7245759963989</t>
   </si>
   <si>
     <t xml:space="preserve">10.945122718811</t>
@@ -4514,43 +4514,43 @@
     <t xml:space="preserve">10.7788372039795</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9398727416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7088212966919</t>
+    <t xml:space="preserve">10.9398717880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7088222503662</t>
   </si>
   <si>
     <t xml:space="preserve">10.3342409133911</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2624750137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.577543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7560815811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4602680206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1679544448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1364479064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2239656448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4532661437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3587465286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3359909057617</t>
+    <t xml:space="preserve">10.2624740600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5775451660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.75608253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4602661132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1679534912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1364469528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2239665985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4532680511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3587455749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3359928131104</t>
   </si>
   <si>
     <t xml:space="preserve">10.0996904373169</t>
@@ -4559,25 +4559,25 @@
     <t xml:space="preserve">10.0156717300415</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94071483612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1191835403442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6391019821167</t>
+    <t xml:space="preserve">9.94071388244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1191816329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63910293579102</t>
   </si>
   <si>
     <t xml:space="preserve">9.57842350006104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59448528289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62482643127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73547554016113</t>
+    <t xml:space="preserve">9.59448337554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6248254776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73547649383545</t>
   </si>
   <si>
     <t xml:space="preserve">10.0317325592041</t>
@@ -4586,7 +4586,7 @@
     <t xml:space="preserve">10.2976531982422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4618434906006</t>
+    <t xml:space="preserve">10.4618453979492</t>
   </si>
   <si>
     <t xml:space="preserve">10.4671974182129</t>
@@ -4595,10 +4595,10 @@
     <t xml:space="preserve">10.5653562545776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5135984420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3244218826294</t>
+    <t xml:space="preserve">10.513599395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3244228363037</t>
   </si>
   <si>
     <t xml:space="preserve">10.1691560745239</t>
@@ -4607,79 +4607,79 @@
     <t xml:space="preserve">10.4297180175781</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5867729187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5885572433472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.792010307312</t>
+    <t xml:space="preserve">10.5867719650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5885562896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7920112609863</t>
   </si>
   <si>
     <t xml:space="preserve">10.7598857879639</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0240211486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9954652786255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.140025138855</t>
+    <t xml:space="preserve">11.0240201950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9954662322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1400260925293</t>
   </si>
   <si>
     <t xml:space="preserve">11.5273036956787</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7218332290649</t>
+    <t xml:space="preserve">11.7218341827393</t>
   </si>
   <si>
     <t xml:space="preserve">11.827130317688</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0145235061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0734186172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2429628372192</t>
+    <t xml:space="preserve">12.0145225524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0734176635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2429618835449</t>
   </si>
   <si>
     <t xml:space="preserve">12.5017433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7319660186768</t>
+    <t xml:space="preserve">12.7319669723511</t>
   </si>
   <si>
     <t xml:space="preserve">12.6837816238403</t>
   </si>
   <si>
-    <t xml:space="preserve">12.512451171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5552835464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7408885955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9157915115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.917573928833</t>
+    <t xml:space="preserve">12.5124521255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5552825927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7408905029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9157905578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9175748825073</t>
   </si>
   <si>
     <t xml:space="preserve">12.8122787475586</t>
   </si>
   <si>
-    <t xml:space="preserve">12.569561958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6605787277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1856279373169</t>
+    <t xml:space="preserve">12.5695610046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6605806350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1856269836426</t>
   </si>
   <si>
     <t xml:space="preserve">12.7367181777954</t>
@@ -4694,16 +4694,16 @@
     <t xml:space="preserve">12.9596920013428</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7059001922607</t>
+    <t xml:space="preserve">12.7058992385864</t>
   </si>
   <si>
     <t xml:space="preserve">12.8672399520874</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9832601547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7711601257324</t>
+    <t xml:space="preserve">12.9832592010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7711610794067</t>
   </si>
   <si>
     <t xml:space="preserve">12.5916938781738</t>
@@ -4712,73 +4712,73 @@
     <t xml:space="preserve">12.5391216278076</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3650941848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1783761978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2581396102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2599515914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3342771530151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5209941864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.336088180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8285055160522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6925458908081</t>
+    <t xml:space="preserve">12.3650951385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1783771514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2581386566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.259952545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3342761993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5209951400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3360900878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8285074234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6925468444824</t>
   </si>
   <si>
     <t xml:space="preserve">11.7741212844849</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7831869125366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2019414901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1239929199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2146320343018</t>
+    <t xml:space="preserve">11.7831859588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.201943397522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1239919662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2146329879761</t>
   </si>
   <si>
     <t xml:space="preserve">12.2780790328979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2436380386353</t>
+    <t xml:space="preserve">12.2436370849609</t>
   </si>
   <si>
     <t xml:space="preserve">12.3197736740112</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0424175262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.424916267395</t>
+    <t xml:space="preserve">12.0424165725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4249172210693</t>
   </si>
   <si>
     <t xml:space="preserve">12.4956169128418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.305272102356</t>
+    <t xml:space="preserve">12.3052730560303</t>
   </si>
   <si>
     <t xml:space="preserve">12.5427494049072</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6388273239136</t>
+    <t xml:space="preserve">12.6388254165649</t>
   </si>
   <si>
     <t xml:space="preserve">12.6660184860229</t>
@@ -4787,10 +4787,10 @@
     <t xml:space="preserve">12.9071207046509</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0666475296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0720853805542</t>
+    <t xml:space="preserve">13.0666456222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0720863342285</t>
   </si>
   <si>
     <t xml:space="preserve">12.9868841171265</t>
@@ -4799,7 +4799,7 @@
     <t xml:space="preserve">13.0267648696899</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1065282821655</t>
+    <t xml:space="preserve">13.1065292358398</t>
   </si>
   <si>
     <t xml:space="preserve">12.919810295105</t>
@@ -4808,22 +4808,22 @@
     <t xml:space="preserve">13.1029033660889</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0521440505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8527383804321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.758472442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8690528869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9542541503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8436727523804</t>
+    <t xml:space="preserve">13.0521450042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8527364730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7584714889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8690509796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.954252243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8436717987061</t>
   </si>
   <si>
     <t xml:space="preserve">12.8128547668457</t>
@@ -4835,22 +4835,22 @@
     <t xml:space="preserve">12.4629859924316</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5481863021851</t>
+    <t xml:space="preserve">12.5481872558594</t>
   </si>
   <si>
     <t xml:space="preserve">12.4140405654907</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6043844223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8346080780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0013866424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3693828582764</t>
+    <t xml:space="preserve">12.6043834686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8346099853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0013856887817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.369384765625</t>
   </si>
   <si>
     <t xml:space="preserve">13.3856992721558</t>
@@ -4862,7 +4862,7 @@
     <t xml:space="preserve">13.3150005340576</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3367538452148</t>
+    <t xml:space="preserve">13.3367547988892</t>
   </si>
   <si>
     <t xml:space="preserve">12.9615058898926</t>
@@ -4871,19 +4871,19 @@
     <t xml:space="preserve">13.0068254470825</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9324998855591</t>
+    <t xml:space="preserve">12.9324989318848</t>
   </si>
   <si>
     <t xml:space="preserve">12.7929153442383</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1076774597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9572134017944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1457452774048</t>
+    <t xml:space="preserve">12.1076765060425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9572143554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1457462310791</t>
   </si>
   <si>
     <t xml:space="preserve">12.1149282455444</t>
@@ -4895,58 +4895,58 @@
     <t xml:space="preserve">12.0949869155884</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1765632629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2690143585205</t>
+    <t xml:space="preserve">12.1765623092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2690162658691</t>
   </si>
   <si>
     <t xml:space="preserve">12.1656866073608</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1620616912842</t>
+    <t xml:space="preserve">12.1620607376099</t>
   </si>
   <si>
     <t xml:space="preserve">12.1384944915771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1729383468628</t>
+    <t xml:space="preserve">12.1729373931885</t>
   </si>
   <si>
     <t xml:space="preserve">11.7143001556396</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8194417953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.157772064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0236234664917</t>
+    <t xml:space="preserve">11.8194408416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1577711105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.023624420166</t>
   </si>
   <si>
     <t xml:space="preserve">11.2673215866089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5054807662964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.518404006958</t>
+    <t xml:space="preserve">11.5054798126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5184030532837</t>
   </si>
   <si>
     <t xml:space="preserve">11.4962501525879</t>
   </si>
   <si>
-    <t xml:space="preserve">11.235936164856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3614768981934</t>
+    <t xml:space="preserve">11.2359352111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.361475944519</t>
   </si>
   <si>
     <t xml:space="preserve">11.5811738967896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.699330329895</t>
+    <t xml:space="preserve">11.6993293762207</t>
   </si>
   <si>
     <t xml:space="preserve">11.8950271606445</t>
@@ -4958,25 +4958,25 @@
     <t xml:space="preserve">12.3990383148193</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2864217758179</t>
+    <t xml:space="preserve">12.2864208221436</t>
   </si>
   <si>
     <t xml:space="preserve">12.4008846282959</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4987325668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7239685058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6150436401367</t>
+    <t xml:space="preserve">12.4987335205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7239694595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6150426864624</t>
   </si>
   <si>
     <t xml:space="preserve">12.7978162765503</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7405834197998</t>
+    <t xml:space="preserve">12.7405853271484</t>
   </si>
   <si>
     <t xml:space="preserve">12.8125858306885</t>
@@ -4985,7 +4985,7 @@
     <t xml:space="preserve">12.821816444397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6962757110596</t>
+    <t xml:space="preserve">12.6962747573853</t>
   </si>
   <si>
     <t xml:space="preserve">12.5393486022949</t>
@@ -4994,22 +4994,22 @@
     <t xml:space="preserve">12.7073526382446</t>
   </si>
   <si>
-    <t xml:space="preserve">12.755352973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5670413970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6888904571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4451932907104</t>
+    <t xml:space="preserve">12.7553548812866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.567042350769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6888914108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4451923370361</t>
   </si>
   <si>
     <t xml:space="preserve">12.157187461853</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0353384017944</t>
+    <t xml:space="preserve">12.0353374481201</t>
   </si>
   <si>
     <t xml:space="preserve">11.9762601852417</t>
@@ -5018,22 +5018,22 @@
     <t xml:space="preserve">12.5264253616333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5947341918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4802703857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1793403625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3565759658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3196516036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2125730514526</t>
+    <t xml:space="preserve">12.5947351455688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4802713394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1793413162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.356575012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3196506500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.212571144104</t>
   </si>
   <si>
     <t xml:space="preserve">12.3658065795898</t>
@@ -5045,13 +5045,13 @@
     <t xml:space="preserve">12.4156541824341</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4531917572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5414066314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5451593399048</t>
+    <t xml:space="preserve">12.4531927108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5414056777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5451602935791</t>
   </si>
   <si>
     <t xml:space="preserve">12.2429790496826</t>
@@ -5063,7 +5063,7 @@
     <t xml:space="preserve">12.402515411377</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1115970611572</t>
+    <t xml:space="preserve">12.1115980148315</t>
   </si>
   <si>
     <t xml:space="preserve">11.6836652755737</t>
@@ -5072,7 +5072,7 @@
     <t xml:space="preserve">12.0008602142334</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3330717086792</t>
+    <t xml:space="preserve">12.3330707550049</t>
   </si>
   <si>
     <t xml:space="preserve">12.2955322265625</t>
@@ -5087,16 +5087,16 @@
     <t xml:space="preserve">12.3086709976196</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0402755737305</t>
+    <t xml:space="preserve">12.0402746200562</t>
   </si>
   <si>
     <t xml:space="preserve">12.1622734069824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.186674118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2467336654663</t>
+    <t xml:space="preserve">12.1866731643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2467346191406</t>
   </si>
   <si>
     <t xml:space="preserve">12.1791648864746</t>
@@ -5105,37 +5105,37 @@
     <t xml:space="preserve">12.1904268264771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.027135848999</t>
+    <t xml:space="preserve">12.0271368026733</t>
   </si>
   <si>
     <t xml:space="preserve">12.2617492675781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.092827796936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0083665847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1416273117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.961446762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0139980316162</t>
+    <t xml:space="preserve">12.0928268432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0083675384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1416263580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9614458084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0139989852905</t>
   </si>
   <si>
     <t xml:space="preserve">12.0947046279907</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3706083297729</t>
+    <t xml:space="preserve">12.3706092834473</t>
   </si>
   <si>
     <t xml:space="preserve">12.5864505767822</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6352510452271</t>
+    <t xml:space="preserve">12.6352500915527</t>
   </si>
   <si>
     <t xml:space="preserve">12.5470361709595</t>
@@ -5144,22 +5144,22 @@
     <t xml:space="preserve">12.2317190170288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.248610496521</t>
+    <t xml:space="preserve">12.2486095428467</t>
   </si>
   <si>
     <t xml:space="preserve">12.3124256134033</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4194087982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7009420394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7816486358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5995893478394</t>
+    <t xml:space="preserve">12.4194068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7009429931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7816476821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.599588394165</t>
   </si>
   <si>
     <t xml:space="preserve">12.4757137298584</t>
@@ -5174,28 +5174,28 @@
     <t xml:space="preserve">12.8004179000854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9580764770508</t>
+    <t xml:space="preserve">12.9580755233765</t>
   </si>
   <si>
     <t xml:space="preserve">12.8661079406738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7534942626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.884877204895</t>
+    <t xml:space="preserve">12.7534952163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8848781585693</t>
   </si>
   <si>
     <t xml:space="preserve">12.8173093795776</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0293989181519</t>
+    <t xml:space="preserve">13.0293979644775</t>
   </si>
   <si>
     <t xml:space="preserve">12.9280462265015</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8248167037964</t>
+    <t xml:space="preserve">12.8248176574707</t>
   </si>
   <si>
     <t xml:space="preserve">12.879246711731</t>
@@ -5204,16 +5204,16 @@
     <t xml:space="preserve">12.8360786437988</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7872791290283</t>
+    <t xml:space="preserve">12.7872800827026</t>
   </si>
   <si>
     <t xml:space="preserve">13.2020721435547</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2565031051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1833038330078</t>
+    <t xml:space="preserve">13.2565021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1833047866821</t>
   </si>
   <si>
     <t xml:space="preserve">13.1513967514038</t>
@@ -5222,25 +5222,25 @@
     <t xml:space="preserve">13.072566986084</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1138591766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1701650619507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2227182388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2452421188354</t>
+    <t xml:space="preserve">13.1138582229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.170166015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2227191925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2452411651611</t>
   </si>
   <si>
     <t xml:space="preserve">13.2077035903931</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2583799362183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2827787399292</t>
+    <t xml:space="preserve">13.2583789825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2827796936035</t>
   </si>
   <si>
     <t xml:space="preserve">13.4179153442383</t>
@@ -5249,16 +5249,16 @@
     <t xml:space="preserve">13.4723453521729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4836072921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4047765731812</t>
+    <t xml:space="preserve">13.483606338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4047784805298</t>
   </si>
   <si>
     <t xml:space="preserve">13.6431427001953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7032032012939</t>
+    <t xml:space="preserve">13.7032041549683</t>
   </si>
   <si>
     <t xml:space="preserve">13.9209232330322</t>
@@ -5273,25 +5273,25 @@
     <t xml:space="preserve">13.8871383666992</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1255035400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1724262237549</t>
+    <t xml:space="preserve">14.1255054473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1724271774292</t>
   </si>
   <si>
     <t xml:space="preserve">14.1911954879761</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4239301681519</t>
+    <t xml:space="preserve">14.4239311218262</t>
   </si>
   <si>
     <t xml:space="preserve">14.3920240402222</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2757129669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5865106582642</t>
+    <t xml:space="preserve">14.2757120132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5865097045898</t>
   </si>
   <si>
     <t xml:space="preserve">14.5254945755005</t>
@@ -5321,22 +5321,22 @@
     <t xml:space="preserve">14.2051630020142</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0411834716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.82190990448</t>
+    <t xml:space="preserve">14.041184425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8219108581543</t>
   </si>
   <si>
     <t xml:space="preserve">13.7666139602661</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9572877883911</t>
+    <t xml:space="preserve">13.9572887420654</t>
   </si>
   <si>
     <t xml:space="preserve">14.2738056182861</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4435052871704</t>
+    <t xml:space="preserve">14.4435043334961</t>
   </si>
   <si>
     <t xml:space="preserve">14.3824901580811</t>
@@ -5345,16 +5345,16 @@
     <t xml:space="preserve">14.5826959609985</t>
   </si>
   <si>
-    <t xml:space="preserve">14.775276184082</t>
+    <t xml:space="preserve">14.7752771377563</t>
   </si>
   <si>
     <t xml:space="preserve">14.7581157684326</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8076915740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9106559753418</t>
+    <t xml:space="preserve">14.8076906204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9106550216675</t>
   </si>
   <si>
     <t xml:space="preserve">14.7314214706421</t>
@@ -5372,10 +5372,10 @@
     <t xml:space="preserve">14.7600231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7867164611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6475257873535</t>
+    <t xml:space="preserve">14.786717414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6475248336792</t>
   </si>
   <si>
     <t xml:space="preserve">14.7085409164429</t>
@@ -5390,13 +5390,13 @@
     <t xml:space="preserve">14.6856603622437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3119411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.134614944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.239483833313</t>
+    <t xml:space="preserve">14.3119401931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1346139907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2394847869873</t>
   </si>
   <si>
     <t xml:space="preserve">14.2985935211182</t>
@@ -5408,16 +5408,16 @@
     <t xml:space="preserve">14.5388422012329</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4816398620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1670274734497</t>
+    <t xml:space="preserve">14.4816389083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.167028427124</t>
   </si>
   <si>
     <t xml:space="preserve">14.5307540893555</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4591073989868</t>
+    <t xml:space="preserve">14.4591064453125</t>
   </si>
   <si>
     <t xml:space="preserve">14.2557849884033</t>
@@ -5426,25 +5426,25 @@
     <t xml:space="preserve">14.4610433578491</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5888452529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5520534515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7147121429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.62757396698</t>
+    <t xml:space="preserve">14.588846206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5520544052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.71471118927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6275730133057</t>
   </si>
   <si>
     <t xml:space="preserve">14.6856660842896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7650575637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4842805862427</t>
+    <t xml:space="preserve">14.7650585174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4842796325684</t>
   </si>
   <si>
     <t xml:space="preserve">14.610146522522</t>
@@ -5462,7 +5462,7 @@
     <t xml:space="preserve">14.5075168609619</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3332405090332</t>
+    <t xml:space="preserve">14.3332414627075</t>
   </si>
   <si>
     <t xml:space="preserve">14.2809581756592</t>
@@ -5471,16 +5471,16 @@
     <t xml:space="preserve">14.3758411407471</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429222106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5152616500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5481805801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7205209732056</t>
+    <t xml:space="preserve">14.3429231643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5152626037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5481815338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7205219268799</t>
   </si>
   <si>
     <t xml:space="preserve">14.7166481018066</t>
@@ -5489,7 +5489,7 @@
     <t xml:space="preserve">14.8018493652344</t>
   </si>
   <si>
-    <t xml:space="preserve">14.945143699646</t>
+    <t xml:space="preserve">14.9451427459717</t>
   </si>
   <si>
     <t xml:space="preserve">14.8696241378784</t>
@@ -5504,25 +5504,25 @@
     <t xml:space="preserve">14.9470796585083</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0264720916748</t>
+    <t xml:space="preserve">15.0264730453491</t>
   </si>
   <si>
     <t xml:space="preserve">15.0458364486694</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6004638671875</t>
+    <t xml:space="preserve">14.6004648208618</t>
   </si>
   <si>
     <t xml:space="preserve">14.4494247436523</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4106969833374</t>
+    <t xml:space="preserve">14.4106960296631</t>
   </si>
   <si>
     <t xml:space="preserve">14.3409862518311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5636720657349</t>
+    <t xml:space="preserve">14.5636730194092</t>
   </si>
   <si>
     <t xml:space="preserve">14.5191354751587</t>
@@ -5540,19 +5540,19 @@
     <t xml:space="preserve">13.9904975891113</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8839960098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9014225006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0292253494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1028089523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2867670059204</t>
+    <t xml:space="preserve">13.8839950561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9014234542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0292263031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1028099060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2867660522461</t>
   </si>
   <si>
     <t xml:space="preserve">14.4455518722534</t>
@@ -5567,13 +5567,13 @@
     <t xml:space="preserve">13.9169139862061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1376638412476</t>
+    <t xml:space="preserve">14.1376647949219</t>
   </si>
   <si>
     <t xml:space="preserve">13.9130411148071</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9091691970825</t>
+    <t xml:space="preserve">13.9091682434082</t>
   </si>
   <si>
     <t xml:space="preserve">13.8394584655762</t>
@@ -5585,13 +5585,13 @@
     <t xml:space="preserve">14.009861946106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.040843963623</t>
+    <t xml:space="preserve">14.0408449172974</t>
   </si>
   <si>
     <t xml:space="preserve">14.1396007537842</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7039098739624</t>
+    <t xml:space="preserve">13.7039108276367</t>
   </si>
   <si>
     <t xml:space="preserve">13.7194013595581</t>
@@ -5600,7 +5600,7 @@
     <t xml:space="preserve">13.6826095581055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.847204208374</t>
+    <t xml:space="preserve">13.8472032546997</t>
   </si>
   <si>
     <t xml:space="preserve">13.7774934768677</t>
@@ -5624,7 +5624,7 @@
     <t xml:space="preserve">13.8723773956299</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9304685592651</t>
+    <t xml:space="preserve">13.9304695129395</t>
   </si>
   <si>
     <t xml:space="preserve">14.0466537475586</t>
@@ -5633,25 +5633,25 @@
     <t xml:space="preserve">14.1628379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1667108535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2344837188721</t>
+    <t xml:space="preserve">14.1667098999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2344846725464</t>
   </si>
   <si>
     <t xml:space="preserve">14.0950632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2248029708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5017070770264</t>
+    <t xml:space="preserve">14.2248020172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5017080307007</t>
   </si>
   <si>
     <t xml:space="preserve">14.0602083206177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.044716835022</t>
+    <t xml:space="preserve">14.0447158813477</t>
   </si>
   <si>
     <t xml:space="preserve">13.9954919815063</t>
@@ -5856,6 +5856,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.2360000610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2399997711182</t>
   </si>
 </sst>
 </file>
@@ -62305,7 +62308,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.649525463</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>10191772</v>
@@ -62326,6 +62329,32 @@
         <v>1947</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6494328704</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>8612283</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>14.3739995956421</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>14.206000328064</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>14.2659997940063</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>14.2399997711182</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENI.MI.xlsx
+++ b/data/ENI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="1956">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95016098022461</t>
+    <t xml:space="preserve">7.95015954971313</t>
   </si>
   <si>
     <t xml:space="preserve">ENI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02119541168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79624891281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73705101013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51802206039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48842096328735</t>
+    <t xml:space="preserve">8.02119636535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79624700546265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7370491027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51802158355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48842239379883</t>
   </si>
   <si>
     <t xml:space="preserve">7.5061821937561</t>
@@ -65,121 +65,121 @@
     <t xml:space="preserve">7.59497737884521</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70152997970581</t>
+    <t xml:space="preserve">7.70153188705444</t>
   </si>
   <si>
     <t xml:space="preserve">7.42922592163086</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34634923934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44698619842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19835758209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67785406112671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58313798904419</t>
+    <t xml:space="preserve">7.34634971618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44698429107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19835567474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67785358428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58313989639282</t>
   </si>
   <si>
     <t xml:space="preserve">7.74296951293945</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77848863601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86136341094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40554666519165</t>
+    <t xml:space="preserve">7.77849006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86136388778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40554714202881</t>
   </si>
   <si>
     <t xml:space="preserve">7.37594938278198</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54169845581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41738796234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15099811553955</t>
+    <t xml:space="preserve">7.54169893264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4173846244812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15100002288818</t>
   </si>
   <si>
     <t xml:space="preserve">6.86685466766357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88461303710938</t>
+    <t xml:space="preserve">6.88461208343506</t>
   </si>
   <si>
     <t xml:space="preserve">6.47023439407349</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90237188339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06812286376953</t>
+    <t xml:space="preserve">6.90237236022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06812429428101</t>
   </si>
   <si>
     <t xml:space="preserve">7.01484727859497</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23979520797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08588409423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05628538131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31083154678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97340822219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1569185256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52394104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66601467132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90280103683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96199893951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06855583190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01527690887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04487419128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84360599517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93240070343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66009473800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88504362106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92648029327393</t>
+    <t xml:space="preserve">7.23979425430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08588218688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05628490447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31083297729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97340869903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15691900253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52394151687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66601181030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90280151367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.961998462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06855392456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0152759552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04487609863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84360504150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9323992729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6600923538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88504266738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92648124694824</t>
   </si>
   <si>
     <t xml:space="preserve">7.81400680541992</t>
@@ -188,121 +188,121 @@
     <t xml:space="preserve">7.91464138031006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05671405792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12774848937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16919040679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97383832931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78440618515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00343894958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87320184707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57129907608032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55353975296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36410808563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44106531143188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29307270050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6068172454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63049602508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67193460464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97975635528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12183094024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99159574508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09223175048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22246646881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32902240753174</t>
+    <t xml:space="preserve">8.05671310424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12775039672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16918849945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97383737564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78440809249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00343608856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87320470809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57130002975464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55353736877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36410903930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44106483459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29307079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60681581497192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63049554824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67193412780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97975826263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12183284759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99159812927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0922327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22246742248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32902050018311</t>
   </si>
   <si>
     <t xml:space="preserve">8.37637805938721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33493804931641</t>
+    <t xml:space="preserve">8.33493900299072</t>
   </si>
   <si>
     <t xml:space="preserve">8.37045860290527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44741535186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52437114715576</t>
+    <t xml:space="preserve">8.44741344451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52436923980713</t>
   </si>
   <si>
     <t xml:space="preserve">8.40597724914551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25798416137695</t>
+    <t xml:space="preserve">8.25798320770264</t>
   </si>
   <si>
     <t xml:space="preserve">8.08631229400635</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92055940628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03303623199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10407161712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80808639526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90189170837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14596462249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42665004730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46936130523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43885231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50597476959229</t>
+    <t xml:space="preserve">7.92055988311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.033034324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10407066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80808687210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90188932418823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14596366882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42665100097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46936225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43885326385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50597381591797</t>
   </si>
   <si>
     <t xml:space="preserve">8.37783432006836</t>
@@ -311,28 +311,28 @@
     <t xml:space="preserve">8.26189994812012</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25579643249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18867969512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40224266052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59750366210938</t>
+    <t xml:space="preserve">8.25579738616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18867683410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40224170684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59750080108643</t>
   </si>
   <si>
     <t xml:space="preserve">8.62190914154053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57919788360596</t>
+    <t xml:space="preserve">8.57919692993164</t>
   </si>
   <si>
     <t xml:space="preserve">8.20698261260986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0544376373291</t>
+    <t xml:space="preserve">8.05443668365479</t>
   </si>
   <si>
     <t xml:space="preserve">8.15816879272461</t>
@@ -341,25 +341,25 @@
     <t xml:space="preserve">8.07274150848389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39003849029541</t>
+    <t xml:space="preserve">8.39003944396973</t>
   </si>
   <si>
     <t xml:space="preserve">8.64021492004395</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75004863739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61580562591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89649295806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0788459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33512210845947</t>
+    <t xml:space="preserve">8.75004768371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61580657958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89649200439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07884502410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33512115478516</t>
   </si>
   <si>
     <t xml:space="preserve">8.72564029693604</t>
@@ -374,55 +374,55 @@
     <t xml:space="preserve">8.79276084899902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62801074981689</t>
+    <t xml:space="preserve">8.62800979614258</t>
   </si>
   <si>
     <t xml:space="preserve">8.67682552337646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84767818450928</t>
+    <t xml:space="preserve">8.84767723083496</t>
   </si>
   <si>
     <t xml:space="preserve">8.95140838623047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03683280944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.927001953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0917501449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98191833496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88428783416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85377788543701</t>
+    <t xml:space="preserve">9.03683471679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92700099945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09175109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98191738128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88428974151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85377883911133</t>
   </si>
   <si>
     <t xml:space="preserve">8.76835155487061</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71953678131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68292808532715</t>
+    <t xml:space="preserve">8.71953773498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68292617797852</t>
   </si>
   <si>
     <t xml:space="preserve">8.56089115142822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56699085235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34122371673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34732818603516</t>
+    <t xml:space="preserve">8.56699275970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34122276306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34732627868652</t>
   </si>
   <si>
     <t xml:space="preserve">8.18257617950439</t>
@@ -431,37 +431,37 @@
     <t xml:space="preserve">8.01172542572021</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06663990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08494663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28020477294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26800155639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2435941696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35952949523926</t>
+    <t xml:space="preserve">8.06664180755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08494567871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28020572662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2680025100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24359512329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35952758789062</t>
   </si>
   <si>
     <t xml:space="preserve">8.38393592834473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21918678283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20088195800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31071376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30461311340332</t>
+    <t xml:space="preserve">8.2191858291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2008810043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31071281433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.304612159729</t>
   </si>
   <si>
     <t xml:space="preserve">8.37173366546631</t>
@@ -473,31 +473,31 @@
     <t xml:space="preserve">7.99951982498169</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06053924560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8774847984314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99712610244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85229587554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87748289108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96564197540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93415546417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78932428359985</t>
+    <t xml:space="preserve">8.02392768859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06053829193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87748241424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99712562561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85229730606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87748432159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96564149856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93415689468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78932523727417</t>
   </si>
   <si>
     <t xml:space="preserve">7.75154495239258</t>
@@ -512,127 +512,127 @@
     <t xml:space="preserve">8.07268810272217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11676692962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16714572906494</t>
+    <t xml:space="preserve">8.1167688369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16714286804199</t>
   </si>
   <si>
     <t xml:space="preserve">8.35605144500732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36864566802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56385231018066</t>
+    <t xml:space="preserve">8.3686466217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56385326385498</t>
   </si>
   <si>
     <t xml:space="preserve">8.40013122558594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34345722198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28678607940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45050811767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38123989105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5323657989502</t>
+    <t xml:space="preserve">8.34345626831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28678417205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45050621032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38124084472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53236675262451</t>
   </si>
   <si>
     <t xml:space="preserve">8.5575532913208</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64571189880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67089939117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61422920227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52606964111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65830516815186</t>
+    <t xml:space="preserve">8.64571094512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67090034484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61422634124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5260705947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65830612182617</t>
   </si>
   <si>
     <t xml:space="preserve">8.50717926025391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31826972961426</t>
+    <t xml:space="preserve">8.31827068328857</t>
   </si>
   <si>
     <t xml:space="preserve">8.18603420257568</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06639385223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00342273712158</t>
+    <t xml:space="preserve">8.06639289855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0034236907959</t>
   </si>
   <si>
     <t xml:space="preserve">7.92785978317261</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04120540618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09157848358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06009483337402</t>
+    <t xml:space="preserve">8.04120349884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09158039093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06009578704834</t>
   </si>
   <si>
     <t xml:space="preserve">8.02861022949219</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90267086029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72005987167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87118577957153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82081127166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79562473297119</t>
+    <t xml:space="preserve">7.90267372131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72006034851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87118911743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82081079483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79562425613403</t>
   </si>
   <si>
     <t xml:space="preserve">7.91526508331299</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92156171798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97193622589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27419185638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57014846801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62052345275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79054069519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87869834899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9605598449707</t>
+    <t xml:space="preserve">7.92156219482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9719386100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27419376373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57014751434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62052249908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79054355621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87869930267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96055698394775</t>
   </si>
   <si>
     <t xml:space="preserve">8.97315216064453</t>
@@ -641,94 +641,94 @@
     <t xml:space="preserve">9.30689144134521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40134620666504</t>
+    <t xml:space="preserve">9.40134429931641</t>
   </si>
   <si>
     <t xml:space="preserve">9.36986064910889</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42653369903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47690963745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42023754119873</t>
+    <t xml:space="preserve">9.42653274536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47691059112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42023658752441</t>
   </si>
   <si>
     <t xml:space="preserve">9.53987884521484</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55247211456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65952205657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64062881469727</t>
+    <t xml:space="preserve">9.55247116088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65951919555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64062976837158</t>
   </si>
   <si>
     <t xml:space="preserve">9.72248935699463</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74138259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84842872619629</t>
+    <t xml:space="preserve">9.74138069152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84842777252197</t>
   </si>
   <si>
     <t xml:space="preserve">9.84213161468506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87991237640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89880275726318</t>
+    <t xml:space="preserve">9.87991523742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89880561828613</t>
   </si>
   <si>
     <t xml:space="preserve">9.69100475311279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79175472259521</t>
+    <t xml:space="preserve">9.79175662994385</t>
   </si>
   <si>
     <t xml:space="preserve">9.78546047210693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73508358001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8673210144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69729995727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80435276031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76656818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66581726074219</t>
+    <t xml:space="preserve">9.73508453369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86732006072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69730281829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80435085296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76656913757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6658182144165</t>
   </si>
   <si>
     <t xml:space="preserve">9.41393947601318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30059337615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06131076812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94796562194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89759063720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91648101806641</t>
+    <t xml:space="preserve">9.30059242248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06130981445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94796371459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89758968353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91648006439209</t>
   </si>
   <si>
     <t xml:space="preserve">9.1494665145874</t>
@@ -740,34 +740,34 @@
     <t xml:space="preserve">8.90388584136963</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0424165725708</t>
+    <t xml:space="preserve">9.04241943359375</t>
   </si>
   <si>
     <t xml:space="preserve">9.06760692596436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15576553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05501174926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89129161834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18095302581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07390403747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00463771820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14317035675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44542503356934</t>
+    <t xml:space="preserve">9.15576457977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05501461029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89129257202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18095207214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0739049911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.004638671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14316940307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44542407989502</t>
   </si>
   <si>
     <t xml:space="preserve">9.45172119140625</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">9.61544227600098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50209522247314</t>
+    <t xml:space="preserve">9.50209712982178</t>
   </si>
   <si>
     <t xml:space="preserve">9.31948471069336</t>
@@ -785,10 +785,10 @@
     <t xml:space="preserve">9.256516456604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21243762969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22502899169922</t>
+    <t xml:space="preserve">9.21243667602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22503089904785</t>
   </si>
   <si>
     <t xml:space="preserve">9.11168670654297</t>
@@ -797,13 +797,13 @@
     <t xml:space="preserve">9.23762512207031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39505100250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35097026824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37615776062012</t>
+    <t xml:space="preserve">9.39504718780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3509693145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3761568069458</t>
   </si>
   <si>
     <t xml:space="preserve">9.46431446075439</t>
@@ -815,34 +815,34 @@
     <t xml:space="preserve">9.52098655700684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6469259262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59025287628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58395576477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59655094146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24392318725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25021839141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41513347625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37628078460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27267646789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24030113220215</t>
+    <t xml:space="preserve">9.64692687988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59025382995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58395671844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59654998779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24392032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25021553039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41513538360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37628269195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27267551422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24030017852783</t>
   </si>
   <si>
     <t xml:space="preserve">9.25972557067871</t>
@@ -851,34 +851,34 @@
     <t xml:space="preserve">9.22087383270264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21439933776855</t>
+    <t xml:space="preserve">9.21439743041992</t>
   </si>
   <si>
     <t xml:space="preserve">9.44751167297363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54464244842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59644412994385</t>
+    <t xml:space="preserve">9.54464149475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59644317626953</t>
   </si>
   <si>
     <t xml:space="preserve">9.64824485778809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.641770362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71300029754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74537372589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62234592437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73890113830566</t>
+    <t xml:space="preserve">9.64177131652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71299934387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74537563323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62234401702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73890018463135</t>
   </si>
   <si>
     <t xml:space="preserve">9.72595024108887</t>
@@ -887,85 +887,85 @@
     <t xml:space="preserve">9.70652389526367</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66767311096191</t>
+    <t xml:space="preserve">9.66767120361328</t>
   </si>
   <si>
     <t xml:space="preserve">9.48636341094971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26620197296143</t>
+    <t xml:space="preserve">9.26620006561279</t>
   </si>
   <si>
     <t xml:space="preserve">9.24677658081055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12374496459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23382568359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0978422164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03956413269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11079406738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92948341369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99423789978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00071144104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06546783447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96833515167236</t>
+    <t xml:space="preserve">9.12374401092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23382472991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09784317016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03956604003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11079502105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92948532104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99423885345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00071334838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06546592712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96833610534668</t>
   </si>
   <si>
     <t xml:space="preserve">8.91653442382812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00718879699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82587909698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87120628356934</t>
+    <t xml:space="preserve">9.00718688964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82587718963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87120532989502</t>
   </si>
   <si>
     <t xml:space="preserve">8.84530448913574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79350280761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8064546585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75465106964111</t>
+    <t xml:space="preserve">8.79350185394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80645370483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7546501159668</t>
   </si>
   <si>
     <t xml:space="preserve">8.78055191040039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61219215393066</t>
+    <t xml:space="preserve">8.6121940612793</t>
   </si>
   <si>
     <t xml:space="preserve">8.52153873443604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62514305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65104484558105</t>
+    <t xml:space="preserve">8.62514495849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65104293823242</t>
   </si>
   <si>
     <t xml:space="preserve">8.52801418304443</t>
@@ -974,340 +974,340 @@
     <t xml:space="preserve">8.47621059417725</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39203262329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41793346405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39850616455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5409631729126</t>
+    <t xml:space="preserve">8.39203071594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41793441772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39850807189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54096412658691</t>
   </si>
   <si>
     <t xml:space="preserve">8.55391693115234</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57334327697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50858783721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50211334228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.515061378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44383430480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45678615570068</t>
+    <t xml:space="preserve">8.57334136962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50859069824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50211238861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51506328582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4438362121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45678520202637</t>
   </si>
   <si>
     <t xml:space="preserve">8.58629131317139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56039047241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65752124786377</t>
+    <t xml:space="preserve">8.56039142608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65751934051514</t>
   </si>
   <si>
     <t xml:space="preserve">8.7222728729248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7611255645752</t>
+    <t xml:space="preserve">8.76112461090088</t>
   </si>
   <si>
     <t xml:space="preserve">8.74169921875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77407550811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78702831268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76760196685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7352237701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64457130432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68342113494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5798168182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48916244506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61866760253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63161849975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67047023773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7287483215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71579837799072</t>
+    <t xml:space="preserve">8.77407741546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78702545166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76760101318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73522472381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64456939697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68342208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57981777191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48916149139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6186695098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63161945343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67047119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72874927520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71579742431641</t>
   </si>
   <si>
     <t xml:space="preserve">8.7481746673584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83235359191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9424352645874</t>
+    <t xml:space="preserve">8.83235263824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94243431091309</t>
   </si>
   <si>
     <t xml:space="preserve">8.9757776260376</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02245616912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09580898284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16249465942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18916988372803</t>
+    <t xml:space="preserve">9.0224552154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09580993652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16249561309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18916702270508</t>
   </si>
   <si>
     <t xml:space="preserve">9.29586505889893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32920551300049</t>
+    <t xml:space="preserve">9.3292064666748</t>
   </si>
   <si>
     <t xml:space="preserve">9.2891960144043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30253410339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33587646484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31586933135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38255405426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26918888092041</t>
+    <t xml:space="preserve">9.30253314971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33587455749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31587028503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38255500793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26919078826904</t>
   </si>
   <si>
     <t xml:space="preserve">9.35588073730469</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23584747314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28252792358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24251651763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26252365112305</t>
+    <t xml:space="preserve">9.23584938049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28252601623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24251556396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26252174377441</t>
   </si>
   <si>
     <t xml:space="preserve">9.25585174560547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1825008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22251129150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20250606536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22918033599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36254787445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48258304595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53592777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58927631378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66929912567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81600570678711</t>
+    <t xml:space="preserve">9.18249988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22251319885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20250415802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22918128967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36254978179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48258209228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53592967987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58927822113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6693000793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81600666046143</t>
   </si>
   <si>
     <t xml:space="preserve">9.74932098388672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67596626281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60928344726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54259777069092</t>
+    <t xml:space="preserve">9.6759672164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60928249359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54259872436523</t>
   </si>
   <si>
     <t xml:space="preserve">9.42923355102539</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15582656860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17583274841309</t>
+    <t xml:space="preserve">9.15582752227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17583179473877</t>
   </si>
   <si>
     <t xml:space="preserve">9.24918556213379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27585983276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21584224700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12915229797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20917415618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34921264648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37588882446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32253837585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30920028686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50258827209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62262058258057</t>
+    <t xml:space="preserve">9.27585887908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21584415435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12915134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2091760635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34921455383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37588787078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32253742218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30920314788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50258731842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62261867523193</t>
   </si>
   <si>
     <t xml:space="preserve">9.68263721466064</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80266857147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94937705993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94270706176758</t>
+    <t xml:space="preserve">9.8026704788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94937610626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94270610809326</t>
   </si>
   <si>
     <t xml:space="preserve">9.9093656539917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96938133239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88935852050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9627103805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97604942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95604705810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86268424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69864082336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65996265411377</t>
+    <t xml:space="preserve">9.96938228607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88935947418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96271324157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97605037689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95604419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86268520355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69863986968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65996360778809</t>
   </si>
   <si>
     <t xml:space="preserve">9.72931671142578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56793880462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43857192993164</t>
+    <t xml:space="preserve">9.56793785095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43857002258301</t>
   </si>
   <si>
     <t xml:space="preserve">9.17183113098145</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11715030670166</t>
+    <t xml:space="preserve">9.11714935302734</t>
   </si>
   <si>
     <t xml:space="preserve">8.93443298339844</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99044799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90375804901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96110439300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00511837005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09047603607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14115524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14382457733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12248516082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19583702087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24385070800781</t>
+    <t xml:space="preserve">8.99044704437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90375900268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.961106300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00511741638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09047508239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14115619659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14382362365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12248229980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19583892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2438497543335</t>
   </si>
   <si>
     <t xml:space="preserve">9.14515686035156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05046558380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92109489440918</t>
+    <t xml:space="preserve">9.05046653747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92109680175781</t>
   </si>
   <si>
     <t xml:space="preserve">8.88908576965332</t>
@@ -1316,52 +1316,52 @@
     <t xml:space="preserve">9.01178646087646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0571346282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06380081176758</t>
+    <t xml:space="preserve">9.05713272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06379985809326</t>
   </si>
   <si>
     <t xml:space="preserve">9.14782524108887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21851062774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40256023406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29453086853027</t>
+    <t xml:space="preserve">9.21850967407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40256118774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29453182220459</t>
   </si>
   <si>
     <t xml:space="preserve">9.42256546020508</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49591827392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44924259185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40789413452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37455368041992</t>
+    <t xml:space="preserve">9.49592018127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44923877716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40789699554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37455081939697</t>
   </si>
   <si>
     <t xml:space="preserve">9.46924495697021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44390392303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52793025970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62395286560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70664310455322</t>
+    <t xml:space="preserve">9.44390487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52792739868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62395477294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70664501190186</t>
   </si>
   <si>
     <t xml:space="preserve">9.91069984436035</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">9.92803764343262</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99472045898438</t>
+    <t xml:space="preserve">9.99472141265869</t>
   </si>
   <si>
     <t xml:space="preserve">10.0920810699463</t>
@@ -1385,31 +1385,31 @@
     <t xml:space="preserve">10.2908020019531</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3014717102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4561796188354</t>
+    <t xml:space="preserve">10.3014726638794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4561805725098</t>
   </si>
   <si>
     <t xml:space="preserve">10.5335340499878</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6695718765259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.63756275177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7282543182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6882429122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5695457458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7829351425171</t>
+    <t xml:space="preserve">10.6695728302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6375637054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7282552719116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6882448196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5695447921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7829370498657</t>
   </si>
   <si>
     <t xml:space="preserve">10.7749338150024</t>
@@ -1418,103 +1418,103 @@
     <t xml:space="preserve">10.802942276001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.884298324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7549285888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9029693603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1123600006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8269481658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1270303726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9416475296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9629850387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1203603744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1790437698364</t>
+    <t xml:space="preserve">10.8842973709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7549295425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9029684066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1123580932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8269491195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1270294189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9416446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9629859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1203632354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1790447235107</t>
   </si>
   <si>
     <t xml:space="preserve">11.0283374786377</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0710153579712</t>
+    <t xml:space="preserve">11.0710144042969</t>
   </si>
   <si>
     <t xml:space="preserve">11.0376720428467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9502010345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0035047531128</t>
+    <t xml:space="preserve">10.9502019882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0035028457642</t>
   </si>
   <si>
     <t xml:space="preserve">10.8818664550781</t>
   </si>
   <si>
-    <t xml:space="preserve">10.78209400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5142164230347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3010082244873</t>
+    <t xml:space="preserve">10.7820959091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5142154693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3010091781616</t>
   </si>
   <si>
     <t xml:space="preserve">10.3146743774414</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5852851867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.750659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6508903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5593175888062</t>
+    <t xml:space="preserve">10.5852861404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7506608963013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6508893966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5593185424805</t>
   </si>
   <si>
     <t xml:space="preserve">10.5579519271851</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6809558868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4035120010376</t>
+    <t xml:space="preserve">10.6809568405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4035110473633</t>
   </si>
   <si>
     <t xml:space="preserve">10.7069244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6003189086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8066968917847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6139860153198</t>
+    <t xml:space="preserve">10.60032081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8066959381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6139879226685</t>
   </si>
   <si>
     <t xml:space="preserve">10.6194543838501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5470180511475</t>
+    <t xml:space="preserve">10.5470170974731</t>
   </si>
   <si>
     <t xml:space="preserve">10.3611431121826</t>
@@ -1523,31 +1523,31 @@
     <t xml:space="preserve">10.6850576400757</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4431476593018</t>
+    <t xml:space="preserve">10.4431467056274</t>
   </si>
   <si>
     <t xml:space="preserve">10.5456514358521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.836763381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8722982406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8695650100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7793617248535</t>
+    <t xml:space="preserve">10.8367643356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8722991943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8695678710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7793607711792</t>
   </si>
   <si>
     <t xml:space="preserve">11.0404062271118</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0335731506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0814085006714</t>
+    <t xml:space="preserve">11.0335702896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0814075469971</t>
   </si>
   <si>
     <t xml:space="preserve">11.0568056106567</t>
@@ -1562,19 +1562,19 @@
     <t xml:space="preserve">11.1060094833374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1114749908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1251420974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9707012176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0281057357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0267391204834</t>
+    <t xml:space="preserve">11.1114768981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1251459121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0281047821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0267372131348</t>
   </si>
   <si>
     <t xml:space="preserve">10.9884691238403</t>
@@ -1586,478 +1586,478 @@
     <t xml:space="preserve">11.0226383209229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0964412689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0896081924438</t>
+    <t xml:space="preserve">11.0964403152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0896091461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1456432342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0704736709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1292419433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.250880241394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1675109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0732078552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1333427429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3506536483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2754821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1975784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.903733253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9050989151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0117053985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.873664855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.813530921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9420013427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0527057647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.15247631073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0937080383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2071466445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2290134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2098789215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9201345443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9912042617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0185375213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9064655303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8148956298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7465581893921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8312959671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8517980575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9461030960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9256000518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9242353439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240058898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1647777557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3322229385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6071825027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6408500671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5959577560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4206008911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4472551345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4626865386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4865341186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4177961349487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4107828140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1147804260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4065713882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308210372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0193862915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.956259727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0558595657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1049604415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9310083389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7261915206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7949323654175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.64342212677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4863033294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.326379776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5031366348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6153650283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7752904891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.79212474823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.016583442688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.820182800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7738904953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8384189605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7584562301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9660787582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9239931106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8412246704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8636693954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6251859664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4694709777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5045404434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4512338638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3249778747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1369943618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2604446411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0415992736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86203765869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0275726318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95602798461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92796993255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97145748138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9925012588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1790800094604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1103401184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0233640670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70351314544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89991283416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77786540985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86624336242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98548698425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0037240982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92376041412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79189395904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68948554992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78487968444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69790172576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66142845153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48326587677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64319133758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66563606262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70772361755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0584354400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97005462646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9083309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99951457977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9896936416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93919277191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90412044525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99530506134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0163507461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97286128997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2464170455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2029285430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1538276672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.111743927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2211647033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1229658126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.186092376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2716684341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3852996826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3614511489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3712701797485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4792890548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4231758117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1945114135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1818857192993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2758769989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3502283096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4203701019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3670616149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6055469512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6448268890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6602573394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6981334686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7107610702515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7233877182007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6700773239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6686754226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6770925521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6378126144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5480289459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5985317230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6504373550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7177743911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.498929977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6069488525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6364068984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9029502868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8987417221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9338130950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0432367324829</t>
   </si>
   <si>
     <t xml:space="preserve">11.1456441879272</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0704746246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1292419433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2508811950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1675100326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0732078552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1333427429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3506536483765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2754831314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1975803375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9037342071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9051008224487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0117044448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.873664855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8135280609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9420013427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0527067184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1524753570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0937089920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.207145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2290134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2098808288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9201335906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9912033081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0185394287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9064674377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8148975372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.746561050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8312978744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8517980575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9461002349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9256010055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9242334365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240058898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1647777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3322229385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6071815490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.640851020813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5959587097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4206008911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4472560882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4626874923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.486536026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4177942276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4107828140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1147804260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4065742492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308200836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0193862915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9562587738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0558605194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1049613952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9310083389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7261915206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7949314117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6434211730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4863023757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3263778686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5031394958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.61536693573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7752914428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.79212474823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0165815353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8201808929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.773886680603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8384199142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7584581375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9660778045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9239950180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8412227630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8636693954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6251878738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4694709777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5045404434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4512310028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3249769210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1369943618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2604455947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0416011810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86203670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0275716781616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95602607727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92796993255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97145652770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99250030517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1790800094604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1103401184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0233640670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70351314544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89991188049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77786540985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86624431610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98548698425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0037231445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92376041412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79189395904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68948650360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78487873077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69790077209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66142749786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48326683044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64319038391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6656379699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70772171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0584344863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97005558013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90832901000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99951553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98969745635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93919372558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9041223526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99530601501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0163497924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97286128997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2464160919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2029275894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1538276672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1117429733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2211647033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1229658126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1860952377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2716684341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3852996826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3614501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3712682723999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4792890548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4231748580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1945104598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.181884765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2758750915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3502283096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4203701019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3670625686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6055459976196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6448249816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6602582931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6981344223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7107620239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7233848571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6700763702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6686744689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6770915985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6378126144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5480289459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5985317230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6504373550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.498929977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6069478988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6364097595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9029512405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8987417221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9338130950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0432357788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1456451416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0656824111938</t>
+    <t xml:space="preserve">11.0656814575195</t>
   </si>
   <si>
     <t xml:space="preserve">11.1035585403442</t>
@@ -2072,34 +2072,34 @@
     <t xml:space="preserve">10.9534540176392</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9352178573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.858057975769</t>
+    <t xml:space="preserve">10.9352159500122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8580589294434</t>
   </si>
   <si>
     <t xml:space="preserve">11.0502500534058</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0755014419556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1554651260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0516529083252</t>
+    <t xml:space="preserve">11.0754995346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.155463218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0516519546509</t>
   </si>
   <si>
     <t xml:space="preserve">11.1161832809448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0923366546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1442394256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1807146072388</t>
+    <t xml:space="preserve">11.0923357009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1442413330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1807136535645</t>
   </si>
   <si>
     <t xml:space="preserve">11.1694917678833</t>
@@ -2111,10 +2111,10 @@
     <t xml:space="preserve">10.9913291931152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8229885101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8243923187256</t>
+    <t xml:space="preserve">10.8229866027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8243913650513</t>
   </si>
   <si>
     <t xml:space="preserve">11.081111907959</t>
@@ -2123,13 +2123,13 @@
     <t xml:space="preserve">10.9071588516235</t>
   </si>
   <si>
-    <t xml:space="preserve">10.876296043396</t>
+    <t xml:space="preserve">10.8762941360474</t>
   </si>
   <si>
     <t xml:space="preserve">10.7612628936768</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5901155471802</t>
+    <t xml:space="preserve">10.5901145935059</t>
   </si>
   <si>
     <t xml:space="preserve">10.6742858886719</t>
@@ -2138,88 +2138,88 @@
     <t xml:space="preserve">10.545223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5831022262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4315919876099</t>
+    <t xml:space="preserve">10.5830993652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4315910339355</t>
   </si>
   <si>
     <t xml:space="preserve">10.1636486053467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1566343307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0472116470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0065269470215</t>
+    <t xml:space="preserve">10.1566352844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0472135543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0065298080444</t>
   </si>
   <si>
     <t xml:space="preserve">10.1159515380859</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2436122894287</t>
+    <t xml:space="preserve">10.2436084747314</t>
   </si>
   <si>
     <t xml:space="preserve">10.1832876205444</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3460178375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4091463088989</t>
+    <t xml:space="preserve">10.3460187911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4091482162476</t>
   </si>
   <si>
     <t xml:space="preserve">10.3990488052368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4884958267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4004917144775</t>
+    <t xml:space="preserve">10.4884948730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4004898071289</t>
   </si>
   <si>
     <t xml:space="preserve">10.0412549972534</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1379165649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1494598388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1177196502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90708255767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87678909301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79599571228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96911907196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.11194896698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0037450790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0268297195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0701103210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0989646911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1321477890015</t>
+    <t xml:space="preserve">10.13791847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1494588851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1177206039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90708446502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87678718566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79599666595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96912288665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1119480133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0037460327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0268287658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0701122283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0989637374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1321468353271</t>
   </si>
   <si>
     <t xml:space="preserve">10.0297155380249</t>
@@ -2228,46 +2228,46 @@
     <t xml:space="preserve">10.0585689544678</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0051889419556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2114973068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2591047286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572092056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5361070632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4755125045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4163618087769</t>
+    <t xml:space="preserve">10.0051898956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2114963531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2591066360474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572101593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5361042022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.475510597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4163599014282</t>
   </si>
   <si>
     <t xml:space="preserve">10.4654121398926</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4351139068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5606327056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.458197593689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5086946487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.564959526062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4957122802734</t>
+    <t xml:space="preserve">10.4351148605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5606317520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4581985473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.508692741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5649585723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4957103729248</t>
   </si>
   <si>
     <t xml:space="preserve">10.5707302093506</t>
@@ -2276,79 +2276,79 @@
     <t xml:space="preserve">10.6082410812378</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6760492324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6948041915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6125688552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5793876647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3976058959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3153696060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2576608657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3269128799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3802938461304</t>
+    <t xml:space="preserve">10.6760482788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.694803237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6125707626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5793857574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3976068496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3153715133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2576627731323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3269119262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3802928924561</t>
   </si>
   <si>
     <t xml:space="preserve">10.3514404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3427829742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2778615951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1667718887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2461214065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1682138442993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86813068389893</t>
+    <t xml:space="preserve">10.3427820205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2778606414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1667728424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2461204528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1682147979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86812877655029</t>
   </si>
   <si>
     <t xml:space="preserve">9.7238597869873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65460968017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51755237579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69068050384521</t>
+    <t xml:space="preserve">9.6546106338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51755332946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69067764282227</t>
   </si>
   <si>
     <t xml:space="preserve">9.51611042022705</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50024032592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68058013916016</t>
+    <t xml:space="preserve">9.50023937225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68057823181152</t>
   </si>
   <si>
     <t xml:space="preserve">9.4511890411377</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40646457672119</t>
+    <t xml:space="preserve">9.40646362304688</t>
   </si>
   <si>
     <t xml:space="preserve">9.57526111602783</t>
@@ -2357,22 +2357,22 @@
     <t xml:space="preserve">9.48148536682129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63008403778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60267353057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48004341125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53486728668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59545803070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66615200042725</t>
+    <t xml:space="preserve">9.63008594512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60267162322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48004150390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53486633300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.595458984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66615104675293</t>
   </si>
   <si>
     <t xml:space="preserve">9.82340717315674</t>
@@ -2381,58 +2381,58 @@
     <t xml:space="preserve">9.89121437072754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81186485290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86091613769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93305397033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0426979064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1725435256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1523466110229</t>
+    <t xml:space="preserve">9.81186294555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86091709136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93305206298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0426988601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1725416183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.15234375</t>
   </si>
   <si>
     <t xml:space="preserve">10.1307039260864</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3254680633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2086095809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3326835632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4971523284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5105323791504</t>
+    <t xml:space="preserve">10.3254699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2086114883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3326854705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4971532821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5105314254761</t>
   </si>
   <si>
     <t xml:space="preserve">10.4034948348999</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3038902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3574085235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.446605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4317407608032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3916015625</t>
+    <t xml:space="preserve">10.3038892745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3574094772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4466075897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4317388534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3915996551514</t>
   </si>
   <si>
     <t xml:space="preserve">10.0764331817627</t>
@@ -2441,46 +2441,46 @@
     <t xml:space="preserve">9.96642208099365</t>
   </si>
   <si>
-    <t xml:space="preserve">10.067512512207</t>
+    <t xml:space="preserve">10.0675144195557</t>
   </si>
   <si>
     <t xml:space="preserve">10.1477937698364</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0600805282593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1091384887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1700916290283</t>
+    <t xml:space="preserve">10.0600814819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1091394424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1700925827026</t>
   </si>
   <si>
     <t xml:space="preserve">10.2845640182495</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2161779403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2860498428345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2696971893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2429361343384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3722743988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4599857330322</t>
+    <t xml:space="preserve">10.2161769866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2860488891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2696962356567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2429351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3722734451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4599847793579</t>
   </si>
   <si>
     <t xml:space="preserve">10.5090446472168</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4361991882324</t>
+    <t xml:space="preserve">10.4362001419067</t>
   </si>
   <si>
     <t xml:space="preserve">10.3603820800781</t>
@@ -2489,79 +2489,79 @@
     <t xml:space="preserve">10.2786159515381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1819849014282</t>
+    <t xml:space="preserve">10.1819839477539</t>
   </si>
   <si>
     <t xml:space="preserve">10.0868396759033</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1864461898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3871402740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5536441802979</t>
+    <t xml:space="preserve">10.1864442825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3871412277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5536451339722</t>
   </si>
   <si>
     <t xml:space="preserve">10.5283718109131</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5372896194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5476980209351</t>
+    <t xml:space="preserve">10.5372905731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5476961135864</t>
   </si>
   <si>
     <t xml:space="preserve">10.5075588226318</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5952701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5417509078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.569995880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4882297515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3841676712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4153852462769</t>
+    <t xml:space="preserve">10.5952682495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5417528152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5699987411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4882316589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3841686248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4153871536255</t>
   </si>
   <si>
     <t xml:space="preserve">10.4376859664917</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4421463012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.355920791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3247022628784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2578039169312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1938762664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0883255004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0199394226074</t>
+    <t xml:space="preserve">10.4421472549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3559226989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3247013092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2578020095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1938772201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0883274078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0199403762817</t>
   </si>
   <si>
     <t xml:space="preserve">10.1418447494507</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2355041503906</t>
+    <t xml:space="preserve">10.235502243042</t>
   </si>
   <si>
     <t xml:space="preserve">10.1284666061401</t>
@@ -2582,79 +2582,79 @@
     <t xml:space="preserve">10.1269788742065</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1849584579468</t>
+    <t xml:space="preserve">10.1849565505981</t>
   </si>
   <si>
     <t xml:space="preserve">10.2711839675903</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2919950485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.418360710144</t>
+    <t xml:space="preserve">10.2919969558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4183616638184</t>
   </si>
   <si>
     <t xml:space="preserve">10.4064674377441</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4124135971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.485258102417</t>
+    <t xml:space="preserve">10.4124126434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4852590560913</t>
   </si>
   <si>
     <t xml:space="preserve">10.6413545608521</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6443300247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.559591293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4808006286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3128080368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2563161849976</t>
+    <t xml:space="preserve">10.6443281173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5595903396606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4807996749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3128089904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2563171386719</t>
   </si>
   <si>
     <t xml:space="preserve">10.3232154846191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3440275192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3187570571899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.077919960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0035877227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0125093460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80883884429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95898818969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87722301483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60814094543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40893173217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37325382232666</t>
+    <t xml:space="preserve">10.3440294265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.318754196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0779190063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0035886764526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.012508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80883979797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95898914337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87722396850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6081428527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40893268585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37325286865234</t>
   </si>
   <si>
     <t xml:space="preserve">9.50556564331055</t>
@@ -2663,37 +2663,37 @@
     <t xml:space="preserve">9.68396091461182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64084815979004</t>
+    <t xml:space="preserve">9.64084911346436</t>
   </si>
   <si>
     <t xml:space="preserve">9.59327507019043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49961853027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73748016357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65422821044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5828685760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5962495803833</t>
+    <t xml:space="preserve">9.49961757659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73748111724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65422916412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58286952972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59624862670898</t>
   </si>
   <si>
     <t xml:space="preserve">9.61706161499023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58881664276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48772430419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04470539093018</t>
+    <t xml:space="preserve">9.58881568908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48772525787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04470729827881</t>
   </si>
   <si>
     <t xml:space="preserve">8.90198802947998</t>
@@ -2702,46 +2702,46 @@
     <t xml:space="preserve">8.9674015045166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73994541168213</t>
+    <t xml:space="preserve">8.73994636535645</t>
   </si>
   <si>
     <t xml:space="preserve">8.29395389556885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26422119140625</t>
+    <t xml:space="preserve">8.26422214508057</t>
   </si>
   <si>
     <t xml:space="preserve">8.26570892333984</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28949451446533</t>
+    <t xml:space="preserve">8.28949356079102</t>
   </si>
   <si>
     <t xml:space="preserve">8.15272331237793</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60712766647339</t>
+    <t xml:space="preserve">7.60712718963623</t>
   </si>
   <si>
     <t xml:space="preserve">6.02088451385498</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06920099258423</t>
+    <t xml:space="preserve">6.0691990852356</t>
   </si>
   <si>
     <t xml:space="preserve">5.98371839523315</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89996004104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13707733154297</t>
+    <t xml:space="preserve">4.89995908737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13707780838013</t>
   </si>
   <si>
     <t xml:space="preserve">4.82562732696533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10362863540649</t>
+    <t xml:space="preserve">5.10362911224365</t>
   </si>
   <si>
     <t xml:space="preserve">4.97577810287476</t>
@@ -2750,58 +2750,58 @@
     <t xml:space="preserve">5.17721748352051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42102527618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41656589508057</t>
+    <t xml:space="preserve">5.4210262298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41656732559204</t>
   </si>
   <si>
     <t xml:space="preserve">6.22529697418213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48397159576416</t>
+    <t xml:space="preserve">6.48397207260132</t>
   </si>
   <si>
     <t xml:space="preserve">6.47505331039429</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10785245895386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38734149932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85340213775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83853673934937</t>
+    <t xml:space="preserve">6.10785293579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3873405456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85340118408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83853435516357</t>
   </si>
   <si>
     <t xml:space="preserve">7.31277322769165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93145084381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92401742935181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00801229476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90915060043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91881322860718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81400632858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37916326522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28401947021484</t>
+    <t xml:space="preserve">6.93144989013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92401695251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0080132484436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90915203094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91881418228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81400537490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37916374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28402042388916</t>
   </si>
   <si>
     <t xml:space="preserve">6.38288116455078</t>
@@ -2816,61 +2816,61 @@
     <t xml:space="preserve">6.20522737503052</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29739999771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13238191604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24685430526733</t>
+    <t xml:space="preserve">6.29739904403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13238286972046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24685382843018</t>
   </si>
   <si>
     <t xml:space="preserve">6.45498275756836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65790843963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47728204727173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10339403152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45721197128296</t>
+    <t xml:space="preserve">6.65790939331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4772834777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1033935546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45721292495728</t>
   </si>
   <si>
     <t xml:space="preserve">6.26097679138184</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3598370552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4155855178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33679485321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32861804962158</t>
+    <t xml:space="preserve">6.35983848571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41558694839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33679437637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32861709594727</t>
   </si>
   <si>
     <t xml:space="preserve">6.33307933807373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77694225311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56322860717773</t>
+    <t xml:space="preserve">6.77694129943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56323003768921</t>
   </si>
   <si>
     <t xml:space="preserve">6.59845638275146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43641185760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39883518218994</t>
+    <t xml:space="preserve">6.43641138076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3988356590271</t>
   </si>
   <si>
     <t xml:space="preserve">6.46615934371948</t>
@@ -2879,10 +2879,10 @@
     <t xml:space="preserve">6.47711992263794</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61489677429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6477746963501</t>
+    <t xml:space="preserve">6.61489725112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64777374267578</t>
   </si>
   <si>
     <t xml:space="preserve">6.35891151428223</t>
@@ -2891,55 +2891,55 @@
     <t xml:space="preserve">6.52878570556641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86618375778198</t>
+    <t xml:space="preserve">6.86618423461914</t>
   </si>
   <si>
     <t xml:space="preserve">7.04466867446899</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01726961135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44156360626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56524991989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33979606628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22550106048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71744775772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72214317321777</t>
+    <t xml:space="preserve">7.01726865768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44156312942505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56524848937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33979511260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.225501537323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71744728088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72214412689209</t>
   </si>
   <si>
     <t xml:space="preserve">6.71666431427002</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99456882476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96403741836548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91628551483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94681549072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89123487472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63211917877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63916492462158</t>
+    <t xml:space="preserve">6.99456834793091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96403837203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91628503799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9468150138855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89123582839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63211870193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63916349411011</t>
   </si>
   <si>
     <t xml:space="preserve">6.57340717315674</t>
@@ -2948,28 +2948,28 @@
     <t xml:space="preserve">6.75189113616943</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64620923995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63446712493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82626104354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79025030136108</t>
+    <t xml:space="preserve">6.64620876312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63446760177612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82626008987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79024982452393</t>
   </si>
   <si>
     <t xml:space="preserve">6.85600709915161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90454244613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80903816223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60237121582031</t>
+    <t xml:space="preserve">6.90454339981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80903625488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60237073898315</t>
   </si>
   <si>
     <t xml:space="preserve">6.77929019927979</t>
@@ -2978,22 +2978,22 @@
     <t xml:space="preserve">6.87557888031006</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91706895828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96325445175171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89906215667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87401247024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98987150192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81608295440674</t>
+    <t xml:space="preserve">6.91706943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96325492858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89906311035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8740119934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98987102508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81608152389526</t>
   </si>
   <si>
     <t xml:space="preserve">6.73310327529907</t>
@@ -3002,34 +3002,34 @@
     <t xml:space="preserve">6.66969537734985</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62507390975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63603353500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58358430862427</t>
+    <t xml:space="preserve">6.62507295608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63603401184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58358335494995</t>
   </si>
   <si>
     <t xml:space="preserve">6.1201491355896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90330600738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89782619476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15224504470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33777475357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21721935272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11075592041016</t>
+    <t xml:space="preserve">5.90330648422241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89782571792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15224552154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33777523040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21722030639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11075496673584</t>
   </si>
   <si>
     <t xml:space="preserve">6.25166463851929</t>
@@ -3038,94 +3038,94 @@
     <t xml:space="preserve">6.45363426208496</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55461883544922</t>
+    <t xml:space="preserve">6.55461931228638</t>
   </si>
   <si>
     <t xml:space="preserve">6.45441722869873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40275001525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34090709686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30489635467529</t>
+    <t xml:space="preserve">6.40275049209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34090662002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30489683151245</t>
   </si>
   <si>
     <t xml:space="preserve">6.36282587051392</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2117395401001</t>
+    <t xml:space="preserve">6.21174001693726</t>
   </si>
   <si>
     <t xml:space="preserve">6.16320466995239</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41214370727539</t>
+    <t xml:space="preserve">6.41214466094971</t>
   </si>
   <si>
     <t xml:space="preserve">6.32368469238281</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23287630081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10605812072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08726978302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00898790359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02464389801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98471975326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08492136001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88608407974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97141313552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96984624862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94871044158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85242176055908</t>
+    <t xml:space="preserve">6.23287677764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1060585975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08727121353149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00898838043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02464437484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98472023010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08492183685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88608312606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97141218185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96984529495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9487099647522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85242128372192</t>
   </si>
   <si>
     <t xml:space="preserve">5.95888662338257</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98941659927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94479560852051</t>
+    <t xml:space="preserve">5.98941707611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94479656219482</t>
   </si>
   <si>
     <t xml:space="preserve">5.78353309631348</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53048419952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61483383178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51297760009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4206690788269</t>
+    <t xml:space="preserve">5.53048372268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61483335494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5129771232605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42066955566406</t>
   </si>
   <si>
     <t xml:space="preserve">5.32279300689697</t>
@@ -3134,28 +3134,28 @@
     <t xml:space="preserve">5.45886611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3036937713623</t>
+    <t xml:space="preserve">5.30369424819946</t>
   </si>
   <si>
     <t xml:space="preserve">5.32199621200562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14215612411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17000770568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32358837127686</t>
+    <t xml:space="preserve">5.14215660095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17000818252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32358741760254</t>
   </si>
   <si>
     <t xml:space="preserve">5.5050196647644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35541725158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.478759765625</t>
+    <t xml:space="preserve">5.35541868209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47875928878784</t>
   </si>
   <si>
     <t xml:space="preserve">5.46045732498169</t>
@@ -3164,13 +3164,13 @@
     <t xml:space="preserve">5.42623949050903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32040596008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32995367050171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10714340209961</t>
+    <t xml:space="preserve">5.32040548324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32995462417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10714244842529</t>
   </si>
   <si>
     <t xml:space="preserve">5.22252750396729</t>
@@ -3182,46 +3182,46 @@
     <t xml:space="preserve">5.22173118591309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04507493972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04586982727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12783241271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96947717666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85409355163574</t>
+    <t xml:space="preserve">5.04507446289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04586935043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12783288955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96947813034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8540940284729</t>
   </si>
   <si>
     <t xml:space="preserve">4.68300676345825</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70926713943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78327226638794</t>
+    <t xml:space="preserve">4.70926761627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78327131271362</t>
   </si>
   <si>
     <t xml:space="preserve">5.06258106231689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1835355758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24958324432373</t>
+    <t xml:space="preserve">5.18353509902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24958276748657</t>
   </si>
   <si>
     <t xml:space="preserve">5.24878740310669</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20581579208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87106513977051</t>
+    <t xml:space="preserve">5.20581722259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87106609344482</t>
   </si>
   <si>
     <t xml:space="preserve">6.10979223251343</t>
@@ -3230,142 +3230,142 @@
     <t xml:space="preserve">6.04135704040527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06204652786255</t>
+    <t xml:space="preserve">6.06204605102539</t>
   </si>
   <si>
     <t xml:space="preserve">6.09546852111816</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34056091308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4344596862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5204005241394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42729711532593</t>
+    <t xml:space="preserve">6.34056043624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43446016311646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52040100097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42729663848877</t>
   </si>
   <si>
     <t xml:space="preserve">6.46549320220947</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62862348556519</t>
+    <t xml:space="preserve">6.62862300872803</t>
   </si>
   <si>
     <t xml:space="preserve">6.85939121246338</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90077018737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81005430221558</t>
+    <t xml:space="preserve">6.90077066421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81005382537842</t>
   </si>
   <si>
     <t xml:space="preserve">6.82915210723877</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60713911056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69626092910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76310539245605</t>
+    <t xml:space="preserve">6.60713863372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69626188278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76310586929321</t>
   </si>
   <si>
     <t xml:space="preserve">6.72570466995239</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95806550979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97636699676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99466991424561</t>
+    <t xml:space="preserve">6.95806455612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97636747360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99466800689697</t>
   </si>
   <si>
     <t xml:space="preserve">7.0368447303772</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11084890365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00899267196655</t>
+    <t xml:space="preserve">7.11084938049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00899362564087</t>
   </si>
   <si>
     <t xml:space="preserve">6.90554475784302</t>
   </si>
   <si>
-    <t xml:space="preserve">6.964430809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96761417388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9318060874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86018657684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56018924713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65249443054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83074331283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84029388427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81323862075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8020977973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72252082824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97159147262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19997358322144</t>
+    <t xml:space="preserve">6.96443176269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96761274337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93180561065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86018800735474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56018829345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65249681472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83074426651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84029293060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81323719024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80209827423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72252035140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97159242630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19997406005859</t>
   </si>
   <si>
     <t xml:space="preserve">7.21588897705078</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18564891815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14427185058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20474767684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20952272415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1657567024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02729511260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04718923568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02411031723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08299779891968</t>
+    <t xml:space="preserve">7.18564987182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14427137374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20474815368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20952320098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16575527191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02729606628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0471887588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02411127090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08299732208252</t>
   </si>
   <si>
     <t xml:space="preserve">6.89758777618408</t>
@@ -3377,139 +3377,139 @@
     <t xml:space="preserve">6.64692449569702</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78618192672729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80130195617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64613103866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52517461776733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61350345611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7551474571228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81960344314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8522310256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90793180465698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98273277282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03764057159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98432540893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06549072265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2596549987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2246413230896</t>
+    <t xml:space="preserve">6.78618240356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80130052566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6461296081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52517557144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61350393295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75514888763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81960391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85223007202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90793228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98273420333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03763914108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98432445526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06549119949341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25965547561646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22464179992676</t>
   </si>
   <si>
     <t xml:space="preserve">7.29148578643799</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23896503448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31933546066284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44506549835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49917650222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62092733383179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70288991928101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54533100128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60819435119629</t>
+    <t xml:space="preserve">7.23896455764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3193359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44506597518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49917602539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62092590332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70288848876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54532909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60819387435913</t>
   </si>
   <si>
     <t xml:space="preserve">7.55328702926636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68697261810303</t>
+    <t xml:space="preserve">7.68697500228882</t>
   </si>
   <si>
     <t xml:space="preserve">7.85885667800903</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00686645507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10076713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06893634796143</t>
+    <t xml:space="preserve">8.00686550140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1007661819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06893444061279</t>
   </si>
   <si>
     <t xml:space="preserve">8.13259792327881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19625568389893</t>
+    <t xml:space="preserve">8.19625663757324</t>
   </si>
   <si>
     <t xml:space="preserve">8.2901554107666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22331142425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14851093292236</t>
+    <t xml:space="preserve">8.22331237792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14850997924805</t>
   </si>
   <si>
     <t xml:space="preserve">8.22649478912354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09599208831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07370948791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94161605834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15328598022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04665660858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14214611053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23445320129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28537940979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35063362121582</t>
+    <t xml:space="preserve">8.09599018096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07371044158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94161796569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15328502655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04665565490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14214515686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23445224761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28538131713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3506326675415</t>
   </si>
   <si>
     <t xml:space="preserve">8.41110897064209</t>
@@ -3521,115 +3521,115 @@
     <t xml:space="preserve">8.32039356231689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16442775726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11668109893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08644104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13737010955811</t>
+    <t xml:space="preserve">8.16442680358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1166820526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0864429473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13737106323242</t>
   </si>
   <si>
     <t xml:space="preserve">8.34585857391357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24718475341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23604488372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21535491943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01641654968262</t>
+    <t xml:space="preserve">8.24718570709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23604583740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21535396575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0164155960083</t>
   </si>
   <si>
     <t xml:space="preserve">8.0768928527832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09121704101562</t>
+    <t xml:space="preserve">8.09121894836426</t>
   </si>
   <si>
     <t xml:space="preserve">8.03869819641113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07530212402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04506301879883</t>
+    <t xml:space="preserve">8.07530117034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04506492614746</t>
   </si>
   <si>
     <t xml:space="preserve">8.11986446380615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11827373504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9018292427063</t>
+    <t xml:space="preserve">8.11827278137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90182781219482</t>
   </si>
   <si>
     <t xml:space="preserve">8.03710556030273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20262241363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21694660186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21217060089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28219890594482</t>
+    <t xml:space="preserve">8.20262336730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21694564819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21217155456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28219699859619</t>
   </si>
   <si>
     <t xml:space="preserve">8.32198619842529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19943904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29970455169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32675933837891</t>
+    <t xml:space="preserve">8.19943809509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29970550537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32676029205322</t>
   </si>
   <si>
     <t xml:space="preserve">8.30288791656494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11349868774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1835241317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23729801177979</t>
+    <t xml:space="preserve">8.11349773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18352508544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23730087280273</t>
   </si>
   <si>
     <t xml:space="preserve">8.13545227050781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17211723327637</t>
+    <t xml:space="preserve">8.17211818695068</t>
   </si>
   <si>
     <t xml:space="preserve">8.22915077209473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22426414489746</t>
+    <t xml:space="preserve">8.22426319122314</t>
   </si>
   <si>
     <t xml:space="preserve">8.1933012008667</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38721561431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44913864135742</t>
+    <t xml:space="preserve">8.38721466064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44913768768311</t>
   </si>
   <si>
     <t xml:space="preserve">8.50617218017578</t>
@@ -3638,28 +3638,28 @@
     <t xml:space="preserve">8.4572868347168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51757907867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55179882049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50943279266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56646537780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62186813354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74082469940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74571514129639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75223255157471</t>
+    <t xml:space="preserve">8.51758098602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55179977416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50943183898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56646633148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62187099456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74082660675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74571418762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75223350524902</t>
   </si>
   <si>
     <t xml:space="preserve">8.66097831726074</t>
@@ -3668,37 +3668,37 @@
     <t xml:space="preserve">8.40351104736328</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48824787139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48498916625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49150657653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58764839172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60068607330322</t>
+    <t xml:space="preserve">8.48824977874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48498725891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4915075302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58765125274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60068511962891</t>
   </si>
   <si>
     <t xml:space="preserve">8.42632579803467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42306613922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36766338348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5224666595459</t>
+    <t xml:space="preserve">8.42306709289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36766242980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52246761322021</t>
   </si>
   <si>
     <t xml:space="preserve">8.47195243835449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51920795440674</t>
+    <t xml:space="preserve">8.51920890808105</t>
   </si>
   <si>
     <t xml:space="preserve">8.2861852645874</t>
@@ -3707,58 +3707,58 @@
     <t xml:space="preserve">8.11752891540527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21285533905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15093326568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16722965240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07434463500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01079559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70281171798706</t>
+    <t xml:space="preserve">8.21285629272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15093231201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16722774505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07434558868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0107946395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70281219482422</t>
   </si>
   <si>
     <t xml:space="preserve">7.74273586273193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9439811706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85761690139771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87798500061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03849601745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99124002456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08004856109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15908241271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12486171722412</t>
+    <t xml:space="preserve">7.94398307800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85761737823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87798643112183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03849792480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99123859405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08004951477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15908050537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12485980987549</t>
   </si>
   <si>
     <t xml:space="preserve">8.25848388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24544620513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31062889099121</t>
+    <t xml:space="preserve">8.24544715881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31062793731689</t>
   </si>
   <si>
     <t xml:space="preserve">8.39373397827148</t>
@@ -3770,25 +3770,25 @@
     <t xml:space="preserve">8.4328441619873</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4866189956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53713512420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56972503662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45076847076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45402717590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44587993621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20959758758545</t>
+    <t xml:space="preserve">8.48661708831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53713321685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56972408294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45076751708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45402812957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44587898254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20959854125977</t>
   </si>
   <si>
     <t xml:space="preserve">8.19819068908691</t>
@@ -3800,82 +3800,82 @@
     <t xml:space="preserve">8.40676975250244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41654682159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39699268341064</t>
+    <t xml:space="preserve">8.41654872894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39699363708496</t>
   </si>
   <si>
     <t xml:space="preserve">8.49639511108398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49965572357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66260719299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57950210571289</t>
+    <t xml:space="preserve">8.49965476989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66261005401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57950019836426</t>
   </si>
   <si>
     <t xml:space="preserve">8.62512969970703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62838649749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59090805053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80437755584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8842248916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95429515838623</t>
+    <t xml:space="preserve">8.62838745117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59090709686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80437660217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88422393798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95429420471191</t>
   </si>
   <si>
     <t xml:space="preserve">8.9819974899292</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91518592834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83207321166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99490642547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23237323760986</t>
+    <t xml:space="preserve">8.91518688201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83207035064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99490737915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23237419128418</t>
   </si>
   <si>
     <t xml:space="preserve">9.24594306945801</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27138519287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48680114746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55295372009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65811729431152</t>
+    <t xml:space="preserve">9.27138614654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48680210113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55295467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65811634063721</t>
   </si>
   <si>
     <t xml:space="preserve">9.79211616516113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73783874511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87353515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0482406616211</t>
+    <t xml:space="preserve">9.7378396987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87353420257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0482425689697</t>
   </si>
   <si>
     <t xml:space="preserve">9.89388847351074</t>
@@ -3884,55 +3884,55 @@
     <t xml:space="preserve">9.82773590087891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0567216873169</t>
+    <t xml:space="preserve">10.0567226409912</t>
   </si>
   <si>
     <t xml:space="preserve">10.182240486145</t>
   </si>
   <si>
-    <t xml:space="preserve">10.155101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0261907577515</t>
+    <t xml:space="preserve">10.1551036834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0261917114258</t>
   </si>
   <si>
     <t xml:space="preserve">10.1601905822754</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3535585403442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3773021697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3230247497559</t>
+    <t xml:space="preserve">10.3535566329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3773040771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3230257034302</t>
   </si>
   <si>
     <t xml:space="preserve">10.4468469619751</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2907962799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2433042526245</t>
+    <t xml:space="preserve">10.2907972335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2433052062988</t>
   </si>
   <si>
     <t xml:space="preserve">10.4129228591919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.480770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4044427871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3162412643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5197839736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.809832572937</t>
+    <t xml:space="preserve">10.4807710647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4044418334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3162403106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5197849273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8098335266113</t>
   </si>
   <si>
     <t xml:space="preserve">10.635124206543</t>
@@ -3941,19 +3941,19 @@
     <t xml:space="preserve">10.4994287490845</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6520881652832</t>
+    <t xml:space="preserve">10.6520872116089</t>
   </si>
   <si>
     <t xml:space="preserve">10.7470731735229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7555541992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7029724121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7402877807617</t>
+    <t xml:space="preserve">10.7555532455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7029705047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7402896881104</t>
   </si>
   <si>
     <t xml:space="preserve">10.7250232696533</t>
@@ -3962,73 +3962,73 @@
     <t xml:space="preserve">10.6113777160645</t>
   </si>
   <si>
-    <t xml:space="preserve">10.640212059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6843137741089</t>
+    <t xml:space="preserve">10.6402139663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6843147277832</t>
   </si>
   <si>
     <t xml:space="preserve">10.6792268753052</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5418338775635</t>
+    <t xml:space="preserve">10.5418329238892</t>
   </si>
   <si>
     <t xml:space="preserve">10.3196325302124</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4553279876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4909477233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4281873703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7785472869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0075340270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0957355499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1262655258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1856346130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4247980117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6588706970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5079116821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4027462005615</t>
+    <t xml:space="preserve">10.4553289413452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.490948677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4281883239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77854633331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0075311660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0957374572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1262674331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1856336593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4247961044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6588716506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5079107284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4027471542358</t>
   </si>
   <si>
     <t xml:space="preserve">10.351861000061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1941156387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3026723861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1771516799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3450746536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2212543487549</t>
+    <t xml:space="preserve">10.1941146850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3026714324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1771535873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3450756072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2212524414062</t>
   </si>
   <si>
     <t xml:space="preserve">10.0363693237305</t>
@@ -4037,40 +4037,40 @@
     <t xml:space="preserve">10.3298101425171</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3247222900391</t>
+    <t xml:space="preserve">10.3247213363647</t>
   </si>
   <si>
     <t xml:space="preserve">10.3806953430176</t>
   </si>
   <si>
-    <t xml:space="preserve">10.42649269104</t>
+    <t xml:space="preserve">10.4264917373657</t>
   </si>
   <si>
     <t xml:space="preserve">10.4146194458008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3637351989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5231771469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6944904327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8183135986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7284164428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.847149848938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.757251739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8641109466553</t>
+    <t xml:space="preserve">10.363733291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.523175239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6944913864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8183126449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7284145355225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8471488952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7572498321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.864109992981</t>
   </si>
   <si>
     <t xml:space="preserve">11.0693511962891</t>
@@ -4082,40 +4082,40 @@
     <t xml:space="preserve">11.160943031311</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2050447463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2542343139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3814496994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2711963653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1151466369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7589464187622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1049709320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4357261657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7139024734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.512056350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2864637374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.411979675293</t>
+    <t xml:space="preserve">11.2050457000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2542352676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3814487457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2711982727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1151456832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7589445114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1049699783325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4357280731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.713903427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5120553970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2864618301392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4119825363159</t>
   </si>
   <si>
     <t xml:space="preserve">11.3271703720093</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">11.2694997787476</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4323358535767</t>
+    <t xml:space="preserve">11.4323348999023</t>
   </si>
   <si>
     <t xml:space="preserve">11.1829948425293</t>
@@ -4133,25 +4133,25 @@
     <t xml:space="preserve">11.0557804107666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2389678955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.277979850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4730415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3000326156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.17112159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3085117340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4238548278809</t>
+    <t xml:space="preserve">11.2389688491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2779817581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4730434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3000335693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1711196899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3085126876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4238538742065</t>
   </si>
   <si>
     <t xml:space="preserve">11.2915506362915</t>
@@ -4166,10 +4166,10 @@
     <t xml:space="preserve">11.3322591781616</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6867637634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7308654785156</t>
+    <t xml:space="preserve">11.6867647171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7308645248413</t>
   </si>
   <si>
     <t xml:space="preserve">12.087064743042</t>
@@ -4178,19 +4178,19 @@
     <t xml:space="preserve">12.3228349685669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7596988677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9014263153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3695755004883</t>
+    <t xml:space="preserve">11.7597007751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9014272689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3695764541626</t>
   </si>
   <si>
     <t xml:space="preserve">11.5934724807739</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5358037948608</t>
+    <t xml:space="preserve">11.5358018875122</t>
   </si>
   <si>
     <t xml:space="preserve">11.1134510040283</t>
@@ -4199,19 +4199,19 @@
     <t xml:space="preserve">11.0065908432007</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9607934951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8301868438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.118537902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7945671081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2135257720947</t>
+    <t xml:space="preserve">10.9607944488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8301877975464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1185388565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.79456615448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.213526725769</t>
   </si>
   <si>
     <t xml:space="preserve">11.4187650680542</t>
@@ -4220,43 +4220,43 @@
     <t xml:space="preserve">11.2559299468994</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1066675186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3492212295532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2745876312256</t>
+    <t xml:space="preserve">11.1066665649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3492221832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2745895385742</t>
   </si>
   <si>
     <t xml:space="preserve">11.3763608932495</t>
   </si>
   <si>
-    <t xml:space="preserve">11.400107383728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4560823440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3543090820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2474508285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7189922332764</t>
+    <t xml:space="preserve">11.4001064300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4560813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3543100357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2474489212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7189912796021</t>
   </si>
   <si>
     <t xml:space="preserve">11.7003326416016</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0209121704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0429639816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0005588531494</t>
+    <t xml:space="preserve">12.0209140777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0429630279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0005578994751</t>
   </si>
   <si>
     <t xml:space="preserve">12.0667104721069</t>
@@ -4268,22 +4268,22 @@
     <t xml:space="preserve">11.5171451568604</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9658842086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9896278381348</t>
+    <t xml:space="preserve">10.9658823013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9896297454834</t>
   </si>
   <si>
     <t xml:space="preserve">11.1592483520508</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3560066223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1948671340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5341062545776</t>
+    <t xml:space="preserve">11.3560075759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1948690414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.534107208252</t>
   </si>
   <si>
     <t xml:space="preserve">11.4577770233154</t>
@@ -4292,70 +4292,70 @@
     <t xml:space="preserve">11.5374984741211</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0914001464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2440576553345</t>
+    <t xml:space="preserve">11.0914011001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2440586090088</t>
   </si>
   <si>
     <t xml:space="preserve">11.5510683059692</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5680313110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7257766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8156728744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6918525695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7800550460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0023536682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9113330841064</t>
+    <t xml:space="preserve">11.5680303573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.725775718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.815673828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6918535232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7800540924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0023517608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9113321304321</t>
   </si>
   <si>
     <t xml:space="preserve">12.3576803207397</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4679536819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4206924438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4276943206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4259443283081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3384256362915</t>
+    <t xml:space="preserve">12.4679527282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.420693397522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4276933670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4259452819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3384246826172</t>
   </si>
   <si>
     <t xml:space="preserve">12.3156700134277</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4784574508667</t>
+    <t xml:space="preserve">12.4784555435181</t>
   </si>
   <si>
     <t xml:space="preserve">12.6307382583618</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6272392272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5957317352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2754125595093</t>
+    <t xml:space="preserve">12.6272382736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5957307815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.275411605835</t>
   </si>
   <si>
     <t xml:space="preserve">11.5875129699707</t>
@@ -4364,13 +4364,13 @@
     <t xml:space="preserve">11.3582124710083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5262489318848</t>
+    <t xml:space="preserve">11.5262498855591</t>
   </si>
   <si>
     <t xml:space="preserve">11.5997648239136</t>
   </si>
   <si>
-    <t xml:space="preserve">11.032642364502</t>
+    <t xml:space="preserve">11.0326433181763</t>
   </si>
   <si>
     <t xml:space="preserve">10.5110292434692</t>
@@ -4382,25 +4382,25 @@
     <t xml:space="preserve">10.5722932815552</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2047119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0034189224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2099647521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0646829605103</t>
+    <t xml:space="preserve">10.2047128677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0034198760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2099637985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0646820068359</t>
   </si>
   <si>
     <t xml:space="preserve">10.1539516448975</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91414833068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82662963867188</t>
+    <t xml:space="preserve">9.91414928436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82663059234619</t>
   </si>
   <si>
     <t xml:space="preserve">10.0629320144653</t>
@@ -4409,19 +4409,19 @@
     <t xml:space="preserve">9.48005676269531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41353988647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6673469543457</t>
+    <t xml:space="preserve">9.41354084014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66734600067139</t>
   </si>
   <si>
     <t xml:space="preserve">9.82488059997559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80212497711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74786186218262</t>
+    <t xml:space="preserve">9.8021240234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74786281585693</t>
   </si>
   <si>
     <t xml:space="preserve">9.72861003875732</t>
@@ -4430,13 +4430,13 @@
     <t xml:space="preserve">9.31551933288574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48530673980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6393404006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89314556121826</t>
+    <t xml:space="preserve">9.48530578613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63934135437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89314460754395</t>
   </si>
   <si>
     <t xml:space="preserve">9.77937030792236</t>
@@ -4445,7 +4445,7 @@
     <t xml:space="preserve">9.62708759307861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60083198547363</t>
+    <t xml:space="preserve">9.600830078125</t>
   </si>
   <si>
     <t xml:space="preserve">9.6813497543335</t>
@@ -4460,7 +4460,7 @@
     <t xml:space="preserve">10.2537221908569</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2414703369141</t>
+    <t xml:space="preserve">10.2414712905884</t>
   </si>
   <si>
     <t xml:space="preserve">10.0156717300415</t>
@@ -4469,46 +4469,46 @@
     <t xml:space="preserve">9.97716331481934</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96841239929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0261745452881</t>
+    <t xml:space="preserve">9.96841049194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0261726379395</t>
   </si>
   <si>
     <t xml:space="preserve">10.0174217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0576791763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99816799163818</t>
+    <t xml:space="preserve">10.0576801300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99816703796387</t>
   </si>
   <si>
     <t xml:space="preserve">10.1434497833252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1784572601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1329469680786</t>
+    <t xml:space="preserve">10.1784563064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1329479217529</t>
   </si>
   <si>
     <t xml:space="preserve">10.2327194213867</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4445152282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3009834289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4672689437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8593549728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7245750427246</t>
+    <t xml:space="preserve">10.4445161819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3009843826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4672679901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.859354019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7245740890503</t>
   </si>
   <si>
     <t xml:space="preserve">10.945122718811</t>
@@ -4517,46 +4517,46 @@
     <t xml:space="preserve">10.7788381576538</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9398717880249</t>
+    <t xml:space="preserve">10.9398727416992</t>
   </si>
   <si>
     <t xml:space="preserve">10.7088222503662</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3342409133911</t>
+    <t xml:space="preserve">10.3342399597168</t>
   </si>
   <si>
     <t xml:space="preserve">10.2624750137329</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5775442123413</t>
+    <t xml:space="preserve">10.577543258667</t>
   </si>
   <si>
     <t xml:space="preserve">10.7560815811157</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4602680206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1679553985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1364479064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2239656448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4532680511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3587465286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3359909057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0996894836426</t>
+    <t xml:space="preserve">10.4602670669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1679544448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1364488601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2239675521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4532651901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3587455749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.335991859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0996904373169</t>
   </si>
   <si>
     <t xml:space="preserve">9.94071483612061</t>
@@ -4565,34 +4565,34 @@
     <t xml:space="preserve">10.1191835403442</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6391019821167</t>
+    <t xml:space="preserve">9.63910293579102</t>
   </si>
   <si>
     <t xml:space="preserve">9.57842254638672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59448432922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6248254776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73547554016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0317344665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2976522445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4618434906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4671974182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5653562545776</t>
+    <t xml:space="preserve">9.59448623657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62482643127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73547458648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0317335128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2976531982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4618425369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4671964645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5653553009033</t>
   </si>
   <si>
     <t xml:space="preserve">10.5135984420776</t>
@@ -4601,10 +4601,10 @@
     <t xml:space="preserve">10.3244228363037</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1691541671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4297199249268</t>
+    <t xml:space="preserve">10.1691551208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4297180175781</t>
   </si>
   <si>
     <t xml:space="preserve">10.5867719650269</t>
@@ -4619,16 +4619,16 @@
     <t xml:space="preserve">10.7598857879639</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0240211486816</t>
+    <t xml:space="preserve">11.0240201950073</t>
   </si>
   <si>
     <t xml:space="preserve">10.9954652786255</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1400260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5273027420044</t>
+    <t xml:space="preserve">11.1400241851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5273017883301</t>
   </si>
   <si>
     <t xml:space="preserve">11.7218332290649</t>
@@ -4637,43 +4637,43 @@
     <t xml:space="preserve">11.827130317688</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0145235061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0734167098999</t>
+    <t xml:space="preserve">12.0145225524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0734186172485</t>
   </si>
   <si>
     <t xml:space="preserve">12.2429637908936</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5017433166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7319660186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.683780670166</t>
+    <t xml:space="preserve">12.5017423629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7319669723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6837816238403</t>
   </si>
   <si>
     <t xml:space="preserve">12.5124502182007</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5552825927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.740891456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9157915115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9175758361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8122787475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5695610046387</t>
+    <t xml:space="preserve">12.5552835464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7408895492554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9157905578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.917573928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8122777938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.569561958313</t>
   </si>
   <si>
     <t xml:space="preserve">12.6605787277222</t>
@@ -4685,28 +4685,28 @@
     <t xml:space="preserve">12.7367181777954</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7983522415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8563623428345</t>
+    <t xml:space="preserve">12.7983531951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8563632965088</t>
   </si>
   <si>
     <t xml:space="preserve">12.9596920013428</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7058992385864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8672389984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9832582473755</t>
+    <t xml:space="preserve">12.7059001922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8672399520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9832592010498</t>
   </si>
   <si>
     <t xml:space="preserve">12.7711610794067</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5916948318481</t>
+    <t xml:space="preserve">12.5916938781738</t>
   </si>
   <si>
     <t xml:space="preserve">12.5391225814819</t>
@@ -4715,37 +4715,37 @@
     <t xml:space="preserve">12.3650941848755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1783761978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2581405639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.259952545166</t>
+    <t xml:space="preserve">12.1783771514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2581386566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2599515914917</t>
   </si>
   <si>
     <t xml:space="preserve">12.3342761993408</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5209951400757</t>
+    <t xml:space="preserve">12.5209941864014</t>
   </si>
   <si>
     <t xml:space="preserve">12.3360891342163</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8285074234009</t>
+    <t xml:space="preserve">11.8285055160522</t>
   </si>
   <si>
     <t xml:space="preserve">11.6925458908081</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7741222381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7831859588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2019414901733</t>
+    <t xml:space="preserve">11.7741212844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7831869125366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2019424438477</t>
   </si>
   <si>
     <t xml:space="preserve">12.1239929199219</t>
@@ -4760,7 +4760,7 @@
     <t xml:space="preserve">12.2436380386353</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3197736740112</t>
+    <t xml:space="preserve">12.3197746276855</t>
   </si>
   <si>
     <t xml:space="preserve">12.0424165725708</t>
@@ -4769,31 +4769,31 @@
     <t xml:space="preserve">12.4249172210693</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4956150054932</t>
+    <t xml:space="preserve">12.4956169128418</t>
   </si>
   <si>
     <t xml:space="preserve">12.305272102356</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427494049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6388263702393</t>
+    <t xml:space="preserve">12.5427503585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6388273239136</t>
   </si>
   <si>
     <t xml:space="preserve">12.6660184860229</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9071197509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0666465759277</t>
+    <t xml:space="preserve">12.9071207046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0666475296021</t>
   </si>
   <si>
     <t xml:space="preserve">13.0720853805542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9868831634521</t>
+    <t xml:space="preserve">12.9868841171265</t>
   </si>
   <si>
     <t xml:space="preserve">13.0267648696899</t>
@@ -4802,28 +4802,28 @@
     <t xml:space="preserve">13.1065292358398</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9198093414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1029024124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0521459579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8527364730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7584714889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8690509796143</t>
+    <t xml:space="preserve">12.919810295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1029043197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0521440505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8527383804321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.758472442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8690528869629</t>
   </si>
   <si>
     <t xml:space="preserve">12.9542541503906</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8436737060547</t>
+    <t xml:space="preserve">12.8436717987061</t>
   </si>
   <si>
     <t xml:space="preserve">12.81285572052</t>
@@ -4832,13 +4832,13 @@
     <t xml:space="preserve">12.5499992370605</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4629850387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5481872558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4140396118164</t>
+    <t xml:space="preserve">12.4629859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5481853485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4140405654907</t>
   </si>
   <si>
     <t xml:space="preserve">12.6043844223022</t>
@@ -4856,31 +4856,31 @@
     <t xml:space="preserve">13.3856992721558</t>
   </si>
   <si>
-    <t xml:space="preserve">13.438271522522</t>
+    <t xml:space="preserve">13.4382705688477</t>
   </si>
   <si>
     <t xml:space="preserve">13.3150005340576</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3367538452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9615030288696</t>
+    <t xml:space="preserve">13.3367528915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9615049362183</t>
   </si>
   <si>
     <t xml:space="preserve">13.0068254470825</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9324989318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.792914390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1076774597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9572162628174</t>
+    <t xml:space="preserve">12.9324998855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7929153442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1076765060425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9572134017944</t>
   </si>
   <si>
     <t xml:space="preserve">12.1457452774048</t>
@@ -4889,28 +4889,28 @@
     <t xml:space="preserve">12.1149282455444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.937273979187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0949859619141</t>
+    <t xml:space="preserve">11.9372749328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0949869155884</t>
   </si>
   <si>
     <t xml:space="preserve">12.1765632629395</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2690153121948</t>
+    <t xml:space="preserve">12.2690143585205</t>
   </si>
   <si>
     <t xml:space="preserve">12.1656866073608</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1620607376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1384935379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1729373931885</t>
+    <t xml:space="preserve">12.1620616912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1384944915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1729383468628</t>
   </si>
   <si>
     <t xml:space="preserve">11.7143001556396</t>
@@ -4919,16 +4919,16 @@
     <t xml:space="preserve">11.8194417953491</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1577711105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.023624420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2673225402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5054798126221</t>
+    <t xml:space="preserve">11.157772064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0236234664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2673215866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5054807662964</t>
   </si>
   <si>
     <t xml:space="preserve">11.518404006958</t>
@@ -4937,7 +4937,7 @@
     <t xml:space="preserve">11.4962501525879</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2359352111816</t>
+    <t xml:space="preserve">11.235936164856</t>
   </si>
   <si>
     <t xml:space="preserve">11.3614768981934</t>
@@ -4949,7 +4949,7 @@
     <t xml:space="preserve">11.699330329895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8950262069702</t>
+    <t xml:space="preserve">11.8950271606445</t>
   </si>
   <si>
     <t xml:space="preserve">11.9134893417358</t>
@@ -4958,7 +4958,7 @@
     <t xml:space="preserve">12.3990383148193</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2864208221436</t>
+    <t xml:space="preserve">12.2864217758179</t>
   </si>
   <si>
     <t xml:space="preserve">12.4008846282959</t>
@@ -4967,37 +4967,37 @@
     <t xml:space="preserve">12.4987325668335</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7239694595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6150426864624</t>
+    <t xml:space="preserve">12.7239685058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6150436401367</t>
   </si>
   <si>
     <t xml:space="preserve">12.7978162765503</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7405843734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8125848770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8218173980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6962747573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5393495559692</t>
+    <t xml:space="preserve">12.7405834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8125858306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.821816444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6962757110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5393486022949</t>
   </si>
   <si>
     <t xml:space="preserve">12.7073526382446</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7553539276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.567042350769</t>
+    <t xml:space="preserve">12.755352973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5670413970947</t>
   </si>
   <si>
     <t xml:space="preserve">12.6888904571533</t>
@@ -5006,19 +5006,19 @@
     <t xml:space="preserve">12.4451932907104</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1571865081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0353374481201</t>
+    <t xml:space="preserve">12.157187461853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0353384017944</t>
   </si>
   <si>
     <t xml:space="preserve">11.9762601852417</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5264263153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5947351455688</t>
+    <t xml:space="preserve">12.5264253616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5947341918945</t>
   </si>
   <si>
     <t xml:space="preserve">12.4802703857422</t>
@@ -5030,37 +5030,37 @@
     <t xml:space="preserve">12.3565759658813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3196506500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2125720977783</t>
+    <t xml:space="preserve">12.3196516036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2125730514526</t>
   </si>
   <si>
     <t xml:space="preserve">12.3658065795898</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3141136169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4156551361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4531908035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5414056777954</t>
+    <t xml:space="preserve">12.314112663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4156541824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4531917572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5414066314697</t>
   </si>
   <si>
     <t xml:space="preserve">12.5451593399048</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2429800033569</t>
+    <t xml:space="preserve">12.2429790496826</t>
   </si>
   <si>
     <t xml:space="preserve">12.3799934387207</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4025144577026</t>
+    <t xml:space="preserve">12.402515411377</t>
   </si>
   <si>
     <t xml:space="preserve">12.1115970611572</t>
@@ -5069,76 +5069,76 @@
     <t xml:space="preserve">11.6836652755737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0008611679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3330707550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2955331802368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.184796333313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2748870849609</t>
+    <t xml:space="preserve">12.0008602142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3330717086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2955322265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1847953796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2748861312866</t>
   </si>
   <si>
     <t xml:space="preserve">12.3086709976196</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0402746200562</t>
+    <t xml:space="preserve">12.0402755737305</t>
   </si>
   <si>
     <t xml:space="preserve">12.1622734069824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1866731643677</t>
+    <t xml:space="preserve">12.186674118042</t>
   </si>
   <si>
     <t xml:space="preserve">12.2467336654663</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1791639328003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1904277801514</t>
+    <t xml:space="preserve">12.1791648864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1904268264771</t>
   </si>
   <si>
     <t xml:space="preserve">12.027135848999</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2617502212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0928268432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0083675384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1416282653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9614458084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0139989852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0947036743164</t>
+    <t xml:space="preserve">12.2617492675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.092827796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0083665847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1416273117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.961446762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0139980316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0947046279907</t>
   </si>
   <si>
     <t xml:space="preserve">12.3706083297729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5864515304565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6352500915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5470371246338</t>
+    <t xml:space="preserve">12.5864505767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6352510452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5470361709595</t>
   </si>
   <si>
     <t xml:space="preserve">12.2317190170288</t>
@@ -5150,19 +5150,19 @@
     <t xml:space="preserve">12.3124256134033</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4194078445435</t>
+    <t xml:space="preserve">12.4194087982178</t>
   </si>
   <si>
     <t xml:space="preserve">12.7009420394897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7816476821899</t>
+    <t xml:space="preserve">12.7816486358643</t>
   </si>
   <si>
     <t xml:space="preserve">12.5995893478394</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4757146835327</t>
+    <t xml:space="preserve">12.4757137298584</t>
   </si>
   <si>
     <t xml:space="preserve">12.603343963623</t>
@@ -5174,22 +5174,22 @@
     <t xml:space="preserve">12.8004179000854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9580755233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8661088943481</t>
+    <t xml:space="preserve">12.9580764770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8661079406738</t>
   </si>
   <si>
     <t xml:space="preserve">12.7534942626953</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8848762512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8173084259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0293979644775</t>
+    <t xml:space="preserve">12.884877204895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8173093795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0293989181519</t>
   </si>
   <si>
     <t xml:space="preserve">12.9280462265015</t>
@@ -5213,82 +5213,82 @@
     <t xml:space="preserve">13.2565031051636</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1833028793335</t>
+    <t xml:space="preserve">13.1833038330078</t>
   </si>
   <si>
     <t xml:space="preserve">13.1513967514038</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0725660324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1138582229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.170166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2227191925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2452402114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2077045440674</t>
+    <t xml:space="preserve">13.072566986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1138591766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1701650619507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2227182388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2452421188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2077035903931</t>
   </si>
   <si>
     <t xml:space="preserve">13.2583799362183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2827796936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.417914390564</t>
+    <t xml:space="preserve">13.2827787399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4179153442383</t>
   </si>
   <si>
     <t xml:space="preserve">13.4723453521729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.483606338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4047775268555</t>
+    <t xml:space="preserve">13.4836072921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4047765731812</t>
   </si>
   <si>
     <t xml:space="preserve">13.6431427001953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7032041549683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9209222793579</t>
+    <t xml:space="preserve">13.7032032012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9209232330322</t>
   </si>
   <si>
     <t xml:space="preserve">13.8815078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8327083587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8871402740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1255044937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1724271774292</t>
+    <t xml:space="preserve">13.832709312439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8871383666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1255035400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1724262237549</t>
   </si>
   <si>
     <t xml:space="preserve">14.1911954879761</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4239311218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3920230865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2757120132446</t>
+    <t xml:space="preserve">14.4239301681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3920240402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2757129669189</t>
   </si>
   <si>
     <t xml:space="preserve">14.5865106582642</t>
@@ -5315,13 +5315,13 @@
     <t xml:space="preserve">14.7009143829346</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5445623397827</t>
+    <t xml:space="preserve">14.5445613861084</t>
   </si>
   <si>
     <t xml:space="preserve">14.2051630020142</t>
   </si>
   <si>
-    <t xml:space="preserve">14.041184425354</t>
+    <t xml:space="preserve">14.0411834716797</t>
   </si>
   <si>
     <t xml:space="preserve">13.82190990448</t>
@@ -5330,13 +5330,13 @@
     <t xml:space="preserve">13.7666139602661</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9572887420654</t>
+    <t xml:space="preserve">13.9572877883911</t>
   </si>
   <si>
     <t xml:space="preserve">14.2738056182861</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4435043334961</t>
+    <t xml:space="preserve">14.4435052871704</t>
   </si>
   <si>
     <t xml:space="preserve">14.3824901580811</t>
@@ -5345,25 +5345,25 @@
     <t xml:space="preserve">14.5826959609985</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7752771377563</t>
+    <t xml:space="preserve">14.775276184082</t>
   </si>
   <si>
     <t xml:space="preserve">14.7581157684326</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8076906204224</t>
+    <t xml:space="preserve">14.8076915740967</t>
   </si>
   <si>
     <t xml:space="preserve">14.9106559753418</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7314224243164</t>
+    <t xml:space="preserve">14.7314214706421</t>
   </si>
   <si>
     <t xml:space="preserve">14.6799392700195</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7161684036255</t>
+    <t xml:space="preserve">14.7161674499512</t>
   </si>
   <si>
     <t xml:space="preserve">14.6875667572021</t>
@@ -5372,7 +5372,7 @@
     <t xml:space="preserve">14.7600231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">14.786717414856</t>
+    <t xml:space="preserve">14.7867164611816</t>
   </si>
   <si>
     <t xml:space="preserve">14.6475257873535</t>
@@ -5390,13 +5390,13 @@
     <t xml:space="preserve">14.6856603622437</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3119401931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1346139907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2394847869873</t>
+    <t xml:space="preserve">14.3119411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.134614944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.239483833313</t>
   </si>
   <si>
     <t xml:space="preserve">14.2985935211182</t>
@@ -5411,13 +5411,13 @@
     <t xml:space="preserve">14.4816398620605</t>
   </si>
   <si>
-    <t xml:space="preserve">14.167028427124</t>
+    <t xml:space="preserve">14.1670274734497</t>
   </si>
   <si>
     <t xml:space="preserve">14.5307540893555</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4591064453125</t>
+    <t xml:space="preserve">14.4591073989868</t>
   </si>
   <si>
     <t xml:space="preserve">14.2557849884033</t>
@@ -5426,25 +5426,25 @@
     <t xml:space="preserve">14.4610433578491</t>
   </si>
   <si>
-    <t xml:space="preserve">14.588846206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5520544052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.71471118927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6275730133057</t>
+    <t xml:space="preserve">14.5888452529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5520534515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7147121429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.62757396698</t>
   </si>
   <si>
     <t xml:space="preserve">14.6856660842896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7650585174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4842796325684</t>
+    <t xml:space="preserve">14.7650575637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4842805862427</t>
   </si>
   <si>
     <t xml:space="preserve">14.610146522522</t>
@@ -5462,7 +5462,7 @@
     <t xml:space="preserve">14.5075168609619</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3332414627075</t>
+    <t xml:space="preserve">14.3332405090332</t>
   </si>
   <si>
     <t xml:space="preserve">14.2809581756592</t>
@@ -5471,16 +5471,16 @@
     <t xml:space="preserve">14.3758411407471</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429231643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5152626037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5481815338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7205219268799</t>
+    <t xml:space="preserve">14.3429222106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5152616500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5481805801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7205209732056</t>
   </si>
   <si>
     <t xml:space="preserve">14.7166481018066</t>
@@ -5489,7 +5489,7 @@
     <t xml:space="preserve">14.8018493652344</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9451427459717</t>
+    <t xml:space="preserve">14.945143699646</t>
   </si>
   <si>
     <t xml:space="preserve">14.8696241378784</t>
@@ -5504,25 +5504,25 @@
     <t xml:space="preserve">14.9470796585083</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0264730453491</t>
+    <t xml:space="preserve">15.0264720916748</t>
   </si>
   <si>
     <t xml:space="preserve">15.0458364486694</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6004648208618</t>
+    <t xml:space="preserve">14.6004638671875</t>
   </si>
   <si>
     <t xml:space="preserve">14.4494247436523</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4106960296631</t>
+    <t xml:space="preserve">14.4106969833374</t>
   </si>
   <si>
     <t xml:space="preserve">14.3409862518311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5636730194092</t>
+    <t xml:space="preserve">14.5636720657349</t>
   </si>
   <si>
     <t xml:space="preserve">14.5191354751587</t>
@@ -5540,19 +5540,19 @@
     <t xml:space="preserve">13.9904975891113</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8839950561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9014234542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0292263031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1028099060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2867660522461</t>
+    <t xml:space="preserve">13.8839960098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9014225006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0292253494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1028089523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2867670059204</t>
   </si>
   <si>
     <t xml:space="preserve">14.4455518722534</t>
@@ -5567,13 +5567,13 @@
     <t xml:space="preserve">13.9169139862061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1376647949219</t>
+    <t xml:space="preserve">14.1376638412476</t>
   </si>
   <si>
     <t xml:space="preserve">13.9130411148071</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9091682434082</t>
+    <t xml:space="preserve">13.9091691970825</t>
   </si>
   <si>
     <t xml:space="preserve">13.8394584655762</t>
@@ -5585,13 +5585,13 @@
     <t xml:space="preserve">14.009861946106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0408449172974</t>
+    <t xml:space="preserve">14.040843963623</t>
   </si>
   <si>
     <t xml:space="preserve">14.1396007537842</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7039108276367</t>
+    <t xml:space="preserve">13.7039098739624</t>
   </si>
   <si>
     <t xml:space="preserve">13.7194013595581</t>
@@ -5600,7 +5600,7 @@
     <t xml:space="preserve">13.6826095581055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8472032546997</t>
+    <t xml:space="preserve">13.847204208374</t>
   </si>
   <si>
     <t xml:space="preserve">13.7774934768677</t>
@@ -5624,7 +5624,7 @@
     <t xml:space="preserve">13.8723773956299</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9304695129395</t>
+    <t xml:space="preserve">13.9304685592651</t>
   </si>
   <si>
     <t xml:space="preserve">14.0466537475586</t>
@@ -5633,25 +5633,25 @@
     <t xml:space="preserve">14.1628379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1667098999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2344846725464</t>
+    <t xml:space="preserve">14.1667108535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2344837188721</t>
   </si>
   <si>
     <t xml:space="preserve">14.0950632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2248020172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5017080307007</t>
+    <t xml:space="preserve">14.2248029708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5017070770264</t>
   </si>
   <si>
     <t xml:space="preserve">14.0602083206177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0447158813477</t>
+    <t xml:space="preserve">14.044716835022</t>
   </si>
   <si>
     <t xml:space="preserve">13.9954919815063</t>
@@ -5877,6 +5877,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.6059999465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4540004730225</t>
   </si>
 </sst>
 </file>
@@ -62508,7 +62511,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.6510648148</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>4982040</v>
@@ -62529,6 +62532,32 @@
         <v>1954</v>
       </c>
       <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.6505555556</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>6433867</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>14.6560001373291</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>14.4079999923706</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>14.5959997177124</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>14.4540004730225</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>1955</v>
+      </c>
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENI.MI.xlsx
+++ b/data/ENI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="1959">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,61 +38,61 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95016002655029</t>
+    <t xml:space="preserve">7.95016050338745</t>
   </si>
   <si>
     <t xml:space="preserve">ENI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02119636535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79624605178833</t>
+    <t xml:space="preserve">8.02119541168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79624795913696</t>
   </si>
   <si>
     <t xml:space="preserve">7.73704814910889</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51802158355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48842144012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50618171691895</t>
+    <t xml:space="preserve">7.51802062988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48842334747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50618124008179</t>
   </si>
   <si>
     <t xml:space="preserve">7.59497737884521</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70153141021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42922592163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34635019302368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44698429107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19835662841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67785406112671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58313798904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74297094345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77848863601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86136198043823</t>
+    <t xml:space="preserve">7.7015323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42922687530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34634780883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4469838142395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19835758209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67785453796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58313989639282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74296998977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.778489112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86136293411255</t>
   </si>
   <si>
     <t xml:space="preserve">7.40554618835449</t>
@@ -104,115 +104,115 @@
     <t xml:space="preserve">7.54170036315918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41738653182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15099811553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86685371398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88461208343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47023487091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90237236022949</t>
+    <t xml:space="preserve">7.4173846244812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15099954605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86685514450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88461256027222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47023439407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90237140655518</t>
   </si>
   <si>
     <t xml:space="preserve">7.06812334060669</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01484727859497</t>
+    <t xml:space="preserve">7.0148458480835</t>
   </si>
   <si>
     <t xml:space="preserve">7.23979473114014</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08588218688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05628442764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31083106994629</t>
+    <t xml:space="preserve">7.08588314056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05628395080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31083250045776</t>
   </si>
   <si>
     <t xml:space="preserve">6.97340822219849</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15691995620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52394151687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66601419448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90280199050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96199750900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06855201721191</t>
+    <t xml:space="preserve">7.15691947937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5239405632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66601371765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90280294418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96199893951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06855297088623</t>
   </si>
   <si>
     <t xml:space="preserve">8.0152759552002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04487323760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84360456466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93240070343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66009330749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88504362106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92648267745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81400585174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91464138031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05671405792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12775039672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16918849945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97383785247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7844066619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00343608856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87320375442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57129812240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55353927612305</t>
+    <t xml:space="preserve">8.0448751449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84360408782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93239974975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66009426116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88504409790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92648124694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81400775909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91464185714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05671310424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1277494430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16918754577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9738392829895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78440713882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00343704223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87320470809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57129955291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55353879928589</t>
   </si>
   <si>
     <t xml:space="preserve">7.36410856246948</t>
@@ -221,16 +221,16 @@
     <t xml:space="preserve">7.44106483459473</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2930736541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6068172454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63049697875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67193269729614</t>
+    <t xml:space="preserve">7.29307222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60681676864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63049602508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67193460464478</t>
   </si>
   <si>
     <t xml:space="preserve">7.97975778579712</t>
@@ -239,13 +239,13 @@
     <t xml:space="preserve">8.1218318939209</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99159812927246</t>
+    <t xml:space="preserve">7.99159574508667</t>
   </si>
   <si>
     <t xml:space="preserve">8.0922327041626</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2224645614624</t>
+    <t xml:space="preserve">8.22246551513672</t>
   </si>
   <si>
     <t xml:space="preserve">8.32902050018311</t>
@@ -254,16 +254,16 @@
     <t xml:space="preserve">8.37637710571289</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33493900299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37045860290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44741439819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52436923980713</t>
+    <t xml:space="preserve">8.33494091033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37045955657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44741535186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52437210083008</t>
   </si>
   <si>
     <t xml:space="preserve">8.40597820281982</t>
@@ -272,103 +272,103 @@
     <t xml:space="preserve">8.25798416137695</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08631324768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92056083679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03303623199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10407066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80808877944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90189218521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14596652984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42664909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46936225891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4388542175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50597476959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37783145904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2618989944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25579738616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18867778778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40224170684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59750175476074</t>
+    <t xml:space="preserve">8.08631420135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92055988311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03303527832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10407161712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80808639526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90189075469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14596557617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42665004730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4693603515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43885040283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50597381591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37783432006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26189994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25579643249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18867683410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40224075317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59750080108643</t>
   </si>
   <si>
     <t xml:space="preserve">8.62190818786621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57919502258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20698165893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05443572998047</t>
+    <t xml:space="preserve">8.57919788360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20698261260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0544376373291</t>
   </si>
   <si>
     <t xml:space="preserve">8.15816783905029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0727424621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39003753662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64021492004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75004863739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61580753326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89649295806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0788459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33512115478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72564315795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85987949371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04293727874756</t>
+    <t xml:space="preserve">8.07274150848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39003849029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64021396636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75004768371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61580944061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89649200439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07884407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33512306213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72563934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85988140106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04293441772461</t>
   </si>
   <si>
     <t xml:space="preserve">8.79275989532471</t>
@@ -377,22 +377,22 @@
     <t xml:space="preserve">8.62801074981689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67682647705078</t>
+    <t xml:space="preserve">8.67682456970215</t>
   </si>
   <si>
     <t xml:space="preserve">8.84767723083496</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95140933990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03683376312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.927001953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09175109863281</t>
+    <t xml:space="preserve">8.95140743255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03683567047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92700004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09174823760986</t>
   </si>
   <si>
     <t xml:space="preserve">8.98191738128662</t>
@@ -401,115 +401,115 @@
     <t xml:space="preserve">8.88428688049316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85377979278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76835155487061</t>
+    <t xml:space="preserve">8.85377883911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76835250854492</t>
   </si>
   <si>
     <t xml:space="preserve">8.71953773498535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68292617797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56089115142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56699275970459</t>
+    <t xml:space="preserve">8.68292808532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56088924407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56699180603027</t>
   </si>
   <si>
     <t xml:space="preserve">8.34122371673584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34732627868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18257617950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01172351837158</t>
+    <t xml:space="preserve">8.34732341766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18257713317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01172542572021</t>
   </si>
   <si>
     <t xml:space="preserve">8.06664085388184</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08494567871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28020477294922</t>
+    <t xml:space="preserve">8.08494663238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28020572662354</t>
   </si>
   <si>
     <t xml:space="preserve">8.26800155639648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2435941696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35952854156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38393783569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21918678283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20087909698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31071376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30461311340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37173366546631</t>
+    <t xml:space="preserve">8.24359512329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35952949523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38393592834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21918869018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20088195800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31071472167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30461120605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37173461914062</t>
   </si>
   <si>
     <t xml:space="preserve">8.27410221099854</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99952030181885</t>
+    <t xml:space="preserve">7.99952173233032</t>
   </si>
   <si>
     <t xml:space="preserve">8.02392768859863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06053924560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8774847984314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99712562561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.852294921875</t>
+    <t xml:space="preserve">8.06054019927979</t>
   </si>
   <si>
     <t xml:space="preserve">7.87748384475708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96564149856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93415594100952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78932762145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154638290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77673292160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13565731048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07268905639648</t>
+    <t xml:space="preserve">7.99712610244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85229635238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87748289108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96564102172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93415546417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78932666778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154399871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77673244476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13565921783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07268810272217</t>
   </si>
   <si>
     <t xml:space="preserve">8.1167688369751</t>
@@ -518,31 +518,31 @@
     <t xml:space="preserve">8.16714382171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35605239868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36864376068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56385231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40013122558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34345722198486</t>
+    <t xml:space="preserve">8.35605144500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3686466217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56385135650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40013027191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34345817565918</t>
   </si>
   <si>
     <t xml:space="preserve">8.28678607940674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45050525665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38123798370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53236675262451</t>
+    <t xml:space="preserve">8.45050621032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38123989105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5323657989502</t>
   </si>
   <si>
     <t xml:space="preserve">8.5575532913208</t>
@@ -551,40 +551,40 @@
     <t xml:space="preserve">8.64571094512939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6708984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61422538757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52606868743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65830516815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50717926025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31826972961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18603515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06639194488525</t>
+    <t xml:space="preserve">8.67089939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61422443389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5260705947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65830421447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50718021392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31827068328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18603610992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0663948059082</t>
   </si>
   <si>
     <t xml:space="preserve">8.00342178344727</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92785978317261</t>
+    <t xml:space="preserve">7.92785930633545</t>
   </si>
   <si>
     <t xml:space="preserve">8.04120445251465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09157943725586</t>
+    <t xml:space="preserve">8.09158039093018</t>
   </si>
   <si>
     <t xml:space="preserve">8.06009578704834</t>
@@ -593,76 +593,76 @@
     <t xml:space="preserve">8.02861022949219</t>
   </si>
   <si>
-    <t xml:space="preserve">7.902672290802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72005796432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87118721008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82080984115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79562330245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91526365280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92156267166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97193765640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27418994903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57014846801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62052249908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79054069519043</t>
+    <t xml:space="preserve">7.90267324447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72006130218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87118577957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82081127166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79562282562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91526508331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9215612411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97193813323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27419185638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57014656066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62052345275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79054164886475</t>
   </si>
   <si>
     <t xml:space="preserve">8.87869930267334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96055793762207</t>
+    <t xml:space="preserve">8.96056079864502</t>
   </si>
   <si>
     <t xml:space="preserve">8.97315311431885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30689144134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40134525299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36985874176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42653369903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47690677642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4202356338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53987693786621</t>
+    <t xml:space="preserve">9.30689239501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40134620666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36985969543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42653465270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47691059112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42023468017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53987789154053</t>
   </si>
   <si>
     <t xml:space="preserve">9.55247211456299</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65951824188232</t>
+    <t xml:space="preserve">9.65952014923096</t>
   </si>
   <si>
     <t xml:space="preserve">9.64062976837158</t>
@@ -674,13 +674,13 @@
     <t xml:space="preserve">9.74138164520264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84842967987061</t>
+    <t xml:space="preserve">9.84842872619629</t>
   </si>
   <si>
     <t xml:space="preserve">9.84213066101074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87991237640381</t>
+    <t xml:space="preserve">9.87991333007812</t>
   </si>
   <si>
     <t xml:space="preserve">9.89880466461182</t>
@@ -692,37 +692,37 @@
     <t xml:space="preserve">9.79175662994385</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78545761108398</t>
+    <t xml:space="preserve">9.7854585647583</t>
   </si>
   <si>
     <t xml:space="preserve">9.73508453369141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8673210144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69730186462402</t>
+    <t xml:space="preserve">9.86732006072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69730091094971</t>
   </si>
   <si>
     <t xml:space="preserve">9.80434989929199</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76656818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66581916809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41393947601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30059432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06130981445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94796371459961</t>
+    <t xml:space="preserve">9.76657009124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66581726074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41393756866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3005952835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06131076812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94796562194824</t>
   </si>
   <si>
     <t xml:space="preserve">8.89758968353271</t>
@@ -734,10 +734,10 @@
     <t xml:space="preserve">9.1494665145874</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94166851043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90388679504395</t>
+    <t xml:space="preserve">8.94166946411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90388584136963</t>
   </si>
   <si>
     <t xml:space="preserve">9.04241847991943</t>
@@ -746,67 +746,67 @@
     <t xml:space="preserve">9.06760692596436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15576457977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05501365661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89129257202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18095302581787</t>
+    <t xml:space="preserve">9.15576267242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05501461029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8912935256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18095207214355</t>
   </si>
   <si>
     <t xml:space="preserve">9.07390403747559</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00463771820068</t>
+    <t xml:space="preserve">9.00463676452637</t>
   </si>
   <si>
     <t xml:space="preserve">9.14317035675049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44542694091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45172119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61544132232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50209617614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31948471069336</t>
+    <t xml:space="preserve">9.44542407989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45171928405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61544227600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50209712982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31948566436768</t>
   </si>
   <si>
     <t xml:space="preserve">9.25651454925537</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21243667602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22503280639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11168670654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23762512207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39505004882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35097122192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3761568069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46431541442871</t>
+    <t xml:space="preserve">9.21243762969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22503185272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11168479919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.237624168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39504814147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35097026824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37615776062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46431446075439</t>
   </si>
   <si>
     <t xml:space="preserve">9.43912696838379</t>
@@ -824,19 +824,19 @@
     <t xml:space="preserve">9.58395767211914</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59654903411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24392127990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25021743774414</t>
+    <t xml:space="preserve">9.5965518951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24392318725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25021648406982</t>
   </si>
   <si>
     <t xml:space="preserve">9.41513347625732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37628364562988</t>
+    <t xml:space="preserve">9.3762845993042</t>
   </si>
   <si>
     <t xml:space="preserve">9.27267742156982</t>
@@ -845,19 +845,19 @@
     <t xml:space="preserve">9.24030017852783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25972652435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22087287902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21439743041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44751167297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54464054107666</t>
+    <t xml:space="preserve">9.25972747802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22087478637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21440029144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44751071929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54464149475098</t>
   </si>
   <si>
     <t xml:space="preserve">9.59644317626953</t>
@@ -866,28 +866,28 @@
     <t xml:space="preserve">9.64824676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64177131652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71300029754639</t>
+    <t xml:space="preserve">9.641770362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71299934387207</t>
   </si>
   <si>
     <t xml:space="preserve">9.74537563323975</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62234401702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73890018463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72594928741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70652484893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66767120361328</t>
+    <t xml:space="preserve">9.62234592437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73890113830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72595119476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70652389526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66767311096191</t>
   </si>
   <si>
     <t xml:space="preserve">9.48636341094971</t>
@@ -902,22 +902,22 @@
     <t xml:space="preserve">9.12374496459961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23382663726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09784317016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03956413269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1107931137085</t>
+    <t xml:space="preserve">9.23382759094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09784412384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03956508636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11079406738281</t>
   </si>
   <si>
     <t xml:space="preserve">8.92948436737061</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99423789978027</t>
+    <t xml:space="preserve">8.99423885345459</t>
   </si>
   <si>
     <t xml:space="preserve">9.00071334838867</t>
@@ -926,37 +926,37 @@
     <t xml:space="preserve">9.06546592712402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96833801269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91653251647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00718688964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82587718963623</t>
+    <t xml:space="preserve">8.96833610534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91653537750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00718784332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82587909698486</t>
   </si>
   <si>
     <t xml:space="preserve">8.87120532989502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84530258178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7935037612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80645370483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7546501159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78055191040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61219310760498</t>
+    <t xml:space="preserve">8.84530544281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79350280761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8064546585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75465202331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78055286407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6121940612793</t>
   </si>
   <si>
     <t xml:space="preserve">8.52153873443604</t>
@@ -965,49 +965,49 @@
     <t xml:space="preserve">8.62514400482178</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65104389190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52801418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47621059417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39203071594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41793251037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39850807189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54096412658691</t>
+    <t xml:space="preserve">8.65104484558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52801322937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47621250152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3920316696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41793441772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39850902557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5409631729126</t>
   </si>
   <si>
     <t xml:space="preserve">8.55391407012939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57334327697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50858879089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50211143493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51506328582764</t>
+    <t xml:space="preserve">8.57334041595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50858592987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50211238861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51506423950195</t>
   </si>
   <si>
     <t xml:space="preserve">8.44383430480957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45678615570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58629131317139</t>
+    <t xml:space="preserve">8.456787109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5862922668457</t>
   </si>
   <si>
     <t xml:space="preserve">8.56039047241211</t>
@@ -1016,67 +1016,67 @@
     <t xml:space="preserve">8.65752029418945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72227382659912</t>
+    <t xml:space="preserve">8.7222728729248</t>
   </si>
   <si>
     <t xml:space="preserve">8.7611255645752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74169921875</t>
+    <t xml:space="preserve">8.74170017242432</t>
   </si>
   <si>
     <t xml:space="preserve">8.77407646179199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78702735900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76760101318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73522567749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64457130432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68342208862305</t>
+    <t xml:space="preserve">8.78702545166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76760196685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73522472381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64457035064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68342304229736</t>
   </si>
   <si>
     <t xml:space="preserve">8.57981586456299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48915958404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61866760253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63161945343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67047119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72874736785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71580028533936</t>
+    <t xml:space="preserve">8.48916149139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6186695098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63161849975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67047214508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7287483215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71579837799072</t>
   </si>
   <si>
     <t xml:space="preserve">8.74817562103271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83235549926758</t>
+    <t xml:space="preserve">8.83235454559326</t>
   </si>
   <si>
     <t xml:space="preserve">8.94243621826172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97577857971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02245616912842</t>
+    <t xml:space="preserve">8.9757776260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02245712280273</t>
   </si>
   <si>
     <t xml:space="preserve">9.09580993652344</t>
@@ -1088,97 +1088,97 @@
     <t xml:space="preserve">9.18916893005371</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29586505889893</t>
+    <t xml:space="preserve">9.29586410522461</t>
   </si>
   <si>
     <t xml:space="preserve">9.32920742034912</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2891960144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30253505706787</t>
+    <t xml:space="preserve">9.28919696807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30253219604492</t>
   </si>
   <si>
     <t xml:space="preserve">9.33587551116943</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31587028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38255405426025</t>
+    <t xml:space="preserve">9.3158712387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38255500793457</t>
   </si>
   <si>
     <t xml:space="preserve">9.26919078826904</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35588264465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23584747314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28252792358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24251747131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2625207901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25585269927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1825008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22251224517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20250701904297</t>
+    <t xml:space="preserve">9.355881690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23584842681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28252601623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24251651763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26252365112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2558536529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18250179290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22251033782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20250511169434</t>
   </si>
   <si>
     <t xml:space="preserve">9.22918033599854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36255073547363</t>
+    <t xml:space="preserve">9.36254787445068</t>
   </si>
   <si>
     <t xml:space="preserve">9.48258304595947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53592872619629</t>
+    <t xml:space="preserve">9.53593158721924</t>
   </si>
   <si>
     <t xml:space="preserve">9.58927726745605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66929912567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81600666046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74932098388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67596817016602</t>
+    <t xml:space="preserve">9.6693000793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81600475311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74932289123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67596912384033</t>
   </si>
   <si>
     <t xml:space="preserve">9.60928344726562</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5425968170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42923355102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1558256149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17583274841309</t>
+    <t xml:space="preserve">9.54259872436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42923450469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15582466125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17583084106445</t>
   </si>
   <si>
     <t xml:space="preserve">9.24918556213379</t>
@@ -1187,40 +1187,40 @@
     <t xml:space="preserve">9.27585887908936</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21584129333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12914943695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20917224884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34921264648438</t>
+    <t xml:space="preserve">9.21584224700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.129150390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20917510986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34921073913574</t>
   </si>
   <si>
     <t xml:space="preserve">9.37588596343994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32253932952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30920314788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50258922576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62262058258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68263721466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8026704788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94937610626221</t>
+    <t xml:space="preserve">9.32253837585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30920124053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50258731842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62261962890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68263816833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80266857147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94937705993652</t>
   </si>
   <si>
     <t xml:space="preserve">9.94270801544189</t>
@@ -1229,82 +1229,82 @@
     <t xml:space="preserve">9.9093656539917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96938228607178</t>
+    <t xml:space="preserve">9.96938133239746</t>
   </si>
   <si>
     <t xml:space="preserve">9.88935947418213</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96271324157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97604846954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95604419708252</t>
+    <t xml:space="preserve">9.96271228790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97605037689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95604515075684</t>
   </si>
   <si>
     <t xml:space="preserve">9.86268520355225</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69864082336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65996360778809</t>
+    <t xml:space="preserve">9.69864177703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65996646881104</t>
   </si>
   <si>
     <t xml:space="preserve">9.72931575775146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56793880462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43857097625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17183113098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11714839935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93443012237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99044895172119</t>
+    <t xml:space="preserve">9.56793785095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43857002258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17183017730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11715030670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9344310760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99044990539551</t>
   </si>
   <si>
     <t xml:space="preserve">8.90375804901123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.961106300354</t>
+    <t xml:space="preserve">8.96110725402832</t>
   </si>
   <si>
     <t xml:space="preserve">9.00511837005615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09047603607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14115619659424</t>
+    <t xml:space="preserve">9.09047508239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14115524291992</t>
   </si>
   <si>
     <t xml:space="preserve">9.14382362365723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12248420715332</t>
+    <t xml:space="preserve">9.12248516082764</t>
   </si>
   <si>
     <t xml:space="preserve">9.19583702087402</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24385166168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14515781402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05046367645264</t>
+    <t xml:space="preserve">9.24385070800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14515686035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05046653747559</t>
   </si>
   <si>
     <t xml:space="preserve">8.92109775543213</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">8.88908672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01178646087646</t>
+    <t xml:space="preserve">9.01178741455078</t>
   </si>
   <si>
     <t xml:space="preserve">9.05713176727295</t>
@@ -1322,16 +1322,16 @@
     <t xml:space="preserve">9.06380081176758</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14782524108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2185115814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40256023406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29453086853027</t>
+    <t xml:space="preserve">9.14782333374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21850872039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40255928039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29452991485596</t>
   </si>
   <si>
     <t xml:space="preserve">9.42256641387939</t>
@@ -1355,37 +1355,37 @@
     <t xml:space="preserve">9.44390392303467</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52792930603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6239538192749</t>
+    <t xml:space="preserve">9.52792835235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62395286560059</t>
   </si>
   <si>
     <t xml:space="preserve">9.70664310455322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91069984436035</t>
+    <t xml:space="preserve">9.91069889068604</t>
   </si>
   <si>
     <t xml:space="preserve">9.9280366897583</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99472236633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0920820236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.154764175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2227821350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2908020019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3014726638794</t>
+    <t xml:space="preserve">9.99472045898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0920810699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1547651290894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2227830886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2908000946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3014707565308</t>
   </si>
   <si>
     <t xml:space="preserve">10.4561815261841</t>
@@ -1394,19 +1394,19 @@
     <t xml:space="preserve">10.5335350036621</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6695728302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.63756275177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7282543182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6882448196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5695447921753</t>
+    <t xml:space="preserve">10.6695718765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6375637054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.728253364563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6882429122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5695457458496</t>
   </si>
   <si>
     <t xml:space="preserve">10.7829370498657</t>
@@ -1415,40 +1415,40 @@
     <t xml:space="preserve">10.7749338150024</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8029413223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8842964172363</t>
+    <t xml:space="preserve">10.8029432296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.884295463562</t>
   </si>
   <si>
     <t xml:space="preserve">10.7549285888672</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9029693603516</t>
+    <t xml:space="preserve">10.9029703140259</t>
   </si>
   <si>
     <t xml:space="preserve">11.112359046936</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8269481658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1270313262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9416465759277</t>
+    <t xml:space="preserve">10.8269491195679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1270303726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9416456222534</t>
   </si>
   <si>
     <t xml:space="preserve">10.962986946106</t>
   </si>
   <si>
-    <t xml:space="preserve">11.120361328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1790447235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0283365249634</t>
+    <t xml:space="preserve">11.1203632354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1790409088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0283346176147</t>
   </si>
   <si>
     <t xml:space="preserve">11.0710144042969</t>
@@ -1460,49 +1460,49 @@
     <t xml:space="preserve">10.9502029418945</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0035047531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8818664550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7820959091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5142183303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3010082244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3146743774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5852861404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.750659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6508893966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5593204498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5579528808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6809577941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4035129547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7069263458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6003198623657</t>
+    <t xml:space="preserve">11.0035037994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8818655014038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.78209400177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5142164230347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3010053634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3146753311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5852870941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7506589889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6508884429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5593194961548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5579519271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6809568405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4035110473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7069244384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6003217697144</t>
   </si>
   <si>
     <t xml:space="preserve">10.8066959381104</t>
@@ -1511,31 +1511,31 @@
     <t xml:space="preserve">10.6139869689941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6194524765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5470180511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.361141204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.68505859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4431476593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5456514358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.836763381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8722982406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8695669174194</t>
+    <t xml:space="preserve">10.6194562911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5470199584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3611440658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6850566864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4431467056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5456495285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8367624282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8723001480103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8695659637451</t>
   </si>
   <si>
     <t xml:space="preserve">10.7793617248535</t>
@@ -1544,40 +1544,40 @@
     <t xml:space="preserve">11.0404071807861</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0335712432861</t>
+    <t xml:space="preserve">11.0335731506348</t>
   </si>
   <si>
     <t xml:space="preserve">11.0814075469971</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0568056106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1497430801392</t>
+    <t xml:space="preserve">11.0568075180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1497440338135</t>
   </si>
   <si>
     <t xml:space="preserve">11.2959852218628</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1060094833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.111475944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1251430511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9707012176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0281057357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0267381668091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9884700775146</t>
+    <t xml:space="preserve">11.1060085296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1114768981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1251440048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0281066894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0267391204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9884691238403</t>
   </si>
   <si>
     <t xml:space="preserve">10.9925708770752</t>
@@ -1586,82 +1586,82 @@
     <t xml:space="preserve">11.0226383209229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0964422225952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0896100997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1456413269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0704746246338</t>
+    <t xml:space="preserve">11.0964431762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0896081924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1456441879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0704755783081</t>
   </si>
   <si>
     <t xml:space="preserve">11.1292419433594</t>
   </si>
   <si>
-    <t xml:space="preserve">11.250880241394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1675119400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0732069015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1333436965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3506546020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2754812240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1975784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9037322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9050989151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0117053985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8736639022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8135290145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9420013427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0527067184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1524782180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0937070846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2071437835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2290124893188</t>
+    <t xml:space="preserve">11.2508811950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1675109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0732088088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1333417892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3506526947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2754831314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1975803375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9037342071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9050998687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0117044448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8736658096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8135299682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9420022964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0527057647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1524772644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0937089920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2071447372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2290153503418</t>
   </si>
   <si>
     <t xml:space="preserve">11.2098798751831</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9201335906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9912042617798</t>
+    <t xml:space="preserve">10.9201326370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9912023544312</t>
   </si>
   <si>
     <t xml:space="preserve">11.0185384750366</t>
@@ -1670,10 +1670,10 @@
     <t xml:space="preserve">10.9064664840698</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8148956298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7465591430664</t>
+    <t xml:space="preserve">10.8148965835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7465600967407</t>
   </si>
   <si>
     <t xml:space="preserve">10.8312978744507</t>
@@ -1688,31 +1688,31 @@
     <t xml:space="preserve">10.9256010055542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9242324829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240058898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.164776802063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3322229385376</t>
+    <t xml:space="preserve">10.9242353439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0240049362183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1647758483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3322238922119</t>
   </si>
   <si>
     <t xml:space="preserve">11.6071815490723</t>
   </si>
   <si>
-    <t xml:space="preserve">11.64084815979</t>
+    <t xml:space="preserve">11.640851020813</t>
   </si>
   <si>
     <t xml:space="preserve">11.5959577560425</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4206027984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4472570419312</t>
+    <t xml:space="preserve">11.4206008911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4472560882568</t>
   </si>
   <si>
     <t xml:space="preserve">11.4626865386963</t>
@@ -1724,40 +1724,40 @@
     <t xml:space="preserve">11.4177961349487</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4107818603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1147804260254</t>
+    <t xml:space="preserve">11.4107809066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1147794723511</t>
   </si>
   <si>
     <t xml:space="preserve">11.4065732955933</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3308200836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0193872451782</t>
+    <t xml:space="preserve">11.3308191299438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0193853378296</t>
   </si>
   <si>
     <t xml:space="preserve">10.9562587738037</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0558633804321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1049604415894</t>
+    <t xml:space="preserve">11.0558595657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.104959487915</t>
   </si>
   <si>
     <t xml:space="preserve">10.9310083389282</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7261915206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7949304580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6434240341187</t>
+    <t xml:space="preserve">10.7261924743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7949314117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6434230804443</t>
   </si>
   <si>
     <t xml:space="preserve">10.4863042831421</t>
@@ -1766,16 +1766,16 @@
     <t xml:space="preserve">10.3263788223267</t>
   </si>
   <si>
-    <t xml:space="preserve">10.503137588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6153650283813</t>
+    <t xml:space="preserve">10.5031366348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6153659820557</t>
   </si>
   <si>
     <t xml:space="preserve">10.7752904891968</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7921266555786</t>
+    <t xml:space="preserve">10.7921257019043</t>
   </si>
   <si>
     <t xml:space="preserve">11.0165824890137</t>
@@ -1790,55 +1790,55 @@
     <t xml:space="preserve">10.8384199142456</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7584571838379</t>
+    <t xml:space="preserve">10.7584581375122</t>
   </si>
   <si>
     <t xml:space="preserve">10.9660787582397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9239931106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8412246704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8636713027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6251859664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4694700241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5045404434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4512319564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3249778747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1369934082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2604455947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.041600227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86203479766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0275716781616</t>
+    <t xml:space="preserve">10.9239940643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8412275314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8636693954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6251850128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4694681167603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5045413970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4512329101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3249769210815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1369943618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2604446411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0416011810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86203575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0275726318359</t>
   </si>
   <si>
     <t xml:space="preserve">9.95602703094482</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92797183990479</t>
+    <t xml:space="preserve">9.92796897888184</t>
   </si>
   <si>
     <t xml:space="preserve">9.97145843505859</t>
@@ -1847,79 +1847,79 @@
     <t xml:space="preserve">9.9925012588501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1790800094604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1103391647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0233631134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70351314544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89991283416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77786636352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86624336242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98548698425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0037250518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92376232147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79189395904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68948554992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78487968444824</t>
+    <t xml:space="preserve">10.1790781021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1103401184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.023362159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70351219177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89991188049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77786445617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86624431610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9854850769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0037240982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92376041412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79189205169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68948459625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78487777709961</t>
   </si>
   <si>
     <t xml:space="preserve">9.69790172576904</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66142845153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48326587677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64319133758545</t>
+    <t xml:space="preserve">9.66142749786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48326778411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64319038391113</t>
   </si>
   <si>
     <t xml:space="preserve">9.66563606262207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70772171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0584344863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97005558013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90832996368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99951457977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98969650268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9391918182373</t>
+    <t xml:space="preserve">9.70772266387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0584335327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97005367279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9083309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99951362609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98969459533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93919277191162</t>
   </si>
   <si>
     <t xml:space="preserve">9.90412139892578</t>
@@ -1928,40 +1928,40 @@
     <t xml:space="preserve">9.99530601501465</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0163488388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97286033630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2464179992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2029266357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1538286209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.111743927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2211647033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1229667663574</t>
+    <t xml:space="preserve">10.0163497924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97286128997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2464170455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2029275894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1538276672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1117420196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2211656570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1229658126831</t>
   </si>
   <si>
     <t xml:space="preserve">10.1860933303833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2716674804688</t>
+    <t xml:space="preserve">10.2716684341431</t>
   </si>
   <si>
     <t xml:space="preserve">10.3852987289429</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3614492416382</t>
+    <t xml:space="preserve">10.3614521026611</t>
   </si>
   <si>
     <t xml:space="preserve">10.3712701797485</t>
@@ -1970,19 +1970,19 @@
     <t xml:space="preserve">10.4792890548706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4231748580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1945123672485</t>
+    <t xml:space="preserve">10.4231767654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1945104598999</t>
   </si>
   <si>
     <t xml:space="preserve">10.1818857192993</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2758760452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3502254486084</t>
+    <t xml:space="preserve">10.2758769989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.350227355957</t>
   </si>
   <si>
     <t xml:space="preserve">10.4203701019287</t>
@@ -1997,40 +1997,40 @@
     <t xml:space="preserve">10.6448268890381</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6602573394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6981344223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7107620239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7233877182007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6700754165649</t>
+    <t xml:space="preserve">10.6602554321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6981353759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7107601165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7233839035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6700773239136</t>
   </si>
   <si>
     <t xml:space="preserve">10.6686735153198</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6770915985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6378116607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5480279922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5985307693481</t>
+    <t xml:space="preserve">10.6770925521851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6378126144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5480289459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5985317230225</t>
   </si>
   <si>
     <t xml:space="preserve">10.6504373550415</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7177743911743</t>
+    <t xml:space="preserve">10.7177753448486</t>
   </si>
   <si>
     <t xml:space="preserve">10.498929977417</t>
@@ -2042,130 +2042,130 @@
     <t xml:space="preserve">10.6364078521729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9029512405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8987407684326</t>
+    <t xml:space="preserve">10.9029502868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8987426757812</t>
   </si>
   <si>
     <t xml:space="preserve">10.9338130950928</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0432357788086</t>
+    <t xml:space="preserve">11.0432348251343</t>
   </si>
   <si>
     <t xml:space="preserve">11.1456432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0656824111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1035575866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0123720169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9590654373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9534521102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9352169036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.858060836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0502510070801</t>
+    <t xml:space="preserve">11.0656814575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1035585403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0123710632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9590644836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9534530639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9352159500122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8580589294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0502490997314</t>
   </si>
   <si>
     <t xml:space="preserve">11.0755004882812</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1554641723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0516529083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1161823272705</t>
+    <t xml:space="preserve">11.155463218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0516519546509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1161851882935</t>
   </si>
   <si>
     <t xml:space="preserve">11.0923347473145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1442394256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1807155609131</t>
+    <t xml:space="preserve">11.1442403793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1807146072388</t>
   </si>
   <si>
     <t xml:space="preserve">11.1694917678833</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0937395095825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9913311004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8229875564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.824390411377</t>
+    <t xml:space="preserve">11.0937385559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9913301467896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8229885101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8243894577026</t>
   </si>
   <si>
     <t xml:space="preserve">11.0811109542847</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9071588516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8762969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7612638473511</t>
+    <t xml:space="preserve">10.9071578979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8762950897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7612609863281</t>
   </si>
   <si>
     <t xml:space="preserve">10.5901145935059</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6742849349976</t>
+    <t xml:space="preserve">10.6742858886719</t>
   </si>
   <si>
     <t xml:space="preserve">10.545223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5831003189087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4315938949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1636476516724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1566343307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0472135543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0065279006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1159524917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2436122894287</t>
+    <t xml:space="preserve">10.5831031799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4315929412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1636486053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1566371917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.047212600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0065288543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1159515380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2436113357544</t>
   </si>
   <si>
     <t xml:space="preserve">10.1832885742188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3460178375244</t>
+    <t xml:space="preserve">10.3460187911987</t>
   </si>
   <si>
     <t xml:space="preserve">10.4091482162476</t>
@@ -2174,40 +2174,40 @@
     <t xml:space="preserve">10.3990488052368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4884958267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4004917144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0412540435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.13791847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1494588851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1177196502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90708446502686</t>
+    <t xml:space="preserve">10.4884967803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4004898071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0412559509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1379165649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1494579315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1177186965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90708541870117</t>
   </si>
   <si>
     <t xml:space="preserve">9.87678718566895</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79599666595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96912097930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.11194896698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0037450790405</t>
+    <t xml:space="preserve">9.79599475860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96912002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1119499206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0037460327148</t>
   </si>
   <si>
     <t xml:space="preserve">10.0268287658691</t>
@@ -2216,58 +2216,58 @@
     <t xml:space="preserve">10.0701093673706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0989646911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1321477890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0297145843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0585699081421</t>
+    <t xml:space="preserve">10.0989637374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1321458816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0297155380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0585689544678</t>
   </si>
   <si>
     <t xml:space="preserve">10.0051879882812</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2114953994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2591047286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3572092056274</t>
+    <t xml:space="preserve">10.2114963531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2591037750244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3572101593018</t>
   </si>
   <si>
     <t xml:space="preserve">10.5361051559448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.475513458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4163618087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4654111862183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4351139068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5606307983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4582004547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5086946487427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.564959526062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4957103729248</t>
+    <t xml:space="preserve">10.4755115509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4163599014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4654130935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4351167678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5606317520142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4581995010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.508692741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5649585723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4957084655762</t>
   </si>
   <si>
     <t xml:space="preserve">10.5707311630249</t>
@@ -2276,40 +2276,40 @@
     <t xml:space="preserve">10.6082401275635</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6760482788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6948051452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6125688552856</t>
+    <t xml:space="preserve">10.6760492324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.694803237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.61256980896</t>
   </si>
   <si>
     <t xml:space="preserve">10.5793867111206</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3976058959961</t>
+    <t xml:space="preserve">10.3976049423218</t>
   </si>
   <si>
     <t xml:space="preserve">10.3153715133667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2576637268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3269119262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3802928924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3514375686646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3427839279175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2778615951538</t>
+    <t xml:space="preserve">10.257661819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3269128799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3802938461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3514385223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3427829742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2778577804565</t>
   </si>
   <si>
     <t xml:space="preserve">10.1667718887329</t>
@@ -2318,40 +2318,40 @@
     <t xml:space="preserve">10.2461204528809</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1682138442993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86813163757324</t>
+    <t xml:space="preserve">10.1682147979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86813068389893</t>
   </si>
   <si>
     <t xml:space="preserve">9.7238597869873</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65461158752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51755332946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69067764282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51611042022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50023937225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68057918548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4511890411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40646266937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57526206970215</t>
+    <t xml:space="preserve">9.6546106338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51755237579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69067859649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51611232757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50024127960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68057727813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45118618011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40646171569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57526016235352</t>
   </si>
   <si>
     <t xml:space="preserve">9.48148536682129</t>
@@ -2360,19 +2360,19 @@
     <t xml:space="preserve">9.63008403778076</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6026725769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48004150390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53486442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.595458984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66615009307861</t>
+    <t xml:space="preserve">9.60267448425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48004245758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53486633300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59545803070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66615104675293</t>
   </si>
   <si>
     <t xml:space="preserve">9.82340812683105</t>
@@ -2384,16 +2384,16 @@
     <t xml:space="preserve">9.81186580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86091613769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93305397033691</t>
+    <t xml:space="preserve">9.86091804504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9330530166626</t>
   </si>
   <si>
     <t xml:space="preserve">10.0426998138428</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1725425720215</t>
+    <t xml:space="preserve">10.1725435256958</t>
   </si>
   <si>
     <t xml:space="preserve">10.1523447036743</t>
@@ -2402,10 +2402,10 @@
     <t xml:space="preserve">10.1307048797607</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3254690170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2086124420166</t>
+    <t xml:space="preserve">10.3254699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2086114883423</t>
   </si>
   <si>
     <t xml:space="preserve">10.3326835632324</t>
@@ -2414,19 +2414,19 @@
     <t xml:space="preserve">10.4971523284912</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5105314254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4034929275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3038883209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3574085235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4466066360474</t>
+    <t xml:space="preserve">10.5105323791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.403491973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3038892745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3574075698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.446605682373</t>
   </si>
   <si>
     <t xml:space="preserve">10.4317417144775</t>
@@ -2435,31 +2435,31 @@
     <t xml:space="preserve">10.3916006088257</t>
   </si>
   <si>
-    <t xml:space="preserve">10.076434135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96642017364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0675134658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1477909088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.060079574585</t>
+    <t xml:space="preserve">10.0764331817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96642303466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0675144195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1477918624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0600814819336</t>
   </si>
   <si>
     <t xml:space="preserve">10.1091403961182</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1700916290283</t>
+    <t xml:space="preserve">10.1700925827026</t>
   </si>
   <si>
     <t xml:space="preserve">10.2845630645752</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2161779403687</t>
+    <t xml:space="preserve">10.2161769866943</t>
   </si>
   <si>
     <t xml:space="preserve">10.2860488891602</t>
@@ -2468,118 +2468,118 @@
     <t xml:space="preserve">10.2696971893311</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2429361343384</t>
+    <t xml:space="preserve">10.2429370880127</t>
   </si>
   <si>
     <t xml:space="preserve">10.372275352478</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4599847793579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5090465545654</t>
+    <t xml:space="preserve">10.4599857330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5090456008911</t>
   </si>
   <si>
     <t xml:space="preserve">10.4362001419067</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3603792190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2786159515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1819839477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.086838722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1864461898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3871383666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5536432266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5283699035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5372896194458</t>
+    <t xml:space="preserve">10.3603801727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2786169052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1819849014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0868396759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1864433288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3871402740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5536441802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5283727645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5372905731201</t>
   </si>
   <si>
     <t xml:space="preserve">10.5476970672607</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5075588226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5952711105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5417509078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5699987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4882307052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3841686248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4153861999512</t>
+    <t xml:space="preserve">10.5075578689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5952701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5417518615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5699968338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4882316589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3841667175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4153881072998</t>
   </si>
   <si>
     <t xml:space="preserve">10.4376859664917</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4421453475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3559217453003</t>
+    <t xml:space="preserve">10.4421463012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.355920791626</t>
   </si>
   <si>
     <t xml:space="preserve">10.3247032165527</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2578039169312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1938772201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0883255004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0199413299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1418466567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2355051040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1284666061401</t>
+    <t xml:space="preserve">10.2578029632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1938762664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0883264541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0199403762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1418447494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2355041503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1284656524658</t>
   </si>
   <si>
     <t xml:space="preserve">10.1581993103027</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1031923294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1463060379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1121120452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1269788742065</t>
+    <t xml:space="preserve">10.1031932830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1463041305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1121129989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1269779205322</t>
   </si>
   <si>
     <t xml:space="preserve">10.1849584579468</t>
@@ -2588,70 +2588,70 @@
     <t xml:space="preserve">10.271183013916</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2919950485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4183616638184</t>
+    <t xml:space="preserve">10.2919960021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.418360710144</t>
   </si>
   <si>
     <t xml:space="preserve">10.4064664840698</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4124145507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.485258102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6413555145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6443300247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.559591293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4807987213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3128080368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2563152313232</t>
+    <t xml:space="preserve">10.4124155044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4852590560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6413564682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6443290710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5595922470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4807977676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3128089904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2563171386719</t>
   </si>
   <si>
     <t xml:space="preserve">10.3232154846191</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3440284729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3187561035156</t>
+    <t xml:space="preserve">10.3440294265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3187551498413</t>
   </si>
   <si>
     <t xml:space="preserve">10.077919960022</t>
   </si>
   <si>
-    <t xml:space="preserve">10.003586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0125064849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80883979797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95898818969727</t>
+    <t xml:space="preserve">10.0035877227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.012508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80883884429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95898723602295</t>
   </si>
   <si>
     <t xml:space="preserve">9.87722492218018</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60813999176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40893173217773</t>
+    <t xml:space="preserve">9.60814189910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40893268585205</t>
   </si>
   <si>
     <t xml:space="preserve">9.37325382232666</t>
@@ -2660,19 +2660,19 @@
     <t xml:space="preserve">9.50556468963623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68395900726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64084815979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59327507019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49961757659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73748016357422</t>
+    <t xml:space="preserve">9.68396186828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64085006713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59327602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49961853027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7374792098999</t>
   </si>
   <si>
     <t xml:space="preserve">9.65422821044922</t>
@@ -2681,55 +2681,55 @@
     <t xml:space="preserve">9.58286952972412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59625148773193</t>
+    <t xml:space="preserve">9.5962495803833</t>
   </si>
   <si>
     <t xml:space="preserve">9.61706256866455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5888147354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4877233505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04470539093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90198802947998</t>
+    <t xml:space="preserve">9.58881664276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48772430419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04470634460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9019889831543</t>
   </si>
   <si>
     <t xml:space="preserve">8.9674015045166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73994731903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29395389556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26422119140625</t>
+    <t xml:space="preserve">8.73994636535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29395484924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26422309875488</t>
   </si>
   <si>
     <t xml:space="preserve">8.26570701599121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28949642181396</t>
+    <t xml:space="preserve">8.28949451446533</t>
   </si>
   <si>
     <t xml:space="preserve">8.15272426605225</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60712718963623</t>
+    <t xml:space="preserve">7.60712814331055</t>
   </si>
   <si>
     <t xml:space="preserve">6.02088451385498</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06920099258423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98371887207031</t>
+    <t xml:space="preserve">6.06920051574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98371839523315</t>
   </si>
   <si>
     <t xml:space="preserve">4.89995956420898</t>
@@ -2738,13 +2738,13 @@
     <t xml:space="preserve">5.13707780838013</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82562780380249</t>
+    <t xml:space="preserve">4.82562685012817</t>
   </si>
   <si>
     <t xml:space="preserve">5.10362863540649</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9757776260376</t>
+    <t xml:space="preserve">4.97577810287476</t>
   </si>
   <si>
     <t xml:space="preserve">5.17721748352051</t>
@@ -2753,58 +2753,58 @@
     <t xml:space="preserve">5.42102575302124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41656589508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22529649734497</t>
+    <t xml:space="preserve">5.41656637191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22529792785645</t>
   </si>
   <si>
     <t xml:space="preserve">6.48397207260132</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47505283355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10785245895386</t>
+    <t xml:space="preserve">6.47505331039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10785341262817</t>
   </si>
   <si>
     <t xml:space="preserve">6.38734149932861</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85340166091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83853483200073</t>
+    <t xml:space="preserve">6.85340213775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83853626251221</t>
   </si>
   <si>
     <t xml:space="preserve">7.31277322769165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93144989013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92401695251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00801277160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90915107727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91881275177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81400537490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37916278839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28401947021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38288068771362</t>
+    <t xml:space="preserve">6.93145036697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92401647567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00801181793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90915155410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91881227493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81400632858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37916374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28401899337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38288116455078</t>
   </si>
   <si>
     <t xml:space="preserve">6.2691535949707</t>
@@ -2813,28 +2813,28 @@
     <t xml:space="preserve">5.91681957244873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20522737503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29739999771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1323823928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24685478210449</t>
+    <t xml:space="preserve">6.20522832870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29739952087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13238286972046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24685430526733</t>
   </si>
   <si>
     <t xml:space="preserve">6.45498275756836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65790939331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47728204727173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10339403152466</t>
+    <t xml:space="preserve">6.65790700912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47728252410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10339260101318</t>
   </si>
   <si>
     <t xml:space="preserve">6.45721340179443</t>
@@ -2843,28 +2843,28 @@
     <t xml:space="preserve">6.26097679138184</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35983800888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41558599472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33679485321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32861804962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33307933807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77694272994995</t>
+    <t xml:space="preserve">6.35983753204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41558694839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33679533004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32861757278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33307886123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77694225311279</t>
   </si>
   <si>
     <t xml:space="preserve">6.56322908401489</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59845590591431</t>
+    <t xml:space="preserve">6.59845685958862</t>
   </si>
   <si>
     <t xml:space="preserve">6.43641138076782</t>
@@ -2873,76 +2873,76 @@
     <t xml:space="preserve">6.39883613586426</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46615982055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47711896896362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61489534378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6477746963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35891103744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52878570556641</t>
+    <t xml:space="preserve">6.46615886688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47711849212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61489582061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64777517318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35891151428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52878618240356</t>
   </si>
   <si>
     <t xml:space="preserve">6.86618375778198</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04466915130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01726961135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44156312942505</t>
+    <t xml:space="preserve">7.04466867446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01726913452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44156217575073</t>
   </si>
   <si>
     <t xml:space="preserve">7.56524896621704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33979606628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22550106048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71744680404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72214365005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71666431427002</t>
+    <t xml:space="preserve">7.33979654312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22550249099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71744775772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72214412689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71666383743286</t>
   </si>
   <si>
     <t xml:space="preserve">6.99456834793091</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96403789520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91628503799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94681596755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89123630523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63211917877197</t>
+    <t xml:space="preserve">6.96403741836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91628551483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94681549072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89123487472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63211965560913</t>
   </si>
   <si>
     <t xml:space="preserve">6.63916444778442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57340717315674</t>
+    <t xml:space="preserve">6.57340669631958</t>
   </si>
   <si>
     <t xml:space="preserve">6.75189113616943</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">6.64620923995972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63446760177612</t>
+    <t xml:space="preserve">6.63446807861328</t>
   </si>
   <si>
     <t xml:space="preserve">6.82626008987427</t>
@@ -2966,16 +2966,16 @@
     <t xml:space="preserve">6.90454292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80903816223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60237073898315</t>
+    <t xml:space="preserve">6.80903768539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60237169265747</t>
   </si>
   <si>
     <t xml:space="preserve">6.77929067611694</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87557744979858</t>
+    <t xml:space="preserve">6.8755784034729</t>
   </si>
   <si>
     <t xml:space="preserve">6.91706895828247</t>
@@ -2987,43 +2987,43 @@
     <t xml:space="preserve">6.89906215667725</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8740119934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98987245559692</t>
+    <t xml:space="preserve">6.87401294708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98987102508545</t>
   </si>
   <si>
     <t xml:space="preserve">6.81608247756958</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73310375213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66969585418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62507390975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63603353500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58358335494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1201491355896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90330600738525</t>
+    <t xml:space="preserve">6.73310327529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6696949005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62507295608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63603258132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58358383178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12014865875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90330648422241</t>
   </si>
   <si>
     <t xml:space="preserve">5.89782571792603</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15224456787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3377742767334</t>
+    <t xml:space="preserve">6.15224504470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33777570724487</t>
   </si>
   <si>
     <t xml:space="preserve">6.21721982955933</t>
@@ -3032,25 +3032,25 @@
     <t xml:space="preserve">6.110755443573</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25166463851929</t>
+    <t xml:space="preserve">6.25166416168213</t>
   </si>
   <si>
     <t xml:space="preserve">6.45363473892212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5546178817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45441627502441</t>
+    <t xml:space="preserve">6.55461931228638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45441722869873</t>
   </si>
   <si>
     <t xml:space="preserve">6.40275001525879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34090709686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30489587783813</t>
+    <t xml:space="preserve">6.34090614318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30489635467529</t>
   </si>
   <si>
     <t xml:space="preserve">6.36282634735107</t>
@@ -3062,19 +3062,19 @@
     <t xml:space="preserve">6.16320419311523</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41214323043823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32368564605713</t>
+    <t xml:space="preserve">6.41214370727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32368421554565</t>
   </si>
   <si>
     <t xml:space="preserve">6.23287630081177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10605812072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08727025985718</t>
+    <t xml:space="preserve">6.1060585975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08726978302002</t>
   </si>
   <si>
     <t xml:space="preserve">6.00898790359497</t>
@@ -3086,43 +3086,43 @@
     <t xml:space="preserve">5.98471975326538</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08492231369019</t>
+    <t xml:space="preserve">6.08492183685303</t>
   </si>
   <si>
     <t xml:space="preserve">5.88608360290527</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97141170501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96984624862671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9487099647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85242176055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95888710021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.989417552948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94479513168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78353261947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53048372268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61483430862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51297664642334</t>
+    <t xml:space="preserve">5.97141122817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96984672546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94870948791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85242223739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95888614654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98941659927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94479560852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78353309631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53048324584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61483383178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51297760009766</t>
   </si>
   <si>
     <t xml:space="preserve">5.42066955566406</t>
@@ -3131,19 +3131,19 @@
     <t xml:space="preserve">5.32279253005981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45886707305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3036937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32199621200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14215612411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17000865936279</t>
+    <t xml:space="preserve">5.45886611938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30369472503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32199668884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14215564727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17000770568848</t>
   </si>
   <si>
     <t xml:space="preserve">5.3235878944397</t>
@@ -3155,40 +3155,40 @@
     <t xml:space="preserve">5.35541820526123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47876071929932</t>
+    <t xml:space="preserve">5.478759765625</t>
   </si>
   <si>
     <t xml:space="preserve">5.46045780181885</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42623996734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32040405273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32995367050171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10714387893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2225284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24082899093628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22173166275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04507446289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04586982727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12783193588257</t>
+    <t xml:space="preserve">5.42623901367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32040500640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32995462417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10714292526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22252702713013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24082946777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22173118591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04507493972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04587030410767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12783241271973</t>
   </si>
   <si>
     <t xml:space="preserve">4.96947765350342</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">4.68300724029541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70926713943481</t>
+    <t xml:space="preserve">4.70926666259766</t>
   </si>
   <si>
     <t xml:space="preserve">4.78327226638794</t>
@@ -3209,10 +3209,10 @@
     <t xml:space="preserve">5.06258106231689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18353509902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24958276748657</t>
+    <t xml:space="preserve">5.18353605270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24958324432373</t>
   </si>
   <si>
     <t xml:space="preserve">5.24878692626953</t>
@@ -3221,64 +3221,64 @@
     <t xml:space="preserve">5.20581579208374</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87106561660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10979127883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04135704040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06204700469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09546852111816</t>
+    <t xml:space="preserve">5.87106609344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10979223251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04135656356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06204605102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09546804428101</t>
   </si>
   <si>
     <t xml:space="preserve">6.34055995941162</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4344596862793</t>
+    <t xml:space="preserve">6.43445920944214</t>
   </si>
   <si>
     <t xml:space="preserve">6.52040100097656</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42729663848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46549224853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62862300872803</t>
+    <t xml:space="preserve">6.42729711532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46549415588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62862205505371</t>
   </si>
   <si>
     <t xml:space="preserve">6.85939121246338</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90077066421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81005430221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82915210723877</t>
+    <t xml:space="preserve">6.90077018737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81005382537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82915258407593</t>
   </si>
   <si>
     <t xml:space="preserve">6.60713815689087</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69626092910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7631049156189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72570466995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95806550979614</t>
+    <t xml:space="preserve">6.69626188278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76310539245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72570371627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95806503295898</t>
   </si>
   <si>
     <t xml:space="preserve">6.97636699676514</t>
@@ -3287,22 +3287,22 @@
     <t xml:space="preserve">6.99466943740845</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03684329986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11084890365601</t>
+    <t xml:space="preserve">7.03684520721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11084985733032</t>
   </si>
   <si>
     <t xml:space="preserve">7.00899314880371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90554618835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96442985534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96761417388916</t>
+    <t xml:space="preserve">6.90554523468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96442937850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96761274337769</t>
   </si>
   <si>
     <t xml:space="preserve">6.93180513381958</t>
@@ -3311,127 +3311,127 @@
     <t xml:space="preserve">6.86018705368042</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56018877029419</t>
+    <t xml:space="preserve">6.56018733978271</t>
   </si>
   <si>
     <t xml:space="preserve">6.65249538421631</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83074283599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84029340744019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81323766708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80209827423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72252178192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97159290313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19997406005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21588850021362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18564987182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14427089691162</t>
+    <t xml:space="preserve">6.83074378967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84029293060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81323862075806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80209732055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72252130508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97159242630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19997310638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21588897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18564891815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14427185058594</t>
   </si>
   <si>
     <t xml:space="preserve">7.20474815368652</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20952320098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16575622558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02729558944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04718971252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02411079406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08299875259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89758729934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79732275009155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64692497253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78618288040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80130290985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64613103866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52517414093018</t>
+    <t xml:space="preserve">7.20952367782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1657567024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02729463577271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0471887588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0241117477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08299732208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89758777618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79732227325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64692449569702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78618097305298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80130052566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6461296081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52517509460449</t>
   </si>
   <si>
     <t xml:space="preserve">6.61350345611572</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7551474571228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81960248947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8522310256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90793132781982</t>
+    <t xml:space="preserve">6.75514793395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81960296630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85222959518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90793180465698</t>
   </si>
   <si>
     <t xml:space="preserve">6.98273277282715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0376410484314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98432493209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06549072265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25965642929077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22464227676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2914867401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23896598815918</t>
+    <t xml:space="preserve">7.03764057159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98432540893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06549119949341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25965452194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22464275360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29148626327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23896408081055</t>
   </si>
   <si>
     <t xml:space="preserve">7.31933546066284</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44506549835205</t>
+    <t xml:space="preserve">7.44506597518921</t>
   </si>
   <si>
     <t xml:space="preserve">7.49917602539062</t>
@@ -3440,16 +3440,16 @@
     <t xml:space="preserve">7.62092781066895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70288944244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54533100128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60819482803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5532865524292</t>
+    <t xml:space="preserve">7.70288896560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5453314781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60819387435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55328750610352</t>
   </si>
   <si>
     <t xml:space="preserve">7.6869740486145</t>
@@ -3458,22 +3458,22 @@
     <t xml:space="preserve">7.85885810852051</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00686645507812</t>
+    <t xml:space="preserve">8.00686740875244</t>
   </si>
   <si>
     <t xml:space="preserve">8.1007661819458</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06893730163574</t>
+    <t xml:space="preserve">8.06893634796143</t>
   </si>
   <si>
     <t xml:space="preserve">8.13259696960449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19625663757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29015731811523</t>
+    <t xml:space="preserve">8.19625473022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29015636444092</t>
   </si>
   <si>
     <t xml:space="preserve">8.22331142425537</t>
@@ -3482,61 +3482,61 @@
     <t xml:space="preserve">8.14851093292236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22649478912354</t>
+    <t xml:space="preserve">8.22649574279785</t>
   </si>
   <si>
     <t xml:space="preserve">8.09599208831787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07370948791504</t>
+    <t xml:space="preserve">8.07371044158936</t>
   </si>
   <si>
     <t xml:space="preserve">7.94161510467529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15328598022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04665565490723</t>
+    <t xml:space="preserve">8.15328788757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04665470123291</t>
   </si>
   <si>
     <t xml:space="preserve">8.14214515686035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23445320129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28537940979004</t>
+    <t xml:space="preserve">8.23445129394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28538131713867</t>
   </si>
   <si>
     <t xml:space="preserve">8.35063362121582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41111087799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33471775054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32039451599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16442680358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11668109893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0864429473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13737106323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34585666656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24718379974365</t>
+    <t xml:space="preserve">8.41110992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.334716796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32039260864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16442584991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11668014526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08644199371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13737201690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34585952758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24718475341797</t>
   </si>
   <si>
     <t xml:space="preserve">8.23604393005371</t>
@@ -3551,58 +3551,58 @@
     <t xml:space="preserve">8.0768928527832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09121608734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03869533538818</t>
+    <t xml:space="preserve">8.09121704101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0386962890625</t>
   </si>
   <si>
     <t xml:space="preserve">8.07530212402344</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04506301879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11986541748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11827087402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90182828903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03710460662842</t>
+    <t xml:space="preserve">8.04506206512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11986446380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11827182769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90182876586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03710651397705</t>
   </si>
   <si>
     <t xml:space="preserve">8.20262241363525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21694564819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21217155456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28219795227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32198619842529</t>
+    <t xml:space="preserve">8.21694660186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21217060089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28219699859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32198524475098</t>
   </si>
   <si>
     <t xml:space="preserve">8.19944000244141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29970550537109</t>
+    <t xml:space="preserve">8.29970359802246</t>
   </si>
   <si>
     <t xml:space="preserve">8.32675933837891</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30288791656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11349868774414</t>
+    <t xml:space="preserve">8.30288696289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11349773406982</t>
   </si>
   <si>
     <t xml:space="preserve">8.18352508544922</t>
@@ -3611,40 +3611,40 @@
     <t xml:space="preserve">8.2372989654541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13545322418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17211818695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22915077209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22426223754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19330024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38721656799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44913959503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50617122650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45728778839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51758098602295</t>
+    <t xml:space="preserve">8.13545227050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.172119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22915172576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22426509857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19330215454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38721752166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44913864135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50617408752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4572868347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51757907867432</t>
   </si>
   <si>
     <t xml:space="preserve">8.55179977416992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50943088531494</t>
+    <t xml:space="preserve">8.50943279266357</t>
   </si>
   <si>
     <t xml:space="preserve">8.56646537780762</t>
@@ -3653,7 +3653,7 @@
     <t xml:space="preserve">8.62186908721924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74082469940186</t>
+    <t xml:space="preserve">8.74082565307617</t>
   </si>
   <si>
     <t xml:space="preserve">8.74571418762207</t>
@@ -3668,43 +3668,43 @@
     <t xml:space="preserve">8.40351104736328</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48824977874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48499011993408</t>
+    <t xml:space="preserve">8.48824691772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48498725891113</t>
   </si>
   <si>
     <t xml:space="preserve">8.49150657653809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58765029907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60068511962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42632579803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42306613922119</t>
+    <t xml:space="preserve">8.58764934539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60068607330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42632484436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42306709289551</t>
   </si>
   <si>
     <t xml:space="preserve">8.36766338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5224666595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47195148468018</t>
+    <t xml:space="preserve">8.52246761322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47195339202881</t>
   </si>
   <si>
     <t xml:space="preserve">8.51920890808105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2861852645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11752796173096</t>
+    <t xml:space="preserve">8.28618431091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11752891540527</t>
   </si>
   <si>
     <t xml:space="preserve">8.21285629272461</t>
@@ -3716,22 +3716,22 @@
     <t xml:space="preserve">8.16722869873047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07434463500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01079368591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7028112411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74273681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94398307800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85761737823486</t>
+    <t xml:space="preserve">8.07434558868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01079273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70281267166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74273538589478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94398260116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85761880874634</t>
   </si>
   <si>
     <t xml:space="preserve">7.87798595428467</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">8.08004856109619</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15908145904541</t>
+    <t xml:space="preserve">8.15908050537109</t>
   </si>
   <si>
     <t xml:space="preserve">8.12486171722412</t>
@@ -3755,55 +3755,55 @@
     <t xml:space="preserve">8.25848293304443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24544620513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31062889099121</t>
+    <t xml:space="preserve">8.24544811248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31062793731689</t>
   </si>
   <si>
     <t xml:space="preserve">8.3937349319458</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37907028198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43284320831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4866189956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53713417053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56972408294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45076751708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.454026222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44588088989258</t>
+    <t xml:space="preserve">8.37906837463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43284225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48661708831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53713321685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56972312927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45076847076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45402717590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44587993621826</t>
   </si>
   <si>
     <t xml:space="preserve">8.20959758758545</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1981897354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33833026885986</t>
+    <t xml:space="preserve">8.19819068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33832931518555</t>
   </si>
   <si>
     <t xml:space="preserve">8.40677070617676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41654682159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39699459075928</t>
+    <t xml:space="preserve">8.41654872894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39699363708496</t>
   </si>
   <si>
     <t xml:space="preserve">8.49639511108398</t>
@@ -3815,13 +3815,13 @@
     <t xml:space="preserve">8.66260814666748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57950115203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62512969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62838745117188</t>
+    <t xml:space="preserve">8.57950305938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6251277923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62838935852051</t>
   </si>
   <si>
     <t xml:space="preserve">8.59090805053711</t>
@@ -3830,10 +3830,10 @@
     <t xml:space="preserve">8.80437755584717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88422584533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95429420471191</t>
+    <t xml:space="preserve">8.8842248916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95429515838623</t>
   </si>
   <si>
     <t xml:space="preserve">8.98199558258057</t>
@@ -3842,49 +3842,49 @@
     <t xml:space="preserve">8.91518592834473</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83207416534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99490737915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23237419128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24594402313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27138710021973</t>
+    <t xml:space="preserve">8.83207321166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99490642547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23237323760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24594211578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27138519287109</t>
   </si>
   <si>
     <t xml:space="preserve">9.48680210113525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55295276641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65811729431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79211521148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7378396987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87353515625</t>
+    <t xml:space="preserve">9.55295467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65811824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79211711883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73783874511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87353420257568</t>
   </si>
   <si>
     <t xml:space="preserve">10.0482425689697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89388847351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82773685455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0567235946655</t>
+    <t xml:space="preserve">9.89388942718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82773876190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0567226409912</t>
   </si>
   <si>
     <t xml:space="preserve">10.1822414398193</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">10.1551008224487</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0261907577515</t>
+    <t xml:space="preserve">10.0261926651001</t>
   </si>
   <si>
     <t xml:space="preserve">10.1601905822754</t>
@@ -3902,13 +3902,13 @@
     <t xml:space="preserve">10.3535566329956</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3773040771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3230266571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4468469619751</t>
+    <t xml:space="preserve">10.3773031234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3230247497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4468460083008</t>
   </si>
   <si>
     <t xml:space="preserve">10.2907981872559</t>
@@ -3920,19 +3920,19 @@
     <t xml:space="preserve">10.4129228591919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4807710647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4044437408447</t>
+    <t xml:space="preserve">10.480770111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4044418334961</t>
   </si>
   <si>
     <t xml:space="preserve">10.3162403106689</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5197830200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.809832572937</t>
+    <t xml:space="preserve">10.5197839736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8098335266113</t>
   </si>
   <si>
     <t xml:space="preserve">10.635124206543</t>
@@ -3947,7 +3947,7 @@
     <t xml:space="preserve">10.7470741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7555532455444</t>
+    <t xml:space="preserve">10.7555551528931</t>
   </si>
   <si>
     <t xml:space="preserve">10.7029714584351</t>
@@ -3962,19 +3962,19 @@
     <t xml:space="preserve">10.6113777160645</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6402139663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6843128204346</t>
+    <t xml:space="preserve">10.6402130126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6843147277832</t>
   </si>
   <si>
     <t xml:space="preserve">10.6792259216309</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5418338775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3196315765381</t>
+    <t xml:space="preserve">10.5418348312378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3196334838867</t>
   </si>
   <si>
     <t xml:space="preserve">10.4553279876709</t>
@@ -3983,22 +3983,22 @@
     <t xml:space="preserve">10.4909477233887</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4281873703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77854824066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0075340270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0957365036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1262664794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1856346130371</t>
+    <t xml:space="preserve">10.4281902313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7785472869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0075330734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0957345962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1262674331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1856355667114</t>
   </si>
   <si>
     <t xml:space="preserve">10.4247961044312</t>
@@ -4007,49 +4007,49 @@
     <t xml:space="preserve">10.6588706970215</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5079116821289</t>
+    <t xml:space="preserve">10.5079107284546</t>
   </si>
   <si>
     <t xml:space="preserve">10.4027462005615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3518619537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1941156387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3026704788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1771535873413</t>
+    <t xml:space="preserve">10.351861000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1941146850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3026695251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1771516799927</t>
   </si>
   <si>
     <t xml:space="preserve">10.3450756072998</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2212533950806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0363702774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3298101425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3247222900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3806962966919</t>
+    <t xml:space="preserve">10.2212543487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0363683700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3298120498657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3247213363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3806953430176</t>
   </si>
   <si>
     <t xml:space="preserve">10.42649269104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4146203994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3637351989746</t>
+    <t xml:space="preserve">10.4146184921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3637342453003</t>
   </si>
   <si>
     <t xml:space="preserve">10.523175239563</t>
@@ -4058,16 +4058,16 @@
     <t xml:space="preserve">10.6944904327393</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8183135986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7284145355225</t>
+    <t xml:space="preserve">10.8183126449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7284154891968</t>
   </si>
   <si>
     <t xml:space="preserve">10.8471488952637</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7572498321533</t>
+    <t xml:space="preserve">10.7572507858276</t>
   </si>
   <si>
     <t xml:space="preserve">10.864109992981</t>
@@ -4076,13 +4076,13 @@
     <t xml:space="preserve">11.0693502426147</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0456018447876</t>
+    <t xml:space="preserve">11.0456037521362</t>
   </si>
   <si>
     <t xml:space="preserve">11.1609439849854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2050447463989</t>
+    <t xml:space="preserve">11.2050457000732</t>
   </si>
   <si>
     <t xml:space="preserve">11.2542352676392</t>
@@ -4091,10 +4091,10 @@
     <t xml:space="preserve">11.3814487457275</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2711963653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1151475906372</t>
+    <t xml:space="preserve">11.2711973190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1151485443115</t>
   </si>
   <si>
     <t xml:space="preserve">10.7589464187622</t>
@@ -4103,10 +4103,10 @@
     <t xml:space="preserve">11.1049699783325</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4357280731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.713903427124</t>
+    <t xml:space="preserve">11.4357261657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7139024734497</t>
   </si>
   <si>
     <t xml:space="preserve">11.512056350708</t>
@@ -4115,16 +4115,16 @@
     <t xml:space="preserve">11.2864618301392</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4119787216187</t>
+    <t xml:space="preserve">11.4119806289673</t>
   </si>
   <si>
     <t xml:space="preserve">11.3271713256836</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2695016860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323358535767</t>
+    <t xml:space="preserve">11.2695007324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4323348999023</t>
   </si>
   <si>
     <t xml:space="preserve">11.182993888855</t>
@@ -4136,25 +4136,25 @@
     <t xml:space="preserve">11.2389698028564</t>
   </si>
   <si>
-    <t xml:space="preserve">11.277979850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4730434417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3000326156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.17112159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3085117340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4238538742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2915506362915</t>
+    <t xml:space="preserve">11.277982711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4730443954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3000335693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1711206436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3085107803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4238529205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2915515899658</t>
   </si>
   <si>
     <t xml:space="preserve">11.4425115585327</t>
@@ -4163,10 +4163,10 @@
     <t xml:space="preserve">11.3865375518799</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3322591781616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6867628097534</t>
+    <t xml:space="preserve">11.3322601318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6867637634277</t>
   </si>
   <si>
     <t xml:space="preserve">11.7308654785156</t>
@@ -4178,40 +4178,40 @@
     <t xml:space="preserve">12.3228349685669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7596988677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9014253616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3695764541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5934715270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5358028411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1134510040283</t>
+    <t xml:space="preserve">11.7596998214722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9014282226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3695755004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5934734344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5358018875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.113450050354</t>
   </si>
   <si>
     <t xml:space="preserve">11.0065908432007</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9607934951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8301868438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1185388565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7945671081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.213526725769</t>
+    <t xml:space="preserve">10.9607925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8301858901978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1185398101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.79456615448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2135276794434</t>
   </si>
   <si>
     <t xml:space="preserve">11.4187650680542</t>
@@ -4226,46 +4226,46 @@
     <t xml:space="preserve">11.3492221832275</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2745885848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3763599395752</t>
+    <t xml:space="preserve">11.2745895385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3763608932495</t>
   </si>
   <si>
     <t xml:space="preserve">11.400107383728</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4560823440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3543109893799</t>
+    <t xml:space="preserve">11.4560813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3543090820312</t>
   </si>
   <si>
     <t xml:space="preserve">11.2474498748779</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7189903259277</t>
+    <t xml:space="preserve">11.7189922332764</t>
   </si>
   <si>
     <t xml:space="preserve">11.7003326416016</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0209131240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0429649353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0005598068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0667104721069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.873345375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.517144203186</t>
+    <t xml:space="preserve">12.0209121704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0429630279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0005578994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0667114257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8733434677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5171451568604</t>
   </si>
   <si>
     <t xml:space="preserve">10.9658832550049</t>
@@ -4280,25 +4280,25 @@
     <t xml:space="preserve">11.3560066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1948671340942</t>
+    <t xml:space="preserve">11.1948680877686</t>
   </si>
   <si>
     <t xml:space="preserve">11.5341062545776</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4577789306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5374965667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0914001464844</t>
+    <t xml:space="preserve">11.4577760696411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5374984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0914011001587</t>
   </si>
   <si>
     <t xml:space="preserve">11.2440576553345</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5510683059692</t>
+    <t xml:space="preserve">11.5510673522949</t>
   </si>
   <si>
     <t xml:space="preserve">11.5680313110352</t>
@@ -4307,25 +4307,25 @@
     <t xml:space="preserve">11.725775718689</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8156747817993</t>
+    <t xml:space="preserve">11.815673828125</t>
   </si>
   <si>
     <t xml:space="preserve">11.6918525695801</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7800550460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0023527145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9113321304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3576793670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4679536819458</t>
+    <t xml:space="preserve">11.7800531387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0023536682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9113330841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3576803207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4679527282715</t>
   </si>
   <si>
     <t xml:space="preserve">12.420693397522</t>
@@ -4337,7 +4337,7 @@
     <t xml:space="preserve">12.4259452819824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3384246826172</t>
+    <t xml:space="preserve">12.3384256362915</t>
   </si>
   <si>
     <t xml:space="preserve">12.3156700134277</t>
@@ -4346,13 +4346,13 @@
     <t xml:space="preserve">12.4784564971924</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6307382583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6272392272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5957317352295</t>
+    <t xml:space="preserve">12.6307392120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6272382736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5957307815552</t>
   </si>
   <si>
     <t xml:space="preserve">12.2754125595093</t>
@@ -4364,16 +4364,16 @@
     <t xml:space="preserve">11.3582124710083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5262498855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5997648239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0326433181763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5110282897949</t>
+    <t xml:space="preserve">11.5262489318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5997638702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0326414108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5110292434692</t>
   </si>
   <si>
     <t xml:space="preserve">10.5407848358154</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">10.5722923278809</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2047119140625</t>
+    <t xml:space="preserve">10.2047138214111</t>
   </si>
   <si>
     <t xml:space="preserve">10.0034189224243</t>
@@ -4391,13 +4391,13 @@
     <t xml:space="preserve">10.2099647521973</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0646829605103</t>
+    <t xml:space="preserve">10.0646839141846</t>
   </si>
   <si>
     <t xml:space="preserve">10.1539506912231</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91414833068848</t>
+    <t xml:space="preserve">9.91415023803711</t>
   </si>
   <si>
     <t xml:space="preserve">9.82663059234619</t>
@@ -4406,25 +4406,25 @@
     <t xml:space="preserve">10.0629320144653</t>
   </si>
   <si>
-    <t xml:space="preserve">9.480055809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41353988647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6673469543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82487964630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80212593078613</t>
+    <t xml:space="preserve">9.48005485534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41354179382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66734600067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82488059997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80212497711182</t>
   </si>
   <si>
     <t xml:space="preserve">9.74786281585693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72861099243164</t>
+    <t xml:space="preserve">9.72860908508301</t>
   </si>
   <si>
     <t xml:space="preserve">9.31552028656006</t>
@@ -4436,7 +4436,7 @@
     <t xml:space="preserve">9.6393404006958</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89314556121826</t>
+    <t xml:space="preserve">9.89314460754395</t>
   </si>
   <si>
     <t xml:space="preserve">9.77937030792236</t>
@@ -4445,10 +4445,10 @@
     <t xml:space="preserve">9.62708854675293</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60083198547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68135070800781</t>
+    <t xml:space="preserve">9.60083103179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68134880065918</t>
   </si>
   <si>
     <t xml:space="preserve">9.64459133148193</t>
@@ -4460,28 +4460,28 @@
     <t xml:space="preserve">10.2537221908569</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2414703369141</t>
+    <t xml:space="preserve">10.2414712905884</t>
   </si>
   <si>
     <t xml:space="preserve">10.0156717300415</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97716236114502</t>
+    <t xml:space="preserve">9.97716331481934</t>
   </si>
   <si>
     <t xml:space="preserve">9.96841144561768</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0261745452881</t>
+    <t xml:space="preserve">10.0261735916138</t>
   </si>
   <si>
     <t xml:space="preserve">10.0174217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0576801300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99816703796387</t>
+    <t xml:space="preserve">10.0576810836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9981689453125</t>
   </si>
   <si>
     <t xml:space="preserve">10.1434497833252</t>
@@ -4490,28 +4490,28 @@
     <t xml:space="preserve">10.1784563064575</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1329488754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2327184677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4445152282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3009834289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4672698974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8593559265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7245740890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9451217651367</t>
+    <t xml:space="preserve">10.1329460144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2327194213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4445142745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3009843826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4672689437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8593549728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7245769500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.945122718811</t>
   </si>
   <si>
     <t xml:space="preserve">10.7788372039795</t>
@@ -4523,37 +4523,37 @@
     <t xml:space="preserve">10.7088222503662</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3342399597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2624750137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5775451660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7560834884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4602670669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1679534912109</t>
+    <t xml:space="preserve">10.3342409133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2624740600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.577543258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7560815811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4602680206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1679544448853</t>
   </si>
   <si>
     <t xml:space="preserve">10.1364479064941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2239675521851</t>
+    <t xml:space="preserve">10.2239665985107</t>
   </si>
   <si>
     <t xml:space="preserve">10.4532670974731</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3587446212769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3359928131104</t>
+    <t xml:space="preserve">10.3587465286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3359909057617</t>
   </si>
   <si>
     <t xml:space="preserve">10.0996894836426</t>
@@ -4562,16 +4562,16 @@
     <t xml:space="preserve">10.0156707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94071483612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1191825866699</t>
+    <t xml:space="preserve">9.94071388244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1191835403442</t>
   </si>
   <si>
     <t xml:space="preserve">9.63910102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57842445373535</t>
+    <t xml:space="preserve">9.57842254638672</t>
   </si>
   <si>
     <t xml:space="preserve">9.59448432922363</t>
@@ -4580,28 +4580,28 @@
     <t xml:space="preserve">9.62482452392578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73547649383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0317344665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2976512908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4618444442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4671974182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5653562545776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5135984420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3244218826294</t>
+    <t xml:space="preserve">9.73547554016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0317335128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2976522445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4618425369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4671964645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.565357208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.513599395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3244228363037</t>
   </si>
   <si>
     <t xml:space="preserve">10.1691551208496</t>
@@ -4610,16 +4610,16 @@
     <t xml:space="preserve">10.4297189712524</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5867719650269</t>
+    <t xml:space="preserve">10.5867729187012</t>
   </si>
   <si>
     <t xml:space="preserve">10.5885572433472</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7920122146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7598848342896</t>
+    <t xml:space="preserve">10.792010307312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7598876953125</t>
   </si>
   <si>
     <t xml:space="preserve">11.0240201950073</t>
@@ -4628,16 +4628,16 @@
     <t xml:space="preserve">10.9954643249512</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1400260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5273027420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7218332290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.827130317688</t>
+    <t xml:space="preserve">11.140025138855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5273017883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7218322753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8271293640137</t>
   </si>
   <si>
     <t xml:space="preserve">12.0145225524902</t>
@@ -4649,52 +4649,52 @@
     <t xml:space="preserve">12.2429637908936</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5017433166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7319660186768</t>
+    <t xml:space="preserve">12.5017423629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7319679260254</t>
   </si>
   <si>
     <t xml:space="preserve">12.683780670166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.512451171875</t>
+    <t xml:space="preserve">12.5124521255493</t>
   </si>
   <si>
     <t xml:space="preserve">12.5552835464478</t>
   </si>
   <si>
-    <t xml:space="preserve">12.740891456604</t>
+    <t xml:space="preserve">12.7408895492554</t>
   </si>
   <si>
     <t xml:space="preserve">12.9157905578613</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9175748825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8122787475586</t>
+    <t xml:space="preserve">12.917573928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8122777938843</t>
   </si>
   <si>
     <t xml:space="preserve">12.5695610046387</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6605787277222</t>
+    <t xml:space="preserve">12.6605796813965</t>
   </si>
   <si>
     <t xml:space="preserve">12.1856279373169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7367172241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7983522415161</t>
+    <t xml:space="preserve">12.7367181777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7983531951904</t>
   </si>
   <si>
     <t xml:space="preserve">12.8563632965088</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9596920013428</t>
+    <t xml:space="preserve">12.9596929550171</t>
   </si>
   <si>
     <t xml:space="preserve">12.7058992385864</t>
@@ -4703,22 +4703,22 @@
     <t xml:space="preserve">12.8672399520874</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9832582473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7711620330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5916948318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5391216278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3650960922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1783761978149</t>
+    <t xml:space="preserve">12.9832592010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7711610794067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5916938781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5391225814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3650951385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1783771514893</t>
   </si>
   <si>
     <t xml:space="preserve">12.2581396102905</t>
@@ -4727,25 +4727,25 @@
     <t xml:space="preserve">12.2599515914917</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3342761993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.52099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3360900878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8285074234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6925449371338</t>
+    <t xml:space="preserve">12.3342771530151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5209941864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3360891342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8285064697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6925468444824</t>
   </si>
   <si>
     <t xml:space="preserve">11.7741212844849</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7831859588623</t>
+    <t xml:space="preserve">11.7831869125366</t>
   </si>
   <si>
     <t xml:space="preserve">12.2019414901733</t>
@@ -4754,16 +4754,16 @@
     <t xml:space="preserve">12.1239919662476</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2146320343018</t>
+    <t xml:space="preserve">12.2146310806274</t>
   </si>
   <si>
     <t xml:space="preserve">12.2780790328979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2436370849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3197736740112</t>
+    <t xml:space="preserve">12.2436380386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3197746276855</t>
   </si>
   <si>
     <t xml:space="preserve">12.0424165725708</t>
@@ -4772,34 +4772,34 @@
     <t xml:space="preserve">12.4249172210693</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4956159591675</t>
+    <t xml:space="preserve">12.4956169128418</t>
   </si>
   <si>
     <t xml:space="preserve">12.305272102356</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5427494049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6388263702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6660184860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9071207046509</t>
+    <t xml:space="preserve">12.5427484512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6388273239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6660175323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9071197509766</t>
   </si>
   <si>
     <t xml:space="preserve">13.0666475296021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0720863342285</t>
+    <t xml:space="preserve">13.0720853805542</t>
   </si>
   <si>
     <t xml:space="preserve">12.9868841171265</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0267639160156</t>
+    <t xml:space="preserve">13.0267648696899</t>
   </si>
   <si>
     <t xml:space="preserve">13.1065292358398</t>
@@ -4811,7 +4811,7 @@
     <t xml:space="preserve">13.1029033660889</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0521450042725</t>
+    <t xml:space="preserve">13.0521440505981</t>
   </si>
   <si>
     <t xml:space="preserve">12.8527364730835</t>
@@ -4820,10 +4820,10 @@
     <t xml:space="preserve">12.758472442627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8690519332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9542531967163</t>
+    <t xml:space="preserve">12.8690528869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.954252243042</t>
   </si>
   <si>
     <t xml:space="preserve">12.8436727523804</t>
@@ -4838,43 +4838,43 @@
     <t xml:space="preserve">12.4629850387573</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5481863021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4140405654907</t>
+    <t xml:space="preserve">12.5481872558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4140396118164</t>
   </si>
   <si>
     <t xml:space="preserve">12.6043844223022</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8346099853516</t>
+    <t xml:space="preserve">12.8346080780029</t>
   </si>
   <si>
     <t xml:space="preserve">13.0013866424561</t>
   </si>
   <si>
-    <t xml:space="preserve">13.369384765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3856992721558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4382705688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3150005340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3367547988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9615049362183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0068254470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9324989318848</t>
+    <t xml:space="preserve">13.3693838119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3856983184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.438271522522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3149995803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3367538452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9615058898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0068244934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9325008392334</t>
   </si>
   <si>
     <t xml:space="preserve">12.7929153442383</t>
@@ -4883,7 +4883,7 @@
     <t xml:space="preserve">12.1076774597168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9572153091431</t>
+    <t xml:space="preserve">11.9572143554688</t>
   </si>
   <si>
     <t xml:space="preserve">12.1457452774048</t>
@@ -4892,43 +4892,43 @@
     <t xml:space="preserve">12.1149291992188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9372749328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0949859619141</t>
+    <t xml:space="preserve">11.937273979187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0949878692627</t>
   </si>
   <si>
     <t xml:space="preserve">12.1765632629395</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2690162658691</t>
+    <t xml:space="preserve">12.2690153121948</t>
   </si>
   <si>
     <t xml:space="preserve">12.1656866073608</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1620607376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1384935379028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1729373931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.714301109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8194417953491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1577701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.023624420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2673225402832</t>
+    <t xml:space="preserve">12.1620616912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1384944915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1729383468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7143001556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8194427490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1577711105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0236225128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2673215866089</t>
   </si>
   <si>
     <t xml:space="preserve">11.5054807662964</t>
@@ -4937,61 +4937,61 @@
     <t xml:space="preserve">11.5184030532837</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4962501525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2359352111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.361475944519</t>
+    <t xml:space="preserve">11.4962491989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.235936164856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3614768981934</t>
   </si>
   <si>
     <t xml:space="preserve">11.5811738967896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.699330329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8950262069702</t>
+    <t xml:space="preserve">11.6993293762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8950271606445</t>
   </si>
   <si>
     <t xml:space="preserve">11.9134893417358</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3990383148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2864217758179</t>
+    <t xml:space="preserve">12.399037361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2864208221436</t>
   </si>
   <si>
     <t xml:space="preserve">12.4008846282959</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4987335205078</t>
+    <t xml:space="preserve">12.4987325668335</t>
   </si>
   <si>
     <t xml:space="preserve">12.7239685058594</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6150426864624</t>
+    <t xml:space="preserve">12.6150436401367</t>
   </si>
   <si>
     <t xml:space="preserve">12.7978162765503</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7405843734741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8125848770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8218173980713</t>
+    <t xml:space="preserve">12.7405834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8125858306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8218154907227</t>
   </si>
   <si>
     <t xml:space="preserve">12.6962757110596</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5393495559692</t>
+    <t xml:space="preserve">12.5393486022949</t>
   </si>
   <si>
     <t xml:space="preserve">12.7073526382446</t>
@@ -5000,16 +5000,16 @@
     <t xml:space="preserve">12.7553539276123</t>
   </si>
   <si>
-    <t xml:space="preserve">12.567042350769</t>
+    <t xml:space="preserve">12.5670433044434</t>
   </si>
   <si>
     <t xml:space="preserve">12.6888904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4451923370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.157187461853</t>
+    <t xml:space="preserve">12.4451942443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1571865081787</t>
   </si>
   <si>
     <t xml:space="preserve">12.0353374481201</t>
@@ -5030,22 +5030,22 @@
     <t xml:space="preserve">12.1793413162231</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3565759658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3196506500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2125720977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3658065795898</t>
+    <t xml:space="preserve">12.356575012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3196516036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2125730514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3658075332642</t>
   </si>
   <si>
     <t xml:space="preserve">12.314112663269</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4156551361084</t>
+    <t xml:space="preserve">12.4156541824341</t>
   </si>
   <si>
     <t xml:space="preserve">12.4531917572021</t>
@@ -5054,31 +5054,31 @@
     <t xml:space="preserve">12.5414056777954</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5451602935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2429790496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3799934387207</t>
+    <t xml:space="preserve">12.5451593399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2429800033569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.379994392395</t>
   </si>
   <si>
     <t xml:space="preserve">12.402515411377</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1115980148315</t>
+    <t xml:space="preserve">12.1115961074829</t>
   </si>
   <si>
     <t xml:space="preserve">11.6836652755737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0008611679077</t>
+    <t xml:space="preserve">12.0008602142334</t>
   </si>
   <si>
     <t xml:space="preserve">12.3330707550049</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2955322265625</t>
+    <t xml:space="preserve">12.2955331802368</t>
   </si>
   <si>
     <t xml:space="preserve">12.184796333313</t>
@@ -5096,10 +5096,10 @@
     <t xml:space="preserve">12.1622734069824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1866731643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2467346191406</t>
+    <t xml:space="preserve">12.186674118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.246732711792</t>
   </si>
   <si>
     <t xml:space="preserve">12.1791648864746</t>
@@ -5117,7 +5117,7 @@
     <t xml:space="preserve">12.0928268432617</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0083675384521</t>
+    <t xml:space="preserve">12.0083665847778</t>
   </si>
   <si>
     <t xml:space="preserve">12.1416273117065</t>
@@ -5126,31 +5126,31 @@
     <t xml:space="preserve">11.9614458084106</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0139999389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0947036743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3706092834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5864505767822</t>
+    <t xml:space="preserve">12.0139989852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0947046279907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3706083297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5864515304565</t>
   </si>
   <si>
     <t xml:space="preserve">12.6352500915527</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5470371246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2317190170288</t>
+    <t xml:space="preserve">12.5470361709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2317180633545</t>
   </si>
   <si>
     <t xml:space="preserve">12.248610496521</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3124256134033</t>
+    <t xml:space="preserve">12.312424659729</t>
   </si>
   <si>
     <t xml:space="preserve">12.4194078445435</t>
@@ -5159,16 +5159,16 @@
     <t xml:space="preserve">12.7009420394897</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7816476821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.599588394165</t>
+    <t xml:space="preserve">12.7816486358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5995893478394</t>
   </si>
   <si>
     <t xml:space="preserve">12.4757137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">12.603343963623</t>
+    <t xml:space="preserve">12.6033449172974</t>
   </si>
   <si>
     <t xml:space="preserve">12.7065725326538</t>
@@ -5183,22 +5183,22 @@
     <t xml:space="preserve">12.8661088943481</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7534942626953</t>
+    <t xml:space="preserve">12.7534952163696</t>
   </si>
   <si>
     <t xml:space="preserve">12.884877204895</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8173093795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0293979644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9280462265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8248167037964</t>
+    <t xml:space="preserve">12.8173084259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0293989181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9280452728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8248176574707</t>
   </si>
   <si>
     <t xml:space="preserve">12.879246711731</t>
@@ -5207,28 +5207,28 @@
     <t xml:space="preserve">12.8360786437988</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7872800827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2020721435547</t>
+    <t xml:space="preserve">12.7872791290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2020711898804</t>
   </si>
   <si>
     <t xml:space="preserve">13.2565021514893</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1833038330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1513967514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.072566986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1138572692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.170166015625</t>
+    <t xml:space="preserve">13.1833028793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1513957977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0725679397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1138591766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1701650619507</t>
   </si>
   <si>
     <t xml:space="preserve">13.2227191925049</t>
@@ -5240,7 +5240,7 @@
     <t xml:space="preserve">13.2077035903931</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2583789825439</t>
+    <t xml:space="preserve">13.2583799362183</t>
   </si>
   <si>
     <t xml:space="preserve">13.2827796936035</t>
@@ -5252,16 +5252,16 @@
     <t xml:space="preserve">13.4723453521729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.483606338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4047784805298</t>
+    <t xml:space="preserve">13.4836072921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4047775268555</t>
   </si>
   <si>
     <t xml:space="preserve">13.6431427001953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7032041549683</t>
+    <t xml:space="preserve">13.7032022476196</t>
   </si>
   <si>
     <t xml:space="preserve">13.9209222793579</t>
@@ -5270,13 +5270,13 @@
     <t xml:space="preserve">13.8815078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">13.832709312439</t>
+    <t xml:space="preserve">13.8327083587646</t>
   </si>
   <si>
     <t xml:space="preserve">13.8871393203735</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1255054473877</t>
+    <t xml:space="preserve">14.1255044937134</t>
   </si>
   <si>
     <t xml:space="preserve">14.1724271774292</t>
@@ -5285,28 +5285,28 @@
     <t xml:space="preserve">14.1911954879761</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4239311218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3920230865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2757120132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5865106582642</t>
+    <t xml:space="preserve">14.4239301681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3920240402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2757129669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5865097045898</t>
   </si>
   <si>
     <t xml:space="preserve">14.5254945755005</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3157529830933</t>
+    <t xml:space="preserve">14.3157539367676</t>
   </si>
   <si>
     <t xml:space="preserve">14.5274019241333</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5083341598511</t>
+    <t xml:space="preserve">14.5083351135254</t>
   </si>
   <si>
     <t xml:space="preserve">14.4702005386353</t>
@@ -5315,25 +5315,25 @@
     <t xml:space="preserve">14.6551523208618</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7009143829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5445623397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2051630020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.041184425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.82190990448</t>
+    <t xml:space="preserve">14.7009134292603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5445613861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2051620483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0411834716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8219108581543</t>
   </si>
   <si>
     <t xml:space="preserve">13.7666139602661</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9572887420654</t>
+    <t xml:space="preserve">13.9572877883911</t>
   </si>
   <si>
     <t xml:space="preserve">14.2738056182861</t>
@@ -5342,13 +5342,13 @@
     <t xml:space="preserve">14.4435043334961</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3824901580811</t>
+    <t xml:space="preserve">14.3824911117554</t>
   </si>
   <si>
     <t xml:space="preserve">14.5826959609985</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7752771377563</t>
+    <t xml:space="preserve">14.775276184082</t>
   </si>
   <si>
     <t xml:space="preserve">14.7581157684326</t>
@@ -5357,10 +5357,10 @@
     <t xml:space="preserve">14.8076906204224</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9106559753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7314224243164</t>
+    <t xml:space="preserve">14.9106550216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7314214706421</t>
   </si>
   <si>
     <t xml:space="preserve">14.6799392700195</t>
@@ -5399,28 +5399,28 @@
     <t xml:space="preserve">14.1346139907837</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2394847869873</t>
+    <t xml:space="preserve">14.239483833313</t>
   </si>
   <si>
     <t xml:space="preserve">14.2985935211182</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5216808319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5388422012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4816398620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.167028427124</t>
+    <t xml:space="preserve">14.5216817855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5388412475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4816389083862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1670274734497</t>
   </si>
   <si>
     <t xml:space="preserve">14.5307540893555</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4591064453125</t>
+    <t xml:space="preserve">14.4591073989868</t>
   </si>
   <si>
     <t xml:space="preserve">14.2557849884033</t>
@@ -5429,25 +5429,25 @@
     <t xml:space="preserve">14.4610433578491</t>
   </si>
   <si>
-    <t xml:space="preserve">14.588846206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5520544052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.71471118927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6275730133057</t>
+    <t xml:space="preserve">14.5888452529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5520534515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7147121429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.62757396698</t>
   </si>
   <si>
     <t xml:space="preserve">14.6856660842896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7650585174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4842796325684</t>
+    <t xml:space="preserve">14.7650575637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4842805862427</t>
   </si>
   <si>
     <t xml:space="preserve">14.610146522522</t>
@@ -5465,7 +5465,7 @@
     <t xml:space="preserve">14.5075168609619</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3332414627075</t>
+    <t xml:space="preserve">14.3332405090332</t>
   </si>
   <si>
     <t xml:space="preserve">14.2809581756592</t>
@@ -5474,16 +5474,16 @@
     <t xml:space="preserve">14.3758411407471</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429231643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5152626037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5481815338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7205219268799</t>
+    <t xml:space="preserve">14.3429222106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5152616500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5481805801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7205209732056</t>
   </si>
   <si>
     <t xml:space="preserve">14.7166481018066</t>
@@ -5492,7 +5492,7 @@
     <t xml:space="preserve">14.8018493652344</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9451427459717</t>
+    <t xml:space="preserve">14.945143699646</t>
   </si>
   <si>
     <t xml:space="preserve">14.8696241378784</t>
@@ -5507,25 +5507,25 @@
     <t xml:space="preserve">14.9470796585083</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0264730453491</t>
+    <t xml:space="preserve">15.0264720916748</t>
   </si>
   <si>
     <t xml:space="preserve">15.0458364486694</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6004648208618</t>
+    <t xml:space="preserve">14.6004638671875</t>
   </si>
   <si>
     <t xml:space="preserve">14.4494247436523</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4106960296631</t>
+    <t xml:space="preserve">14.4106969833374</t>
   </si>
   <si>
     <t xml:space="preserve">14.3409862518311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5636730194092</t>
+    <t xml:space="preserve">14.5636720657349</t>
   </si>
   <si>
     <t xml:space="preserve">14.5191354751587</t>
@@ -5543,19 +5543,19 @@
     <t xml:space="preserve">13.9904975891113</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8839950561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9014234542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0292263031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1028099060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2867660522461</t>
+    <t xml:space="preserve">13.8839960098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9014225006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0292253494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1028089523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2867670059204</t>
   </si>
   <si>
     <t xml:space="preserve">14.4455518722534</t>
@@ -5570,13 +5570,13 @@
     <t xml:space="preserve">13.9169139862061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1376647949219</t>
+    <t xml:space="preserve">14.1376638412476</t>
   </si>
   <si>
     <t xml:space="preserve">13.9130411148071</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9091682434082</t>
+    <t xml:space="preserve">13.9091691970825</t>
   </si>
   <si>
     <t xml:space="preserve">13.8394584655762</t>
@@ -5588,13 +5588,13 @@
     <t xml:space="preserve">14.009861946106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0408449172974</t>
+    <t xml:space="preserve">14.040843963623</t>
   </si>
   <si>
     <t xml:space="preserve">14.1396007537842</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7039108276367</t>
+    <t xml:space="preserve">13.7039098739624</t>
   </si>
   <si>
     <t xml:space="preserve">13.7194013595581</t>
@@ -5603,7 +5603,7 @@
     <t xml:space="preserve">13.6826095581055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8472032546997</t>
+    <t xml:space="preserve">13.847204208374</t>
   </si>
   <si>
     <t xml:space="preserve">13.7774934768677</t>
@@ -5627,7 +5627,7 @@
     <t xml:space="preserve">13.8723773956299</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9304695129395</t>
+    <t xml:space="preserve">13.9304685592651</t>
   </si>
   <si>
     <t xml:space="preserve">14.0466537475586</t>
@@ -5636,25 +5636,25 @@
     <t xml:space="preserve">14.1628379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1667098999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2344846725464</t>
+    <t xml:space="preserve">14.1667108535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2344837188721</t>
   </si>
   <si>
     <t xml:space="preserve">14.0950632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2248020172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5017080307007</t>
+    <t xml:space="preserve">14.2248029708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5017070770264</t>
   </si>
   <si>
     <t xml:space="preserve">14.0602083206177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0447158813477</t>
+    <t xml:space="preserve">14.044716835022</t>
   </si>
   <si>
     <t xml:space="preserve">13.9954919815063</t>
@@ -5886,6 +5886,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.3020000457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1120004653931</t>
   </si>
 </sst>
 </file>
@@ -62569,7 +62572,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.649375</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>8219157</v>
@@ -62590,6 +62593,32 @@
         <v>1957</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6507638889</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>7666601</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>14.2880001068115</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>14.1059999465942</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>14.2799997329712</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>14.1120004653931</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENI.MI.xlsx
+++ b/data/ENI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="1963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="1964">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,190 +38,190 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95015859603882</t>
+    <t xml:space="preserve">7.95016002655029</t>
   </si>
   <si>
     <t xml:space="preserve">ENI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02119445800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79624795913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73705005645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51802158355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48842144012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50618076324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59497690200806</t>
+    <t xml:space="preserve">8.02119731903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79624652862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73705053329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5180230140686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4884204864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50618028640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59497833251953</t>
   </si>
   <si>
     <t xml:space="preserve">7.70153093338013</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4292254447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34634828567505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44698429107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19835615158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67785263061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58313751220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74296951293945</t>
+    <t xml:space="preserve">7.42922639846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34635019302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44698667526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19835567474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67785310745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58313798904419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74297142028809</t>
   </si>
   <si>
     <t xml:space="preserve">7.77848768234253</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86136388778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40554571151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37594890594482</t>
+    <t xml:space="preserve">7.86136293411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40554618835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37594747543335</t>
   </si>
   <si>
     <t xml:space="preserve">7.54170083999634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41738557815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15100002288818</t>
+    <t xml:space="preserve">7.41738605499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15099906921387</t>
   </si>
   <si>
     <t xml:space="preserve">6.86685466766357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8846116065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47023391723633</t>
+    <t xml:space="preserve">6.88461399078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47023487091064</t>
   </si>
   <si>
     <t xml:space="preserve">6.90237188339233</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06812524795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0148458480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23979616165161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08588409423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05628347396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31083059310913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97340631484985</t>
+    <t xml:space="preserve">7.06812238693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01484727859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23979473114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08588218688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0562858581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31083154678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9734091758728</t>
   </si>
   <si>
     <t xml:space="preserve">7.15691995620728</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52394104003906</t>
+    <t xml:space="preserve">7.52394199371338</t>
   </si>
   <si>
     <t xml:space="preserve">7.66601276397705</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90280342102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96199750900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06855583190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0152759552002</t>
+    <t xml:space="preserve">7.90280103683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96199798583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06855201721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01527690887451</t>
   </si>
   <si>
     <t xml:space="preserve">8.0448751449585</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84360504150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93239974975586</t>
+    <t xml:space="preserve">7.84360599517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93240165710449</t>
   </si>
   <si>
     <t xml:space="preserve">7.66009426116943</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88504076004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92648029327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81400489807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91464138031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05671691894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12775135040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16918849945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97383689880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78440713882446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0034351348877</t>
+    <t xml:space="preserve">7.88504266738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92647981643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81400632858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91464185714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05671501159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1277494430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16918659210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97383880615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78440809249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00343704223633</t>
   </si>
   <si>
     <t xml:space="preserve">7.87320470809937</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57129859924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55353784561157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36410999298096</t>
+    <t xml:space="preserve">7.57129764556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55353879928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36410856246948</t>
   </si>
   <si>
     <t xml:space="preserve">7.44106483459473</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2930736541748</t>
+    <t xml:space="preserve">7.29307317733765</t>
   </si>
   <si>
     <t xml:space="preserve">7.60681676864624</t>
@@ -233,25 +233,25 @@
     <t xml:space="preserve">7.6719331741333</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97975730895996</t>
+    <t xml:space="preserve">7.97975873947144</t>
   </si>
   <si>
     <t xml:space="preserve">8.12183094024658</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99159717559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09223079681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22246646881104</t>
+    <t xml:space="preserve">7.99159812927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0922327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22246742248535</t>
   </si>
   <si>
     <t xml:space="preserve">8.32901954650879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37637901306152</t>
+    <t xml:space="preserve">8.37637805938721</t>
   </si>
   <si>
     <t xml:space="preserve">8.33493995666504</t>
@@ -260,16 +260,16 @@
     <t xml:space="preserve">8.37045860290527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44741344451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52437019348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40597438812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25798416137695</t>
+    <t xml:space="preserve">8.44741535186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52436923980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40597724914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25798320770264</t>
   </si>
   <si>
     <t xml:space="preserve">8.08631229400635</t>
@@ -278,19 +278,19 @@
     <t xml:space="preserve">7.92056274414062</t>
   </si>
   <si>
-    <t xml:space="preserve">8.033034324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10407066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80808687210083</t>
+    <t xml:space="preserve">8.03303623199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10407161712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80808591842651</t>
   </si>
   <si>
     <t xml:space="preserve">7.90188932418823</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14596557617188</t>
+    <t xml:space="preserve">8.14596462249756</t>
   </si>
   <si>
     <t xml:space="preserve">8.42665004730225</t>
@@ -305,154 +305,154 @@
     <t xml:space="preserve">8.50597190856934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37783432006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26189994812012</t>
+    <t xml:space="preserve">8.37783527374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26190090179443</t>
   </si>
   <si>
     <t xml:space="preserve">8.25579738616943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18867778778076</t>
+    <t xml:space="preserve">8.18867588043213</t>
   </si>
   <si>
     <t xml:space="preserve">8.40224170684814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59750270843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62190914154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57919692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20698261260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05443477630615</t>
+    <t xml:space="preserve">8.59750175476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62190818786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57919597625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20698165893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0544376373291</t>
   </si>
   <si>
     <t xml:space="preserve">8.15816879272461</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07274150848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39003944396973</t>
+    <t xml:space="preserve">8.07274055480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39003849029541</t>
   </si>
   <si>
     <t xml:space="preserve">8.64021492004395</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75004863739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61580657958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89649200439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07884502410889</t>
+    <t xml:space="preserve">8.7500467300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61580753326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89649105072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07884407043457</t>
   </si>
   <si>
     <t xml:space="preserve">8.33512115478516</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7256383895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85987949371338</t>
+    <t xml:space="preserve">8.72564125061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85988235473633</t>
   </si>
   <si>
     <t xml:space="preserve">9.04293632507324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79276084899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62800979614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67682647705078</t>
+    <t xml:space="preserve">8.79276180267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62801074981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67682552337646</t>
   </si>
   <si>
     <t xml:space="preserve">8.84767627716064</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95140933990479</t>
+    <t xml:space="preserve">8.95140838623047</t>
   </si>
   <si>
     <t xml:space="preserve">9.03683376312256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92700004577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09175109863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98191738128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88428974151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85378074645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76835250854492</t>
+    <t xml:space="preserve">8.92700290679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09175205230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98191928863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88428592681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85377979278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76835441589355</t>
   </si>
   <si>
     <t xml:space="preserve">8.71953868865967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6829252243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56089115142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56699085235596</t>
+    <t xml:space="preserve">8.68292808532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56089019775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56699180603027</t>
   </si>
   <si>
     <t xml:space="preserve">8.34122371673584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34732723236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18257617950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01172256469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06663990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08494663238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28020668029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26800060272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24359607696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35953140258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38393592834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21918678283691</t>
+    <t xml:space="preserve">8.34732532501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18257713317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01172351837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06664276123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08494758605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28020572662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2680025100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24359512329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35952854156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38393688201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21918773651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.2008810043335</t>
@@ -461,55 +461,55 @@
     <t xml:space="preserve">8.31071472167969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30461311340332</t>
+    <t xml:space="preserve">8.30461120605469</t>
   </si>
   <si>
     <t xml:space="preserve">8.37173366546631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27410316467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99951982498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02392768859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06053924560547</t>
+    <t xml:space="preserve">8.27410411834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99952030181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02392864227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06053829193115</t>
   </si>
   <si>
     <t xml:space="preserve">7.87748432159424</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99712562561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85229635238647</t>
+    <t xml:space="preserve">7.99712705612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85229587554932</t>
   </si>
   <si>
     <t xml:space="preserve">7.87748336791992</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96564054489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93415689468384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7893271446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75154399871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77673149108887</t>
+    <t xml:space="preserve">7.96563911437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93415451049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78932666778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75154495239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77673244476318</t>
   </si>
   <si>
     <t xml:space="preserve">8.13565921783447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07268810272217</t>
+    <t xml:space="preserve">8.07268905639648</t>
   </si>
   <si>
     <t xml:space="preserve">8.11676788330078</t>
@@ -518,133 +518,133 @@
     <t xml:space="preserve">8.16714382171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35605144500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36864471435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56385040283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40013122558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34345817565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28678512573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45050621032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38123989105225</t>
+    <t xml:space="preserve">8.35605239868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3686466217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56385135650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40013027191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3434591293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28678607940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45050525665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38123893737793</t>
   </si>
   <si>
     <t xml:space="preserve">8.5323657989502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55755424499512</t>
+    <t xml:space="preserve">8.5575532913208</t>
   </si>
   <si>
     <t xml:space="preserve">8.64571189880371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67089939117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61422729492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52606964111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65830707550049</t>
+    <t xml:space="preserve">8.6708984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61422538757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5260705947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65830516815186</t>
   </si>
   <si>
     <t xml:space="preserve">8.50718021392822</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31827068328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18603610992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06639194488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0034236907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92785978317261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04120445251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09157943725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06009483337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02861022949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90267181396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72006034851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87118816375732</t>
+    <t xml:space="preserve">8.31826877593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18603515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06639099121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00342178344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92786026000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04120635986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09158039093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06009578704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0286111831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90267324447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72005987167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87118625640869</t>
   </si>
   <si>
     <t xml:space="preserve">7.82081079483032</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79562425613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91526508331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92156171798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97193765640259</t>
+    <t xml:space="preserve">7.79562282562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91526556015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92156362533569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9719386100769</t>
   </si>
   <si>
     <t xml:space="preserve">8.27419090270996</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57014846801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62052345275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79054164886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87869644165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96055698394775</t>
+    <t xml:space="preserve">8.57014656066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62052249908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79054069519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87869834899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96055889129639</t>
   </si>
   <si>
     <t xml:space="preserve">8.97315406799316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30689144134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40134716033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36985969543457</t>
+    <t xml:space="preserve">9.3068904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40134525299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36986064910889</t>
   </si>
   <si>
     <t xml:space="preserve">9.42653369903564</t>
@@ -656,34 +656,34 @@
     <t xml:space="preserve">9.42023658752441</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53987789154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55247116088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65952014923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64063167572021</t>
+    <t xml:space="preserve">9.53987884521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55247211456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65952110290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64062881469727</t>
   </si>
   <si>
     <t xml:space="preserve">9.72248935699463</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74138259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84842777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84213161468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87991428375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8988037109375</t>
+    <t xml:space="preserve">9.74138069152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84842967987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84212970733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87991237640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89880466461182</t>
   </si>
   <si>
     <t xml:space="preserve">9.69100570678711</t>
@@ -692,40 +692,40 @@
     <t xml:space="preserve">9.79175472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78545761108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73508262634277</t>
+    <t xml:space="preserve">9.78545951843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73508548736572</t>
   </si>
   <si>
     <t xml:space="preserve">9.8673210144043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69730186462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80434894561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76656913757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66581916809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41393947601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30059242248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06130981445312</t>
+    <t xml:space="preserve">9.69730281829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80434989929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76657009124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6658182144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41393852233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30059432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06131076812744</t>
   </si>
   <si>
     <t xml:space="preserve">8.94796466827393</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89758968353271</t>
+    <t xml:space="preserve">8.8975887298584</t>
   </si>
   <si>
     <t xml:space="preserve">8.91648101806641</t>
@@ -734,25 +734,25 @@
     <t xml:space="preserve">9.14946842193604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94166660308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90388584136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04241943359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06760692596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15576362609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05501461029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89129161834717</t>
+    <t xml:space="preserve">8.94166851043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90388679504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04242038726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06760501861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15576457977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05501365661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8912935256958</t>
   </si>
   <si>
     <t xml:space="preserve">9.18095207214355</t>
@@ -761,73 +761,73 @@
     <t xml:space="preserve">9.0739049911499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00463581085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14316940307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44542407989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45172119140625</t>
+    <t xml:space="preserve">9.00463771820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14317321777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4454231262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45172309875488</t>
   </si>
   <si>
     <t xml:space="preserve">9.61544227600098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50209808349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31948566436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25651359558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21243667602539</t>
+    <t xml:space="preserve">9.50209522247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31948661804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25651550292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21243953704834</t>
   </si>
   <si>
     <t xml:space="preserve">9.22502994537354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11168575286865</t>
+    <t xml:space="preserve">9.11168670654297</t>
   </si>
   <si>
     <t xml:space="preserve">9.23762512207031</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39504718780518</t>
+    <t xml:space="preserve">9.39504814147949</t>
   </si>
   <si>
     <t xml:space="preserve">9.3509693145752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37615966796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46431636810303</t>
+    <t xml:space="preserve">9.37615776062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46431446075439</t>
   </si>
   <si>
     <t xml:space="preserve">9.43912696838379</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52098751068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64692497253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59025382995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58395767211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59655094146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24392127990723</t>
+    <t xml:space="preserve">9.52098941802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6469259262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59025287628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58395671844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5965518951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24392318725586</t>
   </si>
   <si>
     <t xml:space="preserve">9.25021839141846</t>
@@ -836,46 +836,46 @@
     <t xml:space="preserve">9.41513442993164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37628173828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27267646789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24029922485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25972557067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22087383270264</t>
+    <t xml:space="preserve">9.37628078460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27267551422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24030113220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25972652435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22087287902832</t>
   </si>
   <si>
     <t xml:space="preserve">9.21439933776855</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44751358032227</t>
+    <t xml:space="preserve">9.44751167297363</t>
   </si>
   <si>
     <t xml:space="preserve">9.54464149475098</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59644317626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64824771881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64177131652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71299934387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74537754058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62234497070312</t>
+    <t xml:space="preserve">9.59644412994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64824676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.641770362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71299839019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74537658691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62234401702881</t>
   </si>
   <si>
     <t xml:space="preserve">9.73890113830566</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">9.70652484893799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66767406463623</t>
+    <t xml:space="preserve">9.6676721572876</t>
   </si>
   <si>
     <t xml:space="preserve">9.48636245727539</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">9.26620197296143</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24677562713623</t>
+    <t xml:space="preserve">9.24677467346191</t>
   </si>
   <si>
     <t xml:space="preserve">9.12374496459961</t>
@@ -905,61 +905,61 @@
     <t xml:space="preserve">9.23382472991943</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09784507751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03956508636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11079406738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92948532104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99423694610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00071239471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06546688079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96833515167236</t>
+    <t xml:space="preserve">9.09784317016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03956317901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1107931137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92948341369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99423980712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00071334838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06546592712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.968337059021</t>
   </si>
   <si>
     <t xml:space="preserve">8.91653442382812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00718784332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82588005065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87120723724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84530448913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79350185394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80645275115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75464916229248</t>
+    <t xml:space="preserve">9.00718593597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82587909698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87120628356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84530353546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79350090026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80645179748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7546501159668</t>
   </si>
   <si>
     <t xml:space="preserve">8.78055191040039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61219310760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52153873443604</t>
+    <t xml:space="preserve">8.61219501495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52153778076172</t>
   </si>
   <si>
     <t xml:space="preserve">8.62514400482178</t>
@@ -968,16 +968,16 @@
     <t xml:space="preserve">8.65104389190674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5280122756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47621154785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39203262329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41793537139893</t>
+    <t xml:space="preserve">8.52801322937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47621059417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3920316696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41793441772461</t>
   </si>
   <si>
     <t xml:space="preserve">8.3985071182251</t>
@@ -986,58 +986,58 @@
     <t xml:space="preserve">8.54096412658691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55391502380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57334041595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50858783721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50211143493652</t>
-  </si>
-  <si>
